--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/hmcts/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001A382D-D907-BA49-A7BE-8F2540D2D6F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8F4B9-DDC3-2444-BAB9-403757FD87C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="42740" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" firstSheet="2" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9234" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9339" uniqueCount="1218">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3773,6 +3773,24 @@
   <si>
     <t>Must match ID of AccessProfile or CaseRole.  If it doesn’t have a Row below that means no access to.
 MaxLength: 100.</t>
+  </si>
+  <si>
+    <t>FT_CRUD</t>
+  </si>
+  <si>
+    <t>FT- CRUD</t>
+  </si>
+  <si>
+    <t>Case Type for testing CRUD</t>
+  </si>
+  <si>
+    <t>CRUD Fields</t>
+  </si>
+  <si>
+    <t>CUD</t>
+  </si>
+  <si>
+    <t>UserRole</t>
   </si>
 </sst>
 </file>
@@ -4522,7 +4540,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="574">
+  <cellXfs count="572">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5736,12 +5754,6 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14780,7 +14792,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L91" totalsRowShown="0" headerRowDxfId="222" dataDxfId="220" headerRowBorderDxfId="221" tableBorderDxfId="219" totalsRowBorderDxfId="218">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L92" totalsRowShown="0" headerRowDxfId="222" dataDxfId="220" headerRowBorderDxfId="221" tableBorderDxfId="219" totalsRowBorderDxfId="218">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="217"/>
     <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="216"/>
@@ -14985,12 +14997,12 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E40" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E38" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="55"/>
     <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="AccessProfile" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="53"/>
     <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15004,7 +15016,7 @@
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="45"/>
     <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="44"/>
     <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="AccessProfile" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="42"/>
     <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15030,7 +15042,7 @@
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="AccessProfile" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15044,7 +15056,7 @@
     <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="AccessProfile" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15144,7 +15156,7 @@
     <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="271"/>
     <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="270"/>
     <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="269"/>
-    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="AccessProfile" dataDxfId="268"/>
+    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="268"/>
     <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="267"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16626,29 +16638,29 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1" ht="42">
-      <c r="A10" s="471"/>
-      <c r="B10" s="561" t="s">
+      <c r="A10" s="469"/>
+      <c r="B10" s="559" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="472" t="s">
+      <c r="C10" s="470" t="s">
         <v>740</v>
       </c>
-      <c r="D10" s="473">
+      <c r="D10" s="471">
         <v>7</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="F10" s="474" t="s">
+      <c r="F10" s="472" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="473" t="s">
+      <c r="G10" s="471" t="s">
         <v>742</v>
       </c>
-      <c r="H10" s="475" t="s">
+      <c r="H10" s="473" t="s">
         <v>761</v>
       </c>
-      <c r="I10" s="473" t="s">
+      <c r="I10" s="471" t="s">
         <v>762</v>
       </c>
     </row>
@@ -16745,10 +16757,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CR91"/>
+  <dimension ref="A1:CR92"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView showGridLines="0" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -18578,7 +18590,7 @@
       <c r="G58" s="383">
         <v>1</v>
       </c>
-      <c r="H58" s="562" t="s">
+      <c r="H58" s="560" t="s">
         <v>349</v>
       </c>
       <c r="I58" s="383">
@@ -19475,7 +19487,7 @@
       <c r="G85" s="61">
         <v>1</v>
       </c>
-      <c r="H85" s="503" t="s">
+      <c r="H85" s="501" t="s">
         <v>150</v>
       </c>
       <c r="I85" s="61">
@@ -19505,7 +19517,7 @@
       <c r="G86" s="61">
         <v>1</v>
       </c>
-      <c r="H86" s="504" t="s">
+      <c r="H86" s="502" t="s">
         <v>154</v>
       </c>
       <c r="I86" s="61">
@@ -19535,7 +19547,7 @@
       <c r="G87" s="61">
         <v>1</v>
       </c>
-      <c r="H87" s="503" t="s">
+      <c r="H87" s="501" t="s">
         <v>157</v>
       </c>
       <c r="I87" s="61">
@@ -19565,7 +19577,7 @@
       <c r="G88" s="61">
         <v>1</v>
       </c>
-      <c r="H88" s="505" t="s">
+      <c r="H88" s="503" t="s">
         <v>224</v>
       </c>
       <c r="I88" s="61">
@@ -19595,7 +19607,7 @@
       <c r="G89" s="61">
         <v>1</v>
       </c>
-      <c r="H89" s="506" t="s">
+      <c r="H89" s="504" t="s">
         <v>236</v>
       </c>
       <c r="I89" s="61">
@@ -19605,49 +19617,95 @@
       <c r="K89" s="61"/>
       <c r="L89" s="62"/>
     </row>
-    <row r="90" spans="1:12" s="517" customFormat="1" ht="20" customHeight="1">
-      <c r="A90" s="513">
+    <row r="90" spans="1:12" s="515" customFormat="1" ht="20" customHeight="1">
+      <c r="A90" s="511">
         <v>42745</v>
       </c>
-      <c r="B90" s="526"/>
-      <c r="C90" s="511" t="s">
+      <c r="B90" s="524"/>
+      <c r="C90" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="526" t="s">
+      <c r="D90" s="524" t="s">
         <v>780</v>
       </c>
-      <c r="E90" s="518" t="s">
+      <c r="E90" s="516" t="s">
         <v>782</v>
       </c>
-      <c r="F90" s="518" t="s">
+      <c r="F90" s="516" t="s">
         <v>782</v>
       </c>
-      <c r="G90" s="527">
+      <c r="G90" s="525">
         <v>1</v>
       </c>
-      <c r="H90" s="528" t="s">
+      <c r="H90" s="526" t="s">
         <v>150</v>
       </c>
-      <c r="I90" s="527">
+      <c r="I90" s="525">
         <v>1</v>
       </c>
-      <c r="J90" s="526"/>
-      <c r="K90" s="527"/>
-      <c r="L90" s="527"/>
+      <c r="J90" s="524"/>
+      <c r="K90" s="525"/>
+      <c r="L90" s="525"/>
     </row>
     <row r="91" spans="1:12" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A91" s="451"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="66"/>
+      <c r="A91" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B91" s="61"/>
+      <c r="C91" s="270" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D91" s="60" t="s">
+        <v>780</v>
+      </c>
+      <c r="E91" s="61" t="s">
+        <v>820</v>
+      </c>
+      <c r="F91" s="61" t="s">
+        <v>820</v>
+      </c>
+      <c r="G91" s="61">
+        <v>1</v>
+      </c>
+      <c r="H91" s="503" t="s">
+        <v>150</v>
+      </c>
+      <c r="I91" s="61">
+        <v>1</v>
+      </c>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="62"/>
+    </row>
+    <row r="92" spans="1:12" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A92" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="61"/>
+      <c r="C92" s="270" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D92" s="60" t="s">
+        <v>780</v>
+      </c>
+      <c r="E92" s="61" t="s">
+        <v>820</v>
+      </c>
+      <c r="F92" s="61" t="s">
+        <v>820</v>
+      </c>
+      <c r="G92" s="61">
+        <v>1</v>
+      </c>
+      <c r="H92" s="504" t="s">
+        <v>265</v>
+      </c>
+      <c r="I92" s="61">
+        <v>1</v>
+      </c>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="62"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -19668,10 +19726,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:FH46"/>
+  <dimension ref="A1:FH47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -20559,7 +20617,7 @@
         <v>42736</v>
       </c>
       <c r="B36" s="59"/>
-      <c r="C36" s="477" t="s">
+      <c r="C36" s="475" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="60" t="s">
@@ -20579,7 +20637,7 @@
         <v>42736</v>
       </c>
       <c r="B37" s="59"/>
-      <c r="C37" s="477" t="s">
+      <c r="C37" s="475" t="s">
         <v>88</v>
       </c>
       <c r="D37" s="60" t="s">
@@ -20599,7 +20657,7 @@
         <v>42736</v>
       </c>
       <c r="B38" s="59"/>
-      <c r="C38" s="477" t="s">
+      <c r="C38" s="475" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="60" t="s">
@@ -20714,65 +20772,85 @@
       </c>
       <c r="H43" s="360"/>
     </row>
-    <row r="44" spans="1:8" s="534" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A44" s="560">
-        <v>42736</v>
-      </c>
-      <c r="B44" s="529"/>
-      <c r="C44" s="530" t="s">
+    <row r="44" spans="1:8" s="532" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A44" s="558">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="527"/>
+      <c r="C44" s="528" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="531" t="s">
+      <c r="D44" s="529" t="s">
         <v>830</v>
       </c>
-      <c r="E44" s="532" t="s">
+      <c r="E44" s="530" t="s">
         <v>861</v>
       </c>
-      <c r="F44" s="532"/>
-      <c r="G44" s="530">
+      <c r="F44" s="530"/>
+      <c r="G44" s="528">
         <v>1</v>
       </c>
-      <c r="H44" s="533"/>
-    </row>
-    <row r="45" spans="1:8" s="534" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A45" s="560">
-        <v>42736</v>
-      </c>
-      <c r="B45" s="529"/>
-      <c r="C45" s="530" t="s">
+      <c r="H44" s="531"/>
+    </row>
+    <row r="45" spans="1:8" s="532" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A45" s="558">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="527"/>
+      <c r="C45" s="528" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="531" t="s">
+      <c r="D45" s="529" t="s">
         <v>832</v>
       </c>
-      <c r="E45" s="532" t="s">
+      <c r="E45" s="530" t="s">
         <v>855</v>
       </c>
-      <c r="F45" s="532"/>
-      <c r="G45" s="530">
+      <c r="F45" s="530"/>
+      <c r="G45" s="528">
         <v>1</v>
       </c>
-      <c r="H45" s="533"/>
-    </row>
-    <row r="46" spans="1:8" s="534" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A46" s="560">
-        <v>42736</v>
-      </c>
-      <c r="B46" s="529"/>
-      <c r="C46" s="530" t="s">
+      <c r="H45" s="531"/>
+    </row>
+    <row r="46" spans="1:8" s="532" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A46" s="558">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="527"/>
+      <c r="C46" s="528" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="531" t="s">
+      <c r="D46" s="529" t="s">
         <v>856</v>
       </c>
-      <c r="E46" s="532" t="s">
+      <c r="E46" s="530" t="s">
         <v>857</v>
       </c>
-      <c r="F46" s="532"/>
-      <c r="G46" s="530">
+      <c r="F46" s="530"/>
+      <c r="G46" s="528">
         <v>1</v>
       </c>
-      <c r="H46" s="533"/>
+      <c r="H46" s="531"/>
+    </row>
+    <row r="47" spans="1:8" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A47" s="304">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="304"/>
+      <c r="C47" s="65" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D47" s="305" t="s">
+        <v>830</v>
+      </c>
+      <c r="E47" s="305" t="s">
+        <v>831</v>
+      </c>
+      <c r="F47" s="360"/>
+      <c r="G47" s="392">
+        <v>1</v>
+      </c>
+      <c r="H47" s="360"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -20793,10 +20871,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -20922,10 +21000,10 @@
       <c r="U2" s="40" t="s">
         <v>880</v>
       </c>
-      <c r="V2" s="498" t="s">
+      <c r="V2" s="496" t="s">
         <v>881</v>
       </c>
-      <c r="W2" s="497"/>
+      <c r="W2" s="495"/>
     </row>
     <row r="3" spans="1:23" s="333" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="362" t="s">
@@ -21020,7 +21098,7 @@
         <v>830</v>
       </c>
       <c r="J4" s="54"/>
-      <c r="K4" s="499" t="s">
+      <c r="K4" s="497" t="s">
         <v>896</v>
       </c>
       <c r="L4" s="98"/>
@@ -21112,7 +21190,7 @@
         <v>830</v>
       </c>
       <c r="J6" s="54"/>
-      <c r="K6" s="478"/>
+      <c r="K6" s="476"/>
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
       <c r="N6" s="98"/>
@@ -21473,7 +21551,7 @@
       <c r="U14" s="54"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:23" s="479" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:23" s="477" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="304">
         <v>42736</v>
       </c>
@@ -21498,7 +21576,7 @@
         <v>830</v>
       </c>
       <c r="J15" s="305"/>
-      <c r="K15" s="478"/>
+      <c r="K15" s="476"/>
       <c r="L15" s="401"/>
       <c r="M15" s="401"/>
       <c r="N15" s="401"/>
@@ -22382,7 +22460,7 @@
         <v>847</v>
       </c>
       <c r="J35" s="60"/>
-      <c r="K35" s="499" t="s">
+      <c r="K35" s="497" t="s">
         <v>943</v>
       </c>
       <c r="L35" s="100"/>
@@ -22430,7 +22508,7 @@
         <v>847</v>
       </c>
       <c r="J36" s="60"/>
-      <c r="K36" s="500" t="s">
+      <c r="K36" s="498" t="s">
         <v>947</v>
       </c>
       <c r="L36" s="100"/>
@@ -22749,100 +22827,100 @@
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
     </row>
-    <row r="44" spans="1:22" s="490" customFormat="1" ht="17" customHeight="1">
-      <c r="A44" s="481">
-        <v>42736</v>
-      </c>
-      <c r="B44" s="482"/>
-      <c r="C44" s="482" t="s">
+    <row r="44" spans="1:22" s="488" customFormat="1" ht="17" customHeight="1">
+      <c r="A44" s="479">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="480"/>
+      <c r="C44" s="480" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="483" t="s">
+      <c r="D44" s="481" t="s">
         <v>646</v>
       </c>
-      <c r="E44" s="483" t="s">
+      <c r="E44" s="481" t="s">
         <v>897</v>
       </c>
-      <c r="F44" s="484" t="s">
+      <c r="F44" s="482" t="s">
         <v>897</v>
       </c>
-      <c r="G44" s="485">
+      <c r="G44" s="483">
         <v>2</v>
       </c>
-      <c r="H44" s="486" t="s">
+      <c r="H44" s="484" t="s">
         <v>830</v>
       </c>
-      <c r="I44" s="486" t="s">
+      <c r="I44" s="484" t="s">
         <v>961</v>
       </c>
-      <c r="J44" s="484" t="s">
+      <c r="J44" s="482" t="s">
         <v>962</v>
       </c>
-      <c r="K44" s="487"/>
-      <c r="L44" s="487"/>
-      <c r="M44" s="487"/>
-      <c r="N44" s="487"/>
-      <c r="O44" s="487"/>
-      <c r="P44" s="487"/>
-      <c r="Q44" s="486" t="s">
+      <c r="K44" s="485"/>
+      <c r="L44" s="485"/>
+      <c r="M44" s="485"/>
+      <c r="N44" s="485"/>
+      <c r="O44" s="485"/>
+      <c r="P44" s="485"/>
+      <c r="Q44" s="484" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="486" t="s">
+      <c r="R44" s="484" t="s">
         <v>233</v>
       </c>
-      <c r="S44" s="488"/>
-      <c r="T44" s="488"/>
-      <c r="U44" s="489"/>
-      <c r="V44" s="489"/>
-    </row>
-    <row r="45" spans="1:22" s="490" customFormat="1" ht="17" customHeight="1">
-      <c r="A45" s="481">
-        <v>42736</v>
-      </c>
-      <c r="B45" s="482"/>
-      <c r="C45" s="482" t="s">
+      <c r="S44" s="486"/>
+      <c r="T44" s="486"/>
+      <c r="U44" s="487"/>
+      <c r="V44" s="487"/>
+    </row>
+    <row r="45" spans="1:22" s="488" customFormat="1" ht="17" customHeight="1">
+      <c r="A45" s="479">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="480"/>
+      <c r="C45" s="480" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="483" t="s">
+      <c r="D45" s="481" t="s">
         <v>963</v>
       </c>
-      <c r="E45" s="483" t="s">
+      <c r="E45" s="481" t="s">
         <v>964</v>
       </c>
-      <c r="F45" s="484" t="s">
+      <c r="F45" s="482" t="s">
         <v>964</v>
       </c>
-      <c r="G45" s="485">
+      <c r="G45" s="483">
         <v>3</v>
       </c>
-      <c r="H45" s="486" t="s">
+      <c r="H45" s="484" t="s">
         <v>830</v>
       </c>
-      <c r="I45" s="486" t="s">
+      <c r="I45" s="484" t="s">
         <v>965</v>
       </c>
-      <c r="J45" s="484" t="s">
+      <c r="J45" s="482" t="s">
         <v>966</v>
       </c>
-      <c r="K45" s="487"/>
-      <c r="L45" s="487"/>
-      <c r="M45" s="487"/>
-      <c r="N45" s="487"/>
-      <c r="O45" s="487"/>
-      <c r="P45" s="487"/>
-      <c r="Q45" s="486" t="s">
+      <c r="K45" s="485"/>
+      <c r="L45" s="485"/>
+      <c r="M45" s="485"/>
+      <c r="N45" s="485"/>
+      <c r="O45" s="485"/>
+      <c r="P45" s="485"/>
+      <c r="Q45" s="484" t="s">
         <v>45</v>
       </c>
-      <c r="R45" s="486" t="s">
+      <c r="R45" s="484" t="s">
         <v>233</v>
       </c>
-      <c r="S45" s="488"/>
-      <c r="T45" s="488"/>
-      <c r="U45" s="489"/>
-      <c r="V45" s="489"/>
+      <c r="S45" s="486"/>
+      <c r="T45" s="486"/>
+      <c r="U45" s="487"/>
+      <c r="V45" s="487"/>
     </row>
     <row r="46" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A46" s="563">
+      <c r="A46" s="561">
         <v>42739</v>
       </c>
       <c r="B46" s="304"/>
@@ -22884,7 +22962,7 @@
       <c r="V46" s="305"/>
     </row>
     <row r="47" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A47" s="563">
+      <c r="A47" s="561">
         <v>42739</v>
       </c>
       <c r="B47" s="304"/>
@@ -22926,7 +23004,7 @@
       <c r="V47" s="305"/>
     </row>
     <row r="48" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A48" s="563">
+      <c r="A48" s="561">
         <v>42739</v>
       </c>
       <c r="B48" s="304"/>
@@ -22968,7 +23046,7 @@
       <c r="V48" s="305"/>
     </row>
     <row r="49" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A49" s="563">
+      <c r="A49" s="561">
         <v>42739</v>
       </c>
       <c r="B49" s="304"/>
@@ -23010,7 +23088,7 @@
       <c r="V49" s="305"/>
     </row>
     <row r="50" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A50" s="563">
+      <c r="A50" s="561">
         <v>42739</v>
       </c>
       <c r="B50" s="304"/>
@@ -23052,7 +23130,7 @@
       <c r="V50" s="305"/>
     </row>
     <row r="51" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A51" s="563">
+      <c r="A51" s="561">
         <v>42739</v>
       </c>
       <c r="B51" s="304"/>
@@ -23094,7 +23172,7 @@
       <c r="V51" s="305"/>
     </row>
     <row r="52" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A52" s="563">
+      <c r="A52" s="561">
         <v>42739</v>
       </c>
       <c r="B52" s="304"/>
@@ -23340,7 +23418,7 @@
       <c r="J57" s="54"/>
       <c r="K57" s="101"/>
       <c r="L57" s="98"/>
-      <c r="M57" s="500"/>
+      <c r="M57" s="498"/>
       <c r="N57" s="98"/>
       <c r="O57" s="98"/>
       <c r="P57" s="98"/>
@@ -23384,11 +23462,11 @@
         <v>920</v>
       </c>
       <c r="J58" s="54"/>
-      <c r="K58" s="499"/>
+      <c r="K58" s="497"/>
       <c r="L58" s="98"/>
-      <c r="M58" s="500"/>
+      <c r="M58" s="498"/>
       <c r="N58" s="98"/>
-      <c r="O58" s="500" t="s">
+      <c r="O58" s="498" t="s">
         <v>982</v>
       </c>
       <c r="P58" s="98"/>
@@ -23432,11 +23510,11 @@
         <v>920</v>
       </c>
       <c r="J59" s="54"/>
-      <c r="K59" s="500" t="s">
+      <c r="K59" s="498" t="s">
         <v>1187</v>
       </c>
       <c r="L59" s="98"/>
-      <c r="M59" s="500"/>
+      <c r="M59" s="498"/>
       <c r="N59" s="98"/>
       <c r="O59" s="98"/>
       <c r="P59" s="98"/>
@@ -23476,7 +23554,7 @@
         <v>830</v>
       </c>
       <c r="J60" s="54"/>
-      <c r="K60" s="499"/>
+      <c r="K60" s="497"/>
       <c r="L60" s="98"/>
       <c r="M60" s="98"/>
       <c r="N60" s="98"/>
@@ -23496,7 +23574,7 @@
       <c r="V60" s="54"/>
     </row>
     <row r="61" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A61" s="563">
+      <c r="A61" s="561">
         <v>42739</v>
       </c>
       <c r="B61" s="304"/>
@@ -23538,7 +23616,7 @@
       <c r="V61" s="305"/>
     </row>
     <row r="62" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A62" s="563">
+      <c r="A62" s="561">
         <v>42739</v>
       </c>
       <c r="B62" s="304"/>
@@ -23580,7 +23658,7 @@
       <c r="V62" s="305"/>
     </row>
     <row r="63" spans="1:22" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A63" s="563">
+      <c r="A63" s="561">
         <v>42739</v>
       </c>
       <c r="B63" s="304"/>
@@ -23622,92 +23700,136 @@
       <c r="V63" s="305"/>
     </row>
     <row r="64" spans="1:22" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A64" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B64" s="511"/>
-      <c r="C64" s="511" t="s">
+      <c r="A64" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B64" s="509"/>
+      <c r="C64" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="511" t="s">
+      <c r="D64" s="509" t="s">
         <v>645</v>
       </c>
-      <c r="E64" s="511" t="s">
+      <c r="E64" s="509" t="s">
         <v>895</v>
       </c>
-      <c r="F64" s="511" t="s">
+      <c r="F64" s="509" t="s">
         <v>895</v>
       </c>
-      <c r="G64" s="511">
+      <c r="G64" s="509">
         <v>1</v>
       </c>
-      <c r="H64" s="511"/>
-      <c r="I64" s="511" t="s">
+      <c r="H64" s="509"/>
+      <c r="I64" s="509" t="s">
         <v>830</v>
       </c>
-      <c r="J64" s="511"/>
-      <c r="K64" s="535" t="s">
+      <c r="J64" s="509"/>
+      <c r="K64" s="533" t="s">
         <v>983</v>
       </c>
-      <c r="L64" s="511"/>
-      <c r="M64" s="511"/>
-      <c r="N64" s="511"/>
-      <c r="O64" s="511"/>
-      <c r="P64" s="511"/>
-      <c r="Q64" s="511" t="s">
+      <c r="L64" s="509"/>
+      <c r="M64" s="509"/>
+      <c r="N64" s="509"/>
+      <c r="O64" s="509"/>
+      <c r="P64" s="509"/>
+      <c r="Q64" s="509" t="s">
         <v>45</v>
       </c>
-      <c r="R64" s="511" t="s">
+      <c r="R64" s="509" t="s">
         <v>233</v>
       </c>
-      <c r="S64" s="511"/>
-      <c r="T64" s="511"/>
-      <c r="U64" s="511"/>
-      <c r="V64" s="511"/>
+      <c r="S64" s="509"/>
+      <c r="T64" s="509"/>
+      <c r="U64" s="509"/>
+      <c r="V64" s="509"/>
     </row>
     <row r="65" spans="1:22" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A65" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B65" s="511"/>
-      <c r="C65" s="511" t="s">
+      <c r="A65" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B65" s="509"/>
+      <c r="C65" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="511" t="s">
+      <c r="D65" s="509" t="s">
         <v>646</v>
       </c>
-      <c r="E65" s="511" t="s">
+      <c r="E65" s="509" t="s">
         <v>897</v>
       </c>
-      <c r="F65" s="511" t="s">
+      <c r="F65" s="509" t="s">
         <v>897</v>
       </c>
-      <c r="G65" s="511">
+      <c r="G65" s="509">
         <v>2</v>
       </c>
-      <c r="H65" s="511" t="s">
+      <c r="H65" s="509" t="s">
         <v>830</v>
       </c>
-      <c r="I65" s="535" t="s">
+      <c r="I65" s="533" t="s">
         <v>920</v>
       </c>
-      <c r="J65" s="511"/>
-      <c r="K65" s="511"/>
-      <c r="L65" s="511"/>
-      <c r="M65" s="511"/>
-      <c r="N65" s="511"/>
-      <c r="O65" s="511"/>
-      <c r="P65" s="511"/>
-      <c r="Q65" s="511" t="s">
+      <c r="J65" s="509"/>
+      <c r="K65" s="509"/>
+      <c r="L65" s="509"/>
+      <c r="M65" s="509"/>
+      <c r="N65" s="509"/>
+      <c r="O65" s="509"/>
+      <c r="P65" s="509"/>
+      <c r="Q65" s="509" t="s">
         <v>45</v>
       </c>
-      <c r="R65" s="511" t="s">
+      <c r="R65" s="509" t="s">
         <v>233</v>
       </c>
-      <c r="S65" s="511"/>
-      <c r="T65" s="511"/>
-      <c r="U65" s="511"/>
-      <c r="V65" s="511"/>
+      <c r="S65" s="509"/>
+      <c r="T65" s="509"/>
+      <c r="U65" s="509"/>
+      <c r="V65" s="509"/>
+    </row>
+    <row r="66" spans="1:22" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A66" s="53">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>895</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>895</v>
+      </c>
+      <c r="G66" s="71">
+        <v>1</v>
+      </c>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54" t="s">
+        <v>830</v>
+      </c>
+      <c r="J66" s="54"/>
+      <c r="K66" s="497"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="R66" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="S66" s="72"/>
+      <c r="T66" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -23728,10 +23850,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:T235"/>
+  <dimension ref="A1:T238"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -23900,7 +24022,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="501" customFormat="1" ht="20" customHeight="1">
+    <row r="4" spans="1:20" s="499" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="53">
         <v>42736</v>
       </c>
@@ -24646,7 +24768,7 @@
       <c r="P25" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="R25" s="496" t="s">
+      <c r="R25" s="494" t="s">
         <v>896</v>
       </c>
     </row>
@@ -28798,7 +28920,7 @@
       <c r="D133" s="353" t="s">
         <v>948</v>
       </c>
-      <c r="E133" s="564" t="s">
+      <c r="E133" s="562" t="s">
         <v>349</v>
       </c>
       <c r="F133" s="35">
@@ -29166,7 +29288,7 @@
       <c r="D142" s="353" t="s">
         <v>951</v>
       </c>
-      <c r="E142" s="564" t="s">
+      <c r="E142" s="562" t="s">
         <v>349</v>
       </c>
       <c r="F142" s="35">
@@ -29534,7 +29656,7 @@
       <c r="D151" s="353" t="s">
         <v>953</v>
       </c>
-      <c r="E151" s="564" t="s">
+      <c r="E151" s="562" t="s">
         <v>349</v>
       </c>
       <c r="F151" s="35">
@@ -30401,204 +30523,204 @@
       <c r="Q172" s="61"/>
     </row>
     <row r="173" spans="1:18" s="75" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A173" s="481">
+      <c r="A173" s="479">
         <v>42741</v>
       </c>
-      <c r="B173" s="491"/>
-      <c r="C173" s="484" t="s">
+      <c r="B173" s="489"/>
+      <c r="C173" s="482" t="s">
         <v>88</v>
       </c>
-      <c r="D173" s="486" t="s">
+      <c r="D173" s="484" t="s">
         <v>646</v>
       </c>
-      <c r="E173" s="484" t="s">
+      <c r="E173" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="F173" s="482">
+      <c r="F173" s="480">
         <v>1</v>
       </c>
-      <c r="G173" s="484" t="s">
+      <c r="G173" s="482" t="s">
         <v>611</v>
       </c>
-      <c r="H173" s="492" t="s">
+      <c r="H173" s="490" t="s">
         <v>1006</v>
       </c>
-      <c r="I173" s="492" t="s">
+      <c r="I173" s="490" t="s">
         <v>1080</v>
       </c>
-      <c r="J173" s="493">
+      <c r="J173" s="491">
         <v>1</v>
       </c>
-      <c r="K173" s="482"/>
-      <c r="L173" s="482"/>
-      <c r="M173" s="494"/>
-      <c r="N173" s="482"/>
-      <c r="O173" s="482"/>
-      <c r="P173" s="492" t="s">
+      <c r="K173" s="480"/>
+      <c r="L173" s="480"/>
+      <c r="M173" s="492"/>
+      <c r="N173" s="480"/>
+      <c r="O173" s="480"/>
+      <c r="P173" s="490" t="s">
         <v>950</v>
       </c>
-      <c r="Q173" s="482"/>
-      <c r="R173" s="495"/>
+      <c r="Q173" s="480"/>
+      <c r="R173" s="493"/>
     </row>
     <row r="174" spans="1:18" s="75" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A174" s="481">
+      <c r="A174" s="479">
         <v>42741</v>
       </c>
-      <c r="B174" s="491"/>
-      <c r="C174" s="484" t="s">
+      <c r="B174" s="489"/>
+      <c r="C174" s="482" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="486" t="s">
+      <c r="D174" s="484" t="s">
         <v>646</v>
       </c>
-      <c r="E174" s="484" t="s">
+      <c r="E174" s="482" t="s">
         <v>195</v>
       </c>
-      <c r="F174" s="482">
+      <c r="F174" s="480">
         <v>2</v>
       </c>
-      <c r="G174" s="484" t="s">
+      <c r="G174" s="482" t="s">
         <v>611</v>
       </c>
-      <c r="H174" s="492" t="s">
+      <c r="H174" s="490" t="s">
         <v>1006</v>
       </c>
-      <c r="I174" s="492" t="s">
+      <c r="I174" s="490" t="s">
         <v>1080</v>
       </c>
-      <c r="J174" s="493">
+      <c r="J174" s="491">
         <v>1</v>
       </c>
-      <c r="K174" s="482"/>
-      <c r="L174" s="482"/>
-      <c r="M174" s="494"/>
-      <c r="N174" s="482"/>
-      <c r="O174" s="482"/>
-      <c r="P174" s="492" t="s">
+      <c r="K174" s="480"/>
+      <c r="L174" s="480"/>
+      <c r="M174" s="492"/>
+      <c r="N174" s="480"/>
+      <c r="O174" s="480"/>
+      <c r="P174" s="490" t="s">
         <v>950</v>
       </c>
-      <c r="Q174" s="482"/>
-      <c r="R174" s="495"/>
+      <c r="Q174" s="480"/>
+      <c r="R174" s="493"/>
     </row>
     <row r="175" spans="1:18" s="75" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A175" s="481">
+      <c r="A175" s="479">
         <v>42741</v>
       </c>
-      <c r="B175" s="491"/>
-      <c r="C175" s="484" t="s">
+      <c r="B175" s="489"/>
+      <c r="C175" s="482" t="s">
         <v>88</v>
       </c>
-      <c r="D175" s="486" t="s">
+      <c r="D175" s="484" t="s">
         <v>646</v>
       </c>
-      <c r="E175" s="484" t="s">
+      <c r="E175" s="482" t="s">
         <v>160</v>
       </c>
-      <c r="F175" s="482">
+      <c r="F175" s="480">
         <v>3</v>
       </c>
-      <c r="G175" s="484" t="s">
+      <c r="G175" s="482" t="s">
         <v>611</v>
       </c>
-      <c r="H175" s="492" t="s">
+      <c r="H175" s="490" t="s">
         <v>1006</v>
       </c>
-      <c r="I175" s="492" t="s">
+      <c r="I175" s="490" t="s">
         <v>1080</v>
       </c>
-      <c r="J175" s="493">
+      <c r="J175" s="491">
         <v>1</v>
       </c>
-      <c r="K175" s="482"/>
-      <c r="L175" s="482"/>
-      <c r="M175" s="494"/>
-      <c r="N175" s="482"/>
-      <c r="O175" s="482"/>
-      <c r="P175" s="492" t="s">
+      <c r="K175" s="480"/>
+      <c r="L175" s="480"/>
+      <c r="M175" s="492"/>
+      <c r="N175" s="480"/>
+      <c r="O175" s="480"/>
+      <c r="P175" s="490" t="s">
         <v>950</v>
       </c>
-      <c r="Q175" s="482"/>
-      <c r="R175" s="495"/>
+      <c r="Q175" s="480"/>
+      <c r="R175" s="493"/>
     </row>
     <row r="176" spans="1:18" s="75" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A176" s="481">
+      <c r="A176" s="479">
         <v>42741</v>
       </c>
-      <c r="B176" s="491"/>
-      <c r="C176" s="484" t="s">
+      <c r="B176" s="489"/>
+      <c r="C176" s="482" t="s">
         <v>88</v>
       </c>
-      <c r="D176" s="486" t="s">
+      <c r="D176" s="484" t="s">
         <v>963</v>
       </c>
-      <c r="E176" s="484" t="s">
+      <c r="E176" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="F176" s="482">
+      <c r="F176" s="480">
         <v>1</v>
       </c>
-      <c r="G176" s="484" t="s">
+      <c r="G176" s="482" t="s">
         <v>611</v>
       </c>
-      <c r="H176" s="492" t="s">
+      <c r="H176" s="490" t="s">
         <v>1006</v>
       </c>
-      <c r="I176" s="492" t="s">
+      <c r="I176" s="490" t="s">
         <v>1080</v>
       </c>
-      <c r="J176" s="493">
+      <c r="J176" s="491">
         <v>1</v>
       </c>
-      <c r="K176" s="482"/>
-      <c r="L176" s="482"/>
-      <c r="M176" s="494"/>
-      <c r="N176" s="482"/>
-      <c r="O176" s="482"/>
-      <c r="P176" s="492" t="s">
+      <c r="K176" s="480"/>
+      <c r="L176" s="480"/>
+      <c r="M176" s="492"/>
+      <c r="N176" s="480"/>
+      <c r="O176" s="480"/>
+      <c r="P176" s="490" t="s">
         <v>950</v>
       </c>
-      <c r="Q176" s="482"/>
-      <c r="R176" s="495"/>
+      <c r="Q176" s="480"/>
+      <c r="R176" s="493"/>
     </row>
     <row r="177" spans="1:18" s="75" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A177" s="481">
+      <c r="A177" s="479">
         <v>42741</v>
       </c>
-      <c r="B177" s="491"/>
-      <c r="C177" s="484" t="s">
+      <c r="B177" s="489"/>
+      <c r="C177" s="482" t="s">
         <v>88</v>
       </c>
-      <c r="D177" s="486" t="s">
+      <c r="D177" s="484" t="s">
         <v>963</v>
       </c>
-      <c r="E177" s="484" t="s">
+      <c r="E177" s="482" t="s">
         <v>195</v>
       </c>
-      <c r="F177" s="482">
+      <c r="F177" s="480">
         <v>2</v>
       </c>
-      <c r="G177" s="484" t="s">
+      <c r="G177" s="482" t="s">
         <v>611</v>
       </c>
-      <c r="H177" s="492" t="s">
+      <c r="H177" s="490" t="s">
         <v>1006</v>
       </c>
-      <c r="I177" s="492" t="s">
+      <c r="I177" s="490" t="s">
         <v>1080</v>
       </c>
-      <c r="J177" s="493">
+      <c r="J177" s="491">
         <v>1</v>
       </c>
-      <c r="K177" s="482"/>
-      <c r="L177" s="482"/>
-      <c r="M177" s="494"/>
-      <c r="N177" s="482"/>
-      <c r="O177" s="482"/>
-      <c r="P177" s="492" t="s">
+      <c r="K177" s="480"/>
+      <c r="L177" s="480"/>
+      <c r="M177" s="492"/>
+      <c r="N177" s="480"/>
+      <c r="O177" s="480"/>
+      <c r="P177" s="490" t="s">
         <v>950</v>
       </c>
-      <c r="Q177" s="482"/>
-      <c r="R177" s="495"/>
+      <c r="Q177" s="480"/>
+      <c r="R177" s="493"/>
     </row>
     <row r="178" spans="1:18" s="72" customFormat="1" ht="20" customHeight="1">
       <c r="A178" s="284">
@@ -30966,7 +31088,7 @@
       <c r="E187" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="F187" s="565"/>
+      <c r="F187" s="563"/>
       <c r="G187" s="270" t="s">
         <v>611</v>
       </c>
@@ -31001,7 +31123,7 @@
       <c r="D188" s="270" t="s">
         <v>657</v>
       </c>
-      <c r="E188" s="566" t="s">
+      <c r="E188" s="564" t="s">
         <v>260</v>
       </c>
       <c r="F188" s="360">
@@ -31218,7 +31340,7 @@
       </c>
       <c r="K193" s="106"/>
       <c r="L193" s="106"/>
-      <c r="M193" s="476"/>
+      <c r="M193" s="474"/>
       <c r="N193" s="106"/>
       <c r="O193" s="106"/>
       <c r="P193" s="60" t="s">
@@ -31258,7 +31380,7 @@
       </c>
       <c r="K194" s="106"/>
       <c r="L194" s="106"/>
-      <c r="M194" s="476"/>
+      <c r="M194" s="474"/>
       <c r="N194" s="106"/>
       <c r="O194" s="106"/>
       <c r="P194" s="60" t="s">
@@ -31298,7 +31420,7 @@
       </c>
       <c r="K195" s="106"/>
       <c r="L195" s="106"/>
-      <c r="M195" s="476"/>
+      <c r="M195" s="474"/>
       <c r="N195" s="106"/>
       <c r="O195" s="106"/>
       <c r="P195" s="60" t="s">
@@ -31988,7 +32110,7 @@
       <c r="D213" s="54" t="s">
         <v>967</v>
       </c>
-      <c r="E213" s="508" t="s">
+      <c r="E213" s="506" t="s">
         <v>150</v>
       </c>
       <c r="F213" s="61">
@@ -32032,7 +32154,7 @@
       <c r="D214" s="54" t="s">
         <v>967</v>
       </c>
-      <c r="E214" s="504" t="s">
+      <c r="E214" s="502" t="s">
         <v>154</v>
       </c>
       <c r="F214" s="61">
@@ -32076,7 +32198,7 @@
       <c r="D215" s="54" t="s">
         <v>967</v>
       </c>
-      <c r="E215" s="508" t="s">
+      <c r="E215" s="506" t="s">
         <v>157</v>
       </c>
       <c r="F215" s="61">
@@ -32242,7 +32364,7 @@
       <c r="D219" s="209" t="s">
         <v>654</v>
       </c>
-      <c r="E219" s="506" t="s">
+      <c r="E219" s="504" t="s">
         <v>236</v>
       </c>
       <c r="F219" s="61">
@@ -32257,7 +32379,7 @@
       <c r="I219" s="57" t="s">
         <v>1083</v>
       </c>
-      <c r="J219" s="507">
+      <c r="J219" s="505">
         <v>1</v>
       </c>
       <c r="K219" s="64"/>
@@ -32276,644 +32398,764 @@
       <c r="R219" s="359"/>
     </row>
     <row r="220" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A220" s="513">
+      <c r="A220" s="511">
         <v>42741</v>
       </c>
-      <c r="B220" s="513"/>
-      <c r="C220" s="536" t="s">
+      <c r="B220" s="511"/>
+      <c r="C220" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D220" s="514" t="s">
+      <c r="D220" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E220" s="514" t="s">
+      <c r="E220" s="512" t="s">
         <v>150</v>
       </c>
-      <c r="F220" s="526">
+      <c r="F220" s="524">
         <v>1</v>
       </c>
-      <c r="G220" s="518" t="s">
+      <c r="G220" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H220" s="537" t="s">
+      <c r="H220" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I220" s="537" t="s">
+      <c r="I220" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J220" s="538">
+      <c r="J220" s="536">
         <v>1</v>
       </c>
-      <c r="K220" s="526"/>
-      <c r="L220" s="526"/>
-      <c r="M220" s="526"/>
-      <c r="N220" s="526"/>
-      <c r="O220" s="526"/>
-      <c r="P220" s="537" t="s">
+      <c r="K220" s="524"/>
+      <c r="L220" s="524"/>
+      <c r="M220" s="524"/>
+      <c r="N220" s="524"/>
+      <c r="O220" s="524"/>
+      <c r="P220" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q220" s="526"/>
-      <c r="R220" s="515"/>
+      <c r="Q220" s="524"/>
+      <c r="R220" s="513"/>
     </row>
     <row r="221" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A221" s="513">
+      <c r="A221" s="511">
         <v>42742</v>
       </c>
-      <c r="B221" s="513"/>
-      <c r="C221" s="536" t="s">
+      <c r="B221" s="511"/>
+      <c r="C221" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D221" s="514" t="s">
+      <c r="D221" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E221" s="514" t="s">
+      <c r="E221" s="512" t="s">
         <v>154</v>
       </c>
-      <c r="F221" s="526">
+      <c r="F221" s="524">
         <v>2</v>
       </c>
-      <c r="G221" s="518" t="s">
+      <c r="G221" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H221" s="537" t="s">
+      <c r="H221" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I221" s="537" t="s">
+      <c r="I221" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J221" s="538">
+      <c r="J221" s="536">
         <v>2</v>
       </c>
-      <c r="K221" s="526"/>
-      <c r="L221" s="526"/>
-      <c r="M221" s="526"/>
-      <c r="N221" s="526"/>
-      <c r="O221" s="526"/>
-      <c r="P221" s="537" t="s">
+      <c r="K221" s="524"/>
+      <c r="L221" s="524"/>
+      <c r="M221" s="524"/>
+      <c r="N221" s="524"/>
+      <c r="O221" s="524"/>
+      <c r="P221" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q221" s="526"/>
-      <c r="R221" s="515"/>
+      <c r="Q221" s="524"/>
+      <c r="R221" s="513"/>
     </row>
     <row r="222" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A222" s="513">
+      <c r="A222" s="511">
         <v>42743</v>
       </c>
-      <c r="B222" s="513"/>
-      <c r="C222" s="536" t="s">
+      <c r="B222" s="511"/>
+      <c r="C222" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D222" s="514" t="s">
+      <c r="D222" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E222" s="514" t="s">
+      <c r="E222" s="512" t="s">
         <v>195</v>
       </c>
-      <c r="F222" s="526">
+      <c r="F222" s="524">
         <v>3</v>
       </c>
-      <c r="G222" s="518" t="s">
+      <c r="G222" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H222" s="537" t="s">
+      <c r="H222" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I222" s="537" t="s">
+      <c r="I222" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J222" s="538">
+      <c r="J222" s="536">
         <v>3</v>
       </c>
-      <c r="K222" s="526"/>
-      <c r="L222" s="526"/>
-      <c r="M222" s="526"/>
-      <c r="N222" s="526"/>
-      <c r="O222" s="526"/>
-      <c r="P222" s="537" t="s">
+      <c r="K222" s="524"/>
+      <c r="L222" s="524"/>
+      <c r="M222" s="524"/>
+      <c r="N222" s="524"/>
+      <c r="O222" s="524"/>
+      <c r="P222" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q222" s="526"/>
-      <c r="R222" s="515"/>
+      <c r="Q222" s="524"/>
+      <c r="R222" s="513"/>
     </row>
     <row r="223" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A223" s="513">
+      <c r="A223" s="511">
         <v>42744</v>
       </c>
-      <c r="B223" s="513"/>
-      <c r="C223" s="536" t="s">
+      <c r="B223" s="511"/>
+      <c r="C223" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D223" s="514" t="s">
+      <c r="D223" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E223" s="518" t="s">
+      <c r="E223" s="516" t="s">
         <v>387</v>
       </c>
-      <c r="F223" s="526">
+      <c r="F223" s="524">
         <v>4</v>
       </c>
-      <c r="G223" s="518" t="s">
+      <c r="G223" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H223" s="537" t="s">
+      <c r="H223" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I223" s="537" t="s">
+      <c r="I223" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J223" s="538">
+      <c r="J223" s="536">
         <v>4</v>
       </c>
-      <c r="K223" s="526"/>
-      <c r="L223" s="526"/>
-      <c r="M223" s="526"/>
-      <c r="N223" s="526"/>
-      <c r="O223" s="526"/>
-      <c r="P223" s="537" t="s">
+      <c r="K223" s="524"/>
+      <c r="L223" s="524"/>
+      <c r="M223" s="524"/>
+      <c r="N223" s="524"/>
+      <c r="O223" s="524"/>
+      <c r="P223" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q223" s="526"/>
-      <c r="R223" s="515"/>
+      <c r="Q223" s="524"/>
+      <c r="R223" s="513"/>
     </row>
     <row r="224" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A224" s="513">
+      <c r="A224" s="511">
         <v>42745</v>
       </c>
-      <c r="B224" s="513"/>
-      <c r="C224" s="536" t="s">
+      <c r="B224" s="511"/>
+      <c r="C224" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D224" s="514" t="s">
+      <c r="D224" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E224" s="518" t="s">
+      <c r="E224" s="516" t="s">
         <v>389</v>
       </c>
-      <c r="F224" s="526">
+      <c r="F224" s="524">
         <v>5</v>
       </c>
-      <c r="G224" s="518" t="s">
+      <c r="G224" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H224" s="537" t="s">
+      <c r="H224" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I224" s="537" t="s">
+      <c r="I224" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J224" s="538">
+      <c r="J224" s="536">
         <v>5</v>
       </c>
-      <c r="K224" s="526"/>
-      <c r="L224" s="526"/>
-      <c r="M224" s="526"/>
-      <c r="N224" s="526"/>
-      <c r="O224" s="526"/>
-      <c r="P224" s="537" t="s">
+      <c r="K224" s="524"/>
+      <c r="L224" s="524"/>
+      <c r="M224" s="524"/>
+      <c r="N224" s="524"/>
+      <c r="O224" s="524"/>
+      <c r="P224" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q224" s="526"/>
-      <c r="R224" s="515"/>
+      <c r="Q224" s="524"/>
+      <c r="R224" s="513"/>
     </row>
     <row r="225" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A225" s="513">
+      <c r="A225" s="511">
         <v>42746</v>
       </c>
-      <c r="B225" s="513"/>
-      <c r="C225" s="536" t="s">
+      <c r="B225" s="511"/>
+      <c r="C225" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D225" s="514" t="s">
+      <c r="D225" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E225" s="518" t="s">
+      <c r="E225" s="516" t="s">
         <v>391</v>
       </c>
-      <c r="F225" s="526">
+      <c r="F225" s="524">
         <v>6</v>
       </c>
-      <c r="G225" s="518" t="s">
+      <c r="G225" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H225" s="537" t="s">
+      <c r="H225" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I225" s="537" t="s">
+      <c r="I225" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J225" s="538">
+      <c r="J225" s="536">
         <v>6</v>
       </c>
-      <c r="K225" s="526"/>
-      <c r="L225" s="526"/>
-      <c r="M225" s="526"/>
-      <c r="N225" s="526"/>
-      <c r="O225" s="526"/>
-      <c r="P225" s="537" t="s">
+      <c r="K225" s="524"/>
+      <c r="L225" s="524"/>
+      <c r="M225" s="524"/>
+      <c r="N225" s="524"/>
+      <c r="O225" s="524"/>
+      <c r="P225" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q225" s="526"/>
-      <c r="R225" s="515"/>
+      <c r="Q225" s="524"/>
+      <c r="R225" s="513"/>
     </row>
     <row r="226" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A226" s="513">
+      <c r="A226" s="511">
         <v>42747</v>
       </c>
-      <c r="B226" s="513"/>
-      <c r="C226" s="536" t="s">
+      <c r="B226" s="511"/>
+      <c r="C226" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D226" s="514" t="s">
+      <c r="D226" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E226" s="518" t="s">
+      <c r="E226" s="516" t="s">
         <v>394</v>
       </c>
-      <c r="F226" s="526">
+      <c r="F226" s="524">
         <v>7</v>
       </c>
-      <c r="G226" s="518" t="s">
+      <c r="G226" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H226" s="537" t="s">
+      <c r="H226" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I226" s="537" t="s">
+      <c r="I226" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J226" s="538">
+      <c r="J226" s="536">
         <v>7</v>
       </c>
-      <c r="K226" s="526"/>
-      <c r="L226" s="526"/>
-      <c r="M226" s="526"/>
-      <c r="N226" s="526"/>
-      <c r="O226" s="526"/>
-      <c r="P226" s="537" t="s">
+      <c r="K226" s="524"/>
+      <c r="L226" s="524"/>
+      <c r="M226" s="524"/>
+      <c r="N226" s="524"/>
+      <c r="O226" s="524"/>
+      <c r="P226" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q226" s="526"/>
-      <c r="R226" s="515"/>
+      <c r="Q226" s="524"/>
+      <c r="R226" s="513"/>
     </row>
     <row r="227" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A227" s="513">
+      <c r="A227" s="511">
         <v>42748</v>
       </c>
-      <c r="B227" s="513"/>
-      <c r="C227" s="536" t="s">
+      <c r="B227" s="511"/>
+      <c r="C227" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D227" s="514" t="s">
+      <c r="D227" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E227" s="518" t="s">
+      <c r="E227" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="F227" s="526">
+      <c r="F227" s="524">
         <v>8</v>
       </c>
-      <c r="G227" s="518" t="s">
+      <c r="G227" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H227" s="537" t="s">
+      <c r="H227" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I227" s="537" t="s">
+      <c r="I227" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J227" s="538">
+      <c r="J227" s="536">
         <v>8</v>
       </c>
-      <c r="K227" s="526"/>
-      <c r="L227" s="526"/>
-      <c r="M227" s="526"/>
-      <c r="N227" s="526"/>
-      <c r="O227" s="526"/>
-      <c r="P227" s="537" t="s">
+      <c r="K227" s="524"/>
+      <c r="L227" s="524"/>
+      <c r="M227" s="524"/>
+      <c r="N227" s="524"/>
+      <c r="O227" s="524"/>
+      <c r="P227" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q227" s="526"/>
-      <c r="R227" s="515"/>
+      <c r="Q227" s="524"/>
+      <c r="R227" s="513"/>
     </row>
     <row r="228" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A228" s="513">
+      <c r="A228" s="511">
         <v>42741</v>
       </c>
-      <c r="B228" s="513"/>
-      <c r="C228" s="536" t="s">
+      <c r="B228" s="511"/>
+      <c r="C228" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D228" s="518" t="s">
+      <c r="D228" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E228" s="514" t="s">
+      <c r="E228" s="512" t="s">
         <v>150</v>
       </c>
-      <c r="F228" s="526">
+      <c r="F228" s="524">
         <v>1</v>
       </c>
-      <c r="G228" s="518" t="s">
+      <c r="G228" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H228" s="537" t="s">
+      <c r="H228" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I228" s="537" t="s">
+      <c r="I228" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J228" s="538">
+      <c r="J228" s="536">
         <v>1</v>
       </c>
-      <c r="K228" s="526"/>
-      <c r="L228" s="526"/>
-      <c r="M228" s="526"/>
-      <c r="N228" s="526"/>
-      <c r="O228" s="526"/>
-      <c r="P228" s="537" t="s">
+      <c r="K228" s="524"/>
+      <c r="L228" s="524"/>
+      <c r="M228" s="524"/>
+      <c r="N228" s="524"/>
+      <c r="O228" s="524"/>
+      <c r="P228" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q228" s="526"/>
-      <c r="R228" s="515"/>
+      <c r="Q228" s="524"/>
+      <c r="R228" s="513"/>
     </row>
     <row r="229" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A229" s="513">
+      <c r="A229" s="511">
         <v>42742</v>
       </c>
-      <c r="B229" s="513"/>
-      <c r="C229" s="536" t="s">
+      <c r="B229" s="511"/>
+      <c r="C229" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D229" s="518" t="s">
+      <c r="D229" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E229" s="514" t="s">
+      <c r="E229" s="512" t="s">
         <v>154</v>
       </c>
-      <c r="F229" s="526">
+      <c r="F229" s="524">
         <v>2</v>
       </c>
-      <c r="G229" s="518" t="s">
+      <c r="G229" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H229" s="537" t="s">
+      <c r="H229" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I229" s="537" t="s">
+      <c r="I229" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J229" s="538">
+      <c r="J229" s="536">
         <v>2</v>
       </c>
-      <c r="K229" s="526"/>
-      <c r="L229" s="526"/>
-      <c r="M229" s="526"/>
-      <c r="N229" s="526"/>
-      <c r="O229" s="526"/>
-      <c r="P229" s="537" t="s">
+      <c r="K229" s="524"/>
+      <c r="L229" s="524"/>
+      <c r="M229" s="524"/>
+      <c r="N229" s="524"/>
+      <c r="O229" s="524"/>
+      <c r="P229" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q229" s="526"/>
-      <c r="R229" s="515"/>
+      <c r="Q229" s="524"/>
+      <c r="R229" s="513"/>
     </row>
     <row r="230" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A230" s="513">
+      <c r="A230" s="511">
         <v>42743</v>
       </c>
-      <c r="B230" s="513"/>
-      <c r="C230" s="536" t="s">
+      <c r="B230" s="511"/>
+      <c r="C230" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D230" s="518" t="s">
+      <c r="D230" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E230" s="514" t="s">
+      <c r="E230" s="512" t="s">
         <v>195</v>
       </c>
-      <c r="F230" s="526">
+      <c r="F230" s="524">
         <v>3</v>
       </c>
-      <c r="G230" s="518" t="s">
+      <c r="G230" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H230" s="537" t="s">
+      <c r="H230" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I230" s="537" t="s">
+      <c r="I230" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J230" s="538">
+      <c r="J230" s="536">
         <v>3</v>
       </c>
-      <c r="K230" s="526"/>
-      <c r="L230" s="526"/>
-      <c r="M230" s="526"/>
-      <c r="N230" s="526"/>
-      <c r="O230" s="526"/>
-      <c r="P230" s="537" t="s">
+      <c r="K230" s="524"/>
+      <c r="L230" s="524"/>
+      <c r="M230" s="524"/>
+      <c r="N230" s="524"/>
+      <c r="O230" s="524"/>
+      <c r="P230" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q230" s="526"/>
-      <c r="R230" s="515"/>
+      <c r="Q230" s="524"/>
+      <c r="R230" s="513"/>
     </row>
     <row r="231" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A231" s="513">
+      <c r="A231" s="511">
         <v>42744</v>
       </c>
-      <c r="B231" s="513"/>
-      <c r="C231" s="536" t="s">
+      <c r="B231" s="511"/>
+      <c r="C231" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D231" s="518" t="s">
+      <c r="D231" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E231" s="518" t="s">
+      <c r="E231" s="516" t="s">
         <v>387</v>
       </c>
-      <c r="F231" s="526">
+      <c r="F231" s="524">
         <v>4</v>
       </c>
-      <c r="G231" s="518" t="s">
+      <c r="G231" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H231" s="537" t="s">
+      <c r="H231" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I231" s="537" t="s">
+      <c r="I231" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J231" s="538">
+      <c r="J231" s="536">
         <v>4</v>
       </c>
-      <c r="K231" s="526"/>
-      <c r="L231" s="526"/>
-      <c r="M231" s="526"/>
-      <c r="N231" s="526"/>
-      <c r="O231" s="526"/>
-      <c r="P231" s="537" t="s">
+      <c r="K231" s="524"/>
+      <c r="L231" s="524"/>
+      <c r="M231" s="524"/>
+      <c r="N231" s="524"/>
+      <c r="O231" s="524"/>
+      <c r="P231" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q231" s="526"/>
-      <c r="R231" s="515"/>
+      <c r="Q231" s="524"/>
+      <c r="R231" s="513"/>
     </row>
     <row r="232" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A232" s="513">
+      <c r="A232" s="511">
         <v>42745</v>
       </c>
-      <c r="B232" s="513"/>
-      <c r="C232" s="536" t="s">
+      <c r="B232" s="511"/>
+      <c r="C232" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D232" s="518" t="s">
+      <c r="D232" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E232" s="518" t="s">
+      <c r="E232" s="516" t="s">
         <v>389</v>
       </c>
-      <c r="F232" s="526">
+      <c r="F232" s="524">
         <v>5</v>
       </c>
-      <c r="G232" s="518" t="s">
+      <c r="G232" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H232" s="537" t="s">
+      <c r="H232" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I232" s="537" t="s">
+      <c r="I232" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J232" s="538">
+      <c r="J232" s="536">
         <v>5</v>
       </c>
-      <c r="K232" s="526"/>
-      <c r="L232" s="526"/>
-      <c r="M232" s="526"/>
-      <c r="N232" s="526"/>
-      <c r="O232" s="526"/>
-      <c r="P232" s="537" t="s">
+      <c r="K232" s="524"/>
+      <c r="L232" s="524"/>
+      <c r="M232" s="524"/>
+      <c r="N232" s="524"/>
+      <c r="O232" s="524"/>
+      <c r="P232" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q232" s="526"/>
-      <c r="R232" s="515"/>
+      <c r="Q232" s="524"/>
+      <c r="R232" s="513"/>
     </row>
     <row r="233" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A233" s="513">
+      <c r="A233" s="511">
         <v>42746</v>
       </c>
-      <c r="B233" s="513"/>
-      <c r="C233" s="536" t="s">
+      <c r="B233" s="511"/>
+      <c r="C233" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D233" s="518" t="s">
+      <c r="D233" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E233" s="518" t="s">
+      <c r="E233" s="516" t="s">
         <v>391</v>
       </c>
-      <c r="F233" s="526">
+      <c r="F233" s="524">
         <v>6</v>
       </c>
-      <c r="G233" s="518" t="s">
+      <c r="G233" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H233" s="537" t="s">
+      <c r="H233" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I233" s="537" t="s">
+      <c r="I233" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J233" s="538">
+      <c r="J233" s="536">
         <v>6</v>
       </c>
-      <c r="K233" s="526"/>
-      <c r="L233" s="526"/>
-      <c r="M233" s="526"/>
-      <c r="N233" s="526"/>
-      <c r="O233" s="526"/>
-      <c r="P233" s="537" t="s">
+      <c r="K233" s="524"/>
+      <c r="L233" s="524"/>
+      <c r="M233" s="524"/>
+      <c r="N233" s="524"/>
+      <c r="O233" s="524"/>
+      <c r="P233" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q233" s="526"/>
-      <c r="R233" s="515"/>
+      <c r="Q233" s="524"/>
+      <c r="R233" s="513"/>
     </row>
     <row r="234" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A234" s="513">
+      <c r="A234" s="511">
         <v>42747</v>
       </c>
-      <c r="B234" s="513"/>
-      <c r="C234" s="536" t="s">
+      <c r="B234" s="511"/>
+      <c r="C234" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D234" s="518" t="s">
+      <c r="D234" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E234" s="518" t="s">
+      <c r="E234" s="516" t="s">
         <v>394</v>
       </c>
-      <c r="F234" s="526">
+      <c r="F234" s="524">
         <v>7</v>
       </c>
-      <c r="G234" s="518" t="s">
+      <c r="G234" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H234" s="537" t="s">
+      <c r="H234" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I234" s="537" t="s">
+      <c r="I234" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J234" s="538">
+      <c r="J234" s="536">
         <v>7</v>
       </c>
-      <c r="K234" s="526"/>
-      <c r="L234" s="526"/>
-      <c r="M234" s="526"/>
-      <c r="N234" s="526"/>
-      <c r="O234" s="526"/>
-      <c r="P234" s="537" t="s">
+      <c r="K234" s="524"/>
+      <c r="L234" s="524"/>
+      <c r="M234" s="524"/>
+      <c r="N234" s="524"/>
+      <c r="O234" s="524"/>
+      <c r="P234" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q234" s="526"/>
-      <c r="R234" s="515"/>
+      <c r="Q234" s="524"/>
+      <c r="R234" s="513"/>
     </row>
     <row r="235" spans="1:18" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A235" s="513">
+      <c r="A235" s="511">
         <v>42748</v>
       </c>
-      <c r="B235" s="513"/>
-      <c r="C235" s="536" t="s">
+      <c r="B235" s="511"/>
+      <c r="C235" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D235" s="518" t="s">
+      <c r="D235" s="516" t="s">
         <v>646</v>
       </c>
-      <c r="E235" s="518" t="s">
+      <c r="E235" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="F235" s="526">
+      <c r="F235" s="524">
         <v>8</v>
       </c>
-      <c r="G235" s="518" t="s">
+      <c r="G235" s="516" t="s">
         <v>611</v>
       </c>
-      <c r="H235" s="537" t="s">
+      <c r="H235" s="535" t="s">
         <v>1006</v>
       </c>
-      <c r="I235" s="537" t="s">
+      <c r="I235" s="535" t="s">
         <v>1085</v>
       </c>
-      <c r="J235" s="538">
+      <c r="J235" s="536">
         <v>8</v>
       </c>
-      <c r="K235" s="526"/>
-      <c r="L235" s="526"/>
-      <c r="M235" s="526"/>
-      <c r="N235" s="526"/>
-      <c r="O235" s="526"/>
-      <c r="P235" s="537" t="s">
+      <c r="K235" s="524"/>
+      <c r="L235" s="524"/>
+      <c r="M235" s="524"/>
+      <c r="N235" s="524"/>
+      <c r="O235" s="524"/>
+      <c r="P235" s="535" t="s">
         <v>950</v>
       </c>
-      <c r="Q235" s="526"/>
-      <c r="R235" s="515"/>
+      <c r="Q235" s="524"/>
+      <c r="R235" s="513"/>
+    </row>
+    <row r="236" spans="1:18" s="499" customFormat="1" ht="20" customHeight="1">
+      <c r="A236" s="53">
+        <v>42736</v>
+      </c>
+      <c r="B236" s="53"/>
+      <c r="C236" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D236" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="E236" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F236" s="61">
+        <v>1</v>
+      </c>
+      <c r="G236" s="54" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H236" s="54" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I236" s="54" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J236" s="71">
+        <v>1</v>
+      </c>
+      <c r="K236" s="72"/>
+      <c r="L236" s="72"/>
+      <c r="M236" s="72"/>
+      <c r="N236" s="72"/>
+      <c r="O236" s="72"/>
+      <c r="P236" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q236" s="72"/>
+      <c r="R236" s="72"/>
+    </row>
+    <row r="237" spans="1:18" s="499" customFormat="1" ht="20" customHeight="1">
+      <c r="A237" s="53">
+        <v>42736</v>
+      </c>
+      <c r="B237" s="53"/>
+      <c r="C237" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D237" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="E237" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="F237" s="61">
+        <v>1</v>
+      </c>
+      <c r="G237" s="54" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H237" s="54" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I237" s="54" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J237" s="71">
+        <v>1</v>
+      </c>
+      <c r="K237" s="72"/>
+      <c r="L237" s="72"/>
+      <c r="M237" s="72"/>
+      <c r="N237" s="72"/>
+      <c r="O237" s="72"/>
+      <c r="P237" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q237" s="72"/>
+      <c r="R237" s="72"/>
+    </row>
+    <row r="238" spans="1:18" s="499" customFormat="1" ht="20" customHeight="1">
+      <c r="A238" s="53">
+        <v>42736</v>
+      </c>
+      <c r="B238" s="53"/>
+      <c r="C238" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D238" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="E238" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="F238" s="61">
+        <v>1</v>
+      </c>
+      <c r="G238" s="54" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H238" s="54" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I238" s="54" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J238" s="71">
+        <v>1</v>
+      </c>
+      <c r="K238" s="72"/>
+      <c r="L238" s="72"/>
+      <c r="M238" s="72"/>
+      <c r="N238" s="72"/>
+      <c r="O238" s="72"/>
+      <c r="P238" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q238" s="72"/>
+      <c r="R238" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -32931,8 +33173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -33010,7 +33252,7 @@
       <c r="G3" s="362" t="s">
         <v>680</v>
       </c>
-      <c r="H3" s="567" t="s">
+      <c r="H3" s="565" t="s">
         <v>410</v>
       </c>
     </row>
@@ -34188,7 +34430,7 @@
       <c r="G59" s="409">
         <v>2</v>
       </c>
-      <c r="H59" s="453"/>
+      <c r="H59" s="451"/>
     </row>
     <row r="60" spans="1:8" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="128">
@@ -34210,7 +34452,7 @@
       <c r="G60" s="409">
         <v>3</v>
       </c>
-      <c r="H60" s="453"/>
+      <c r="H60" s="451"/>
     </row>
     <row r="61" spans="1:8" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="128">
@@ -34232,14 +34474,14 @@
       <c r="G61" s="409">
         <v>4</v>
       </c>
-      <c r="H61" s="453"/>
+      <c r="H61" s="451"/>
     </row>
     <row r="62" spans="1:8" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="128">
         <v>42736</v>
       </c>
       <c r="B62" s="128"/>
-      <c r="C62" s="509" t="s">
+      <c r="C62" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D62" s="69" t="s">
@@ -34255,44 +34497,54 @@
       <c r="H62" s="69"/>
     </row>
     <row r="63" spans="1:8" s="370" customFormat="1" ht="20" customHeight="1">
-      <c r="A63" s="539">
+      <c r="A63" s="537">
         <v>42746</v>
       </c>
-      <c r="B63" s="539"/>
-      <c r="C63" s="536" t="s">
+      <c r="B63" s="537"/>
+      <c r="C63" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="511" t="s">
+      <c r="D63" s="509" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="540"/>
-      <c r="F63" s="540" t="s">
+      <c r="E63" s="538"/>
+      <c r="F63" s="538" t="s">
         <v>151</v>
       </c>
-      <c r="G63" s="541">
+      <c r="G63" s="539">
         <v>1</v>
       </c>
-      <c r="H63" s="540"/>
+      <c r="H63" s="538"/>
     </row>
     <row r="64" spans="1:8" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A64" s="452"/>
+      <c r="A64" s="128">
+        <v>42736</v>
+      </c>
       <c r="B64" s="128"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="338"/>
+      <c r="C64" s="69" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>150</v>
+      </c>
       <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="409"/>
-      <c r="H64" s="453"/>
+      <c r="F64" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="409">
+        <v>1</v>
+      </c>
+      <c r="H64" s="69"/>
     </row>
     <row r="65" spans="1:8" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A65" s="454"/>
-      <c r="B65" s="455"/>
-      <c r="C65" s="456"/>
+      <c r="A65" s="452"/>
+      <c r="B65" s="453"/>
+      <c r="C65" s="454"/>
       <c r="D65" s="345"/>
-      <c r="E65" s="456"/>
-      <c r="F65" s="456"/>
-      <c r="G65" s="457"/>
-      <c r="H65" s="458"/>
+      <c r="E65" s="454"/>
+      <c r="F65" s="454"/>
+      <c r="G65" s="455"/>
+      <c r="H65" s="456"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -34316,7 +34568,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -34480,17 +34732,33 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="387"/>
-      <c r="B7" s="387"/>
-      <c r="C7" s="387"/>
-      <c r="D7" s="387"/>
-      <c r="E7" s="387"/>
-      <c r="F7" s="387"/>
-      <c r="G7" s="387"/>
-      <c r="H7" s="387"/>
-      <c r="I7" s="387"/>
-      <c r="J7" s="387"/>
-      <c r="K7" s="387"/>
+      <c r="A7" s="421">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="421">
+        <v>42736</v>
+      </c>
+      <c r="C7" s="422" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D7" s="423"/>
+      <c r="E7" s="422" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="422"/>
+      <c r="G7" s="424" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H7" s="422">
+        <v>1</v>
+      </c>
+      <c r="I7" s="425" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J7" s="422"/>
+      <c r="K7" s="423" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="8" spans="1:11" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="387"/>
@@ -34507,7 +34775,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:B6" xr:uid="{78B21147-A2C0-BC45-ADAC-7B79FB7A6FD4}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:B7" xr:uid="{78B21147-A2C0-BC45-ADAC-7B79FB7A6FD4}">
       <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
@@ -34522,7 +34790,7 @@
           <x14:formula1>
             <xm:f>'/Users/matt/Library/Containers/com.microsoft.Excel/Data/Documents/Users\dev\Documents\Definition Files\[RDM-8509.xlsx]CaseField'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F4</xm:sqref>
+          <xm:sqref>F4 F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -34534,8 +34802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:DS57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -35730,7 +35998,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="434"/>
-      <c r="I44" s="459"/>
+      <c r="I44" s="457"/>
     </row>
     <row r="45" spans="1:123" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="120">
@@ -35751,7 +36019,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="434"/>
-      <c r="I45" s="459"/>
+      <c r="I45" s="457"/>
     </row>
     <row r="46" spans="1:123" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="120">
@@ -35772,7 +36040,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="434"/>
-      <c r="I46" s="459"/>
+      <c r="I46" s="457"/>
     </row>
     <row r="47" spans="1:123" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="120">
@@ -35793,7 +36061,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="434"/>
-      <c r="I47" s="459"/>
+      <c r="I47" s="457"/>
     </row>
     <row r="48" spans="1:123" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="120">
@@ -35814,7 +36082,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="434"/>
-      <c r="I48" s="459"/>
+      <c r="I48" s="457"/>
     </row>
     <row r="49" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="120">
@@ -35835,28 +36103,28 @@
         <v>2</v>
       </c>
       <c r="H49" s="434"/>
-      <c r="I49" s="459"/>
+      <c r="I49" s="457"/>
     </row>
     <row r="50" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="120">
         <v>42736</v>
       </c>
       <c r="B50" s="139"/>
-      <c r="C50" s="462" t="s">
+      <c r="C50" s="460" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="462" t="s">
+      <c r="D50" s="460" t="s">
         <v>373</v>
       </c>
-      <c r="E50" s="463" t="s">
+      <c r="E50" s="461" t="s">
         <v>374</v>
       </c>
-      <c r="F50" s="463"/>
-      <c r="G50" s="464">
+      <c r="F50" s="461"/>
+      <c r="G50" s="462">
         <v>3</v>
       </c>
       <c r="H50" s="434"/>
-      <c r="I50" s="459"/>
+      <c r="I50" s="457"/>
     </row>
     <row r="51" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="120">
@@ -35877,7 +36145,7 @@
         <v>4</v>
       </c>
       <c r="H51" s="434"/>
-      <c r="I51" s="459"/>
+      <c r="I51" s="457"/>
     </row>
     <row r="52" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="120">
@@ -35898,7 +36166,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="434"/>
-      <c r="I52" s="459"/>
+      <c r="I52" s="457"/>
     </row>
     <row r="53" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="128">
@@ -35919,39 +36187,49 @@
         <v>1</v>
       </c>
       <c r="H53" s="69"/>
-      <c r="I53" s="459"/>
+      <c r="I53" s="457"/>
     </row>
     <row r="54" spans="1:9" s="328" customFormat="1" ht="20" customHeight="1">
-      <c r="A54" s="542">
-        <v>42736</v>
-      </c>
-      <c r="B54" s="543"/>
-      <c r="C54" s="536" t="s">
+      <c r="A54" s="540">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="541"/>
+      <c r="C54" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="544" t="s">
+      <c r="D54" s="542" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="545" t="s">
+      <c r="E54" s="543" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="545"/>
-      <c r="G54" s="546">
+      <c r="F54" s="543"/>
+      <c r="G54" s="544">
         <v>1</v>
       </c>
-      <c r="H54" s="547"/>
-      <c r="I54" s="547"/>
+      <c r="H54" s="545"/>
+      <c r="I54" s="545"/>
     </row>
     <row r="55" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A55" s="138"/>
+      <c r="A55" s="120">
+        <v>42736</v>
+      </c>
       <c r="B55" s="139"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="140"/>
+      <c r="C55" s="121" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D55" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="140" t="s">
+        <v>151</v>
+      </c>
       <c r="F55" s="140"/>
-      <c r="G55" s="141"/>
+      <c r="G55" s="141">
+        <v>1</v>
+      </c>
       <c r="H55" s="434"/>
-      <c r="I55" s="459"/>
+      <c r="I55" s="434"/>
     </row>
     <row r="56" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="138"/>
@@ -35962,18 +36240,18 @@
       <c r="F56" s="140"/>
       <c r="G56" s="141"/>
       <c r="H56" s="434"/>
-      <c r="I56" s="459"/>
+      <c r="I56" s="457"/>
     </row>
     <row r="57" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A57" s="460"/>
-      <c r="B57" s="461"/>
-      <c r="C57" s="462"/>
-      <c r="D57" s="462"/>
-      <c r="E57" s="463"/>
-      <c r="F57" s="463"/>
-      <c r="G57" s="464"/>
-      <c r="H57" s="465"/>
-      <c r="I57" s="466"/>
+      <c r="A57" s="458"/>
+      <c r="B57" s="459"/>
+      <c r="C57" s="460"/>
+      <c r="D57" s="460"/>
+      <c r="E57" s="461"/>
+      <c r="F57" s="461"/>
+      <c r="G57" s="462"/>
+      <c r="H57" s="463"/>
+      <c r="I57" s="464"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -35996,8 +36274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1"/>
@@ -37160,17 +37438,17 @@
         <v>42736</v>
       </c>
       <c r="B56" s="441"/>
-      <c r="C56" s="463" t="s">
+      <c r="C56" s="461" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="462" t="s">
+      <c r="D56" s="460" t="s">
         <v>378</v>
       </c>
-      <c r="E56" s="462"/>
-      <c r="F56" s="462" t="s">
+      <c r="E56" s="460"/>
+      <c r="F56" s="460" t="s">
         <v>1138</v>
       </c>
-      <c r="G56" s="464">
+      <c r="G56" s="462">
         <v>3</v>
       </c>
       <c r="H56" s="72"/>
@@ -37240,7 +37518,7 @@
         <v>42736</v>
       </c>
       <c r="B60" s="128"/>
-      <c r="C60" s="509" t="s">
+      <c r="C60" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D60" s="69" t="s">
@@ -37256,37 +37534,47 @@
       <c r="H60" s="56"/>
     </row>
     <row r="61" spans="1:8" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A61" s="548">
+      <c r="A61" s="546">
         <v>42746</v>
       </c>
-      <c r="B61" s="526"/>
-      <c r="C61" s="536" t="s">
+      <c r="B61" s="524"/>
+      <c r="C61" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="544" t="s">
+      <c r="D61" s="542" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="544"/>
-      <c r="F61" s="526" t="s">
+      <c r="E61" s="542"/>
+      <c r="F61" s="524" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="546">
+      <c r="G61" s="544">
         <v>1</v>
       </c>
-      <c r="H61" s="515"/>
-    </row>
-    <row r="62" spans="1:8" ht="20" customHeight="1">
-      <c r="A62" s="467"/>
-      <c r="B62" s="441"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="121"/>
+      <c r="H61" s="513"/>
+    </row>
+    <row r="62" spans="1:8" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A62" s="148">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D62" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="E62" s="121"/>
-      <c r="F62" s="441"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="56"/>
+      <c r="F62" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="141">
+        <v>1</v>
+      </c>
+      <c r="H62" s="72"/>
     </row>
     <row r="63" spans="1:8" ht="20" customHeight="1">
-      <c r="A63" s="467"/>
+      <c r="A63" s="465"/>
       <c r="B63" s="441"/>
       <c r="C63" s="140"/>
       <c r="D63" s="121"/>
@@ -37296,7 +37584,7 @@
       <c r="H63" s="56"/>
     </row>
     <row r="64" spans="1:8" ht="20" customHeight="1">
-      <c r="A64" s="467"/>
+      <c r="A64" s="465"/>
       <c r="B64" s="441"/>
       <c r="C64" s="140"/>
       <c r="D64" s="121"/>
@@ -37306,13 +37594,13 @@
       <c r="H64" s="56"/>
     </row>
     <row r="65" spans="1:8" ht="20" customHeight="1">
-      <c r="A65" s="468"/>
-      <c r="B65" s="469"/>
-      <c r="C65" s="463"/>
-      <c r="D65" s="462"/>
-      <c r="E65" s="462"/>
-      <c r="F65" s="469"/>
-      <c r="G65" s="464"/>
+      <c r="A65" s="466"/>
+      <c r="B65" s="467"/>
+      <c r="C65" s="461"/>
+      <c r="D65" s="460"/>
+      <c r="E65" s="460"/>
+      <c r="F65" s="467"/>
+      <c r="G65" s="462"/>
       <c r="H65" s="359"/>
     </row>
   </sheetData>
@@ -37336,8 +37624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BL74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -38861,34 +39149,44 @@
       <c r="I65" s="173"/>
     </row>
     <row r="66" spans="1:9" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A66" s="549">
-        <v>42736</v>
-      </c>
-      <c r="B66" s="550"/>
-      <c r="C66" s="536" t="s">
+      <c r="A66" s="547">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="548"/>
+      <c r="C66" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="551" t="s">
+      <c r="D66" s="549" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="551"/>
-      <c r="F66" s="551" t="s">
+      <c r="E66" s="549"/>
+      <c r="F66" s="549" t="s">
         <v>151</v>
       </c>
-      <c r="G66" s="552">
+      <c r="G66" s="550">
         <v>1</v>
       </c>
-      <c r="H66" s="551"/>
-      <c r="I66" s="551"/>
-    </row>
-    <row r="67" spans="1:9" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A67" s="178"/>
+      <c r="H66" s="549"/>
+      <c r="I66" s="549"/>
+    </row>
+    <row r="67" spans="1:9" ht="20" customHeight="1">
+      <c r="A67" s="178">
+        <v>42736</v>
+      </c>
       <c r="B67" s="179"/>
-      <c r="C67" s="173"/>
-      <c r="D67" s="173"/>
+      <c r="C67" s="173" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D67" s="173" t="s">
+        <v>150</v>
+      </c>
       <c r="E67" s="173"/>
-      <c r="F67" s="173"/>
-      <c r="G67" s="174"/>
+      <c r="F67" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="174">
+        <v>2</v>
+      </c>
       <c r="H67" s="173"/>
       <c r="I67" s="173"/>
     </row>
@@ -39246,10 +39544,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -39259,7 +39557,7 @@
     <col min="3" max="3" width="31.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="13" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" customWidth="1"/>
+    <col min="6" max="255" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
@@ -39305,7 +39603,7 @@
         <v>107</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="E3" s="95" t="s">
         <v>565</v>
@@ -39796,7 +40094,7 @@
         <v>42736</v>
       </c>
       <c r="B36" s="61"/>
-      <c r="C36" s="509" t="s">
+      <c r="C36" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="447" t="s">
@@ -39807,40 +40105,34 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="328" customFormat="1" ht="20" customHeight="1">
-      <c r="A37" s="521">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="526"/>
-      <c r="C37" s="536" t="s">
+      <c r="A37" s="519">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="524"/>
+      <c r="C37" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="553" t="s">
+      <c r="D37" s="551" t="s">
         <v>566</v>
       </c>
-      <c r="E37" s="554" t="s">
+      <c r="E37" s="552" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="447"/>
-      <c r="E38" s="99"/>
-    </row>
-    <row r="39" spans="1:5" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="447"/>
-      <c r="E39" s="99"/>
-    </row>
-    <row r="40" spans="1:5" s="327" customFormat="1" ht="20" customHeight="1">
-      <c r="A40" s="207"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="282"/>
-      <c r="E40" s="210"/>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D38" s="114" t="s">
+        <v>566</v>
+      </c>
+      <c r="E38" s="99" t="s">
+        <v>565</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -39856,10 +40148,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A249" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -39923,7 +40215,7 @@
         <v>564</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="F3" s="95" t="s">
         <v>565</v>
@@ -44290,10 +44582,10 @@
         <v>42736</v>
       </c>
       <c r="B246" s="53"/>
-      <c r="C246" s="509" t="s">
+      <c r="C246" s="507" t="s">
         <v>100</v>
       </c>
-      <c r="D246" s="503" t="s">
+      <c r="D246" s="501" t="s">
         <v>150</v>
       </c>
       <c r="E246" s="61" t="s">
@@ -44311,7 +44603,7 @@
       <c r="C247" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D247" s="504" t="s">
+      <c r="D247" s="502" t="s">
         <v>154</v>
       </c>
       <c r="E247" s="61" t="s">
@@ -44326,10 +44618,10 @@
         <v>42736</v>
       </c>
       <c r="B248" s="53"/>
-      <c r="C248" s="509" t="s">
+      <c r="C248" s="507" t="s">
         <v>100</v>
       </c>
-      <c r="D248" s="503" t="s">
+      <c r="D248" s="501" t="s">
         <v>157</v>
       </c>
       <c r="E248" s="61" t="s">
@@ -44347,7 +44639,7 @@
       <c r="C249" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D249" s="505" t="s">
+      <c r="D249" s="503" t="s">
         <v>224</v>
       </c>
       <c r="E249" s="61" t="s">
@@ -44362,10 +44654,10 @@
         <v>42736</v>
       </c>
       <c r="B250" s="53"/>
-      <c r="C250" s="509" t="s">
+      <c r="C250" s="507" t="s">
         <v>100</v>
       </c>
-      <c r="D250" s="506" t="s">
+      <c r="D250" s="504" t="s">
         <v>236</v>
       </c>
       <c r="E250" s="61" t="s">
@@ -44394,147 +44686,201 @@
       </c>
     </row>
     <row r="252" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A252" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B252" s="556"/>
-      <c r="C252" s="536" t="s">
+      <c r="A252" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B252" s="554"/>
+      <c r="C252" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D252" s="514" t="s">
+      <c r="D252" s="512" t="s">
         <v>150</v>
       </c>
-      <c r="E252" s="557" t="s">
+      <c r="E252" s="555" t="s">
         <v>566</v>
       </c>
-      <c r="F252" s="558" t="s">
+      <c r="F252" s="556" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A253" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B253" s="556"/>
-      <c r="C253" s="536" t="s">
+      <c r="A253" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B253" s="554"/>
+      <c r="C253" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D253" s="514" t="s">
+      <c r="D253" s="512" t="s">
         <v>154</v>
       </c>
-      <c r="E253" s="557" t="s">
+      <c r="E253" s="555" t="s">
         <v>566</v>
       </c>
-      <c r="F253" s="558" t="s">
+      <c r="F253" s="556" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A254" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B254" s="556"/>
-      <c r="C254" s="536" t="s">
+      <c r="A254" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B254" s="554"/>
+      <c r="C254" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D254" s="514" t="s">
+      <c r="D254" s="512" t="s">
         <v>195</v>
       </c>
-      <c r="E254" s="557" t="s">
+      <c r="E254" s="555" t="s">
         <v>566</v>
       </c>
-      <c r="F254" s="558" t="s">
+      <c r="F254" s="556" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A255" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B255" s="556"/>
-      <c r="C255" s="536" t="s">
+      <c r="A255" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B255" s="554"/>
+      <c r="C255" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D255" s="514" t="s">
+      <c r="D255" s="512" t="s">
         <v>387</v>
       </c>
-      <c r="E255" s="557" t="s">
+      <c r="E255" s="555" t="s">
         <v>566</v>
       </c>
-      <c r="F255" s="558" t="s">
+      <c r="F255" s="556" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A256" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B256" s="555"/>
-      <c r="C256" s="555" t="s">
+      <c r="A256" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B256" s="553"/>
+      <c r="C256" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D256" s="555" t="s">
+      <c r="D256" s="553" t="s">
         <v>389</v>
       </c>
-      <c r="E256" s="555" t="s">
+      <c r="E256" s="553" t="s">
         <v>566</v>
       </c>
-      <c r="F256" s="555" t="s">
+      <c r="F256" s="553" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A257" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B257" s="555"/>
-      <c r="C257" s="555" t="s">
+      <c r="A257" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B257" s="553"/>
+      <c r="C257" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D257" s="555" t="s">
+      <c r="D257" s="553" t="s">
         <v>391</v>
       </c>
-      <c r="E257" s="555" t="s">
+      <c r="E257" s="553" t="s">
         <v>566</v>
       </c>
-      <c r="F257" s="555" t="s">
+      <c r="F257" s="553" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A258" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B258" s="555"/>
-      <c r="C258" s="555" t="s">
+      <c r="A258" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B258" s="553"/>
+      <c r="C258" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="555" t="s">
+      <c r="D258" s="553" t="s">
         <v>394</v>
       </c>
-      <c r="E258" s="555" t="s">
+      <c r="E258" s="553" t="s">
         <v>566</v>
       </c>
-      <c r="F258" s="555" t="s">
+      <c r="F258" s="553" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A259" s="555">
-        <v>42736</v>
-      </c>
-      <c r="B259" s="555"/>
-      <c r="C259" s="555" t="s">
+      <c r="A259" s="553">
+        <v>42736</v>
+      </c>
+      <c r="B259" s="553"/>
+      <c r="C259" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D259" s="555" t="s">
+      <c r="D259" s="553" t="s">
         <v>397</v>
       </c>
-      <c r="E259" s="555" t="s">
+      <c r="E259" s="553" t="s">
         <v>566</v>
       </c>
-      <c r="F259" s="555" t="s">
+      <c r="F259" s="553" t="s">
         <v>565</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A260" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B260" s="53"/>
+      <c r="C260" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D260" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E260" s="72" t="s">
+        <v>566</v>
+      </c>
+      <c r="F260" s="99" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A261" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B261" s="53"/>
+      <c r="C261" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D261" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E261" s="72" t="s">
+        <v>566</v>
+      </c>
+      <c r="F261" s="99" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A262" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B262" s="53"/>
+      <c r="C262" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D262" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E262" s="72" t="s">
+        <v>566</v>
+      </c>
+      <c r="F262" s="99" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -44866,7 +45212,7 @@
   <dimension ref="A1:EK79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -44929,7 +45275,7 @@
         <v>600</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="F3" s="95" t="s">
         <v>565</v>
@@ -46329,7 +46675,7 @@
       <c r="C66" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="480" t="s">
+      <c r="D66" s="478" t="s">
         <v>669</v>
       </c>
       <c r="E66" s="447" t="s">
@@ -46488,10 +46834,10 @@
         <v>42736</v>
       </c>
       <c r="B75" s="61"/>
-      <c r="C75" s="509" t="s">
+      <c r="C75" s="507" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="509" t="s">
+      <c r="D75" s="507" t="s">
         <v>653</v>
       </c>
       <c r="E75" s="447" t="s">
@@ -46520,48 +46866,58 @@
       </c>
     </row>
     <row r="77" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A77" s="521">
-        <v>42736</v>
-      </c>
-      <c r="B77" s="515"/>
-      <c r="C77" s="555" t="s">
+      <c r="A77" s="519">
+        <v>42736</v>
+      </c>
+      <c r="B77" s="513"/>
+      <c r="C77" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="514" t="s">
+      <c r="D77" s="512" t="s">
         <v>645</v>
       </c>
-      <c r="E77" s="515" t="s">
+      <c r="E77" s="513" t="s">
         <v>566</v>
       </c>
-      <c r="F77" s="554" t="s">
+      <c r="F77" s="552" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A78" s="521">
-        <v>42736</v>
-      </c>
-      <c r="B78" s="515"/>
-      <c r="C78" s="555" t="s">
+      <c r="A78" s="519">
+        <v>42736</v>
+      </c>
+      <c r="B78" s="513"/>
+      <c r="C78" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="514" t="s">
+      <c r="D78" s="512" t="s">
         <v>646</v>
       </c>
-      <c r="E78" s="515" t="s">
+      <c r="E78" s="513" t="s">
         <v>566</v>
       </c>
-      <c r="F78" s="554" t="s">
+      <c r="F78" s="552" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
+    <row r="79" spans="1:6" ht="20" customHeight="1">
+      <c r="A79" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B79" s="72"/>
+      <c r="C79" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="E79" s="114" t="s">
+        <v>566</v>
+      </c>
+      <c r="F79" s="99" t="s">
+        <v>565</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -46577,10 +46933,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:CF57"/>
+  <dimension ref="A1:CF58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -46643,7 +46999,7 @@
         <v>1185</v>
       </c>
       <c r="E3" s="362" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="F3" s="362" t="s">
         <v>565</v>
@@ -47710,7 +48066,7 @@
         <v>42736</v>
       </c>
       <c r="B54" s="61"/>
-      <c r="C54" s="509" t="s">
+      <c r="C54" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -47724,56 +48080,74 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A55" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B55" s="526"/>
-      <c r="C55" s="555" t="s">
+      <c r="A55" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="524"/>
+      <c r="C55" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="559" t="s">
+      <c r="D55" s="557" t="s">
         <v>830</v>
       </c>
-      <c r="E55" s="553" t="s">
+      <c r="E55" s="551" t="s">
         <v>566</v>
       </c>
-      <c r="F55" s="514" t="s">
+      <c r="F55" s="512" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A56" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B56" s="526"/>
-      <c r="C56" s="555" t="s">
+      <c r="A56" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="524"/>
+      <c r="C56" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="559" t="s">
+      <c r="D56" s="557" t="s">
         <v>832</v>
       </c>
-      <c r="E56" s="553" t="s">
+      <c r="E56" s="551" t="s">
         <v>566</v>
       </c>
-      <c r="F56" s="514" t="s">
+      <c r="F56" s="512" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A57" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B57" s="526"/>
-      <c r="C57" s="555" t="s">
+      <c r="A57" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="524"/>
+      <c r="C57" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="559" t="s">
+      <c r="D57" s="557" t="s">
         <v>856</v>
       </c>
-      <c r="E57" s="553" t="s">
+      <c r="E57" s="551" t="s">
         <v>566</v>
       </c>
-      <c r="F57" s="514" t="s">
+      <c r="F57" s="512" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20" customHeight="1">
+      <c r="A58" s="53">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="72"/>
+      <c r="C58" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>830</v>
+      </c>
+      <c r="E58" s="114" t="s">
+        <v>566</v>
+      </c>
+      <c r="F58" s="54" t="s">
         <v>565</v>
       </c>
     </row>
@@ -47805,41 +48179,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="568" t="s">
+      <c r="A1" s="566" t="s">
         <v>1188</v>
       </c>
-      <c r="B1" s="568"/>
-      <c r="C1" s="569"/>
-      <c r="D1" s="569"/>
-      <c r="E1" s="570" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="567"/>
+      <c r="D1" s="567"/>
+      <c r="E1" s="568" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="570"/>
+      <c r="F1" s="568"/>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="56">
-      <c r="A2" s="571" t="s">
+      <c r="A2" s="569" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="571" t="s">
+      <c r="B2" s="569" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="571" t="s">
+      <c r="C2" s="569" t="s">
         <v>1189</v>
       </c>
-      <c r="D2" s="571"/>
-      <c r="E2" s="571" t="s">
+      <c r="D2" s="569"/>
+      <c r="E2" s="569" t="s">
         <v>1190</v>
       </c>
-      <c r="F2" s="571" t="s">
+      <c r="F2" s="569" t="s">
         <v>1191</v>
       </c>
-      <c r="G2" s="571" t="s">
+      <c r="G2" s="569" t="s">
         <v>1192</v>
       </c>
-      <c r="H2" s="571" t="s">
+      <c r="H2" s="569" t="s">
         <v>1193</v>
       </c>
       <c r="I2" s="17"/>
@@ -48271,7 +48645,7 @@
       <c r="B33" s="59"/>
       <c r="C33" s="106"/>
       <c r="D33" s="106"/>
-      <c r="E33" s="572"/>
+      <c r="E33" s="570"/>
       <c r="F33" s="354"/>
       <c r="G33" s="114"/>
       <c r="H33" s="60"/>
@@ -48282,7 +48656,7 @@
       <c r="B34" s="59"/>
       <c r="C34" s="106"/>
       <c r="D34" s="106"/>
-      <c r="E34" s="572"/>
+      <c r="E34" s="570"/>
       <c r="F34" s="354"/>
       <c r="G34" s="114"/>
       <c r="H34" s="60"/>
@@ -48293,7 +48667,7 @@
       <c r="B35" s="59"/>
       <c r="C35" s="106"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="572"/>
+      <c r="E35" s="570"/>
       <c r="F35" s="354"/>
       <c r="G35" s="114"/>
       <c r="H35" s="60"/>
@@ -48304,7 +48678,7 @@
       <c r="B36" s="59"/>
       <c r="C36" s="106"/>
       <c r="D36" s="106"/>
-      <c r="E36" s="572"/>
+      <c r="E36" s="570"/>
       <c r="F36" s="354"/>
       <c r="G36" s="114"/>
       <c r="H36" s="60"/>
@@ -48315,7 +48689,7 @@
       <c r="B37" s="59"/>
       <c r="C37" s="106"/>
       <c r="D37" s="106"/>
-      <c r="E37" s="572"/>
+      <c r="E37" s="570"/>
       <c r="F37" s="354"/>
       <c r="G37" s="114"/>
       <c r="H37" s="60"/>
@@ -48326,7 +48700,7 @@
       <c r="B38" s="59"/>
       <c r="C38" s="106"/>
       <c r="D38" s="106"/>
-      <c r="E38" s="572"/>
+      <c r="E38" s="570"/>
       <c r="F38" s="354"/>
       <c r="G38" s="114"/>
       <c r="H38" s="60"/>
@@ -48337,7 +48711,7 @@
       <c r="B39" s="59"/>
       <c r="C39" s="106"/>
       <c r="D39" s="106"/>
-      <c r="E39" s="572"/>
+      <c r="E39" s="570"/>
       <c r="F39" s="354"/>
       <c r="G39" s="114"/>
       <c r="H39" s="60"/>
@@ -48348,7 +48722,7 @@
       <c r="B40" s="59"/>
       <c r="C40" s="106"/>
       <c r="D40" s="106"/>
-      <c r="E40" s="572"/>
+      <c r="E40" s="570"/>
       <c r="F40" s="354"/>
       <c r="G40" s="114"/>
       <c r="H40" s="60"/>
@@ -48522,11 +48896,11 @@
     <row r="56" spans="1:9">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
-      <c r="C56" s="573"/>
-      <c r="D56" s="573"/>
+      <c r="C56" s="571"/>
+      <c r="D56" s="571"/>
       <c r="E56" s="77"/>
       <c r="F56" s="77"/>
-      <c r="G56" s="573"/>
+      <c r="G56" s="571"/>
       <c r="H56" s="107"/>
       <c r="I56" s="17"/>
     </row>
@@ -48551,10 +48925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -49113,25 +49487,48 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="328" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="510">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="511"/>
-      <c r="C24" s="511" t="s">
+      <c r="A24" s="508">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="509"/>
+      <c r="C24" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="511" t="s">
+      <c r="D24" s="509" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="511" t="s">
+      <c r="E24" s="509" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="511" t="s">
+      <c r="F24" s="509" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="511"/>
-      <c r="H24" s="511"/>
-      <c r="I24" s="512" t="s">
+      <c r="G24" s="509"/>
+      <c r="H24" s="509"/>
+      <c r="I24" s="510" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="342">
+        <v>42737</v>
+      </c>
+      <c r="B25" s="338"/>
+      <c r="C25" s="270" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D25" s="338" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E25" s="338" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F25" s="338" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="338"/>
+      <c r="H25" s="338"/>
+      <c r="I25" s="344" t="s">
         <v>45</v>
       </c>
     </row>
@@ -49404,11 +49801,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO185"/>
+  <dimension ref="A1:IO188"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
+      <pane ySplit="3" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -55016,2133 +55413,2226 @@
       </c>
       <c r="O177" s="99"/>
     </row>
-    <row r="178" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A178" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B178" s="513"/>
-      <c r="C178" s="511" t="s">
+    <row r="178" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A178" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B178" s="511"/>
+      <c r="C178" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D178" s="514" t="s">
+      <c r="D178" s="512" t="s">
         <v>150</v>
       </c>
-      <c r="E178" s="514" t="s">
+      <c r="E178" s="512" t="s">
         <v>151</v>
       </c>
-      <c r="F178" s="515"/>
-      <c r="G178" s="514" t="s">
+      <c r="F178" s="513"/>
+      <c r="G178" s="512" t="s">
         <v>152</v>
       </c>
-      <c r="H178" s="514"/>
-      <c r="I178" s="515"/>
-      <c r="J178" s="515"/>
-      <c r="K178" s="514" t="s">
+      <c r="H178" s="512"/>
+      <c r="I178" s="513"/>
+      <c r="J178" s="513"/>
+      <c r="K178" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L178" s="515"/>
-      <c r="M178" s="515"/>
-      <c r="N178" s="514" t="s">
+      <c r="L178" s="513"/>
+      <c r="M178" s="513"/>
+      <c r="N178" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O178" s="514"/>
-      <c r="P178" s="516"/>
-      <c r="Q178" s="516"/>
-      <c r="R178" s="516"/>
-      <c r="S178" s="516"/>
-      <c r="T178" s="516"/>
-      <c r="U178" s="516"/>
-      <c r="V178" s="516"/>
-      <c r="W178" s="516"/>
-      <c r="X178" s="516"/>
-      <c r="Y178" s="516"/>
-      <c r="Z178" s="516"/>
-      <c r="AA178" s="516"/>
-      <c r="AB178" s="516"/>
-      <c r="AC178" s="516"/>
-      <c r="AD178" s="516"/>
-      <c r="AE178" s="516"/>
-      <c r="AF178" s="516"/>
-      <c r="AG178" s="516"/>
-      <c r="AH178" s="516"/>
-      <c r="AI178" s="516"/>
-      <c r="AJ178" s="516"/>
-      <c r="AK178" s="516"/>
-      <c r="AL178" s="516"/>
-      <c r="AM178" s="516"/>
-      <c r="AN178" s="516"/>
-      <c r="AO178" s="516"/>
-      <c r="AP178" s="516"/>
-      <c r="AQ178" s="516"/>
-      <c r="AR178" s="516"/>
-      <c r="AS178" s="516"/>
-      <c r="AT178" s="516"/>
-      <c r="AU178" s="516"/>
-      <c r="AV178" s="516"/>
-      <c r="AW178" s="516"/>
-      <c r="AX178" s="516"/>
-      <c r="AY178" s="516"/>
-      <c r="AZ178" s="516"/>
-      <c r="BA178" s="516"/>
-      <c r="BB178" s="516"/>
-      <c r="BC178" s="516"/>
-      <c r="BD178" s="516"/>
-      <c r="BE178" s="516"/>
-      <c r="BF178" s="516"/>
-      <c r="BG178" s="516"/>
-      <c r="BH178" s="516"/>
-      <c r="BI178" s="516"/>
-      <c r="BJ178" s="516"/>
-      <c r="BK178" s="516"/>
-      <c r="BL178" s="516"/>
-      <c r="BM178" s="516"/>
-      <c r="BN178" s="516"/>
-      <c r="BO178" s="516"/>
-      <c r="BP178" s="516"/>
-      <c r="BQ178" s="516"/>
-      <c r="BR178" s="516"/>
-      <c r="BS178" s="516"/>
-      <c r="BT178" s="516"/>
-      <c r="BU178" s="516"/>
-      <c r="BV178" s="516"/>
-      <c r="BW178" s="516"/>
-      <c r="BX178" s="516"/>
-      <c r="BY178" s="516"/>
-      <c r="BZ178" s="516"/>
-      <c r="CA178" s="516"/>
-      <c r="CB178" s="516"/>
-      <c r="CC178" s="516"/>
-      <c r="CD178" s="516"/>
-      <c r="CE178" s="516"/>
-      <c r="CF178" s="516"/>
-      <c r="CG178" s="516"/>
-      <c r="CH178" s="516"/>
-      <c r="CI178" s="516"/>
-      <c r="CJ178" s="516"/>
-      <c r="CK178" s="516"/>
-      <c r="CL178" s="516"/>
-      <c r="CM178" s="516"/>
-      <c r="CN178" s="516"/>
-      <c r="CO178" s="516"/>
-      <c r="CP178" s="516"/>
-      <c r="CQ178" s="516"/>
-      <c r="CR178" s="516"/>
-      <c r="CS178" s="516"/>
-      <c r="CT178" s="516"/>
-      <c r="CU178" s="516"/>
-      <c r="CV178" s="516"/>
-      <c r="CW178" s="516"/>
-      <c r="CX178" s="516"/>
-      <c r="CY178" s="516"/>
-      <c r="CZ178" s="516"/>
-      <c r="DA178" s="516"/>
-      <c r="DB178" s="516"/>
-      <c r="DC178" s="516"/>
-      <c r="DD178" s="516"/>
-      <c r="DE178" s="516"/>
-      <c r="DF178" s="516"/>
-      <c r="DG178" s="516"/>
-      <c r="DH178" s="516"/>
-      <c r="DI178" s="516"/>
-      <c r="DJ178" s="516"/>
-      <c r="DK178" s="516"/>
-      <c r="DL178" s="516"/>
-      <c r="DM178" s="516"/>
-      <c r="DN178" s="516"/>
-      <c r="DO178" s="516"/>
-      <c r="DP178" s="516"/>
-      <c r="DQ178" s="516"/>
-      <c r="DR178" s="516"/>
-      <c r="DS178" s="516"/>
-      <c r="DT178" s="516"/>
-      <c r="DU178" s="516"/>
-      <c r="DV178" s="516"/>
-      <c r="DW178" s="516"/>
-      <c r="DX178" s="516"/>
-      <c r="DY178" s="516"/>
-      <c r="DZ178" s="516"/>
-      <c r="EA178" s="516"/>
-      <c r="EB178" s="516"/>
-      <c r="EC178" s="516"/>
-      <c r="ED178" s="516"/>
-      <c r="EE178" s="516"/>
-      <c r="EF178" s="516"/>
-      <c r="EG178" s="516"/>
-      <c r="EH178" s="516"/>
-      <c r="EI178" s="516"/>
-      <c r="EJ178" s="516"/>
-      <c r="EK178" s="516"/>
-      <c r="EL178" s="516"/>
-      <c r="EM178" s="516"/>
-      <c r="EN178" s="516"/>
-      <c r="EO178" s="516"/>
-      <c r="EP178" s="516"/>
-      <c r="EQ178" s="516"/>
-      <c r="ER178" s="516"/>
-      <c r="ES178" s="516"/>
-      <c r="ET178" s="516"/>
-      <c r="EU178" s="516"/>
-      <c r="EV178" s="516"/>
-      <c r="EW178" s="516"/>
-      <c r="EX178" s="516"/>
-      <c r="EY178" s="516"/>
-      <c r="EZ178" s="516"/>
-      <c r="FA178" s="516"/>
-      <c r="FB178" s="516"/>
-      <c r="FC178" s="516"/>
-      <c r="FD178" s="516"/>
-      <c r="FE178" s="516"/>
-      <c r="FF178" s="516"/>
-      <c r="FG178" s="516"/>
-      <c r="FH178" s="516"/>
-      <c r="FI178" s="516"/>
-      <c r="FJ178" s="516"/>
-      <c r="FK178" s="516"/>
-      <c r="FL178" s="516"/>
-      <c r="FM178" s="516"/>
-      <c r="FN178" s="516"/>
-      <c r="FO178" s="516"/>
-      <c r="FP178" s="516"/>
-      <c r="FQ178" s="516"/>
-      <c r="FR178" s="516"/>
-      <c r="FS178" s="516"/>
-      <c r="FT178" s="516"/>
-      <c r="FU178" s="516"/>
-      <c r="FV178" s="516"/>
-      <c r="FW178" s="516"/>
-      <c r="FX178" s="516"/>
-      <c r="FY178" s="516"/>
-      <c r="FZ178" s="516"/>
-      <c r="GA178" s="516"/>
-      <c r="GB178" s="516"/>
-      <c r="GC178" s="516"/>
-      <c r="GD178" s="516"/>
-      <c r="GE178" s="516"/>
-      <c r="GF178" s="516"/>
-      <c r="GG178" s="516"/>
-      <c r="GH178" s="516"/>
-      <c r="GI178" s="516"/>
-      <c r="GJ178" s="516"/>
-      <c r="GK178" s="516"/>
-      <c r="GL178" s="516"/>
-      <c r="GM178" s="516"/>
-      <c r="GN178" s="516"/>
-      <c r="GO178" s="516"/>
-      <c r="GP178" s="516"/>
-      <c r="GQ178" s="516"/>
-      <c r="GR178" s="516"/>
-      <c r="GS178" s="516"/>
-      <c r="GT178" s="516"/>
-      <c r="GU178" s="516"/>
-      <c r="GV178" s="516"/>
-      <c r="GW178" s="516"/>
-      <c r="GX178" s="516"/>
-      <c r="GY178" s="516"/>
-      <c r="GZ178" s="516"/>
-      <c r="HA178" s="516"/>
-      <c r="HB178" s="516"/>
-      <c r="HC178" s="516"/>
-      <c r="HD178" s="516"/>
-      <c r="HE178" s="516"/>
-      <c r="HF178" s="516"/>
-      <c r="HG178" s="516"/>
-      <c r="HH178" s="516"/>
-      <c r="HI178" s="516"/>
-      <c r="HJ178" s="516"/>
-      <c r="HK178" s="516"/>
-      <c r="HL178" s="516"/>
-      <c r="HM178" s="516"/>
-      <c r="HN178" s="516"/>
-      <c r="HO178" s="516"/>
-      <c r="HP178" s="516"/>
-      <c r="HQ178" s="516"/>
-      <c r="HR178" s="516"/>
-      <c r="HS178" s="516"/>
-      <c r="HT178" s="516"/>
-      <c r="HU178" s="516"/>
-      <c r="HV178" s="516"/>
-      <c r="HW178" s="516"/>
-      <c r="HX178" s="516"/>
-      <c r="HY178" s="516"/>
-      <c r="HZ178" s="516"/>
-      <c r="IA178" s="516"/>
-      <c r="IB178" s="516"/>
-      <c r="IC178" s="516"/>
-      <c r="ID178" s="516"/>
-      <c r="IE178" s="516"/>
-      <c r="IF178" s="516"/>
-      <c r="IG178" s="516"/>
-      <c r="IH178" s="516"/>
-      <c r="II178" s="516"/>
-      <c r="IJ178" s="516"/>
-      <c r="IK178" s="516"/>
-      <c r="IL178" s="516"/>
-      <c r="IM178" s="516"/>
-      <c r="IN178" s="516"/>
-      <c r="IO178" s="516"/>
-    </row>
-    <row r="179" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A179" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B179" s="513"/>
-      <c r="C179" s="511" t="s">
+      <c r="O178" s="512"/>
+      <c r="P178" s="514"/>
+      <c r="Q178" s="514"/>
+      <c r="R178" s="514"/>
+      <c r="S178" s="514"/>
+      <c r="T178" s="514"/>
+      <c r="U178" s="514"/>
+      <c r="V178" s="514"/>
+      <c r="W178" s="514"/>
+      <c r="X178" s="514"/>
+      <c r="Y178" s="514"/>
+      <c r="Z178" s="514"/>
+      <c r="AA178" s="514"/>
+      <c r="AB178" s="514"/>
+      <c r="AC178" s="514"/>
+      <c r="AD178" s="514"/>
+      <c r="AE178" s="514"/>
+      <c r="AF178" s="514"/>
+      <c r="AG178" s="514"/>
+      <c r="AH178" s="514"/>
+      <c r="AI178" s="514"/>
+      <c r="AJ178" s="514"/>
+      <c r="AK178" s="514"/>
+      <c r="AL178" s="514"/>
+      <c r="AM178" s="514"/>
+      <c r="AN178" s="514"/>
+      <c r="AO178" s="514"/>
+      <c r="AP178" s="514"/>
+      <c r="AQ178" s="514"/>
+      <c r="AR178" s="514"/>
+      <c r="AS178" s="514"/>
+      <c r="AT178" s="514"/>
+      <c r="AU178" s="514"/>
+      <c r="AV178" s="514"/>
+      <c r="AW178" s="514"/>
+      <c r="AX178" s="514"/>
+      <c r="AY178" s="514"/>
+      <c r="AZ178" s="514"/>
+      <c r="BA178" s="514"/>
+      <c r="BB178" s="514"/>
+      <c r="BC178" s="514"/>
+      <c r="BD178" s="514"/>
+      <c r="BE178" s="514"/>
+      <c r="BF178" s="514"/>
+      <c r="BG178" s="514"/>
+      <c r="BH178" s="514"/>
+      <c r="BI178" s="514"/>
+      <c r="BJ178" s="514"/>
+      <c r="BK178" s="514"/>
+      <c r="BL178" s="514"/>
+      <c r="BM178" s="514"/>
+      <c r="BN178" s="514"/>
+      <c r="BO178" s="514"/>
+      <c r="BP178" s="514"/>
+      <c r="BQ178" s="514"/>
+      <c r="BR178" s="514"/>
+      <c r="BS178" s="514"/>
+      <c r="BT178" s="514"/>
+      <c r="BU178" s="514"/>
+      <c r="BV178" s="514"/>
+      <c r="BW178" s="514"/>
+      <c r="BX178" s="514"/>
+      <c r="BY178" s="514"/>
+      <c r="BZ178" s="514"/>
+      <c r="CA178" s="514"/>
+      <c r="CB178" s="514"/>
+      <c r="CC178" s="514"/>
+      <c r="CD178" s="514"/>
+      <c r="CE178" s="514"/>
+      <c r="CF178" s="514"/>
+      <c r="CG178" s="514"/>
+      <c r="CH178" s="514"/>
+      <c r="CI178" s="514"/>
+      <c r="CJ178" s="514"/>
+      <c r="CK178" s="514"/>
+      <c r="CL178" s="514"/>
+      <c r="CM178" s="514"/>
+      <c r="CN178" s="514"/>
+      <c r="CO178" s="514"/>
+      <c r="CP178" s="514"/>
+      <c r="CQ178" s="514"/>
+      <c r="CR178" s="514"/>
+      <c r="CS178" s="514"/>
+      <c r="CT178" s="514"/>
+      <c r="CU178" s="514"/>
+      <c r="CV178" s="514"/>
+      <c r="CW178" s="514"/>
+      <c r="CX178" s="514"/>
+      <c r="CY178" s="514"/>
+      <c r="CZ178" s="514"/>
+      <c r="DA178" s="514"/>
+      <c r="DB178" s="514"/>
+      <c r="DC178" s="514"/>
+      <c r="DD178" s="514"/>
+      <c r="DE178" s="514"/>
+      <c r="DF178" s="514"/>
+      <c r="DG178" s="514"/>
+      <c r="DH178" s="514"/>
+      <c r="DI178" s="514"/>
+      <c r="DJ178" s="514"/>
+      <c r="DK178" s="514"/>
+      <c r="DL178" s="514"/>
+      <c r="DM178" s="514"/>
+      <c r="DN178" s="514"/>
+      <c r="DO178" s="514"/>
+      <c r="DP178" s="514"/>
+      <c r="DQ178" s="514"/>
+      <c r="DR178" s="514"/>
+      <c r="DS178" s="514"/>
+      <c r="DT178" s="514"/>
+      <c r="DU178" s="514"/>
+      <c r="DV178" s="514"/>
+      <c r="DW178" s="514"/>
+      <c r="DX178" s="514"/>
+      <c r="DY178" s="514"/>
+      <c r="DZ178" s="514"/>
+      <c r="EA178" s="514"/>
+      <c r="EB178" s="514"/>
+      <c r="EC178" s="514"/>
+      <c r="ED178" s="514"/>
+      <c r="EE178" s="514"/>
+      <c r="EF178" s="514"/>
+      <c r="EG178" s="514"/>
+      <c r="EH178" s="514"/>
+      <c r="EI178" s="514"/>
+      <c r="EJ178" s="514"/>
+      <c r="EK178" s="514"/>
+      <c r="EL178" s="514"/>
+      <c r="EM178" s="514"/>
+      <c r="EN178" s="514"/>
+      <c r="EO178" s="514"/>
+      <c r="EP178" s="514"/>
+      <c r="EQ178" s="514"/>
+      <c r="ER178" s="514"/>
+      <c r="ES178" s="514"/>
+      <c r="ET178" s="514"/>
+      <c r="EU178" s="514"/>
+      <c r="EV178" s="514"/>
+      <c r="EW178" s="514"/>
+      <c r="EX178" s="514"/>
+      <c r="EY178" s="514"/>
+      <c r="EZ178" s="514"/>
+      <c r="FA178" s="514"/>
+      <c r="FB178" s="514"/>
+      <c r="FC178" s="514"/>
+      <c r="FD178" s="514"/>
+      <c r="FE178" s="514"/>
+      <c r="FF178" s="514"/>
+      <c r="FG178" s="514"/>
+      <c r="FH178" s="514"/>
+      <c r="FI178" s="514"/>
+      <c r="FJ178" s="514"/>
+      <c r="FK178" s="514"/>
+      <c r="FL178" s="514"/>
+      <c r="FM178" s="514"/>
+      <c r="FN178" s="514"/>
+      <c r="FO178" s="514"/>
+      <c r="FP178" s="514"/>
+      <c r="FQ178" s="514"/>
+      <c r="FR178" s="514"/>
+      <c r="FS178" s="514"/>
+      <c r="FT178" s="514"/>
+      <c r="FU178" s="514"/>
+      <c r="FV178" s="514"/>
+      <c r="FW178" s="514"/>
+      <c r="FX178" s="514"/>
+      <c r="FY178" s="514"/>
+      <c r="FZ178" s="514"/>
+      <c r="GA178" s="514"/>
+      <c r="GB178" s="514"/>
+      <c r="GC178" s="514"/>
+      <c r="GD178" s="514"/>
+      <c r="GE178" s="514"/>
+      <c r="GF178" s="514"/>
+      <c r="GG178" s="514"/>
+      <c r="GH178" s="514"/>
+      <c r="GI178" s="514"/>
+      <c r="GJ178" s="514"/>
+      <c r="GK178" s="514"/>
+      <c r="GL178" s="514"/>
+      <c r="GM178" s="514"/>
+      <c r="GN178" s="514"/>
+      <c r="GO178" s="514"/>
+      <c r="GP178" s="514"/>
+      <c r="GQ178" s="514"/>
+      <c r="GR178" s="514"/>
+      <c r="GS178" s="514"/>
+      <c r="GT178" s="514"/>
+      <c r="GU178" s="514"/>
+      <c r="GV178" s="514"/>
+      <c r="GW178" s="514"/>
+      <c r="GX178" s="514"/>
+      <c r="GY178" s="514"/>
+      <c r="GZ178" s="514"/>
+      <c r="HA178" s="514"/>
+      <c r="HB178" s="514"/>
+      <c r="HC178" s="514"/>
+      <c r="HD178" s="514"/>
+      <c r="HE178" s="514"/>
+      <c r="HF178" s="514"/>
+      <c r="HG178" s="514"/>
+      <c r="HH178" s="514"/>
+      <c r="HI178" s="514"/>
+      <c r="HJ178" s="514"/>
+      <c r="HK178" s="514"/>
+      <c r="HL178" s="514"/>
+      <c r="HM178" s="514"/>
+      <c r="HN178" s="514"/>
+      <c r="HO178" s="514"/>
+      <c r="HP178" s="514"/>
+      <c r="HQ178" s="514"/>
+      <c r="HR178" s="514"/>
+      <c r="HS178" s="514"/>
+      <c r="HT178" s="514"/>
+      <c r="HU178" s="514"/>
+      <c r="HV178" s="514"/>
+      <c r="HW178" s="514"/>
+      <c r="HX178" s="514"/>
+      <c r="HY178" s="514"/>
+      <c r="HZ178" s="514"/>
+      <c r="IA178" s="514"/>
+      <c r="IB178" s="514"/>
+      <c r="IC178" s="514"/>
+      <c r="ID178" s="514"/>
+      <c r="IE178" s="514"/>
+      <c r="IF178" s="514"/>
+      <c r="IG178" s="514"/>
+      <c r="IH178" s="514"/>
+      <c r="II178" s="514"/>
+      <c r="IJ178" s="514"/>
+      <c r="IK178" s="514"/>
+      <c r="IL178" s="514"/>
+      <c r="IM178" s="514"/>
+      <c r="IN178" s="514"/>
+      <c r="IO178" s="514"/>
+    </row>
+    <row r="179" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A179" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B179" s="511"/>
+      <c r="C179" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D179" s="514" t="s">
+      <c r="D179" s="512" t="s">
         <v>154</v>
       </c>
-      <c r="E179" s="514" t="s">
+      <c r="E179" s="512" t="s">
         <v>155</v>
       </c>
-      <c r="F179" s="515"/>
-      <c r="G179" s="514" t="s">
+      <c r="F179" s="513"/>
+      <c r="G179" s="512" t="s">
         <v>156</v>
       </c>
-      <c r="H179" s="514"/>
-      <c r="I179" s="515"/>
-      <c r="J179" s="515"/>
-      <c r="K179" s="514" t="s">
+      <c r="H179" s="512"/>
+      <c r="I179" s="513"/>
+      <c r="J179" s="513"/>
+      <c r="K179" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L179" s="515"/>
-      <c r="M179" s="515"/>
-      <c r="N179" s="514" t="s">
+      <c r="L179" s="513"/>
+      <c r="M179" s="513"/>
+      <c r="N179" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O179" s="514"/>
-      <c r="P179" s="516"/>
-      <c r="Q179" s="516"/>
-      <c r="R179" s="516"/>
-      <c r="S179" s="516"/>
-      <c r="T179" s="516"/>
-      <c r="U179" s="516"/>
-      <c r="V179" s="516"/>
-      <c r="W179" s="516"/>
-      <c r="X179" s="516"/>
-      <c r="Y179" s="516"/>
-      <c r="Z179" s="516"/>
-      <c r="AA179" s="516"/>
-      <c r="AB179" s="516"/>
-      <c r="AC179" s="516"/>
-      <c r="AD179" s="516"/>
-      <c r="AE179" s="516"/>
-      <c r="AF179" s="516"/>
-      <c r="AG179" s="516"/>
-      <c r="AH179" s="516"/>
-      <c r="AI179" s="516"/>
-      <c r="AJ179" s="516"/>
-      <c r="AK179" s="516"/>
-      <c r="AL179" s="516"/>
-      <c r="AM179" s="516"/>
-      <c r="AN179" s="516"/>
-      <c r="AO179" s="516"/>
-      <c r="AP179" s="516"/>
-      <c r="AQ179" s="516"/>
-      <c r="AR179" s="516"/>
-      <c r="AS179" s="516"/>
-      <c r="AT179" s="516"/>
-      <c r="AU179" s="516"/>
-      <c r="AV179" s="516"/>
-      <c r="AW179" s="516"/>
-      <c r="AX179" s="516"/>
-      <c r="AY179" s="516"/>
-      <c r="AZ179" s="516"/>
-      <c r="BA179" s="516"/>
-      <c r="BB179" s="516"/>
-      <c r="BC179" s="516"/>
-      <c r="BD179" s="516"/>
-      <c r="BE179" s="516"/>
-      <c r="BF179" s="516"/>
-      <c r="BG179" s="516"/>
-      <c r="BH179" s="516"/>
-      <c r="BI179" s="516"/>
-      <c r="BJ179" s="516"/>
-      <c r="BK179" s="516"/>
-      <c r="BL179" s="516"/>
-      <c r="BM179" s="516"/>
-      <c r="BN179" s="516"/>
-      <c r="BO179" s="516"/>
-      <c r="BP179" s="516"/>
-      <c r="BQ179" s="516"/>
-      <c r="BR179" s="516"/>
-      <c r="BS179" s="516"/>
-      <c r="BT179" s="516"/>
-      <c r="BU179" s="516"/>
-      <c r="BV179" s="516"/>
-      <c r="BW179" s="516"/>
-      <c r="BX179" s="516"/>
-      <c r="BY179" s="516"/>
-      <c r="BZ179" s="516"/>
-      <c r="CA179" s="516"/>
-      <c r="CB179" s="516"/>
-      <c r="CC179" s="516"/>
-      <c r="CD179" s="516"/>
-      <c r="CE179" s="516"/>
-      <c r="CF179" s="516"/>
-      <c r="CG179" s="516"/>
-      <c r="CH179" s="516"/>
-      <c r="CI179" s="516"/>
-      <c r="CJ179" s="516"/>
-      <c r="CK179" s="516"/>
-      <c r="CL179" s="516"/>
-      <c r="CM179" s="516"/>
-      <c r="CN179" s="516"/>
-      <c r="CO179" s="516"/>
-      <c r="CP179" s="516"/>
-      <c r="CQ179" s="516"/>
-      <c r="CR179" s="516"/>
-      <c r="CS179" s="516"/>
-      <c r="CT179" s="516"/>
-      <c r="CU179" s="516"/>
-      <c r="CV179" s="516"/>
-      <c r="CW179" s="516"/>
-      <c r="CX179" s="516"/>
-      <c r="CY179" s="516"/>
-      <c r="CZ179" s="516"/>
-      <c r="DA179" s="516"/>
-      <c r="DB179" s="516"/>
-      <c r="DC179" s="516"/>
-      <c r="DD179" s="516"/>
-      <c r="DE179" s="516"/>
-      <c r="DF179" s="516"/>
-      <c r="DG179" s="516"/>
-      <c r="DH179" s="516"/>
-      <c r="DI179" s="516"/>
-      <c r="DJ179" s="516"/>
-      <c r="DK179" s="516"/>
-      <c r="DL179" s="516"/>
-      <c r="DM179" s="516"/>
-      <c r="DN179" s="516"/>
-      <c r="DO179" s="516"/>
-      <c r="DP179" s="516"/>
-      <c r="DQ179" s="516"/>
-      <c r="DR179" s="516"/>
-      <c r="DS179" s="516"/>
-      <c r="DT179" s="516"/>
-      <c r="DU179" s="516"/>
-      <c r="DV179" s="516"/>
-      <c r="DW179" s="516"/>
-      <c r="DX179" s="516"/>
-      <c r="DY179" s="516"/>
-      <c r="DZ179" s="516"/>
-      <c r="EA179" s="516"/>
-      <c r="EB179" s="516"/>
-      <c r="EC179" s="516"/>
-      <c r="ED179" s="516"/>
-      <c r="EE179" s="516"/>
-      <c r="EF179" s="516"/>
-      <c r="EG179" s="516"/>
-      <c r="EH179" s="516"/>
-      <c r="EI179" s="516"/>
-      <c r="EJ179" s="516"/>
-      <c r="EK179" s="516"/>
-      <c r="EL179" s="516"/>
-      <c r="EM179" s="516"/>
-      <c r="EN179" s="516"/>
-      <c r="EO179" s="516"/>
-      <c r="EP179" s="516"/>
-      <c r="EQ179" s="516"/>
-      <c r="ER179" s="516"/>
-      <c r="ES179" s="516"/>
-      <c r="ET179" s="516"/>
-      <c r="EU179" s="516"/>
-      <c r="EV179" s="516"/>
-      <c r="EW179" s="516"/>
-      <c r="EX179" s="516"/>
-      <c r="EY179" s="516"/>
-      <c r="EZ179" s="516"/>
-      <c r="FA179" s="516"/>
-      <c r="FB179" s="516"/>
-      <c r="FC179" s="516"/>
-      <c r="FD179" s="516"/>
-      <c r="FE179" s="516"/>
-      <c r="FF179" s="516"/>
-      <c r="FG179" s="516"/>
-      <c r="FH179" s="516"/>
-      <c r="FI179" s="516"/>
-      <c r="FJ179" s="516"/>
-      <c r="FK179" s="516"/>
-      <c r="FL179" s="516"/>
-      <c r="FM179" s="516"/>
-      <c r="FN179" s="516"/>
-      <c r="FO179" s="516"/>
-      <c r="FP179" s="516"/>
-      <c r="FQ179" s="516"/>
-      <c r="FR179" s="516"/>
-      <c r="FS179" s="516"/>
-      <c r="FT179" s="516"/>
-      <c r="FU179" s="516"/>
-      <c r="FV179" s="516"/>
-      <c r="FW179" s="516"/>
-      <c r="FX179" s="516"/>
-      <c r="FY179" s="516"/>
-      <c r="FZ179" s="516"/>
-      <c r="GA179" s="516"/>
-      <c r="GB179" s="516"/>
-      <c r="GC179" s="516"/>
-      <c r="GD179" s="516"/>
-      <c r="GE179" s="516"/>
-      <c r="GF179" s="516"/>
-      <c r="GG179" s="516"/>
-      <c r="GH179" s="516"/>
-      <c r="GI179" s="516"/>
-      <c r="GJ179" s="516"/>
-      <c r="GK179" s="516"/>
-      <c r="GL179" s="516"/>
-      <c r="GM179" s="516"/>
-      <c r="GN179" s="516"/>
-      <c r="GO179" s="516"/>
-      <c r="GP179" s="516"/>
-      <c r="GQ179" s="516"/>
-      <c r="GR179" s="516"/>
-      <c r="GS179" s="516"/>
-      <c r="GT179" s="516"/>
-      <c r="GU179" s="516"/>
-      <c r="GV179" s="516"/>
-      <c r="GW179" s="516"/>
-      <c r="GX179" s="516"/>
-      <c r="GY179" s="516"/>
-      <c r="GZ179" s="516"/>
-      <c r="HA179" s="516"/>
-      <c r="HB179" s="516"/>
-      <c r="HC179" s="516"/>
-      <c r="HD179" s="516"/>
-      <c r="HE179" s="516"/>
-      <c r="HF179" s="516"/>
-      <c r="HG179" s="516"/>
-      <c r="HH179" s="516"/>
-      <c r="HI179" s="516"/>
-      <c r="HJ179" s="516"/>
-      <c r="HK179" s="516"/>
-      <c r="HL179" s="516"/>
-      <c r="HM179" s="516"/>
-      <c r="HN179" s="516"/>
-      <c r="HO179" s="516"/>
-      <c r="HP179" s="516"/>
-      <c r="HQ179" s="516"/>
-      <c r="HR179" s="516"/>
-      <c r="HS179" s="516"/>
-      <c r="HT179" s="516"/>
-      <c r="HU179" s="516"/>
-      <c r="HV179" s="516"/>
-      <c r="HW179" s="516"/>
-      <c r="HX179" s="516"/>
-      <c r="HY179" s="516"/>
-      <c r="HZ179" s="516"/>
-      <c r="IA179" s="516"/>
-      <c r="IB179" s="516"/>
-      <c r="IC179" s="516"/>
-      <c r="ID179" s="516"/>
-      <c r="IE179" s="516"/>
-      <c r="IF179" s="516"/>
-      <c r="IG179" s="516"/>
-      <c r="IH179" s="516"/>
-      <c r="II179" s="516"/>
-      <c r="IJ179" s="516"/>
-      <c r="IK179" s="516"/>
-      <c r="IL179" s="516"/>
-      <c r="IM179" s="516"/>
-      <c r="IN179" s="516"/>
-      <c r="IO179" s="516"/>
-    </row>
-    <row r="180" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A180" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B180" s="513"/>
-      <c r="C180" s="511" t="s">
+      <c r="O179" s="512"/>
+      <c r="P179" s="514"/>
+      <c r="Q179" s="514"/>
+      <c r="R179" s="514"/>
+      <c r="S179" s="514"/>
+      <c r="T179" s="514"/>
+      <c r="U179" s="514"/>
+      <c r="V179" s="514"/>
+      <c r="W179" s="514"/>
+      <c r="X179" s="514"/>
+      <c r="Y179" s="514"/>
+      <c r="Z179" s="514"/>
+      <c r="AA179" s="514"/>
+      <c r="AB179" s="514"/>
+      <c r="AC179" s="514"/>
+      <c r="AD179" s="514"/>
+      <c r="AE179" s="514"/>
+      <c r="AF179" s="514"/>
+      <c r="AG179" s="514"/>
+      <c r="AH179" s="514"/>
+      <c r="AI179" s="514"/>
+      <c r="AJ179" s="514"/>
+      <c r="AK179" s="514"/>
+      <c r="AL179" s="514"/>
+      <c r="AM179" s="514"/>
+      <c r="AN179" s="514"/>
+      <c r="AO179" s="514"/>
+      <c r="AP179" s="514"/>
+      <c r="AQ179" s="514"/>
+      <c r="AR179" s="514"/>
+      <c r="AS179" s="514"/>
+      <c r="AT179" s="514"/>
+      <c r="AU179" s="514"/>
+      <c r="AV179" s="514"/>
+      <c r="AW179" s="514"/>
+      <c r="AX179" s="514"/>
+      <c r="AY179" s="514"/>
+      <c r="AZ179" s="514"/>
+      <c r="BA179" s="514"/>
+      <c r="BB179" s="514"/>
+      <c r="BC179" s="514"/>
+      <c r="BD179" s="514"/>
+      <c r="BE179" s="514"/>
+      <c r="BF179" s="514"/>
+      <c r="BG179" s="514"/>
+      <c r="BH179" s="514"/>
+      <c r="BI179" s="514"/>
+      <c r="BJ179" s="514"/>
+      <c r="BK179" s="514"/>
+      <c r="BL179" s="514"/>
+      <c r="BM179" s="514"/>
+      <c r="BN179" s="514"/>
+      <c r="BO179" s="514"/>
+      <c r="BP179" s="514"/>
+      <c r="BQ179" s="514"/>
+      <c r="BR179" s="514"/>
+      <c r="BS179" s="514"/>
+      <c r="BT179" s="514"/>
+      <c r="BU179" s="514"/>
+      <c r="BV179" s="514"/>
+      <c r="BW179" s="514"/>
+      <c r="BX179" s="514"/>
+      <c r="BY179" s="514"/>
+      <c r="BZ179" s="514"/>
+      <c r="CA179" s="514"/>
+      <c r="CB179" s="514"/>
+      <c r="CC179" s="514"/>
+      <c r="CD179" s="514"/>
+      <c r="CE179" s="514"/>
+      <c r="CF179" s="514"/>
+      <c r="CG179" s="514"/>
+      <c r="CH179" s="514"/>
+      <c r="CI179" s="514"/>
+      <c r="CJ179" s="514"/>
+      <c r="CK179" s="514"/>
+      <c r="CL179" s="514"/>
+      <c r="CM179" s="514"/>
+      <c r="CN179" s="514"/>
+      <c r="CO179" s="514"/>
+      <c r="CP179" s="514"/>
+      <c r="CQ179" s="514"/>
+      <c r="CR179" s="514"/>
+      <c r="CS179" s="514"/>
+      <c r="CT179" s="514"/>
+      <c r="CU179" s="514"/>
+      <c r="CV179" s="514"/>
+      <c r="CW179" s="514"/>
+      <c r="CX179" s="514"/>
+      <c r="CY179" s="514"/>
+      <c r="CZ179" s="514"/>
+      <c r="DA179" s="514"/>
+      <c r="DB179" s="514"/>
+      <c r="DC179" s="514"/>
+      <c r="DD179" s="514"/>
+      <c r="DE179" s="514"/>
+      <c r="DF179" s="514"/>
+      <c r="DG179" s="514"/>
+      <c r="DH179" s="514"/>
+      <c r="DI179" s="514"/>
+      <c r="DJ179" s="514"/>
+      <c r="DK179" s="514"/>
+      <c r="DL179" s="514"/>
+      <c r="DM179" s="514"/>
+      <c r="DN179" s="514"/>
+      <c r="DO179" s="514"/>
+      <c r="DP179" s="514"/>
+      <c r="DQ179" s="514"/>
+      <c r="DR179" s="514"/>
+      <c r="DS179" s="514"/>
+      <c r="DT179" s="514"/>
+      <c r="DU179" s="514"/>
+      <c r="DV179" s="514"/>
+      <c r="DW179" s="514"/>
+      <c r="DX179" s="514"/>
+      <c r="DY179" s="514"/>
+      <c r="DZ179" s="514"/>
+      <c r="EA179" s="514"/>
+      <c r="EB179" s="514"/>
+      <c r="EC179" s="514"/>
+      <c r="ED179" s="514"/>
+      <c r="EE179" s="514"/>
+      <c r="EF179" s="514"/>
+      <c r="EG179" s="514"/>
+      <c r="EH179" s="514"/>
+      <c r="EI179" s="514"/>
+      <c r="EJ179" s="514"/>
+      <c r="EK179" s="514"/>
+      <c r="EL179" s="514"/>
+      <c r="EM179" s="514"/>
+      <c r="EN179" s="514"/>
+      <c r="EO179" s="514"/>
+      <c r="EP179" s="514"/>
+      <c r="EQ179" s="514"/>
+      <c r="ER179" s="514"/>
+      <c r="ES179" s="514"/>
+      <c r="ET179" s="514"/>
+      <c r="EU179" s="514"/>
+      <c r="EV179" s="514"/>
+      <c r="EW179" s="514"/>
+      <c r="EX179" s="514"/>
+      <c r="EY179" s="514"/>
+      <c r="EZ179" s="514"/>
+      <c r="FA179" s="514"/>
+      <c r="FB179" s="514"/>
+      <c r="FC179" s="514"/>
+      <c r="FD179" s="514"/>
+      <c r="FE179" s="514"/>
+      <c r="FF179" s="514"/>
+      <c r="FG179" s="514"/>
+      <c r="FH179" s="514"/>
+      <c r="FI179" s="514"/>
+      <c r="FJ179" s="514"/>
+      <c r="FK179" s="514"/>
+      <c r="FL179" s="514"/>
+      <c r="FM179" s="514"/>
+      <c r="FN179" s="514"/>
+      <c r="FO179" s="514"/>
+      <c r="FP179" s="514"/>
+      <c r="FQ179" s="514"/>
+      <c r="FR179" s="514"/>
+      <c r="FS179" s="514"/>
+      <c r="FT179" s="514"/>
+      <c r="FU179" s="514"/>
+      <c r="FV179" s="514"/>
+      <c r="FW179" s="514"/>
+      <c r="FX179" s="514"/>
+      <c r="FY179" s="514"/>
+      <c r="FZ179" s="514"/>
+      <c r="GA179" s="514"/>
+      <c r="GB179" s="514"/>
+      <c r="GC179" s="514"/>
+      <c r="GD179" s="514"/>
+      <c r="GE179" s="514"/>
+      <c r="GF179" s="514"/>
+      <c r="GG179" s="514"/>
+      <c r="GH179" s="514"/>
+      <c r="GI179" s="514"/>
+      <c r="GJ179" s="514"/>
+      <c r="GK179" s="514"/>
+      <c r="GL179" s="514"/>
+      <c r="GM179" s="514"/>
+      <c r="GN179" s="514"/>
+      <c r="GO179" s="514"/>
+      <c r="GP179" s="514"/>
+      <c r="GQ179" s="514"/>
+      <c r="GR179" s="514"/>
+      <c r="GS179" s="514"/>
+      <c r="GT179" s="514"/>
+      <c r="GU179" s="514"/>
+      <c r="GV179" s="514"/>
+      <c r="GW179" s="514"/>
+      <c r="GX179" s="514"/>
+      <c r="GY179" s="514"/>
+      <c r="GZ179" s="514"/>
+      <c r="HA179" s="514"/>
+      <c r="HB179" s="514"/>
+      <c r="HC179" s="514"/>
+      <c r="HD179" s="514"/>
+      <c r="HE179" s="514"/>
+      <c r="HF179" s="514"/>
+      <c r="HG179" s="514"/>
+      <c r="HH179" s="514"/>
+      <c r="HI179" s="514"/>
+      <c r="HJ179" s="514"/>
+      <c r="HK179" s="514"/>
+      <c r="HL179" s="514"/>
+      <c r="HM179" s="514"/>
+      <c r="HN179" s="514"/>
+      <c r="HO179" s="514"/>
+      <c r="HP179" s="514"/>
+      <c r="HQ179" s="514"/>
+      <c r="HR179" s="514"/>
+      <c r="HS179" s="514"/>
+      <c r="HT179" s="514"/>
+      <c r="HU179" s="514"/>
+      <c r="HV179" s="514"/>
+      <c r="HW179" s="514"/>
+      <c r="HX179" s="514"/>
+      <c r="HY179" s="514"/>
+      <c r="HZ179" s="514"/>
+      <c r="IA179" s="514"/>
+      <c r="IB179" s="514"/>
+      <c r="IC179" s="514"/>
+      <c r="ID179" s="514"/>
+      <c r="IE179" s="514"/>
+      <c r="IF179" s="514"/>
+      <c r="IG179" s="514"/>
+      <c r="IH179" s="514"/>
+      <c r="II179" s="514"/>
+      <c r="IJ179" s="514"/>
+      <c r="IK179" s="514"/>
+      <c r="IL179" s="514"/>
+      <c r="IM179" s="514"/>
+      <c r="IN179" s="514"/>
+      <c r="IO179" s="514"/>
+    </row>
+    <row r="180" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A180" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B180" s="511"/>
+      <c r="C180" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D180" s="514" t="s">
+      <c r="D180" s="512" t="s">
         <v>195</v>
       </c>
-      <c r="E180" s="514" t="s">
+      <c r="E180" s="512" t="s">
         <v>196</v>
       </c>
-      <c r="F180" s="515"/>
-      <c r="G180" s="514" t="s">
+      <c r="F180" s="513"/>
+      <c r="G180" s="512" t="s">
         <v>197</v>
       </c>
-      <c r="H180" s="514"/>
-      <c r="I180" s="515"/>
-      <c r="J180" s="515"/>
-      <c r="K180" s="514" t="s">
+      <c r="H180" s="512"/>
+      <c r="I180" s="513"/>
+      <c r="J180" s="513"/>
+      <c r="K180" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L180" s="515"/>
-      <c r="M180" s="515"/>
-      <c r="N180" s="514" t="s">
+      <c r="L180" s="513"/>
+      <c r="M180" s="513"/>
+      <c r="N180" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O180" s="514"/>
-      <c r="P180" s="516"/>
-      <c r="Q180" s="516"/>
-      <c r="R180" s="516"/>
-      <c r="S180" s="516"/>
-      <c r="T180" s="516"/>
-      <c r="U180" s="516"/>
-      <c r="V180" s="516"/>
-      <c r="W180" s="516"/>
-      <c r="X180" s="516"/>
-      <c r="Y180" s="516"/>
-      <c r="Z180" s="516"/>
-      <c r="AA180" s="516"/>
-      <c r="AB180" s="516"/>
-      <c r="AC180" s="516"/>
-      <c r="AD180" s="516"/>
-      <c r="AE180" s="516"/>
-      <c r="AF180" s="516"/>
-      <c r="AG180" s="516"/>
-      <c r="AH180" s="516"/>
-      <c r="AI180" s="516"/>
-      <c r="AJ180" s="516"/>
-      <c r="AK180" s="516"/>
-      <c r="AL180" s="516"/>
-      <c r="AM180" s="516"/>
-      <c r="AN180" s="516"/>
-      <c r="AO180" s="516"/>
-      <c r="AP180" s="516"/>
-      <c r="AQ180" s="516"/>
-      <c r="AR180" s="516"/>
-      <c r="AS180" s="516"/>
-      <c r="AT180" s="516"/>
-      <c r="AU180" s="516"/>
-      <c r="AV180" s="516"/>
-      <c r="AW180" s="516"/>
-      <c r="AX180" s="516"/>
-      <c r="AY180" s="516"/>
-      <c r="AZ180" s="516"/>
-      <c r="BA180" s="516"/>
-      <c r="BB180" s="516"/>
-      <c r="BC180" s="516"/>
-      <c r="BD180" s="516"/>
-      <c r="BE180" s="516"/>
-      <c r="BF180" s="516"/>
-      <c r="BG180" s="516"/>
-      <c r="BH180" s="516"/>
-      <c r="BI180" s="516"/>
-      <c r="BJ180" s="516"/>
-      <c r="BK180" s="516"/>
-      <c r="BL180" s="516"/>
-      <c r="BM180" s="516"/>
-      <c r="BN180" s="516"/>
-      <c r="BO180" s="516"/>
-      <c r="BP180" s="516"/>
-      <c r="BQ180" s="516"/>
-      <c r="BR180" s="516"/>
-      <c r="BS180" s="516"/>
-      <c r="BT180" s="516"/>
-      <c r="BU180" s="516"/>
-      <c r="BV180" s="516"/>
-      <c r="BW180" s="516"/>
-      <c r="BX180" s="516"/>
-      <c r="BY180" s="516"/>
-      <c r="BZ180" s="516"/>
-      <c r="CA180" s="516"/>
-      <c r="CB180" s="516"/>
-      <c r="CC180" s="516"/>
-      <c r="CD180" s="516"/>
-      <c r="CE180" s="516"/>
-      <c r="CF180" s="516"/>
-      <c r="CG180" s="516"/>
-      <c r="CH180" s="516"/>
-      <c r="CI180" s="516"/>
-      <c r="CJ180" s="516"/>
-      <c r="CK180" s="516"/>
-      <c r="CL180" s="516"/>
-      <c r="CM180" s="516"/>
-      <c r="CN180" s="516"/>
-      <c r="CO180" s="516"/>
-      <c r="CP180" s="516"/>
-      <c r="CQ180" s="516"/>
-      <c r="CR180" s="516"/>
-      <c r="CS180" s="516"/>
-      <c r="CT180" s="516"/>
-      <c r="CU180" s="516"/>
-      <c r="CV180" s="516"/>
-      <c r="CW180" s="516"/>
-      <c r="CX180" s="516"/>
-      <c r="CY180" s="516"/>
-      <c r="CZ180" s="516"/>
-      <c r="DA180" s="516"/>
-      <c r="DB180" s="516"/>
-      <c r="DC180" s="516"/>
-      <c r="DD180" s="516"/>
-      <c r="DE180" s="516"/>
-      <c r="DF180" s="516"/>
-      <c r="DG180" s="516"/>
-      <c r="DH180" s="516"/>
-      <c r="DI180" s="516"/>
-      <c r="DJ180" s="516"/>
-      <c r="DK180" s="516"/>
-      <c r="DL180" s="516"/>
-      <c r="DM180" s="516"/>
-      <c r="DN180" s="516"/>
-      <c r="DO180" s="516"/>
-      <c r="DP180" s="516"/>
-      <c r="DQ180" s="516"/>
-      <c r="DR180" s="516"/>
-      <c r="DS180" s="516"/>
-      <c r="DT180" s="516"/>
-      <c r="DU180" s="516"/>
-      <c r="DV180" s="516"/>
-      <c r="DW180" s="516"/>
-      <c r="DX180" s="516"/>
-      <c r="DY180" s="516"/>
-      <c r="DZ180" s="516"/>
-      <c r="EA180" s="516"/>
-      <c r="EB180" s="516"/>
-      <c r="EC180" s="516"/>
-      <c r="ED180" s="516"/>
-      <c r="EE180" s="516"/>
-      <c r="EF180" s="516"/>
-      <c r="EG180" s="516"/>
-      <c r="EH180" s="516"/>
-      <c r="EI180" s="516"/>
-      <c r="EJ180" s="516"/>
-      <c r="EK180" s="516"/>
-      <c r="EL180" s="516"/>
-      <c r="EM180" s="516"/>
-      <c r="EN180" s="516"/>
-      <c r="EO180" s="516"/>
-      <c r="EP180" s="516"/>
-      <c r="EQ180" s="516"/>
-      <c r="ER180" s="516"/>
-      <c r="ES180" s="516"/>
-      <c r="ET180" s="516"/>
-      <c r="EU180" s="516"/>
-      <c r="EV180" s="516"/>
-      <c r="EW180" s="516"/>
-      <c r="EX180" s="516"/>
-      <c r="EY180" s="516"/>
-      <c r="EZ180" s="516"/>
-      <c r="FA180" s="516"/>
-      <c r="FB180" s="516"/>
-      <c r="FC180" s="516"/>
-      <c r="FD180" s="516"/>
-      <c r="FE180" s="516"/>
-      <c r="FF180" s="516"/>
-      <c r="FG180" s="516"/>
-      <c r="FH180" s="516"/>
-      <c r="FI180" s="516"/>
-      <c r="FJ180" s="516"/>
-      <c r="FK180" s="516"/>
-      <c r="FL180" s="516"/>
-      <c r="FM180" s="516"/>
-      <c r="FN180" s="516"/>
-      <c r="FO180" s="516"/>
-      <c r="FP180" s="516"/>
-      <c r="FQ180" s="516"/>
-      <c r="FR180" s="516"/>
-      <c r="FS180" s="516"/>
-      <c r="FT180" s="516"/>
-      <c r="FU180" s="516"/>
-      <c r="FV180" s="516"/>
-      <c r="FW180" s="516"/>
-      <c r="FX180" s="516"/>
-      <c r="FY180" s="516"/>
-      <c r="FZ180" s="516"/>
-      <c r="GA180" s="516"/>
-      <c r="GB180" s="516"/>
-      <c r="GC180" s="516"/>
-      <c r="GD180" s="516"/>
-      <c r="GE180" s="516"/>
-      <c r="GF180" s="516"/>
-      <c r="GG180" s="516"/>
-      <c r="GH180" s="516"/>
-      <c r="GI180" s="516"/>
-      <c r="GJ180" s="516"/>
-      <c r="GK180" s="516"/>
-      <c r="GL180" s="516"/>
-      <c r="GM180" s="516"/>
-      <c r="GN180" s="516"/>
-      <c r="GO180" s="516"/>
-      <c r="GP180" s="516"/>
-      <c r="GQ180" s="516"/>
-      <c r="GR180" s="516"/>
-      <c r="GS180" s="516"/>
-      <c r="GT180" s="516"/>
-      <c r="GU180" s="516"/>
-      <c r="GV180" s="516"/>
-      <c r="GW180" s="516"/>
-      <c r="GX180" s="516"/>
-      <c r="GY180" s="516"/>
-      <c r="GZ180" s="516"/>
-      <c r="HA180" s="516"/>
-      <c r="HB180" s="516"/>
-      <c r="HC180" s="516"/>
-      <c r="HD180" s="516"/>
-      <c r="HE180" s="516"/>
-      <c r="HF180" s="516"/>
-      <c r="HG180" s="516"/>
-      <c r="HH180" s="516"/>
-      <c r="HI180" s="516"/>
-      <c r="HJ180" s="516"/>
-      <c r="HK180" s="516"/>
-      <c r="HL180" s="516"/>
-      <c r="HM180" s="516"/>
-      <c r="HN180" s="516"/>
-      <c r="HO180" s="516"/>
-      <c r="HP180" s="516"/>
-      <c r="HQ180" s="516"/>
-      <c r="HR180" s="516"/>
-      <c r="HS180" s="516"/>
-      <c r="HT180" s="516"/>
-      <c r="HU180" s="516"/>
-      <c r="HV180" s="516"/>
-      <c r="HW180" s="516"/>
-      <c r="HX180" s="516"/>
-      <c r="HY180" s="516"/>
-      <c r="HZ180" s="516"/>
-      <c r="IA180" s="516"/>
-      <c r="IB180" s="516"/>
-      <c r="IC180" s="516"/>
-      <c r="ID180" s="516"/>
-      <c r="IE180" s="516"/>
-      <c r="IF180" s="516"/>
-      <c r="IG180" s="516"/>
-      <c r="IH180" s="516"/>
-      <c r="II180" s="516"/>
-      <c r="IJ180" s="516"/>
-      <c r="IK180" s="516"/>
-      <c r="IL180" s="516"/>
-      <c r="IM180" s="516"/>
-      <c r="IN180" s="516"/>
-      <c r="IO180" s="516"/>
-    </row>
-    <row r="181" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A181" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B181" s="513"/>
-      <c r="C181" s="511" t="s">
+      <c r="O180" s="512"/>
+      <c r="P180" s="514"/>
+      <c r="Q180" s="514"/>
+      <c r="R180" s="514"/>
+      <c r="S180" s="514"/>
+      <c r="T180" s="514"/>
+      <c r="U180" s="514"/>
+      <c r="V180" s="514"/>
+      <c r="W180" s="514"/>
+      <c r="X180" s="514"/>
+      <c r="Y180" s="514"/>
+      <c r="Z180" s="514"/>
+      <c r="AA180" s="514"/>
+      <c r="AB180" s="514"/>
+      <c r="AC180" s="514"/>
+      <c r="AD180" s="514"/>
+      <c r="AE180" s="514"/>
+      <c r="AF180" s="514"/>
+      <c r="AG180" s="514"/>
+      <c r="AH180" s="514"/>
+      <c r="AI180" s="514"/>
+      <c r="AJ180" s="514"/>
+      <c r="AK180" s="514"/>
+      <c r="AL180" s="514"/>
+      <c r="AM180" s="514"/>
+      <c r="AN180" s="514"/>
+      <c r="AO180" s="514"/>
+      <c r="AP180" s="514"/>
+      <c r="AQ180" s="514"/>
+      <c r="AR180" s="514"/>
+      <c r="AS180" s="514"/>
+      <c r="AT180" s="514"/>
+      <c r="AU180" s="514"/>
+      <c r="AV180" s="514"/>
+      <c r="AW180" s="514"/>
+      <c r="AX180" s="514"/>
+      <c r="AY180" s="514"/>
+      <c r="AZ180" s="514"/>
+      <c r="BA180" s="514"/>
+      <c r="BB180" s="514"/>
+      <c r="BC180" s="514"/>
+      <c r="BD180" s="514"/>
+      <c r="BE180" s="514"/>
+      <c r="BF180" s="514"/>
+      <c r="BG180" s="514"/>
+      <c r="BH180" s="514"/>
+      <c r="BI180" s="514"/>
+      <c r="BJ180" s="514"/>
+      <c r="BK180" s="514"/>
+      <c r="BL180" s="514"/>
+      <c r="BM180" s="514"/>
+      <c r="BN180" s="514"/>
+      <c r="BO180" s="514"/>
+      <c r="BP180" s="514"/>
+      <c r="BQ180" s="514"/>
+      <c r="BR180" s="514"/>
+      <c r="BS180" s="514"/>
+      <c r="BT180" s="514"/>
+      <c r="BU180" s="514"/>
+      <c r="BV180" s="514"/>
+      <c r="BW180" s="514"/>
+      <c r="BX180" s="514"/>
+      <c r="BY180" s="514"/>
+      <c r="BZ180" s="514"/>
+      <c r="CA180" s="514"/>
+      <c r="CB180" s="514"/>
+      <c r="CC180" s="514"/>
+      <c r="CD180" s="514"/>
+      <c r="CE180" s="514"/>
+      <c r="CF180" s="514"/>
+      <c r="CG180" s="514"/>
+      <c r="CH180" s="514"/>
+      <c r="CI180" s="514"/>
+      <c r="CJ180" s="514"/>
+      <c r="CK180" s="514"/>
+      <c r="CL180" s="514"/>
+      <c r="CM180" s="514"/>
+      <c r="CN180" s="514"/>
+      <c r="CO180" s="514"/>
+      <c r="CP180" s="514"/>
+      <c r="CQ180" s="514"/>
+      <c r="CR180" s="514"/>
+      <c r="CS180" s="514"/>
+      <c r="CT180" s="514"/>
+      <c r="CU180" s="514"/>
+      <c r="CV180" s="514"/>
+      <c r="CW180" s="514"/>
+      <c r="CX180" s="514"/>
+      <c r="CY180" s="514"/>
+      <c r="CZ180" s="514"/>
+      <c r="DA180" s="514"/>
+      <c r="DB180" s="514"/>
+      <c r="DC180" s="514"/>
+      <c r="DD180" s="514"/>
+      <c r="DE180" s="514"/>
+      <c r="DF180" s="514"/>
+      <c r="DG180" s="514"/>
+      <c r="DH180" s="514"/>
+      <c r="DI180" s="514"/>
+      <c r="DJ180" s="514"/>
+      <c r="DK180" s="514"/>
+      <c r="DL180" s="514"/>
+      <c r="DM180" s="514"/>
+      <c r="DN180" s="514"/>
+      <c r="DO180" s="514"/>
+      <c r="DP180" s="514"/>
+      <c r="DQ180" s="514"/>
+      <c r="DR180" s="514"/>
+      <c r="DS180" s="514"/>
+      <c r="DT180" s="514"/>
+      <c r="DU180" s="514"/>
+      <c r="DV180" s="514"/>
+      <c r="DW180" s="514"/>
+      <c r="DX180" s="514"/>
+      <c r="DY180" s="514"/>
+      <c r="DZ180" s="514"/>
+      <c r="EA180" s="514"/>
+      <c r="EB180" s="514"/>
+      <c r="EC180" s="514"/>
+      <c r="ED180" s="514"/>
+      <c r="EE180" s="514"/>
+      <c r="EF180" s="514"/>
+      <c r="EG180" s="514"/>
+      <c r="EH180" s="514"/>
+      <c r="EI180" s="514"/>
+      <c r="EJ180" s="514"/>
+      <c r="EK180" s="514"/>
+      <c r="EL180" s="514"/>
+      <c r="EM180" s="514"/>
+      <c r="EN180" s="514"/>
+      <c r="EO180" s="514"/>
+      <c r="EP180" s="514"/>
+      <c r="EQ180" s="514"/>
+      <c r="ER180" s="514"/>
+      <c r="ES180" s="514"/>
+      <c r="ET180" s="514"/>
+      <c r="EU180" s="514"/>
+      <c r="EV180" s="514"/>
+      <c r="EW180" s="514"/>
+      <c r="EX180" s="514"/>
+      <c r="EY180" s="514"/>
+      <c r="EZ180" s="514"/>
+      <c r="FA180" s="514"/>
+      <c r="FB180" s="514"/>
+      <c r="FC180" s="514"/>
+      <c r="FD180" s="514"/>
+      <c r="FE180" s="514"/>
+      <c r="FF180" s="514"/>
+      <c r="FG180" s="514"/>
+      <c r="FH180" s="514"/>
+      <c r="FI180" s="514"/>
+      <c r="FJ180" s="514"/>
+      <c r="FK180" s="514"/>
+      <c r="FL180" s="514"/>
+      <c r="FM180" s="514"/>
+      <c r="FN180" s="514"/>
+      <c r="FO180" s="514"/>
+      <c r="FP180" s="514"/>
+      <c r="FQ180" s="514"/>
+      <c r="FR180" s="514"/>
+      <c r="FS180" s="514"/>
+      <c r="FT180" s="514"/>
+      <c r="FU180" s="514"/>
+      <c r="FV180" s="514"/>
+      <c r="FW180" s="514"/>
+      <c r="FX180" s="514"/>
+      <c r="FY180" s="514"/>
+      <c r="FZ180" s="514"/>
+      <c r="GA180" s="514"/>
+      <c r="GB180" s="514"/>
+      <c r="GC180" s="514"/>
+      <c r="GD180" s="514"/>
+      <c r="GE180" s="514"/>
+      <c r="GF180" s="514"/>
+      <c r="GG180" s="514"/>
+      <c r="GH180" s="514"/>
+      <c r="GI180" s="514"/>
+      <c r="GJ180" s="514"/>
+      <c r="GK180" s="514"/>
+      <c r="GL180" s="514"/>
+      <c r="GM180" s="514"/>
+      <c r="GN180" s="514"/>
+      <c r="GO180" s="514"/>
+      <c r="GP180" s="514"/>
+      <c r="GQ180" s="514"/>
+      <c r="GR180" s="514"/>
+      <c r="GS180" s="514"/>
+      <c r="GT180" s="514"/>
+      <c r="GU180" s="514"/>
+      <c r="GV180" s="514"/>
+      <c r="GW180" s="514"/>
+      <c r="GX180" s="514"/>
+      <c r="GY180" s="514"/>
+      <c r="GZ180" s="514"/>
+      <c r="HA180" s="514"/>
+      <c r="HB180" s="514"/>
+      <c r="HC180" s="514"/>
+      <c r="HD180" s="514"/>
+      <c r="HE180" s="514"/>
+      <c r="HF180" s="514"/>
+      <c r="HG180" s="514"/>
+      <c r="HH180" s="514"/>
+      <c r="HI180" s="514"/>
+      <c r="HJ180" s="514"/>
+      <c r="HK180" s="514"/>
+      <c r="HL180" s="514"/>
+      <c r="HM180" s="514"/>
+      <c r="HN180" s="514"/>
+      <c r="HO180" s="514"/>
+      <c r="HP180" s="514"/>
+      <c r="HQ180" s="514"/>
+      <c r="HR180" s="514"/>
+      <c r="HS180" s="514"/>
+      <c r="HT180" s="514"/>
+      <c r="HU180" s="514"/>
+      <c r="HV180" s="514"/>
+      <c r="HW180" s="514"/>
+      <c r="HX180" s="514"/>
+      <c r="HY180" s="514"/>
+      <c r="HZ180" s="514"/>
+      <c r="IA180" s="514"/>
+      <c r="IB180" s="514"/>
+      <c r="IC180" s="514"/>
+      <c r="ID180" s="514"/>
+      <c r="IE180" s="514"/>
+      <c r="IF180" s="514"/>
+      <c r="IG180" s="514"/>
+      <c r="IH180" s="514"/>
+      <c r="II180" s="514"/>
+      <c r="IJ180" s="514"/>
+      <c r="IK180" s="514"/>
+      <c r="IL180" s="514"/>
+      <c r="IM180" s="514"/>
+      <c r="IN180" s="514"/>
+      <c r="IO180" s="514"/>
+    </row>
+    <row r="181" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A181" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B181" s="511"/>
+      <c r="C181" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D181" s="518" t="s">
+      <c r="D181" s="516" t="s">
         <v>387</v>
       </c>
-      <c r="E181" s="518" t="s">
+      <c r="E181" s="516" t="s">
         <v>388</v>
       </c>
-      <c r="F181" s="515"/>
-      <c r="G181" s="518" t="s">
+      <c r="F181" s="513"/>
+      <c r="G181" s="516" t="s">
         <v>387</v>
       </c>
-      <c r="H181" s="514"/>
-      <c r="I181" s="514"/>
-      <c r="J181" s="515"/>
-      <c r="K181" s="514" t="s">
+      <c r="H181" s="512"/>
+      <c r="I181" s="512"/>
+      <c r="J181" s="513"/>
+      <c r="K181" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L181" s="515"/>
-      <c r="M181" s="515"/>
-      <c r="N181" s="514" t="s">
+      <c r="L181" s="513"/>
+      <c r="M181" s="513"/>
+      <c r="N181" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O181" s="514"/>
-      <c r="P181" s="516"/>
-      <c r="Q181" s="516"/>
-      <c r="R181" s="516"/>
-      <c r="S181" s="516"/>
-      <c r="T181" s="516"/>
-      <c r="U181" s="516"/>
-      <c r="V181" s="516"/>
-      <c r="W181" s="516"/>
-      <c r="X181" s="516"/>
-      <c r="Y181" s="516"/>
-      <c r="Z181" s="516"/>
-      <c r="AA181" s="516"/>
-      <c r="AB181" s="516"/>
-      <c r="AC181" s="516"/>
-      <c r="AD181" s="516"/>
-      <c r="AE181" s="516"/>
-      <c r="AF181" s="516"/>
-      <c r="AG181" s="516"/>
-      <c r="AH181" s="516"/>
-      <c r="AI181" s="516"/>
-      <c r="AJ181" s="516"/>
-      <c r="AK181" s="516"/>
-      <c r="AL181" s="516"/>
-      <c r="AM181" s="516"/>
-      <c r="AN181" s="516"/>
-      <c r="AO181" s="516"/>
-      <c r="AP181" s="516"/>
-      <c r="AQ181" s="516"/>
-      <c r="AR181" s="516"/>
-      <c r="AS181" s="516"/>
-      <c r="AT181" s="516"/>
-      <c r="AU181" s="516"/>
-      <c r="AV181" s="516"/>
-      <c r="AW181" s="516"/>
-      <c r="AX181" s="516"/>
-      <c r="AY181" s="516"/>
-      <c r="AZ181" s="516"/>
-      <c r="BA181" s="516"/>
-      <c r="BB181" s="516"/>
-      <c r="BC181" s="516"/>
-      <c r="BD181" s="516"/>
-      <c r="BE181" s="516"/>
-      <c r="BF181" s="516"/>
-      <c r="BG181" s="516"/>
-      <c r="BH181" s="516"/>
-      <c r="BI181" s="516"/>
-      <c r="BJ181" s="516"/>
-      <c r="BK181" s="516"/>
-      <c r="BL181" s="516"/>
-      <c r="BM181" s="516"/>
-      <c r="BN181" s="516"/>
-      <c r="BO181" s="516"/>
-      <c r="BP181" s="516"/>
-      <c r="BQ181" s="516"/>
-      <c r="BR181" s="516"/>
-      <c r="BS181" s="516"/>
-      <c r="BT181" s="516"/>
-      <c r="BU181" s="516"/>
-      <c r="BV181" s="516"/>
-      <c r="BW181" s="516"/>
-      <c r="BX181" s="516"/>
-      <c r="BY181" s="516"/>
-      <c r="BZ181" s="516"/>
-      <c r="CA181" s="516"/>
-      <c r="CB181" s="516"/>
-      <c r="CC181" s="516"/>
-      <c r="CD181" s="516"/>
-      <c r="CE181" s="516"/>
-      <c r="CF181" s="516"/>
-      <c r="CG181" s="516"/>
-      <c r="CH181" s="516"/>
-      <c r="CI181" s="516"/>
-      <c r="CJ181" s="516"/>
-      <c r="CK181" s="516"/>
-      <c r="CL181" s="516"/>
-      <c r="CM181" s="516"/>
-      <c r="CN181" s="516"/>
-      <c r="CO181" s="516"/>
-      <c r="CP181" s="516"/>
-      <c r="CQ181" s="516"/>
-      <c r="CR181" s="516"/>
-      <c r="CS181" s="516"/>
-      <c r="CT181" s="516"/>
-      <c r="CU181" s="516"/>
-      <c r="CV181" s="516"/>
-      <c r="CW181" s="516"/>
-      <c r="CX181" s="516"/>
-      <c r="CY181" s="516"/>
-      <c r="CZ181" s="516"/>
-      <c r="DA181" s="516"/>
-      <c r="DB181" s="516"/>
-      <c r="DC181" s="516"/>
-      <c r="DD181" s="516"/>
-      <c r="DE181" s="516"/>
-      <c r="DF181" s="516"/>
-      <c r="DG181" s="516"/>
-      <c r="DH181" s="516"/>
-      <c r="DI181" s="516"/>
-      <c r="DJ181" s="516"/>
-      <c r="DK181" s="516"/>
-      <c r="DL181" s="516"/>
-      <c r="DM181" s="516"/>
-      <c r="DN181" s="516"/>
-      <c r="DO181" s="516"/>
-      <c r="DP181" s="516"/>
-      <c r="DQ181" s="516"/>
-      <c r="DR181" s="516"/>
-      <c r="DS181" s="516"/>
-      <c r="DT181" s="516"/>
-      <c r="DU181" s="516"/>
-      <c r="DV181" s="516"/>
-      <c r="DW181" s="516"/>
-      <c r="DX181" s="516"/>
-      <c r="DY181" s="516"/>
-      <c r="DZ181" s="516"/>
-      <c r="EA181" s="516"/>
-      <c r="EB181" s="516"/>
-      <c r="EC181" s="516"/>
-      <c r="ED181" s="516"/>
-      <c r="EE181" s="516"/>
-      <c r="EF181" s="516"/>
-      <c r="EG181" s="516"/>
-      <c r="EH181" s="516"/>
-      <c r="EI181" s="516"/>
-      <c r="EJ181" s="516"/>
-      <c r="EK181" s="516"/>
-      <c r="EL181" s="516"/>
-      <c r="EM181" s="516"/>
-      <c r="EN181" s="516"/>
-      <c r="EO181" s="516"/>
-      <c r="EP181" s="516"/>
-      <c r="EQ181" s="516"/>
-      <c r="ER181" s="516"/>
-      <c r="ES181" s="516"/>
-      <c r="ET181" s="516"/>
-      <c r="EU181" s="516"/>
-      <c r="EV181" s="516"/>
-      <c r="EW181" s="516"/>
-      <c r="EX181" s="516"/>
-      <c r="EY181" s="516"/>
-      <c r="EZ181" s="516"/>
-      <c r="FA181" s="516"/>
-      <c r="FB181" s="516"/>
-      <c r="FC181" s="516"/>
-      <c r="FD181" s="516"/>
-      <c r="FE181" s="516"/>
-      <c r="FF181" s="516"/>
-      <c r="FG181" s="516"/>
-      <c r="FH181" s="516"/>
-      <c r="FI181" s="516"/>
-      <c r="FJ181" s="516"/>
-      <c r="FK181" s="516"/>
-      <c r="FL181" s="516"/>
-      <c r="FM181" s="516"/>
-      <c r="FN181" s="516"/>
-      <c r="FO181" s="516"/>
-      <c r="FP181" s="516"/>
-      <c r="FQ181" s="516"/>
-      <c r="FR181" s="516"/>
-      <c r="FS181" s="516"/>
-      <c r="FT181" s="516"/>
-      <c r="FU181" s="516"/>
-      <c r="FV181" s="516"/>
-      <c r="FW181" s="516"/>
-      <c r="FX181" s="516"/>
-      <c r="FY181" s="516"/>
-      <c r="FZ181" s="516"/>
-      <c r="GA181" s="516"/>
-      <c r="GB181" s="516"/>
-      <c r="GC181" s="516"/>
-      <c r="GD181" s="516"/>
-      <c r="GE181" s="516"/>
-      <c r="GF181" s="516"/>
-      <c r="GG181" s="516"/>
-      <c r="GH181" s="516"/>
-      <c r="GI181" s="516"/>
-      <c r="GJ181" s="516"/>
-      <c r="GK181" s="516"/>
-      <c r="GL181" s="516"/>
-      <c r="GM181" s="516"/>
-      <c r="GN181" s="516"/>
-      <c r="GO181" s="516"/>
-      <c r="GP181" s="516"/>
-      <c r="GQ181" s="516"/>
-      <c r="GR181" s="516"/>
-      <c r="GS181" s="516"/>
-      <c r="GT181" s="516"/>
-      <c r="GU181" s="516"/>
-      <c r="GV181" s="516"/>
-      <c r="GW181" s="516"/>
-      <c r="GX181" s="516"/>
-      <c r="GY181" s="516"/>
-      <c r="GZ181" s="516"/>
-      <c r="HA181" s="516"/>
-      <c r="HB181" s="516"/>
-      <c r="HC181" s="516"/>
-      <c r="HD181" s="516"/>
-      <c r="HE181" s="516"/>
-      <c r="HF181" s="516"/>
-      <c r="HG181" s="516"/>
-      <c r="HH181" s="516"/>
-      <c r="HI181" s="516"/>
-      <c r="HJ181" s="516"/>
-      <c r="HK181" s="516"/>
-      <c r="HL181" s="516"/>
-      <c r="HM181" s="516"/>
-      <c r="HN181" s="516"/>
-      <c r="HO181" s="516"/>
-      <c r="HP181" s="516"/>
-      <c r="HQ181" s="516"/>
-      <c r="HR181" s="516"/>
-      <c r="HS181" s="516"/>
-      <c r="HT181" s="516"/>
-      <c r="HU181" s="516"/>
-      <c r="HV181" s="516"/>
-      <c r="HW181" s="516"/>
-      <c r="HX181" s="516"/>
-      <c r="HY181" s="516"/>
-      <c r="HZ181" s="516"/>
-      <c r="IA181" s="516"/>
-      <c r="IB181" s="516"/>
-      <c r="IC181" s="516"/>
-      <c r="ID181" s="516"/>
-      <c r="IE181" s="516"/>
-      <c r="IF181" s="516"/>
-      <c r="IG181" s="516"/>
-      <c r="IH181" s="516"/>
-      <c r="II181" s="516"/>
-      <c r="IJ181" s="516"/>
-      <c r="IK181" s="516"/>
-      <c r="IL181" s="516"/>
-      <c r="IM181" s="516"/>
-      <c r="IN181" s="516"/>
-      <c r="IO181" s="516"/>
-    </row>
-    <row r="182" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A182" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B182" s="513"/>
-      <c r="C182" s="511" t="s">
+      <c r="O181" s="512"/>
+      <c r="P181" s="514"/>
+      <c r="Q181" s="514"/>
+      <c r="R181" s="514"/>
+      <c r="S181" s="514"/>
+      <c r="T181" s="514"/>
+      <c r="U181" s="514"/>
+      <c r="V181" s="514"/>
+      <c r="W181" s="514"/>
+      <c r="X181" s="514"/>
+      <c r="Y181" s="514"/>
+      <c r="Z181" s="514"/>
+      <c r="AA181" s="514"/>
+      <c r="AB181" s="514"/>
+      <c r="AC181" s="514"/>
+      <c r="AD181" s="514"/>
+      <c r="AE181" s="514"/>
+      <c r="AF181" s="514"/>
+      <c r="AG181" s="514"/>
+      <c r="AH181" s="514"/>
+      <c r="AI181" s="514"/>
+      <c r="AJ181" s="514"/>
+      <c r="AK181" s="514"/>
+      <c r="AL181" s="514"/>
+      <c r="AM181" s="514"/>
+      <c r="AN181" s="514"/>
+      <c r="AO181" s="514"/>
+      <c r="AP181" s="514"/>
+      <c r="AQ181" s="514"/>
+      <c r="AR181" s="514"/>
+      <c r="AS181" s="514"/>
+      <c r="AT181" s="514"/>
+      <c r="AU181" s="514"/>
+      <c r="AV181" s="514"/>
+      <c r="AW181" s="514"/>
+      <c r="AX181" s="514"/>
+      <c r="AY181" s="514"/>
+      <c r="AZ181" s="514"/>
+      <c r="BA181" s="514"/>
+      <c r="BB181" s="514"/>
+      <c r="BC181" s="514"/>
+      <c r="BD181" s="514"/>
+      <c r="BE181" s="514"/>
+      <c r="BF181" s="514"/>
+      <c r="BG181" s="514"/>
+      <c r="BH181" s="514"/>
+      <c r="BI181" s="514"/>
+      <c r="BJ181" s="514"/>
+      <c r="BK181" s="514"/>
+      <c r="BL181" s="514"/>
+      <c r="BM181" s="514"/>
+      <c r="BN181" s="514"/>
+      <c r="BO181" s="514"/>
+      <c r="BP181" s="514"/>
+      <c r="BQ181" s="514"/>
+      <c r="BR181" s="514"/>
+      <c r="BS181" s="514"/>
+      <c r="BT181" s="514"/>
+      <c r="BU181" s="514"/>
+      <c r="BV181" s="514"/>
+      <c r="BW181" s="514"/>
+      <c r="BX181" s="514"/>
+      <c r="BY181" s="514"/>
+      <c r="BZ181" s="514"/>
+      <c r="CA181" s="514"/>
+      <c r="CB181" s="514"/>
+      <c r="CC181" s="514"/>
+      <c r="CD181" s="514"/>
+      <c r="CE181" s="514"/>
+      <c r="CF181" s="514"/>
+      <c r="CG181" s="514"/>
+      <c r="CH181" s="514"/>
+      <c r="CI181" s="514"/>
+      <c r="CJ181" s="514"/>
+      <c r="CK181" s="514"/>
+      <c r="CL181" s="514"/>
+      <c r="CM181" s="514"/>
+      <c r="CN181" s="514"/>
+      <c r="CO181" s="514"/>
+      <c r="CP181" s="514"/>
+      <c r="CQ181" s="514"/>
+      <c r="CR181" s="514"/>
+      <c r="CS181" s="514"/>
+      <c r="CT181" s="514"/>
+      <c r="CU181" s="514"/>
+      <c r="CV181" s="514"/>
+      <c r="CW181" s="514"/>
+      <c r="CX181" s="514"/>
+      <c r="CY181" s="514"/>
+      <c r="CZ181" s="514"/>
+      <c r="DA181" s="514"/>
+      <c r="DB181" s="514"/>
+      <c r="DC181" s="514"/>
+      <c r="DD181" s="514"/>
+      <c r="DE181" s="514"/>
+      <c r="DF181" s="514"/>
+      <c r="DG181" s="514"/>
+      <c r="DH181" s="514"/>
+      <c r="DI181" s="514"/>
+      <c r="DJ181" s="514"/>
+      <c r="DK181" s="514"/>
+      <c r="DL181" s="514"/>
+      <c r="DM181" s="514"/>
+      <c r="DN181" s="514"/>
+      <c r="DO181" s="514"/>
+      <c r="DP181" s="514"/>
+      <c r="DQ181" s="514"/>
+      <c r="DR181" s="514"/>
+      <c r="DS181" s="514"/>
+      <c r="DT181" s="514"/>
+      <c r="DU181" s="514"/>
+      <c r="DV181" s="514"/>
+      <c r="DW181" s="514"/>
+      <c r="DX181" s="514"/>
+      <c r="DY181" s="514"/>
+      <c r="DZ181" s="514"/>
+      <c r="EA181" s="514"/>
+      <c r="EB181" s="514"/>
+      <c r="EC181" s="514"/>
+      <c r="ED181" s="514"/>
+      <c r="EE181" s="514"/>
+      <c r="EF181" s="514"/>
+      <c r="EG181" s="514"/>
+      <c r="EH181" s="514"/>
+      <c r="EI181" s="514"/>
+      <c r="EJ181" s="514"/>
+      <c r="EK181" s="514"/>
+      <c r="EL181" s="514"/>
+      <c r="EM181" s="514"/>
+      <c r="EN181" s="514"/>
+      <c r="EO181" s="514"/>
+      <c r="EP181" s="514"/>
+      <c r="EQ181" s="514"/>
+      <c r="ER181" s="514"/>
+      <c r="ES181" s="514"/>
+      <c r="ET181" s="514"/>
+      <c r="EU181" s="514"/>
+      <c r="EV181" s="514"/>
+      <c r="EW181" s="514"/>
+      <c r="EX181" s="514"/>
+      <c r="EY181" s="514"/>
+      <c r="EZ181" s="514"/>
+      <c r="FA181" s="514"/>
+      <c r="FB181" s="514"/>
+      <c r="FC181" s="514"/>
+      <c r="FD181" s="514"/>
+      <c r="FE181" s="514"/>
+      <c r="FF181" s="514"/>
+      <c r="FG181" s="514"/>
+      <c r="FH181" s="514"/>
+      <c r="FI181" s="514"/>
+      <c r="FJ181" s="514"/>
+      <c r="FK181" s="514"/>
+      <c r="FL181" s="514"/>
+      <c r="FM181" s="514"/>
+      <c r="FN181" s="514"/>
+      <c r="FO181" s="514"/>
+      <c r="FP181" s="514"/>
+      <c r="FQ181" s="514"/>
+      <c r="FR181" s="514"/>
+      <c r="FS181" s="514"/>
+      <c r="FT181" s="514"/>
+      <c r="FU181" s="514"/>
+      <c r="FV181" s="514"/>
+      <c r="FW181" s="514"/>
+      <c r="FX181" s="514"/>
+      <c r="FY181" s="514"/>
+      <c r="FZ181" s="514"/>
+      <c r="GA181" s="514"/>
+      <c r="GB181" s="514"/>
+      <c r="GC181" s="514"/>
+      <c r="GD181" s="514"/>
+      <c r="GE181" s="514"/>
+      <c r="GF181" s="514"/>
+      <c r="GG181" s="514"/>
+      <c r="GH181" s="514"/>
+      <c r="GI181" s="514"/>
+      <c r="GJ181" s="514"/>
+      <c r="GK181" s="514"/>
+      <c r="GL181" s="514"/>
+      <c r="GM181" s="514"/>
+      <c r="GN181" s="514"/>
+      <c r="GO181" s="514"/>
+      <c r="GP181" s="514"/>
+      <c r="GQ181" s="514"/>
+      <c r="GR181" s="514"/>
+      <c r="GS181" s="514"/>
+      <c r="GT181" s="514"/>
+      <c r="GU181" s="514"/>
+      <c r="GV181" s="514"/>
+      <c r="GW181" s="514"/>
+      <c r="GX181" s="514"/>
+      <c r="GY181" s="514"/>
+      <c r="GZ181" s="514"/>
+      <c r="HA181" s="514"/>
+      <c r="HB181" s="514"/>
+      <c r="HC181" s="514"/>
+      <c r="HD181" s="514"/>
+      <c r="HE181" s="514"/>
+      <c r="HF181" s="514"/>
+      <c r="HG181" s="514"/>
+      <c r="HH181" s="514"/>
+      <c r="HI181" s="514"/>
+      <c r="HJ181" s="514"/>
+      <c r="HK181" s="514"/>
+      <c r="HL181" s="514"/>
+      <c r="HM181" s="514"/>
+      <c r="HN181" s="514"/>
+      <c r="HO181" s="514"/>
+      <c r="HP181" s="514"/>
+      <c r="HQ181" s="514"/>
+      <c r="HR181" s="514"/>
+      <c r="HS181" s="514"/>
+      <c r="HT181" s="514"/>
+      <c r="HU181" s="514"/>
+      <c r="HV181" s="514"/>
+      <c r="HW181" s="514"/>
+      <c r="HX181" s="514"/>
+      <c r="HY181" s="514"/>
+      <c r="HZ181" s="514"/>
+      <c r="IA181" s="514"/>
+      <c r="IB181" s="514"/>
+      <c r="IC181" s="514"/>
+      <c r="ID181" s="514"/>
+      <c r="IE181" s="514"/>
+      <c r="IF181" s="514"/>
+      <c r="IG181" s="514"/>
+      <c r="IH181" s="514"/>
+      <c r="II181" s="514"/>
+      <c r="IJ181" s="514"/>
+      <c r="IK181" s="514"/>
+      <c r="IL181" s="514"/>
+      <c r="IM181" s="514"/>
+      <c r="IN181" s="514"/>
+      <c r="IO181" s="514"/>
+    </row>
+    <row r="182" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A182" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B182" s="511"/>
+      <c r="C182" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D182" s="518" t="s">
+      <c r="D182" s="516" t="s">
         <v>389</v>
       </c>
-      <c r="E182" s="518" t="s">
+      <c r="E182" s="516" t="s">
         <v>390</v>
       </c>
-      <c r="F182" s="515"/>
-      <c r="G182" s="518" t="s">
+      <c r="F182" s="513"/>
+      <c r="G182" s="516" t="s">
         <v>389</v>
       </c>
-      <c r="H182" s="514"/>
-      <c r="I182" s="514"/>
-      <c r="J182" s="515"/>
-      <c r="K182" s="514" t="s">
+      <c r="H182" s="512"/>
+      <c r="I182" s="512"/>
+      <c r="J182" s="513"/>
+      <c r="K182" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L182" s="515"/>
-      <c r="M182" s="515"/>
-      <c r="N182" s="514" t="s">
+      <c r="L182" s="513"/>
+      <c r="M182" s="513"/>
+      <c r="N182" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O182" s="514"/>
-      <c r="P182" s="516"/>
-      <c r="Q182" s="516"/>
-      <c r="R182" s="516"/>
-      <c r="S182" s="516"/>
-      <c r="T182" s="516"/>
-      <c r="U182" s="516"/>
-      <c r="V182" s="516"/>
-      <c r="W182" s="516"/>
-      <c r="X182" s="516"/>
-      <c r="Y182" s="516"/>
-      <c r="Z182" s="516"/>
-      <c r="AA182" s="516"/>
-      <c r="AB182" s="516"/>
-      <c r="AC182" s="516"/>
-      <c r="AD182" s="516"/>
-      <c r="AE182" s="516"/>
-      <c r="AF182" s="516"/>
-      <c r="AG182" s="516"/>
-      <c r="AH182" s="516"/>
-      <c r="AI182" s="516"/>
-      <c r="AJ182" s="516"/>
-      <c r="AK182" s="516"/>
-      <c r="AL182" s="516"/>
-      <c r="AM182" s="516"/>
-      <c r="AN182" s="516"/>
-      <c r="AO182" s="516"/>
-      <c r="AP182" s="516"/>
-      <c r="AQ182" s="516"/>
-      <c r="AR182" s="516"/>
-      <c r="AS182" s="516"/>
-      <c r="AT182" s="516"/>
-      <c r="AU182" s="516"/>
-      <c r="AV182" s="516"/>
-      <c r="AW182" s="516"/>
-      <c r="AX182" s="516"/>
-      <c r="AY182" s="516"/>
-      <c r="AZ182" s="516"/>
-      <c r="BA182" s="516"/>
-      <c r="BB182" s="516"/>
-      <c r="BC182" s="516"/>
-      <c r="BD182" s="516"/>
-      <c r="BE182" s="516"/>
-      <c r="BF182" s="516"/>
-      <c r="BG182" s="516"/>
-      <c r="BH182" s="516"/>
-      <c r="BI182" s="516"/>
-      <c r="BJ182" s="516"/>
-      <c r="BK182" s="516"/>
-      <c r="BL182" s="516"/>
-      <c r="BM182" s="516"/>
-      <c r="BN182" s="516"/>
-      <c r="BO182" s="516"/>
-      <c r="BP182" s="516"/>
-      <c r="BQ182" s="516"/>
-      <c r="BR182" s="516"/>
-      <c r="BS182" s="516"/>
-      <c r="BT182" s="516"/>
-      <c r="BU182" s="516"/>
-      <c r="BV182" s="516"/>
-      <c r="BW182" s="516"/>
-      <c r="BX182" s="516"/>
-      <c r="BY182" s="516"/>
-      <c r="BZ182" s="516"/>
-      <c r="CA182" s="516"/>
-      <c r="CB182" s="516"/>
-      <c r="CC182" s="516"/>
-      <c r="CD182" s="516"/>
-      <c r="CE182" s="516"/>
-      <c r="CF182" s="516"/>
-      <c r="CG182" s="516"/>
-      <c r="CH182" s="516"/>
-      <c r="CI182" s="516"/>
-      <c r="CJ182" s="516"/>
-      <c r="CK182" s="516"/>
-      <c r="CL182" s="516"/>
-      <c r="CM182" s="516"/>
-      <c r="CN182" s="516"/>
-      <c r="CO182" s="516"/>
-      <c r="CP182" s="516"/>
-      <c r="CQ182" s="516"/>
-      <c r="CR182" s="516"/>
-      <c r="CS182" s="516"/>
-      <c r="CT182" s="516"/>
-      <c r="CU182" s="516"/>
-      <c r="CV182" s="516"/>
-      <c r="CW182" s="516"/>
-      <c r="CX182" s="516"/>
-      <c r="CY182" s="516"/>
-      <c r="CZ182" s="516"/>
-      <c r="DA182" s="516"/>
-      <c r="DB182" s="516"/>
-      <c r="DC182" s="516"/>
-      <c r="DD182" s="516"/>
-      <c r="DE182" s="516"/>
-      <c r="DF182" s="516"/>
-      <c r="DG182" s="516"/>
-      <c r="DH182" s="516"/>
-      <c r="DI182" s="516"/>
-      <c r="DJ182" s="516"/>
-      <c r="DK182" s="516"/>
-      <c r="DL182" s="516"/>
-      <c r="DM182" s="516"/>
-      <c r="DN182" s="516"/>
-      <c r="DO182" s="516"/>
-      <c r="DP182" s="516"/>
-      <c r="DQ182" s="516"/>
-      <c r="DR182" s="516"/>
-      <c r="DS182" s="516"/>
-      <c r="DT182" s="516"/>
-      <c r="DU182" s="516"/>
-      <c r="DV182" s="516"/>
-      <c r="DW182" s="516"/>
-      <c r="DX182" s="516"/>
-      <c r="DY182" s="516"/>
-      <c r="DZ182" s="516"/>
-      <c r="EA182" s="516"/>
-      <c r="EB182" s="516"/>
-      <c r="EC182" s="516"/>
-      <c r="ED182" s="516"/>
-      <c r="EE182" s="516"/>
-      <c r="EF182" s="516"/>
-      <c r="EG182" s="516"/>
-      <c r="EH182" s="516"/>
-      <c r="EI182" s="516"/>
-      <c r="EJ182" s="516"/>
-      <c r="EK182" s="516"/>
-      <c r="EL182" s="516"/>
-      <c r="EM182" s="516"/>
-      <c r="EN182" s="516"/>
-      <c r="EO182" s="516"/>
-      <c r="EP182" s="516"/>
-      <c r="EQ182" s="516"/>
-      <c r="ER182" s="516"/>
-      <c r="ES182" s="516"/>
-      <c r="ET182" s="516"/>
-      <c r="EU182" s="516"/>
-      <c r="EV182" s="516"/>
-      <c r="EW182" s="516"/>
-      <c r="EX182" s="516"/>
-      <c r="EY182" s="516"/>
-      <c r="EZ182" s="516"/>
-      <c r="FA182" s="516"/>
-      <c r="FB182" s="516"/>
-      <c r="FC182" s="516"/>
-      <c r="FD182" s="516"/>
-      <c r="FE182" s="516"/>
-      <c r="FF182" s="516"/>
-      <c r="FG182" s="516"/>
-      <c r="FH182" s="516"/>
-      <c r="FI182" s="516"/>
-      <c r="FJ182" s="516"/>
-      <c r="FK182" s="516"/>
-      <c r="FL182" s="516"/>
-      <c r="FM182" s="516"/>
-      <c r="FN182" s="516"/>
-      <c r="FO182" s="516"/>
-      <c r="FP182" s="516"/>
-      <c r="FQ182" s="516"/>
-      <c r="FR182" s="516"/>
-      <c r="FS182" s="516"/>
-      <c r="FT182" s="516"/>
-      <c r="FU182" s="516"/>
-      <c r="FV182" s="516"/>
-      <c r="FW182" s="516"/>
-      <c r="FX182" s="516"/>
-      <c r="FY182" s="516"/>
-      <c r="FZ182" s="516"/>
-      <c r="GA182" s="516"/>
-      <c r="GB182" s="516"/>
-      <c r="GC182" s="516"/>
-      <c r="GD182" s="516"/>
-      <c r="GE182" s="516"/>
-      <c r="GF182" s="516"/>
-      <c r="GG182" s="516"/>
-      <c r="GH182" s="516"/>
-      <c r="GI182" s="516"/>
-      <c r="GJ182" s="516"/>
-      <c r="GK182" s="516"/>
-      <c r="GL182" s="516"/>
-      <c r="GM182" s="516"/>
-      <c r="GN182" s="516"/>
-      <c r="GO182" s="516"/>
-      <c r="GP182" s="516"/>
-      <c r="GQ182" s="516"/>
-      <c r="GR182" s="516"/>
-      <c r="GS182" s="516"/>
-      <c r="GT182" s="516"/>
-      <c r="GU182" s="516"/>
-      <c r="GV182" s="516"/>
-      <c r="GW182" s="516"/>
-      <c r="GX182" s="516"/>
-      <c r="GY182" s="516"/>
-      <c r="GZ182" s="516"/>
-      <c r="HA182" s="516"/>
-      <c r="HB182" s="516"/>
-      <c r="HC182" s="516"/>
-      <c r="HD182" s="516"/>
-      <c r="HE182" s="516"/>
-      <c r="HF182" s="516"/>
-      <c r="HG182" s="516"/>
-      <c r="HH182" s="516"/>
-      <c r="HI182" s="516"/>
-      <c r="HJ182" s="516"/>
-      <c r="HK182" s="516"/>
-      <c r="HL182" s="516"/>
-      <c r="HM182" s="516"/>
-      <c r="HN182" s="516"/>
-      <c r="HO182" s="516"/>
-      <c r="HP182" s="516"/>
-      <c r="HQ182" s="516"/>
-      <c r="HR182" s="516"/>
-      <c r="HS182" s="516"/>
-      <c r="HT182" s="516"/>
-      <c r="HU182" s="516"/>
-      <c r="HV182" s="516"/>
-      <c r="HW182" s="516"/>
-      <c r="HX182" s="516"/>
-      <c r="HY182" s="516"/>
-      <c r="HZ182" s="516"/>
-      <c r="IA182" s="516"/>
-      <c r="IB182" s="516"/>
-      <c r="IC182" s="516"/>
-      <c r="ID182" s="516"/>
-      <c r="IE182" s="516"/>
-      <c r="IF182" s="516"/>
-      <c r="IG182" s="516"/>
-      <c r="IH182" s="516"/>
-      <c r="II182" s="516"/>
-      <c r="IJ182" s="516"/>
-      <c r="IK182" s="516"/>
-      <c r="IL182" s="516"/>
-      <c r="IM182" s="516"/>
-      <c r="IN182" s="516"/>
-      <c r="IO182" s="516"/>
-    </row>
-    <row r="183" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A183" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B183" s="513"/>
-      <c r="C183" s="511" t="s">
+      <c r="O182" s="512"/>
+      <c r="P182" s="514"/>
+      <c r="Q182" s="514"/>
+      <c r="R182" s="514"/>
+      <c r="S182" s="514"/>
+      <c r="T182" s="514"/>
+      <c r="U182" s="514"/>
+      <c r="V182" s="514"/>
+      <c r="W182" s="514"/>
+      <c r="X182" s="514"/>
+      <c r="Y182" s="514"/>
+      <c r="Z182" s="514"/>
+      <c r="AA182" s="514"/>
+      <c r="AB182" s="514"/>
+      <c r="AC182" s="514"/>
+      <c r="AD182" s="514"/>
+      <c r="AE182" s="514"/>
+      <c r="AF182" s="514"/>
+      <c r="AG182" s="514"/>
+      <c r="AH182" s="514"/>
+      <c r="AI182" s="514"/>
+      <c r="AJ182" s="514"/>
+      <c r="AK182" s="514"/>
+      <c r="AL182" s="514"/>
+      <c r="AM182" s="514"/>
+      <c r="AN182" s="514"/>
+      <c r="AO182" s="514"/>
+      <c r="AP182" s="514"/>
+      <c r="AQ182" s="514"/>
+      <c r="AR182" s="514"/>
+      <c r="AS182" s="514"/>
+      <c r="AT182" s="514"/>
+      <c r="AU182" s="514"/>
+      <c r="AV182" s="514"/>
+      <c r="AW182" s="514"/>
+      <c r="AX182" s="514"/>
+      <c r="AY182" s="514"/>
+      <c r="AZ182" s="514"/>
+      <c r="BA182" s="514"/>
+      <c r="BB182" s="514"/>
+      <c r="BC182" s="514"/>
+      <c r="BD182" s="514"/>
+      <c r="BE182" s="514"/>
+      <c r="BF182" s="514"/>
+      <c r="BG182" s="514"/>
+      <c r="BH182" s="514"/>
+      <c r="BI182" s="514"/>
+      <c r="BJ182" s="514"/>
+      <c r="BK182" s="514"/>
+      <c r="BL182" s="514"/>
+      <c r="BM182" s="514"/>
+      <c r="BN182" s="514"/>
+      <c r="BO182" s="514"/>
+      <c r="BP182" s="514"/>
+      <c r="BQ182" s="514"/>
+      <c r="BR182" s="514"/>
+      <c r="BS182" s="514"/>
+      <c r="BT182" s="514"/>
+      <c r="BU182" s="514"/>
+      <c r="BV182" s="514"/>
+      <c r="BW182" s="514"/>
+      <c r="BX182" s="514"/>
+      <c r="BY182" s="514"/>
+      <c r="BZ182" s="514"/>
+      <c r="CA182" s="514"/>
+      <c r="CB182" s="514"/>
+      <c r="CC182" s="514"/>
+      <c r="CD182" s="514"/>
+      <c r="CE182" s="514"/>
+      <c r="CF182" s="514"/>
+      <c r="CG182" s="514"/>
+      <c r="CH182" s="514"/>
+      <c r="CI182" s="514"/>
+      <c r="CJ182" s="514"/>
+      <c r="CK182" s="514"/>
+      <c r="CL182" s="514"/>
+      <c r="CM182" s="514"/>
+      <c r="CN182" s="514"/>
+      <c r="CO182" s="514"/>
+      <c r="CP182" s="514"/>
+      <c r="CQ182" s="514"/>
+      <c r="CR182" s="514"/>
+      <c r="CS182" s="514"/>
+      <c r="CT182" s="514"/>
+      <c r="CU182" s="514"/>
+      <c r="CV182" s="514"/>
+      <c r="CW182" s="514"/>
+      <c r="CX182" s="514"/>
+      <c r="CY182" s="514"/>
+      <c r="CZ182" s="514"/>
+      <c r="DA182" s="514"/>
+      <c r="DB182" s="514"/>
+      <c r="DC182" s="514"/>
+      <c r="DD182" s="514"/>
+      <c r="DE182" s="514"/>
+      <c r="DF182" s="514"/>
+      <c r="DG182" s="514"/>
+      <c r="DH182" s="514"/>
+      <c r="DI182" s="514"/>
+      <c r="DJ182" s="514"/>
+      <c r="DK182" s="514"/>
+      <c r="DL182" s="514"/>
+      <c r="DM182" s="514"/>
+      <c r="DN182" s="514"/>
+      <c r="DO182" s="514"/>
+      <c r="DP182" s="514"/>
+      <c r="DQ182" s="514"/>
+      <c r="DR182" s="514"/>
+      <c r="DS182" s="514"/>
+      <c r="DT182" s="514"/>
+      <c r="DU182" s="514"/>
+      <c r="DV182" s="514"/>
+      <c r="DW182" s="514"/>
+      <c r="DX182" s="514"/>
+      <c r="DY182" s="514"/>
+      <c r="DZ182" s="514"/>
+      <c r="EA182" s="514"/>
+      <c r="EB182" s="514"/>
+      <c r="EC182" s="514"/>
+      <c r="ED182" s="514"/>
+      <c r="EE182" s="514"/>
+      <c r="EF182" s="514"/>
+      <c r="EG182" s="514"/>
+      <c r="EH182" s="514"/>
+      <c r="EI182" s="514"/>
+      <c r="EJ182" s="514"/>
+      <c r="EK182" s="514"/>
+      <c r="EL182" s="514"/>
+      <c r="EM182" s="514"/>
+      <c r="EN182" s="514"/>
+      <c r="EO182" s="514"/>
+      <c r="EP182" s="514"/>
+      <c r="EQ182" s="514"/>
+      <c r="ER182" s="514"/>
+      <c r="ES182" s="514"/>
+      <c r="ET182" s="514"/>
+      <c r="EU182" s="514"/>
+      <c r="EV182" s="514"/>
+      <c r="EW182" s="514"/>
+      <c r="EX182" s="514"/>
+      <c r="EY182" s="514"/>
+      <c r="EZ182" s="514"/>
+      <c r="FA182" s="514"/>
+      <c r="FB182" s="514"/>
+      <c r="FC182" s="514"/>
+      <c r="FD182" s="514"/>
+      <c r="FE182" s="514"/>
+      <c r="FF182" s="514"/>
+      <c r="FG182" s="514"/>
+      <c r="FH182" s="514"/>
+      <c r="FI182" s="514"/>
+      <c r="FJ182" s="514"/>
+      <c r="FK182" s="514"/>
+      <c r="FL182" s="514"/>
+      <c r="FM182" s="514"/>
+      <c r="FN182" s="514"/>
+      <c r="FO182" s="514"/>
+      <c r="FP182" s="514"/>
+      <c r="FQ182" s="514"/>
+      <c r="FR182" s="514"/>
+      <c r="FS182" s="514"/>
+      <c r="FT182" s="514"/>
+      <c r="FU182" s="514"/>
+      <c r="FV182" s="514"/>
+      <c r="FW182" s="514"/>
+      <c r="FX182" s="514"/>
+      <c r="FY182" s="514"/>
+      <c r="FZ182" s="514"/>
+      <c r="GA182" s="514"/>
+      <c r="GB182" s="514"/>
+      <c r="GC182" s="514"/>
+      <c r="GD182" s="514"/>
+      <c r="GE182" s="514"/>
+      <c r="GF182" s="514"/>
+      <c r="GG182" s="514"/>
+      <c r="GH182" s="514"/>
+      <c r="GI182" s="514"/>
+      <c r="GJ182" s="514"/>
+      <c r="GK182" s="514"/>
+      <c r="GL182" s="514"/>
+      <c r="GM182" s="514"/>
+      <c r="GN182" s="514"/>
+      <c r="GO182" s="514"/>
+      <c r="GP182" s="514"/>
+      <c r="GQ182" s="514"/>
+      <c r="GR182" s="514"/>
+      <c r="GS182" s="514"/>
+      <c r="GT182" s="514"/>
+      <c r="GU182" s="514"/>
+      <c r="GV182" s="514"/>
+      <c r="GW182" s="514"/>
+      <c r="GX182" s="514"/>
+      <c r="GY182" s="514"/>
+      <c r="GZ182" s="514"/>
+      <c r="HA182" s="514"/>
+      <c r="HB182" s="514"/>
+      <c r="HC182" s="514"/>
+      <c r="HD182" s="514"/>
+      <c r="HE182" s="514"/>
+      <c r="HF182" s="514"/>
+      <c r="HG182" s="514"/>
+      <c r="HH182" s="514"/>
+      <c r="HI182" s="514"/>
+      <c r="HJ182" s="514"/>
+      <c r="HK182" s="514"/>
+      <c r="HL182" s="514"/>
+      <c r="HM182" s="514"/>
+      <c r="HN182" s="514"/>
+      <c r="HO182" s="514"/>
+      <c r="HP182" s="514"/>
+      <c r="HQ182" s="514"/>
+      <c r="HR182" s="514"/>
+      <c r="HS182" s="514"/>
+      <c r="HT182" s="514"/>
+      <c r="HU182" s="514"/>
+      <c r="HV182" s="514"/>
+      <c r="HW182" s="514"/>
+      <c r="HX182" s="514"/>
+      <c r="HY182" s="514"/>
+      <c r="HZ182" s="514"/>
+      <c r="IA182" s="514"/>
+      <c r="IB182" s="514"/>
+      <c r="IC182" s="514"/>
+      <c r="ID182" s="514"/>
+      <c r="IE182" s="514"/>
+      <c r="IF182" s="514"/>
+      <c r="IG182" s="514"/>
+      <c r="IH182" s="514"/>
+      <c r="II182" s="514"/>
+      <c r="IJ182" s="514"/>
+      <c r="IK182" s="514"/>
+      <c r="IL182" s="514"/>
+      <c r="IM182" s="514"/>
+      <c r="IN182" s="514"/>
+      <c r="IO182" s="514"/>
+    </row>
+    <row r="183" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A183" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B183" s="511"/>
+      <c r="C183" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D183" s="518" t="s">
+      <c r="D183" s="516" t="s">
         <v>391</v>
       </c>
-      <c r="E183" s="518" t="s">
+      <c r="E183" s="516" t="s">
         <v>392</v>
       </c>
-      <c r="F183" s="519" t="s">
+      <c r="F183" s="517" t="s">
         <v>393</v>
       </c>
-      <c r="G183" s="518" t="s">
+      <c r="G183" s="516" t="s">
         <v>174</v>
       </c>
-      <c r="H183" s="514"/>
-      <c r="I183" s="518" t="s">
+      <c r="H183" s="512"/>
+      <c r="I183" s="516" t="s">
         <v>387</v>
       </c>
-      <c r="J183" s="515"/>
-      <c r="K183" s="514" t="s">
+      <c r="J183" s="513"/>
+      <c r="K183" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L183" s="515"/>
-      <c r="M183" s="515"/>
-      <c r="N183" s="514" t="s">
+      <c r="L183" s="513"/>
+      <c r="M183" s="513"/>
+      <c r="N183" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O183" s="514"/>
-      <c r="P183" s="516"/>
-      <c r="Q183" s="516"/>
-      <c r="R183" s="516"/>
-      <c r="S183" s="516"/>
-      <c r="T183" s="516"/>
-      <c r="U183" s="516"/>
-      <c r="V183" s="516"/>
-      <c r="W183" s="516"/>
-      <c r="X183" s="516"/>
-      <c r="Y183" s="516"/>
-      <c r="Z183" s="516"/>
-      <c r="AA183" s="516"/>
-      <c r="AB183" s="516"/>
-      <c r="AC183" s="516"/>
-      <c r="AD183" s="516"/>
-      <c r="AE183" s="516"/>
-      <c r="AF183" s="516"/>
-      <c r="AG183" s="516"/>
-      <c r="AH183" s="516"/>
-      <c r="AI183" s="516"/>
-      <c r="AJ183" s="516"/>
-      <c r="AK183" s="516"/>
-      <c r="AL183" s="516"/>
-      <c r="AM183" s="516"/>
-      <c r="AN183" s="516"/>
-      <c r="AO183" s="516"/>
-      <c r="AP183" s="516"/>
-      <c r="AQ183" s="516"/>
-      <c r="AR183" s="516"/>
-      <c r="AS183" s="516"/>
-      <c r="AT183" s="516"/>
-      <c r="AU183" s="516"/>
-      <c r="AV183" s="516"/>
-      <c r="AW183" s="516"/>
-      <c r="AX183" s="516"/>
-      <c r="AY183" s="516"/>
-      <c r="AZ183" s="516"/>
-      <c r="BA183" s="516"/>
-      <c r="BB183" s="516"/>
-      <c r="BC183" s="516"/>
-      <c r="BD183" s="516"/>
-      <c r="BE183" s="516"/>
-      <c r="BF183" s="516"/>
-      <c r="BG183" s="516"/>
-      <c r="BH183" s="516"/>
-      <c r="BI183" s="516"/>
-      <c r="BJ183" s="516"/>
-      <c r="BK183" s="516"/>
-      <c r="BL183" s="516"/>
-      <c r="BM183" s="516"/>
-      <c r="BN183" s="516"/>
-      <c r="BO183" s="516"/>
-      <c r="BP183" s="516"/>
-      <c r="BQ183" s="516"/>
-      <c r="BR183" s="516"/>
-      <c r="BS183" s="516"/>
-      <c r="BT183" s="516"/>
-      <c r="BU183" s="516"/>
-      <c r="BV183" s="516"/>
-      <c r="BW183" s="516"/>
-      <c r="BX183" s="516"/>
-      <c r="BY183" s="516"/>
-      <c r="BZ183" s="516"/>
-      <c r="CA183" s="516"/>
-      <c r="CB183" s="516"/>
-      <c r="CC183" s="516"/>
-      <c r="CD183" s="516"/>
-      <c r="CE183" s="516"/>
-      <c r="CF183" s="516"/>
-      <c r="CG183" s="516"/>
-      <c r="CH183" s="516"/>
-      <c r="CI183" s="516"/>
-      <c r="CJ183" s="516"/>
-      <c r="CK183" s="516"/>
-      <c r="CL183" s="516"/>
-      <c r="CM183" s="516"/>
-      <c r="CN183" s="516"/>
-      <c r="CO183" s="516"/>
-      <c r="CP183" s="516"/>
-      <c r="CQ183" s="516"/>
-      <c r="CR183" s="516"/>
-      <c r="CS183" s="516"/>
-      <c r="CT183" s="516"/>
-      <c r="CU183" s="516"/>
-      <c r="CV183" s="516"/>
-      <c r="CW183" s="516"/>
-      <c r="CX183" s="516"/>
-      <c r="CY183" s="516"/>
-      <c r="CZ183" s="516"/>
-      <c r="DA183" s="516"/>
-      <c r="DB183" s="516"/>
-      <c r="DC183" s="516"/>
-      <c r="DD183" s="516"/>
-      <c r="DE183" s="516"/>
-      <c r="DF183" s="516"/>
-      <c r="DG183" s="516"/>
-      <c r="DH183" s="516"/>
-      <c r="DI183" s="516"/>
-      <c r="DJ183" s="516"/>
-      <c r="DK183" s="516"/>
-      <c r="DL183" s="516"/>
-      <c r="DM183" s="516"/>
-      <c r="DN183" s="516"/>
-      <c r="DO183" s="516"/>
-      <c r="DP183" s="516"/>
-      <c r="DQ183" s="516"/>
-      <c r="DR183" s="516"/>
-      <c r="DS183" s="516"/>
-      <c r="DT183" s="516"/>
-      <c r="DU183" s="516"/>
-      <c r="DV183" s="516"/>
-      <c r="DW183" s="516"/>
-      <c r="DX183" s="516"/>
-      <c r="DY183" s="516"/>
-      <c r="DZ183" s="516"/>
-      <c r="EA183" s="516"/>
-      <c r="EB183" s="516"/>
-      <c r="EC183" s="516"/>
-      <c r="ED183" s="516"/>
-      <c r="EE183" s="516"/>
-      <c r="EF183" s="516"/>
-      <c r="EG183" s="516"/>
-      <c r="EH183" s="516"/>
-      <c r="EI183" s="516"/>
-      <c r="EJ183" s="516"/>
-      <c r="EK183" s="516"/>
-      <c r="EL183" s="516"/>
-      <c r="EM183" s="516"/>
-      <c r="EN183" s="516"/>
-      <c r="EO183" s="516"/>
-      <c r="EP183" s="516"/>
-      <c r="EQ183" s="516"/>
-      <c r="ER183" s="516"/>
-      <c r="ES183" s="516"/>
-      <c r="ET183" s="516"/>
-      <c r="EU183" s="516"/>
-      <c r="EV183" s="516"/>
-      <c r="EW183" s="516"/>
-      <c r="EX183" s="516"/>
-      <c r="EY183" s="516"/>
-      <c r="EZ183" s="516"/>
-      <c r="FA183" s="516"/>
-      <c r="FB183" s="516"/>
-      <c r="FC183" s="516"/>
-      <c r="FD183" s="516"/>
-      <c r="FE183" s="516"/>
-      <c r="FF183" s="516"/>
-      <c r="FG183" s="516"/>
-      <c r="FH183" s="516"/>
-      <c r="FI183" s="516"/>
-      <c r="FJ183" s="516"/>
-      <c r="FK183" s="516"/>
-      <c r="FL183" s="516"/>
-      <c r="FM183" s="516"/>
-      <c r="FN183" s="516"/>
-      <c r="FO183" s="516"/>
-      <c r="FP183" s="516"/>
-      <c r="FQ183" s="516"/>
-      <c r="FR183" s="516"/>
-      <c r="FS183" s="516"/>
-      <c r="FT183" s="516"/>
-      <c r="FU183" s="516"/>
-      <c r="FV183" s="516"/>
-      <c r="FW183" s="516"/>
-      <c r="FX183" s="516"/>
-      <c r="FY183" s="516"/>
-      <c r="FZ183" s="516"/>
-      <c r="GA183" s="516"/>
-      <c r="GB183" s="516"/>
-      <c r="GC183" s="516"/>
-      <c r="GD183" s="516"/>
-      <c r="GE183" s="516"/>
-      <c r="GF183" s="516"/>
-      <c r="GG183" s="516"/>
-      <c r="GH183" s="516"/>
-      <c r="GI183" s="516"/>
-      <c r="GJ183" s="516"/>
-      <c r="GK183" s="516"/>
-      <c r="GL183" s="516"/>
-      <c r="GM183" s="516"/>
-      <c r="GN183" s="516"/>
-      <c r="GO183" s="516"/>
-      <c r="GP183" s="516"/>
-      <c r="GQ183" s="516"/>
-      <c r="GR183" s="516"/>
-      <c r="GS183" s="516"/>
-      <c r="GT183" s="516"/>
-      <c r="GU183" s="516"/>
-      <c r="GV183" s="516"/>
-      <c r="GW183" s="516"/>
-      <c r="GX183" s="516"/>
-      <c r="GY183" s="516"/>
-      <c r="GZ183" s="516"/>
-      <c r="HA183" s="516"/>
-      <c r="HB183" s="516"/>
-      <c r="HC183" s="516"/>
-      <c r="HD183" s="516"/>
-      <c r="HE183" s="516"/>
-      <c r="HF183" s="516"/>
-      <c r="HG183" s="516"/>
-      <c r="HH183" s="516"/>
-      <c r="HI183" s="516"/>
-      <c r="HJ183" s="516"/>
-      <c r="HK183" s="516"/>
-      <c r="HL183" s="516"/>
-      <c r="HM183" s="516"/>
-      <c r="HN183" s="516"/>
-      <c r="HO183" s="516"/>
-      <c r="HP183" s="516"/>
-      <c r="HQ183" s="516"/>
-      <c r="HR183" s="516"/>
-      <c r="HS183" s="516"/>
-      <c r="HT183" s="516"/>
-      <c r="HU183" s="516"/>
-      <c r="HV183" s="516"/>
-      <c r="HW183" s="516"/>
-      <c r="HX183" s="516"/>
-      <c r="HY183" s="516"/>
-      <c r="HZ183" s="516"/>
-      <c r="IA183" s="516"/>
-      <c r="IB183" s="516"/>
-      <c r="IC183" s="516"/>
-      <c r="ID183" s="516"/>
-      <c r="IE183" s="516"/>
-      <c r="IF183" s="516"/>
-      <c r="IG183" s="516"/>
-      <c r="IH183" s="516"/>
-      <c r="II183" s="516"/>
-      <c r="IJ183" s="516"/>
-      <c r="IK183" s="516"/>
-      <c r="IL183" s="516"/>
-      <c r="IM183" s="516"/>
-      <c r="IN183" s="516"/>
-      <c r="IO183" s="516"/>
-    </row>
-    <row r="184" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A184" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B184" s="513"/>
-      <c r="C184" s="511" t="s">
+      <c r="O183" s="512"/>
+      <c r="P183" s="514"/>
+      <c r="Q183" s="514"/>
+      <c r="R183" s="514"/>
+      <c r="S183" s="514"/>
+      <c r="T183" s="514"/>
+      <c r="U183" s="514"/>
+      <c r="V183" s="514"/>
+      <c r="W183" s="514"/>
+      <c r="X183" s="514"/>
+      <c r="Y183" s="514"/>
+      <c r="Z183" s="514"/>
+      <c r="AA183" s="514"/>
+      <c r="AB183" s="514"/>
+      <c r="AC183" s="514"/>
+      <c r="AD183" s="514"/>
+      <c r="AE183" s="514"/>
+      <c r="AF183" s="514"/>
+      <c r="AG183" s="514"/>
+      <c r="AH183" s="514"/>
+      <c r="AI183" s="514"/>
+      <c r="AJ183" s="514"/>
+      <c r="AK183" s="514"/>
+      <c r="AL183" s="514"/>
+      <c r="AM183" s="514"/>
+      <c r="AN183" s="514"/>
+      <c r="AO183" s="514"/>
+      <c r="AP183" s="514"/>
+      <c r="AQ183" s="514"/>
+      <c r="AR183" s="514"/>
+      <c r="AS183" s="514"/>
+      <c r="AT183" s="514"/>
+      <c r="AU183" s="514"/>
+      <c r="AV183" s="514"/>
+      <c r="AW183" s="514"/>
+      <c r="AX183" s="514"/>
+      <c r="AY183" s="514"/>
+      <c r="AZ183" s="514"/>
+      <c r="BA183" s="514"/>
+      <c r="BB183" s="514"/>
+      <c r="BC183" s="514"/>
+      <c r="BD183" s="514"/>
+      <c r="BE183" s="514"/>
+      <c r="BF183" s="514"/>
+      <c r="BG183" s="514"/>
+      <c r="BH183" s="514"/>
+      <c r="BI183" s="514"/>
+      <c r="BJ183" s="514"/>
+      <c r="BK183" s="514"/>
+      <c r="BL183" s="514"/>
+      <c r="BM183" s="514"/>
+      <c r="BN183" s="514"/>
+      <c r="BO183" s="514"/>
+      <c r="BP183" s="514"/>
+      <c r="BQ183" s="514"/>
+      <c r="BR183" s="514"/>
+      <c r="BS183" s="514"/>
+      <c r="BT183" s="514"/>
+      <c r="BU183" s="514"/>
+      <c r="BV183" s="514"/>
+      <c r="BW183" s="514"/>
+      <c r="BX183" s="514"/>
+      <c r="BY183" s="514"/>
+      <c r="BZ183" s="514"/>
+      <c r="CA183" s="514"/>
+      <c r="CB183" s="514"/>
+      <c r="CC183" s="514"/>
+      <c r="CD183" s="514"/>
+      <c r="CE183" s="514"/>
+      <c r="CF183" s="514"/>
+      <c r="CG183" s="514"/>
+      <c r="CH183" s="514"/>
+      <c r="CI183" s="514"/>
+      <c r="CJ183" s="514"/>
+      <c r="CK183" s="514"/>
+      <c r="CL183" s="514"/>
+      <c r="CM183" s="514"/>
+      <c r="CN183" s="514"/>
+      <c r="CO183" s="514"/>
+      <c r="CP183" s="514"/>
+      <c r="CQ183" s="514"/>
+      <c r="CR183" s="514"/>
+      <c r="CS183" s="514"/>
+      <c r="CT183" s="514"/>
+      <c r="CU183" s="514"/>
+      <c r="CV183" s="514"/>
+      <c r="CW183" s="514"/>
+      <c r="CX183" s="514"/>
+      <c r="CY183" s="514"/>
+      <c r="CZ183" s="514"/>
+      <c r="DA183" s="514"/>
+      <c r="DB183" s="514"/>
+      <c r="DC183" s="514"/>
+      <c r="DD183" s="514"/>
+      <c r="DE183" s="514"/>
+      <c r="DF183" s="514"/>
+      <c r="DG183" s="514"/>
+      <c r="DH183" s="514"/>
+      <c r="DI183" s="514"/>
+      <c r="DJ183" s="514"/>
+      <c r="DK183" s="514"/>
+      <c r="DL183" s="514"/>
+      <c r="DM183" s="514"/>
+      <c r="DN183" s="514"/>
+      <c r="DO183" s="514"/>
+      <c r="DP183" s="514"/>
+      <c r="DQ183" s="514"/>
+      <c r="DR183" s="514"/>
+      <c r="DS183" s="514"/>
+      <c r="DT183" s="514"/>
+      <c r="DU183" s="514"/>
+      <c r="DV183" s="514"/>
+      <c r="DW183" s="514"/>
+      <c r="DX183" s="514"/>
+      <c r="DY183" s="514"/>
+      <c r="DZ183" s="514"/>
+      <c r="EA183" s="514"/>
+      <c r="EB183" s="514"/>
+      <c r="EC183" s="514"/>
+      <c r="ED183" s="514"/>
+      <c r="EE183" s="514"/>
+      <c r="EF183" s="514"/>
+      <c r="EG183" s="514"/>
+      <c r="EH183" s="514"/>
+      <c r="EI183" s="514"/>
+      <c r="EJ183" s="514"/>
+      <c r="EK183" s="514"/>
+      <c r="EL183" s="514"/>
+      <c r="EM183" s="514"/>
+      <c r="EN183" s="514"/>
+      <c r="EO183" s="514"/>
+      <c r="EP183" s="514"/>
+      <c r="EQ183" s="514"/>
+      <c r="ER183" s="514"/>
+      <c r="ES183" s="514"/>
+      <c r="ET183" s="514"/>
+      <c r="EU183" s="514"/>
+      <c r="EV183" s="514"/>
+      <c r="EW183" s="514"/>
+      <c r="EX183" s="514"/>
+      <c r="EY183" s="514"/>
+      <c r="EZ183" s="514"/>
+      <c r="FA183" s="514"/>
+      <c r="FB183" s="514"/>
+      <c r="FC183" s="514"/>
+      <c r="FD183" s="514"/>
+      <c r="FE183" s="514"/>
+      <c r="FF183" s="514"/>
+      <c r="FG183" s="514"/>
+      <c r="FH183" s="514"/>
+      <c r="FI183" s="514"/>
+      <c r="FJ183" s="514"/>
+      <c r="FK183" s="514"/>
+      <c r="FL183" s="514"/>
+      <c r="FM183" s="514"/>
+      <c r="FN183" s="514"/>
+      <c r="FO183" s="514"/>
+      <c r="FP183" s="514"/>
+      <c r="FQ183" s="514"/>
+      <c r="FR183" s="514"/>
+      <c r="FS183" s="514"/>
+      <c r="FT183" s="514"/>
+      <c r="FU183" s="514"/>
+      <c r="FV183" s="514"/>
+      <c r="FW183" s="514"/>
+      <c r="FX183" s="514"/>
+      <c r="FY183" s="514"/>
+      <c r="FZ183" s="514"/>
+      <c r="GA183" s="514"/>
+      <c r="GB183" s="514"/>
+      <c r="GC183" s="514"/>
+      <c r="GD183" s="514"/>
+      <c r="GE183" s="514"/>
+      <c r="GF183" s="514"/>
+      <c r="GG183" s="514"/>
+      <c r="GH183" s="514"/>
+      <c r="GI183" s="514"/>
+      <c r="GJ183" s="514"/>
+      <c r="GK183" s="514"/>
+      <c r="GL183" s="514"/>
+      <c r="GM183" s="514"/>
+      <c r="GN183" s="514"/>
+      <c r="GO183" s="514"/>
+      <c r="GP183" s="514"/>
+      <c r="GQ183" s="514"/>
+      <c r="GR183" s="514"/>
+      <c r="GS183" s="514"/>
+      <c r="GT183" s="514"/>
+      <c r="GU183" s="514"/>
+      <c r="GV183" s="514"/>
+      <c r="GW183" s="514"/>
+      <c r="GX183" s="514"/>
+      <c r="GY183" s="514"/>
+      <c r="GZ183" s="514"/>
+      <c r="HA183" s="514"/>
+      <c r="HB183" s="514"/>
+      <c r="HC183" s="514"/>
+      <c r="HD183" s="514"/>
+      <c r="HE183" s="514"/>
+      <c r="HF183" s="514"/>
+      <c r="HG183" s="514"/>
+      <c r="HH183" s="514"/>
+      <c r="HI183" s="514"/>
+      <c r="HJ183" s="514"/>
+      <c r="HK183" s="514"/>
+      <c r="HL183" s="514"/>
+      <c r="HM183" s="514"/>
+      <c r="HN183" s="514"/>
+      <c r="HO183" s="514"/>
+      <c r="HP183" s="514"/>
+      <c r="HQ183" s="514"/>
+      <c r="HR183" s="514"/>
+      <c r="HS183" s="514"/>
+      <c r="HT183" s="514"/>
+      <c r="HU183" s="514"/>
+      <c r="HV183" s="514"/>
+      <c r="HW183" s="514"/>
+      <c r="HX183" s="514"/>
+      <c r="HY183" s="514"/>
+      <c r="HZ183" s="514"/>
+      <c r="IA183" s="514"/>
+      <c r="IB183" s="514"/>
+      <c r="IC183" s="514"/>
+      <c r="ID183" s="514"/>
+      <c r="IE183" s="514"/>
+      <c r="IF183" s="514"/>
+      <c r="IG183" s="514"/>
+      <c r="IH183" s="514"/>
+      <c r="II183" s="514"/>
+      <c r="IJ183" s="514"/>
+      <c r="IK183" s="514"/>
+      <c r="IL183" s="514"/>
+      <c r="IM183" s="514"/>
+      <c r="IN183" s="514"/>
+      <c r="IO183" s="514"/>
+    </row>
+    <row r="184" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A184" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B184" s="511"/>
+      <c r="C184" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D184" s="518" t="s">
+      <c r="D184" s="516" t="s">
         <v>394</v>
       </c>
-      <c r="E184" s="518" t="s">
+      <c r="E184" s="516" t="s">
         <v>395</v>
       </c>
-      <c r="F184" s="519" t="s">
+      <c r="F184" s="517" t="s">
         <v>396</v>
       </c>
-      <c r="G184" s="518" t="s">
+      <c r="G184" s="516" t="s">
         <v>174</v>
       </c>
-      <c r="H184" s="514"/>
-      <c r="I184" s="520" t="s">
+      <c r="H184" s="512"/>
+      <c r="I184" s="518" t="s">
         <v>389</v>
       </c>
-      <c r="J184" s="515"/>
-      <c r="K184" s="514" t="s">
+      <c r="J184" s="513"/>
+      <c r="K184" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L184" s="515"/>
-      <c r="M184" s="515"/>
-      <c r="N184" s="514" t="s">
+      <c r="L184" s="513"/>
+      <c r="M184" s="513"/>
+      <c r="N184" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O184" s="514"/>
-      <c r="P184" s="516"/>
-      <c r="Q184" s="516"/>
-      <c r="R184" s="516"/>
-      <c r="S184" s="516"/>
-      <c r="T184" s="516"/>
-      <c r="U184" s="516"/>
-      <c r="V184" s="516"/>
-      <c r="W184" s="516"/>
-      <c r="X184" s="516"/>
-      <c r="Y184" s="516"/>
-      <c r="Z184" s="516"/>
-      <c r="AA184" s="516"/>
-      <c r="AB184" s="516"/>
-      <c r="AC184" s="516"/>
-      <c r="AD184" s="516"/>
-      <c r="AE184" s="516"/>
-      <c r="AF184" s="516"/>
-      <c r="AG184" s="516"/>
-      <c r="AH184" s="516"/>
-      <c r="AI184" s="516"/>
-      <c r="AJ184" s="516"/>
-      <c r="AK184" s="516"/>
-      <c r="AL184" s="516"/>
-      <c r="AM184" s="516"/>
-      <c r="AN184" s="516"/>
-      <c r="AO184" s="516"/>
-      <c r="AP184" s="516"/>
-      <c r="AQ184" s="516"/>
-      <c r="AR184" s="516"/>
-      <c r="AS184" s="516"/>
-      <c r="AT184" s="516"/>
-      <c r="AU184" s="516"/>
-      <c r="AV184" s="516"/>
-      <c r="AW184" s="516"/>
-      <c r="AX184" s="516"/>
-      <c r="AY184" s="516"/>
-      <c r="AZ184" s="516"/>
-      <c r="BA184" s="516"/>
-      <c r="BB184" s="516"/>
-      <c r="BC184" s="516"/>
-      <c r="BD184" s="516"/>
-      <c r="BE184" s="516"/>
-      <c r="BF184" s="516"/>
-      <c r="BG184" s="516"/>
-      <c r="BH184" s="516"/>
-      <c r="BI184" s="516"/>
-      <c r="BJ184" s="516"/>
-      <c r="BK184" s="516"/>
-      <c r="BL184" s="516"/>
-      <c r="BM184" s="516"/>
-      <c r="BN184" s="516"/>
-      <c r="BO184" s="516"/>
-      <c r="BP184" s="516"/>
-      <c r="BQ184" s="516"/>
-      <c r="BR184" s="516"/>
-      <c r="BS184" s="516"/>
-      <c r="BT184" s="516"/>
-      <c r="BU184" s="516"/>
-      <c r="BV184" s="516"/>
-      <c r="BW184" s="516"/>
-      <c r="BX184" s="516"/>
-      <c r="BY184" s="516"/>
-      <c r="BZ184" s="516"/>
-      <c r="CA184" s="516"/>
-      <c r="CB184" s="516"/>
-      <c r="CC184" s="516"/>
-      <c r="CD184" s="516"/>
-      <c r="CE184" s="516"/>
-      <c r="CF184" s="516"/>
-      <c r="CG184" s="516"/>
-      <c r="CH184" s="516"/>
-      <c r="CI184" s="516"/>
-      <c r="CJ184" s="516"/>
-      <c r="CK184" s="516"/>
-      <c r="CL184" s="516"/>
-      <c r="CM184" s="516"/>
-      <c r="CN184" s="516"/>
-      <c r="CO184" s="516"/>
-      <c r="CP184" s="516"/>
-      <c r="CQ184" s="516"/>
-      <c r="CR184" s="516"/>
-      <c r="CS184" s="516"/>
-      <c r="CT184" s="516"/>
-      <c r="CU184" s="516"/>
-      <c r="CV184" s="516"/>
-      <c r="CW184" s="516"/>
-      <c r="CX184" s="516"/>
-      <c r="CY184" s="516"/>
-      <c r="CZ184" s="516"/>
-      <c r="DA184" s="516"/>
-      <c r="DB184" s="516"/>
-      <c r="DC184" s="516"/>
-      <c r="DD184" s="516"/>
-      <c r="DE184" s="516"/>
-      <c r="DF184" s="516"/>
-      <c r="DG184" s="516"/>
-      <c r="DH184" s="516"/>
-      <c r="DI184" s="516"/>
-      <c r="DJ184" s="516"/>
-      <c r="DK184" s="516"/>
-      <c r="DL184" s="516"/>
-      <c r="DM184" s="516"/>
-      <c r="DN184" s="516"/>
-      <c r="DO184" s="516"/>
-      <c r="DP184" s="516"/>
-      <c r="DQ184" s="516"/>
-      <c r="DR184" s="516"/>
-      <c r="DS184" s="516"/>
-      <c r="DT184" s="516"/>
-      <c r="DU184" s="516"/>
-      <c r="DV184" s="516"/>
-      <c r="DW184" s="516"/>
-      <c r="DX184" s="516"/>
-      <c r="DY184" s="516"/>
-      <c r="DZ184" s="516"/>
-      <c r="EA184" s="516"/>
-      <c r="EB184" s="516"/>
-      <c r="EC184" s="516"/>
-      <c r="ED184" s="516"/>
-      <c r="EE184" s="516"/>
-      <c r="EF184" s="516"/>
-      <c r="EG184" s="516"/>
-      <c r="EH184" s="516"/>
-      <c r="EI184" s="516"/>
-      <c r="EJ184" s="516"/>
-      <c r="EK184" s="516"/>
-      <c r="EL184" s="516"/>
-      <c r="EM184" s="516"/>
-      <c r="EN184" s="516"/>
-      <c r="EO184" s="516"/>
-      <c r="EP184" s="516"/>
-      <c r="EQ184" s="516"/>
-      <c r="ER184" s="516"/>
-      <c r="ES184" s="516"/>
-      <c r="ET184" s="516"/>
-      <c r="EU184" s="516"/>
-      <c r="EV184" s="516"/>
-      <c r="EW184" s="516"/>
-      <c r="EX184" s="516"/>
-      <c r="EY184" s="516"/>
-      <c r="EZ184" s="516"/>
-      <c r="FA184" s="516"/>
-      <c r="FB184" s="516"/>
-      <c r="FC184" s="516"/>
-      <c r="FD184" s="516"/>
-      <c r="FE184" s="516"/>
-      <c r="FF184" s="516"/>
-      <c r="FG184" s="516"/>
-      <c r="FH184" s="516"/>
-      <c r="FI184" s="516"/>
-      <c r="FJ184" s="516"/>
-      <c r="FK184" s="516"/>
-      <c r="FL184" s="516"/>
-      <c r="FM184" s="516"/>
-      <c r="FN184" s="516"/>
-      <c r="FO184" s="516"/>
-      <c r="FP184" s="516"/>
-      <c r="FQ184" s="516"/>
-      <c r="FR184" s="516"/>
-      <c r="FS184" s="516"/>
-      <c r="FT184" s="516"/>
-      <c r="FU184" s="516"/>
-      <c r="FV184" s="516"/>
-      <c r="FW184" s="516"/>
-      <c r="FX184" s="516"/>
-      <c r="FY184" s="516"/>
-      <c r="FZ184" s="516"/>
-      <c r="GA184" s="516"/>
-      <c r="GB184" s="516"/>
-      <c r="GC184" s="516"/>
-      <c r="GD184" s="516"/>
-      <c r="GE184" s="516"/>
-      <c r="GF184" s="516"/>
-      <c r="GG184" s="516"/>
-      <c r="GH184" s="516"/>
-      <c r="GI184" s="516"/>
-      <c r="GJ184" s="516"/>
-      <c r="GK184" s="516"/>
-      <c r="GL184" s="516"/>
-      <c r="GM184" s="516"/>
-      <c r="GN184" s="516"/>
-      <c r="GO184" s="516"/>
-      <c r="GP184" s="516"/>
-      <c r="GQ184" s="516"/>
-      <c r="GR184" s="516"/>
-      <c r="GS184" s="516"/>
-      <c r="GT184" s="516"/>
-      <c r="GU184" s="516"/>
-      <c r="GV184" s="516"/>
-      <c r="GW184" s="516"/>
-      <c r="GX184" s="516"/>
-      <c r="GY184" s="516"/>
-      <c r="GZ184" s="516"/>
-      <c r="HA184" s="516"/>
-      <c r="HB184" s="516"/>
-      <c r="HC184" s="516"/>
-      <c r="HD184" s="516"/>
-      <c r="HE184" s="516"/>
-      <c r="HF184" s="516"/>
-      <c r="HG184" s="516"/>
-      <c r="HH184" s="516"/>
-      <c r="HI184" s="516"/>
-      <c r="HJ184" s="516"/>
-      <c r="HK184" s="516"/>
-      <c r="HL184" s="516"/>
-      <c r="HM184" s="516"/>
-      <c r="HN184" s="516"/>
-      <c r="HO184" s="516"/>
-      <c r="HP184" s="516"/>
-      <c r="HQ184" s="516"/>
-      <c r="HR184" s="516"/>
-      <c r="HS184" s="516"/>
-      <c r="HT184" s="516"/>
-      <c r="HU184" s="516"/>
-      <c r="HV184" s="516"/>
-      <c r="HW184" s="516"/>
-      <c r="HX184" s="516"/>
-      <c r="HY184" s="516"/>
-      <c r="HZ184" s="516"/>
-      <c r="IA184" s="516"/>
-      <c r="IB184" s="516"/>
-      <c r="IC184" s="516"/>
-      <c r="ID184" s="516"/>
-      <c r="IE184" s="516"/>
-      <c r="IF184" s="516"/>
-      <c r="IG184" s="516"/>
-      <c r="IH184" s="516"/>
-      <c r="II184" s="516"/>
-      <c r="IJ184" s="516"/>
-      <c r="IK184" s="516"/>
-      <c r="IL184" s="516"/>
-      <c r="IM184" s="516"/>
-      <c r="IN184" s="516"/>
-      <c r="IO184" s="516"/>
-    </row>
-    <row r="185" spans="1:249" s="517" customFormat="1" ht="21" customHeight="1">
-      <c r="A185" s="513">
-        <v>42736</v>
-      </c>
-      <c r="B185" s="513"/>
-      <c r="C185" s="511" t="s">
+      <c r="O184" s="512"/>
+      <c r="P184" s="514"/>
+      <c r="Q184" s="514"/>
+      <c r="R184" s="514"/>
+      <c r="S184" s="514"/>
+      <c r="T184" s="514"/>
+      <c r="U184" s="514"/>
+      <c r="V184" s="514"/>
+      <c r="W184" s="514"/>
+      <c r="X184" s="514"/>
+      <c r="Y184" s="514"/>
+      <c r="Z184" s="514"/>
+      <c r="AA184" s="514"/>
+      <c r="AB184" s="514"/>
+      <c r="AC184" s="514"/>
+      <c r="AD184" s="514"/>
+      <c r="AE184" s="514"/>
+      <c r="AF184" s="514"/>
+      <c r="AG184" s="514"/>
+      <c r="AH184" s="514"/>
+      <c r="AI184" s="514"/>
+      <c r="AJ184" s="514"/>
+      <c r="AK184" s="514"/>
+      <c r="AL184" s="514"/>
+      <c r="AM184" s="514"/>
+      <c r="AN184" s="514"/>
+      <c r="AO184" s="514"/>
+      <c r="AP184" s="514"/>
+      <c r="AQ184" s="514"/>
+      <c r="AR184" s="514"/>
+      <c r="AS184" s="514"/>
+      <c r="AT184" s="514"/>
+      <c r="AU184" s="514"/>
+      <c r="AV184" s="514"/>
+      <c r="AW184" s="514"/>
+      <c r="AX184" s="514"/>
+      <c r="AY184" s="514"/>
+      <c r="AZ184" s="514"/>
+      <c r="BA184" s="514"/>
+      <c r="BB184" s="514"/>
+      <c r="BC184" s="514"/>
+      <c r="BD184" s="514"/>
+      <c r="BE184" s="514"/>
+      <c r="BF184" s="514"/>
+      <c r="BG184" s="514"/>
+      <c r="BH184" s="514"/>
+      <c r="BI184" s="514"/>
+      <c r="BJ184" s="514"/>
+      <c r="BK184" s="514"/>
+      <c r="BL184" s="514"/>
+      <c r="BM184" s="514"/>
+      <c r="BN184" s="514"/>
+      <c r="BO184" s="514"/>
+      <c r="BP184" s="514"/>
+      <c r="BQ184" s="514"/>
+      <c r="BR184" s="514"/>
+      <c r="BS184" s="514"/>
+      <c r="BT184" s="514"/>
+      <c r="BU184" s="514"/>
+      <c r="BV184" s="514"/>
+      <c r="BW184" s="514"/>
+      <c r="BX184" s="514"/>
+      <c r="BY184" s="514"/>
+      <c r="BZ184" s="514"/>
+      <c r="CA184" s="514"/>
+      <c r="CB184" s="514"/>
+      <c r="CC184" s="514"/>
+      <c r="CD184" s="514"/>
+      <c r="CE184" s="514"/>
+      <c r="CF184" s="514"/>
+      <c r="CG184" s="514"/>
+      <c r="CH184" s="514"/>
+      <c r="CI184" s="514"/>
+      <c r="CJ184" s="514"/>
+      <c r="CK184" s="514"/>
+      <c r="CL184" s="514"/>
+      <c r="CM184" s="514"/>
+      <c r="CN184" s="514"/>
+      <c r="CO184" s="514"/>
+      <c r="CP184" s="514"/>
+      <c r="CQ184" s="514"/>
+      <c r="CR184" s="514"/>
+      <c r="CS184" s="514"/>
+      <c r="CT184" s="514"/>
+      <c r="CU184" s="514"/>
+      <c r="CV184" s="514"/>
+      <c r="CW184" s="514"/>
+      <c r="CX184" s="514"/>
+      <c r="CY184" s="514"/>
+      <c r="CZ184" s="514"/>
+      <c r="DA184" s="514"/>
+      <c r="DB184" s="514"/>
+      <c r="DC184" s="514"/>
+      <c r="DD184" s="514"/>
+      <c r="DE184" s="514"/>
+      <c r="DF184" s="514"/>
+      <c r="DG184" s="514"/>
+      <c r="DH184" s="514"/>
+      <c r="DI184" s="514"/>
+      <c r="DJ184" s="514"/>
+      <c r="DK184" s="514"/>
+      <c r="DL184" s="514"/>
+      <c r="DM184" s="514"/>
+      <c r="DN184" s="514"/>
+      <c r="DO184" s="514"/>
+      <c r="DP184" s="514"/>
+      <c r="DQ184" s="514"/>
+      <c r="DR184" s="514"/>
+      <c r="DS184" s="514"/>
+      <c r="DT184" s="514"/>
+      <c r="DU184" s="514"/>
+      <c r="DV184" s="514"/>
+      <c r="DW184" s="514"/>
+      <c r="DX184" s="514"/>
+      <c r="DY184" s="514"/>
+      <c r="DZ184" s="514"/>
+      <c r="EA184" s="514"/>
+      <c r="EB184" s="514"/>
+      <c r="EC184" s="514"/>
+      <c r="ED184" s="514"/>
+      <c r="EE184" s="514"/>
+      <c r="EF184" s="514"/>
+      <c r="EG184" s="514"/>
+      <c r="EH184" s="514"/>
+      <c r="EI184" s="514"/>
+      <c r="EJ184" s="514"/>
+      <c r="EK184" s="514"/>
+      <c r="EL184" s="514"/>
+      <c r="EM184" s="514"/>
+      <c r="EN184" s="514"/>
+      <c r="EO184" s="514"/>
+      <c r="EP184" s="514"/>
+      <c r="EQ184" s="514"/>
+      <c r="ER184" s="514"/>
+      <c r="ES184" s="514"/>
+      <c r="ET184" s="514"/>
+      <c r="EU184" s="514"/>
+      <c r="EV184" s="514"/>
+      <c r="EW184" s="514"/>
+      <c r="EX184" s="514"/>
+      <c r="EY184" s="514"/>
+      <c r="EZ184" s="514"/>
+      <c r="FA184" s="514"/>
+      <c r="FB184" s="514"/>
+      <c r="FC184" s="514"/>
+      <c r="FD184" s="514"/>
+      <c r="FE184" s="514"/>
+      <c r="FF184" s="514"/>
+      <c r="FG184" s="514"/>
+      <c r="FH184" s="514"/>
+      <c r="FI184" s="514"/>
+      <c r="FJ184" s="514"/>
+      <c r="FK184" s="514"/>
+      <c r="FL184" s="514"/>
+      <c r="FM184" s="514"/>
+      <c r="FN184" s="514"/>
+      <c r="FO184" s="514"/>
+      <c r="FP184" s="514"/>
+      <c r="FQ184" s="514"/>
+      <c r="FR184" s="514"/>
+      <c r="FS184" s="514"/>
+      <c r="FT184" s="514"/>
+      <c r="FU184" s="514"/>
+      <c r="FV184" s="514"/>
+      <c r="FW184" s="514"/>
+      <c r="FX184" s="514"/>
+      <c r="FY184" s="514"/>
+      <c r="FZ184" s="514"/>
+      <c r="GA184" s="514"/>
+      <c r="GB184" s="514"/>
+      <c r="GC184" s="514"/>
+      <c r="GD184" s="514"/>
+      <c r="GE184" s="514"/>
+      <c r="GF184" s="514"/>
+      <c r="GG184" s="514"/>
+      <c r="GH184" s="514"/>
+      <c r="GI184" s="514"/>
+      <c r="GJ184" s="514"/>
+      <c r="GK184" s="514"/>
+      <c r="GL184" s="514"/>
+      <c r="GM184" s="514"/>
+      <c r="GN184" s="514"/>
+      <c r="GO184" s="514"/>
+      <c r="GP184" s="514"/>
+      <c r="GQ184" s="514"/>
+      <c r="GR184" s="514"/>
+      <c r="GS184" s="514"/>
+      <c r="GT184" s="514"/>
+      <c r="GU184" s="514"/>
+      <c r="GV184" s="514"/>
+      <c r="GW184" s="514"/>
+      <c r="GX184" s="514"/>
+      <c r="GY184" s="514"/>
+      <c r="GZ184" s="514"/>
+      <c r="HA184" s="514"/>
+      <c r="HB184" s="514"/>
+      <c r="HC184" s="514"/>
+      <c r="HD184" s="514"/>
+      <c r="HE184" s="514"/>
+      <c r="HF184" s="514"/>
+      <c r="HG184" s="514"/>
+      <c r="HH184" s="514"/>
+      <c r="HI184" s="514"/>
+      <c r="HJ184" s="514"/>
+      <c r="HK184" s="514"/>
+      <c r="HL184" s="514"/>
+      <c r="HM184" s="514"/>
+      <c r="HN184" s="514"/>
+      <c r="HO184" s="514"/>
+      <c r="HP184" s="514"/>
+      <c r="HQ184" s="514"/>
+      <c r="HR184" s="514"/>
+      <c r="HS184" s="514"/>
+      <c r="HT184" s="514"/>
+      <c r="HU184" s="514"/>
+      <c r="HV184" s="514"/>
+      <c r="HW184" s="514"/>
+      <c r="HX184" s="514"/>
+      <c r="HY184" s="514"/>
+      <c r="HZ184" s="514"/>
+      <c r="IA184" s="514"/>
+      <c r="IB184" s="514"/>
+      <c r="IC184" s="514"/>
+      <c r="ID184" s="514"/>
+      <c r="IE184" s="514"/>
+      <c r="IF184" s="514"/>
+      <c r="IG184" s="514"/>
+      <c r="IH184" s="514"/>
+      <c r="II184" s="514"/>
+      <c r="IJ184" s="514"/>
+      <c r="IK184" s="514"/>
+      <c r="IL184" s="514"/>
+      <c r="IM184" s="514"/>
+      <c r="IN184" s="514"/>
+      <c r="IO184" s="514"/>
+    </row>
+    <row r="185" spans="1:249" s="515" customFormat="1" ht="21" customHeight="1">
+      <c r="A185" s="511">
+        <v>42736</v>
+      </c>
+      <c r="B185" s="511"/>
+      <c r="C185" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D185" s="518" t="s">
+      <c r="D185" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="E185" s="518" t="s">
+      <c r="E185" s="516" t="s">
         <v>398</v>
       </c>
-      <c r="F185" s="519"/>
-      <c r="G185" s="518" t="s">
+      <c r="F185" s="517"/>
+      <c r="G185" s="516" t="s">
         <v>399</v>
       </c>
-      <c r="H185" s="514"/>
-      <c r="I185" s="520"/>
-      <c r="J185" s="515"/>
-      <c r="K185" s="514" t="s">
+      <c r="H185" s="512"/>
+      <c r="I185" s="518"/>
+      <c r="J185" s="513"/>
+      <c r="K185" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="L185" s="515"/>
-      <c r="M185" s="515"/>
-      <c r="N185" s="514" t="s">
+      <c r="L185" s="513"/>
+      <c r="M185" s="513"/>
+      <c r="N185" s="512" t="s">
         <v>153</v>
       </c>
-      <c r="O185" s="514"/>
-      <c r="P185" s="516"/>
-      <c r="Q185" s="516"/>
-      <c r="R185" s="516"/>
-      <c r="S185" s="516"/>
-      <c r="T185" s="516"/>
-      <c r="U185" s="516"/>
-      <c r="V185" s="516"/>
-      <c r="W185" s="516"/>
-      <c r="X185" s="516"/>
-      <c r="Y185" s="516"/>
-      <c r="Z185" s="516"/>
-      <c r="AA185" s="516"/>
-      <c r="AB185" s="516"/>
-      <c r="AC185" s="516"/>
-      <c r="AD185" s="516"/>
-      <c r="AE185" s="516"/>
-      <c r="AF185" s="516"/>
-      <c r="AG185" s="516"/>
-      <c r="AH185" s="516"/>
-      <c r="AI185" s="516"/>
-      <c r="AJ185" s="516"/>
-      <c r="AK185" s="516"/>
-      <c r="AL185" s="516"/>
-      <c r="AM185" s="516"/>
-      <c r="AN185" s="516"/>
-      <c r="AO185" s="516"/>
-      <c r="AP185" s="516"/>
-      <c r="AQ185" s="516"/>
-      <c r="AR185" s="516"/>
-      <c r="AS185" s="516"/>
-      <c r="AT185" s="516"/>
-      <c r="AU185" s="516"/>
-      <c r="AV185" s="516"/>
-      <c r="AW185" s="516"/>
-      <c r="AX185" s="516"/>
-      <c r="AY185" s="516"/>
-      <c r="AZ185" s="516"/>
-      <c r="BA185" s="516"/>
-      <c r="BB185" s="516"/>
-      <c r="BC185" s="516"/>
-      <c r="BD185" s="516"/>
-      <c r="BE185" s="516"/>
-      <c r="BF185" s="516"/>
-      <c r="BG185" s="516"/>
-      <c r="BH185" s="516"/>
-      <c r="BI185" s="516"/>
-      <c r="BJ185" s="516"/>
-      <c r="BK185" s="516"/>
-      <c r="BL185" s="516"/>
-      <c r="BM185" s="516"/>
-      <c r="BN185" s="516"/>
-      <c r="BO185" s="516"/>
-      <c r="BP185" s="516"/>
-      <c r="BQ185" s="516"/>
-      <c r="BR185" s="516"/>
-      <c r="BS185" s="516"/>
-      <c r="BT185" s="516"/>
-      <c r="BU185" s="516"/>
-      <c r="BV185" s="516"/>
-      <c r="BW185" s="516"/>
-      <c r="BX185" s="516"/>
-      <c r="BY185" s="516"/>
-      <c r="BZ185" s="516"/>
-      <c r="CA185" s="516"/>
-      <c r="CB185" s="516"/>
-      <c r="CC185" s="516"/>
-      <c r="CD185" s="516"/>
-      <c r="CE185" s="516"/>
-      <c r="CF185" s="516"/>
-      <c r="CG185" s="516"/>
-      <c r="CH185" s="516"/>
-      <c r="CI185" s="516"/>
-      <c r="CJ185" s="516"/>
-      <c r="CK185" s="516"/>
-      <c r="CL185" s="516"/>
-      <c r="CM185" s="516"/>
-      <c r="CN185" s="516"/>
-      <c r="CO185" s="516"/>
-      <c r="CP185" s="516"/>
-      <c r="CQ185" s="516"/>
-      <c r="CR185" s="516"/>
-      <c r="CS185" s="516"/>
-      <c r="CT185" s="516"/>
-      <c r="CU185" s="516"/>
-      <c r="CV185" s="516"/>
-      <c r="CW185" s="516"/>
-      <c r="CX185" s="516"/>
-      <c r="CY185" s="516"/>
-      <c r="CZ185" s="516"/>
-      <c r="DA185" s="516"/>
-      <c r="DB185" s="516"/>
-      <c r="DC185" s="516"/>
-      <c r="DD185" s="516"/>
-      <c r="DE185" s="516"/>
-      <c r="DF185" s="516"/>
-      <c r="DG185" s="516"/>
-      <c r="DH185" s="516"/>
-      <c r="DI185" s="516"/>
-      <c r="DJ185" s="516"/>
-      <c r="DK185" s="516"/>
-      <c r="DL185" s="516"/>
-      <c r="DM185" s="516"/>
-      <c r="DN185" s="516"/>
-      <c r="DO185" s="516"/>
-      <c r="DP185" s="516"/>
-      <c r="DQ185" s="516"/>
-      <c r="DR185" s="516"/>
-      <c r="DS185" s="516"/>
-      <c r="DT185" s="516"/>
-      <c r="DU185" s="516"/>
-      <c r="DV185" s="516"/>
-      <c r="DW185" s="516"/>
-      <c r="DX185" s="516"/>
-      <c r="DY185" s="516"/>
-      <c r="DZ185" s="516"/>
-      <c r="EA185" s="516"/>
-      <c r="EB185" s="516"/>
-      <c r="EC185" s="516"/>
-      <c r="ED185" s="516"/>
-      <c r="EE185" s="516"/>
-      <c r="EF185" s="516"/>
-      <c r="EG185" s="516"/>
-      <c r="EH185" s="516"/>
-      <c r="EI185" s="516"/>
-      <c r="EJ185" s="516"/>
-      <c r="EK185" s="516"/>
-      <c r="EL185" s="516"/>
-      <c r="EM185" s="516"/>
-      <c r="EN185" s="516"/>
-      <c r="EO185" s="516"/>
-      <c r="EP185" s="516"/>
-      <c r="EQ185" s="516"/>
-      <c r="ER185" s="516"/>
-      <c r="ES185" s="516"/>
-      <c r="ET185" s="516"/>
-      <c r="EU185" s="516"/>
-      <c r="EV185" s="516"/>
-      <c r="EW185" s="516"/>
-      <c r="EX185" s="516"/>
-      <c r="EY185" s="516"/>
-      <c r="EZ185" s="516"/>
-      <c r="FA185" s="516"/>
-      <c r="FB185" s="516"/>
-      <c r="FC185" s="516"/>
-      <c r="FD185" s="516"/>
-      <c r="FE185" s="516"/>
-      <c r="FF185" s="516"/>
-      <c r="FG185" s="516"/>
-      <c r="FH185" s="516"/>
-      <c r="FI185" s="516"/>
-      <c r="FJ185" s="516"/>
-      <c r="FK185" s="516"/>
-      <c r="FL185" s="516"/>
-      <c r="FM185" s="516"/>
-      <c r="FN185" s="516"/>
-      <c r="FO185" s="516"/>
-      <c r="FP185" s="516"/>
-      <c r="FQ185" s="516"/>
-      <c r="FR185" s="516"/>
-      <c r="FS185" s="516"/>
-      <c r="FT185" s="516"/>
-      <c r="FU185" s="516"/>
-      <c r="FV185" s="516"/>
-      <c r="FW185" s="516"/>
-      <c r="FX185" s="516"/>
-      <c r="FY185" s="516"/>
-      <c r="FZ185" s="516"/>
-      <c r="GA185" s="516"/>
-      <c r="GB185" s="516"/>
-      <c r="GC185" s="516"/>
-      <c r="GD185" s="516"/>
-      <c r="GE185" s="516"/>
-      <c r="GF185" s="516"/>
-      <c r="GG185" s="516"/>
-      <c r="GH185" s="516"/>
-      <c r="GI185" s="516"/>
-      <c r="GJ185" s="516"/>
-      <c r="GK185" s="516"/>
-      <c r="GL185" s="516"/>
-      <c r="GM185" s="516"/>
-      <c r="GN185" s="516"/>
-      <c r="GO185" s="516"/>
-      <c r="GP185" s="516"/>
-      <c r="GQ185" s="516"/>
-      <c r="GR185" s="516"/>
-      <c r="GS185" s="516"/>
-      <c r="GT185" s="516"/>
-      <c r="GU185" s="516"/>
-      <c r="GV185" s="516"/>
-      <c r="GW185" s="516"/>
-      <c r="GX185" s="516"/>
-      <c r="GY185" s="516"/>
-      <c r="GZ185" s="516"/>
-      <c r="HA185" s="516"/>
-      <c r="HB185" s="516"/>
-      <c r="HC185" s="516"/>
-      <c r="HD185" s="516"/>
-      <c r="HE185" s="516"/>
-      <c r="HF185" s="516"/>
-      <c r="HG185" s="516"/>
-      <c r="HH185" s="516"/>
-      <c r="HI185" s="516"/>
-      <c r="HJ185" s="516"/>
-      <c r="HK185" s="516"/>
-      <c r="HL185" s="516"/>
-      <c r="HM185" s="516"/>
-      <c r="HN185" s="516"/>
-      <c r="HO185" s="516"/>
-      <c r="HP185" s="516"/>
-      <c r="HQ185" s="516"/>
-      <c r="HR185" s="516"/>
-      <c r="HS185" s="516"/>
-      <c r="HT185" s="516"/>
-      <c r="HU185" s="516"/>
-      <c r="HV185" s="516"/>
-      <c r="HW185" s="516"/>
-      <c r="HX185" s="516"/>
-      <c r="HY185" s="516"/>
-      <c r="HZ185" s="516"/>
-      <c r="IA185" s="516"/>
-      <c r="IB185" s="516"/>
-      <c r="IC185" s="516"/>
-      <c r="ID185" s="516"/>
-      <c r="IE185" s="516"/>
-      <c r="IF185" s="516"/>
-      <c r="IG185" s="516"/>
-      <c r="IH185" s="516"/>
-      <c r="II185" s="516"/>
-      <c r="IJ185" s="516"/>
-      <c r="IK185" s="516"/>
-      <c r="IL185" s="516"/>
-      <c r="IM185" s="516"/>
-      <c r="IN185" s="516"/>
-      <c r="IO185" s="516"/>
+      <c r="O185" s="512"/>
+      <c r="P185" s="514"/>
+      <c r="Q185" s="514"/>
+      <c r="R185" s="514"/>
+      <c r="S185" s="514"/>
+      <c r="T185" s="514"/>
+      <c r="U185" s="514"/>
+      <c r="V185" s="514"/>
+      <c r="W185" s="514"/>
+      <c r="X185" s="514"/>
+      <c r="Y185" s="514"/>
+      <c r="Z185" s="514"/>
+      <c r="AA185" s="514"/>
+      <c r="AB185" s="514"/>
+      <c r="AC185" s="514"/>
+      <c r="AD185" s="514"/>
+      <c r="AE185" s="514"/>
+      <c r="AF185" s="514"/>
+      <c r="AG185" s="514"/>
+      <c r="AH185" s="514"/>
+      <c r="AI185" s="514"/>
+      <c r="AJ185" s="514"/>
+      <c r="AK185" s="514"/>
+      <c r="AL185" s="514"/>
+      <c r="AM185" s="514"/>
+      <c r="AN185" s="514"/>
+      <c r="AO185" s="514"/>
+      <c r="AP185" s="514"/>
+      <c r="AQ185" s="514"/>
+      <c r="AR185" s="514"/>
+      <c r="AS185" s="514"/>
+      <c r="AT185" s="514"/>
+      <c r="AU185" s="514"/>
+      <c r="AV185" s="514"/>
+      <c r="AW185" s="514"/>
+      <c r="AX185" s="514"/>
+      <c r="AY185" s="514"/>
+      <c r="AZ185" s="514"/>
+      <c r="BA185" s="514"/>
+      <c r="BB185" s="514"/>
+      <c r="BC185" s="514"/>
+      <c r="BD185" s="514"/>
+      <c r="BE185" s="514"/>
+      <c r="BF185" s="514"/>
+      <c r="BG185" s="514"/>
+      <c r="BH185" s="514"/>
+      <c r="BI185" s="514"/>
+      <c r="BJ185" s="514"/>
+      <c r="BK185" s="514"/>
+      <c r="BL185" s="514"/>
+      <c r="BM185" s="514"/>
+      <c r="BN185" s="514"/>
+      <c r="BO185" s="514"/>
+      <c r="BP185" s="514"/>
+      <c r="BQ185" s="514"/>
+      <c r="BR185" s="514"/>
+      <c r="BS185" s="514"/>
+      <c r="BT185" s="514"/>
+      <c r="BU185" s="514"/>
+      <c r="BV185" s="514"/>
+      <c r="BW185" s="514"/>
+      <c r="BX185" s="514"/>
+      <c r="BY185" s="514"/>
+      <c r="BZ185" s="514"/>
+      <c r="CA185" s="514"/>
+      <c r="CB185" s="514"/>
+      <c r="CC185" s="514"/>
+      <c r="CD185" s="514"/>
+      <c r="CE185" s="514"/>
+      <c r="CF185" s="514"/>
+      <c r="CG185" s="514"/>
+      <c r="CH185" s="514"/>
+      <c r="CI185" s="514"/>
+      <c r="CJ185" s="514"/>
+      <c r="CK185" s="514"/>
+      <c r="CL185" s="514"/>
+      <c r="CM185" s="514"/>
+      <c r="CN185" s="514"/>
+      <c r="CO185" s="514"/>
+      <c r="CP185" s="514"/>
+      <c r="CQ185" s="514"/>
+      <c r="CR185" s="514"/>
+      <c r="CS185" s="514"/>
+      <c r="CT185" s="514"/>
+      <c r="CU185" s="514"/>
+      <c r="CV185" s="514"/>
+      <c r="CW185" s="514"/>
+      <c r="CX185" s="514"/>
+      <c r="CY185" s="514"/>
+      <c r="CZ185" s="514"/>
+      <c r="DA185" s="514"/>
+      <c r="DB185" s="514"/>
+      <c r="DC185" s="514"/>
+      <c r="DD185" s="514"/>
+      <c r="DE185" s="514"/>
+      <c r="DF185" s="514"/>
+      <c r="DG185" s="514"/>
+      <c r="DH185" s="514"/>
+      <c r="DI185" s="514"/>
+      <c r="DJ185" s="514"/>
+      <c r="DK185" s="514"/>
+      <c r="DL185" s="514"/>
+      <c r="DM185" s="514"/>
+      <c r="DN185" s="514"/>
+      <c r="DO185" s="514"/>
+      <c r="DP185" s="514"/>
+      <c r="DQ185" s="514"/>
+      <c r="DR185" s="514"/>
+      <c r="DS185" s="514"/>
+      <c r="DT185" s="514"/>
+      <c r="DU185" s="514"/>
+      <c r="DV185" s="514"/>
+      <c r="DW185" s="514"/>
+      <c r="DX185" s="514"/>
+      <c r="DY185" s="514"/>
+      <c r="DZ185" s="514"/>
+      <c r="EA185" s="514"/>
+      <c r="EB185" s="514"/>
+      <c r="EC185" s="514"/>
+      <c r="ED185" s="514"/>
+      <c r="EE185" s="514"/>
+      <c r="EF185" s="514"/>
+      <c r="EG185" s="514"/>
+      <c r="EH185" s="514"/>
+      <c r="EI185" s="514"/>
+      <c r="EJ185" s="514"/>
+      <c r="EK185" s="514"/>
+      <c r="EL185" s="514"/>
+      <c r="EM185" s="514"/>
+      <c r="EN185" s="514"/>
+      <c r="EO185" s="514"/>
+      <c r="EP185" s="514"/>
+      <c r="EQ185" s="514"/>
+      <c r="ER185" s="514"/>
+      <c r="ES185" s="514"/>
+      <c r="ET185" s="514"/>
+      <c r="EU185" s="514"/>
+      <c r="EV185" s="514"/>
+      <c r="EW185" s="514"/>
+      <c r="EX185" s="514"/>
+      <c r="EY185" s="514"/>
+      <c r="EZ185" s="514"/>
+      <c r="FA185" s="514"/>
+      <c r="FB185" s="514"/>
+      <c r="FC185" s="514"/>
+      <c r="FD185" s="514"/>
+      <c r="FE185" s="514"/>
+      <c r="FF185" s="514"/>
+      <c r="FG185" s="514"/>
+      <c r="FH185" s="514"/>
+      <c r="FI185" s="514"/>
+      <c r="FJ185" s="514"/>
+      <c r="FK185" s="514"/>
+      <c r="FL185" s="514"/>
+      <c r="FM185" s="514"/>
+      <c r="FN185" s="514"/>
+      <c r="FO185" s="514"/>
+      <c r="FP185" s="514"/>
+      <c r="FQ185" s="514"/>
+      <c r="FR185" s="514"/>
+      <c r="FS185" s="514"/>
+      <c r="FT185" s="514"/>
+      <c r="FU185" s="514"/>
+      <c r="FV185" s="514"/>
+      <c r="FW185" s="514"/>
+      <c r="FX185" s="514"/>
+      <c r="FY185" s="514"/>
+      <c r="FZ185" s="514"/>
+      <c r="GA185" s="514"/>
+      <c r="GB185" s="514"/>
+      <c r="GC185" s="514"/>
+      <c r="GD185" s="514"/>
+      <c r="GE185" s="514"/>
+      <c r="GF185" s="514"/>
+      <c r="GG185" s="514"/>
+      <c r="GH185" s="514"/>
+      <c r="GI185" s="514"/>
+      <c r="GJ185" s="514"/>
+      <c r="GK185" s="514"/>
+      <c r="GL185" s="514"/>
+      <c r="GM185" s="514"/>
+      <c r="GN185" s="514"/>
+      <c r="GO185" s="514"/>
+      <c r="GP185" s="514"/>
+      <c r="GQ185" s="514"/>
+      <c r="GR185" s="514"/>
+      <c r="GS185" s="514"/>
+      <c r="GT185" s="514"/>
+      <c r="GU185" s="514"/>
+      <c r="GV185" s="514"/>
+      <c r="GW185" s="514"/>
+      <c r="GX185" s="514"/>
+      <c r="GY185" s="514"/>
+      <c r="GZ185" s="514"/>
+      <c r="HA185" s="514"/>
+      <c r="HB185" s="514"/>
+      <c r="HC185" s="514"/>
+      <c r="HD185" s="514"/>
+      <c r="HE185" s="514"/>
+      <c r="HF185" s="514"/>
+      <c r="HG185" s="514"/>
+      <c r="HH185" s="514"/>
+      <c r="HI185" s="514"/>
+      <c r="HJ185" s="514"/>
+      <c r="HK185" s="514"/>
+      <c r="HL185" s="514"/>
+      <c r="HM185" s="514"/>
+      <c r="HN185" s="514"/>
+      <c r="HO185" s="514"/>
+      <c r="HP185" s="514"/>
+      <c r="HQ185" s="514"/>
+      <c r="HR185" s="514"/>
+      <c r="HS185" s="514"/>
+      <c r="HT185" s="514"/>
+      <c r="HU185" s="514"/>
+      <c r="HV185" s="514"/>
+      <c r="HW185" s="514"/>
+      <c r="HX185" s="514"/>
+      <c r="HY185" s="514"/>
+      <c r="HZ185" s="514"/>
+      <c r="IA185" s="514"/>
+      <c r="IB185" s="514"/>
+      <c r="IC185" s="514"/>
+      <c r="ID185" s="514"/>
+      <c r="IE185" s="514"/>
+      <c r="IF185" s="514"/>
+      <c r="IG185" s="514"/>
+      <c r="IH185" s="514"/>
+      <c r="II185" s="514"/>
+      <c r="IJ185" s="514"/>
+      <c r="IK185" s="514"/>
+      <c r="IL185" s="514"/>
+      <c r="IM185" s="514"/>
+      <c r="IN185" s="514"/>
+      <c r="IO185" s="514"/>
+    </row>
+    <row r="186" spans="1:249" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A186" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B186" s="53"/>
+      <c r="C186" s="270" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D186" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E186" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F186" s="72"/>
+      <c r="G186" s="501" t="s">
+        <v>152</v>
+      </c>
+      <c r="H186" s="54"/>
+      <c r="I186" s="61"/>
+      <c r="J186" s="61"/>
+      <c r="K186" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L186" s="61"/>
+      <c r="M186" s="61"/>
+      <c r="N186" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="O186" s="99"/>
+    </row>
+    <row r="187" spans="1:249" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A187" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B187" s="53"/>
+      <c r="C187" s="270" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D187" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E187" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="F187" s="104"/>
+      <c r="G187" s="501" t="s">
+        <v>152</v>
+      </c>
+      <c r="H187" s="54"/>
+      <c r="I187" s="61"/>
+      <c r="J187" s="61"/>
+      <c r="K187" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L187" s="61"/>
+      <c r="M187" s="61"/>
+      <c r="N187" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="O187" s="99"/>
+    </row>
+    <row r="188" spans="1:249" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A188" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B188" s="53"/>
+      <c r="C188" s="270" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D188" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E188" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="F188" s="104"/>
+      <c r="G188" s="501" t="s">
+        <v>152</v>
+      </c>
+      <c r="H188" s="54"/>
+      <c r="I188" s="61"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L188" s="61"/>
+      <c r="M188" s="61"/>
+      <c r="N188" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="O188" s="99"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -60134,7 +60624,7 @@
       <c r="D84" s="60" t="s">
         <v>547</v>
       </c>
-      <c r="E84" s="470" t="s">
+      <c r="E84" s="468" t="s">
         <v>159</v>
       </c>
       <c r="F84" s="60"/>
@@ -60206,7 +60696,7 @@
       <c r="D86" s="60" t="s">
         <v>550</v>
       </c>
-      <c r="E86" s="470" t="s">
+      <c r="E86" s="468" t="s">
         <v>159</v>
       </c>
       <c r="F86" s="60"/>
@@ -60278,7 +60768,7 @@
       <c r="D88" s="60" t="s">
         <v>555</v>
       </c>
-      <c r="E88" s="470" t="s">
+      <c r="E88" s="468" t="s">
         <v>159</v>
       </c>
       <c r="F88" s="60"/>
@@ -60303,73 +60793,73 @@
       <c r="S88" s="60"/>
       <c r="T88" s="60"/>
     </row>
-    <row r="89" spans="1:20" s="517" customFormat="1" ht="20" customHeight="1">
-      <c r="A89" s="521">
-        <v>42736</v>
-      </c>
-      <c r="B89" s="513"/>
-      <c r="C89" s="518" t="s">
+    <row r="89" spans="1:20" s="515" customFormat="1" ht="20" customHeight="1">
+      <c r="A89" s="519">
+        <v>42736</v>
+      </c>
+      <c r="B89" s="511"/>
+      <c r="C89" s="516" t="s">
         <v>399</v>
       </c>
-      <c r="D89" s="522" t="s">
+      <c r="D89" s="520" t="s">
         <v>557</v>
       </c>
-      <c r="E89" s="518" t="s">
+      <c r="E89" s="516" t="s">
         <v>389</v>
       </c>
-      <c r="F89" s="522"/>
-      <c r="G89" s="513"/>
-      <c r="H89" s="522" t="s">
+      <c r="F89" s="520"/>
+      <c r="G89" s="511"/>
+      <c r="H89" s="520" t="s">
         <v>558</v>
       </c>
-      <c r="I89" s="513"/>
-      <c r="J89" s="513"/>
-      <c r="K89" s="513"/>
-      <c r="L89" s="513"/>
-      <c r="M89" s="514" t="s">
+      <c r="I89" s="511"/>
+      <c r="J89" s="511"/>
+      <c r="K89" s="511"/>
+      <c r="L89" s="511"/>
+      <c r="M89" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="N89" s="515"/>
-      <c r="O89" s="515"/>
-      <c r="P89" s="514"/>
-      <c r="Q89" s="514"/>
-      <c r="R89" s="514"/>
-      <c r="S89" s="514"/>
-      <c r="T89" s="514"/>
-    </row>
-    <row r="90" spans="1:20" s="517" customFormat="1" ht="20" customHeight="1">
-      <c r="A90" s="521">
-        <v>42736</v>
-      </c>
-      <c r="B90" s="513"/>
-      <c r="C90" s="518" t="s">
+      <c r="N89" s="513"/>
+      <c r="O89" s="513"/>
+      <c r="P89" s="512"/>
+      <c r="Q89" s="512"/>
+      <c r="R89" s="512"/>
+      <c r="S89" s="512"/>
+      <c r="T89" s="512"/>
+    </row>
+    <row r="90" spans="1:20" s="515" customFormat="1" ht="20" customHeight="1">
+      <c r="A90" s="519">
+        <v>42736</v>
+      </c>
+      <c r="B90" s="511"/>
+      <c r="C90" s="516" t="s">
         <v>399</v>
       </c>
-      <c r="D90" s="522" t="s">
+      <c r="D90" s="520" t="s">
         <v>559</v>
       </c>
-      <c r="E90" s="520" t="s">
+      <c r="E90" s="518" t="s">
         <v>387</v>
       </c>
-      <c r="F90" s="522"/>
-      <c r="G90" s="513"/>
-      <c r="H90" s="522" t="s">
+      <c r="F90" s="520"/>
+      <c r="G90" s="511"/>
+      <c r="H90" s="520" t="s">
         <v>558</v>
       </c>
-      <c r="I90" s="513"/>
-      <c r="J90" s="513"/>
-      <c r="K90" s="513"/>
-      <c r="L90" s="513"/>
-      <c r="M90" s="514" t="s">
+      <c r="I90" s="511"/>
+      <c r="J90" s="511"/>
+      <c r="K90" s="511"/>
+      <c r="L90" s="511"/>
+      <c r="M90" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="N90" s="515"/>
-      <c r="O90" s="515"/>
-      <c r="P90" s="514"/>
-      <c r="Q90" s="514"/>
-      <c r="R90" s="514"/>
-      <c r="S90" s="514"/>
-      <c r="T90" s="514"/>
+      <c r="N90" s="513"/>
+      <c r="O90" s="513"/>
+      <c r="P90" s="512"/>
+      <c r="Q90" s="512"/>
+      <c r="R90" s="512"/>
+      <c r="S90" s="512"/>
+      <c r="T90" s="512"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>
@@ -60388,8 +60878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -60453,7 +60943,7 @@
         <v>406</v>
       </c>
       <c r="F3" s="365" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="G3" s="365" t="s">
         <v>565</v>
@@ -61258,44 +61748,44 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A42" s="523">
-        <v>42736</v>
-      </c>
-      <c r="B42" s="524"/>
-      <c r="C42" s="511" t="s">
+      <c r="A42" s="521">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="522"/>
+      <c r="C42" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="518" t="s">
+      <c r="D42" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="E42" s="522" t="s">
+      <c r="E42" s="520" t="s">
         <v>557</v>
       </c>
-      <c r="F42" s="524" t="s">
+      <c r="F42" s="522" t="s">
         <v>566</v>
       </c>
-      <c r="G42" s="518" t="s">
+      <c r="G42" s="516" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A43" s="523">
-        <v>42736</v>
-      </c>
-      <c r="B43" s="523"/>
-      <c r="C43" s="511" t="s">
+      <c r="A43" s="521">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="521"/>
+      <c r="C43" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="518" t="s">
+      <c r="D43" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="E43" s="522" t="s">
+      <c r="E43" s="520" t="s">
         <v>559</v>
       </c>
-      <c r="F43" s="523" t="s">
+      <c r="F43" s="521" t="s">
         <v>566</v>
       </c>
-      <c r="G43" s="518" t="s">
+      <c r="G43" s="516" t="s">
         <v>565</v>
       </c>
     </row>
@@ -61491,7 +61981,7 @@
       <c r="L3" s="200" t="s">
         <v>408</v>
       </c>
-      <c r="M3" s="502" t="s">
+      <c r="M3" s="500" t="s">
         <v>409</v>
       </c>
       <c r="N3" s="199" t="s">
@@ -61528,9 +62018,9 @@
         <v>610</v>
       </c>
       <c r="L4" s="56"/>
-      <c r="M4" s="501"/>
-      <c r="N4" s="501"/>
-      <c r="O4" s="501"/>
+      <c r="M4" s="499"/>
+      <c r="N4" s="499"/>
+      <c r="O4" s="499"/>
     </row>
     <row r="5" spans="1:15" s="333" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="194">
@@ -68723,7 +69213,7 @@
         <v>610</v>
       </c>
       <c r="L233" s="56"/>
-      <c r="M233" s="501"/>
+      <c r="M233" s="499"/>
       <c r="N233" s="72"/>
       <c r="O233" s="72"/>
     </row>
@@ -68732,7 +69222,7 @@
         <v>43101</v>
       </c>
       <c r="B234" s="72"/>
-      <c r="C234" s="509" t="s">
+      <c r="C234" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D234" s="102" t="s">
@@ -68794,7 +69284,7 @@
         <v>43101</v>
       </c>
       <c r="B236" s="72"/>
-      <c r="C236" s="509" t="s">
+      <c r="C236" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D236" s="102" t="s">
@@ -68856,7 +69346,7 @@
         <v>43101</v>
       </c>
       <c r="B238" s="72"/>
-      <c r="C238" s="509" t="s">
+      <c r="C238" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D238" s="102" t="s">
@@ -68918,7 +69408,7 @@
         <v>43101</v>
       </c>
       <c r="B240" s="75"/>
-      <c r="C240" s="509" t="s">
+      <c r="C240" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D240" s="102" t="s">
@@ -68982,7 +69472,7 @@
         <v>43101</v>
       </c>
       <c r="B242" s="72"/>
-      <c r="C242" s="509" t="s">
+      <c r="C242" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D242" s="102" t="s">
@@ -69048,7 +69538,7 @@
         <v>43101</v>
       </c>
       <c r="B244" s="72"/>
-      <c r="C244" s="509" t="s">
+      <c r="C244" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D244" s="102" t="s">
@@ -69114,7 +69604,7 @@
         <v>43101</v>
       </c>
       <c r="B246" s="72"/>
-      <c r="C246" s="509" t="s">
+      <c r="C246" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D246" s="102" t="s">
@@ -69176,7 +69666,7 @@
         <v>43101</v>
       </c>
       <c r="B248" s="72"/>
-      <c r="C248" s="509" t="s">
+      <c r="C248" s="507" t="s">
         <v>100</v>
       </c>
       <c r="D248" s="102" t="s">
@@ -69236,116 +69726,116 @@
       <c r="O249" s="283"/>
     </row>
     <row r="250" spans="1:15" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A250" s="525">
+      <c r="A250" s="523">
         <v>43101</v>
       </c>
-      <c r="B250" s="511"/>
-      <c r="C250" s="511" t="s">
+      <c r="B250" s="509"/>
+      <c r="C250" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D250" s="511" t="s">
+      <c r="D250" s="509" t="s">
         <v>645</v>
       </c>
-      <c r="E250" s="518" t="s">
+      <c r="E250" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="F250" s="522" t="s">
+      <c r="F250" s="520" t="s">
         <v>557</v>
       </c>
-      <c r="G250" s="511"/>
-      <c r="H250" s="511"/>
-      <c r="I250" s="511"/>
-      <c r="J250" s="511">
+      <c r="G250" s="509"/>
+      <c r="H250" s="509"/>
+      <c r="I250" s="509"/>
+      <c r="J250" s="509">
         <v>1</v>
       </c>
       <c r="K250" s="102" t="s">
         <v>611</v>
       </c>
-      <c r="L250" s="511"/>
+      <c r="L250" s="509"/>
     </row>
     <row r="251" spans="1:15" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A251" s="525">
+      <c r="A251" s="523">
         <v>43101</v>
       </c>
-      <c r="B251" s="511"/>
-      <c r="C251" s="511" t="s">
+      <c r="B251" s="509"/>
+      <c r="C251" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D251" s="511" t="s">
+      <c r="D251" s="509" t="s">
         <v>645</v>
       </c>
-      <c r="E251" s="518" t="s">
+      <c r="E251" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="F251" s="522" t="s">
+      <c r="F251" s="520" t="s">
         <v>559</v>
       </c>
-      <c r="G251" s="511"/>
-      <c r="H251" s="511"/>
-      <c r="I251" s="511"/>
-      <c r="J251" s="511">
+      <c r="G251" s="509"/>
+      <c r="H251" s="509"/>
+      <c r="I251" s="509"/>
+      <c r="J251" s="509">
         <v>2</v>
       </c>
       <c r="K251" s="102" t="s">
         <v>611</v>
       </c>
-      <c r="L251" s="511"/>
+      <c r="L251" s="509"/>
     </row>
     <row r="252" spans="1:15" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A252" s="525">
+      <c r="A252" s="523">
         <v>43101</v>
       </c>
-      <c r="B252" s="511"/>
-      <c r="C252" s="511" t="s">
+      <c r="B252" s="509"/>
+      <c r="C252" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D252" s="511" t="s">
+      <c r="D252" s="509" t="s">
         <v>646</v>
       </c>
-      <c r="E252" s="518" t="s">
+      <c r="E252" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="F252" s="522" t="s">
+      <c r="F252" s="520" t="s">
         <v>557</v>
       </c>
-      <c r="G252" s="511"/>
-      <c r="H252" s="511"/>
-      <c r="I252" s="511"/>
-      <c r="J252" s="511">
+      <c r="G252" s="509"/>
+      <c r="H252" s="509"/>
+      <c r="I252" s="509"/>
+      <c r="J252" s="509">
         <v>1</v>
       </c>
       <c r="K252" s="102" t="s">
         <v>611</v>
       </c>
-      <c r="L252" s="511"/>
+      <c r="L252" s="509"/>
     </row>
     <row r="253" spans="1:15" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A253" s="525">
+      <c r="A253" s="523">
         <v>43101</v>
       </c>
-      <c r="B253" s="511"/>
-      <c r="C253" s="511" t="s">
+      <c r="B253" s="509"/>
+      <c r="C253" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="D253" s="511" t="s">
+      <c r="D253" s="509" t="s">
         <v>646</v>
       </c>
-      <c r="E253" s="518" t="s">
+      <c r="E253" s="516" t="s">
         <v>397</v>
       </c>
-      <c r="F253" s="522" t="s">
+      <c r="F253" s="520" t="s">
         <v>559</v>
       </c>
-      <c r="G253" s="511"/>
-      <c r="H253" s="511"/>
-      <c r="I253" s="511"/>
-      <c r="J253" s="511">
+      <c r="G253" s="509"/>
+      <c r="H253" s="509"/>
+      <c r="I253" s="509"/>
+      <c r="J253" s="509">
         <v>2</v>
       </c>
       <c r="K253" s="102" t="s">
         <v>611</v>
       </c>
-      <c r="L253" s="511"/>
+      <c r="L253" s="509"/>
     </row>
   </sheetData>
   <phoneticPr fontId="58" type="noConversion"/>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6FD54-F4F0-8E41-9540-9A233DB70960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773FC08-A4F2-2746-80FC-4BE49008C022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="20500" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -51313,7 +51313,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51339,7 +51339,7 @@
       <c r="G1" s="380"/>
       <c r="H1" s="380"/>
     </row>
-    <row r="2" spans="1:8" s="595" customFormat="1" ht="238">
+    <row r="2" spans="1:8" s="595" customFormat="1" ht="182">
       <c r="A2" s="593" t="s">
         <v>1253</v>
       </c>
@@ -51397,22 +51397,22 @@
       </c>
       <c r="B4" s="380"/>
       <c r="C4" s="597" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D4" s="597" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="E4" s="597" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="F4" s="597" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="G4" s="597" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="H4" s="597" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -53175,8 +53175,8 @@
   <dimension ref="A1:IO194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50:D56"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C27:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773FC08-A4F2-2746-80FC-4BE49008C022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC1D7F2-495E-E34A-8529-45528C99A65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,25 @@
     <sheet name="Category" sheetId="23" r:id="rId5"/>
     <sheet name="CaseField" sheetId="3" r:id="rId6"/>
     <sheet name="ComplexTypes" sheetId="4" r:id="rId7"/>
-    <sheet name="AuthorisationComplexType" sheetId="21" state="hidden" r:id="rId8"/>
-    <sheet name="EventToComplexTypes" sheetId="20" state="hidden" r:id="rId9"/>
-    <sheet name="FixedLists" sheetId="5" state="hidden" r:id="rId10"/>
-    <sheet name="CaseTypeTab" sheetId="6" state="hidden" r:id="rId11"/>
-    <sheet name="State" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="CaseEvent" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="CaseEventToFields" sheetId="9" state="hidden" r:id="rId14"/>
-    <sheet name="SearchInputFields" sheetId="10" state="hidden" r:id="rId15"/>
-    <sheet name="SearchCasesResultFields" sheetId="25" state="hidden" r:id="rId16"/>
-    <sheet name="SearchResultFields" sheetId="11" state="hidden" r:id="rId17"/>
-    <sheet name="WorkBasketInputFields" sheetId="12" state="hidden" r:id="rId18"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" state="hidden" r:id="rId19"/>
-    <sheet name="UserProfile" sheetId="14" state="hidden" r:id="rId20"/>
-    <sheet name="AuthorisationCaseType" sheetId="15" state="hidden" r:id="rId21"/>
-    <sheet name="AuthorisationCaseField" sheetId="16" state="hidden" r:id="rId22"/>
-    <sheet name="CaseRoles" sheetId="19" state="hidden" r:id="rId23"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="17" state="hidden" r:id="rId24"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" state="hidden" r:id="rId25"/>
-    <sheet name="RoleToAccessProfiles" sheetId="27" state="hidden" r:id="rId26"/>
+    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId8"/>
+    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId9"/>
+    <sheet name="FixedLists" sheetId="5" r:id="rId10"/>
+    <sheet name="CaseTypeTab" sheetId="6" r:id="rId11"/>
+    <sheet name="State" sheetId="7" r:id="rId12"/>
+    <sheet name="CaseEvent" sheetId="8" r:id="rId13"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId14"/>
+    <sheet name="SearchInputFields" sheetId="10" r:id="rId15"/>
+    <sheet name="SearchCasesResultFields" sheetId="25" r:id="rId16"/>
+    <sheet name="SearchResultFields" sheetId="11" r:id="rId17"/>
+    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId18"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId19"/>
+    <sheet name="UserProfile" sheetId="14" r:id="rId20"/>
+    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId21"/>
+    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId22"/>
+    <sheet name="CaseRoles" sheetId="19" r:id="rId23"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId24"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
+    <sheet name="RoleToAccessProfiles" sheetId="27" r:id="rId26"/>
     <sheet name="SearchParty" sheetId="30" r:id="rId27"/>
   </sheets>
   <externalReferences>
@@ -41200,7 +41200,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -41320,7 +41320,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -49212,7 +49212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CF64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -51312,8 +51312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2520D-B5D1-6249-96E1-C392AB55B40B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51837,7 +51837,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -52555,7 +52555,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -52925,7 +52925,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -53176,7 +53176,8 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C27:G32"/>
+      <selection activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -61213,7 +61214,7 @@
   <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC1D7F2-495E-E34A-8529-45528C99A65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BAFC04-FC08-674C-BF15-64E8380C9354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24520" windowHeight="19060" firstSheet="22" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,10 @@
     <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
     <sheet name="RoleToAccessProfiles" sheetId="27" r:id="rId26"/>
     <sheet name="SearchParty" sheetId="30" r:id="rId27"/>
+    <sheet name="SearchCriteria" sheetId="31" r:id="rId28"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$22:$V$22</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9853" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9873" uniqueCount="1269">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3942,6 +3943,16 @@
   </si>
   <si>
     <t>AddressComplex1.AddressLine1</t>
+  </si>
+  <si>
+    <t>SearchCriteria</t>
+  </si>
+  <si>
+    <t>OtherCaseReference</t>
+  </si>
+  <si>
+    <t>A complex types that make up the Other Case Reference.
+Max Length: 200</t>
   </si>
 </sst>
 </file>
@@ -17258,8 +17269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CR96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G82" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -49212,7 +49223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CF64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -51312,8 +51323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2520D-B5D1-6249-96E1-C392AB55B40B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51829,6 +51840,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78534859-F064-B543-88B4-7FD2D061D929}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="596" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1" s="380"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+    </row>
+    <row r="2" spans="1:4" ht="84">
+      <c r="A2" s="593" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B2" s="594" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C2" s="593" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D2" s="594" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="598" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="598" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="598" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D3" s="598" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="109">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="380"/>
+      <c r="C4" s="597" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="597" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="109">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="380"/>
+      <c r="C5" s="597" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="597" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="109">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="380"/>
+      <c r="C6" s="597" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="597" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="109">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="380"/>
+      <c r="C7" s="597" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="597" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="109">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="380"/>
+      <c r="C8" s="597" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="555" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="109">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="380"/>
+      <c r="C9" s="597" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="380"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="109"/>
+      <c r="B10" s="380"/>
+      <c r="C10" s="597"/>
+      <c r="D10" s="380"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="109"/>
+      <c r="B11" s="380"/>
+      <c r="C11" s="597"/>
+      <c r="D11" s="380"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="109"/>
+      <c r="B12" s="380"/>
+      <c r="C12" s="597"/>
+      <c r="D12" s="380"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="120"/>
+      <c r="B13" s="601"/>
+      <c r="C13" s="601"/>
+      <c r="D13" s="380"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="109"/>
+      <c r="B14" s="380"/>
+      <c r="C14" s="597"/>
+      <c r="D14" s="380"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="109"/>
+      <c r="B15" s="380"/>
+      <c r="C15" s="597"/>
+      <c r="D15" s="380"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="109"/>
+      <c r="B16" s="380"/>
+      <c r="C16" s="597"/>
+      <c r="D16" s="380"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="109"/>
+      <c r="B17" s="380"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="380"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="380"/>
+      <c r="B18" s="380"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="380"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="380"/>
+      <c r="B19" s="380"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="380"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="380"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="380"/>
+      <c r="D20" s="380"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="380"/>
+      <c r="B21" s="380"/>
+      <c r="C21" s="380"/>
+      <c r="D21" s="380"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="380"/>
+      <c r="B22" s="380"/>
+      <c r="C22" s="380"/>
+      <c r="D22" s="380"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="380"/>
+      <c r="B23" s="380"/>
+      <c r="C23" s="380"/>
+      <c r="D23" s="380"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="380"/>
+      <c r="B24" s="380"/>
+      <c r="C24" s="380"/>
+      <c r="D24" s="380"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="380"/>
+      <c r="B25" s="380"/>
+      <c r="C25" s="380"/>
+      <c r="D25" s="380"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="380"/>
+      <c r="B26" s="380"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="380"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="380"/>
+      <c r="B27" s="380"/>
+      <c r="C27" s="380"/>
+      <c r="D27" s="380"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="380"/>
+      <c r="B28" s="380"/>
+      <c r="C28" s="380"/>
+      <c r="D28" s="380"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BAFC04-FC08-674C-BF15-64E8380C9354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE9958-82C2-B743-A977-E40D6F7A5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24520" windowHeight="19060" firstSheet="22" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="820" windowWidth="31120" windowHeight="18640" firstSheet="19" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9873" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9875" uniqueCount="1269">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -51323,13 +51323,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2520D-B5D1-6249-96E1-C392AB55B40B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="79.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -51848,7 +51848,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51953,7 +51953,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="555" t="s">
-        <v>165</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -51967,21 +51967,27 @@
       <c r="D9" s="380"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="109"/>
+      <c r="A10" s="109">
+        <v>42736</v>
+      </c>
       <c r="B10" s="380"/>
-      <c r="C10" s="597"/>
-      <c r="D10" s="380"/>
+      <c r="C10" s="597" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="597" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="109"/>
+      <c r="A11" s="380"/>
       <c r="B11" s="380"/>
-      <c r="C11" s="597"/>
+      <c r="C11" s="380"/>
       <c r="D11" s="380"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="109"/>
+      <c r="A12" s="380"/>
       <c r="B12" s="380"/>
-      <c r="C12" s="597"/>
+      <c r="C12" s="380"/>
       <c r="D12" s="380"/>
     </row>
     <row r="13" spans="1:4">
@@ -51991,25 +51997,25 @@
       <c r="D13" s="380"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="109"/>
+      <c r="A14" s="380"/>
       <c r="B14" s="380"/>
-      <c r="C14" s="597"/>
+      <c r="C14" s="380"/>
       <c r="D14" s="380"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="109"/>
+      <c r="A15" s="380"/>
       <c r="B15" s="380"/>
-      <c r="C15" s="597"/>
+      <c r="C15" s="380"/>
       <c r="D15" s="380"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="109"/>
+      <c r="A16" s="380"/>
       <c r="B16" s="380"/>
-      <c r="C16" s="597"/>
+      <c r="C16" s="380"/>
       <c r="D16" s="380"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="109"/>
+      <c r="A17" s="380"/>
       <c r="B17" s="380"/>
       <c r="C17" s="380"/>
       <c r="D17" s="380"/>
@@ -53428,9 +53434,9 @@
   <dimension ref="A1:IO194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -61466,8 +61472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -62003,7 +62009,7 @@
         <v>42736</v>
       </c>
       <c r="B15" s="53"/>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="57" t="s">
         <v>443</v>
       </c>
       <c r="D15" s="54" t="s">

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F76D6B8-2512-5145-BDC4-FDAF8734287B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CDD8F9-50EE-1743-83E3-9DDE47E0DB89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="16" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CDD8F9-50EE-1743-83E3-9DDE47E0DB89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F76D6B8-2512-5145-BDC4-FDAF8734287B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="16" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C48131C-BE52-4F3F-B319-8116DCF8CFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E6F72B-26BA-4777-AD99-54DF1B656E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" firstSheet="20" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9839" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="1253">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3145,6 +3145,9 @@
   </si>
   <si>
     <t>${TEST_STUB_SERVICE_BASE_URL:http://ccd-test-stubs-service-aat.service.core-compute-aat.internal}/case_type/FT_DynamicFieldCaseType/all_dynamic_lists</t>
+  </si>
+  <si>
+    <t>Save and continue</t>
   </si>
   <si>
     <t>event1</t>
@@ -6275,16 +6278,16 @@
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -22055,8 +22058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.35" customHeight="1"/>
@@ -25008,9 +25011,11 @@
       </c>
       <c r="S66" s="72"/>
       <c r="T66" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="U66" s="54"/>
+        <v>248</v>
+      </c>
+      <c r="U66" s="54" t="s">
+        <v>1006</v>
+      </c>
       <c r="V66" s="54"/>
     </row>
     <row r="67" spans="1:22" s="333" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -25022,13 +25027,13 @@
         <v>106</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E67" s="54" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F67" s="54" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G67" s="71">
         <v>1</v>
@@ -25068,13 +25073,13 @@
         <v>106</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E68" s="54" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F68" s="54" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G68" s="71">
         <v>1</v>
@@ -25114,13 +25119,13 @@
         <v>106</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E69" s="54" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F69" s="54" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G69" s="71">
         <v>1</v>
@@ -25160,13 +25165,13 @@
         <v>106</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E70" s="57" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G70" s="71">
         <v>1</v>
@@ -25206,13 +25211,13 @@
         <v>106</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G71" s="71">
         <v>1</v>
@@ -25340,13 +25345,13 @@
         <v>112</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E74" s="54" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F74" s="57" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G74" s="71">
         <v>1</v>
@@ -25386,13 +25391,13 @@
         <v>106</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E75" s="57" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F75" s="57" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G75" s="71">
         <v>1</v>
@@ -25482,7 +25487,7 @@
         <v>916</v>
       </c>
       <c r="F77" s="54" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G77" s="71">
         <v>1</v>
@@ -25520,13 +25525,13 @@
         <v>106</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E78" s="57" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F78" s="57" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G78" s="71">
         <v>1</v>
@@ -25566,13 +25571,13 @@
         <v>106</v>
       </c>
       <c r="D79" s="57" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F79" s="57" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G79" s="71">
         <v>1</v>
@@ -25654,7 +25659,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
       <c r="A1" s="82" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>1</v>
@@ -25691,41 +25696,41 @@
         <v>146</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="K2" s="87" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="L2" s="87" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="M2" s="88" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N2" s="54"/>
       <c r="O2" s="87" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="P2" s="87" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="Q2" s="108" t="s">
         <v>896</v>
@@ -25749,22 +25754,22 @@
         <v>581</v>
       </c>
       <c r="F3" s="361" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G3" s="361" t="s">
         <v>624</v>
       </c>
       <c r="H3" s="361" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="I3" s="361" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="J3" s="361" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K3" s="361" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L3" s="361" t="s">
         <v>424</v>
@@ -25773,19 +25778,19 @@
         <v>425</v>
       </c>
       <c r="N3" s="361" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O3" s="361" t="s">
         <v>426</v>
       </c>
       <c r="P3" s="361" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q3" s="361" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="R3" s="403" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="S3" s="50" t="s">
         <v>625</v>
@@ -25812,13 +25817,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J4" s="71">
         <v>1</v>
@@ -25852,13 +25857,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J5" s="71">
         <v>2</v>
@@ -25885,13 +25890,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J6" s="71">
         <v>3</v>
@@ -25918,13 +25923,13 @@
         <v>2</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J7" s="71">
         <v>4</v>
@@ -25951,13 +25956,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J8" s="71">
         <v>5</v>
@@ -25984,13 +25989,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J9" s="71">
         <v>6</v>
@@ -26017,13 +26022,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J10" s="71">
         <v>7</v>
@@ -26050,13 +26055,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J11" s="71">
         <v>8</v>
@@ -26083,13 +26088,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J12" s="74">
         <v>9</v>
@@ -26116,13 +26121,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="111" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H13" s="111" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J13" s="112">
         <v>10</v>
@@ -26155,13 +26160,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J14" s="71">
         <v>13</v>
@@ -26188,13 +26193,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J15" s="71">
         <v>14</v>
@@ -26221,13 +26226,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J16" s="71">
         <v>15</v>
@@ -26254,13 +26259,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J17" s="71">
         <v>16</v>
@@ -26287,13 +26292,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J18" s="71">
         <v>17</v>
@@ -26320,13 +26325,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J19" s="74">
         <v>1</v>
@@ -26353,13 +26358,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I20" s="57" t="s">
         <v>1048</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>1047</v>
       </c>
       <c r="J20" s="74">
         <v>18</v>
@@ -26386,13 +26391,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I21" s="57" t="s">
         <v>1048</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>1047</v>
       </c>
       <c r="J21" s="74">
         <v>19</v>
@@ -26419,13 +26424,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="J22" s="74">
         <v>1</v>
@@ -26452,13 +26457,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H23" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="J23" s="74">
         <v>2</v>
@@ -26485,13 +26490,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="270" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H24" s="270" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I24" s="270" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J24" s="287">
         <v>20</v>
@@ -26525,13 +26530,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J25" s="71">
         <v>1</v>
@@ -26562,13 +26567,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="J26" s="71">
         <v>2</v>
@@ -26595,13 +26600,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="J27" s="71">
         <v>3</v>
@@ -26613,7 +26618,7 @@
         <v>248</v>
       </c>
       <c r="T27" s="72" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="72" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -26634,13 +26639,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H28" s="57" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="I28" s="57" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="J28" s="71">
         <v>4</v>
@@ -26652,7 +26657,7 @@
         <v>244</v>
       </c>
       <c r="T28" s="72" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="72" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -26673,13 +26678,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J29" s="71">
         <v>1</v>
@@ -26706,19 +26711,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H30" s="57" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I30" s="57" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J30" s="71">
         <v>1</v>
       </c>
       <c r="L30" s="72" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P30" s="54" t="s">
         <v>248</v>
@@ -26742,19 +26747,19 @@
         <v>1</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H31" s="54" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="I31" s="57" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="J31" s="71">
         <v>2</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P31" s="54" t="s">
         <v>248</v>
@@ -26778,13 +26783,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H32" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I32" s="57" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J32" s="71">
         <v>2</v>
@@ -26811,13 +26816,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I33" s="57" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="J33" s="74">
         <v>1</v>
@@ -26844,13 +26849,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="57" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="I34" s="57" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J34" s="71">
         <v>1</v>
@@ -26877,13 +26882,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H35" s="57" t="s">
         <v>820</v>
       </c>
       <c r="I35" s="57" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="J35" s="71">
         <v>1</v>
@@ -26911,10 +26916,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="285" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H36" s="285" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I36" s="270" t="s">
         <v>551</v>
@@ -26951,10 +26956,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="285" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H37" s="285" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I37" s="270" t="s">
         <v>551</v>
@@ -26991,10 +26996,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="225" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H38" s="225" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I38" s="225" t="s">
         <v>980</v>
@@ -27031,10 +27036,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="225" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H39" s="225" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I39" s="225" t="s">
         <v>980</v>
@@ -27071,10 +27076,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="292" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H40" s="292" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I40" s="292" t="s">
         <v>980</v>
@@ -27111,10 +27116,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="225" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H41" s="225" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I41" s="225" t="s">
         <v>978</v>
@@ -27151,10 +27156,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="225" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H42" s="225" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I42" s="225" t="s">
         <v>978</v>
@@ -27191,10 +27196,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="292" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H43" s="292" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I43" s="292" t="s">
         <v>978</v>
@@ -27231,13 +27236,13 @@
         <v>1</v>
       </c>
       <c r="G44" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H44" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I44" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J44" s="71">
         <v>1</v>
@@ -27271,13 +27276,13 @@
         <v>1</v>
       </c>
       <c r="G45" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H45" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I45" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J45" s="71">
         <v>1</v>
@@ -27311,13 +27316,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I46" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J46" s="71">
         <v>1</v>
@@ -27351,13 +27356,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I47" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J47" s="71">
         <v>1</v>
@@ -27384,13 +27389,13 @@
         <v>1</v>
       </c>
       <c r="G48" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H48" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I48" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J48" s="71">
         <v>1</v>
@@ -27417,13 +27422,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I49" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J49" s="71">
         <v>1</v>
@@ -27450,13 +27455,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I50" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J50" s="119">
         <v>1</v>
@@ -27483,13 +27488,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J51" s="71">
         <v>1</v>
@@ -27516,13 +27521,13 @@
         <v>1</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I52" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J52" s="71">
         <v>1</v>
@@ -27549,13 +27554,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I53" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J53" s="71">
         <v>1</v>
@@ -27582,13 +27587,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H54" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I54" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J54" s="71">
         <v>1</v>
@@ -27615,13 +27620,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H55" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I55" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J55" s="71">
         <v>1</v>
@@ -27648,13 +27653,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H56" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I56" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J56" s="71">
         <v>1</v>
@@ -27681,13 +27686,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H57" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I57" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J57" s="71">
         <v>1</v>
@@ -27714,13 +27719,13 @@
         <v>1</v>
       </c>
       <c r="G58" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H58" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I58" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J58" s="71">
         <v>1</v>
@@ -27747,13 +27752,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H59" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I59" s="54" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="J59" s="71">
         <v>1</v>
@@ -27780,13 +27785,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="73" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H60" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I60" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J60" s="115">
         <v>1</v>
@@ -27819,13 +27824,13 @@
         <v>1</v>
       </c>
       <c r="G61" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H61" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I61" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J61" s="115">
         <v>1</v>
@@ -27858,13 +27863,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H62" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I62" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J62" s="115">
         <v>1</v>
@@ -27897,13 +27902,13 @@
         <v>3</v>
       </c>
       <c r="G63" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H63" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I63" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J63" s="115">
         <v>1</v>
@@ -27937,13 +27942,13 @@
         <v>4</v>
       </c>
       <c r="G64" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H64" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I64" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J64" s="115">
         <v>1</v>
@@ -27977,13 +27982,13 @@
         <v>5</v>
       </c>
       <c r="G65" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H65" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I65" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J65" s="115">
         <v>1</v>
@@ -28017,13 +28022,13 @@
         <v>6</v>
       </c>
       <c r="G66" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H66" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I66" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J66" s="115">
         <v>1</v>
@@ -28056,13 +28061,13 @@
         <v>7</v>
       </c>
       <c r="G67" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H67" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I67" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J67" s="115">
         <v>1</v>
@@ -28095,13 +28100,13 @@
         <v>8</v>
       </c>
       <c r="G68" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H68" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I68" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J68" s="115">
         <v>1</v>
@@ -28134,13 +28139,13 @@
         <v>9</v>
       </c>
       <c r="G69" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H69" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I69" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J69" s="115">
         <v>1</v>
@@ -28173,13 +28178,13 @@
         <v>10</v>
       </c>
       <c r="G70" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H70" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I70" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J70" s="115">
         <v>1</v>
@@ -28212,13 +28217,13 @@
         <v>3</v>
       </c>
       <c r="G71" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H71" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I71" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J71" s="115">
         <v>1</v>
@@ -28252,13 +28257,13 @@
         <v>11</v>
       </c>
       <c r="G72" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H72" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I72" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J72" s="115">
         <v>1</v>
@@ -28294,20 +28299,20 @@
         <v>12</v>
       </c>
       <c r="G73" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H73" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I73" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J73" s="115">
         <v>1</v>
       </c>
       <c r="K73" s="114"/>
       <c r="L73" s="114" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M73" s="114"/>
       <c r="N73" s="114"/>
@@ -28336,20 +28341,20 @@
         <v>13</v>
       </c>
       <c r="G74" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H74" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I74" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J74" s="115">
         <v>1</v>
       </c>
       <c r="K74" s="114"/>
       <c r="L74" s="114" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M74" s="114"/>
       <c r="N74" s="114"/>
@@ -28378,20 +28383,20 @@
         <v>14</v>
       </c>
       <c r="G75" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H75" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I75" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J75" s="115">
         <v>1</v>
       </c>
       <c r="K75" s="114"/>
       <c r="L75" s="114" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M75" s="114"/>
       <c r="N75" s="114"/>
@@ -28420,20 +28425,20 @@
         <v>15</v>
       </c>
       <c r="G76" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H76" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I76" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J76" s="115">
         <v>1</v>
       </c>
       <c r="K76" s="114"/>
       <c r="L76" s="114" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M76" s="114"/>
       <c r="N76" s="114"/>
@@ -28462,20 +28467,20 @@
         <v>19</v>
       </c>
       <c r="G77" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H77" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I77" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J77" s="115">
         <v>1</v>
       </c>
       <c r="K77" s="114"/>
       <c r="L77" s="114" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M77" s="114"/>
       <c r="N77" s="114"/>
@@ -28504,20 +28509,20 @@
         <v>20</v>
       </c>
       <c r="G78" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H78" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I78" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J78" s="115">
         <v>1</v>
       </c>
       <c r="K78" s="114"/>
       <c r="L78" s="114" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M78" s="114"/>
       <c r="N78" s="114"/>
@@ -28546,20 +28551,20 @@
         <v>22</v>
       </c>
       <c r="G79" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H79" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I79" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J79" s="115">
         <v>1</v>
       </c>
       <c r="K79" s="114"/>
       <c r="L79" s="114" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M79" s="114"/>
       <c r="N79" s="114"/>
@@ -28588,20 +28593,20 @@
         <v>23</v>
       </c>
       <c r="G80" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H80" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I80" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J80" s="115">
         <v>1</v>
       </c>
       <c r="K80" s="114"/>
       <c r="L80" s="73" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M80" s="73"/>
       <c r="N80" s="114"/>
@@ -28630,20 +28635,20 @@
         <v>24</v>
       </c>
       <c r="G81" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H81" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I81" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J81" s="115">
         <v>1</v>
       </c>
       <c r="K81" s="114"/>
       <c r="L81" s="73" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M81" s="73"/>
       <c r="N81" s="114"/>
@@ -28672,20 +28677,20 @@
         <v>25</v>
       </c>
       <c r="G82" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H82" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I82" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J82" s="115">
         <v>1</v>
       </c>
       <c r="K82" s="114"/>
       <c r="L82" s="73" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M82" s="73"/>
       <c r="N82" s="73"/>
@@ -28714,20 +28719,20 @@
         <v>26</v>
       </c>
       <c r="G83" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H83" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I83" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J83" s="115">
         <v>1</v>
       </c>
       <c r="K83" s="114"/>
       <c r="L83" s="73" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M83" s="73"/>
       <c r="N83" s="73"/>
@@ -28754,13 +28759,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H84" s="73" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I84" s="73" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J84" s="115">
         <v>2</v>
@@ -28796,13 +28801,13 @@
         <v>1</v>
       </c>
       <c r="G85" s="73" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H85" s="73" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I85" s="73" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="J85" s="115">
         <v>3</v>
@@ -28811,7 +28816,7 @@
       <c r="L85" s="114"/>
       <c r="M85" s="114"/>
       <c r="N85" s="114" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="O85" s="114"/>
       <c r="P85" s="73" t="s">
@@ -28838,13 +28843,13 @@
         <v>1</v>
       </c>
       <c r="G86" s="73" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H86" s="73" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I86" s="73" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J86" s="115">
         <v>4</v>
@@ -28853,7 +28858,7 @@
       <c r="L86" s="114"/>
       <c r="M86" s="114"/>
       <c r="N86" s="114" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O86" s="114"/>
       <c r="P86" s="73" t="s">
@@ -28880,13 +28885,13 @@
         <v>1</v>
       </c>
       <c r="G87" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H87" s="73" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="I87" s="73" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="J87" s="115">
         <v>5</v>
@@ -28895,7 +28900,7 @@
       <c r="L87" s="114"/>
       <c r="M87" s="114"/>
       <c r="N87" s="114" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O87" s="114"/>
       <c r="P87" s="73" t="s">
@@ -28922,13 +28927,13 @@
         <v>27</v>
       </c>
       <c r="G88" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H88" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I88" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J88" s="115">
         <v>1</v>
@@ -28962,20 +28967,20 @@
         <v>28</v>
       </c>
       <c r="G89" s="73" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H89" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I89" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J89" s="115">
         <v>1</v>
       </c>
       <c r="K89" s="114"/>
       <c r="L89" s="114" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M89" s="114"/>
       <c r="N89" s="114"/>
@@ -29004,13 +29009,13 @@
         <v>1</v>
       </c>
       <c r="G90" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H90" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I90" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J90" s="115">
         <v>1</v>
@@ -29047,10 +29052,10 @@
         <v>666</v>
       </c>
       <c r="H91" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I91" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J91" s="115">
         <v>1</v>
@@ -29087,17 +29092,17 @@
         <v>666</v>
       </c>
       <c r="H92" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I92" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J92" s="115">
         <v>1</v>
       </c>
       <c r="K92" s="114"/>
       <c r="L92" s="73" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="M92" s="73"/>
       <c r="N92" s="73"/>
@@ -29126,20 +29131,20 @@
         <v>3</v>
       </c>
       <c r="G93" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H93" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I93" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J93" s="115">
         <v>1</v>
       </c>
       <c r="K93" s="114"/>
       <c r="L93" s="73" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M93" s="73"/>
       <c r="N93" s="73"/>
@@ -29168,20 +29173,20 @@
         <v>4</v>
       </c>
       <c r="G94" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H94" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I94" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J94" s="115">
         <v>1</v>
       </c>
       <c r="K94" s="114"/>
       <c r="L94" s="73" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="M94" s="73"/>
       <c r="N94" s="73"/>
@@ -29210,13 +29215,13 @@
         <v>2</v>
       </c>
       <c r="G95" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H95" s="73" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I95" s="73" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J95" s="115">
         <v>2</v>
@@ -29250,13 +29255,13 @@
         <v>1</v>
       </c>
       <c r="G96" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H96" s="73" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I96" s="73" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J96" s="115">
         <v>2</v>
@@ -29290,13 +29295,13 @@
         <v>2</v>
       </c>
       <c r="G97" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H97" s="73" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I97" s="73" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="J97" s="115">
         <v>3</v>
@@ -29305,7 +29310,7 @@
       <c r="L97" s="114"/>
       <c r="M97" s="114"/>
       <c r="N97" s="73" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="O97" s="73"/>
       <c r="P97" s="73" t="s">
@@ -29332,13 +29337,13 @@
         <v>2</v>
       </c>
       <c r="G98" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H98" s="73" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I98" s="73" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J98" s="115">
         <v>4</v>
@@ -29372,20 +29377,20 @@
         <v>3</v>
       </c>
       <c r="G99" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H99" s="73" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I99" s="73" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J99" s="115">
         <v>4</v>
       </c>
       <c r="K99" s="114"/>
       <c r="L99" s="73" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="M99" s="73"/>
       <c r="N99" s="114"/>
@@ -29414,13 +29419,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H100" s="73" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="I100" s="73" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="J100" s="115">
         <v>4</v>
@@ -29429,7 +29434,7 @@
       <c r="L100" s="114"/>
       <c r="M100" s="114"/>
       <c r="N100" s="114" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O100" s="114"/>
       <c r="P100" s="73" t="s">
@@ -29456,13 +29461,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H101" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I101" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J101" s="115">
         <v>1</v>
@@ -29496,13 +29501,13 @@
         <v>2</v>
       </c>
       <c r="G102" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H102" s="73" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I102" s="73" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J102" s="115">
         <v>2</v>
@@ -29511,7 +29516,7 @@
       <c r="L102" s="114"/>
       <c r="M102" s="114"/>
       <c r="N102" s="114" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="O102" s="114"/>
       <c r="P102" s="73" t="s">
@@ -29538,20 +29543,20 @@
         <v>2</v>
       </c>
       <c r="G103" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H103" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I103" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J103" s="115">
         <v>1</v>
       </c>
       <c r="K103" s="114"/>
       <c r="L103" s="114" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M103" s="114"/>
       <c r="N103" s="114"/>
@@ -29580,13 +29585,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H104" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I104" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J104" s="115">
         <v>1</v>
@@ -29620,13 +29625,13 @@
         <v>2</v>
       </c>
       <c r="G105" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H105" s="73" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I105" s="73" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J105" s="115">
         <v>2</v>
@@ -29635,7 +29640,7 @@
       <c r="L105" s="114"/>
       <c r="M105" s="114"/>
       <c r="N105" s="114" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O105" s="114"/>
       <c r="P105" s="73" t="s">
@@ -29662,20 +29667,20 @@
         <v>2</v>
       </c>
       <c r="G106" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H106" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I106" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J106" s="115">
         <v>1</v>
       </c>
       <c r="K106" s="114"/>
       <c r="L106" s="114" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="M106" s="114"/>
       <c r="N106" s="114"/>
@@ -29704,13 +29709,13 @@
         <v>1</v>
       </c>
       <c r="G107" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H107" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I107" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J107" s="115">
         <v>1</v>
@@ -29744,13 +29749,13 @@
         <v>1</v>
       </c>
       <c r="G108" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H108" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I108" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J108" s="115">
         <v>1</v>
@@ -29784,13 +29789,13 @@
         <v>2</v>
       </c>
       <c r="G109" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H109" s="73" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I109" s="73" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J109" s="115">
         <v>2</v>
@@ -29799,7 +29804,7 @@
       <c r="L109" s="114"/>
       <c r="M109" s="114"/>
       <c r="N109" s="114" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="O109" s="114"/>
       <c r="P109" s="73" t="s">
@@ -29826,20 +29831,20 @@
         <v>2</v>
       </c>
       <c r="G110" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H110" s="73" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I110" s="73" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J110" s="115">
         <v>1</v>
       </c>
       <c r="K110" s="114"/>
       <c r="L110" s="114" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M110" s="114"/>
       <c r="N110" s="114"/>
@@ -29868,13 +29873,13 @@
         <v>1</v>
       </c>
       <c r="G111" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H111" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I111" s="73" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J111" s="115">
         <v>1</v>
@@ -29908,13 +29913,13 @@
         <v>2</v>
       </c>
       <c r="G112" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H112" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I112" s="73" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J112" s="115">
         <v>1</v>
@@ -29948,13 +29953,13 @@
         <v>3</v>
       </c>
       <c r="G113" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H113" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I113" s="73" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J113" s="115">
         <v>1</v>
@@ -29988,13 +29993,13 @@
         <v>4</v>
       </c>
       <c r="G114" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H114" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I114" s="73" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J114" s="115">
         <v>1</v>
@@ -30028,13 +30033,13 @@
         <v>5</v>
       </c>
       <c r="G115" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H115" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I115" s="73" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J115" s="115">
         <v>1</v>
@@ -30068,13 +30073,13 @@
         <v>6</v>
       </c>
       <c r="G116" s="121" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H116" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I116" s="121" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="J116" s="70">
         <v>1</v>
@@ -30108,13 +30113,13 @@
         <v>1</v>
       </c>
       <c r="G117" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H117" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I117" s="73" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J117" s="115">
         <v>1</v>
@@ -30148,13 +30153,13 @@
         <v>2</v>
       </c>
       <c r="G118" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H118" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I118" s="73" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J118" s="115">
         <v>1</v>
@@ -30188,13 +30193,13 @@
         <v>3</v>
       </c>
       <c r="G119" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H119" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I119" s="73" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J119" s="115">
         <v>1</v>
@@ -30228,13 +30233,13 @@
         <v>4</v>
       </c>
       <c r="G120" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H120" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I120" s="73" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J120" s="115">
         <v>1</v>
@@ -30268,13 +30273,13 @@
         <v>5</v>
       </c>
       <c r="G121" s="73" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H121" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I121" s="73" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J121" s="115">
         <v>1</v>
@@ -30308,13 +30313,13 @@
         <v>6</v>
       </c>
       <c r="G122" s="121" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H122" s="73" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I122" s="121" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="J122" s="70">
         <v>1</v>
@@ -30348,13 +30353,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="60" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H123" s="60" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I123" s="60" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J123" s="74">
         <v>1</v>
@@ -30388,13 +30393,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="60" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H124" s="60" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I124" s="60" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J124" s="74">
         <v>1</v>
@@ -30428,13 +30433,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H125" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I125" s="60" t="s">
         <v>1048</v>
-      </c>
-      <c r="H125" s="60" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I125" s="60" t="s">
-        <v>1047</v>
       </c>
       <c r="J125" s="74">
         <v>1</v>
@@ -30468,13 +30473,13 @@
         <v>2</v>
       </c>
       <c r="G126" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H126" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I126" s="60" t="s">
         <v>1048</v>
-      </c>
-      <c r="H126" s="60" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I126" s="60" t="s">
-        <v>1047</v>
       </c>
       <c r="J126" s="74">
         <v>2</v>
@@ -30501,13 +30506,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H127" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I127" s="60" t="s">
         <v>1048</v>
-      </c>
-      <c r="H127" s="60" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I127" s="60" t="s">
-        <v>1047</v>
       </c>
       <c r="J127" s="74">
         <v>1</v>
@@ -30534,13 +30539,13 @@
         <v>2</v>
       </c>
       <c r="G128" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H128" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I128" s="60" t="s">
         <v>1048</v>
-      </c>
-      <c r="H128" s="60" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I128" s="60" t="s">
-        <v>1047</v>
       </c>
       <c r="J128" s="74">
         <v>2</v>
@@ -30567,13 +30572,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H129" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I129" s="60" t="s">
         <v>1048</v>
-      </c>
-      <c r="H129" s="60" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I129" s="60" t="s">
-        <v>1047</v>
       </c>
       <c r="J129" s="74">
         <v>1</v>
@@ -30600,13 +30605,13 @@
         <v>1</v>
       </c>
       <c r="G130" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H130" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I130" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J130" s="74">
         <v>1</v>
@@ -30633,13 +30638,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H131" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I131" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J131" s="74">
         <v>1</v>
@@ -30666,13 +30671,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="57" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H132" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I132" s="57" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J132" s="74">
         <v>1</v>
@@ -30702,10 +30707,10 @@
         <v>666</v>
       </c>
       <c r="H133" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I133" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J133" s="74">
         <v>1</v>
@@ -30742,10 +30747,10 @@
         <v>629</v>
       </c>
       <c r="H134" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I134" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J134" s="74">
         <v>1</v>
@@ -30755,7 +30760,7 @@
       <c r="M134" s="61"/>
       <c r="N134" s="35"/>
       <c r="O134" s="35" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="P134" s="352" t="s">
         <v>244</v>
@@ -30784,10 +30789,10 @@
         <v>629</v>
       </c>
       <c r="H135" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I135" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J135" s="74">
         <v>1</v>
@@ -30797,7 +30802,7 @@
       <c r="M135" s="61"/>
       <c r="N135" s="35"/>
       <c r="O135" s="35" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="P135" s="352" t="s">
         <v>244</v>
@@ -30826,10 +30831,10 @@
         <v>629</v>
       </c>
       <c r="H136" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I136" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J136" s="74">
         <v>1</v>
@@ -30866,10 +30871,10 @@
         <v>629</v>
       </c>
       <c r="H137" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I137" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J137" s="74">
         <v>1</v>
@@ -30906,10 +30911,10 @@
         <v>629</v>
       </c>
       <c r="H138" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I138" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J138" s="74">
         <v>1</v>
@@ -30919,7 +30924,7 @@
       <c r="M138" s="61"/>
       <c r="N138" s="35"/>
       <c r="O138" s="35" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="P138" s="352" t="s">
         <v>244</v>
@@ -30948,10 +30953,10 @@
         <v>629</v>
       </c>
       <c r="H139" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I139" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J139" s="74">
         <v>1</v>
@@ -30961,7 +30966,7 @@
       <c r="M139" s="61"/>
       <c r="N139" s="35"/>
       <c r="O139" s="35" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="P139" s="352" t="s">
         <v>244</v>
@@ -30990,10 +30995,10 @@
         <v>629</v>
       </c>
       <c r="H140" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I140" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J140" s="74">
         <v>1</v>
@@ -31030,10 +31035,10 @@
         <v>629</v>
       </c>
       <c r="H141" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I141" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J141" s="74">
         <v>1</v>
@@ -31070,10 +31075,10 @@
         <v>666</v>
       </c>
       <c r="H142" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I142" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J142" s="74">
         <v>1</v>
@@ -31110,10 +31115,10 @@
         <v>629</v>
       </c>
       <c r="H143" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I143" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J143" s="74">
         <v>1</v>
@@ -31152,10 +31157,10 @@
         <v>629</v>
       </c>
       <c r="H144" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I144" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J144" s="74">
         <v>1</v>
@@ -31165,7 +31170,7 @@
       <c r="M144" s="61"/>
       <c r="N144" s="35"/>
       <c r="O144" s="35" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="P144" s="352" t="s">
         <v>248</v>
@@ -31194,10 +31199,10 @@
         <v>629</v>
       </c>
       <c r="H145" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I145" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J145" s="74">
         <v>1</v>
@@ -31234,10 +31239,10 @@
         <v>629</v>
       </c>
       <c r="H146" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I146" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J146" s="74">
         <v>1</v>
@@ -31274,10 +31279,10 @@
         <v>629</v>
       </c>
       <c r="H147" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I147" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J147" s="74">
         <v>1</v>
@@ -31316,10 +31321,10 @@
         <v>629</v>
       </c>
       <c r="H148" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I148" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J148" s="74">
         <v>1</v>
@@ -31329,7 +31334,7 @@
       <c r="M148" s="61"/>
       <c r="N148" s="35"/>
       <c r="O148" s="35" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="P148" s="352" t="s">
         <v>971</v>
@@ -31358,10 +31363,10 @@
         <v>629</v>
       </c>
       <c r="H149" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I149" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J149" s="74">
         <v>1</v>
@@ -31398,10 +31403,10 @@
         <v>629</v>
       </c>
       <c r="H150" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I150" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J150" s="74">
         <v>1</v>
@@ -31438,10 +31443,10 @@
         <v>666</v>
       </c>
       <c r="H151" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I151" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J151" s="74">
         <v>1</v>
@@ -31478,10 +31483,10 @@
         <v>666</v>
       </c>
       <c r="H152" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I152" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J152" s="74">
         <v>1</v>
@@ -31491,7 +31496,7 @@
       <c r="M152" s="61"/>
       <c r="N152" s="35"/>
       <c r="O152" s="35" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="P152" s="352" t="s">
         <v>971</v>
@@ -31520,10 +31525,10 @@
         <v>666</v>
       </c>
       <c r="H153" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I153" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J153" s="74">
         <v>1</v>
@@ -31533,7 +31538,7 @@
       <c r="M153" s="61"/>
       <c r="N153" s="35"/>
       <c r="O153" s="35" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="P153" s="352" t="s">
         <v>971</v>
@@ -31562,10 +31567,10 @@
         <v>629</v>
       </c>
       <c r="H154" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I154" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J154" s="74">
         <v>1</v>
@@ -31602,10 +31607,10 @@
         <v>629</v>
       </c>
       <c r="H155" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I155" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J155" s="74">
         <v>1</v>
@@ -31642,10 +31647,10 @@
         <v>666</v>
       </c>
       <c r="H156" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I156" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J156" s="74">
         <v>1</v>
@@ -31655,7 +31660,7 @@
       <c r="M156" s="61"/>
       <c r="N156" s="35"/>
       <c r="O156" s="35" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P156" s="352" t="s">
         <v>971</v>
@@ -31684,10 +31689,10 @@
         <v>666</v>
       </c>
       <c r="H157" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I157" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J157" s="74">
         <v>1</v>
@@ -31697,7 +31702,7 @@
       <c r="M157" s="61"/>
       <c r="N157" s="35"/>
       <c r="O157" s="35" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="P157" s="352" t="s">
         <v>971</v>
@@ -31726,10 +31731,10 @@
         <v>666</v>
       </c>
       <c r="H158" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I158" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J158" s="74">
         <v>1</v>
@@ -31766,10 +31771,10 @@
         <v>666</v>
       </c>
       <c r="H159" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I159" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J159" s="74">
         <v>1</v>
@@ -31806,10 +31811,10 @@
         <v>629</v>
       </c>
       <c r="H160" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I160" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J160" s="74">
         <v>1</v>
@@ -31846,10 +31851,10 @@
         <v>629</v>
       </c>
       <c r="H161" s="352" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I161" s="352" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J161" s="74">
         <v>1</v>
@@ -31886,10 +31891,10 @@
         <v>629</v>
       </c>
       <c r="H162" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I162" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J162" s="74">
         <v>1</v>
@@ -31925,10 +31930,10 @@
         <v>629</v>
       </c>
       <c r="H163" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I163" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J163" s="74">
         <v>2</v>
@@ -31964,10 +31969,10 @@
         <v>629</v>
       </c>
       <c r="H164" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I164" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J164" s="74">
         <v>3</v>
@@ -32003,10 +32008,10 @@
         <v>629</v>
       </c>
       <c r="H165" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I165" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J165" s="74">
         <v>4</v>
@@ -32042,10 +32047,10 @@
         <v>629</v>
       </c>
       <c r="H166" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I166" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J166" s="74">
         <v>5</v>
@@ -32081,10 +32086,10 @@
         <v>629</v>
       </c>
       <c r="H167" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I167" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J167" s="74">
         <v>6</v>
@@ -32120,10 +32125,10 @@
         <v>629</v>
       </c>
       <c r="H168" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I168" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J168" s="74">
         <v>7</v>
@@ -32159,10 +32164,10 @@
         <v>629</v>
       </c>
       <c r="H169" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I169" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J169" s="74">
         <v>8</v>
@@ -32198,10 +32203,10 @@
         <v>629</v>
       </c>
       <c r="H170" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I170" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J170" s="74">
         <v>9</v>
@@ -32237,10 +32242,10 @@
         <v>629</v>
       </c>
       <c r="H171" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I171" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J171" s="74">
         <v>10</v>
@@ -32276,10 +32281,10 @@
         <v>629</v>
       </c>
       <c r="H172" s="352" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I172" s="352" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J172" s="74">
         <v>11</v>
@@ -32315,10 +32320,10 @@
         <v>629</v>
       </c>
       <c r="H173" s="477" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I173" s="477" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J173" s="478">
         <v>1</v>
@@ -32355,10 +32360,10 @@
         <v>629</v>
       </c>
       <c r="H174" s="477" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I174" s="477" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J174" s="478">
         <v>1</v>
@@ -32395,10 +32400,10 @@
         <v>629</v>
       </c>
       <c r="H175" s="477" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I175" s="477" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J175" s="478">
         <v>1</v>
@@ -32435,10 +32440,10 @@
         <v>629</v>
       </c>
       <c r="H176" s="477" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I176" s="477" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J176" s="478">
         <v>1</v>
@@ -32475,10 +32480,10 @@
         <v>629</v>
       </c>
       <c r="H177" s="477" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I177" s="477" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J177" s="478">
         <v>1</v>
@@ -32515,10 +32520,10 @@
         <v>629</v>
       </c>
       <c r="H178" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I178" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J178" s="287">
         <v>1</v>
@@ -32555,10 +32560,10 @@
         <v>629</v>
       </c>
       <c r="H179" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I179" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J179" s="287">
         <v>1</v>
@@ -32592,13 +32597,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="270" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H180" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I180" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J180" s="287">
         <v>1</v>
@@ -32632,13 +32637,13 @@
         <v>2</v>
       </c>
       <c r="G181" s="270" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H181" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I181" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J181" s="287">
         <v>1</v>
@@ -32670,13 +32675,13 @@
       </c>
       <c r="F182" s="359"/>
       <c r="G182" s="270" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H182" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I182" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J182" s="287">
         <v>1</v>
@@ -32708,13 +32713,13 @@
       </c>
       <c r="F183" s="359"/>
       <c r="G183" s="270" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H183" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I183" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J183" s="287">
         <v>1</v>
@@ -32746,13 +32751,13 @@
       </c>
       <c r="F184" s="359"/>
       <c r="G184" s="270" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H184" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I184" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J184" s="287">
         <v>1</v>
@@ -32787,10 +32792,10 @@
         <v>629</v>
       </c>
       <c r="H185" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I185" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J185" s="287">
         <v>1</v>
@@ -32827,10 +32832,10 @@
         <v>629</v>
       </c>
       <c r="H186" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I186" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J186" s="287">
         <v>1</v>
@@ -32865,10 +32870,10 @@
         <v>629</v>
       </c>
       <c r="H187" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I187" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J187" s="287">
         <v>1</v>
@@ -32902,13 +32907,13 @@
         <v>1</v>
       </c>
       <c r="G188" s="270" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H188" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I188" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J188" s="287">
         <v>1</v>
@@ -32942,13 +32947,13 @@
         <v>1</v>
       </c>
       <c r="G189" s="270" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H189" s="404" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I189" s="404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J189" s="287">
         <v>1</v>
@@ -32985,10 +32990,10 @@
         <v>629</v>
       </c>
       <c r="H190" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I190" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J190" s="71">
         <v>1</v>
@@ -33024,10 +33029,10 @@
         <v>629</v>
       </c>
       <c r="H191" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I191" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J191" s="71">
         <v>1</v>
@@ -33063,10 +33068,10 @@
         <v>629</v>
       </c>
       <c r="H192" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I192" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J192" s="71">
         <v>1</v>
@@ -33099,13 +33104,13 @@
         <v>1</v>
       </c>
       <c r="G193" s="57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H193" s="57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I193" s="57" t="s">
         <v>1048</v>
-      </c>
-      <c r="H193" s="57" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I193" s="57" t="s">
-        <v>1047</v>
       </c>
       <c r="J193" s="74">
         <v>1</v>
@@ -33139,13 +33144,13 @@
         <v>2</v>
       </c>
       <c r="G194" s="57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H194" s="57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I194" s="57" t="s">
         <v>1048</v>
-      </c>
-      <c r="H194" s="57" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I194" s="57" t="s">
-        <v>1047</v>
       </c>
       <c r="J194" s="74">
         <v>1</v>
@@ -33179,13 +33184,13 @@
         <v>3</v>
       </c>
       <c r="G195" s="57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H195" s="57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I195" s="57" t="s">
         <v>1048</v>
-      </c>
-      <c r="H195" s="57" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I195" s="57" t="s">
-        <v>1047</v>
       </c>
       <c r="J195" s="74">
         <v>1</v>
@@ -33219,10 +33224,10 @@
         <v>1</v>
       </c>
       <c r="G196" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H196" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I196" s="57" t="s">
         <v>269</v>
@@ -33258,10 +33263,10 @@
         <v>1</v>
       </c>
       <c r="G197" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H197" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I197" s="57" t="s">
         <v>269</v>
@@ -33297,10 +33302,10 @@
         <v>2</v>
       </c>
       <c r="G198" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H198" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I198" s="57" t="s">
         <v>269</v>
@@ -33336,10 +33341,10 @@
         <v>3</v>
       </c>
       <c r="G199" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H199" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I199" s="57" t="s">
         <v>269</v>
@@ -33375,10 +33380,10 @@
         <v>4</v>
       </c>
       <c r="G200" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H200" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I200" s="57" t="s">
         <v>269</v>
@@ -33417,10 +33422,10 @@
         <v>629</v>
       </c>
       <c r="H201" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I201" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J201" s="71">
         <v>1</v>
@@ -33456,10 +33461,10 @@
         <v>629</v>
       </c>
       <c r="H202" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I202" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J202" s="71">
         <v>1</v>
@@ -33495,10 +33500,10 @@
         <v>629</v>
       </c>
       <c r="H203" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I203" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J203" s="71">
         <v>1</v>
@@ -33531,10 +33536,10 @@
         <v>1</v>
       </c>
       <c r="G204" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H204" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I204" s="57" t="s">
         <v>269</v>
@@ -33570,10 +33575,10 @@
         <v>1</v>
       </c>
       <c r="G205" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H205" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I205" s="57" t="s">
         <v>269</v>
@@ -33609,10 +33614,10 @@
         <v>2</v>
       </c>
       <c r="G206" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H206" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I206" s="57" t="s">
         <v>269</v>
@@ -33649,10 +33654,10 @@
         <v>3</v>
       </c>
       <c r="G207" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H207" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I207" s="57" t="s">
         <v>269</v>
@@ -33689,10 +33694,10 @@
         <v>4</v>
       </c>
       <c r="G208" s="57" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H208" s="57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I208" s="57" t="s">
         <v>269</v>
@@ -33732,10 +33737,10 @@
         <v>629</v>
       </c>
       <c r="H209" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I209" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J209" s="71">
         <v>1</v>
@@ -33772,10 +33777,10 @@
         <v>629</v>
       </c>
       <c r="H210" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I210" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J210" s="71">
         <v>1</v>
@@ -33812,10 +33817,10 @@
         <v>629</v>
       </c>
       <c r="H211" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I211" s="57" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J211" s="71">
         <v>1</v>
@@ -33846,19 +33851,19 @@
         <v>181</v>
       </c>
       <c r="F212" s="54" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G212" s="57" t="s">
         <v>629</v>
       </c>
       <c r="H212" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I212" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J212" s="54" t="s">
         <v>1123</v>
-      </c>
-      <c r="J212" s="54" t="s">
-        <v>1122</v>
       </c>
       <c r="K212" s="54"/>
       <c r="L212" s="54"/>
@@ -33892,17 +33897,17 @@
         <v>629</v>
       </c>
       <c r="H213" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I213" s="57" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J213" s="71">
         <v>1</v>
       </c>
       <c r="K213" s="61"/>
       <c r="L213" s="54" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M213" s="61" t="b">
         <v>1</v>
@@ -33936,17 +33941,17 @@
         <v>629</v>
       </c>
       <c r="H214" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I214" s="57" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J214" s="71">
         <v>1</v>
       </c>
       <c r="K214" s="61"/>
       <c r="L214" s="54" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M214" s="61" t="b">
         <v>0</v>
@@ -33980,17 +33985,17 @@
         <v>629</v>
       </c>
       <c r="H215" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I215" s="57" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J215" s="71">
         <v>1</v>
       </c>
       <c r="K215" s="61"/>
       <c r="L215" s="54" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M215" s="61"/>
       <c r="N215" s="61"/>
@@ -34016,19 +34021,19 @@
         <v>181</v>
       </c>
       <c r="F216" s="54" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G216" s="57" t="s">
         <v>629</v>
       </c>
       <c r="H216" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I216" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J216" s="54" t="s">
         <v>1123</v>
-      </c>
-      <c r="J216" s="54" t="s">
-        <v>1122</v>
       </c>
       <c r="K216" s="54"/>
       <c r="L216" s="54"/>
@@ -34062,17 +34067,17 @@
         <v>629</v>
       </c>
       <c r="H217" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I217" s="57" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J217" s="71">
         <v>1</v>
       </c>
       <c r="K217" s="61"/>
       <c r="L217" s="54" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M217" s="61" t="b">
         <v>1</v>
@@ -34100,19 +34105,19 @@
         <v>181</v>
       </c>
       <c r="F218" s="54" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G218" s="57" t="s">
         <v>629</v>
       </c>
       <c r="H218" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I218" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J218" s="54" t="s">
         <v>1123</v>
-      </c>
-      <c r="J218" s="54" t="s">
-        <v>1122</v>
       </c>
       <c r="K218" s="54"/>
       <c r="L218" s="54"/>
@@ -34143,20 +34148,20 @@
         <v>2</v>
       </c>
       <c r="G219" s="65" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H219" s="57" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I219" s="57" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J219" s="490">
         <v>1</v>
       </c>
       <c r="K219" s="64"/>
       <c r="L219" s="54" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M219" s="64" t="b">
         <v>1</v>
@@ -34190,10 +34195,10 @@
         <v>629</v>
       </c>
       <c r="H220" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I220" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J220" s="518">
         <v>1</v>
@@ -34230,10 +34235,10 @@
         <v>629</v>
       </c>
       <c r="H221" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I221" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J221" s="518">
         <v>2</v>
@@ -34270,10 +34275,10 @@
         <v>629</v>
       </c>
       <c r="H222" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I222" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J222" s="518">
         <v>3</v>
@@ -34310,10 +34315,10 @@
         <v>629</v>
       </c>
       <c r="H223" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I223" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J223" s="518">
         <v>4</v>
@@ -34350,10 +34355,10 @@
         <v>629</v>
       </c>
       <c r="H224" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I224" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J224" s="518">
         <v>5</v>
@@ -34390,10 +34395,10 @@
         <v>629</v>
       </c>
       <c r="H225" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I225" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J225" s="518">
         <v>6</v>
@@ -34430,10 +34435,10 @@
         <v>629</v>
       </c>
       <c r="H226" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I226" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J226" s="518">
         <v>7</v>
@@ -34470,10 +34475,10 @@
         <v>629</v>
       </c>
       <c r="H227" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I227" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J227" s="518">
         <v>8</v>
@@ -34510,10 +34515,10 @@
         <v>629</v>
       </c>
       <c r="H228" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I228" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J228" s="518">
         <v>1</v>
@@ -34550,10 +34555,10 @@
         <v>629</v>
       </c>
       <c r="H229" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I229" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J229" s="518">
         <v>2</v>
@@ -34590,10 +34595,10 @@
         <v>629</v>
       </c>
       <c r="H230" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I230" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J230" s="518">
         <v>3</v>
@@ -34630,10 +34635,10 @@
         <v>629</v>
       </c>
       <c r="H231" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I231" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J231" s="518">
         <v>4</v>
@@ -34670,10 +34675,10 @@
         <v>629</v>
       </c>
       <c r="H232" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I232" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J232" s="518">
         <v>5</v>
@@ -34710,10 +34715,10 @@
         <v>629</v>
       </c>
       <c r="H233" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I233" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J233" s="518">
         <v>6</v>
@@ -34750,10 +34755,10 @@
         <v>629</v>
       </c>
       <c r="H234" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I234" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J234" s="518">
         <v>7</v>
@@ -34790,10 +34795,10 @@
         <v>629</v>
       </c>
       <c r="H235" s="517" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I235" s="517" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="J235" s="518">
         <v>8</v>
@@ -34827,13 +34832,13 @@
         <v>1</v>
       </c>
       <c r="G236" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H236" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I236" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J236" s="71">
         <v>1</v>
@@ -34867,13 +34872,13 @@
         <v>1</v>
       </c>
       <c r="G237" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H237" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I237" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J237" s="71">
         <v>1</v>
@@ -34907,13 +34912,13 @@
         <v>1</v>
       </c>
       <c r="G238" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H238" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I238" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J238" s="71">
         <v>1</v>
@@ -34938,7 +34943,7 @@
         <v>106</v>
       </c>
       <c r="D239" s="57" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E239" s="57" t="s">
         <v>284</v>
@@ -34947,13 +34952,13 @@
         <v>1</v>
       </c>
       <c r="G239" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H239" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I239" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J239" s="71">
         <v>1</v>
@@ -34978,7 +34983,7 @@
         <v>106</v>
       </c>
       <c r="D240" s="57" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E240" s="57" t="s">
         <v>286</v>
@@ -34987,13 +34992,13 @@
         <v>1</v>
       </c>
       <c r="G240" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H240" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I240" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J240" s="71">
         <v>1</v>
@@ -35018,7 +35023,7 @@
         <v>106</v>
       </c>
       <c r="D241" s="57" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E241" s="57" t="s">
         <v>284</v>
@@ -35027,13 +35032,13 @@
         <v>1</v>
       </c>
       <c r="G241" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H241" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I241" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J241" s="71">
         <v>1</v>
@@ -35058,7 +35063,7 @@
         <v>106</v>
       </c>
       <c r="D242" s="57" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E242" s="57" t="s">
         <v>280</v>
@@ -35067,13 +35072,13 @@
         <v>1</v>
       </c>
       <c r="G242" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H242" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I242" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J242" s="71">
         <v>1</v>
@@ -35098,7 +35103,7 @@
         <v>106</v>
       </c>
       <c r="D243" s="57" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E243" s="54" t="s">
         <v>165</v>
@@ -35107,13 +35112,13 @@
         <v>1</v>
       </c>
       <c r="G243" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H243" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I243" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J243" s="71">
         <v>1</v>
@@ -35138,7 +35143,7 @@
         <v>106</v>
       </c>
       <c r="D244" s="57" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E244" s="54" t="s">
         <v>165</v>
@@ -35147,13 +35152,13 @@
         <v>1</v>
       </c>
       <c r="G244" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H244" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I244" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J244" s="71">
         <v>1</v>
@@ -35178,7 +35183,7 @@
         <v>106</v>
       </c>
       <c r="D245" s="57" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E245" s="57" t="s">
         <v>284</v>
@@ -35187,13 +35192,13 @@
         <v>1</v>
       </c>
       <c r="G245" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H245" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I245" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J245" s="71">
         <v>1</v>
@@ -35227,13 +35232,13 @@
         <v>1</v>
       </c>
       <c r="G246" s="561" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H246" s="561" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I246" s="561" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J246" s="568">
         <v>1</v>
@@ -35267,13 +35272,13 @@
         <v>1</v>
       </c>
       <c r="G247" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H247" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I247" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J247" s="71">
         <v>1</v>
@@ -35298,7 +35303,7 @@
         <v>112</v>
       </c>
       <c r="D248" s="57" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E248" s="54" t="s">
         <v>165</v>
@@ -35307,13 +35312,13 @@
         <v>1</v>
       </c>
       <c r="G248" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H248" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I248" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J248" s="71">
         <v>1</v>
@@ -35347,13 +35352,13 @@
         <v>1</v>
       </c>
       <c r="G249" s="561" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H249" s="561" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I249" s="561" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J249" s="568">
         <v>1</v>
@@ -35387,13 +35392,13 @@
         <v>1</v>
       </c>
       <c r="G250" s="561" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H250" s="561" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I250" s="561" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J250" s="568">
         <v>1</v>
@@ -35418,7 +35423,7 @@
         <v>106</v>
       </c>
       <c r="D251" s="57" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E251" s="54" t="s">
         <v>165</v>
@@ -35427,13 +35432,13 @@
         <v>1</v>
       </c>
       <c r="G251" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H251" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I251" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J251" s="71">
         <v>1</v>
@@ -35458,7 +35463,7 @@
         <v>106</v>
       </c>
       <c r="D252" s="57" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E252" s="54" t="s">
         <v>280</v>
@@ -35467,13 +35472,13 @@
         <v>1</v>
       </c>
       <c r="G252" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H252" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I252" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J252" s="71">
         <v>1</v>
@@ -35498,7 +35503,7 @@
         <v>106</v>
       </c>
       <c r="D253" s="57" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E253" s="54" t="s">
         <v>165</v>
@@ -35507,13 +35512,13 @@
         <v>1</v>
       </c>
       <c r="G253" s="54" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H253" s="54" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I253" s="54" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J253" s="71">
         <v>1</v>
@@ -35564,7 +35569,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="82" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="124" t="s">
         <v>1</v>
@@ -35591,11 +35596,11 @@
         <v>146</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E2" s="87"/>
       <c r="F2" s="87" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G2" s="87" t="s">
         <v>750</v>
@@ -35801,7 +35806,7 @@
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="54" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G12" s="409">
         <v>9</v>
@@ -35897,7 +35902,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="57" t="s">
@@ -35943,7 +35948,7 @@
         <v>482</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G19" s="408">
         <v>5</v>
@@ -35965,7 +35970,7 @@
         <v>485</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G20" s="408">
         <v>4</v>
@@ -35987,7 +35992,7 @@
         <v>487</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G21" s="408">
         <v>3</v>
@@ -36006,7 +36011,7 @@
         <v>239</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F22" s="69" t="s">
         <v>436</v>
@@ -36111,7 +36116,7 @@
         <v>482</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G27" s="408">
         <v>5</v>
@@ -36133,7 +36138,7 @@
         <v>485</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G28" s="408">
         <v>4</v>
@@ -36155,7 +36160,7 @@
         <v>487</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G29" s="408">
         <v>3</v>
@@ -36174,7 +36179,7 @@
         <v>239</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F30" s="69" t="s">
         <v>436</v>
@@ -36273,17 +36278,17 @@
         <v>79</v>
       </c>
       <c r="D35" s="382" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E35" s="416"/>
       <c r="F35" s="390" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G35" s="390">
         <v>1</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -36299,13 +36304,13 @@
       </c>
       <c r="E36" s="416"/>
       <c r="F36" s="390" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G36" s="390">
         <v>2</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -36321,13 +36326,13 @@
       </c>
       <c r="E37" s="416"/>
       <c r="F37" s="390" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G37" s="390">
         <v>3</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -36343,7 +36348,7 @@
       </c>
       <c r="E38" s="416"/>
       <c r="F38" s="390" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G38" s="390">
         <v>4</v>
@@ -36363,7 +36368,7 @@
       </c>
       <c r="E39" s="416"/>
       <c r="F39" s="390" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G39" s="390">
         <v>5</v>
@@ -36383,13 +36388,13 @@
       </c>
       <c r="E40" s="416"/>
       <c r="F40" s="390" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G40" s="390">
         <v>6</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -36405,13 +36410,13 @@
       </c>
       <c r="E41" s="416"/>
       <c r="F41" s="390" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G41" s="390">
         <v>7</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -36427,7 +36432,7 @@
       </c>
       <c r="E42" s="416"/>
       <c r="F42" s="390" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G42" s="390">
         <v>8</v>
@@ -36449,7 +36454,7 @@
         <v>172</v>
       </c>
       <c r="F43" s="390" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G43" s="390">
         <v>9</v>
@@ -36471,7 +36476,7 @@
         <v>368</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G44" s="408">
         <v>10</v>
@@ -36493,7 +36498,7 @@
         <v>644</v>
       </c>
       <c r="F45" s="411" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G45" s="412">
         <v>1</v>
@@ -36515,7 +36520,7 @@
         <v>604</v>
       </c>
       <c r="F46" s="411" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G46" s="412">
         <v>2</v>
@@ -36537,7 +36542,7 @@
         <v>602</v>
       </c>
       <c r="F47" s="411" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G47" s="412">
         <v>3</v>
@@ -36596,10 +36601,10 @@
         <v>388</v>
       </c>
       <c r="E50" s="69" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G50" s="408">
         <v>1</v>
@@ -36618,10 +36623,10 @@
         <v>388</v>
       </c>
       <c r="E51" s="69" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F51" s="69" t="s">
         <v>1155</v>
-      </c>
-      <c r="F51" s="69" t="s">
-        <v>1154</v>
       </c>
       <c r="G51" s="408">
         <v>2</v>
@@ -36640,10 +36645,10 @@
         <v>388</v>
       </c>
       <c r="E52" s="69" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="G52" s="408">
         <v>3</v>
@@ -36662,10 +36667,10 @@
         <v>388</v>
       </c>
       <c r="E53" s="69" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G53" s="408">
         <v>4</v>
@@ -36684,10 +36689,10 @@
         <v>388</v>
       </c>
       <c r="E54" s="69" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G54" s="408">
         <v>1</v>
@@ -36706,10 +36711,10 @@
         <v>388</v>
       </c>
       <c r="E55" s="69" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F55" s="69" t="s">
         <v>1155</v>
-      </c>
-      <c r="F55" s="69" t="s">
-        <v>1154</v>
       </c>
       <c r="G55" s="408">
         <v>2</v>
@@ -36728,10 +36733,10 @@
         <v>388</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="G56" s="408">
         <v>3</v>
@@ -36750,10 +36755,10 @@
         <v>388</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G57" s="408">
         <v>4</v>
@@ -36772,10 +36777,10 @@
         <v>388</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G58" s="408">
         <v>1</v>
@@ -36794,10 +36799,10 @@
         <v>388</v>
       </c>
       <c r="E59" s="69" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F59" s="69" t="s">
         <v>1155</v>
-      </c>
-      <c r="F59" s="69" t="s">
-        <v>1154</v>
       </c>
       <c r="G59" s="408">
         <v>2</v>
@@ -36816,10 +36821,10 @@
         <v>388</v>
       </c>
       <c r="E60" s="69" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="G60" s="408">
         <v>3</v>
@@ -36838,10 +36843,10 @@
         <v>388</v>
       </c>
       <c r="E61" s="69" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G61" s="408">
         <v>4</v>
@@ -37049,7 +37054,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.1">
       <c r="A1" s="418" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B1" s="419"/>
       <c r="C1" s="419"/>
@@ -37086,7 +37091,7 @@
         <v>122</v>
       </c>
       <c r="D3" s="361" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E3" s="361" t="s">
         <v>581</v>
@@ -37101,13 +37106,13 @@
         <v>698</v>
       </c>
       <c r="I3" s="361" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="J3" s="361" t="s">
         <v>426</v>
       </c>
       <c r="K3" s="361" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37126,17 +37131,17 @@
       </c>
       <c r="F4" s="421"/>
       <c r="G4" s="423" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H4" s="421">
         <v>1</v>
       </c>
       <c r="I4" s="424" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="J4" s="421"/>
       <c r="K4" s="422" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37155,7 +37160,7 @@
       </c>
       <c r="F5" s="421"/>
       <c r="G5" s="423" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H5" s="421">
         <v>2</v>
@@ -37163,7 +37168,7 @@
       <c r="I5" s="421"/>
       <c r="J5" s="421"/>
       <c r="K5" s="422" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37178,11 +37183,11 @@
       </c>
       <c r="D6" s="421"/>
       <c r="E6" s="421" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F6" s="421"/>
       <c r="G6" s="423" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H6" s="421">
         <v>3</v>
@@ -37190,7 +37195,7 @@
       <c r="I6" s="421"/>
       <c r="J6" s="421"/>
       <c r="K6" s="422" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37209,17 +37214,17 @@
       </c>
       <c r="F7" s="421"/>
       <c r="G7" s="423" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H7" s="421">
         <v>1</v>
       </c>
       <c r="I7" s="424" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="J7" s="421"/>
       <c r="K7" s="422" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37284,7 +37289,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1">
       <c r="A1" s="135" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>1</v>
@@ -37312,14 +37317,14 @@
         <v>146</v>
       </c>
       <c r="D2" s="137" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F2" s="137"/>
       <c r="G2" s="137" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H2" s="380"/>
       <c r="I2" s="380"/>
@@ -37347,7 +37352,7 @@
         <v>698</v>
       </c>
       <c r="H3" s="417" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="I3" s="417" t="s">
         <v>426</v>
@@ -37362,10 +37367,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F4" s="141"/>
       <c r="G4" s="122">
@@ -37404,7 +37409,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="121" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E6" s="140" t="s">
         <v>841</v>
@@ -37470,7 +37475,7 @@
         <v>251</v>
       </c>
       <c r="E9" s="140" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F9" s="140" t="s">
         <v>12</v>
@@ -37598,7 +37603,7 @@
         <v>251</v>
       </c>
       <c r="E15" s="140" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F15" s="140" t="s">
         <v>12</v>
@@ -37639,10 +37644,10 @@
         <v>70</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E17" s="140" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F17" s="141"/>
       <c r="G17" s="122">
@@ -37702,10 +37707,10 @@
         <v>76</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E20" s="140" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F20" s="140"/>
       <c r="G20" s="141">
@@ -37765,10 +37770,10 @@
         <v>79</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E23" s="140" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F23" s="228"/>
       <c r="G23" s="141">
@@ -37786,20 +37791,20 @@
         <v>79</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E24" s="140" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F24" s="228"/>
       <c r="G24" s="141">
         <v>2</v>
       </c>
       <c r="H24" s="434" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="I24" s="433" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37814,7 +37819,7 @@
         <v>172</v>
       </c>
       <c r="E25" s="140" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F25" s="228"/>
       <c r="G25" s="141">
@@ -37822,7 +37827,7 @@
       </c>
       <c r="H25" s="433"/>
       <c r="I25" s="433" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37837,7 +37842,7 @@
         <v>368</v>
       </c>
       <c r="E26" s="140" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F26" s="228"/>
       <c r="G26" s="141">
@@ -37845,7 +37850,7 @@
       </c>
       <c r="H26" s="433"/>
       <c r="I26" s="433" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37860,7 +37865,7 @@
         <v>372</v>
       </c>
       <c r="E27" s="140" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F27" s="228"/>
       <c r="G27" s="141">
@@ -37881,7 +37886,7 @@
         <v>374</v>
       </c>
       <c r="E28" s="140" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F28" s="228"/>
       <c r="G28" s="141">
@@ -37902,7 +37907,7 @@
         <v>376</v>
       </c>
       <c r="E29" s="140" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F29" s="228"/>
       <c r="G29" s="141">
@@ -37925,7 +37930,7 @@
         <v>378</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F30" s="228"/>
       <c r="G30" s="141">
@@ -37933,7 +37938,7 @@
       </c>
       <c r="H30" s="433"/>
       <c r="I30" s="433" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -37948,7 +37953,7 @@
         <v>380</v>
       </c>
       <c r="E31" s="140" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F31" s="228" t="s">
         <v>368</v>
@@ -37971,7 +37976,7 @@
         <v>383</v>
       </c>
       <c r="E32" s="140" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F32" s="228"/>
       <c r="G32" s="141">
@@ -37992,7 +37997,7 @@
         <v>380</v>
       </c>
       <c r="E33" s="140" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F33" s="228" t="s">
         <v>172</v>
@@ -38324,10 +38329,10 @@
         <v>91</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E38" s="140" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F38" s="140"/>
       <c r="G38" s="141">
@@ -38345,7 +38350,7 @@
         <v>91</v>
       </c>
       <c r="D39" s="121" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E39" s="140" t="s">
         <v>841</v>
@@ -38411,7 +38416,7 @@
         <v>393</v>
       </c>
       <c r="E42" s="140" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F42" s="140"/>
       <c r="G42" s="141">
@@ -38429,10 +38434,10 @@
         <v>94</v>
       </c>
       <c r="D43" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E43" s="140" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F43" s="140"/>
       <c r="G43" s="141">
@@ -38450,7 +38455,7 @@
         <v>94</v>
       </c>
       <c r="D44" s="121" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E44" s="140" t="s">
         <v>841</v>
@@ -38516,7 +38521,7 @@
         <v>393</v>
       </c>
       <c r="E47" s="140" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F47" s="140"/>
       <c r="G47" s="141">
@@ -38534,10 +38539,10 @@
         <v>97</v>
       </c>
       <c r="D48" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E48" s="140" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F48" s="140"/>
       <c r="G48" s="141">
@@ -38555,7 +38560,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="121" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E49" s="140" t="s">
         <v>841</v>
@@ -38621,7 +38626,7 @@
         <v>393</v>
       </c>
       <c r="E52" s="140" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F52" s="140"/>
       <c r="G52" s="141">
@@ -38817,7 +38822,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="144" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B1" s="145" t="s">
         <v>1</v>
@@ -38844,11 +38849,11 @@
         <v>146</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E2" s="133"/>
       <c r="F2" s="133" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G2" s="133" t="s">
         <v>750</v>
@@ -39054,7 +39059,7 @@
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G12" s="141">
         <v>9</v>
@@ -39150,11 +39155,11 @@
         <v>41</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="121" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G17" s="141">
         <v>14</v>
@@ -39170,7 +39175,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="121" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E18" s="121"/>
       <c r="F18" s="121" t="s">
@@ -39216,7 +39221,7 @@
         <v>482</v>
       </c>
       <c r="F20" s="140" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G20" s="141">
         <v>3</v>
@@ -39238,7 +39243,7 @@
         <v>485</v>
       </c>
       <c r="F21" s="140" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G21" s="141">
         <v>4</v>
@@ -39260,7 +39265,7 @@
         <v>487</v>
       </c>
       <c r="F22" s="140" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G22" s="141">
         <v>5</v>
@@ -39279,7 +39284,7 @@
         <v>239</v>
       </c>
       <c r="E23" s="121" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>436</v>
@@ -39384,7 +39389,7 @@
         <v>482</v>
       </c>
       <c r="F28" s="140" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G28" s="141">
         <v>3</v>
@@ -39406,7 +39411,7 @@
         <v>485</v>
       </c>
       <c r="F29" s="140" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G29" s="141">
         <v>4</v>
@@ -39428,7 +39433,7 @@
         <v>487</v>
       </c>
       <c r="F30" s="140" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G30" s="141">
         <v>5</v>
@@ -39447,7 +39452,7 @@
         <v>239</v>
       </c>
       <c r="E31" s="121" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F31" s="140" t="s">
         <v>436</v>
@@ -39526,11 +39531,11 @@
         <v>73</v>
       </c>
       <c r="D35" s="121" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E35" s="121"/>
       <c r="F35" s="121" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G35" s="141">
         <v>2</v>
@@ -39546,17 +39551,17 @@
         <v>79</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E36" s="229"/>
       <c r="F36" s="438" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G36" s="141">
         <v>1</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -39572,13 +39577,13 @@
       </c>
       <c r="E37" s="229"/>
       <c r="F37" s="438" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G37" s="141">
         <v>2</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -39594,13 +39599,13 @@
       </c>
       <c r="E38" s="229"/>
       <c r="F38" s="438" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G38" s="141">
         <v>3</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -39616,7 +39621,7 @@
       </c>
       <c r="E39" s="229"/>
       <c r="F39" s="438" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G39" s="141">
         <v>4</v>
@@ -39636,7 +39641,7 @@
       </c>
       <c r="E40" s="229"/>
       <c r="F40" s="438" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G40" s="141">
         <v>5</v>
@@ -39656,13 +39661,13 @@
       </c>
       <c r="E41" s="229"/>
       <c r="F41" s="438" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G41" s="141">
         <v>6</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -39678,13 +39683,13 @@
       </c>
       <c r="E42" s="229"/>
       <c r="F42" s="438" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G42" s="141">
         <v>7</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -39700,7 +39705,7 @@
       </c>
       <c r="E43" s="229"/>
       <c r="F43" s="438" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G43" s="141">
         <v>8</v>
@@ -39722,7 +39727,7 @@
         <v>172</v>
       </c>
       <c r="F44" s="438" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G44" s="141">
         <v>9</v>
@@ -39744,7 +39749,7 @@
         <v>368</v>
       </c>
       <c r="F45" s="438" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G45" s="141">
         <v>10</v>
@@ -39766,7 +39771,7 @@
         <v>644</v>
       </c>
       <c r="F46" s="255" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G46" s="427">
         <v>1</v>
@@ -39788,7 +39793,7 @@
         <v>604</v>
       </c>
       <c r="F47" s="257" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G47" s="427">
         <v>2</v>
@@ -39810,7 +39815,7 @@
         <v>602</v>
       </c>
       <c r="F48" s="255" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G48" s="427">
         <v>3</v>
@@ -39910,7 +39915,7 @@
       </c>
       <c r="E53" s="121"/>
       <c r="F53" s="121" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G53" s="141">
         <v>3</v>
@@ -39970,7 +39975,7 @@
       </c>
       <c r="E56" s="452"/>
       <c r="F56" s="452" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G56" s="454">
         <v>3</v>
@@ -40030,7 +40035,7 @@
       </c>
       <c r="E59" s="121"/>
       <c r="F59" s="440" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G59" s="141">
         <v>3</v>
@@ -40238,7 +40243,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="82" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>1</v>
@@ -40264,14 +40269,14 @@
         <v>146</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E2" s="87"/>
       <c r="F2" s="87" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
@@ -40297,7 +40302,7 @@
         <v>698</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="I3" s="50" t="s">
         <v>426</v>
@@ -40312,11 +40317,11 @@
         <v>41</v>
       </c>
       <c r="D4" s="173" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E4" s="173"/>
       <c r="F4" s="173" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G4" s="174">
         <v>1</v>
@@ -40631,7 +40636,7 @@
       </c>
       <c r="E19" s="173"/>
       <c r="F19" s="173" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G19" s="174">
         <v>16</v>
@@ -40648,7 +40653,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="173" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E20" s="173"/>
       <c r="F20" s="173" t="s">
@@ -40715,7 +40720,7 @@
       </c>
       <c r="E23" s="173"/>
       <c r="F23" s="173" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G23" s="174">
         <v>2</v>
@@ -40883,7 +40888,7 @@
       </c>
       <c r="E31" s="173"/>
       <c r="F31" s="173" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G31" s="174">
         <v>2</v>
@@ -40942,11 +40947,11 @@
         <v>70</v>
       </c>
       <c r="D34" s="173" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E34" s="173"/>
       <c r="F34" s="173" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G34" s="174">
         <v>1</v>
@@ -41026,11 +41031,11 @@
         <v>76</v>
       </c>
       <c r="D38" s="173" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E38" s="173"/>
       <c r="F38" s="173" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G38" s="174">
         <v>1</v>
@@ -41089,11 +41094,11 @@
         <v>79</v>
       </c>
       <c r="D41" s="173" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E41" s="173"/>
       <c r="F41" s="173" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G41" s="174">
         <v>1</v>
@@ -41111,20 +41116,20 @@
         <v>79</v>
       </c>
       <c r="D42" s="173" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E42" s="173"/>
       <c r="F42" s="173" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G42" s="174">
         <v>2</v>
       </c>
       <c r="H42" s="173" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="I42" s="173" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="K42" s="19"/>
     </row>
@@ -41141,14 +41146,14 @@
       </c>
       <c r="E43" s="173"/>
       <c r="F43" s="173" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G43" s="174">
         <v>3</v>
       </c>
       <c r="H43" s="173"/>
       <c r="I43" s="173" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="K43" s="19"/>
     </row>
@@ -41165,14 +41170,14 @@
       </c>
       <c r="E44" s="173"/>
       <c r="F44" s="173" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G44" s="174">
         <v>4</v>
       </c>
       <c r="H44" s="173"/>
       <c r="I44" s="173" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="K44" s="19"/>
     </row>
@@ -41189,7 +41194,7 @@
       </c>
       <c r="E45" s="173"/>
       <c r="F45" s="173" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G45" s="174">
         <v>5</v>
@@ -41211,7 +41216,7 @@
       </c>
       <c r="E46" s="173"/>
       <c r="F46" s="173" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G46" s="174">
         <v>6</v>
@@ -41233,7 +41238,7 @@
       </c>
       <c r="E47" s="173"/>
       <c r="F47" s="173" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G47" s="174">
         <v>7</v>
@@ -41257,14 +41262,14 @@
       </c>
       <c r="E48" s="173"/>
       <c r="F48" s="173" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G48" s="174">
         <v>8</v>
       </c>
       <c r="H48" s="173"/>
       <c r="I48" s="173" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="K48" s="19"/>
     </row>
@@ -41283,7 +41288,7 @@
         <v>368</v>
       </c>
       <c r="F49" s="173" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G49" s="174">
         <v>9</v>
@@ -41305,7 +41310,7 @@
       </c>
       <c r="E50" s="232"/>
       <c r="F50" s="173" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G50" s="174">
         <v>10</v>
@@ -41329,7 +41334,7 @@
         <v>172</v>
       </c>
       <c r="F51" s="176" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G51" s="177">
         <v>11</v>
@@ -42071,7 +42076,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
       <c r="A1" s="82" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>1</v>
@@ -42094,13 +42099,13 @@
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="87" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -42111,16 +42116,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F3" s="95" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -42131,7 +42136,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="227" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D4" s="121" t="s">
         <v>14</v>
@@ -42151,7 +42156,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="227" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D5" s="121" t="s">
         <v>14</v>
@@ -42191,7 +42196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
@@ -42207,7 +42212,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="151" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="152" t="s">
         <v>1</v>
@@ -42228,13 +42233,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="143" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D2" s="143" t="s">
         <v>579</v>
       </c>
       <c r="E2" s="143" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -42293,7 +42298,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E6" s="99" t="s">
         <v>583</v>
@@ -42518,7 +42523,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="282" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E21" s="107" t="s">
         <v>583</v>
@@ -42563,7 +42568,7 @@
         <v>91</v>
       </c>
       <c r="D24" s="446" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E24" s="99" t="s">
         <v>583</v>
@@ -42578,7 +42583,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="446" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E25" s="99" t="s">
         <v>583</v>
@@ -42593,7 +42598,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="446" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E26" s="99" t="s">
         <v>583</v>
@@ -42623,7 +42628,7 @@
         <v>94</v>
       </c>
       <c r="D28" s="446" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E28" s="99" t="s">
         <v>583</v>
@@ -42638,7 +42643,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="446" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E29" s="99" t="s">
         <v>583</v>
@@ -42653,7 +42658,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="282" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E30" s="210" t="s">
         <v>583</v>
@@ -42683,7 +42688,7 @@
         <v>97</v>
       </c>
       <c r="D32" s="446" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E32" s="99" t="s">
         <v>583</v>
@@ -42698,7 +42703,7 @@
         <v>97</v>
       </c>
       <c r="D33" s="446" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E33" s="99" t="s">
         <v>583</v>
@@ -42713,7 +42718,7 @@
         <v>97</v>
       </c>
       <c r="D34" s="446" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E34" s="99" t="s">
         <v>583</v>
@@ -42791,7 +42796,7 @@
         <v>584</v>
       </c>
       <c r="E39" s="565" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -42803,7 +42808,7 @@
         <v>109</v>
       </c>
       <c r="D40" s="587" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E40" s="565" t="s">
         <v>583</v>
@@ -42887,7 +42892,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="157" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B1" s="118" t="s">
         <v>1</v>
@@ -42912,13 +42917,13 @@
         <v>577</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E2" s="133" t="s">
         <v>579</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="333" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -43331,7 +43336,7 @@
         <v>224</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F25" s="99" t="s">
         <v>583</v>
@@ -43349,7 +43354,7 @@
         <v>227</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F26" s="99" t="s">
         <v>583</v>
@@ -45581,7 +45586,7 @@
         <v>169</v>
       </c>
       <c r="E150" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F150" s="99" t="s">
         <v>583</v>
@@ -45599,7 +45604,7 @@
         <v>172</v>
       </c>
       <c r="E151" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F151" s="99" t="s">
         <v>583</v>
@@ -45617,7 +45622,7 @@
         <v>175</v>
       </c>
       <c r="E152" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F152" s="99" t="s">
         <v>583</v>
@@ -45635,7 +45640,7 @@
         <v>178</v>
       </c>
       <c r="E153" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F153" s="99" t="s">
         <v>583</v>
@@ -45653,7 +45658,7 @@
         <v>181</v>
       </c>
       <c r="E154" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F154" s="99" t="s">
         <v>583</v>
@@ -45671,7 +45676,7 @@
         <v>184</v>
       </c>
       <c r="E155" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F155" s="99" t="s">
         <v>583</v>
@@ -45689,7 +45694,7 @@
         <v>195</v>
       </c>
       <c r="E156" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F156" s="99" t="s">
         <v>583</v>
@@ -45707,7 +45712,7 @@
         <v>199</v>
       </c>
       <c r="E157" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F157" s="99" t="s">
         <v>583</v>
@@ -45725,7 +45730,7 @@
         <v>202</v>
       </c>
       <c r="E158" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F158" s="99" t="s">
         <v>583</v>
@@ -45743,7 +45748,7 @@
         <v>205</v>
       </c>
       <c r="E159" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F159" s="99" t="s">
         <v>583</v>
@@ -45761,7 +45766,7 @@
         <v>207</v>
       </c>
       <c r="E160" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F160" s="99" t="s">
         <v>583</v>
@@ -45779,7 +45784,7 @@
         <v>190</v>
       </c>
       <c r="E161" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F161" s="99" t="s">
         <v>583</v>
@@ -45797,7 +45802,7 @@
         <v>192</v>
       </c>
       <c r="E162" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F162" s="158" t="s">
         <v>583</v>
@@ -45815,7 +45820,7 @@
         <v>213</v>
       </c>
       <c r="E163" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F163" s="99" t="s">
         <v>583</v>
@@ -45833,7 +45838,7 @@
         <v>210</v>
       </c>
       <c r="E164" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F164" s="99" t="s">
         <v>583</v>
@@ -45851,7 +45856,7 @@
         <v>217</v>
       </c>
       <c r="E165" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F165" s="99" t="s">
         <v>583</v>
@@ -45869,7 +45874,7 @@
         <v>220</v>
       </c>
       <c r="E166" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F166" s="99" t="s">
         <v>583</v>
@@ -45887,7 +45892,7 @@
         <v>222</v>
       </c>
       <c r="E167" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F167" s="103" t="s">
         <v>583</v>
@@ -45905,7 +45910,7 @@
         <v>224</v>
       </c>
       <c r="E168" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F168" s="99" t="s">
         <v>583</v>
@@ -45923,7 +45928,7 @@
         <v>227</v>
       </c>
       <c r="E169" s="72" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F169" s="210" t="s">
         <v>583</v>
@@ -45941,7 +45946,7 @@
         <v>217</v>
       </c>
       <c r="E170" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F170" s="99" t="s">
         <v>583</v>
@@ -45959,7 +45964,7 @@
         <v>388</v>
       </c>
       <c r="E171" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F171" s="99" t="s">
         <v>583</v>
@@ -45977,7 +45982,7 @@
         <v>391</v>
       </c>
       <c r="E172" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F172" s="99" t="s">
         <v>583</v>
@@ -45995,7 +46000,7 @@
         <v>393</v>
       </c>
       <c r="E173" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F173" s="99" t="s">
         <v>583</v>
@@ -46013,7 +46018,7 @@
         <v>395</v>
       </c>
       <c r="E174" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F174" s="99" t="s">
         <v>583</v>
@@ -46031,7 +46036,7 @@
         <v>397</v>
       </c>
       <c r="E175" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F175" s="99" t="s">
         <v>583</v>
@@ -46049,7 +46054,7 @@
         <v>399</v>
       </c>
       <c r="E176" s="64" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F176" s="210" t="s">
         <v>583</v>
@@ -46067,7 +46072,7 @@
         <v>401</v>
       </c>
       <c r="E177" s="64" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F177" s="210" t="s">
         <v>583</v>
@@ -46085,7 +46090,7 @@
         <v>217</v>
       </c>
       <c r="E178" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F178" s="99" t="s">
         <v>583</v>
@@ -46103,7 +46108,7 @@
         <v>388</v>
       </c>
       <c r="E179" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F179" s="99" t="s">
         <v>583</v>
@@ -46121,7 +46126,7 @@
         <v>391</v>
       </c>
       <c r="E180" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F180" s="99" t="s">
         <v>583</v>
@@ -46139,7 +46144,7 @@
         <v>393</v>
       </c>
       <c r="E181" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F181" s="99" t="s">
         <v>583</v>
@@ -46157,7 +46162,7 @@
         <v>395</v>
       </c>
       <c r="E182" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F182" s="99" t="s">
         <v>583</v>
@@ -46175,7 +46180,7 @@
         <v>397</v>
       </c>
       <c r="E183" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F183" s="99" t="s">
         <v>583</v>
@@ -46193,7 +46198,7 @@
         <v>399</v>
       </c>
       <c r="E184" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F184" s="99" t="s">
         <v>583</v>
@@ -46211,7 +46216,7 @@
         <v>401</v>
       </c>
       <c r="E185" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F185" s="99" t="s">
         <v>583</v>
@@ -46229,7 +46234,7 @@
         <v>395</v>
       </c>
       <c r="E186" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F186" s="99" t="s">
         <v>583</v>
@@ -46247,7 +46252,7 @@
         <v>397</v>
       </c>
       <c r="E187" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F187" s="99" t="s">
         <v>583</v>
@@ -46265,7 +46270,7 @@
         <v>399</v>
       </c>
       <c r="E188" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F188" s="99" t="s">
         <v>583</v>
@@ -46283,7 +46288,7 @@
         <v>401</v>
       </c>
       <c r="E189" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F189" s="99" t="s">
         <v>583</v>
@@ -46445,7 +46450,7 @@
         <v>217</v>
       </c>
       <c r="E198" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F198" s="99" t="s">
         <v>583</v>
@@ -46463,7 +46468,7 @@
         <v>388</v>
       </c>
       <c r="E199" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F199" s="99" t="s">
         <v>583</v>
@@ -46481,7 +46486,7 @@
         <v>391</v>
       </c>
       <c r="E200" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F200" s="99" t="s">
         <v>583</v>
@@ -46499,7 +46504,7 @@
         <v>393</v>
       </c>
       <c r="E201" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F201" s="99" t="s">
         <v>583</v>
@@ -46517,7 +46522,7 @@
         <v>395</v>
       </c>
       <c r="E202" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F202" s="99" t="s">
         <v>583</v>
@@ -46535,7 +46540,7 @@
         <v>397</v>
       </c>
       <c r="E203" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F203" s="99" t="s">
         <v>583</v>
@@ -46553,7 +46558,7 @@
         <v>399</v>
       </c>
       <c r="E204" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F204" s="99" t="s">
         <v>583</v>
@@ -46571,7 +46576,7 @@
         <v>401</v>
       </c>
       <c r="E205" s="64" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F205" s="210" t="s">
         <v>583</v>
@@ -46589,7 +46594,7 @@
         <v>217</v>
       </c>
       <c r="E206" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F206" s="99" t="s">
         <v>583</v>
@@ -46607,7 +46612,7 @@
         <v>388</v>
       </c>
       <c r="E207" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F207" s="99" t="s">
         <v>583</v>
@@ -46625,7 +46630,7 @@
         <v>391</v>
       </c>
       <c r="E208" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F208" s="99" t="s">
         <v>583</v>
@@ -46643,7 +46648,7 @@
         <v>393</v>
       </c>
       <c r="E209" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F209" s="99" t="s">
         <v>583</v>
@@ -46661,7 +46666,7 @@
         <v>395</v>
       </c>
       <c r="E210" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F210" s="99" t="s">
         <v>583</v>
@@ -46679,7 +46684,7 @@
         <v>397</v>
       </c>
       <c r="E211" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F211" s="99" t="s">
         <v>583</v>
@@ -46697,7 +46702,7 @@
         <v>399</v>
       </c>
       <c r="E212" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F212" s="99" t="s">
         <v>583</v>
@@ -46715,7 +46720,7 @@
         <v>401</v>
       </c>
       <c r="E213" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F213" s="99" t="s">
         <v>583</v>
@@ -46733,7 +46738,7 @@
         <v>395</v>
       </c>
       <c r="E214" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F214" s="99" t="s">
         <v>583</v>
@@ -46751,7 +46756,7 @@
         <v>397</v>
       </c>
       <c r="E215" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F215" s="99" t="s">
         <v>583</v>
@@ -46769,7 +46774,7 @@
         <v>399</v>
       </c>
       <c r="E216" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F216" s="99" t="s">
         <v>583</v>
@@ -46787,7 +46792,7 @@
         <v>401</v>
       </c>
       <c r="E217" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F217" s="99" t="s">
         <v>583</v>
@@ -46949,7 +46954,7 @@
         <v>217</v>
       </c>
       <c r="E226" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F226" s="99" t="s">
         <v>583</v>
@@ -46967,7 +46972,7 @@
         <v>388</v>
       </c>
       <c r="E227" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F227" s="99" t="s">
         <v>583</v>
@@ -46985,7 +46990,7 @@
         <v>391</v>
       </c>
       <c r="E228" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F228" s="99" t="s">
         <v>583</v>
@@ -47003,7 +47008,7 @@
         <v>393</v>
       </c>
       <c r="E229" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F229" s="99" t="s">
         <v>583</v>
@@ -47021,7 +47026,7 @@
         <v>395</v>
       </c>
       <c r="E230" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F230" s="99" t="s">
         <v>583</v>
@@ -47039,7 +47044,7 @@
         <v>397</v>
       </c>
       <c r="E231" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F231" s="99" t="s">
         <v>583</v>
@@ -47057,7 +47062,7 @@
         <v>399</v>
       </c>
       <c r="E232" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F232" s="99" t="s">
         <v>583</v>
@@ -47075,7 +47080,7 @@
         <v>401</v>
       </c>
       <c r="E233" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F233" s="99" t="s">
         <v>583</v>
@@ -47093,7 +47098,7 @@
         <v>395</v>
       </c>
       <c r="E234" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F234" s="99" t="s">
         <v>583</v>
@@ -47111,7 +47116,7 @@
         <v>397</v>
       </c>
       <c r="E235" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F235" s="99" t="s">
         <v>583</v>
@@ -47129,7 +47134,7 @@
         <v>399</v>
       </c>
       <c r="E236" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F236" s="99" t="s">
         <v>583</v>
@@ -47147,7 +47152,7 @@
         <v>401</v>
       </c>
       <c r="E237" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F237" s="99" t="s">
         <v>583</v>
@@ -47582,7 +47587,7 @@
         <v>584</v>
       </c>
       <c r="F261" s="99" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="333" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47669,7 +47674,7 @@
         <v>165</v>
       </c>
       <c r="E266" s="562" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F266" s="565" t="s">
         <v>583</v>
@@ -47757,7 +47762,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="159" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="160" t="s">
         <v>1</v>
@@ -47771,16 +47776,16 @@
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="163" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B2" s="163" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C2" s="163" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D2" s="163" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47805,10 +47810,10 @@
         <v>649</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47819,10 +47824,10 @@
         <v>661</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D5" s="142" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47830,13 +47835,13 @@
         <v>41</v>
       </c>
       <c r="B6" s="164" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C6" s="122" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47844,13 +47849,13 @@
         <v>41</v>
       </c>
       <c r="B7" s="167" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C7" s="168" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47861,10 +47866,10 @@
         <v>649</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47875,10 +47880,10 @@
         <v>661</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47889,10 +47894,10 @@
         <v>661</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47903,10 +47908,10 @@
         <v>681</v>
       </c>
       <c r="C11" s="122" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47917,10 +47922,10 @@
         <v>684</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47931,10 +47936,10 @@
         <v>688</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47945,10 +47950,10 @@
         <v>681</v>
       </c>
       <c r="C14" s="122" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47959,10 +47964,10 @@
         <v>684</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47973,10 +47978,10 @@
         <v>688</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -47987,10 +47992,10 @@
         <v>681</v>
       </c>
       <c r="C17" s="168" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -48001,10 +48006,10 @@
         <v>684</v>
       </c>
       <c r="C18" s="122" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -48015,10 +48020,10 @@
         <v>688</v>
       </c>
       <c r="C19" s="122" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -48073,7 +48078,7 @@
   <sheetData>
     <row r="1" spans="1:141" ht="18" customHeight="1">
       <c r="A1" s="157" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B1" s="118" t="s">
         <v>1</v>
@@ -48095,16 +48100,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E2" s="133" t="s">
         <v>579</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:141" ht="20.100000000000001" customHeight="1">
@@ -48157,7 +48162,7 @@
         <v>663</v>
       </c>
       <c r="E5" s="164" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F5" s="99" t="s">
         <v>583</v>
@@ -48193,7 +48198,7 @@
         <v>664</v>
       </c>
       <c r="E7" s="114" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F7" s="99" t="s">
         <v>583</v>
@@ -49381,7 +49386,7 @@
         <v>663</v>
       </c>
       <c r="E58" s="282" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="210" t="s">
         <v>583</v>
@@ -49399,7 +49404,7 @@
         <v>664</v>
       </c>
       <c r="E59" s="282" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="99" t="s">
         <v>583</v>
@@ -49417,7 +49422,7 @@
         <v>663</v>
       </c>
       <c r="E60" s="446" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F60" s="99" t="s">
         <v>583</v>
@@ -49435,7 +49440,7 @@
         <v>690</v>
       </c>
       <c r="E61" s="446" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F61" s="99" t="s">
         <v>583</v>
@@ -49489,7 +49494,7 @@
         <v>691</v>
       </c>
       <c r="E64" s="446" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F64" s="99" t="s">
         <v>583</v>
@@ -49543,7 +49548,7 @@
         <v>663</v>
       </c>
       <c r="E67" s="446" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F67" s="99" t="s">
         <v>583</v>
@@ -49561,7 +49566,7 @@
         <v>692</v>
       </c>
       <c r="E68" s="446" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F68" s="99" t="s">
         <v>583</v>
@@ -49615,7 +49620,7 @@
         <v>691</v>
       </c>
       <c r="E71" s="446" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F71" s="99" t="s">
         <v>583</v>
@@ -49774,7 +49779,7 @@
         <v>106</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E80" s="114" t="s">
         <v>584</v>
@@ -49792,7 +49797,7 @@
         <v>106</v>
       </c>
       <c r="D81" s="57" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E81" s="114" t="s">
         <v>584</v>
@@ -49810,7 +49815,7 @@
         <v>106</v>
       </c>
       <c r="D82" s="57" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E82" s="114" t="s">
         <v>584</v>
@@ -49828,7 +49833,7 @@
         <v>106</v>
       </c>
       <c r="D83" s="57" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E83" s="114" t="s">
         <v>584</v>
@@ -49846,13 +49851,13 @@
         <v>106</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E84" s="114" t="s">
         <v>584</v>
       </c>
       <c r="F84" s="220" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49864,13 +49869,13 @@
         <v>106</v>
       </c>
       <c r="D85" s="57" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E85" s="114" t="s">
         <v>584</v>
       </c>
       <c r="F85" s="220" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49882,7 +49887,7 @@
         <v>106</v>
       </c>
       <c r="D86" s="57" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E86" s="114" t="s">
         <v>584</v>
@@ -49900,7 +49905,7 @@
         <v>106</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E87" s="114" t="s">
         <v>584</v>
@@ -49939,7 +49944,7 @@
         <v>663</v>
       </c>
       <c r="E89" s="591" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F89" s="592" t="s">
         <v>583</v>
@@ -49972,7 +49977,7 @@
         <v>112</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E91" s="114" t="s">
         <v>584</v>
@@ -50066,7 +50071,7 @@
   <sheetData>
     <row r="1" spans="1:84" ht="18" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>1</v>
@@ -50091,13 +50096,13 @@
         <v>577</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>579</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:84" ht="20.100000000000001" customHeight="1">
@@ -50111,7 +50116,7 @@
         <v>122</v>
       </c>
       <c r="D3" s="361" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E3" s="361" t="s">
         <v>582</v>
@@ -50150,10 +50155,10 @@
         <v>848</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="6" spans="1:84" ht="20.100000000000001" customHeight="1">
@@ -50168,7 +50173,7 @@
         <v>848</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F6" s="57" t="s">
         <v>583</v>
@@ -50204,7 +50209,7 @@
         <v>850</v>
       </c>
       <c r="E8" s="114" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F8" s="54" t="s">
         <v>583</v>
@@ -50954,7 +50959,7 @@
         <v>848</v>
       </c>
       <c r="E41" s="446" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="54" t="s">
         <v>583</v>
@@ -50972,7 +50977,7 @@
         <v>848</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F42" s="54" t="s">
         <v>583</v>
@@ -50990,7 +50995,7 @@
         <v>848</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F43" s="54" t="s">
         <v>583</v>
@@ -51008,7 +51013,7 @@
         <v>848</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F44" s="54" t="s">
         <v>583</v>
@@ -51044,7 +51049,7 @@
         <v>848</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F46" s="99" t="s">
         <v>583</v>
@@ -51062,7 +51067,7 @@
         <v>848</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F47" s="99" t="s">
         <v>583</v>
@@ -51080,7 +51085,7 @@
         <v>848</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F48" s="99" t="s">
         <v>583</v>
@@ -51116,7 +51121,7 @@
         <v>848</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F50" s="99" t="s">
         <v>583</v>
@@ -51134,7 +51139,7 @@
         <v>848</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F51" s="99" t="s">
         <v>583</v>
@@ -51152,7 +51157,7 @@
         <v>848</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F52" s="99" t="s">
         <v>583</v>
@@ -51299,7 +51304,7 @@
         <v>584</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -51350,7 +51355,7 @@
         <v>848</v>
       </c>
       <c r="E63" s="587" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F63" s="561" t="s">
         <v>583</v>
@@ -51439,7 +51444,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="547" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B1" s="547"/>
       <c r="C1" s="548"/>
@@ -51460,20 +51465,20 @@
         <v>5</v>
       </c>
       <c r="C2" s="550" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D2" s="550"/>
       <c r="E2" s="550" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F2" s="550" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G2" s="550" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2" s="550" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="I2" s="17"/>
     </row>
@@ -51485,22 +51490,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="361" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D3" s="361" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E3" s="361" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="361" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G3" s="361" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H3" s="361" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="I3" s="17"/>
     </row>
@@ -51510,10 +51515,10 @@
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="75" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>41</v>
@@ -51525,7 +51530,7 @@
         <v>248</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I4" s="17"/>
     </row>
@@ -51535,7 +51540,7 @@
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="75" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D5" s="75"/>
       <c r="E5" s="60" t="s">
@@ -51558,20 +51563,20 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="75" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D6" s="75"/>
       <c r="E6" s="60" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="114" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="I6" s="17"/>
     </row>
@@ -51581,14 +51586,14 @@
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="75" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="60" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="114" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G7" s="114" t="b">
         <v>0</v>
@@ -51604,16 +51609,16 @@
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="75" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E8" s="60" t="s">
         <v>94</v>
       </c>
       <c r="F8" s="114" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G8" s="114" t="s">
         <v>244</v>
@@ -51629,14 +51634,14 @@
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="75" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="60" t="s">
         <v>94</v>
       </c>
       <c r="F9" s="106" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G9" s="114" t="s">
         <v>168</v>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE40734-46CB-6B4F-9422-22A5B478E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A2515-2273-B348-B4B9-02F469CA1BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9864" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9864" uniqueCount="1260">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3923,6 +3923,10 @@
   </si>
   <si>
     <t>TTLIncrement</t>
+  </si>
+  <si>
+    <t>Integer value that if present identifies that the event is one that should set the TTL.SystemTTL (to today + the TTLIncrement)
+MaxLength: &lt;unlimited&gt;</t>
   </si>
 </sst>
 </file>
@@ -22104,8 +22108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y78" sqref="Y78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -22131,7 +22135,7 @@
     <col min="19" max="20" width="18.5" style="6" customWidth="1"/>
     <col min="21" max="21" width="16.83203125" style="16" customWidth="1"/>
     <col min="22" max="22" width="16.83203125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="16.83203125" style="16" customWidth="1"/>
+    <col min="23" max="23" width="20.83203125" style="16" customWidth="1"/>
     <col min="24" max="258" width="8.83203125" style="19" customWidth="1"/>
     <col min="259" max="16384" width="8.83203125" style="19"/>
   </cols>
@@ -22237,7 +22241,7 @@
         <v>908</v>
       </c>
       <c r="W2" s="482" t="s">
-        <v>908</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="333" customFormat="1" ht="20" customHeight="1">

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A9505-0531-1140-A005-4A43731E8214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4EA5CA-C132-0E45-B3C1-872404963541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="16" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10146" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10162" uniqueCount="1280">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3980,6 +3980,12 @@
   <si>
     <t>A complex types that make up the Other Case Reference.
 Max Length: 200</t>
+  </si>
+  <si>
+    <t>DateOfDeath</t>
+  </si>
+  <si>
+    <t>SearchPartyDOD</t>
   </si>
 </sst>
 </file>
@@ -43290,10 +43296,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F285"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A266" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C288" sqref="C288"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A262" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -48286,10 +48292,10 @@
         <v>1252</v>
       </c>
       <c r="D277" s="57" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E277" s="102" t="s">
-        <v>1200</v>
+        <v>1278</v>
+      </c>
+      <c r="E277" s="72" t="s">
+        <v>584</v>
       </c>
       <c r="F277" s="99" t="s">
         <v>583</v>
@@ -48304,7 +48310,7 @@
         <v>1252</v>
       </c>
       <c r="D278" s="57" t="s">
-        <v>445</v>
+        <v>1254</v>
       </c>
       <c r="E278" s="102" t="s">
         <v>1200</v>
@@ -48322,7 +48328,7 @@
         <v>1252</v>
       </c>
       <c r="D279" s="57" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E279" s="102" t="s">
         <v>1200</v>
@@ -48340,7 +48346,7 @@
         <v>1252</v>
       </c>
       <c r="D280" s="57" t="s">
-        <v>177</v>
+        <v>449</v>
       </c>
       <c r="E280" s="102" t="s">
         <v>1200</v>
@@ -48358,7 +48364,7 @@
         <v>1252</v>
       </c>
       <c r="D281" s="57" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="E281" s="102" t="s">
         <v>1200</v>
@@ -48376,7 +48382,7 @@
         <v>1252</v>
       </c>
       <c r="D282" s="57" t="s">
-        <v>674</v>
+        <v>212</v>
       </c>
       <c r="E282" s="102" t="s">
         <v>1200</v>
@@ -48394,12 +48400,48 @@
         <v>1252</v>
       </c>
       <c r="D283" s="57" t="s">
-        <v>450</v>
+        <v>674</v>
       </c>
       <c r="E283" s="102" t="s">
         <v>1200</v>
       </c>
       <c r="F283" s="99" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A284" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B284" s="53"/>
+      <c r="C284" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D284" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="E284" s="102" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F284" s="99" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A285" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B285" s="53"/>
+      <c r="C285" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D285" s="57" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E285" s="102" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F285" s="99" t="s">
         <v>583</v>
       </c>
     </row>
@@ -52986,10 +53028,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778BCCC1-48D7-FA41-814D-66E309A10BB8}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -53001,7 +53043,7 @@
     <col min="5" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="599" t="s">
         <v>1255</v>
       </c>
@@ -53013,7 +53055,7 @@
       <c r="G1" s="380"/>
       <c r="H1" s="380"/>
     </row>
-    <row r="2" spans="1:8" ht="126">
+    <row r="2" spans="1:9" ht="126">
       <c r="A2" s="600" t="s">
         <v>1256</v>
       </c>
@@ -53039,7 +53081,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="602" t="s">
         <v>9</v>
       </c>
@@ -53064,8 +53106,11 @@
       <c r="H3" s="602" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="602" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="556">
         <v>42736</v>
       </c>
@@ -53089,7 +53134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="556">
         <v>42736</v>
       </c>
@@ -53113,7 +53158,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="556">
         <v>42736</v>
       </c>
@@ -53137,7 +53182,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="556">
         <v>42736</v>
       </c>
@@ -53161,7 +53206,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="556">
         <v>42736</v>
       </c>
@@ -53185,7 +53230,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="556">
         <v>42736</v>
       </c>
@@ -53209,7 +53254,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="556">
         <v>42736</v>
       </c>
@@ -53233,7 +53278,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="556">
         <v>42736</v>
       </c>
@@ -53257,7 +53302,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="556">
         <v>42736</v>
       </c>
@@ -53281,7 +53326,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="598">
         <v>42736</v>
       </c>
@@ -53303,7 +53348,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="556">
         <v>42736</v>
       </c>
@@ -53325,7 +53370,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="556">
         <v>42736</v>
       </c>
@@ -53347,7 +53392,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="556">
         <v>42736</v>
       </c>
@@ -53369,7 +53414,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="556">
         <v>42736</v>
       </c>
@@ -53390,7 +53435,7 @@
       </c>
       <c r="H17" s="380"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="556">
         <v>42736</v>
       </c>
@@ -53411,6 +53456,9 @@
       </c>
       <c r="H18" s="380" t="s">
         <v>450</v>
+      </c>
+      <c r="I18" s="603" t="s">
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
@@ -53422,8 +53470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662D18BA-BEA0-DA4A-8F67-416A693D549E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -54562,11 +54610,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO201"/>
+  <dimension ref="A1:IO202"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
+      <selection pane="bottomLeft" activeCell="D206" sqref="D205:D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -62798,6 +62846,37 @@
       </c>
       <c r="O201" s="99"/>
     </row>
+    <row r="202" spans="1:15" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A202" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B202" s="53"/>
+      <c r="C202" s="270" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D202" s="73" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E202" s="73" t="s">
+        <v>450</v>
+      </c>
+      <c r="F202" s="72"/>
+      <c r="G202" s="554" t="s">
+        <v>167</v>
+      </c>
+      <c r="H202" s="54"/>
+      <c r="I202" s="61"/>
+      <c r="J202" s="61"/>
+      <c r="K202" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L202" s="61"/>
+      <c r="M202" s="61"/>
+      <c r="N202" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="O202" s="99"/>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B138" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA38D6B-BED0-E84A-A5FF-0D866EE4039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95778D8E-C273-734F-9E4D-1B25FC4094E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="25880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="25740" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9914" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9929" uniqueCount="1258">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -20100,10 +20100,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:IQ54"/>
+  <dimension ref="A1:IQ55"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A35" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -22095,6 +22095,26 @@
       </c>
       <c r="H54" s="359"/>
     </row>
+    <row r="55" spans="1:8" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A55" s="304">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="304"/>
+      <c r="C55" s="65" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D55" s="305" t="s">
+        <v>848</v>
+      </c>
+      <c r="E55" s="305" t="s">
+        <v>849</v>
+      </c>
+      <c r="F55" s="359"/>
+      <c r="G55" s="391">
+        <v>1</v>
+      </c>
+      <c r="H55" s="359"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G26:G28" xr:uid="{4F2581EF-0318-6146-80A0-4232D55627A6}">
@@ -35648,10 +35668,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -37112,6 +37132,26 @@
         <v>1</v>
       </c>
       <c r="H69" s="69"/>
+    </row>
+    <row r="70" spans="1:8" s="327" customFormat="1" ht="20" customHeight="1">
+      <c r="A70" s="128">
+        <v>42736</v>
+      </c>
+      <c r="B70" s="128"/>
+      <c r="C70" s="69" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D70" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="408">
+        <v>1</v>
+      </c>
+      <c r="H70" s="69"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -37367,10 +37407,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:DS59"/>
+  <dimension ref="A1:DS60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -38882,6 +38922,27 @@
       <c r="H59" s="433"/>
       <c r="I59" s="433"/>
     </row>
+    <row r="60" spans="1:9" s="327" customFormat="1" ht="20" customHeight="1">
+      <c r="A60" s="120">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="139"/>
+      <c r="C60" s="121" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D60" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="140"/>
+      <c r="G60" s="141">
+        <v>1</v>
+      </c>
+      <c r="H60" s="433"/>
+      <c r="I60" s="433"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G23:G24" xr:uid="{9850B61E-9DFD-1342-A596-EA5F0D31DB06}">
@@ -38901,10 +38962,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1"/>
@@ -40302,8 +40363,28 @@
       </c>
       <c r="H67" s="72"/>
     </row>
+    <row r="68" spans="1:8" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A68" s="148">
+        <v>42736</v>
+      </c>
+      <c r="B68" s="139"/>
+      <c r="C68" s="140" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D68" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" s="141">
+        <v>1</v>
+      </c>
+      <c r="H68" s="72"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G36 G39 G42 G44:G45" xr:uid="{1466D592-8C51-1B42-9713-FF7D423B9DE0}">
       <formula1>0</formula1>
     </dataValidation>
@@ -40323,8 +40404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BL75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -41973,14 +42054,24 @@
       <c r="H71" s="173"/>
       <c r="I71" s="173"/>
     </row>
-    <row r="72" spans="1:9" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A72" s="178"/>
+    <row r="72" spans="1:9" ht="20" customHeight="1">
+      <c r="A72" s="178">
+        <v>42736</v>
+      </c>
       <c r="B72" s="179"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
+      <c r="C72" s="173" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D72" s="173" t="s">
+        <v>165</v>
+      </c>
       <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="174"/>
+      <c r="F72" s="173" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" s="174">
+        <v>2</v>
+      </c>
       <c r="H72" s="173"/>
       <c r="I72" s="173"/>
     </row>
@@ -53111,7 +53202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E15BE1-896E-C94F-B2CD-122BE5CAB0E3}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E59F7-05AC-194E-9407-D9C4B5C102AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A8A52-6AFE-AE4B-A419-327C14F987A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="2120" windowWidth="28800" windowHeight="16440" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -52,15 +52,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9934" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9953" uniqueCount="1281">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -15312,7 +15309,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E38" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E39" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="55"/>
@@ -15325,7 +15322,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F252" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F253" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="45"/>
@@ -15351,7 +15348,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F78" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F81" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
@@ -22178,7 +22175,7 @@
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -26129,7 +26126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T253"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A238" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E252" sqref="E252"/>
     </sheetView>
   </sheetViews>
@@ -42694,10 +42691,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -42810,42 +42807,42 @@
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="54" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>586</v>
+        <v>1205</v>
       </c>
       <c r="E7" s="99" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="222">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="249" t="s">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="19" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="222">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="223"/>
+      <c r="C9" s="249" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="253" t="s">
+      <c r="D9" s="253" t="s">
         <v>586</v>
       </c>
-      <c r="E8" s="226" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
-      <c r="A9" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="149" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="114" t="s">
-        <v>586</v>
-      </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="226" t="s">
         <v>585</v>
       </c>
     </row>
@@ -42855,7 +42852,7 @@
       </c>
       <c r="B10" s="72"/>
       <c r="C10" s="149" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="114" t="s">
         <v>586</v>
@@ -42869,8 +42866,8 @@
         <v>42736</v>
       </c>
       <c r="B11" s="72"/>
-      <c r="C11" s="54" t="s">
-        <v>58</v>
+      <c r="C11" s="149" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="114" t="s">
         <v>586</v>
@@ -42885,7 +42882,7 @@
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="114" t="s">
         <v>586</v>
@@ -42900,7 +42897,7 @@
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="114" t="s">
         <v>586</v>
@@ -42915,7 +42912,7 @@
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="114" t="s">
         <v>586</v>
@@ -42924,18 +42921,18 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="17" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="57" t="s">
-        <v>70</v>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="D15" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -42944,11 +42941,11 @@
         <v>42736</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>602</v>
+      <c r="C16" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>586</v>
       </c>
       <c r="E16" s="103" t="s">
         <v>585</v>
@@ -42963,24 +42960,24 @@
         <v>73</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E17" s="103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
-      <c r="A18" s="63">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="155" t="s">
-        <v>586</v>
-      </c>
-      <c r="E18" s="107" t="s">
+    <row r="18" spans="1:5" s="17" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="E18" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -42990,7 +42987,7 @@
       </c>
       <c r="B19" s="79"/>
       <c r="C19" s="77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" s="155" t="s">
         <v>586</v>
@@ -43000,81 +42997,81 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
-      <c r="A20" s="222">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="223"/>
-      <c r="C20" s="249" t="s">
+      <c r="A20" s="63">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>586</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="A21" s="222">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="223"/>
+      <c r="C21" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="253" t="s">
+      <c r="D21" s="253" t="s">
         <v>586</v>
       </c>
-      <c r="E20" s="226" t="s">
+      <c r="E21" s="226" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
-      <c r="A21" s="63">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="209" t="s">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
+      <c r="A22" s="63">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="282" t="s">
+      <c r="D22" s="282" t="s">
         <v>1204</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E22" s="107" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
-      <c r="A22" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="54" t="s">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D23" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E23" s="103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
-      <c r="A23" s="303">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="306"/>
-      <c r="C23" s="447" t="s">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
+      <c r="A24" s="303">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="306"/>
+      <c r="C24" s="447" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="309" t="s">
+      <c r="D24" s="309" t="s">
         <v>586</v>
       </c>
-      <c r="E23" s="310" t="s">
+      <c r="E24" s="310" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
-      <c r="A24" s="63">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="446" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="327" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="63">
         <v>42736</v>
       </c>
@@ -43083,7 +43080,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="446" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E25" s="99" t="s">
         <v>585</v>
@@ -43098,7 +43095,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="446" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E26" s="99" t="s">
         <v>585</v>
@@ -43113,7 +43110,7 @@
         <v>91</v>
       </c>
       <c r="D27" s="446" t="s">
-        <v>586</v>
+        <v>1206</v>
       </c>
       <c r="E27" s="99" t="s">
         <v>585</v>
@@ -43125,10 +43122,10 @@
       </c>
       <c r="B28" s="61"/>
       <c r="C28" s="54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="446" t="s">
-        <v>1205</v>
+        <v>586</v>
       </c>
       <c r="E28" s="99" t="s">
         <v>585</v>
@@ -43143,7 +43140,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="446" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E29" s="99" t="s">
         <v>585</v>
@@ -43153,14 +43150,14 @@
       <c r="A30" s="63">
         <v>42736</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="209" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="282" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E30" s="210" t="s">
+      <c r="D30" s="446" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E30" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -43168,14 +43165,14 @@
       <c r="A31" s="63">
         <v>42736</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="446" t="s">
-        <v>586</v>
-      </c>
-      <c r="E31" s="99" t="s">
+      <c r="D31" s="282" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E31" s="210" t="s">
         <v>585</v>
       </c>
     </row>
@@ -43185,10 +43182,10 @@
       </c>
       <c r="B32" s="61"/>
       <c r="C32" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="446" t="s">
-        <v>1205</v>
+        <v>586</v>
       </c>
       <c r="E32" s="99" t="s">
         <v>585</v>
@@ -43203,7 +43200,7 @@
         <v>97</v>
       </c>
       <c r="D33" s="446" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E33" s="99" t="s">
         <v>585</v>
@@ -43218,7 +43215,7 @@
         <v>97</v>
       </c>
       <c r="D34" s="446" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E34" s="99" t="s">
         <v>585</v>
@@ -43233,7 +43230,7 @@
         <v>97</v>
       </c>
       <c r="D35" s="446" t="s">
-        <v>586</v>
+        <v>1206</v>
       </c>
       <c r="E35" s="99" t="s">
         <v>585</v>
@@ -43244,8 +43241,8 @@
         <v>42736</v>
       </c>
       <c r="B36" s="61"/>
-      <c r="C36" s="490" t="s">
-        <v>100</v>
+      <c r="C36" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="D36" s="446" t="s">
         <v>586</v>
@@ -43254,49 +43251,49 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="328" customFormat="1" ht="20" customHeight="1">
-      <c r="A37" s="502">
-        <v>42736</v>
-      </c>
-      <c r="B37" s="507"/>
-      <c r="C37" s="515" t="s">
+    <row r="37" spans="1:5" s="327" customFormat="1" ht="20" customHeight="1">
+      <c r="A37" s="63">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="490" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="446" t="s">
+        <v>586</v>
+      </c>
+      <c r="E37" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="328" customFormat="1" ht="20" customHeight="1">
+      <c r="A38" s="502">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="507"/>
+      <c r="C38" s="515" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="532" t="s">
+      <c r="D38" s="532" t="s">
         <v>586</v>
       </c>
-      <c r="E37" s="533" t="s">
+      <c r="E38" s="533" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
-      <c r="A38" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="54" t="s">
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="72"/>
+      <c r="C39" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D39" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="E38" s="220" t="s">
+      <c r="E39" s="220" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="17" customFormat="1" ht="20" customHeight="1">
-      <c r="A39" s="585">
-        <v>42736</v>
-      </c>
-      <c r="B39" s="561"/>
-      <c r="C39" s="560" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="586" t="s">
-        <v>586</v>
-      </c>
-      <c r="E39" s="564" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="17" customFormat="1" ht="20" customHeight="1">
@@ -43308,25 +43305,25 @@
         <v>109</v>
       </c>
       <c r="D40" s="586" t="s">
+        <v>586</v>
+      </c>
+      <c r="E40" s="564" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="17" customFormat="1" ht="20" customHeight="1">
+      <c r="A41" s="585">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="561"/>
+      <c r="C41" s="560" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="586" t="s">
         <v>1203</v>
       </c>
-      <c r="E40" s="564" t="s">
+      <c r="E41" s="564" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
-      <c r="A41" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="114" t="s">
-        <v>586</v>
-      </c>
-      <c r="E41" s="220" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1">
@@ -43335,13 +43332,13 @@
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D42" s="114" t="s">
         <v>586</v>
       </c>
       <c r="E42" s="220" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1">
@@ -43350,12 +43347,27 @@
       </c>
       <c r="B43" s="72"/>
       <c r="C43" s="57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D43" s="114" t="s">
         <v>586</v>
       </c>
       <c r="E43" s="220" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1">
+      <c r="A44" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="72"/>
+      <c r="C44" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="E44" s="220" t="s">
         <v>585</v>
       </c>
     </row>
@@ -43373,10 +43385,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -43896,21 +43908,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A29" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>586</v>
-      </c>
-      <c r="F29" s="99" t="s">
+    <row r="29" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A29" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="75"/>
+      <c r="C29" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -43918,12 +43930,12 @@
       <c r="A30" s="52">
         <v>42736</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="54" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E30" s="72" t="s">
         <v>586</v>
@@ -43937,11 +43949,11 @@
         <v>42736</v>
       </c>
       <c r="B31" s="53"/>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="57" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E31" s="72" t="s">
         <v>586</v>
@@ -43958,8 +43970,8 @@
       <c r="C32" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="57" t="s">
-        <v>240</v>
+      <c r="D32" s="54" t="s">
+        <v>238</v>
       </c>
       <c r="E32" s="72" t="s">
         <v>586</v>
@@ -43968,39 +43980,39 @@
         <v>585</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A33" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="60" t="s">
+    <row r="33" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A33" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="F33" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A34" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E34" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="F33" s="103" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A34" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="72" t="s">
-        <v>586</v>
-      </c>
-      <c r="F34" s="99" t="s">
+      <c r="F34" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -44009,11 +44021,11 @@
         <v>42736</v>
       </c>
       <c r="B35" s="53"/>
-      <c r="C35" s="156" t="s">
-        <v>49</v>
+      <c r="C35" s="54" t="s">
+        <v>46</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E35" s="72" t="s">
         <v>586</v>
@@ -44031,7 +44043,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E36" s="72" t="s">
         <v>586</v>
@@ -44049,7 +44061,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E37" s="72" t="s">
         <v>586</v>
@@ -44062,12 +44074,12 @@
       <c r="A38" s="52">
         <v>42736</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="156" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E38" s="72" t="s">
         <v>586</v>
@@ -44084,8 +44096,8 @@
       <c r="C39" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="114" t="s">
-        <v>251</v>
+      <c r="D39" s="57" t="s">
+        <v>253</v>
       </c>
       <c r="E39" s="72" t="s">
         <v>586</v>
@@ -44098,12 +44110,12 @@
       <c r="A40" s="52">
         <v>42736</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="149" t="s">
+      <c r="B40" s="72"/>
+      <c r="C40" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="54" t="s">
-        <v>217</v>
+      <c r="D40" s="114" t="s">
+        <v>251</v>
       </c>
       <c r="E40" s="72" t="s">
         <v>586</v>
@@ -44116,12 +44128,12 @@
       <c r="A41" s="52">
         <v>42736</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="73" t="s">
-        <v>256</v>
+      <c r="D41" s="54" t="s">
+        <v>217</v>
       </c>
       <c r="E41" s="72" t="s">
         <v>586</v>
@@ -44138,8 +44150,8 @@
       <c r="C42" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="57" t="s">
-        <v>259</v>
+      <c r="D42" s="73" t="s">
+        <v>256</v>
       </c>
       <c r="E42" s="72" t="s">
         <v>586</v>
@@ -44148,21 +44160,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A43" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B43" s="75"/>
+    <row r="43" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A43" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="72"/>
       <c r="C43" s="149" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -44175,7 +44187,7 @@
         <v>49</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E44" s="75" t="s">
         <v>586</v>
@@ -44184,21 +44196,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A45" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B45" s="72"/>
+    <row r="45" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A45" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="75"/>
       <c r="C45" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -44210,8 +44222,8 @@
       <c r="C46" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="57" t="s">
-        <v>269</v>
+      <c r="D46" s="60" t="s">
+        <v>266</v>
       </c>
       <c r="E46" s="72" t="s">
         <v>586</v>
@@ -44220,39 +44232,39 @@
         <v>585</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A47" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B47" s="75"/>
+    <row r="47" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A47" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="72"/>
       <c r="C47" s="149" t="s">
         <v>82</v>
       </c>
       <c r="D47" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="F47" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A48" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="75"/>
+      <c r="C48" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E48" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="F47" s="103" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A48" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="305" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="271" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="72" t="s">
-        <v>586</v>
-      </c>
-      <c r="F48" s="99" t="s">
+      <c r="F48" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -44264,8 +44276,8 @@
       <c r="C49" s="305" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="270" t="s">
-        <v>275</v>
+      <c r="D49" s="271" t="s">
+        <v>273</v>
       </c>
       <c r="E49" s="72" t="s">
         <v>586</v>
@@ -44275,7 +44287,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A50" s="58">
+      <c r="A50" s="52">
         <v>42736</v>
       </c>
       <c r="B50" s="59"/>
@@ -44283,43 +44295,43 @@
         <v>85</v>
       </c>
       <c r="D50" s="270" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="F50" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A51" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="59"/>
+      <c r="C51" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="75" t="s">
+      <c r="E51" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="F50" s="103" t="s">
+      <c r="F51" s="103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A51" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="285" t="s">
+    <row r="52" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A52" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="59"/>
+      <c r="C52" s="285" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="270" t="s">
+      <c r="D52" s="270" t="s">
         <v>277</v>
-      </c>
-      <c r="E51" s="72" t="s">
-        <v>586</v>
-      </c>
-      <c r="F51" s="99" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A52" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>280</v>
       </c>
       <c r="E52" s="72" t="s">
         <v>586</v>
@@ -44332,12 +44344,12 @@
       <c r="A53" s="52">
         <v>42736</v>
       </c>
-      <c r="B53" s="53"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E53" s="72" t="s">
         <v>586</v>
@@ -44355,7 +44367,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E54" s="72" t="s">
         <v>586</v>
@@ -44373,7 +44385,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="72" t="s">
         <v>586</v>
@@ -44391,7 +44403,7 @@
         <v>52</v>
       </c>
       <c r="D56" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E56" s="72" t="s">
         <v>586</v>
@@ -44409,7 +44421,7 @@
         <v>52</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E57" s="72" t="s">
         <v>586</v>
@@ -44427,7 +44439,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E58" s="72" t="s">
         <v>586</v>
@@ -44445,7 +44457,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E59" s="72" t="s">
         <v>586</v>
@@ -44463,7 +44475,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E60" s="72" t="s">
         <v>586</v>
@@ -44481,7 +44493,7 @@
         <v>52</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>586</v>
@@ -44498,8 +44510,8 @@
       <c r="C62" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="54" t="s">
-        <v>217</v>
+      <c r="D62" s="57" t="s">
+        <v>300</v>
       </c>
       <c r="E62" s="72" t="s">
         <v>586</v>
@@ -44514,10 +44526,10 @@
       </c>
       <c r="B63" s="53"/>
       <c r="C63" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>280</v>
+        <v>52</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>217</v>
       </c>
       <c r="E63" s="72" t="s">
         <v>586</v>
@@ -44535,7 +44547,7 @@
         <v>55</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E64" s="72" t="s">
         <v>586</v>
@@ -44553,7 +44565,7 @@
         <v>55</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E65" s="72" t="s">
         <v>586</v>
@@ -44571,7 +44583,7 @@
         <v>55</v>
       </c>
       <c r="D66" s="57" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E66" s="72" t="s">
         <v>586</v>
@@ -44588,8 +44600,8 @@
       <c r="C67" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="54" t="s">
-        <v>217</v>
+      <c r="D67" s="57" t="s">
+        <v>302</v>
       </c>
       <c r="E67" s="72" t="s">
         <v>586</v>
@@ -44603,11 +44615,11 @@
         <v>42736</v>
       </c>
       <c r="B68" s="53"/>
-      <c r="C68" s="54" t="s">
-        <v>58</v>
+      <c r="C68" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E68" s="72" t="s">
         <v>586</v>
@@ -44625,7 +44637,7 @@
         <v>58</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="E69" s="72" t="s">
         <v>586</v>
@@ -44640,10 +44652,10 @@
       </c>
       <c r="B70" s="53"/>
       <c r="C70" s="54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E70" s="72" t="s">
         <v>586</v>
@@ -44661,7 +44673,7 @@
         <v>61</v>
       </c>
       <c r="D71" s="54" t="s">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="E71" s="72" t="s">
         <v>586</v>
@@ -44678,8 +44690,8 @@
       <c r="C72" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="57" t="s">
-        <v>282</v>
+      <c r="D72" s="54" t="s">
+        <v>305</v>
       </c>
       <c r="E72" s="72" t="s">
         <v>586</v>
@@ -44697,7 +44709,7 @@
         <v>61</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E73" s="72" t="s">
         <v>586</v>
@@ -44706,21 +44718,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A74" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B74" s="59"/>
-      <c r="C74" s="60" t="s">
+    <row r="74" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A74" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" s="75" t="s">
+      <c r="D74" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="F74" s="103" t="s">
+      <c r="F74" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -44733,7 +44745,7 @@
         <v>61</v>
       </c>
       <c r="D75" s="60" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E75" s="75" t="s">
         <v>586</v>
@@ -44751,7 +44763,7 @@
         <v>61</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E76" s="75" t="s">
         <v>586</v>
@@ -44769,7 +44781,7 @@
         <v>61</v>
       </c>
       <c r="D77" s="60" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E77" s="75" t="s">
         <v>586</v>
@@ -44787,7 +44799,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E78" s="75" t="s">
         <v>586</v>
@@ -44805,7 +44817,7 @@
         <v>61</v>
       </c>
       <c r="D79" s="60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E79" s="75" t="s">
         <v>586</v>
@@ -44814,39 +44826,39 @@
         <v>585</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A80" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54" t="s">
+    <row r="80" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A80" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B80" s="59"/>
+      <c r="C80" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="F80" s="103" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A81" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B81" s="53"/>
+      <c r="C81" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="E80" s="72" t="s">
+      <c r="E81" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="F80" s="99" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A81" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B81" s="59"/>
-      <c r="C81" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="E81" s="75" t="s">
-        <v>586</v>
-      </c>
-      <c r="F81" s="103" t="s">
+      <c r="F81" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -44859,7 +44871,7 @@
         <v>61</v>
       </c>
       <c r="D82" s="57" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="E82" s="75" t="s">
         <v>586</v>
@@ -44877,7 +44889,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="57" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E83" s="75" t="s">
         <v>586</v>
@@ -44895,7 +44907,7 @@
         <v>61</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E84" s="75" t="s">
         <v>586</v>
@@ -44913,7 +44925,7 @@
         <v>61</v>
       </c>
       <c r="D85" s="57" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="E85" s="75" t="s">
         <v>586</v>
@@ -44931,7 +44943,7 @@
         <v>61</v>
       </c>
       <c r="D86" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E86" s="75" t="s">
         <v>586</v>
@@ -44949,7 +44961,7 @@
         <v>61</v>
       </c>
       <c r="D87" s="57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E87" s="75" t="s">
         <v>586</v>
@@ -44967,7 +44979,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="57" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E88" s="75" t="s">
         <v>586</v>
@@ -44985,7 +44997,7 @@
         <v>61</v>
       </c>
       <c r="D89" s="57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E89" s="75" t="s">
         <v>586</v>
@@ -45003,7 +45015,7 @@
         <v>61</v>
       </c>
       <c r="D90" s="57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E90" s="75" t="s">
         <v>586</v>
@@ -45021,7 +45033,7 @@
         <v>61</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E91" s="75" t="s">
         <v>586</v>
@@ -45039,7 +45051,7 @@
         <v>61</v>
       </c>
       <c r="D92" s="57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E92" s="75" t="s">
         <v>586</v>
@@ -45057,7 +45069,7 @@
         <v>61</v>
       </c>
       <c r="D93" s="57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E93" s="75" t="s">
         <v>586</v>
@@ -45075,7 +45087,7 @@
         <v>61</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E94" s="75" t="s">
         <v>586</v>
@@ -45093,7 +45105,7 @@
         <v>61</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E95" s="75" t="s">
         <v>586</v>
@@ -45111,7 +45123,7 @@
         <v>61</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E96" s="75" t="s">
         <v>586</v>
@@ -45129,7 +45141,7 @@
         <v>61</v>
       </c>
       <c r="D97" s="57" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E97" s="75" t="s">
         <v>586</v>
@@ -45147,7 +45159,7 @@
         <v>61</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="E98" s="75" t="s">
         <v>586</v>
@@ -45164,8 +45176,8 @@
       <c r="C99" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="60" t="s">
-        <v>286</v>
+      <c r="D99" s="57" t="s">
+        <v>259</v>
       </c>
       <c r="E99" s="75" t="s">
         <v>586</v>
@@ -45183,7 +45195,7 @@
         <v>61</v>
       </c>
       <c r="D100" s="60" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="E100" s="75" t="s">
         <v>586</v>
@@ -45201,7 +45213,7 @@
         <v>61</v>
       </c>
       <c r="D101" s="60" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="E101" s="75" t="s">
         <v>586</v>
@@ -45219,7 +45231,7 @@
         <v>61</v>
       </c>
       <c r="D102" s="60" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="E102" s="75" t="s">
         <v>586</v>
@@ -45236,8 +45248,8 @@
       <c r="C103" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="57" t="s">
-        <v>292</v>
+      <c r="D103" s="60" t="s">
+        <v>345</v>
       </c>
       <c r="E103" s="75" t="s">
         <v>586</v>
@@ -45255,7 +45267,7 @@
         <v>61</v>
       </c>
       <c r="D104" s="57" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="E104" s="75" t="s">
         <v>586</v>
@@ -45273,7 +45285,7 @@
         <v>61</v>
       </c>
       <c r="D105" s="57" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E105" s="75" t="s">
         <v>586</v>
@@ -45291,7 +45303,7 @@
         <v>61</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E106" s="75" t="s">
         <v>586</v>
@@ -45309,7 +45321,7 @@
         <v>61</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E107" s="75" t="s">
         <v>586</v>
@@ -45318,7 +45330,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+    <row r="108" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
       <c r="A108" s="58">
         <v>42736</v>
       </c>
@@ -45327,7 +45339,7 @@
         <v>61</v>
       </c>
       <c r="D108" s="57" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="E108" s="75" t="s">
         <v>586</v>
@@ -45344,8 +45356,8 @@
       <c r="C109" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D109" s="60" t="s">
-        <v>355</v>
+      <c r="D109" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="E109" s="75" t="s">
         <v>586</v>
@@ -45363,7 +45375,7 @@
         <v>61</v>
       </c>
       <c r="D110" s="60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E110" s="75" t="s">
         <v>586</v>
@@ -45372,21 +45384,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A111" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B111" s="53"/>
-      <c r="C111" s="156" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="E111" s="72" t="s">
+    <row r="111" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
+      <c r="A111" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B111" s="59"/>
+      <c r="C111" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="E111" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="F111" s="99" t="s">
+      <c r="F111" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -45399,7 +45411,7 @@
         <v>64</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E112" s="72" t="s">
         <v>586</v>
@@ -45417,7 +45429,7 @@
         <v>64</v>
       </c>
       <c r="D113" s="57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E113" s="72" t="s">
         <v>586</v>
@@ -45430,12 +45442,12 @@
       <c r="A114" s="52">
         <v>42736</v>
       </c>
-      <c r="B114" s="72"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="156" t="s">
         <v>64</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E114" s="72" t="s">
         <v>586</v>
@@ -45448,12 +45460,12 @@
       <c r="A115" s="52">
         <v>42736</v>
       </c>
-      <c r="B115" s="61"/>
+      <c r="B115" s="72"/>
       <c r="C115" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="156" t="s">
-        <v>217</v>
+      <c r="D115" s="57" t="s">
+        <v>253</v>
       </c>
       <c r="E115" s="72" t="s">
         <v>586</v>
@@ -45466,12 +45478,12 @@
       <c r="A116" s="52">
         <v>42736</v>
       </c>
-      <c r="B116" s="72"/>
+      <c r="B116" s="61"/>
       <c r="C116" s="156" t="s">
         <v>64</v>
       </c>
       <c r="D116" s="156" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="E116" s="72" t="s">
         <v>586</v>
@@ -45489,7 +45501,7 @@
         <v>64</v>
       </c>
       <c r="D117" s="156" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E117" s="72" t="s">
         <v>586</v>
@@ -45502,12 +45514,12 @@
       <c r="A118" s="52">
         <v>42736</v>
       </c>
-      <c r="B118" s="53"/>
-      <c r="C118" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118" s="54" t="s">
-        <v>165</v>
+      <c r="B118" s="72"/>
+      <c r="C118" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="156" t="s">
+        <v>259</v>
       </c>
       <c r="E118" s="72" t="s">
         <v>586</v>
@@ -45516,21 +45528,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
-      <c r="A119" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B119" s="59"/>
-      <c r="C119" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="60" t="s">
+    <row r="119" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A119" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E119" s="75" t="s">
+      <c r="E119" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="F119" s="103" t="s">
+      <c r="F119" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -45543,7 +45555,7 @@
         <v>70</v>
       </c>
       <c r="D120" s="60" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E120" s="75" t="s">
         <v>586</v>
@@ -45557,14 +45569,14 @@
         <v>42736</v>
       </c>
       <c r="B121" s="59"/>
-      <c r="C121" s="60" t="s">
-        <v>73</v>
+      <c r="C121" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="D121" s="60" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="E121" s="75" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F121" s="103" t="s">
         <v>585</v>
@@ -45582,10 +45594,10 @@
         <v>363</v>
       </c>
       <c r="E122" s="75" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F122" s="103" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
@@ -45593,17 +45605,17 @@
         <v>42736</v>
       </c>
       <c r="B123" s="59"/>
-      <c r="C123" s="57" t="s">
+      <c r="C123" s="60" t="s">
         <v>73</v>
       </c>
       <c r="D123" s="60" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E123" s="75" t="s">
         <v>602</v>
       </c>
       <c r="F123" s="103" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
@@ -45615,7 +45627,7 @@
         <v>73</v>
       </c>
       <c r="D124" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E124" s="75" t="s">
         <v>602</v>
@@ -45633,10 +45645,10 @@
         <v>73</v>
       </c>
       <c r="D125" s="60" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E125" s="75" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F125" s="103" t="s">
         <v>585</v>
@@ -45651,7 +45663,7 @@
         <v>73</v>
       </c>
       <c r="D126" s="60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E126" s="75" t="s">
         <v>600</v>
@@ -45660,19 +45672,19 @@
         <v>585</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+    <row r="127" spans="1:6" s="337" customFormat="1" ht="20" customHeight="1">
       <c r="A127" s="58">
         <v>42736</v>
       </c>
       <c r="B127" s="59"/>
       <c r="C127" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="57" t="s">
-        <v>302</v>
+        <v>73</v>
+      </c>
+      <c r="D127" s="60" t="s">
+        <v>362</v>
       </c>
       <c r="E127" s="75" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F127" s="103" t="s">
         <v>585</v>
@@ -45687,7 +45699,7 @@
         <v>76</v>
       </c>
       <c r="D128" s="57" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="E128" s="75" t="s">
         <v>586</v>
@@ -45697,20 +45709,20 @@
       </c>
     </row>
     <row r="129" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A129" s="63">
-        <v>42736</v>
-      </c>
-      <c r="B129" s="76"/>
-      <c r="C129" s="65" t="s">
+      <c r="A129" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B129" s="59"/>
+      <c r="C129" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D129" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="E129" s="79" t="s">
+      <c r="D129" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="E129" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="F129" s="107" t="s">
+      <c r="F129" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -45720,10 +45732,10 @@
       </c>
       <c r="B130" s="76"/>
       <c r="C130" s="65" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D130" s="65" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E130" s="79" t="s">
         <v>586</v>
@@ -45741,7 +45753,7 @@
         <v>88</v>
       </c>
       <c r="D131" s="65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E131" s="79" t="s">
         <v>586</v>
@@ -45759,7 +45771,7 @@
         <v>88</v>
       </c>
       <c r="D132" s="65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E132" s="79" t="s">
         <v>586</v>
@@ -45777,7 +45789,7 @@
         <v>88</v>
       </c>
       <c r="D133" s="65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E133" s="79" t="s">
         <v>586</v>
@@ -45795,7 +45807,7 @@
         <v>88</v>
       </c>
       <c r="D134" s="65" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E134" s="79" t="s">
         <v>586</v>
@@ -45813,7 +45825,7 @@
         <v>88</v>
       </c>
       <c r="D135" s="65" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E135" s="79" t="s">
         <v>586</v>
@@ -45831,7 +45843,7 @@
         <v>88</v>
       </c>
       <c r="D136" s="65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E136" s="79" t="s">
         <v>586</v>
@@ -45849,7 +45861,7 @@
         <v>88</v>
       </c>
       <c r="D137" s="65" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E137" s="79" t="s">
         <v>586</v>
@@ -45867,7 +45879,7 @@
         <v>88</v>
       </c>
       <c r="D138" s="65" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E138" s="79" t="s">
         <v>586</v>
@@ -45885,7 +45897,7 @@
         <v>88</v>
       </c>
       <c r="D139" s="65" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E139" s="79" t="s">
         <v>586</v>
@@ -45903,7 +45915,7 @@
         <v>88</v>
       </c>
       <c r="D140" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E140" s="79" t="s">
         <v>586</v>
@@ -45916,12 +45928,12 @@
       <c r="A141" s="63">
         <v>42736</v>
       </c>
-      <c r="B141" s="53"/>
-      <c r="C141" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D141" s="57" t="s">
-        <v>366</v>
+      <c r="B141" s="76"/>
+      <c r="C141" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>213</v>
       </c>
       <c r="E141" s="79" t="s">
         <v>586</v>
@@ -45939,7 +45951,7 @@
         <v>79</v>
       </c>
       <c r="D142" s="57" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="E142" s="79" t="s">
         <v>586</v>
@@ -45957,7 +45969,7 @@
         <v>79</v>
       </c>
       <c r="D143" s="57" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="E143" s="79" t="s">
         <v>586</v>
@@ -45975,7 +45987,7 @@
         <v>79</v>
       </c>
       <c r="D144" s="57" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E144" s="79" t="s">
         <v>586</v>
@@ -45993,7 +46005,7 @@
         <v>79</v>
       </c>
       <c r="D145" s="57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E145" s="79" t="s">
         <v>586</v>
@@ -46011,7 +46023,7 @@
         <v>79</v>
       </c>
       <c r="D146" s="57" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E146" s="79" t="s">
         <v>586</v>
@@ -46029,7 +46041,7 @@
         <v>79</v>
       </c>
       <c r="D147" s="57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E147" s="79" t="s">
         <v>586</v>
@@ -46047,7 +46059,7 @@
         <v>79</v>
       </c>
       <c r="D148" s="57" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E148" s="79" t="s">
         <v>586</v>
@@ -46065,7 +46077,7 @@
         <v>79</v>
       </c>
       <c r="D149" s="57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E149" s="79" t="s">
         <v>586</v>
@@ -46078,12 +46090,12 @@
       <c r="A150" s="63">
         <v>42736</v>
       </c>
-      <c r="B150" s="235"/>
+      <c r="B150" s="53"/>
       <c r="C150" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D150" s="65" t="s">
-        <v>387</v>
+      <c r="D150" s="57" t="s">
+        <v>385</v>
       </c>
       <c r="E150" s="79" t="s">
         <v>586</v>
@@ -46093,20 +46105,20 @@
       </c>
     </row>
     <row r="151" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A151" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B151" s="53"/>
+      <c r="A151" s="63">
+        <v>42736</v>
+      </c>
+      <c r="B151" s="235"/>
       <c r="C151" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D151" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="E151" s="72" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F151" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E151" s="79" t="s">
+        <v>586</v>
+      </c>
+      <c r="F151" s="107" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46119,7 +46131,7 @@
         <v>41</v>
       </c>
       <c r="D152" s="57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E152" s="72" t="s">
         <v>1204</v>
@@ -46137,7 +46149,7 @@
         <v>41</v>
       </c>
       <c r="D153" s="57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E153" s="72" t="s">
         <v>1204</v>
@@ -46155,7 +46167,7 @@
         <v>41</v>
       </c>
       <c r="D154" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E154" s="72" t="s">
         <v>1204</v>
@@ -46173,7 +46185,7 @@
         <v>41</v>
       </c>
       <c r="D155" s="57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E155" s="72" t="s">
         <v>1204</v>
@@ -46191,7 +46203,7 @@
         <v>41</v>
       </c>
       <c r="D156" s="57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E156" s="72" t="s">
         <v>1204</v>
@@ -46209,7 +46221,7 @@
         <v>41</v>
       </c>
       <c r="D157" s="57" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E157" s="72" t="s">
         <v>1204</v>
@@ -46227,7 +46239,7 @@
         <v>41</v>
       </c>
       <c r="D158" s="57" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E158" s="72" t="s">
         <v>1204</v>
@@ -46245,7 +46257,7 @@
         <v>41</v>
       </c>
       <c r="D159" s="57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E159" s="72" t="s">
         <v>1204</v>
@@ -46263,7 +46275,7 @@
         <v>41</v>
       </c>
       <c r="D160" s="57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E160" s="72" t="s">
         <v>1204</v>
@@ -46281,7 +46293,7 @@
         <v>41</v>
       </c>
       <c r="D161" s="57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E161" s="72" t="s">
         <v>1204</v>
@@ -46299,7 +46311,7 @@
         <v>41</v>
       </c>
       <c r="D162" s="57" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E162" s="72" t="s">
         <v>1204</v>
@@ -46309,38 +46321,38 @@
       </c>
     </row>
     <row r="163" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A163" s="123">
-        <v>42737</v>
-      </c>
-      <c r="B163" s="109"/>
+      <c r="A163" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B163" s="53"/>
       <c r="C163" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D163" s="57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E163" s="72" t="s">
         <v>1204</v>
       </c>
-      <c r="F163" s="158" t="s">
+      <c r="F163" s="99" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A164" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B164" s="53"/>
+      <c r="A164" s="123">
+        <v>42737</v>
+      </c>
+      <c r="B164" s="109"/>
       <c r="C164" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="57" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E164" s="72" t="s">
         <v>1204</v>
       </c>
-      <c r="F164" s="99" t="s">
+      <c r="F164" s="158" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46353,7 +46365,7 @@
         <v>41</v>
       </c>
       <c r="D165" s="57" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E165" s="72" t="s">
         <v>1204</v>
@@ -46371,7 +46383,7 @@
         <v>41</v>
       </c>
       <c r="D166" s="57" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E166" s="72" t="s">
         <v>1204</v>
@@ -46389,7 +46401,7 @@
         <v>41</v>
       </c>
       <c r="D167" s="57" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E167" s="72" t="s">
         <v>1204</v>
@@ -46399,56 +46411,56 @@
       </c>
     </row>
     <row r="168" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A168" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B168" s="59"/>
+      <c r="A168" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B168" s="53"/>
       <c r="C168" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D168" s="57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E168" s="72" t="s">
         <v>1204</v>
       </c>
-      <c r="F168" s="103" t="s">
+      <c r="F168" s="99" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A169" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B169" s="53"/>
+      <c r="A169" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B169" s="59"/>
       <c r="C169" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D169" s="57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E169" s="72" t="s">
         <v>1204</v>
       </c>
-      <c r="F169" s="99" t="s">
+      <c r="F169" s="103" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A170" s="207">
-        <v>42736</v>
-      </c>
-      <c r="B170" s="235"/>
-      <c r="C170" s="65" t="s">
+      <c r="A170" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B170" s="53"/>
+      <c r="C170" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D170" s="65" t="s">
-        <v>227</v>
+      <c r="D170" s="57" t="s">
+        <v>224</v>
       </c>
       <c r="E170" s="72" t="s">
         <v>1204</v>
       </c>
-      <c r="F170" s="210" t="s">
+      <c r="F170" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46456,17 +46468,17 @@
       <c r="A171" s="207">
         <v>42736</v>
       </c>
-      <c r="B171" s="53"/>
-      <c r="C171" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D171" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E171" s="61" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F171" s="99" t="s">
+      <c r="B171" s="235"/>
+      <c r="C171" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E171" s="72" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F171" s="210" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46479,7 +46491,7 @@
         <v>91</v>
       </c>
       <c r="D172" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E172" s="61" t="s">
         <v>1205</v>
@@ -46497,7 +46509,7 @@
         <v>91</v>
       </c>
       <c r="D173" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E173" s="61" t="s">
         <v>1205</v>
@@ -46515,7 +46527,7 @@
         <v>91</v>
       </c>
       <c r="D174" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E174" s="61" t="s">
         <v>1205</v>
@@ -46533,7 +46545,7 @@
         <v>91</v>
       </c>
       <c r="D175" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E175" s="61" t="s">
         <v>1205</v>
@@ -46551,7 +46563,7 @@
         <v>91</v>
       </c>
       <c r="D176" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E176" s="61" t="s">
         <v>1205</v>
@@ -46564,17 +46576,17 @@
       <c r="A177" s="207">
         <v>42736</v>
       </c>
-      <c r="B177" s="235"/>
-      <c r="C177" s="65" t="s">
+      <c r="B177" s="53"/>
+      <c r="C177" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D177" s="65" t="s">
-        <v>401</v>
-      </c>
-      <c r="E177" s="64" t="s">
+      <c r="D177" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="E177" s="61" t="s">
         <v>1205</v>
       </c>
-      <c r="F177" s="210" t="s">
+      <c r="F177" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46586,8 +46598,8 @@
       <c r="C178" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D178" s="57" t="s">
-        <v>403</v>
+      <c r="D178" s="65" t="s">
+        <v>401</v>
       </c>
       <c r="E178" s="64" t="s">
         <v>1205</v>
@@ -46596,21 +46608,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="20" customHeight="1">
+    <row r="179" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
       <c r="A179" s="207">
         <v>42736</v>
       </c>
-      <c r="B179" s="53"/>
-      <c r="C179" s="57" t="s">
+      <c r="B179" s="235"/>
+      <c r="C179" s="65" t="s">
         <v>91</v>
       </c>
       <c r="D179" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E179" s="61" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F179" s="99" t="s">
+        <v>403</v>
+      </c>
+      <c r="E179" s="64" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F179" s="210" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46623,7 +46635,7 @@
         <v>91</v>
       </c>
       <c r="D180" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E180" s="61" t="s">
         <v>1203</v>
@@ -46641,7 +46653,7 @@
         <v>91</v>
       </c>
       <c r="D181" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E181" s="61" t="s">
         <v>1203</v>
@@ -46659,7 +46671,7 @@
         <v>91</v>
       </c>
       <c r="D182" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E182" s="61" t="s">
         <v>1203</v>
@@ -46677,7 +46689,7 @@
         <v>91</v>
       </c>
       <c r="D183" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E183" s="61" t="s">
         <v>1203</v>
@@ -46695,7 +46707,7 @@
         <v>91</v>
       </c>
       <c r="D184" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E184" s="61" t="s">
         <v>1203</v>
@@ -46713,7 +46725,7 @@
         <v>91</v>
       </c>
       <c r="D185" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E185" s="61" t="s">
         <v>1203</v>
@@ -46731,7 +46743,7 @@
         <v>91</v>
       </c>
       <c r="D186" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E186" s="61" t="s">
         <v>1203</v>
@@ -46749,10 +46761,10 @@
         <v>91</v>
       </c>
       <c r="D187" s="57" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E187" s="61" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F187" s="99" t="s">
         <v>585</v>
@@ -46767,7 +46779,7 @@
         <v>91</v>
       </c>
       <c r="D188" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E188" s="61" t="s">
         <v>1206</v>
@@ -46785,7 +46797,7 @@
         <v>91</v>
       </c>
       <c r="D189" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E189" s="61" t="s">
         <v>1206</v>
@@ -46803,7 +46815,7 @@
         <v>91</v>
       </c>
       <c r="D190" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E190" s="61" t="s">
         <v>1206</v>
@@ -46821,10 +46833,10 @@
         <v>91</v>
       </c>
       <c r="D191" s="57" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E191" s="61" t="s">
-        <v>586</v>
+        <v>1206</v>
       </c>
       <c r="F191" s="99" t="s">
         <v>585</v>
@@ -46839,7 +46851,7 @@
         <v>91</v>
       </c>
       <c r="D192" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E192" s="61" t="s">
         <v>586</v>
@@ -46857,7 +46869,7 @@
         <v>91</v>
       </c>
       <c r="D193" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E193" s="61" t="s">
         <v>586</v>
@@ -46875,7 +46887,7 @@
         <v>91</v>
       </c>
       <c r="D194" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E194" s="61" t="s">
         <v>586</v>
@@ -46893,7 +46905,7 @@
         <v>91</v>
       </c>
       <c r="D195" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E195" s="61" t="s">
         <v>586</v>
@@ -46911,7 +46923,7 @@
         <v>91</v>
       </c>
       <c r="D196" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E196" s="61" t="s">
         <v>586</v>
@@ -46929,7 +46941,7 @@
         <v>91</v>
       </c>
       <c r="D197" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E197" s="61" t="s">
         <v>586</v>
@@ -46947,7 +46959,7 @@
         <v>91</v>
       </c>
       <c r="D198" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E198" s="61" t="s">
         <v>586</v>
@@ -46962,13 +46974,13 @@
       </c>
       <c r="B199" s="53"/>
       <c r="C199" s="57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D199" s="57" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E199" s="61" t="s">
-        <v>1205</v>
+        <v>586</v>
       </c>
       <c r="F199" s="99" t="s">
         <v>585</v>
@@ -46983,7 +46995,7 @@
         <v>94</v>
       </c>
       <c r="D200" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E200" s="61" t="s">
         <v>1205</v>
@@ -47001,7 +47013,7 @@
         <v>94</v>
       </c>
       <c r="D201" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E201" s="61" t="s">
         <v>1205</v>
@@ -47019,7 +47031,7 @@
         <v>94</v>
       </c>
       <c r="D202" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E202" s="61" t="s">
         <v>1205</v>
@@ -47037,7 +47049,7 @@
         <v>94</v>
       </c>
       <c r="D203" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E203" s="61" t="s">
         <v>1205</v>
@@ -47055,7 +47067,7 @@
         <v>94</v>
       </c>
       <c r="D204" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E204" s="61" t="s">
         <v>1205</v>
@@ -47073,7 +47085,7 @@
         <v>94</v>
       </c>
       <c r="D205" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E205" s="61" t="s">
         <v>1205</v>
@@ -47082,39 +47094,39 @@
         <v>585</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+    <row r="206" spans="1:6" ht="20" customHeight="1">
       <c r="A206" s="207">
         <v>42736</v>
       </c>
-      <c r="B206" s="235"/>
+      <c r="B206" s="53"/>
       <c r="C206" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D206" s="57" t="s">
-        <v>403</v>
-      </c>
-      <c r="E206" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="E206" s="61" t="s">
         <v>1205</v>
       </c>
-      <c r="F206" s="210" t="s">
+      <c r="F206" s="99" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="20" customHeight="1">
+    <row r="207" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
       <c r="A207" s="207">
         <v>42736</v>
       </c>
-      <c r="B207" s="53"/>
+      <c r="B207" s="235"/>
       <c r="C207" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D207" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E207" s="61" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F207" s="99" t="s">
+        <v>403</v>
+      </c>
+      <c r="E207" s="64" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F207" s="210" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47127,7 +47139,7 @@
         <v>94</v>
       </c>
       <c r="D208" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E208" s="61" t="s">
         <v>1203</v>
@@ -47145,7 +47157,7 @@
         <v>94</v>
       </c>
       <c r="D209" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E209" s="61" t="s">
         <v>1203</v>
@@ -47163,7 +47175,7 @@
         <v>94</v>
       </c>
       <c r="D210" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E210" s="61" t="s">
         <v>1203</v>
@@ -47181,7 +47193,7 @@
         <v>94</v>
       </c>
       <c r="D211" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E211" s="61" t="s">
         <v>1203</v>
@@ -47199,7 +47211,7 @@
         <v>94</v>
       </c>
       <c r="D212" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E212" s="61" t="s">
         <v>1203</v>
@@ -47217,7 +47229,7 @@
         <v>94</v>
       </c>
       <c r="D213" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E213" s="61" t="s">
         <v>1203</v>
@@ -47235,7 +47247,7 @@
         <v>94</v>
       </c>
       <c r="D214" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E214" s="61" t="s">
         <v>1203</v>
@@ -47253,10 +47265,10 @@
         <v>94</v>
       </c>
       <c r="D215" s="57" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E215" s="61" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F215" s="99" t="s">
         <v>585</v>
@@ -47271,7 +47283,7 @@
         <v>94</v>
       </c>
       <c r="D216" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E216" s="61" t="s">
         <v>1206</v>
@@ -47289,7 +47301,7 @@
         <v>94</v>
       </c>
       <c r="D217" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E217" s="61" t="s">
         <v>1206</v>
@@ -47307,7 +47319,7 @@
         <v>94</v>
       </c>
       <c r="D218" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E218" s="61" t="s">
         <v>1206</v>
@@ -47325,10 +47337,10 @@
         <v>94</v>
       </c>
       <c r="D219" s="57" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E219" s="61" t="s">
-        <v>586</v>
+        <v>1206</v>
       </c>
       <c r="F219" s="99" t="s">
         <v>585</v>
@@ -47343,7 +47355,7 @@
         <v>94</v>
       </c>
       <c r="D220" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E220" s="61" t="s">
         <v>586</v>
@@ -47361,7 +47373,7 @@
         <v>94</v>
       </c>
       <c r="D221" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E221" s="61" t="s">
         <v>586</v>
@@ -47379,7 +47391,7 @@
         <v>94</v>
       </c>
       <c r="D222" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E222" s="61" t="s">
         <v>586</v>
@@ -47397,7 +47409,7 @@
         <v>94</v>
       </c>
       <c r="D223" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E223" s="61" t="s">
         <v>586</v>
@@ -47415,7 +47427,7 @@
         <v>94</v>
       </c>
       <c r="D224" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E224" s="61" t="s">
         <v>586</v>
@@ -47433,7 +47445,7 @@
         <v>94</v>
       </c>
       <c r="D225" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E225" s="61" t="s">
         <v>586</v>
@@ -47451,7 +47463,7 @@
         <v>94</v>
       </c>
       <c r="D226" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E226" s="61" t="s">
         <v>586</v>
@@ -47466,13 +47478,13 @@
       </c>
       <c r="B227" s="53"/>
       <c r="C227" s="57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D227" s="57" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E227" s="61" t="s">
-        <v>1203</v>
+        <v>586</v>
       </c>
       <c r="F227" s="99" t="s">
         <v>585</v>
@@ -47487,7 +47499,7 @@
         <v>97</v>
       </c>
       <c r="D228" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E228" s="61" t="s">
         <v>1203</v>
@@ -47505,7 +47517,7 @@
         <v>97</v>
       </c>
       <c r="D229" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E229" s="61" t="s">
         <v>1203</v>
@@ -47523,7 +47535,7 @@
         <v>97</v>
       </c>
       <c r="D230" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E230" s="61" t="s">
         <v>1203</v>
@@ -47541,7 +47553,7 @@
         <v>97</v>
       </c>
       <c r="D231" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E231" s="61" t="s">
         <v>1203</v>
@@ -47559,7 +47571,7 @@
         <v>97</v>
       </c>
       <c r="D232" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E232" s="61" t="s">
         <v>1203</v>
@@ -47577,7 +47589,7 @@
         <v>97</v>
       </c>
       <c r="D233" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E233" s="61" t="s">
         <v>1203</v>
@@ -47595,7 +47607,7 @@
         <v>97</v>
       </c>
       <c r="D234" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E234" s="61" t="s">
         <v>1203</v>
@@ -47613,10 +47625,10 @@
         <v>97</v>
       </c>
       <c r="D235" s="57" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E235" s="61" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F235" s="99" t="s">
         <v>585</v>
@@ -47631,7 +47643,7 @@
         <v>97</v>
       </c>
       <c r="D236" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E236" s="61" t="s">
         <v>1206</v>
@@ -47649,7 +47661,7 @@
         <v>97</v>
       </c>
       <c r="D237" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E237" s="61" t="s">
         <v>1206</v>
@@ -47667,7 +47679,7 @@
         <v>97</v>
       </c>
       <c r="D238" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E238" s="61" t="s">
         <v>1206</v>
@@ -47685,10 +47697,10 @@
         <v>97</v>
       </c>
       <c r="D239" s="57" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E239" s="61" t="s">
-        <v>586</v>
+        <v>1206</v>
       </c>
       <c r="F239" s="99" t="s">
         <v>585</v>
@@ -47703,7 +47715,7 @@
         <v>97</v>
       </c>
       <c r="D240" s="57" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E240" s="61" t="s">
         <v>586</v>
@@ -47721,7 +47733,7 @@
         <v>97</v>
       </c>
       <c r="D241" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E241" s="61" t="s">
         <v>586</v>
@@ -47739,7 +47751,7 @@
         <v>97</v>
       </c>
       <c r="D242" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E242" s="61" t="s">
         <v>586</v>
@@ -47757,7 +47769,7 @@
         <v>97</v>
       </c>
       <c r="D243" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E243" s="61" t="s">
         <v>586</v>
@@ -47775,7 +47787,7 @@
         <v>97</v>
       </c>
       <c r="D244" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E244" s="61" t="s">
         <v>586</v>
@@ -47793,7 +47805,7 @@
         <v>97</v>
       </c>
       <c r="D245" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E245" s="61" t="s">
         <v>586</v>
@@ -47811,7 +47823,7 @@
         <v>97</v>
       </c>
       <c r="D246" s="57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E246" s="61" t="s">
         <v>586</v>
@@ -47825,11 +47837,11 @@
         <v>42736</v>
       </c>
       <c r="B247" s="53"/>
-      <c r="C247" s="490" t="s">
-        <v>100</v>
-      </c>
-      <c r="D247" s="553" t="s">
-        <v>165</v>
+      <c r="C247" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D247" s="57" t="s">
+        <v>403</v>
       </c>
       <c r="E247" s="61" t="s">
         <v>586</v>
@@ -47843,11 +47855,11 @@
         <v>42736</v>
       </c>
       <c r="B248" s="53"/>
-      <c r="C248" s="57" t="s">
+      <c r="C248" s="490" t="s">
         <v>100</v>
       </c>
-      <c r="D248" s="554" t="s">
-        <v>169</v>
+      <c r="D248" s="553" t="s">
+        <v>165</v>
       </c>
       <c r="E248" s="61" t="s">
         <v>586</v>
@@ -47861,11 +47873,11 @@
         <v>42736</v>
       </c>
       <c r="B249" s="53"/>
-      <c r="C249" s="490" t="s">
+      <c r="C249" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D249" s="553" t="s">
-        <v>172</v>
+      <c r="D249" s="554" t="s">
+        <v>169</v>
       </c>
       <c r="E249" s="61" t="s">
         <v>586</v>
@@ -47879,11 +47891,11 @@
         <v>42736</v>
       </c>
       <c r="B250" s="53"/>
-      <c r="C250" s="57" t="s">
+      <c r="C250" s="490" t="s">
         <v>100</v>
       </c>
-      <c r="D250" s="487" t="s">
-        <v>241</v>
+      <c r="D250" s="553" t="s">
+        <v>172</v>
       </c>
       <c r="E250" s="61" t="s">
         <v>586</v>
@@ -47897,11 +47909,11 @@
         <v>42736</v>
       </c>
       <c r="B251" s="53"/>
-      <c r="C251" s="490" t="s">
+      <c r="C251" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D251" s="488" t="s">
-        <v>253</v>
+      <c r="D251" s="487" t="s">
+        <v>241</v>
       </c>
       <c r="E251" s="61" t="s">
         <v>586</v>
@@ -47915,11 +47927,11 @@
         <v>42736</v>
       </c>
       <c r="B252" s="53"/>
-      <c r="C252" s="57" t="s">
+      <c r="C252" s="490" t="s">
         <v>100</v>
       </c>
-      <c r="D252" s="54" t="s">
-        <v>181</v>
+      <c r="D252" s="488" t="s">
+        <v>253</v>
       </c>
       <c r="E252" s="61" t="s">
         <v>586</v>
@@ -47928,21 +47940,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A253" s="534">
-        <v>42736</v>
-      </c>
-      <c r="B253" s="535"/>
-      <c r="C253" s="515" t="s">
-        <v>103</v>
-      </c>
-      <c r="D253" s="495" t="s">
-        <v>165</v>
-      </c>
-      <c r="E253" s="536" t="s">
+    <row r="253" spans="1:6" ht="20" customHeight="1">
+      <c r="A253" s="207">
+        <v>42736</v>
+      </c>
+      <c r="B253" s="53"/>
+      <c r="C253" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D253" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E253" s="61" t="s">
         <v>586</v>
       </c>
-      <c r="F253" s="537" t="s">
+      <c r="F253" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47955,7 +47967,7 @@
         <v>103</v>
       </c>
       <c r="D254" s="495" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E254" s="536" t="s">
         <v>586</v>
@@ -47973,7 +47985,7 @@
         <v>103</v>
       </c>
       <c r="D255" s="495" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="E255" s="536" t="s">
         <v>586</v>
@@ -47991,7 +48003,7 @@
         <v>103</v>
       </c>
       <c r="D256" s="495" t="s">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="E256" s="536" t="s">
         <v>586</v>
@@ -48004,17 +48016,17 @@
       <c r="A257" s="534">
         <v>42736</v>
       </c>
-      <c r="B257" s="534"/>
-      <c r="C257" s="534" t="s">
+      <c r="B257" s="535"/>
+      <c r="C257" s="515" t="s">
         <v>103</v>
       </c>
-      <c r="D257" s="534" t="s">
-        <v>406</v>
-      </c>
-      <c r="E257" s="534" t="s">
+      <c r="D257" s="495" t="s">
+        <v>404</v>
+      </c>
+      <c r="E257" s="536" t="s">
         <v>586</v>
       </c>
-      <c r="F257" s="534" t="s">
+      <c r="F257" s="537" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48027,7 +48039,7 @@
         <v>103</v>
       </c>
       <c r="D258" s="534" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E258" s="534" t="s">
         <v>586</v>
@@ -48036,7 +48048,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
+    <row r="259" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A259" s="534">
         <v>42736</v>
       </c>
@@ -48045,7 +48057,7 @@
         <v>103</v>
       </c>
       <c r="D259" s="534" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E259" s="534" t="s">
         <v>586</v>
@@ -48063,7 +48075,7 @@
         <v>103</v>
       </c>
       <c r="D260" s="534" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E260" s="534" t="s">
         <v>586</v>
@@ -48072,21 +48084,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A261" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B261" s="53"/>
-      <c r="C261" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D261" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E261" s="72" t="s">
+    <row r="261" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A261" s="534">
+        <v>42736</v>
+      </c>
+      <c r="B261" s="534"/>
+      <c r="C261" s="534" t="s">
+        <v>103</v>
+      </c>
+      <c r="D261" s="534" t="s">
+        <v>414</v>
+      </c>
+      <c r="E261" s="534" t="s">
         <v>586</v>
       </c>
-      <c r="F261" s="99" t="s">
+      <c r="F261" s="534" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48099,13 +48111,13 @@
         <v>106</v>
       </c>
       <c r="D262" s="54" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="E262" s="72" t="s">
         <v>586</v>
       </c>
       <c r="F262" s="99" t="s">
-        <v>1207</v>
+        <v>585</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
@@ -48117,13 +48129,13 @@
         <v>106</v>
       </c>
       <c r="D263" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E263" s="72" t="s">
         <v>586</v>
       </c>
       <c r="F263" s="99" t="s">
-        <v>587</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
@@ -48134,14 +48146,14 @@
       <c r="C264" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D264" s="57" t="s">
-        <v>286</v>
+      <c r="D264" s="54" t="s">
+        <v>284</v>
       </c>
       <c r="E264" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="F264" s="220" t="s">
-        <v>585</v>
+      <c r="F264" s="99" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
@@ -48153,31 +48165,31 @@
         <v>106</v>
       </c>
       <c r="D265" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E265" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="F265" s="99" t="s">
+      <c r="F265" s="220" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A266" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B266" s="53"/>
+      <c r="C266" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D266" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="E266" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="F266" s="99" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" s="328" customFormat="1" ht="20" customHeight="1">
-      <c r="A266" s="587">
-        <v>42736</v>
-      </c>
-      <c r="B266" s="558"/>
-      <c r="C266" s="560" t="s">
-        <v>109</v>
-      </c>
-      <c r="D266" s="560" t="s">
-        <v>165</v>
-      </c>
-      <c r="E266" s="561" t="s">
-        <v>586</v>
-      </c>
-      <c r="F266" s="564" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="328" customFormat="1" ht="20" customHeight="1">
@@ -48192,27 +48204,27 @@
         <v>165</v>
       </c>
       <c r="E267" s="561" t="s">
-        <v>1203</v>
+        <v>586</v>
       </c>
       <c r="F267" s="564" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A268" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B268" s="53"/>
-      <c r="C268" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D268" s="54" t="s">
+    <row r="268" spans="1:6" s="328" customFormat="1" ht="20" customHeight="1">
+      <c r="A268" s="587">
+        <v>42736</v>
+      </c>
+      <c r="B268" s="558"/>
+      <c r="C268" s="560" t="s">
+        <v>109</v>
+      </c>
+      <c r="D268" s="560" t="s">
         <v>165</v>
       </c>
-      <c r="E268" s="72" t="s">
-        <v>586</v>
-      </c>
-      <c r="F268" s="99" t="s">
+      <c r="E268" s="561" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F268" s="564" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48222,7 +48234,7 @@
       </c>
       <c r="B269" s="53"/>
       <c r="C269" s="57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D269" s="54" t="s">
         <v>165</v>
@@ -48240,7 +48252,7 @@
       </c>
       <c r="B270" s="53"/>
       <c r="C270" s="57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D270" s="54" t="s">
         <v>165</v>
@@ -48249,6 +48261,24 @@
         <v>586</v>
       </c>
       <c r="F270" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A271" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B271" s="53"/>
+      <c r="C271" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D271" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E271" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="F271" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48578,10 +48608,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK96"/>
+  <dimension ref="A1:EK99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -48694,11 +48724,11 @@
       <c r="C6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="E6" s="164" t="s">
-        <v>1220</v>
+      <c r="D6" s="57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>1205</v>
       </c>
       <c r="F6" s="99" t="s">
         <v>585</v>
@@ -48712,11 +48742,11 @@
       <c r="C7" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>666</v>
-      </c>
-      <c r="E7" s="114" t="s">
-        <v>586</v>
+      <c r="D7" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>1220</v>
       </c>
       <c r="F7" s="99" t="s">
         <v>585</v>
@@ -48734,7 +48764,7 @@
         <v>666</v>
       </c>
       <c r="E8" s="114" t="s">
-        <v>1203</v>
+        <v>586</v>
       </c>
       <c r="F8" s="99" t="s">
         <v>585</v>
@@ -48746,13 +48776,13 @@
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>665</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>666</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>586</v>
+        <v>1203</v>
       </c>
       <c r="F9" s="99" t="s">
         <v>585</v>
@@ -48764,10 +48794,10 @@
       </c>
       <c r="B10" s="72"/>
       <c r="C10" s="54" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>924</v>
+        <v>1261</v>
       </c>
       <c r="E10" s="114" t="s">
         <v>586</v>
@@ -48781,34 +48811,34 @@
         <v>42736</v>
       </c>
       <c r="B11" s="72"/>
-      <c r="C11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>665</v>
+      <c r="C11" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>1261</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>586</v>
+        <v>1205</v>
       </c>
       <c r="F11" s="99" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A12" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>667</v>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>665</v>
       </c>
       <c r="E12" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48817,11 +48847,11 @@
         <v>42736</v>
       </c>
       <c r="B13" s="72"/>
-      <c r="C13" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="104" t="s">
-        <v>629</v>
+      <c r="C13" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>924</v>
       </c>
       <c r="E13" s="114" t="s">
         <v>586</v>
@@ -48835,11 +48865,11 @@
         <v>42736</v>
       </c>
       <c r="B14" s="72"/>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="104" t="s">
-        <v>931</v>
+      <c r="D14" s="54" t="s">
+        <v>665</v>
       </c>
       <c r="E14" s="114" t="s">
         <v>586</v>
@@ -48848,401 +48878,401 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="104" t="s">
+    <row r="15" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="104" t="s">
-        <v>933</v>
+      <c r="D15" s="102" t="s">
+        <v>667</v>
       </c>
       <c r="E15" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="75"/>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="72"/>
       <c r="C16" s="104" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>935</v>
+        <v>629</v>
       </c>
       <c r="E16" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="99" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:141" s="224" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="244">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="225" t="s">
+    <row r="17" spans="1:141" ht="20" customHeight="1">
+      <c r="A17" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>931</v>
+      </c>
+      <c r="E17" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F17" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:141" ht="20" customHeight="1">
+      <c r="A18" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>933</v>
+      </c>
+      <c r="E18" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F18" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>935</v>
+      </c>
+      <c r="E19" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:141" s="224" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="244">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="240"/>
+      <c r="C20" s="225" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="225" t="s">
+      <c r="D20" s="225" t="s">
         <v>662</v>
       </c>
-      <c r="E17" s="253" t="s">
+      <c r="E20" s="253" t="s">
         <v>586</v>
       </c>
-      <c r="F17" s="252" t="s">
+      <c r="F20" s="252" t="s">
         <v>585</v>
       </c>
-      <c r="G17" s="274"/>
-      <c r="H17" s="274"/>
-      <c r="I17" s="274"/>
-      <c r="J17" s="274"/>
-      <c r="K17" s="274"/>
-      <c r="L17" s="274"/>
-      <c r="M17" s="274"/>
-      <c r="N17" s="274"/>
-      <c r="O17" s="274"/>
-      <c r="P17" s="274"/>
-      <c r="Q17" s="274"/>
-      <c r="R17" s="274"/>
-      <c r="S17" s="274"/>
-      <c r="T17" s="274"/>
-      <c r="U17" s="274"/>
-      <c r="V17" s="274"/>
-      <c r="W17" s="274"/>
-      <c r="X17" s="274"/>
-      <c r="Y17" s="274"/>
-      <c r="Z17" s="274"/>
-      <c r="AA17" s="274"/>
-      <c r="AB17" s="274"/>
-      <c r="AC17" s="274"/>
-      <c r="AD17" s="274"/>
-      <c r="AE17" s="274"/>
-      <c r="AF17" s="274"/>
-      <c r="AG17" s="274"/>
-      <c r="AH17" s="274"/>
-      <c r="AI17" s="274"/>
-      <c r="AJ17" s="274"/>
-      <c r="AK17" s="274"/>
-      <c r="AL17" s="274"/>
-      <c r="AM17" s="274"/>
-      <c r="AN17" s="274"/>
-      <c r="AO17" s="274"/>
-      <c r="AP17" s="274"/>
-      <c r="AQ17" s="274"/>
-      <c r="AR17" s="274"/>
-      <c r="AS17" s="274"/>
-      <c r="AT17" s="274"/>
-      <c r="AU17" s="274"/>
-      <c r="AV17" s="274"/>
-      <c r="AW17" s="274"/>
-      <c r="AX17" s="274"/>
-      <c r="AY17" s="274"/>
-      <c r="AZ17" s="274"/>
-      <c r="BA17" s="274"/>
-      <c r="BB17" s="274"/>
-      <c r="BC17" s="274"/>
-      <c r="BD17" s="274"/>
-      <c r="BE17" s="274"/>
-      <c r="BF17" s="274"/>
-      <c r="BG17" s="274"/>
-      <c r="BH17" s="274"/>
-      <c r="BI17" s="274"/>
-      <c r="BJ17" s="274"/>
-      <c r="BK17" s="274"/>
-      <c r="BL17" s="274"/>
-      <c r="BM17" s="274"/>
-      <c r="BN17" s="274"/>
-      <c r="BO17" s="274"/>
-      <c r="BP17" s="274"/>
-      <c r="BQ17" s="274"/>
-      <c r="BR17" s="274"/>
-      <c r="BS17" s="274"/>
-      <c r="BT17" s="274"/>
-      <c r="BU17" s="274"/>
-      <c r="BV17" s="274"/>
-      <c r="BW17" s="274"/>
-      <c r="BX17" s="274"/>
-      <c r="BY17" s="274"/>
-      <c r="BZ17" s="274"/>
-      <c r="CA17" s="274"/>
-      <c r="CB17" s="274"/>
-      <c r="CC17" s="274"/>
-      <c r="CD17" s="274"/>
-      <c r="CE17" s="274"/>
-      <c r="CF17" s="274"/>
-      <c r="CG17" s="274"/>
-      <c r="CH17" s="274"/>
-      <c r="CI17" s="274"/>
-      <c r="CJ17" s="274"/>
-      <c r="CK17" s="274"/>
-      <c r="CL17" s="274"/>
-      <c r="CM17" s="274"/>
-      <c r="CN17" s="274"/>
-      <c r="CO17" s="274"/>
-      <c r="CP17" s="274"/>
-      <c r="CQ17" s="274"/>
-      <c r="CR17" s="274"/>
-      <c r="CS17" s="274"/>
-      <c r="CT17" s="274"/>
-      <c r="CU17" s="274"/>
-      <c r="CV17" s="274"/>
-      <c r="CW17" s="274"/>
-      <c r="CX17" s="274"/>
-      <c r="CY17" s="274"/>
-      <c r="CZ17" s="274"/>
-      <c r="DA17" s="274"/>
-      <c r="DB17" s="274"/>
-      <c r="DC17" s="274"/>
-      <c r="DD17" s="274"/>
-      <c r="DE17" s="274"/>
-      <c r="DF17" s="274"/>
-      <c r="DG17" s="274"/>
-      <c r="DH17" s="274"/>
-      <c r="DI17" s="274"/>
-      <c r="DJ17" s="274"/>
-      <c r="DK17" s="274"/>
-      <c r="DL17" s="274"/>
-      <c r="DM17" s="274"/>
-      <c r="DN17" s="274"/>
-      <c r="DO17" s="274"/>
-      <c r="DP17" s="274"/>
-      <c r="DQ17" s="274"/>
-      <c r="DR17" s="274"/>
-      <c r="DS17" s="274"/>
-      <c r="DT17" s="274"/>
-      <c r="DU17" s="274"/>
-      <c r="DV17" s="274"/>
-      <c r="DW17" s="274"/>
-      <c r="DX17" s="274"/>
-      <c r="DY17" s="274"/>
-      <c r="DZ17" s="274"/>
-      <c r="EA17" s="274"/>
-      <c r="EB17" s="274"/>
-      <c r="EC17" s="274"/>
-      <c r="ED17" s="274"/>
-      <c r="EE17" s="274"/>
-      <c r="EF17" s="274"/>
-      <c r="EG17" s="274"/>
-      <c r="EH17" s="274"/>
-      <c r="EI17" s="274"/>
-      <c r="EJ17" s="274"/>
-      <c r="EK17" s="274"/>
-    </row>
-    <row r="18" spans="1:141" s="224" customFormat="1" ht="20" customHeight="1">
-      <c r="A18" s="222">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="223"/>
-      <c r="C18" s="225" t="s">
+      <c r="G20" s="274"/>
+      <c r="H20" s="274"/>
+      <c r="I20" s="274"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="274"/>
+      <c r="L20" s="274"/>
+      <c r="M20" s="274"/>
+      <c r="N20" s="274"/>
+      <c r="O20" s="274"/>
+      <c r="P20" s="274"/>
+      <c r="Q20" s="274"/>
+      <c r="R20" s="274"/>
+      <c r="S20" s="274"/>
+      <c r="T20" s="274"/>
+      <c r="U20" s="274"/>
+      <c r="V20" s="274"/>
+      <c r="W20" s="274"/>
+      <c r="X20" s="274"/>
+      <c r="Y20" s="274"/>
+      <c r="Z20" s="274"/>
+      <c r="AA20" s="274"/>
+      <c r="AB20" s="274"/>
+      <c r="AC20" s="274"/>
+      <c r="AD20" s="274"/>
+      <c r="AE20" s="274"/>
+      <c r="AF20" s="274"/>
+      <c r="AG20" s="274"/>
+      <c r="AH20" s="274"/>
+      <c r="AI20" s="274"/>
+      <c r="AJ20" s="274"/>
+      <c r="AK20" s="274"/>
+      <c r="AL20" s="274"/>
+      <c r="AM20" s="274"/>
+      <c r="AN20" s="274"/>
+      <c r="AO20" s="274"/>
+      <c r="AP20" s="274"/>
+      <c r="AQ20" s="274"/>
+      <c r="AR20" s="274"/>
+      <c r="AS20" s="274"/>
+      <c r="AT20" s="274"/>
+      <c r="AU20" s="274"/>
+      <c r="AV20" s="274"/>
+      <c r="AW20" s="274"/>
+      <c r="AX20" s="274"/>
+      <c r="AY20" s="274"/>
+      <c r="AZ20" s="274"/>
+      <c r="BA20" s="274"/>
+      <c r="BB20" s="274"/>
+      <c r="BC20" s="274"/>
+      <c r="BD20" s="274"/>
+      <c r="BE20" s="274"/>
+      <c r="BF20" s="274"/>
+      <c r="BG20" s="274"/>
+      <c r="BH20" s="274"/>
+      <c r="BI20" s="274"/>
+      <c r="BJ20" s="274"/>
+      <c r="BK20" s="274"/>
+      <c r="BL20" s="274"/>
+      <c r="BM20" s="274"/>
+      <c r="BN20" s="274"/>
+      <c r="BO20" s="274"/>
+      <c r="BP20" s="274"/>
+      <c r="BQ20" s="274"/>
+      <c r="BR20" s="274"/>
+      <c r="BS20" s="274"/>
+      <c r="BT20" s="274"/>
+      <c r="BU20" s="274"/>
+      <c r="BV20" s="274"/>
+      <c r="BW20" s="274"/>
+      <c r="BX20" s="274"/>
+      <c r="BY20" s="274"/>
+      <c r="BZ20" s="274"/>
+      <c r="CA20" s="274"/>
+      <c r="CB20" s="274"/>
+      <c r="CC20" s="274"/>
+      <c r="CD20" s="274"/>
+      <c r="CE20" s="274"/>
+      <c r="CF20" s="274"/>
+      <c r="CG20" s="274"/>
+      <c r="CH20" s="274"/>
+      <c r="CI20" s="274"/>
+      <c r="CJ20" s="274"/>
+      <c r="CK20" s="274"/>
+      <c r="CL20" s="274"/>
+      <c r="CM20" s="274"/>
+      <c r="CN20" s="274"/>
+      <c r="CO20" s="274"/>
+      <c r="CP20" s="274"/>
+      <c r="CQ20" s="274"/>
+      <c r="CR20" s="274"/>
+      <c r="CS20" s="274"/>
+      <c r="CT20" s="274"/>
+      <c r="CU20" s="274"/>
+      <c r="CV20" s="274"/>
+      <c r="CW20" s="274"/>
+      <c r="CX20" s="274"/>
+      <c r="CY20" s="274"/>
+      <c r="CZ20" s="274"/>
+      <c r="DA20" s="274"/>
+      <c r="DB20" s="274"/>
+      <c r="DC20" s="274"/>
+      <c r="DD20" s="274"/>
+      <c r="DE20" s="274"/>
+      <c r="DF20" s="274"/>
+      <c r="DG20" s="274"/>
+      <c r="DH20" s="274"/>
+      <c r="DI20" s="274"/>
+      <c r="DJ20" s="274"/>
+      <c r="DK20" s="274"/>
+      <c r="DL20" s="274"/>
+      <c r="DM20" s="274"/>
+      <c r="DN20" s="274"/>
+      <c r="DO20" s="274"/>
+      <c r="DP20" s="274"/>
+      <c r="DQ20" s="274"/>
+      <c r="DR20" s="274"/>
+      <c r="DS20" s="274"/>
+      <c r="DT20" s="274"/>
+      <c r="DU20" s="274"/>
+      <c r="DV20" s="274"/>
+      <c r="DW20" s="274"/>
+      <c r="DX20" s="274"/>
+      <c r="DY20" s="274"/>
+      <c r="DZ20" s="274"/>
+      <c r="EA20" s="274"/>
+      <c r="EB20" s="274"/>
+      <c r="EC20" s="274"/>
+      <c r="ED20" s="274"/>
+      <c r="EE20" s="274"/>
+      <c r="EF20" s="274"/>
+      <c r="EG20" s="274"/>
+      <c r="EH20" s="274"/>
+      <c r="EI20" s="274"/>
+      <c r="EJ20" s="274"/>
+      <c r="EK20" s="274"/>
+    </row>
+    <row r="21" spans="1:141" s="224" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="222">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="223"/>
+      <c r="C21" s="225" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="225" t="s">
+      <c r="D21" s="225" t="s">
         <v>645</v>
       </c>
-      <c r="E18" s="253" t="s">
+      <c r="E21" s="253" t="s">
         <v>586</v>
       </c>
-      <c r="F18" s="226" t="s">
+      <c r="F21" s="226" t="s">
         <v>585</v>
       </c>
-      <c r="G18" s="274"/>
-      <c r="H18" s="274"/>
-      <c r="I18" s="274"/>
-      <c r="J18" s="274"/>
-      <c r="K18" s="274"/>
-      <c r="L18" s="274"/>
-      <c r="M18" s="274"/>
-      <c r="N18" s="274"/>
-      <c r="O18" s="274"/>
-      <c r="P18" s="274"/>
-      <c r="Q18" s="274"/>
-      <c r="R18" s="274"/>
-      <c r="S18" s="274"/>
-      <c r="T18" s="274"/>
-      <c r="U18" s="274"/>
-      <c r="V18" s="274"/>
-      <c r="W18" s="274"/>
-      <c r="X18" s="274"/>
-      <c r="Y18" s="274"/>
-      <c r="Z18" s="274"/>
-      <c r="AA18" s="274"/>
-      <c r="AB18" s="274"/>
-      <c r="AC18" s="274"/>
-      <c r="AD18" s="274"/>
-      <c r="AE18" s="274"/>
-      <c r="AF18" s="274"/>
-      <c r="AG18" s="274"/>
-      <c r="AH18" s="274"/>
-      <c r="AI18" s="274"/>
-      <c r="AJ18" s="274"/>
-      <c r="AK18" s="274"/>
-      <c r="AL18" s="274"/>
-      <c r="AM18" s="274"/>
-      <c r="AN18" s="274"/>
-      <c r="AO18" s="274"/>
-      <c r="AP18" s="274"/>
-      <c r="AQ18" s="274"/>
-      <c r="AR18" s="274"/>
-      <c r="AS18" s="274"/>
-      <c r="AT18" s="274"/>
-      <c r="AU18" s="274"/>
-      <c r="AV18" s="274"/>
-      <c r="AW18" s="274"/>
-      <c r="AX18" s="274"/>
-      <c r="AY18" s="274"/>
-      <c r="AZ18" s="274"/>
-      <c r="BA18" s="274"/>
-      <c r="BB18" s="274"/>
-      <c r="BC18" s="274"/>
-      <c r="BD18" s="274"/>
-      <c r="BE18" s="274"/>
-      <c r="BF18" s="274"/>
-      <c r="BG18" s="274"/>
-      <c r="BH18" s="274"/>
-      <c r="BI18" s="274"/>
-      <c r="BJ18" s="274"/>
-      <c r="BK18" s="274"/>
-      <c r="BL18" s="274"/>
-      <c r="BM18" s="274"/>
-      <c r="BN18" s="274"/>
-      <c r="BO18" s="274"/>
-      <c r="BP18" s="274"/>
-      <c r="BQ18" s="274"/>
-      <c r="BR18" s="274"/>
-      <c r="BS18" s="274"/>
-      <c r="BT18" s="274"/>
-      <c r="BU18" s="274"/>
-      <c r="BV18" s="274"/>
-      <c r="BW18" s="274"/>
-      <c r="BX18" s="274"/>
-      <c r="BY18" s="274"/>
-      <c r="BZ18" s="274"/>
-      <c r="CA18" s="274"/>
-      <c r="CB18" s="274"/>
-      <c r="CC18" s="274"/>
-      <c r="CD18" s="274"/>
-      <c r="CE18" s="274"/>
-      <c r="CF18" s="274"/>
-      <c r="CG18" s="274"/>
-      <c r="CH18" s="274"/>
-      <c r="CI18" s="274"/>
-      <c r="CJ18" s="274"/>
-      <c r="CK18" s="274"/>
-      <c r="CL18" s="274"/>
-      <c r="CM18" s="274"/>
-      <c r="CN18" s="274"/>
-      <c r="CO18" s="274"/>
-      <c r="CP18" s="274"/>
-      <c r="CQ18" s="274"/>
-      <c r="CR18" s="274"/>
-      <c r="CS18" s="274"/>
-      <c r="CT18" s="274"/>
-      <c r="CU18" s="274"/>
-      <c r="CV18" s="274"/>
-      <c r="CW18" s="274"/>
-      <c r="CX18" s="274"/>
-      <c r="CY18" s="274"/>
-      <c r="CZ18" s="274"/>
-      <c r="DA18" s="274"/>
-      <c r="DB18" s="274"/>
-      <c r="DC18" s="274"/>
-      <c r="DD18" s="274"/>
-      <c r="DE18" s="274"/>
-      <c r="DF18" s="274"/>
-      <c r="DG18" s="274"/>
-      <c r="DH18" s="274"/>
-      <c r="DI18" s="274"/>
-      <c r="DJ18" s="274"/>
-      <c r="DK18" s="274"/>
-      <c r="DL18" s="274"/>
-      <c r="DM18" s="274"/>
-      <c r="DN18" s="274"/>
-      <c r="DO18" s="274"/>
-      <c r="DP18" s="274"/>
-      <c r="DQ18" s="274"/>
-      <c r="DR18" s="274"/>
-      <c r="DS18" s="274"/>
-      <c r="DT18" s="274"/>
-      <c r="DU18" s="274"/>
-      <c r="DV18" s="274"/>
-      <c r="DW18" s="274"/>
-      <c r="DX18" s="274"/>
-      <c r="DY18" s="274"/>
-      <c r="DZ18" s="274"/>
-      <c r="EA18" s="274"/>
-      <c r="EB18" s="274"/>
-      <c r="EC18" s="274"/>
-      <c r="ED18" s="274"/>
-      <c r="EE18" s="274"/>
-      <c r="EF18" s="274"/>
-      <c r="EG18" s="274"/>
-      <c r="EH18" s="274"/>
-      <c r="EI18" s="274"/>
-      <c r="EJ18" s="274"/>
-      <c r="EK18" s="274"/>
-    </row>
-    <row r="19" spans="1:141" ht="20" customHeight="1">
-      <c r="A19" s="303">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="306"/>
-      <c r="C19" s="305" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="270" t="s">
-        <v>993</v>
-      </c>
-      <c r="E19" s="309" t="s">
-        <v>586</v>
-      </c>
-      <c r="F19" s="310" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:141" ht="20" customHeight="1">
-      <c r="A20" s="303">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="306"/>
-      <c r="C20" s="305" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="270" t="s">
-        <v>673</v>
-      </c>
-      <c r="E20" s="309" t="s">
-        <v>586</v>
-      </c>
-      <c r="F20" s="310" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:141" ht="20" customHeight="1">
-      <c r="A21" s="303">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="306"/>
-      <c r="C21" s="305" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="270" t="s">
-        <v>674</v>
-      </c>
-      <c r="E21" s="309" t="s">
-        <v>586</v>
-      </c>
-      <c r="F21" s="289" t="s">
-        <v>585</v>
-      </c>
+      <c r="G21" s="274"/>
+      <c r="H21" s="274"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="274"/>
+      <c r="L21" s="274"/>
+      <c r="M21" s="274"/>
+      <c r="N21" s="274"/>
+      <c r="O21" s="274"/>
+      <c r="P21" s="274"/>
+      <c r="Q21" s="274"/>
+      <c r="R21" s="274"/>
+      <c r="S21" s="274"/>
+      <c r="T21" s="274"/>
+      <c r="U21" s="274"/>
+      <c r="V21" s="274"/>
+      <c r="W21" s="274"/>
+      <c r="X21" s="274"/>
+      <c r="Y21" s="274"/>
+      <c r="Z21" s="274"/>
+      <c r="AA21" s="274"/>
+      <c r="AB21" s="274"/>
+      <c r="AC21" s="274"/>
+      <c r="AD21" s="274"/>
+      <c r="AE21" s="274"/>
+      <c r="AF21" s="274"/>
+      <c r="AG21" s="274"/>
+      <c r="AH21" s="274"/>
+      <c r="AI21" s="274"/>
+      <c r="AJ21" s="274"/>
+      <c r="AK21" s="274"/>
+      <c r="AL21" s="274"/>
+      <c r="AM21" s="274"/>
+      <c r="AN21" s="274"/>
+      <c r="AO21" s="274"/>
+      <c r="AP21" s="274"/>
+      <c r="AQ21" s="274"/>
+      <c r="AR21" s="274"/>
+      <c r="AS21" s="274"/>
+      <c r="AT21" s="274"/>
+      <c r="AU21" s="274"/>
+      <c r="AV21" s="274"/>
+      <c r="AW21" s="274"/>
+      <c r="AX21" s="274"/>
+      <c r="AY21" s="274"/>
+      <c r="AZ21" s="274"/>
+      <c r="BA21" s="274"/>
+      <c r="BB21" s="274"/>
+      <c r="BC21" s="274"/>
+      <c r="BD21" s="274"/>
+      <c r="BE21" s="274"/>
+      <c r="BF21" s="274"/>
+      <c r="BG21" s="274"/>
+      <c r="BH21" s="274"/>
+      <c r="BI21" s="274"/>
+      <c r="BJ21" s="274"/>
+      <c r="BK21" s="274"/>
+      <c r="BL21" s="274"/>
+      <c r="BM21" s="274"/>
+      <c r="BN21" s="274"/>
+      <c r="BO21" s="274"/>
+      <c r="BP21" s="274"/>
+      <c r="BQ21" s="274"/>
+      <c r="BR21" s="274"/>
+      <c r="BS21" s="274"/>
+      <c r="BT21" s="274"/>
+      <c r="BU21" s="274"/>
+      <c r="BV21" s="274"/>
+      <c r="BW21" s="274"/>
+      <c r="BX21" s="274"/>
+      <c r="BY21" s="274"/>
+      <c r="BZ21" s="274"/>
+      <c r="CA21" s="274"/>
+      <c r="CB21" s="274"/>
+      <c r="CC21" s="274"/>
+      <c r="CD21" s="274"/>
+      <c r="CE21" s="274"/>
+      <c r="CF21" s="274"/>
+      <c r="CG21" s="274"/>
+      <c r="CH21" s="274"/>
+      <c r="CI21" s="274"/>
+      <c r="CJ21" s="274"/>
+      <c r="CK21" s="274"/>
+      <c r="CL21" s="274"/>
+      <c r="CM21" s="274"/>
+      <c r="CN21" s="274"/>
+      <c r="CO21" s="274"/>
+      <c r="CP21" s="274"/>
+      <c r="CQ21" s="274"/>
+      <c r="CR21" s="274"/>
+      <c r="CS21" s="274"/>
+      <c r="CT21" s="274"/>
+      <c r="CU21" s="274"/>
+      <c r="CV21" s="274"/>
+      <c r="CW21" s="274"/>
+      <c r="CX21" s="274"/>
+      <c r="CY21" s="274"/>
+      <c r="CZ21" s="274"/>
+      <c r="DA21" s="274"/>
+      <c r="DB21" s="274"/>
+      <c r="DC21" s="274"/>
+      <c r="DD21" s="274"/>
+      <c r="DE21" s="274"/>
+      <c r="DF21" s="274"/>
+      <c r="DG21" s="274"/>
+      <c r="DH21" s="274"/>
+      <c r="DI21" s="274"/>
+      <c r="DJ21" s="274"/>
+      <c r="DK21" s="274"/>
+      <c r="DL21" s="274"/>
+      <c r="DM21" s="274"/>
+      <c r="DN21" s="274"/>
+      <c r="DO21" s="274"/>
+      <c r="DP21" s="274"/>
+      <c r="DQ21" s="274"/>
+      <c r="DR21" s="274"/>
+      <c r="DS21" s="274"/>
+      <c r="DT21" s="274"/>
+      <c r="DU21" s="274"/>
+      <c r="DV21" s="274"/>
+      <c r="DW21" s="274"/>
+      <c r="DX21" s="274"/>
+      <c r="DY21" s="274"/>
+      <c r="DZ21" s="274"/>
+      <c r="EA21" s="274"/>
+      <c r="EB21" s="274"/>
+      <c r="EC21" s="274"/>
+      <c r="ED21" s="274"/>
+      <c r="EE21" s="274"/>
+      <c r="EF21" s="274"/>
+      <c r="EG21" s="274"/>
+      <c r="EH21" s="274"/>
+      <c r="EI21" s="274"/>
+      <c r="EJ21" s="274"/>
+      <c r="EK21" s="274"/>
     </row>
     <row r="22" spans="1:141" ht="20" customHeight="1">
       <c r="A22" s="303">
@@ -49253,7 +49283,7 @@
         <v>85</v>
       </c>
       <c r="D22" s="270" t="s">
-        <v>675</v>
+        <v>993</v>
       </c>
       <c r="E22" s="309" t="s">
         <v>586</v>
@@ -49271,12 +49301,12 @@
         <v>85</v>
       </c>
       <c r="D23" s="270" t="s">
-        <v>998</v>
+        <v>673</v>
       </c>
       <c r="E23" s="309" t="s">
         <v>586</v>
       </c>
-      <c r="F23" s="289" t="s">
+      <c r="F23" s="310" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49289,12 +49319,12 @@
         <v>85</v>
       </c>
       <c r="D24" s="270" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E24" s="309" t="s">
         <v>586</v>
       </c>
-      <c r="F24" s="310" t="s">
+      <c r="F24" s="289" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49307,7 +49337,7 @@
         <v>85</v>
       </c>
       <c r="D25" s="270" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E25" s="309" t="s">
         <v>586</v>
@@ -49317,56 +49347,56 @@
       </c>
     </row>
     <row r="26" spans="1:141" ht="20" customHeight="1">
-      <c r="A26" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="E26" s="114" t="s">
+      <c r="A26" s="303">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="306"/>
+      <c r="C26" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="270" t="s">
+        <v>998</v>
+      </c>
+      <c r="E26" s="309" t="s">
         <v>586</v>
       </c>
-      <c r="F26" s="99" t="s">
+      <c r="F26" s="289" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:141" ht="20" customHeight="1">
-      <c r="A27" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="E27" s="114" t="s">
+      <c r="A27" s="303">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="306"/>
+      <c r="C27" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="270" t="s">
+        <v>677</v>
+      </c>
+      <c r="E27" s="309" t="s">
         <v>586</v>
       </c>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="310" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:141" ht="20" customHeight="1">
-      <c r="A28" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>938</v>
-      </c>
-      <c r="E28" s="114" t="s">
+      <c r="A28" s="303">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="306"/>
+      <c r="C28" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="270" t="s">
+        <v>682</v>
+      </c>
+      <c r="E28" s="309" t="s">
         <v>586</v>
       </c>
-      <c r="F28" s="99" t="s">
+      <c r="F28" s="310" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49376,10 +49406,10 @@
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>940</v>
+        <v>665</v>
       </c>
       <c r="E29" s="114" t="s">
         <v>586</v>
@@ -49397,7 +49427,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>942</v>
+        <v>665</v>
       </c>
       <c r="E30" s="114" t="s">
         <v>586</v>
@@ -49415,7 +49445,7 @@
         <v>55</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E31" s="114" t="s">
         <v>586</v>
@@ -49424,16 +49454,16 @@
         <v>585</v>
       </c>
     </row>
-    <row r="32" spans="1:141" s="18" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:141" ht="20" customHeight="1">
       <c r="A32" s="52">
         <v>42736</v>
       </c>
       <c r="B32" s="72"/>
-      <c r="C32" s="54" t="s">
-        <v>58</v>
+      <c r="C32" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>665</v>
+        <v>940</v>
       </c>
       <c r="E32" s="114" t="s">
         <v>586</v>
@@ -49447,11 +49477,11 @@
         <v>42736</v>
       </c>
       <c r="B33" s="72"/>
-      <c r="C33" s="54" t="s">
-        <v>61</v>
+      <c r="C33" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>665</v>
+        <v>942</v>
       </c>
       <c r="E33" s="114" t="s">
         <v>586</v>
@@ -49461,60 +49491,60 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
-      <c r="A34" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>947</v>
+      <c r="A34" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>944</v>
       </c>
       <c r="E34" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="99" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
-      <c r="A35" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>951</v>
+    <row r="35" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A35" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="72"/>
+      <c r="C35" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>665</v>
       </c>
       <c r="E35" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F35" s="103" t="s">
+      <c r="F35" s="99" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
-      <c r="A36" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="60" t="s">
+      <c r="A36" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="60" t="s">
-        <v>949</v>
+      <c r="D36" s="54" t="s">
+        <v>665</v>
       </c>
       <c r="E36" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F36" s="103" t="s">
+      <c r="F36" s="99" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="58">
         <v>42736</v>
       </c>
@@ -49523,7 +49553,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E37" s="114" t="s">
         <v>586</v>
@@ -49532,34 +49562,34 @@
         <v>585</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A38" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>665</v>
+    <row r="38" spans="1:6" ht="20" customHeight="1">
+      <c r="A38" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>951</v>
       </c>
       <c r="E38" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F38" s="99" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="F38" s="103" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="58">
         <v>42736</v>
       </c>
       <c r="B39" s="75"/>
-      <c r="C39" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>665</v>
+      <c r="C39" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>949</v>
       </c>
       <c r="E39" s="114" t="s">
         <v>586</v>
@@ -49573,11 +49603,11 @@
         <v>42736</v>
       </c>
       <c r="B40" s="75"/>
-      <c r="C40" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="102" t="s">
-        <v>955</v>
+      <c r="C40" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>953</v>
       </c>
       <c r="E40" s="114" t="s">
         <v>586</v>
@@ -49587,21 +49617,21 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A41" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="102" t="s">
-        <v>959</v>
+      <c r="A41" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="72"/>
+      <c r="C41" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>665</v>
       </c>
       <c r="E41" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F41" s="103" t="s">
-        <v>585</v>
+      <c r="F41" s="99" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
@@ -49609,10 +49639,10 @@
         <v>42736</v>
       </c>
       <c r="B42" s="75"/>
-      <c r="C42" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="60" t="s">
+      <c r="C42" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="57" t="s">
         <v>665</v>
       </c>
       <c r="E42" s="114" t="s">
@@ -49627,14 +49657,14 @@
         <v>42736</v>
       </c>
       <c r="B43" s="75"/>
-      <c r="C43" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="73" t="s">
-        <v>665</v>
-      </c>
-      <c r="E43" s="75" t="s">
-        <v>602</v>
+      <c r="C43" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>955</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>586</v>
       </c>
       <c r="F43" s="103" t="s">
         <v>585</v>
@@ -49645,17 +49675,17 @@
         <v>42736</v>
       </c>
       <c r="B44" s="75"/>
-      <c r="C44" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="73" t="s">
-        <v>671</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>602</v>
+      <c r="C44" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>959</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>586</v>
       </c>
       <c r="F44" s="103" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
@@ -49663,14 +49693,14 @@
         <v>42736</v>
       </c>
       <c r="B45" s="75"/>
-      <c r="C45" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="73" t="s">
+      <c r="C45" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="60" t="s">
         <v>665</v>
       </c>
-      <c r="E45" s="75" t="s">
-        <v>600</v>
+      <c r="E45" s="114" t="s">
+        <v>586</v>
       </c>
       <c r="F45" s="103" t="s">
         <v>585</v>
@@ -49685,16 +49715,16 @@
         <v>73</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F46" s="103" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="58">
         <v>42736</v>
       </c>
@@ -49702,17 +49732,17 @@
       <c r="C47" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="60" t="s">
-        <v>672</v>
+      <c r="D47" s="73" t="s">
+        <v>671</v>
       </c>
       <c r="E47" s="75" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="58">
         <v>42736</v>
       </c>
@@ -49720,32 +49750,32 @@
       <c r="C48" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="60" t="s">
-        <v>672</v>
+      <c r="D48" s="73" t="s">
+        <v>665</v>
       </c>
       <c r="E48" s="75" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F48" s="103" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="58">
         <v>42736</v>
       </c>
       <c r="B49" s="75"/>
       <c r="C49" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>665</v>
+        <v>73</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>671</v>
       </c>
       <c r="E49" s="75" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F49" s="103" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20" customHeight="1">
@@ -49754,34 +49784,34 @@
       </c>
       <c r="B50" s="75"/>
       <c r="C50" s="60" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="E50" s="75" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F50" s="103" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20" customHeight="1">
       <c r="A51" s="58">
         <v>42736</v>
       </c>
       <c r="B51" s="75"/>
       <c r="C51" s="60" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>989</v>
+        <v>672</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="F51" s="103" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20" customHeight="1">
@@ -49789,13 +49819,13 @@
         <v>42736</v>
       </c>
       <c r="B52" s="75"/>
-      <c r="C52" s="57" t="s">
-        <v>76</v>
+      <c r="C52" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="D52" s="60" t="s">
         <v>665</v>
       </c>
-      <c r="E52" s="114" t="s">
+      <c r="E52" s="75" t="s">
         <v>586</v>
       </c>
       <c r="F52" s="103" t="s">
@@ -49807,70 +49837,70 @@
         <v>42736</v>
       </c>
       <c r="B53" s="75"/>
-      <c r="C53" s="57" t="s">
-        <v>76</v>
+      <c r="C53" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>967</v>
-      </c>
-      <c r="E53" s="114" t="s">
+        <v>666</v>
+      </c>
+      <c r="E53" s="75" t="s">
         <v>586</v>
       </c>
       <c r="F53" s="103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1">
-      <c r="A54" s="63">
-        <v>42736</v>
-      </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="65" t="s">
+    <row r="54" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A54" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="75"/>
+      <c r="C54" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>989</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="F54" s="103" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20" customHeight="1">
+      <c r="A55" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="75"/>
+      <c r="C55" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="77" t="s">
-        <v>970</v>
-      </c>
-      <c r="E54" s="155" t="s">
+      <c r="D55" s="60" t="s">
+        <v>665</v>
+      </c>
+      <c r="E55" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F54" s="107" t="s">
+      <c r="F55" s="103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1">
-      <c r="A55" s="63">
-        <v>42736</v>
-      </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="73" t="s">
-        <v>974</v>
-      </c>
-      <c r="E55" s="155" t="s">
+    <row r="56" spans="1:6" ht="20" customHeight="1">
+      <c r="A56" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="75"/>
+      <c r="C56" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="E56" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F55" s="107" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1">
-      <c r="A56" s="63">
-        <v>42736</v>
-      </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="73" t="s">
-        <v>977</v>
-      </c>
-      <c r="E56" s="155" t="s">
-        <v>586</v>
-      </c>
-      <c r="F56" s="107" t="s">
+      <c r="F56" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49878,12 +49908,12 @@
       <c r="A57" s="63">
         <v>42736</v>
       </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="73" t="s">
-        <v>979</v>
+      <c r="B57" s="79"/>
+      <c r="C57" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>970</v>
       </c>
       <c r="E57" s="155" t="s">
         <v>586</v>
@@ -49896,12 +49926,12 @@
       <c r="A58" s="63">
         <v>42736</v>
       </c>
-      <c r="B58" s="64"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="78" t="s">
-        <v>981</v>
+      <c r="D58" s="73" t="s">
+        <v>974</v>
       </c>
       <c r="E58" s="155" t="s">
         <v>586</v>
@@ -49911,90 +49941,90 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" customHeight="1">
-      <c r="A59" s="207">
-        <v>42736</v>
-      </c>
-      <c r="B59" s="283"/>
-      <c r="C59" s="65" t="s">
+      <c r="A59" s="63">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="61"/>
+      <c r="C59" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>977</v>
+      </c>
+      <c r="E59" s="155" t="s">
+        <v>586</v>
+      </c>
+      <c r="F59" s="107" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20" customHeight="1">
+      <c r="A60" s="63">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="61"/>
+      <c r="C60" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>979</v>
+      </c>
+      <c r="E60" s="155" t="s">
+        <v>586</v>
+      </c>
+      <c r="F60" s="107" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20" customHeight="1">
+      <c r="A61" s="63">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="64"/>
+      <c r="C61" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>981</v>
+      </c>
+      <c r="E61" s="155" t="s">
+        <v>586</v>
+      </c>
+      <c r="F61" s="107" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20" customHeight="1">
+      <c r="A62" s="207">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="283"/>
+      <c r="C62" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="209" t="s">
+      <c r="D62" s="209" t="s">
         <v>665</v>
       </c>
-      <c r="E59" s="282" t="s">
+      <c r="E62" s="282" t="s">
         <v>1204</v>
       </c>
-      <c r="F59" s="210" t="s">
+      <c r="F62" s="210" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1">
-      <c r="A60" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="54" t="s">
+    <row r="63" spans="1:6" ht="20" customHeight="1">
+      <c r="A63" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="72"/>
+      <c r="C63" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="D63" s="57" t="s">
         <v>666</v>
       </c>
-      <c r="E60" s="282" t="s">
+      <c r="E63" s="282" t="s">
         <v>1204</v>
-      </c>
-      <c r="F60" s="99" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A61" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="E61" s="446" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F61" s="99" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A62" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>692</v>
-      </c>
-      <c r="E62" s="446" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F62" s="99" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A63" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="E63" s="446" t="s">
-        <v>586</v>
       </c>
       <c r="F63" s="99" t="s">
         <v>585</v>
@@ -50009,10 +50039,10 @@
         <v>91</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E64" s="446" t="s">
-        <v>586</v>
+        <v>1205</v>
       </c>
       <c r="F64" s="99" t="s">
         <v>585</v>
@@ -50027,10 +50057,10 @@
         <v>91</v>
       </c>
       <c r="D65" s="54" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E65" s="446" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F65" s="99" t="s">
         <v>585</v>
@@ -50045,7 +50075,7 @@
         <v>91</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E66" s="446" t="s">
         <v>586</v>
@@ -50054,21 +50084,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A67" s="58">
-        <v>42736</v>
-      </c>
-      <c r="B67" s="106"/>
+    <row r="67" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A67" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="61"/>
       <c r="C67" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="465" t="s">
-        <v>689</v>
+      <c r="D67" s="54" t="s">
+        <v>692</v>
       </c>
       <c r="E67" s="446" t="s">
         <v>586</v>
       </c>
-      <c r="F67" s="103" t="s">
+      <c r="F67" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50078,13 +50108,13 @@
       </c>
       <c r="B68" s="61"/>
       <c r="C68" s="57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="E68" s="446" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F68" s="99" t="s">
         <v>585</v>
@@ -50096,33 +50126,33 @@
       </c>
       <c r="B69" s="61"/>
       <c r="C69" s="57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E69" s="446" t="s">
-        <v>1203</v>
+        <v>586</v>
       </c>
       <c r="F69" s="99" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
-      <c r="A70" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B70" s="61"/>
+    <row r="70" spans="1:6" s="18" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A70" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B70" s="106"/>
       <c r="C70" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="54" t="s">
-        <v>665</v>
+        <v>91</v>
+      </c>
+      <c r="D70" s="465" t="s">
+        <v>689</v>
       </c>
       <c r="E70" s="446" t="s">
         <v>586</v>
       </c>
-      <c r="F70" s="99" t="s">
+      <c r="F70" s="103" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50135,10 +50165,10 @@
         <v>94</v>
       </c>
       <c r="D71" s="54" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="E71" s="446" t="s">
-        <v>586</v>
+        <v>1205</v>
       </c>
       <c r="F71" s="99" t="s">
         <v>585</v>
@@ -50153,10 +50183,10 @@
         <v>94</v>
       </c>
       <c r="D72" s="54" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E72" s="446" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F72" s="99" t="s">
         <v>585</v>
@@ -50166,17 +50196,17 @@
       <c r="A73" s="52">
         <v>42736</v>
       </c>
-      <c r="B73" s="64"/>
-      <c r="C73" s="65" t="s">
+      <c r="B73" s="61"/>
+      <c r="C73" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="209" t="s">
-        <v>693</v>
-      </c>
-      <c r="E73" s="282" t="s">
+      <c r="D73" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="E73" s="446" t="s">
         <v>586</v>
       </c>
-      <c r="F73" s="210" t="s">
+      <c r="F73" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50186,10 +50216,10 @@
       </c>
       <c r="B74" s="61"/>
       <c r="C74" s="57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="E74" s="446" t="s">
         <v>586</v>
@@ -50204,15 +50234,15 @@
       </c>
       <c r="B75" s="61"/>
       <c r="C75" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="57" t="s">
-        <v>993</v>
-      </c>
-      <c r="E75" s="282" t="s">
-        <v>586</v>
-      </c>
-      <c r="F75" s="210" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>693</v>
+      </c>
+      <c r="E75" s="446" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F75" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50220,17 +50250,17 @@
       <c r="A76" s="52">
         <v>42736</v>
       </c>
-      <c r="B76" s="61"/>
-      <c r="C76" s="490" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="490" t="s">
-        <v>673</v>
-      </c>
-      <c r="E76" s="446" t="s">
+      <c r="B76" s="64"/>
+      <c r="C76" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="209" t="s">
+        <v>693</v>
+      </c>
+      <c r="E76" s="282" t="s">
         <v>586</v>
       </c>
-      <c r="F76" s="99" t="s">
+      <c r="F76" s="210" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50240,105 +50270,105 @@
       </c>
       <c r="B77" s="61"/>
       <c r="C77" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="E77" s="446" t="s">
+        <v>586</v>
+      </c>
+      <c r="F77" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A78" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B78" s="61"/>
+      <c r="C78" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D78" s="57" t="s">
+        <v>993</v>
+      </c>
+      <c r="E78" s="282" t="s">
+        <v>586</v>
+      </c>
+      <c r="F78" s="210" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A79" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B79" s="61"/>
+      <c r="C79" s="490" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="490" t="s">
+        <v>673</v>
+      </c>
+      <c r="E79" s="446" t="s">
+        <v>586</v>
+      </c>
+      <c r="F79" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="333" customFormat="1" ht="20" customHeight="1">
+      <c r="A80" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B80" s="61"/>
+      <c r="C80" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="57" t="s">
         <v>674</v>
       </c>
-      <c r="E77" s="282" t="s">
+      <c r="E80" s="282" t="s">
         <v>586</v>
       </c>
-      <c r="F77" s="210" t="s">
+      <c r="F80" s="210" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A78" s="502">
-        <v>42736</v>
-      </c>
-      <c r="B78" s="496"/>
-      <c r="C78" s="534" t="s">
+    <row r="81" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A81" s="502">
+        <v>42736</v>
+      </c>
+      <c r="B81" s="496"/>
+      <c r="C81" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="495" t="s">
+      <c r="D81" s="495" t="s">
         <v>665</v>
       </c>
-      <c r="E78" s="496" t="s">
+      <c r="E81" s="496" t="s">
         <v>586</v>
       </c>
-      <c r="F78" s="533" t="s">
+      <c r="F81" s="533" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
-      <c r="A79" s="502">
-        <v>42736</v>
-      </c>
-      <c r="B79" s="496"/>
-      <c r="C79" s="534" t="s">
+    <row r="82" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A82" s="502">
+        <v>42736</v>
+      </c>
+      <c r="B82" s="496"/>
+      <c r="C82" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="495" t="s">
+      <c r="D82" s="495" t="s">
         <v>666</v>
       </c>
-      <c r="E79" s="496" t="s">
+      <c r="E82" s="496" t="s">
         <v>586</v>
       </c>
-      <c r="F79" s="533" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1">
-      <c r="A80" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B80" s="72"/>
-      <c r="C80" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="E80" s="114" t="s">
-        <v>586</v>
-      </c>
-      <c r="F80" s="99" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1">
-      <c r="A81" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="57" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E81" s="114" t="s">
-        <v>586</v>
-      </c>
-      <c r="F81" s="220" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1">
-      <c r="A82" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B82" s="72"/>
-      <c r="C82" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="57" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E82" s="114" t="s">
-        <v>586</v>
-      </c>
-      <c r="F82" s="99" t="s">
+      <c r="F82" s="533" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50350,8 +50380,8 @@
       <c r="C83" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D83" s="57" t="s">
-        <v>1015</v>
+      <c r="D83" s="54" t="s">
+        <v>665</v>
       </c>
       <c r="E83" s="114" t="s">
         <v>586</v>
@@ -50369,13 +50399,13 @@
         <v>106</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E84" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F84" s="99" t="s">
-        <v>585</v>
+      <c r="F84" s="220" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20" customHeight="1">
@@ -50386,14 +50416,14 @@
       <c r="C85" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>1017</v>
+      <c r="D85" s="57" t="s">
+        <v>1013</v>
       </c>
       <c r="E85" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F85" s="220" t="s">
-        <v>1207</v>
+      <c r="F85" s="99" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20" customHeight="1">
@@ -50405,13 +50435,13 @@
         <v>106</v>
       </c>
       <c r="D86" s="57" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="E86" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F86" s="220" t="s">
-        <v>1207</v>
+      <c r="F86" s="99" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20" customHeight="1">
@@ -50423,7 +50453,7 @@
         <v>106</v>
       </c>
       <c r="D87" s="57" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="E87" s="114" t="s">
         <v>586</v>
@@ -50441,48 +50471,48 @@
         <v>106</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="E88" s="114" t="s">
         <v>586</v>
       </c>
       <c r="F88" s="220" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
-      <c r="A89" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B89" s="589"/>
-      <c r="C89" s="553" t="s">
-        <v>109</v>
-      </c>
-      <c r="D89" s="553" t="s">
-        <v>665</v>
-      </c>
-      <c r="E89" s="590" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="20" customHeight="1">
+      <c r="A89" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B89" s="72"/>
+      <c r="C89" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E89" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F89" s="591" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
-      <c r="A90" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B90" s="589"/>
-      <c r="C90" s="553" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" s="553" t="s">
-        <v>665</v>
-      </c>
-      <c r="E90" s="590" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F90" s="591" t="s">
+      <c r="F89" s="220" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="20" customHeight="1">
+      <c r="A90" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B90" s="72"/>
+      <c r="C90" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E90" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F90" s="99" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50491,34 +50521,34 @@
         <v>42736</v>
       </c>
       <c r="B91" s="72"/>
-      <c r="C91" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="54" t="s">
-        <v>665</v>
+      <c r="C91" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>1025</v>
       </c>
       <c r="E91" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="F91" s="99" t="s">
+      <c r="F91" s="220" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="20" customHeight="1">
-      <c r="A92" s="52">
-        <v>42736</v>
-      </c>
-      <c r="B92" s="72"/>
-      <c r="C92" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="57" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E92" s="114" t="s">
+    <row r="92" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
+      <c r="A92" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="589"/>
+      <c r="C92" s="553" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="553" t="s">
+        <v>665</v>
+      </c>
+      <c r="E92" s="590" t="s">
         <v>586</v>
       </c>
-      <c r="F92" s="99" t="s">
+      <c r="F92" s="591" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50528,51 +50558,105 @@
       </c>
       <c r="B93" s="589"/>
       <c r="C93" s="553" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D93" s="553" t="s">
         <v>665</v>
       </c>
       <c r="E93" s="590" t="s">
-        <v>586</v>
+        <v>1203</v>
       </c>
       <c r="F93" s="591" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
-      <c r="A94" s="588">
-        <v>42736</v>
-      </c>
-      <c r="B94" s="589"/>
-      <c r="C94" s="553" t="s">
+    <row r="94" spans="1:6" ht="20" customHeight="1">
+      <c r="A94" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="72"/>
+      <c r="C94" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="E94" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F94" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="20" customHeight="1">
+      <c r="A95" s="52">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="72"/>
+      <c r="C95" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E95" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F95" s="99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
+      <c r="A96" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="589"/>
+      <c r="C96" s="553" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="553" t="s">
+        <v>665</v>
+      </c>
+      <c r="E96" s="590" t="s">
+        <v>586</v>
+      </c>
+      <c r="F96" s="591" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="17" customFormat="1" ht="20" customHeight="1">
+      <c r="A97" s="588">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="589"/>
+      <c r="C97" s="553" t="s">
         <v>118</v>
       </c>
-      <c r="D94" s="553" t="s">
+      <c r="D97" s="553" t="s">
         <v>665</v>
       </c>
-      <c r="E94" s="590" t="s">
+      <c r="E97" s="590" t="s">
         <v>586</v>
       </c>
-      <c r="F94" s="591" t="s">
+      <c r="F97" s="591" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-    </row>
-    <row r="96" spans="1:6" ht="13.25" customHeight="1">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
+    <row r="98" spans="1:6" ht="13.25" customHeight="1">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="1:6" ht="13.25" customHeight="1">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
@@ -52727,7 +52811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -53696,7 +53780,7 @@
   <dimension ref="A1:IO195"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -65967,7 +66051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A656B101-A087-4130-91B9-E61F9C3818E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4A05D0-9B1A-4B4D-9994-F1DB78D7740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="23" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9995" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10011" uniqueCount="1281">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -4759,7 +4759,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="533">
+  <cellXfs count="532">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6226,9 +6226,6 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6238,16 +6235,16 @@
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -15192,7 +15189,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F81" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F85" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
@@ -22018,8 +22015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K7:K8"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.35" customHeight="1"/>
@@ -25968,7 +25965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T259"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -26838,7 +26835,7 @@
         <v>1077</v>
       </c>
       <c r="J24" s="49"/>
-      <c r="M24" s="530"/>
+      <c r="M24" s="39"/>
       <c r="P24" s="36" t="s">
         <v>250</v>
       </c>
@@ -26871,7 +26868,7 @@
         <v>1077</v>
       </c>
       <c r="J25" s="49"/>
-      <c r="M25" s="530"/>
+      <c r="M25" s="39"/>
       <c r="P25" s="36" t="s">
         <v>250</v>
       </c>
@@ -26904,7 +26901,7 @@
         <v>1077</v>
       </c>
       <c r="J26" s="49"/>
-      <c r="M26" s="530"/>
+      <c r="M26" s="39"/>
       <c r="P26" s="36" t="s">
         <v>250</v>
       </c>
@@ -26937,7 +26934,7 @@
         <v>1077</v>
       </c>
       <c r="J27" s="49"/>
-      <c r="M27" s="530"/>
+      <c r="M27" s="39"/>
       <c r="P27" s="36" t="s">
         <v>250</v>
       </c>
@@ -26970,7 +26967,7 @@
         <v>1077</v>
       </c>
       <c r="J28" s="49"/>
-      <c r="M28" s="530"/>
+      <c r="M28" s="39"/>
       <c r="P28" s="36" t="s">
         <v>250</v>
       </c>
@@ -27003,7 +27000,7 @@
         <v>1077</v>
       </c>
       <c r="J29" s="49"/>
-      <c r="M29" s="530"/>
+      <c r="M29" s="39"/>
       <c r="P29" s="36" t="s">
         <v>250</v>
       </c>
@@ -48590,10 +48587,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK97"/>
+  <dimension ref="A1:EK101"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.35" customHeight="1"/>
@@ -48808,14 +48805,14 @@
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="34">
-        <v>42736</v>
+        <v>42737</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>665</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>933</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>586</v>
@@ -48826,14 +48823,14 @@
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="34">
-        <v>42736</v>
+        <v>42738</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>949</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="489" t="s">
+        <v>936</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>586</v>
@@ -48844,14 +48841,14 @@
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="34">
-        <v>42736</v>
+        <v>42739</v>
       </c>
       <c r="B14" s="50"/>
-      <c r="C14" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>665</v>
+      <c r="C14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="489" t="s">
+        <v>940</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>586</v>
@@ -48862,14 +48859,14 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="34">
-        <v>42736</v>
+        <v>42740</v>
       </c>
       <c r="B15" s="50"/>
-      <c r="C15" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>667</v>
+      <c r="C15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="489" t="s">
+        <v>944</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>586</v>
@@ -48883,11 +48880,11 @@
         <v>42736</v>
       </c>
       <c r="B16" s="50"/>
-      <c r="C16" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>629</v>
+      <c r="C16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>586</v>
@@ -48901,11 +48898,11 @@
         <v>42736</v>
       </c>
       <c r="B17" s="50"/>
-      <c r="C17" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>956</v>
+      <c r="C17" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>949</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>586</v>
@@ -48919,11 +48916,11 @@
         <v>42736</v>
       </c>
       <c r="B18" s="50"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="77" t="s">
-        <v>958</v>
+      <c r="D18" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>586</v>
@@ -48937,11 +48934,11 @@
         <v>42736</v>
       </c>
       <c r="B19" s="50"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="77" t="s">
-        <v>960</v>
+      <c r="D19" s="76" t="s">
+        <v>667</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>586</v>
@@ -48950,383 +48947,383 @@
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="1:141" s="192" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="190">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="191"/>
-      <c r="C20" s="193" t="s">
+    <row r="20" spans="1:141" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>629</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:141" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>956</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:141" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>958</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:141" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>960</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:141" s="192" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="190">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="191"/>
+      <c r="C24" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="193" t="s">
+      <c r="D24" s="193" t="s">
         <v>662</v>
       </c>
-      <c r="E20" s="217" t="s">
+      <c r="E24" s="217" t="s">
         <v>586</v>
       </c>
-      <c r="F20" s="194" t="s">
+      <c r="F24" s="194" t="s">
         <v>585</v>
       </c>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="238"/>
-      <c r="O20" s="238"/>
-      <c r="P20" s="238"/>
-      <c r="Q20" s="238"/>
-      <c r="R20" s="238"/>
-      <c r="S20" s="238"/>
-      <c r="T20" s="238"/>
-      <c r="U20" s="238"/>
-      <c r="V20" s="238"/>
-      <c r="W20" s="238"/>
-      <c r="X20" s="238"/>
-      <c r="Y20" s="238"/>
-      <c r="Z20" s="238"/>
-      <c r="AA20" s="238"/>
-      <c r="AB20" s="238"/>
-      <c r="AC20" s="238"/>
-      <c r="AD20" s="238"/>
-      <c r="AE20" s="238"/>
-      <c r="AF20" s="238"/>
-      <c r="AG20" s="238"/>
-      <c r="AH20" s="238"/>
-      <c r="AI20" s="238"/>
-      <c r="AJ20" s="238"/>
-      <c r="AK20" s="238"/>
-      <c r="AL20" s="238"/>
-      <c r="AM20" s="238"/>
-      <c r="AN20" s="238"/>
-      <c r="AO20" s="238"/>
-      <c r="AP20" s="238"/>
-      <c r="AQ20" s="238"/>
-      <c r="AR20" s="238"/>
-      <c r="AS20" s="238"/>
-      <c r="AT20" s="238"/>
-      <c r="AU20" s="238"/>
-      <c r="AV20" s="238"/>
-      <c r="AW20" s="238"/>
-      <c r="AX20" s="238"/>
-      <c r="AY20" s="238"/>
-      <c r="AZ20" s="238"/>
-      <c r="BA20" s="238"/>
-      <c r="BB20" s="238"/>
-      <c r="BC20" s="238"/>
-      <c r="BD20" s="238"/>
-      <c r="BE20" s="238"/>
-      <c r="BF20" s="238"/>
-      <c r="BG20" s="238"/>
-      <c r="BH20" s="238"/>
-      <c r="BI20" s="238"/>
-      <c r="BJ20" s="238"/>
-      <c r="BK20" s="238"/>
-      <c r="BL20" s="238"/>
-      <c r="BM20" s="238"/>
-      <c r="BN20" s="238"/>
-      <c r="BO20" s="238"/>
-      <c r="BP20" s="238"/>
-      <c r="BQ20" s="238"/>
-      <c r="BR20" s="238"/>
-      <c r="BS20" s="238"/>
-      <c r="BT20" s="238"/>
-      <c r="BU20" s="238"/>
-      <c r="BV20" s="238"/>
-      <c r="BW20" s="238"/>
-      <c r="BX20" s="238"/>
-      <c r="BY20" s="238"/>
-      <c r="BZ20" s="238"/>
-      <c r="CA20" s="238"/>
-      <c r="CB20" s="238"/>
-      <c r="CC20" s="238"/>
-      <c r="CD20" s="238"/>
-      <c r="CE20" s="238"/>
-      <c r="CF20" s="238"/>
-      <c r="CG20" s="238"/>
-      <c r="CH20" s="238"/>
-      <c r="CI20" s="238"/>
-      <c r="CJ20" s="238"/>
-      <c r="CK20" s="238"/>
-      <c r="CL20" s="238"/>
-      <c r="CM20" s="238"/>
-      <c r="CN20" s="238"/>
-      <c r="CO20" s="238"/>
-      <c r="CP20" s="238"/>
-      <c r="CQ20" s="238"/>
-      <c r="CR20" s="238"/>
-      <c r="CS20" s="238"/>
-      <c r="CT20" s="238"/>
-      <c r="CU20" s="238"/>
-      <c r="CV20" s="238"/>
-      <c r="CW20" s="238"/>
-      <c r="CX20" s="238"/>
-      <c r="CY20" s="238"/>
-      <c r="CZ20" s="238"/>
-      <c r="DA20" s="238"/>
-      <c r="DB20" s="238"/>
-      <c r="DC20" s="238"/>
-      <c r="DD20" s="238"/>
-      <c r="DE20" s="238"/>
-      <c r="DF20" s="238"/>
-      <c r="DG20" s="238"/>
-      <c r="DH20" s="238"/>
-      <c r="DI20" s="238"/>
-      <c r="DJ20" s="238"/>
-      <c r="DK20" s="238"/>
-      <c r="DL20" s="238"/>
-      <c r="DM20" s="238"/>
-      <c r="DN20" s="238"/>
-      <c r="DO20" s="238"/>
-      <c r="DP20" s="238"/>
-      <c r="DQ20" s="238"/>
-      <c r="DR20" s="238"/>
-      <c r="DS20" s="238"/>
-      <c r="DT20" s="238"/>
-      <c r="DU20" s="238"/>
-      <c r="DV20" s="238"/>
-      <c r="DW20" s="238"/>
-      <c r="DX20" s="238"/>
-      <c r="DY20" s="238"/>
-      <c r="DZ20" s="238"/>
-      <c r="EA20" s="238"/>
-      <c r="EB20" s="238"/>
-      <c r="EC20" s="238"/>
-      <c r="ED20" s="238"/>
-      <c r="EE20" s="238"/>
-      <c r="EF20" s="238"/>
-      <c r="EG20" s="238"/>
-      <c r="EH20" s="238"/>
-      <c r="EI20" s="238"/>
-      <c r="EJ20" s="238"/>
-      <c r="EK20" s="238"/>
-    </row>
-    <row r="21" spans="1:141" s="192" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="190">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="191"/>
-      <c r="C21" s="193" t="s">
+      <c r="G24" s="238"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="238"/>
+      <c r="Q24" s="238"/>
+      <c r="R24" s="238"/>
+      <c r="S24" s="238"/>
+      <c r="T24" s="238"/>
+      <c r="U24" s="238"/>
+      <c r="V24" s="238"/>
+      <c r="W24" s="238"/>
+      <c r="X24" s="238"/>
+      <c r="Y24" s="238"/>
+      <c r="Z24" s="238"/>
+      <c r="AA24" s="238"/>
+      <c r="AB24" s="238"/>
+      <c r="AC24" s="238"/>
+      <c r="AD24" s="238"/>
+      <c r="AE24" s="238"/>
+      <c r="AF24" s="238"/>
+      <c r="AG24" s="238"/>
+      <c r="AH24" s="238"/>
+      <c r="AI24" s="238"/>
+      <c r="AJ24" s="238"/>
+      <c r="AK24" s="238"/>
+      <c r="AL24" s="238"/>
+      <c r="AM24" s="238"/>
+      <c r="AN24" s="238"/>
+      <c r="AO24" s="238"/>
+      <c r="AP24" s="238"/>
+      <c r="AQ24" s="238"/>
+      <c r="AR24" s="238"/>
+      <c r="AS24" s="238"/>
+      <c r="AT24" s="238"/>
+      <c r="AU24" s="238"/>
+      <c r="AV24" s="238"/>
+      <c r="AW24" s="238"/>
+      <c r="AX24" s="238"/>
+      <c r="AY24" s="238"/>
+      <c r="AZ24" s="238"/>
+      <c r="BA24" s="238"/>
+      <c r="BB24" s="238"/>
+      <c r="BC24" s="238"/>
+      <c r="BD24" s="238"/>
+      <c r="BE24" s="238"/>
+      <c r="BF24" s="238"/>
+      <c r="BG24" s="238"/>
+      <c r="BH24" s="238"/>
+      <c r="BI24" s="238"/>
+      <c r="BJ24" s="238"/>
+      <c r="BK24" s="238"/>
+      <c r="BL24" s="238"/>
+      <c r="BM24" s="238"/>
+      <c r="BN24" s="238"/>
+      <c r="BO24" s="238"/>
+      <c r="BP24" s="238"/>
+      <c r="BQ24" s="238"/>
+      <c r="BR24" s="238"/>
+      <c r="BS24" s="238"/>
+      <c r="BT24" s="238"/>
+      <c r="BU24" s="238"/>
+      <c r="BV24" s="238"/>
+      <c r="BW24" s="238"/>
+      <c r="BX24" s="238"/>
+      <c r="BY24" s="238"/>
+      <c r="BZ24" s="238"/>
+      <c r="CA24" s="238"/>
+      <c r="CB24" s="238"/>
+      <c r="CC24" s="238"/>
+      <c r="CD24" s="238"/>
+      <c r="CE24" s="238"/>
+      <c r="CF24" s="238"/>
+      <c r="CG24" s="238"/>
+      <c r="CH24" s="238"/>
+      <c r="CI24" s="238"/>
+      <c r="CJ24" s="238"/>
+      <c r="CK24" s="238"/>
+      <c r="CL24" s="238"/>
+      <c r="CM24" s="238"/>
+      <c r="CN24" s="238"/>
+      <c r="CO24" s="238"/>
+      <c r="CP24" s="238"/>
+      <c r="CQ24" s="238"/>
+      <c r="CR24" s="238"/>
+      <c r="CS24" s="238"/>
+      <c r="CT24" s="238"/>
+      <c r="CU24" s="238"/>
+      <c r="CV24" s="238"/>
+      <c r="CW24" s="238"/>
+      <c r="CX24" s="238"/>
+      <c r="CY24" s="238"/>
+      <c r="CZ24" s="238"/>
+      <c r="DA24" s="238"/>
+      <c r="DB24" s="238"/>
+      <c r="DC24" s="238"/>
+      <c r="DD24" s="238"/>
+      <c r="DE24" s="238"/>
+      <c r="DF24" s="238"/>
+      <c r="DG24" s="238"/>
+      <c r="DH24" s="238"/>
+      <c r="DI24" s="238"/>
+      <c r="DJ24" s="238"/>
+      <c r="DK24" s="238"/>
+      <c r="DL24" s="238"/>
+      <c r="DM24" s="238"/>
+      <c r="DN24" s="238"/>
+      <c r="DO24" s="238"/>
+      <c r="DP24" s="238"/>
+      <c r="DQ24" s="238"/>
+      <c r="DR24" s="238"/>
+      <c r="DS24" s="238"/>
+      <c r="DT24" s="238"/>
+      <c r="DU24" s="238"/>
+      <c r="DV24" s="238"/>
+      <c r="DW24" s="238"/>
+      <c r="DX24" s="238"/>
+      <c r="DY24" s="238"/>
+      <c r="DZ24" s="238"/>
+      <c r="EA24" s="238"/>
+      <c r="EB24" s="238"/>
+      <c r="EC24" s="238"/>
+      <c r="ED24" s="238"/>
+      <c r="EE24" s="238"/>
+      <c r="EF24" s="238"/>
+      <c r="EG24" s="238"/>
+      <c r="EH24" s="238"/>
+      <c r="EI24" s="238"/>
+      <c r="EJ24" s="238"/>
+      <c r="EK24" s="238"/>
+    </row>
+    <row r="25" spans="1:141" s="192" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="190">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="191"/>
+      <c r="C25" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="193" t="s">
+      <c r="D25" s="193" t="s">
         <v>645</v>
       </c>
-      <c r="E21" s="217" t="s">
+      <c r="E25" s="217" t="s">
         <v>586</v>
       </c>
-      <c r="F21" s="194" t="s">
+      <c r="F25" s="194" t="s">
         <v>585</v>
       </c>
-      <c r="G21" s="238"/>
-      <c r="H21" s="238"/>
-      <c r="I21" s="238"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
-      <c r="M21" s="238"/>
-      <c r="N21" s="238"/>
-      <c r="O21" s="238"/>
-      <c r="P21" s="238"/>
-      <c r="Q21" s="238"/>
-      <c r="R21" s="238"/>
-      <c r="S21" s="238"/>
-      <c r="T21" s="238"/>
-      <c r="U21" s="238"/>
-      <c r="V21" s="238"/>
-      <c r="W21" s="238"/>
-      <c r="X21" s="238"/>
-      <c r="Y21" s="238"/>
-      <c r="Z21" s="238"/>
-      <c r="AA21" s="238"/>
-      <c r="AB21" s="238"/>
-      <c r="AC21" s="238"/>
-      <c r="AD21" s="238"/>
-      <c r="AE21" s="238"/>
-      <c r="AF21" s="238"/>
-      <c r="AG21" s="238"/>
-      <c r="AH21" s="238"/>
-      <c r="AI21" s="238"/>
-      <c r="AJ21" s="238"/>
-      <c r="AK21" s="238"/>
-      <c r="AL21" s="238"/>
-      <c r="AM21" s="238"/>
-      <c r="AN21" s="238"/>
-      <c r="AO21" s="238"/>
-      <c r="AP21" s="238"/>
-      <c r="AQ21" s="238"/>
-      <c r="AR21" s="238"/>
-      <c r="AS21" s="238"/>
-      <c r="AT21" s="238"/>
-      <c r="AU21" s="238"/>
-      <c r="AV21" s="238"/>
-      <c r="AW21" s="238"/>
-      <c r="AX21" s="238"/>
-      <c r="AY21" s="238"/>
-      <c r="AZ21" s="238"/>
-      <c r="BA21" s="238"/>
-      <c r="BB21" s="238"/>
-      <c r="BC21" s="238"/>
-      <c r="BD21" s="238"/>
-      <c r="BE21" s="238"/>
-      <c r="BF21" s="238"/>
-      <c r="BG21" s="238"/>
-      <c r="BH21" s="238"/>
-      <c r="BI21" s="238"/>
-      <c r="BJ21" s="238"/>
-      <c r="BK21" s="238"/>
-      <c r="BL21" s="238"/>
-      <c r="BM21" s="238"/>
-      <c r="BN21" s="238"/>
-      <c r="BO21" s="238"/>
-      <c r="BP21" s="238"/>
-      <c r="BQ21" s="238"/>
-      <c r="BR21" s="238"/>
-      <c r="BS21" s="238"/>
-      <c r="BT21" s="238"/>
-      <c r="BU21" s="238"/>
-      <c r="BV21" s="238"/>
-      <c r="BW21" s="238"/>
-      <c r="BX21" s="238"/>
-      <c r="BY21" s="238"/>
-      <c r="BZ21" s="238"/>
-      <c r="CA21" s="238"/>
-      <c r="CB21" s="238"/>
-      <c r="CC21" s="238"/>
-      <c r="CD21" s="238"/>
-      <c r="CE21" s="238"/>
-      <c r="CF21" s="238"/>
-      <c r="CG21" s="238"/>
-      <c r="CH21" s="238"/>
-      <c r="CI21" s="238"/>
-      <c r="CJ21" s="238"/>
-      <c r="CK21" s="238"/>
-      <c r="CL21" s="238"/>
-      <c r="CM21" s="238"/>
-      <c r="CN21" s="238"/>
-      <c r="CO21" s="238"/>
-      <c r="CP21" s="238"/>
-      <c r="CQ21" s="238"/>
-      <c r="CR21" s="238"/>
-      <c r="CS21" s="238"/>
-      <c r="CT21" s="238"/>
-      <c r="CU21" s="238"/>
-      <c r="CV21" s="238"/>
-      <c r="CW21" s="238"/>
-      <c r="CX21" s="238"/>
-      <c r="CY21" s="238"/>
-      <c r="CZ21" s="238"/>
-      <c r="DA21" s="238"/>
-      <c r="DB21" s="238"/>
-      <c r="DC21" s="238"/>
-      <c r="DD21" s="238"/>
-      <c r="DE21" s="238"/>
-      <c r="DF21" s="238"/>
-      <c r="DG21" s="238"/>
-      <c r="DH21" s="238"/>
-      <c r="DI21" s="238"/>
-      <c r="DJ21" s="238"/>
-      <c r="DK21" s="238"/>
-      <c r="DL21" s="238"/>
-      <c r="DM21" s="238"/>
-      <c r="DN21" s="238"/>
-      <c r="DO21" s="238"/>
-      <c r="DP21" s="238"/>
-      <c r="DQ21" s="238"/>
-      <c r="DR21" s="238"/>
-      <c r="DS21" s="238"/>
-      <c r="DT21" s="238"/>
-      <c r="DU21" s="238"/>
-      <c r="DV21" s="238"/>
-      <c r="DW21" s="238"/>
-      <c r="DX21" s="238"/>
-      <c r="DY21" s="238"/>
-      <c r="DZ21" s="238"/>
-      <c r="EA21" s="238"/>
-      <c r="EB21" s="238"/>
-      <c r="EC21" s="238"/>
-      <c r="ED21" s="238"/>
-      <c r="EE21" s="238"/>
-      <c r="EF21" s="238"/>
-      <c r="EG21" s="238"/>
-      <c r="EH21" s="238"/>
-      <c r="EI21" s="238"/>
-      <c r="EJ21" s="238"/>
-      <c r="EK21" s="238"/>
-    </row>
-    <row r="22" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="234" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E22" s="268" t="s">
-        <v>586</v>
-      </c>
-      <c r="F22" s="252" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="234" t="s">
-        <v>673</v>
-      </c>
-      <c r="E23" s="268" t="s">
-        <v>586</v>
-      </c>
-      <c r="F23" s="252" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="234" t="s">
-        <v>674</v>
-      </c>
-      <c r="E24" s="268" t="s">
-        <v>586</v>
-      </c>
-      <c r="F24" s="252" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="234" t="s">
-        <v>675</v>
-      </c>
-      <c r="E25" s="268" t="s">
-        <v>586</v>
-      </c>
-      <c r="F25" s="252" t="s">
-        <v>585</v>
-      </c>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="238"/>
+      <c r="Q25" s="238"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="238"/>
+      <c r="T25" s="238"/>
+      <c r="U25" s="238"/>
+      <c r="V25" s="238"/>
+      <c r="W25" s="238"/>
+      <c r="X25" s="238"/>
+      <c r="Y25" s="238"/>
+      <c r="Z25" s="238"/>
+      <c r="AA25" s="238"/>
+      <c r="AB25" s="238"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="238"/>
+      <c r="AE25" s="238"/>
+      <c r="AF25" s="238"/>
+      <c r="AG25" s="238"/>
+      <c r="AH25" s="238"/>
+      <c r="AI25" s="238"/>
+      <c r="AJ25" s="238"/>
+      <c r="AK25" s="238"/>
+      <c r="AL25" s="238"/>
+      <c r="AM25" s="238"/>
+      <c r="AN25" s="238"/>
+      <c r="AO25" s="238"/>
+      <c r="AP25" s="238"/>
+      <c r="AQ25" s="238"/>
+      <c r="AR25" s="238"/>
+      <c r="AS25" s="238"/>
+      <c r="AT25" s="238"/>
+      <c r="AU25" s="238"/>
+      <c r="AV25" s="238"/>
+      <c r="AW25" s="238"/>
+      <c r="AX25" s="238"/>
+      <c r="AY25" s="238"/>
+      <c r="AZ25" s="238"/>
+      <c r="BA25" s="238"/>
+      <c r="BB25" s="238"/>
+      <c r="BC25" s="238"/>
+      <c r="BD25" s="238"/>
+      <c r="BE25" s="238"/>
+      <c r="BF25" s="238"/>
+      <c r="BG25" s="238"/>
+      <c r="BH25" s="238"/>
+      <c r="BI25" s="238"/>
+      <c r="BJ25" s="238"/>
+      <c r="BK25" s="238"/>
+      <c r="BL25" s="238"/>
+      <c r="BM25" s="238"/>
+      <c r="BN25" s="238"/>
+      <c r="BO25" s="238"/>
+      <c r="BP25" s="238"/>
+      <c r="BQ25" s="238"/>
+      <c r="BR25" s="238"/>
+      <c r="BS25" s="238"/>
+      <c r="BT25" s="238"/>
+      <c r="BU25" s="238"/>
+      <c r="BV25" s="238"/>
+      <c r="BW25" s="238"/>
+      <c r="BX25" s="238"/>
+      <c r="BY25" s="238"/>
+      <c r="BZ25" s="238"/>
+      <c r="CA25" s="238"/>
+      <c r="CB25" s="238"/>
+      <c r="CC25" s="238"/>
+      <c r="CD25" s="238"/>
+      <c r="CE25" s="238"/>
+      <c r="CF25" s="238"/>
+      <c r="CG25" s="238"/>
+      <c r="CH25" s="238"/>
+      <c r="CI25" s="238"/>
+      <c r="CJ25" s="238"/>
+      <c r="CK25" s="238"/>
+      <c r="CL25" s="238"/>
+      <c r="CM25" s="238"/>
+      <c r="CN25" s="238"/>
+      <c r="CO25" s="238"/>
+      <c r="CP25" s="238"/>
+      <c r="CQ25" s="238"/>
+      <c r="CR25" s="238"/>
+      <c r="CS25" s="238"/>
+      <c r="CT25" s="238"/>
+      <c r="CU25" s="238"/>
+      <c r="CV25" s="238"/>
+      <c r="CW25" s="238"/>
+      <c r="CX25" s="238"/>
+      <c r="CY25" s="238"/>
+      <c r="CZ25" s="238"/>
+      <c r="DA25" s="238"/>
+      <c r="DB25" s="238"/>
+      <c r="DC25" s="238"/>
+      <c r="DD25" s="238"/>
+      <c r="DE25" s="238"/>
+      <c r="DF25" s="238"/>
+      <c r="DG25" s="238"/>
+      <c r="DH25" s="238"/>
+      <c r="DI25" s="238"/>
+      <c r="DJ25" s="238"/>
+      <c r="DK25" s="238"/>
+      <c r="DL25" s="238"/>
+      <c r="DM25" s="238"/>
+      <c r="DN25" s="238"/>
+      <c r="DO25" s="238"/>
+      <c r="DP25" s="238"/>
+      <c r="DQ25" s="238"/>
+      <c r="DR25" s="238"/>
+      <c r="DS25" s="238"/>
+      <c r="DT25" s="238"/>
+      <c r="DU25" s="238"/>
+      <c r="DV25" s="238"/>
+      <c r="DW25" s="238"/>
+      <c r="DX25" s="238"/>
+      <c r="DY25" s="238"/>
+      <c r="DZ25" s="238"/>
+      <c r="EA25" s="238"/>
+      <c r="EB25" s="238"/>
+      <c r="EC25" s="238"/>
+      <c r="ED25" s="238"/>
+      <c r="EE25" s="238"/>
+      <c r="EF25" s="238"/>
+      <c r="EG25" s="238"/>
+      <c r="EH25" s="238"/>
+      <c r="EI25" s="238"/>
+      <c r="EJ25" s="238"/>
+      <c r="EK25" s="238"/>
     </row>
     <row r="26" spans="1:141" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="266">
@@ -49337,7 +49334,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="234" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E26" s="268" t="s">
         <v>586</v>
@@ -49355,7 +49352,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="234" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E27" s="268" t="s">
         <v>586</v>
@@ -49373,7 +49370,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="234" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E28" s="268" t="s">
         <v>586</v>
@@ -49383,74 +49380,74 @@
       </c>
     </row>
     <row r="29" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E29" s="86" t="s">
+      <c r="A29" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="233"/>
+      <c r="C29" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="234" t="s">
+        <v>675</v>
+      </c>
+      <c r="E29" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="252" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E30" s="86" t="s">
+      <c r="A30" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="233"/>
+      <c r="C30" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="234" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E30" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="252" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="E31" s="86" t="s">
+      <c r="A31" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="233"/>
+      <c r="C31" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="234" t="s">
+        <v>677</v>
+      </c>
+      <c r="E31" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="252" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:141" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>965</v>
-      </c>
-      <c r="E32" s="86" t="s">
+      <c r="A32" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="233"/>
+      <c r="C32" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="234" t="s">
+        <v>682</v>
+      </c>
+      <c r="E32" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="252" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49460,10 +49457,10 @@
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>967</v>
+        <v>665</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>586</v>
@@ -49481,7 +49478,7 @@
         <v>55</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>969</v>
+        <v>665</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>586</v>
@@ -49495,11 +49492,11 @@
         <v>42736</v>
       </c>
       <c r="B35" s="50"/>
-      <c r="C35" s="36" t="s">
-        <v>58</v>
+      <c r="C35" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>665</v>
+        <v>963</v>
       </c>
       <c r="E35" s="86" t="s">
         <v>586</v>
@@ -49513,11 +49510,11 @@
         <v>42736</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="36" t="s">
-        <v>61</v>
+      <c r="C36" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>665</v>
+        <v>965</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>586</v>
@@ -49531,11 +49528,11 @@
         <v>42736</v>
       </c>
       <c r="B37" s="50"/>
-      <c r="C37" s="36" t="s">
-        <v>61</v>
+      <c r="C37" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E37" s="86" t="s">
         <v>586</v>
@@ -49549,11 +49546,11 @@
         <v>42736</v>
       </c>
       <c r="B38" s="50"/>
-      <c r="C38" s="36" t="s">
-        <v>61</v>
+      <c r="C38" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>586</v>
@@ -49568,10 +49565,10 @@
       </c>
       <c r="B39" s="50"/>
       <c r="C39" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>974</v>
+        <v>665</v>
       </c>
       <c r="E39" s="86" t="s">
         <v>586</v>
@@ -49589,7 +49586,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>978</v>
+        <v>665</v>
       </c>
       <c r="E40" s="86" t="s">
         <v>586</v>
@@ -49604,16 +49601,16 @@
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>665</v>
+        <v>972</v>
       </c>
       <c r="E41" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F41" s="74" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49621,11 +49618,11 @@
         <v>42736</v>
       </c>
       <c r="B42" s="50"/>
-      <c r="C42" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>665</v>
+      <c r="C42" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>976</v>
       </c>
       <c r="E42" s="86" t="s">
         <v>586</v>
@@ -49639,11 +49636,11 @@
         <v>42736</v>
       </c>
       <c r="B43" s="50"/>
-      <c r="C43" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>980</v>
+      <c r="C43" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>974</v>
       </c>
       <c r="E43" s="86" t="s">
         <v>586</v>
@@ -49657,11 +49654,11 @@
         <v>42736</v>
       </c>
       <c r="B44" s="50"/>
-      <c r="C44" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>984</v>
+      <c r="C44" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>978</v>
       </c>
       <c r="E44" s="86" t="s">
         <v>586</v>
@@ -49675,8 +49672,8 @@
         <v>42736</v>
       </c>
       <c r="B45" s="50"/>
-      <c r="C45" s="38" t="s">
-        <v>70</v>
+      <c r="C45" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>665</v>
@@ -49685,7 +49682,7 @@
         <v>586</v>
       </c>
       <c r="F45" s="74" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49693,14 +49690,14 @@
         <v>42736</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="51" t="s">
+      <c r="C46" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="E46" s="50" t="s">
-        <v>602</v>
+      <c r="E46" s="86" t="s">
+        <v>586</v>
       </c>
       <c r="F46" s="74" t="s">
         <v>585</v>
@@ -49711,17 +49708,17 @@
         <v>42736</v>
       </c>
       <c r="B47" s="50"/>
-      <c r="C47" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>602</v>
+      <c r="C47" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>980</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>586</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49729,14 +49726,14 @@
         <v>42736</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>665</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>600</v>
+      <c r="C48" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>984</v>
+      </c>
+      <c r="E48" s="86" t="s">
+        <v>586</v>
       </c>
       <c r="F48" s="74" t="s">
         <v>585</v>
@@ -49747,17 +49744,17 @@
         <v>42736</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>600</v>
+      <c r="C49" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E49" s="86" t="s">
+        <v>586</v>
       </c>
       <c r="F49" s="74" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49768,14 +49765,14 @@
       <c r="C50" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>672</v>
+      <c r="D50" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F50" s="74" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49786,14 +49783,14 @@
       <c r="C51" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="36" t="s">
-        <v>672</v>
+      <c r="D51" s="51" t="s">
+        <v>671</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>602</v>
       </c>
       <c r="F51" s="74" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49802,13 +49799,13 @@
       </c>
       <c r="B52" s="50"/>
       <c r="C52" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="51" t="s">
         <v>665</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F52" s="74" t="s">
         <v>585</v>
@@ -49820,16 +49817,16 @@
       </c>
       <c r="B53" s="50"/>
       <c r="C53" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>666</v>
+        <v>73</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>671</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F53" s="74" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49838,16 +49835,16 @@
       </c>
       <c r="B54" s="50"/>
       <c r="C54" s="36" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>1014</v>
+        <v>672</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F54" s="74" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49855,17 +49852,17 @@
         <v>42736</v>
       </c>
       <c r="B55" s="50"/>
-      <c r="C55" s="38" t="s">
-        <v>76</v>
+      <c r="C55" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E55" s="86" t="s">
-        <v>586</v>
+        <v>672</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>602</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -49873,13 +49870,13 @@
         <v>42736</v>
       </c>
       <c r="B56" s="50"/>
-      <c r="C56" s="38" t="s">
-        <v>76</v>
+      <c r="C56" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>992</v>
-      </c>
-      <c r="E56" s="86" t="s">
+        <v>665</v>
+      </c>
+      <c r="E56" s="50" t="s">
         <v>586</v>
       </c>
       <c r="F56" s="74" t="s">
@@ -49887,74 +49884,74 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="43" t="s">
+      <c r="A57" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F57" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F58" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="53" t="s">
-        <v>995</v>
-      </c>
-      <c r="E57" s="127" t="s">
+      <c r="D59" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E59" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F57" s="79" t="s">
+      <c r="F59" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>999</v>
-      </c>
-      <c r="E58" s="127" t="s">
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>992</v>
+      </c>
+      <c r="E60" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F58" s="79" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E59" s="127" t="s">
-        <v>586</v>
-      </c>
-      <c r="F59" s="79" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E60" s="127" t="s">
-        <v>586</v>
-      </c>
-      <c r="F60" s="79" t="s">
+      <c r="F60" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49962,12 +49959,12 @@
       <c r="A61" s="41">
         <v>42736</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="54" t="s">
-        <v>1006</v>
+      <c r="B61" s="55"/>
+      <c r="C61" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>995</v>
       </c>
       <c r="E61" s="127" t="s">
         <v>586</v>
@@ -49980,105 +49977,105 @@
       <c r="A62" s="41">
         <v>42736</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>665</v>
-      </c>
-      <c r="E62" s="246" t="s">
-        <v>1229</v>
+      <c r="B62" s="39"/>
+      <c r="C62" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="E62" s="127" t="s">
+        <v>586</v>
       </c>
       <c r="F62" s="79" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="E63" s="246" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F63" s="74" t="s">
+      <c r="A63" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E63" s="127" t="s">
+        <v>586</v>
+      </c>
+      <c r="F63" s="79" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="34">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="41">
         <v>42736</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E64" s="127" t="s">
+        <v>586</v>
+      </c>
+      <c r="F64" s="79" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B65" s="42"/>
+      <c r="C65" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E65" s="127" t="s">
+        <v>586</v>
+      </c>
+      <c r="F65" s="79" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="55"/>
+      <c r="C66" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="53" t="s">
         <v>665</v>
       </c>
-      <c r="E64" s="387" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F64" s="74" t="s">
+      <c r="E66" s="246" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F66" s="79" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>692</v>
-      </c>
-      <c r="E65" s="387" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F65" s="74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E66" s="387" t="s">
-        <v>586</v>
-      </c>
-      <c r="F66" s="74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="34">
         <v>42736</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>692</v>
-      </c>
-      <c r="E67" s="387" t="s">
-        <v>586</v>
+      <c r="B67" s="50"/>
+      <c r="C67" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="E67" s="246" t="s">
+        <v>1229</v>
       </c>
       <c r="F67" s="74" t="s">
         <v>585</v>
@@ -50093,10 +50090,10 @@
         <v>91</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E68" s="387" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F68" s="74" t="s">
         <v>585</v>
@@ -50111,16 +50108,16 @@
         <v>91</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E69" s="387" t="s">
-        <v>586</v>
+        <v>1227</v>
       </c>
       <c r="F69" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.35" customHeight="1">
+    <row r="70" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="34">
         <v>42736</v>
       </c>
@@ -50128,8 +50125,8 @@
       <c r="C70" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="404" t="s">
-        <v>689</v>
+      <c r="D70" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E70" s="387" t="s">
         <v>586</v>
@@ -50144,13 +50141,13 @@
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="E71" s="387" t="s">
-        <v>1228</v>
+        <v>586</v>
       </c>
       <c r="F71" s="74" t="s">
         <v>585</v>
@@ -50162,13 +50159,13 @@
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E72" s="387" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="F72" s="74" t="s">
         <v>585</v>
@@ -50180,10 +50177,10 @@
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="E73" s="387" t="s">
         <v>586</v>
@@ -50192,16 +50189,16 @@
         <v>585</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:6" ht="13.35" customHeight="1">
       <c r="A74" s="34">
         <v>42736</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>694</v>
+        <v>91</v>
+      </c>
+      <c r="D74" s="404" t="s">
+        <v>689</v>
       </c>
       <c r="E74" s="387" t="s">
         <v>586</v>
@@ -50219,10 +50216,10 @@
         <v>94</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E75" s="387" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F75" s="74" t="s">
         <v>585</v>
@@ -50232,17 +50229,17 @@
       <c r="A76" s="34">
         <v>42736</v>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="43" t="s">
+      <c r="B76" s="39"/>
+      <c r="C76" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="53" t="s">
-        <v>693</v>
-      </c>
-      <c r="E76" s="246" t="s">
-        <v>586</v>
-      </c>
-      <c r="F76" s="79" t="s">
+      <c r="D76" s="36" t="s">
+        <v>694</v>
+      </c>
+      <c r="E76" s="387" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F76" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50252,7 +50249,7 @@
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>665</v>
@@ -50270,15 +50267,15 @@
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E78" s="246" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>694</v>
+      </c>
+      <c r="E78" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="F78" s="79" t="s">
+      <c r="F78" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50287,14 +50284,14 @@
         <v>42736</v>
       </c>
       <c r="B79" s="39"/>
-      <c r="C79" s="428" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="428" t="s">
-        <v>673</v>
+      <c r="C79" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>693</v>
       </c>
       <c r="E79" s="387" t="s">
-        <v>586</v>
+        <v>1230</v>
       </c>
       <c r="F79" s="74" t="s">
         <v>585</v>
@@ -50304,12 +50301,12 @@
       <c r="A80" s="34">
         <v>42736</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>674</v>
+      <c r="B80" s="42"/>
+      <c r="C80" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>693</v>
       </c>
       <c r="E80" s="246" t="s">
         <v>586</v>
@@ -50318,111 +50315,111 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="440">
-        <v>42736</v>
-      </c>
-      <c r="B81" s="434"/>
-      <c r="C81" s="472" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="433" t="s">
+    <row r="81" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B81" s="39"/>
+      <c r="C81" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="E81" s="434" t="s">
+      <c r="E81" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="F81" s="471" t="s">
+      <c r="F81" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="440">
-        <v>42736</v>
-      </c>
-      <c r="B82" s="434"/>
-      <c r="C82" s="472" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="433" t="s">
-        <v>666</v>
-      </c>
-      <c r="E82" s="434" t="s">
+    <row r="82" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B82" s="39"/>
+      <c r="C82" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E82" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F82" s="471" t="s">
+      <c r="F82" s="79" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="34">
         <v>42736</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D83" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E83" s="86" t="s">
+      <c r="B83" s="39"/>
+      <c r="C83" s="428" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="428" t="s">
+        <v>673</v>
+      </c>
+      <c r="E83" s="387" t="s">
         <v>586</v>
       </c>
       <c r="F83" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:6" s="290" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="34">
         <v>42736</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="36" t="s">
-        <v>106</v>
+      <c r="B84" s="39"/>
+      <c r="C84" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E84" s="86" t="s">
+        <v>674</v>
+      </c>
+      <c r="E84" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F84" s="188" t="s">
-        <v>587</v>
+      <c r="F84" s="79" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E85" s="86" t="s">
+      <c r="A85" s="440">
+        <v>42736</v>
+      </c>
+      <c r="B85" s="434"/>
+      <c r="C85" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="433" t="s">
+        <v>665</v>
+      </c>
+      <c r="E85" s="434" t="s">
         <v>586</v>
       </c>
-      <c r="F85" s="74" t="s">
+      <c r="F85" s="471" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E86" s="86" t="s">
+      <c r="A86" s="440">
+        <v>42736</v>
+      </c>
+      <c r="B86" s="434"/>
+      <c r="C86" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="433" t="s">
+        <v>666</v>
+      </c>
+      <c r="E86" s="434" t="s">
         <v>586</v>
       </c>
-      <c r="F86" s="74" t="s">
+      <c r="F86" s="471" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50434,8 +50431,8 @@
       <c r="C87" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="38" t="s">
-        <v>1044</v>
+      <c r="D87" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E87" s="86" t="s">
         <v>586</v>
@@ -50452,14 +50449,14 @@
       <c r="C88" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>1042</v>
+      <c r="D88" s="38" t="s">
+        <v>1036</v>
       </c>
       <c r="E88" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F88" s="188" t="s">
-        <v>1231</v>
+        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -50471,13 +50468,13 @@
         <v>106</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="E89" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F89" s="188" t="s">
-        <v>1231</v>
+      <c r="F89" s="74" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -50489,7 +50486,7 @@
         <v>106</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="E90" s="86" t="s">
         <v>586</v>
@@ -50506,50 +50503,50 @@
       <c r="C91" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>1050</v>
+      <c r="D91" s="38" t="s">
+        <v>1044</v>
       </c>
       <c r="E91" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F91" s="188" t="s">
+      <c r="F91" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="92" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B92" s="531"/>
-      <c r="C92" s="483" t="s">
-        <v>109</v>
-      </c>
-      <c r="D92" s="483" t="s">
-        <v>665</v>
-      </c>
-      <c r="E92" s="517" t="s">
+    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="50"/>
+      <c r="C92" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E92" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F92" s="532" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B93" s="531"/>
-      <c r="C93" s="483" t="s">
-        <v>109</v>
-      </c>
-      <c r="D93" s="483" t="s">
-        <v>665</v>
-      </c>
-      <c r="E93" s="517" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F93" s="532" t="s">
-        <v>585</v>
+      <c r="F92" s="188" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="50"/>
+      <c r="C93" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E93" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F93" s="188" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -50557,11 +50554,11 @@
         <v>42736</v>
       </c>
       <c r="B94" s="50"/>
-      <c r="C94" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>665</v>
+      <c r="C94" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>1052</v>
       </c>
       <c r="E94" s="86" t="s">
         <v>586</v>
@@ -50575,16 +50572,16 @@
         <v>42736</v>
       </c>
       <c r="B95" s="50"/>
-      <c r="C95" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>1036</v>
+      <c r="C95" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="E95" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F95" s="74" t="s">
+      <c r="F95" s="188" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50592,9 +50589,9 @@
       <c r="A96" s="485">
         <v>42736</v>
       </c>
-      <c r="B96" s="531"/>
+      <c r="B96" s="530"/>
       <c r="C96" s="483" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D96" s="483" t="s">
         <v>665</v>
@@ -50602,7 +50599,7 @@
       <c r="E96" s="517" t="s">
         <v>586</v>
       </c>
-      <c r="F96" s="532" t="s">
+      <c r="F96" s="531" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50610,17 +50607,89 @@
       <c r="A97" s="485">
         <v>42736</v>
       </c>
-      <c r="B97" s="531"/>
+      <c r="B97" s="530"/>
       <c r="C97" s="483" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D97" s="483" t="s">
         <v>665</v>
       </c>
       <c r="E97" s="517" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F97" s="531" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="50"/>
+      <c r="C98" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E98" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F97" s="532" t="s">
+      <c r="F98" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="50"/>
+      <c r="C99" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E99" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F99" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="530"/>
+      <c r="C100" s="483" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="483" t="s">
+        <v>665</v>
+      </c>
+      <c r="E100" s="517" t="s">
+        <v>586</v>
+      </c>
+      <c r="F100" s="531" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="530"/>
+      <c r="C101" s="483" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="483" t="s">
+        <v>665</v>
+      </c>
+      <c r="E101" s="517" t="s">
+        <v>586</v>
+      </c>
+      <c r="F101" s="531" t="s">
         <v>587</v>
       </c>
     </row>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC02B20-2AB0-4042-B733-69F3B9C10BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73C1E43-262F-9C49-A97F-0D44D296496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$28:$V$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$29:$V$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$O$124</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10023" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10024" uniqueCount="1284">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3989,10 +3989,13 @@
     <t>caseworker-befta_master,caseworker-befta_master-solicitor</t>
   </si>
   <si>
-    <t>createCaseSubmitTTL</t>
-  </si>
-  <si>
-    <t>updateCaseSubmitTTL</t>
+    <t>updateCaseSubmitSuspendedTTL</t>
+  </si>
+  <si>
+    <t>Update a case about to submit modifying SuspendedTTL</t>
+  </si>
+  <si>
+    <t>${TEST_STUB_SERVICE_BASE_URL:http://ccd-test-stubs-service-aat.service.core-compute-aat.internal}/callback_about_to_submit_suspended_ttl_modified</t>
   </si>
 </sst>
 </file>
@@ -14987,7 +14990,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:V69" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191" tableBorderDxfId="189" totalsRowBorderDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:V70" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191" tableBorderDxfId="189" totalsRowBorderDxfId="188">
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="187"/>
     <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="186"/>
@@ -15195,7 +15198,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F88" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F86" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
@@ -22019,10 +22022,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -22322,32 +22325,36 @@
     </row>
     <row r="6" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="35">
-        <v>42736</v>
+        <v>42737</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>926</v>
+        <v>1281</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>927</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>923</v>
+        <v>925</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>1282</v>
       </c>
       <c r="G6" s="49">
         <v>1</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="422"/>
+      <c r="I6" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="M6" s="73" t="s">
+        <v>1283</v>
+      </c>
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
       <c r="P6" s="73"/>
@@ -22366,35 +22373,31 @@
       <c r="W6" s="483"/>
     </row>
     <row r="7" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="128">
+      <c r="A7" s="35">
         <v>42736</v>
       </c>
       <c r="B7" s="35"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>929</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>930</v>
+        <v>927</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>923</v>
       </c>
       <c r="G7" s="49">
         <v>1</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>855</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="421" t="s">
-        <v>931</v>
-      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="422"/>
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
       <c r="N7" s="73"/>
@@ -22412,9 +22415,7 @@
       </c>
       <c r="U7" s="36"/>
       <c r="V7" s="36"/>
-      <c r="W7" s="38" t="s">
-        <v>932</v>
-      </c>
+      <c r="W7" s="36"/>
     </row>
     <row r="8" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="128">
@@ -22425,13 +22426,13 @@
         <v>41</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G8" s="49">
         <v>1</v>
@@ -22463,58 +22464,58 @@
       </c>
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
+      <c r="W8" s="38" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="9" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="525">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="525"/>
-      <c r="C9" s="489" t="s">
+      <c r="A9" s="128">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="489" t="s">
-        <v>936</v>
-      </c>
-      <c r="E9" s="489" t="s">
-        <v>937</v>
-      </c>
-      <c r="F9" s="489" t="s">
-        <v>938</v>
-      </c>
-      <c r="G9" s="526">
+      <c r="D9" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>934</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>935</v>
+      </c>
+      <c r="G9" s="49">
         <v>1</v>
       </c>
-      <c r="H9" s="489" t="s">
+      <c r="H9" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I9" s="489" t="s">
+      <c r="I9" s="38" t="s">
         <v>855</v>
       </c>
-      <c r="J9" s="489"/>
-      <c r="K9" s="527" t="s">
-        <v>939</v>
-      </c>
-      <c r="L9" s="528"/>
-      <c r="M9" s="528"/>
-      <c r="N9" s="528"/>
-      <c r="O9" s="528"/>
-      <c r="P9" s="528"/>
-      <c r="Q9" s="489" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="421" t="s">
+        <v>931</v>
+      </c>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="489" t="s">
+      <c r="R9" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="S9" s="515"/>
-      <c r="T9" s="515" t="s">
+      <c r="S9" s="50"/>
+      <c r="T9" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="U9" s="489"/>
-      <c r="V9" s="489"/>
-      <c r="W9" s="529" t="s">
-        <v>932</v>
-      </c>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
     </row>
     <row r="10" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="525">
@@ -22525,13 +22526,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="489" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E10" s="489" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F10" s="489" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G10" s="526">
         <v>1</v>
@@ -22544,7 +22545,7 @@
       </c>
       <c r="J10" s="489"/>
       <c r="K10" s="527" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="L10" s="528"/>
       <c r="M10" s="528"/>
@@ -22576,13 +22577,13 @@
         <v>41</v>
       </c>
       <c r="D11" s="489" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E11" s="489" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F11" s="489" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G11" s="526">
         <v>1</v>
@@ -22595,7 +22596,7 @@
       </c>
       <c r="J11" s="489"/>
       <c r="K11" s="527" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="L11" s="528"/>
       <c r="M11" s="528"/>
@@ -22619,50 +22620,54 @@
       </c>
     </row>
     <row r="12" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A12" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="G12" s="49">
+      <c r="A12" s="525">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="525"/>
+      <c r="C12" s="489" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="489" t="s">
+        <v>944</v>
+      </c>
+      <c r="E12" s="489" t="s">
+        <v>945</v>
+      </c>
+      <c r="F12" s="489" t="s">
+        <v>946</v>
+      </c>
+      <c r="G12" s="526">
         <v>1</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36" t="s">
+      <c r="H12" s="489" t="s">
         <v>853</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="402"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="36" t="s">
+      <c r="I12" s="489" t="s">
+        <v>855</v>
+      </c>
+      <c r="J12" s="489"/>
+      <c r="K12" s="527" t="s">
+        <v>947</v>
+      </c>
+      <c r="L12" s="528"/>
+      <c r="M12" s="528"/>
+      <c r="N12" s="528"/>
+      <c r="O12" s="528"/>
+      <c r="P12" s="528"/>
+      <c r="Q12" s="489" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="R12" s="489" t="s">
         <v>250</v>
       </c>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="W12" s="483" t="s">
-        <v>948</v>
+      <c r="S12" s="515"/>
+      <c r="T12" s="515" t="s">
+        <v>246</v>
+      </c>
+      <c r="U12" s="489"/>
+      <c r="V12" s="489"/>
+      <c r="W12" s="529" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
@@ -22673,26 +22678,24 @@
       <c r="C13" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>949</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>950</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>951</v>
+      <c r="D13" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>923</v>
       </c>
       <c r="G13" s="49">
         <v>1</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>857</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="75"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="402"/>
       <c r="L13" s="73"/>
       <c r="M13" s="73"/>
       <c r="N13" s="73"/>
@@ -22708,36 +22711,40 @@
       <c r="T13" s="50"/>
       <c r="U13" s="36"/>
       <c r="V13" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="W13" s="38"/>
+        <v>250</v>
+      </c>
+      <c r="W13" s="483" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="14" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="35">
         <v>42736</v>
       </c>
       <c r="B14" s="35"/>
-      <c r="C14" s="38" t="s">
-        <v>49</v>
+      <c r="C14" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>923</v>
+        <v>949</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>950</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>951</v>
       </c>
       <c r="G14" s="49">
         <v>1</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36" t="s">
+      <c r="H14" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="73"/>
+      <c r="I14" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="73"/>
       <c r="M14" s="73"/>
       <c r="N14" s="73"/>
@@ -22752,36 +22759,36 @@
       <c r="S14" s="50"/>
       <c r="T14" s="50"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="483"/>
+      <c r="V14" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="W14" s="38"/>
     </row>
     <row r="15" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="35">
         <v>42736</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>667</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>952</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>953</v>
+      <c r="D15" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>923</v>
       </c>
       <c r="G15" s="49">
         <v>1</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I15" s="38" t="s">
-        <v>855</v>
-      </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="73"/>
       <c r="L15" s="73"/>
       <c r="M15" s="73"/>
@@ -22798,33 +22805,35 @@
       <c r="T15" s="50"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
+      <c r="W15" s="483"/>
     </row>
     <row r="16" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="35">
         <v>42736</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>629</v>
+      <c r="D16" s="76" t="s">
+        <v>667</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G16" s="49">
         <v>1</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="I16" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="J16" s="38"/>
       <c r="K16" s="73"/>
       <c r="L16" s="73"/>
       <c r="M16" s="73"/>
@@ -22841,7 +22850,7 @@
       <c r="T16" s="50"/>
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
-      <c r="W16" s="483"/>
+      <c r="W16" s="36"/>
     </row>
     <row r="17" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="35">
@@ -22852,16 +22861,16 @@
         <v>49</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>956</v>
+        <v>629</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G17" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36" t="s">
@@ -22884,7 +22893,7 @@
       <c r="T17" s="50"/>
       <c r="U17" s="36"/>
       <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
+      <c r="W17" s="483"/>
     </row>
     <row r="18" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="35">
@@ -22895,16 +22904,16 @@
         <v>49</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G18" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36" t="s">
@@ -22927,7 +22936,7 @@
       <c r="T18" s="50"/>
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
-      <c r="W18" s="483"/>
+      <c r="W18" s="36"/>
     </row>
     <row r="19" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="35">
@@ -22938,16 +22947,16 @@
         <v>49</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G19" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36" t="s">
@@ -22970,27 +22979,27 @@
       <c r="T19" s="50"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
+      <c r="W19" s="483"/>
     </row>
     <row r="20" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="35">
         <v>42736</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>923</v>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>960</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>961</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>962</v>
       </c>
       <c r="G20" s="49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="36" t="s">
@@ -23013,99 +23022,95 @@
       <c r="T20" s="50"/>
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
-      <c r="W20" s="483"/>
-    </row>
-    <row r="21" spans="1:23" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="247">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="247"/>
-      <c r="C21" s="234" t="s">
+      <c r="W20" s="36"/>
+    </row>
+    <row r="21" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="G21" s="49">
+        <v>1</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="483"/>
+    </row>
+    <row r="22" spans="1:23" s="403" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="247">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="247"/>
+      <c r="C22" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="248" t="s">
+      <c r="D22" s="248" t="s">
         <v>665</v>
       </c>
-      <c r="E21" s="248" t="s">
+      <c r="E22" s="248" t="s">
         <v>923</v>
       </c>
-      <c r="F21" s="248" t="s">
+      <c r="F22" s="248" t="s">
         <v>923</v>
       </c>
-      <c r="G21" s="250">
+      <c r="G22" s="250">
         <v>1</v>
       </c>
-      <c r="H21" s="248"/>
-      <c r="I21" s="248" t="s">
+      <c r="H22" s="248"/>
+      <c r="I22" s="248" t="s">
         <v>853</v>
       </c>
-      <c r="J21" s="248"/>
-      <c r="K21" s="402"/>
-      <c r="L21" s="342"/>
-      <c r="M21" s="342"/>
-      <c r="N21" s="342"/>
-      <c r="O21" s="342"/>
-      <c r="P21" s="342"/>
-      <c r="Q21" s="248" t="s">
+      <c r="J22" s="248"/>
+      <c r="K22" s="402"/>
+      <c r="L22" s="342"/>
+      <c r="M22" s="342"/>
+      <c r="N22" s="342"/>
+      <c r="O22" s="342"/>
+      <c r="P22" s="342"/>
+      <c r="Q22" s="248" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="234" t="s">
+      <c r="R22" s="234" t="s">
         <v>246</v>
       </c>
-      <c r="S21" s="236" t="s">
+      <c r="S22" s="236" t="s">
         <v>246</v>
       </c>
-      <c r="T21" s="233"/>
-      <c r="U21" s="248"/>
-      <c r="V21" s="248"/>
-      <c r="W21" s="248"/>
-    </row>
-    <row r="22" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>964</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>964</v>
-      </c>
-      <c r="G22" s="49">
-        <v>1</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>860</v>
-      </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="S22" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="T22" s="50"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="483"/>
+      <c r="T22" s="233"/>
+      <c r="U22" s="248"/>
+      <c r="V22" s="248"/>
+      <c r="W22" s="248"/>
     </row>
     <row r="23" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="35">
@@ -23116,22 +23121,22 @@
         <v>55</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G23" s="49">
         <v>1</v>
       </c>
       <c r="H23" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I23" s="36" t="s">
         <v>860</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>861</v>
       </c>
       <c r="J23" s="36"/>
       <c r="K23" s="73"/>
@@ -23152,7 +23157,7 @@
       <c r="T23" s="50"/>
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
+      <c r="W23" s="483"/>
     </row>
     <row r="24" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="35">
@@ -23163,22 +23168,22 @@
         <v>55</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G24" s="49">
         <v>1</v>
       </c>
       <c r="H24" s="36" t="s">
+        <v>860</v>
+      </c>
+      <c r="I24" s="36" t="s">
         <v>861</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>860</v>
       </c>
       <c r="J24" s="36"/>
       <c r="K24" s="73"/>
@@ -23199,7 +23204,7 @@
       <c r="T24" s="50"/>
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
-      <c r="W24" s="483"/>
+      <c r="W24" s="36"/>
     </row>
     <row r="25" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="35">
@@ -23210,22 +23215,22 @@
         <v>55</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G25" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>971</v>
+        <v>861</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>971</v>
+        <v>860</v>
       </c>
       <c r="J25" s="36"/>
       <c r="K25" s="73"/>
@@ -23246,31 +23251,33 @@
       <c r="T25" s="50"/>
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
+      <c r="W25" s="483"/>
     </row>
     <row r="26" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="35">
         <v>42736</v>
       </c>
       <c r="B26" s="35"/>
-      <c r="C26" s="36" t="s">
-        <v>58</v>
+      <c r="C26" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>665</v>
+        <v>969</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>923</v>
+        <v>970</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>923</v>
+        <v>970</v>
       </c>
       <c r="G26" s="49">
-        <v>1</v>
-      </c>
-      <c r="H26" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>971</v>
+      </c>
       <c r="I26" s="36" t="s">
-        <v>853</v>
+        <v>971</v>
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="73"/>
@@ -23283,13 +23290,15 @@
         <v>45</v>
       </c>
       <c r="R26" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="S26" s="50"/>
+        <v>246</v>
+      </c>
+      <c r="S26" s="50" t="s">
+        <v>246</v>
+      </c>
       <c r="T26" s="50"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
-      <c r="W26" s="483"/>
+      <c r="W26" s="36"/>
     </row>
     <row r="27" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="35">
@@ -23297,7 +23306,7 @@
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>665</v>
@@ -23332,7 +23341,7 @@
       <c r="T27" s="50"/>
       <c r="U27" s="36"/>
       <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
+      <c r="W27" s="483"/>
     </row>
     <row r="28" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="35">
@@ -23343,22 +23352,20 @@
         <v>61</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>972</v>
+        <v>665</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="G28" s="49">
         <v>1</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="36"/>
+      <c r="I28" s="36" t="s">
         <v>853</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>862</v>
       </c>
       <c r="J28" s="36"/>
       <c r="K28" s="73"/>
@@ -23377,7 +23384,7 @@
       <c r="T28" s="50"/>
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
-      <c r="W28" s="483"/>
+      <c r="W28" s="36"/>
     </row>
     <row r="29" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="35">
@@ -23388,20 +23395,22 @@
         <v>61</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G29" s="49">
         <v>1</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="36" t="s">
+        <v>853</v>
+      </c>
       <c r="I29" s="36" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="73"/>
@@ -23420,7 +23429,7 @@
       <c r="T29" s="50"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="483"/>
     </row>
     <row r="30" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="35">
@@ -23431,13 +23440,13 @@
         <v>61</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G30" s="49">
         <v>1</v>
@@ -23463,7 +23472,7 @@
       <c r="T30" s="50"/>
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
-      <c r="W30" s="483"/>
+      <c r="W30" s="36"/>
     </row>
     <row r="31" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="35">
@@ -23474,13 +23483,13 @@
         <v>61</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G31" s="49">
         <v>1</v>
@@ -23506,24 +23515,24 @@
       <c r="T31" s="50"/>
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
+      <c r="W31" s="483"/>
     </row>
     <row r="32" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="35">
         <v>42736</v>
       </c>
       <c r="B32" s="35"/>
-      <c r="C32" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>923</v>
+      <c r="C32" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>979</v>
       </c>
       <c r="G32" s="49">
         <v>1</v>
@@ -23549,33 +23558,31 @@
       <c r="T32" s="50"/>
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
-      <c r="W32" s="483"/>
+      <c r="W32" s="36"/>
     </row>
     <row r="33" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="35">
         <v>42736</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="77" t="s">
-        <v>980</v>
+      <c r="D33" s="38" t="s">
+        <v>665</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>981</v>
+        <v>923</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>982</v>
+        <v>923</v>
       </c>
       <c r="G33" s="49">
-        <v>2</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>983</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H33" s="36"/>
       <c r="I33" s="36" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="J33" s="36"/>
       <c r="K33" s="73"/>
@@ -23594,7 +23601,7 @@
       <c r="T33" s="50"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
+      <c r="W33" s="483"/>
     </row>
     <row r="34" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="35">
@@ -23605,22 +23612,22 @@
         <v>64</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G34" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>983</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J34" s="36"/>
       <c r="K34" s="73"/>
@@ -23639,31 +23646,33 @@
       <c r="T34" s="50"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="483"/>
+      <c r="W34" s="36"/>
     </row>
     <row r="35" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="35">
         <v>42736</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>923</v>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>984</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>985</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>986</v>
       </c>
       <c r="G35" s="49">
-        <v>1</v>
-      </c>
-      <c r="H35" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>983</v>
+      </c>
       <c r="I35" s="36" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="73"/>
@@ -23679,20 +23688,18 @@
         <v>250</v>
       </c>
       <c r="S35" s="50"/>
-      <c r="T35" s="50" t="s">
-        <v>246</v>
-      </c>
+      <c r="T35" s="50"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
+      <c r="W35" s="483"/>
     </row>
     <row r="36" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="35">
         <v>42736</v>
       </c>
       <c r="B36" s="35"/>
-      <c r="C36" s="38" t="s">
-        <v>70</v>
+      <c r="C36" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>665</v>
@@ -23711,7 +23718,7 @@
         <v>853</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="72"/>
+      <c r="K36" s="73"/>
       <c r="L36" s="73"/>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
@@ -23729,24 +23736,24 @@
       </c>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
-      <c r="W36" s="483"/>
+      <c r="W36" s="36"/>
     </row>
     <row r="37" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="35">
         <v>42736</v>
       </c>
       <c r="B37" s="35"/>
-      <c r="C37" s="36" t="s">
-        <v>73</v>
+      <c r="C37" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>665</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>868</v>
+        <v>923</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>987</v>
+        <v>923</v>
       </c>
       <c r="G37" s="49">
         <v>1</v>
@@ -23756,11 +23763,11 @@
         <v>853</v>
       </c>
       <c r="J37" s="36"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="39"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
-      <c r="O37" s="75"/>
+      <c r="O37" s="73"/>
       <c r="P37" s="73"/>
       <c r="Q37" s="36" t="s">
         <v>45</v>
@@ -23768,15 +23775,13 @@
       <c r="R37" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="S37" s="50" t="s">
-        <v>250</v>
-      </c>
+      <c r="S37" s="50"/>
       <c r="T37" s="50" t="s">
         <v>246</v>
       </c>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
+      <c r="W37" s="483"/>
     </row>
     <row r="38" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="35">
@@ -23787,29 +23792,27 @@
         <v>73</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>988</v>
+        <v>868</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G38" s="49">
-        <v>2</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>971</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H38" s="36"/>
       <c r="I38" s="36" t="s">
-        <v>971</v>
+        <v>853</v>
       </c>
       <c r="J38" s="36"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="39"/>
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
+      <c r="O38" s="75"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="36" t="s">
         <v>45</v>
@@ -23820,10 +23823,12 @@
       <c r="S38" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="T38" s="50"/>
+      <c r="T38" s="50" t="s">
+        <v>246</v>
+      </c>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
-      <c r="W38" s="483"/>
+      <c r="W38" s="36"/>
     </row>
     <row r="39" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="35">
@@ -23834,13 +23839,13 @@
         <v>73</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G39" s="49">
         <v>2</v>
@@ -23870,31 +23875,33 @@
       <c r="T39" s="50"/>
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
+      <c r="W39" s="483"/>
     </row>
     <row r="40" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="35">
         <v>42736</v>
       </c>
       <c r="B40" s="35"/>
-      <c r="C40" s="38" t="s">
-        <v>76</v>
+      <c r="C40" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>923</v>
+        <v>990</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>923</v>
+        <v>991</v>
       </c>
       <c r="G40" s="49">
-        <v>1</v>
-      </c>
-      <c r="H40" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>971</v>
+      </c>
       <c r="I40" s="36" t="s">
-        <v>853</v>
+        <v>971</v>
       </c>
       <c r="J40" s="36"/>
       <c r="K40" s="73"/>
@@ -23907,15 +23914,15 @@
         <v>45</v>
       </c>
       <c r="R40" s="36" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="S40" s="50" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="T40" s="50"/>
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
-      <c r="W40" s="483"/>
+      <c r="W40" s="36"/>
     </row>
     <row r="41" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="35">
@@ -23926,27 +23933,23 @@
         <v>76</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>992</v>
+        <v>665</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>993</v>
+        <v>923</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>993</v>
+        <v>923</v>
       </c>
       <c r="G41" s="49">
-        <v>2</v>
-      </c>
-      <c r="H41" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I41" s="36" t="s">
-        <v>870</v>
-      </c>
       <c r="J41" s="36"/>
-      <c r="K41" s="421" t="s">
-        <v>994</v>
-      </c>
+      <c r="K41" s="73"/>
       <c r="L41" s="73"/>
       <c r="M41" s="73"/>
       <c r="N41" s="73"/>
@@ -23964,7 +23967,7 @@
       <c r="T41" s="50"/>
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
+      <c r="W41" s="483"/>
     </row>
     <row r="42" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="35">
@@ -23975,16 +23978,16 @@
         <v>76</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G42" s="49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H42" s="36" t="s">
         <v>853</v>
@@ -23993,8 +23996,8 @@
         <v>870</v>
       </c>
       <c r="J42" s="36"/>
-      <c r="K42" s="422" t="s">
-        <v>998</v>
+      <c r="K42" s="421" t="s">
+        <v>994</v>
       </c>
       <c r="L42" s="73"/>
       <c r="M42" s="73"/>
@@ -24013,77 +24016,83 @@
       <c r="T42" s="50"/>
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
-      <c r="W42" s="483"/>
+      <c r="W42" s="36"/>
     </row>
     <row r="43" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="35">
-        <v>42737</v>
+        <v>42736</v>
       </c>
       <c r="B43" s="35"/>
-      <c r="C43" s="291" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="310" t="s">
-        <v>999</v>
-      </c>
-      <c r="E43" s="310" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F43" s="331"/>
-      <c r="G43" s="331">
-        <v>1</v>
-      </c>
-      <c r="H43" s="331"/>
-      <c r="I43" s="310" t="s">
-        <v>872</v>
-      </c>
-      <c r="J43" s="310"/>
-      <c r="K43" s="331"/>
-      <c r="L43" s="333"/>
-      <c r="M43" s="343"/>
-      <c r="N43" s="333"/>
-      <c r="O43" s="333"/>
-      <c r="P43" s="333"/>
-      <c r="Q43" s="331" t="s">
-        <v>368</v>
-      </c>
-      <c r="R43" s="310" t="s">
-        <v>1001</v>
-      </c>
-      <c r="S43" s="331"/>
-      <c r="T43" s="331"/>
-      <c r="U43" s="331"/>
-      <c r="V43" s="331"/>
-      <c r="W43" s="331"/>
+      <c r="C43" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>995</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>996</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>997</v>
+      </c>
+      <c r="G43" s="49">
+        <v>5</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="J43" s="36"/>
+      <c r="K43" s="422" t="s">
+        <v>998</v>
+      </c>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="S43" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="T43" s="50"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="483"/>
     </row>
     <row r="44" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="35">
-        <v>42738</v>
+        <v>42737</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="291" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="310" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E44" s="310" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="331"/>
       <c r="G44" s="331">
-        <v>2</v>
-      </c>
-      <c r="H44" s="331" t="s">
-        <v>872</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H44" s="331"/>
       <c r="I44" s="310" t="s">
         <v>872</v>
       </c>
       <c r="J44" s="310"/>
-      <c r="K44" s="333"/>
+      <c r="K44" s="331"/>
       <c r="L44" s="333"/>
-      <c r="M44" s="333"/>
+      <c r="M44" s="343"/>
       <c r="N44" s="333"/>
       <c r="O44" s="333"/>
       <c r="P44" s="333"/>
@@ -24097,31 +24106,31 @@
       <c r="T44" s="331"/>
       <c r="U44" s="331"/>
       <c r="V44" s="331"/>
-      <c r="W44" s="483"/>
+      <c r="W44" s="331"/>
     </row>
     <row r="45" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="35">
-        <v>42739</v>
+        <v>42738</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="291" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="310" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E45" s="310" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F45" s="331"/>
       <c r="G45" s="331">
-        <v>3</v>
-      </c>
-      <c r="H45" s="310" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="331" t="s">
         <v>872</v>
       </c>
       <c r="I45" s="310" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J45" s="310"/>
       <c r="K45" s="333"/>
@@ -24140,31 +24149,31 @@
       <c r="T45" s="331"/>
       <c r="U45" s="331"/>
       <c r="V45" s="331"/>
-      <c r="W45" s="331"/>
+      <c r="W45" s="483"/>
     </row>
     <row r="46" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="35">
-        <v>42740</v>
+        <v>42739</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="291" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="310" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E46" s="310" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F46" s="331"/>
       <c r="G46" s="331">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="310" t="s">
-        <v>971</v>
+        <v>872</v>
       </c>
       <c r="I46" s="310" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J46" s="310"/>
       <c r="K46" s="333"/>
@@ -24183,54 +24192,50 @@
       <c r="T46" s="331"/>
       <c r="U46" s="331"/>
       <c r="V46" s="331"/>
-      <c r="W46" s="483"/>
+      <c r="W46" s="331"/>
     </row>
     <row r="47" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A47" s="210">
-        <v>42736</v>
-      </c>
-      <c r="B47" s="210"/>
-      <c r="C47" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>662</v>
-      </c>
-      <c r="E47" s="193" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F47" s="193" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G47" s="212">
-        <v>1</v>
-      </c>
-      <c r="H47" s="211" t="s">
-        <v>853</v>
-      </c>
-      <c r="I47" s="193" t="s">
-        <v>855</v>
-      </c>
-      <c r="J47" s="193"/>
-      <c r="K47" s="339"/>
-      <c r="L47" s="216"/>
-      <c r="M47" s="216"/>
-      <c r="N47" s="216"/>
-      <c r="O47" s="216"/>
-      <c r="P47" s="216"/>
-      <c r="Q47" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="R47" s="211" t="s">
-        <v>250</v>
-      </c>
-      <c r="S47" s="191"/>
-      <c r="T47" s="191"/>
-      <c r="U47" s="211"/>
-      <c r="V47" s="211" t="s">
-        <v>250</v>
-      </c>
-      <c r="W47" s="211"/>
+      <c r="A47" s="35">
+        <v>42740</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="291" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="310" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E47" s="310" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F47" s="331"/>
+      <c r="G47" s="331">
+        <v>4</v>
+      </c>
+      <c r="H47" s="310" t="s">
+        <v>971</v>
+      </c>
+      <c r="I47" s="310" t="s">
+        <v>876</v>
+      </c>
+      <c r="J47" s="310"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="333"/>
+      <c r="O47" s="333"/>
+      <c r="P47" s="333"/>
+      <c r="Q47" s="331" t="s">
+        <v>368</v>
+      </c>
+      <c r="R47" s="310" t="s">
+        <v>1001</v>
+      </c>
+      <c r="S47" s="331"/>
+      <c r="T47" s="331"/>
+      <c r="U47" s="331"/>
+      <c r="V47" s="331"/>
+      <c r="W47" s="483"/>
     </row>
     <row r="48" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="210">
@@ -24241,22 +24246,24 @@
         <v>82</v>
       </c>
       <c r="D48" s="193" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="E48" s="193" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F48" s="193" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G48" s="212">
         <v>1</v>
       </c>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211" t="s">
+      <c r="H48" s="211" t="s">
         <v>853</v>
       </c>
-      <c r="J48" s="211"/>
+      <c r="I48" s="193" t="s">
+        <v>855</v>
+      </c>
+      <c r="J48" s="193"/>
       <c r="K48" s="339"/>
       <c r="L48" s="216"/>
       <c r="M48" s="216"/>
@@ -24277,95 +24284,93 @@
       </c>
       <c r="W48" s="211"/>
     </row>
-    <row r="49" spans="1:23" s="319" customFormat="1" ht="20" customHeight="1">
-      <c r="A49" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="38" t="s">
+    <row r="49" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A49" s="210">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="210"/>
+      <c r="C49" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="193" t="s">
+        <v>645</v>
+      </c>
+      <c r="E49" s="193" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F49" s="193" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G49" s="212">
+        <v>1</v>
+      </c>
+      <c r="H49" s="211"/>
+      <c r="I49" s="211" t="s">
+        <v>853</v>
+      </c>
+      <c r="J49" s="211"/>
+      <c r="K49" s="339"/>
+      <c r="L49" s="216"/>
+      <c r="M49" s="216"/>
+      <c r="N49" s="216"/>
+      <c r="O49" s="216"/>
+      <c r="P49" s="216"/>
+      <c r="Q49" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="R49" s="211" t="s">
+        <v>250</v>
+      </c>
+      <c r="S49" s="191"/>
+      <c r="T49" s="191"/>
+      <c r="U49" s="211"/>
+      <c r="V49" s="211" t="s">
+        <v>250</v>
+      </c>
+      <c r="W49" s="211"/>
+    </row>
+    <row r="50" spans="1:23" s="319" customFormat="1" ht="20" customHeight="1">
+      <c r="A50" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="83" t="s">
+      <c r="D50" s="83" t="s">
         <v>665</v>
       </c>
-      <c r="E49" s="83" t="s">
+      <c r="E50" s="83" t="s">
         <v>923</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F50" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G50" s="49">
         <v>1</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36" t="s">
+      <c r="H50" s="36"/>
+      <c r="I50" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J49" s="36"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="36" t="s">
+      <c r="J50" s="36"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R49" s="36" t="s">
+      <c r="R50" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-    </row>
-    <row r="50" spans="1:23" s="238" customFormat="1" ht="17" customHeight="1">
-      <c r="A50" s="405">
-        <v>42736</v>
-      </c>
-      <c r="B50" s="406"/>
-      <c r="C50" s="406" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="407" t="s">
-        <v>666</v>
-      </c>
-      <c r="E50" s="407" t="s">
-        <v>925</v>
-      </c>
-      <c r="F50" s="408" t="s">
-        <v>925</v>
-      </c>
-      <c r="G50" s="409">
-        <v>2</v>
-      </c>
-      <c r="H50" s="410" t="s">
-        <v>853</v>
-      </c>
-      <c r="I50" s="410" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J50" s="408" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K50" s="411"/>
-      <c r="L50" s="411"/>
-      <c r="M50" s="411"/>
-      <c r="N50" s="411"/>
-      <c r="O50" s="411"/>
-      <c r="P50" s="411"/>
-      <c r="Q50" s="410" t="s">
-        <v>45</v>
-      </c>
-      <c r="R50" s="410" t="s">
-        <v>250</v>
-      </c>
-      <c r="S50" s="412"/>
-      <c r="T50" s="412"/>
-      <c r="U50" s="413"/>
-      <c r="V50" s="413"/>
-      <c r="W50" s="413"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
     </row>
     <row r="51" spans="1:23" s="238" customFormat="1" ht="17" customHeight="1">
       <c r="A51" s="405">
@@ -24376,25 +24381,25 @@
         <v>88</v>
       </c>
       <c r="D51" s="407" t="s">
-        <v>1014</v>
+        <v>666</v>
       </c>
       <c r="E51" s="407" t="s">
-        <v>1015</v>
+        <v>925</v>
       </c>
       <c r="F51" s="408" t="s">
-        <v>1015</v>
+        <v>925</v>
       </c>
       <c r="G51" s="409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="410" t="s">
         <v>853</v>
       </c>
       <c r="I51" s="410" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="J51" s="408" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="K51" s="411"/>
       <c r="L51" s="411"/>
@@ -24414,48 +24419,52 @@
       <c r="V51" s="413"/>
       <c r="W51" s="413"/>
     </row>
-    <row r="52" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
-      <c r="A52" s="479">
-        <v>42739</v>
-      </c>
-      <c r="B52" s="247"/>
-      <c r="C52" s="234" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="248" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E52" s="248" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F52" s="234" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G52" s="250">
-        <v>7</v>
-      </c>
-      <c r="H52" s="248"/>
-      <c r="I52" s="248" t="s">
+    <row r="52" spans="1:23" s="238" customFormat="1" ht="17" customHeight="1">
+      <c r="A52" s="405">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="406"/>
+      <c r="C52" s="406" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="407" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E52" s="407" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F52" s="408" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G52" s="409">
+        <v>3</v>
+      </c>
+      <c r="H52" s="410" t="s">
         <v>853</v>
       </c>
-      <c r="J52" s="248"/>
-      <c r="K52" s="341"/>
-      <c r="L52" s="342"/>
-      <c r="M52" s="342"/>
-      <c r="N52" s="342"/>
-      <c r="O52" s="342"/>
-      <c r="P52" s="342"/>
-      <c r="Q52" s="265" t="s">
+      <c r="I52" s="410" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J52" s="408" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K52" s="411"/>
+      <c r="L52" s="411"/>
+      <c r="M52" s="411"/>
+      <c r="N52" s="411"/>
+      <c r="O52" s="411"/>
+      <c r="P52" s="411"/>
+      <c r="Q52" s="410" t="s">
         <v>45</v>
       </c>
-      <c r="R52" s="265" t="s">
+      <c r="R52" s="410" t="s">
         <v>250</v>
       </c>
-      <c r="S52" s="249"/>
-      <c r="T52" s="249"/>
-      <c r="U52" s="248"/>
-      <c r="V52" s="248"/>
-      <c r="W52" s="248"/>
+      <c r="S52" s="412"/>
+      <c r="T52" s="412"/>
+      <c r="U52" s="413"/>
+      <c r="V52" s="413"/>
+      <c r="W52" s="413"/>
     </row>
     <row r="53" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="479">
@@ -24466,16 +24475,16 @@
         <v>85</v>
       </c>
       <c r="D53" s="248" t="s">
-        <v>673</v>
+        <v>1018</v>
       </c>
       <c r="E53" s="248" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F53" s="234" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G53" s="250">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H53" s="248"/>
       <c r="I53" s="248" t="s">
@@ -24509,16 +24518,16 @@
         <v>85</v>
       </c>
       <c r="D54" s="248" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E54" s="248" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F54" s="234" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G54" s="250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="248"/>
       <c r="I54" s="248" t="s">
@@ -24552,16 +24561,16 @@
         <v>85</v>
       </c>
       <c r="D55" s="248" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E55" s="248" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F55" s="234" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G55" s="250">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55" s="248"/>
       <c r="I55" s="248" t="s">
@@ -24594,17 +24603,17 @@
       <c r="C56" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="234" t="s">
-        <v>1023</v>
+      <c r="D56" s="248" t="s">
+        <v>675</v>
       </c>
       <c r="E56" s="248" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F56" s="234" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G56" s="250">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="248"/>
       <c r="I56" s="248" t="s">
@@ -24637,17 +24646,17 @@
       <c r="C57" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="248" t="s">
-        <v>677</v>
+      <c r="D57" s="234" t="s">
+        <v>1023</v>
       </c>
       <c r="E57" s="248" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F57" s="234" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G57" s="250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57" s="248"/>
       <c r="I57" s="248" t="s">
@@ -24681,16 +24690,16 @@
         <v>85</v>
       </c>
       <c r="D58" s="248" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E58" s="248" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F58" s="234" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G58" s="250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="248"/>
       <c r="I58" s="248" t="s">
@@ -24715,48 +24724,48 @@
       <c r="V58" s="248"/>
       <c r="W58" s="248"/>
     </row>
-    <row r="59" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A59" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="49">
+    <row r="59" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
+      <c r="A59" s="479">
+        <v>42739</v>
+      </c>
+      <c r="B59" s="247"/>
+      <c r="C59" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="248" t="s">
+        <v>682</v>
+      </c>
+      <c r="E59" s="248" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F59" s="234" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G59" s="250">
         <v>1</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36" t="s">
+      <c r="H59" s="248"/>
+      <c r="I59" s="248" t="s">
         <v>853</v>
       </c>
-      <c r="J59" s="36"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="36" t="s">
+      <c r="J59" s="248"/>
+      <c r="K59" s="341"/>
+      <c r="L59" s="342"/>
+      <c r="M59" s="342"/>
+      <c r="N59" s="342"/>
+      <c r="O59" s="342"/>
+      <c r="P59" s="342"/>
+      <c r="Q59" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="R59" s="36" t="s">
+      <c r="R59" s="265" t="s">
         <v>250</v>
       </c>
-      <c r="S59" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
+      <c r="S59" s="249"/>
+      <c r="T59" s="249"/>
+      <c r="U59" s="248"/>
+      <c r="V59" s="248"/>
+      <c r="W59" s="248"/>
     </row>
     <row r="60" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="35">
@@ -24767,22 +24776,18 @@
         <v>91</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>1029</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="F60" s="36"/>
       <c r="G60" s="49">
-        <v>2</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>971</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H60" s="36"/>
       <c r="I60" s="36" t="s">
-        <v>971</v>
+        <v>853</v>
       </c>
       <c r="J60" s="36"/>
       <c r="K60" s="75"/>
@@ -24803,7 +24808,7 @@
       <c r="T60" s="39"/>
       <c r="U60" s="36"/>
       <c r="V60" s="36"/>
-      <c r="W60" s="483"/>
+      <c r="W60" s="36"/>
     </row>
     <row r="61" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="35">
@@ -24814,13 +24819,13 @@
         <v>91</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G61" s="49">
         <v>2</v>
@@ -24850,27 +24855,27 @@
       <c r="T61" s="39"/>
       <c r="U61" s="36"/>
       <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-    </row>
-    <row r="62" spans="1:23" ht="13.25" customHeight="1">
-      <c r="A62" s="34">
+      <c r="W61" s="483"/>
+    </row>
+    <row r="62" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A62" s="35">
         <v>42736</v>
       </c>
       <c r="B62" s="35"/>
       <c r="C62" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F62" s="38" t="s">
-        <v>1032</v>
+      <c r="D62" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>1031</v>
       </c>
       <c r="G62" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="36" t="s">
         <v>971</v>
@@ -24895,36 +24900,40 @@
         <v>250</v>
       </c>
       <c r="T62" s="39"/>
-      <c r="U62" s="74"/>
-      <c r="V62" s="74"/>
-      <c r="W62" s="483"/>
-    </row>
-    <row r="63" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A63" s="35">
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+    </row>
+    <row r="63" spans="1:23" ht="13.25" customHeight="1">
+      <c r="A63" s="34">
         <v>42736</v>
       </c>
       <c r="B63" s="35"/>
       <c r="C63" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F63" s="36"/>
+        <v>91</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>1032</v>
+      </c>
       <c r="G63" s="49">
-        <v>1</v>
-      </c>
-      <c r="H63" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>971</v>
+      </c>
       <c r="I63" s="36" t="s">
-        <v>853</v>
+        <v>971</v>
       </c>
       <c r="J63" s="36"/>
       <c r="K63" s="75"/>
       <c r="L63" s="73"/>
-      <c r="M63" s="422"/>
+      <c r="M63" s="73"/>
       <c r="N63" s="73"/>
       <c r="O63" s="73"/>
       <c r="P63" s="73"/>
@@ -24938,9 +24947,9 @@
         <v>250</v>
       </c>
       <c r="T63" s="39"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
+      <c r="U63" s="74"/>
+      <c r="V63" s="74"/>
+      <c r="W63" s="483"/>
     </row>
     <row r="64" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="35">
@@ -24951,31 +24960,25 @@
         <v>94</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F64" s="36" t="s">
-        <v>1029</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="F64" s="36"/>
       <c r="G64" s="49">
-        <v>2</v>
-      </c>
-      <c r="H64" s="36" t="s">
-        <v>971</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H64" s="36"/>
       <c r="I64" s="36" t="s">
-        <v>971</v>
+        <v>853</v>
       </c>
       <c r="J64" s="36"/>
-      <c r="K64" s="421"/>
+      <c r="K64" s="75"/>
       <c r="L64" s="73"/>
       <c r="M64" s="422"/>
       <c r="N64" s="73"/>
-      <c r="O64" s="422" t="s">
-        <v>1033</v>
-      </c>
+      <c r="O64" s="73"/>
       <c r="P64" s="73"/>
       <c r="Q64" s="36" t="s">
         <v>45</v>
@@ -24989,7 +24992,7 @@
       <c r="T64" s="39"/>
       <c r="U64" s="36"/>
       <c r="V64" s="36"/>
-      <c r="W64" s="483"/>
+      <c r="W64" s="36"/>
     </row>
     <row r="65" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="35">
@@ -25000,13 +25003,13 @@
         <v>94</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G65" s="49">
         <v>2</v>
@@ -25018,13 +25021,13 @@
         <v>971</v>
       </c>
       <c r="J65" s="36"/>
-      <c r="K65" s="422" t="s">
-        <v>1034</v>
-      </c>
+      <c r="K65" s="421"/>
       <c r="L65" s="73"/>
       <c r="M65" s="422"/>
       <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
+      <c r="O65" s="422" t="s">
+        <v>1033</v>
+      </c>
       <c r="P65" s="73"/>
       <c r="Q65" s="36" t="s">
         <v>45</v>
@@ -25038,7 +25041,7 @@
       <c r="T65" s="39"/>
       <c r="U65" s="36"/>
       <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
+      <c r="W65" s="483"/>
     </row>
     <row r="66" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="35">
@@ -25046,26 +25049,32 @@
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F66" s="36"/>
+        <v>1030</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>1031</v>
+      </c>
       <c r="G66" s="49">
-        <v>1</v>
-      </c>
-      <c r="H66" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="H66" s="36" t="s">
+        <v>971</v>
+      </c>
       <c r="I66" s="36" t="s">
-        <v>853</v>
+        <v>971</v>
       </c>
       <c r="J66" s="36"/>
-      <c r="K66" s="421"/>
+      <c r="K66" s="422" t="s">
+        <v>1034</v>
+      </c>
       <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
+      <c r="M66" s="422"/>
       <c r="N66" s="73"/>
       <c r="O66" s="73"/>
       <c r="P66" s="73"/>
@@ -25081,50 +25090,50 @@
       <c r="T66" s="39"/>
       <c r="U66" s="36"/>
       <c r="V66" s="36"/>
-      <c r="W66" s="483"/>
-    </row>
-    <row r="67" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
-      <c r="A67" s="479">
-        <v>42739</v>
-      </c>
-      <c r="B67" s="247"/>
-      <c r="C67" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="248" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E67" s="248" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F67" s="234" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G67" s="250">
-        <v>7</v>
-      </c>
-      <c r="H67" s="248"/>
-      <c r="I67" s="248" t="s">
+      <c r="W66" s="36"/>
+    </row>
+    <row r="67" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A67" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F67" s="36"/>
+      <c r="G67" s="49">
+        <v>1</v>
+      </c>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J67" s="248"/>
-      <c r="K67" s="341"/>
-      <c r="L67" s="342"/>
-      <c r="M67" s="342"/>
-      <c r="N67" s="342"/>
-      <c r="O67" s="342"/>
-      <c r="P67" s="342"/>
-      <c r="Q67" s="265" t="s">
+      <c r="J67" s="36"/>
+      <c r="K67" s="421"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R67" s="265" t="s">
+      <c r="R67" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="S67" s="249"/>
-      <c r="T67" s="249"/>
-      <c r="U67" s="248"/>
-      <c r="V67" s="248"/>
-      <c r="W67" s="248"/>
+      <c r="S67" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="T67" s="39"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="483"/>
     </row>
     <row r="68" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
       <c r="A68" s="479">
@@ -25135,16 +25144,16 @@
         <v>100</v>
       </c>
       <c r="D68" s="248" t="s">
-        <v>673</v>
+        <v>1018</v>
       </c>
       <c r="E68" s="248" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F68" s="234" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G68" s="250">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H68" s="248"/>
       <c r="I68" s="248" t="s">
@@ -25178,16 +25187,16 @@
         <v>100</v>
       </c>
       <c r="D69" s="248" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E69" s="248" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F69" s="234" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G69" s="250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H69" s="248"/>
       <c r="I69" s="248" t="s">
@@ -25212,50 +25221,48 @@
       <c r="V69" s="248"/>
       <c r="W69" s="248"/>
     </row>
-    <row r="70" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A70" s="432">
-        <v>42736</v>
-      </c>
-      <c r="B70" s="430"/>
-      <c r="C70" s="430" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="430" t="s">
-        <v>665</v>
-      </c>
-      <c r="E70" s="430" t="s">
-        <v>923</v>
-      </c>
-      <c r="F70" s="430" t="s">
-        <v>923</v>
-      </c>
-      <c r="G70" s="430">
-        <v>1</v>
-      </c>
-      <c r="H70" s="430"/>
-      <c r="I70" s="430" t="s">
+    <row r="70" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
+      <c r="A70" s="479">
+        <v>42739</v>
+      </c>
+      <c r="B70" s="247"/>
+      <c r="C70" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="248" t="s">
+        <v>674</v>
+      </c>
+      <c r="E70" s="248" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F70" s="234" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G70" s="250">
+        <v>5</v>
+      </c>
+      <c r="H70" s="248"/>
+      <c r="I70" s="248" t="s">
         <v>853</v>
       </c>
-      <c r="J70" s="430"/>
-      <c r="K70" s="452" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L70" s="430"/>
-      <c r="M70" s="430"/>
-      <c r="N70" s="430"/>
-      <c r="O70" s="430"/>
-      <c r="P70" s="430"/>
-      <c r="Q70" s="430" t="s">
+      <c r="J70" s="248"/>
+      <c r="K70" s="341"/>
+      <c r="L70" s="342"/>
+      <c r="M70" s="342"/>
+      <c r="N70" s="342"/>
+      <c r="O70" s="342"/>
+      <c r="P70" s="342"/>
+      <c r="Q70" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="R70" s="430" t="s">
+      <c r="R70" s="265" t="s">
         <v>250</v>
       </c>
-      <c r="S70" s="430"/>
-      <c r="T70" s="430"/>
-      <c r="U70" s="430"/>
-      <c r="V70" s="430"/>
-      <c r="W70" s="430"/>
+      <c r="S70" s="249"/>
+      <c r="T70" s="249"/>
+      <c r="U70" s="248"/>
+      <c r="V70" s="248"/>
+      <c r="W70" s="248"/>
     </row>
     <row r="71" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="432">
@@ -25266,25 +25273,25 @@
         <v>103</v>
       </c>
       <c r="D71" s="430" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E71" s="430" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F71" s="430" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G71" s="430">
-        <v>2</v>
-      </c>
-      <c r="H71" s="430" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="430"/>
+      <c r="I71" s="430" t="s">
         <v>853</v>
       </c>
-      <c r="I71" s="452" t="s">
-        <v>971</v>
-      </c>
       <c r="J71" s="430"/>
-      <c r="K71" s="430"/>
+      <c r="K71" s="452" t="s">
+        <v>1035</v>
+      </c>
       <c r="L71" s="430"/>
       <c r="M71" s="430"/>
       <c r="N71" s="430"/>
@@ -25303,49 +25310,49 @@
       <c r="W71" s="430"/>
     </row>
     <row r="72" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A72" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F72" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="G72" s="49">
-        <v>1</v>
-      </c>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36" t="s">
+      <c r="A72" s="432">
+        <v>42736</v>
+      </c>
+      <c r="B72" s="430"/>
+      <c r="C72" s="430" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="430" t="s">
+        <v>666</v>
+      </c>
+      <c r="E72" s="430" t="s">
+        <v>925</v>
+      </c>
+      <c r="F72" s="430" t="s">
+        <v>925</v>
+      </c>
+      <c r="G72" s="430">
+        <v>2</v>
+      </c>
+      <c r="H72" s="430" t="s">
         <v>853</v>
       </c>
-      <c r="J72" s="36"/>
-      <c r="K72" s="421"/>
-      <c r="L72" s="73"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="73"/>
-      <c r="Q72" s="36" t="s">
+      <c r="I72" s="452" t="s">
+        <v>971</v>
+      </c>
+      <c r="J72" s="430"/>
+      <c r="K72" s="430"/>
+      <c r="L72" s="430"/>
+      <c r="M72" s="430"/>
+      <c r="N72" s="430"/>
+      <c r="O72" s="430"/>
+      <c r="P72" s="430"/>
+      <c r="Q72" s="430" t="s">
         <v>45</v>
       </c>
-      <c r="R72" s="36" t="s">
+      <c r="R72" s="430" t="s">
         <v>250</v>
       </c>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
+      <c r="S72" s="430"/>
+      <c r="T72" s="430"/>
+      <c r="U72" s="430"/>
+      <c r="V72" s="430"/>
+      <c r="W72" s="430"/>
     </row>
     <row r="73" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A73" s="35">
@@ -25356,22 +25363,20 @@
         <v>106</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>1036</v>
+        <v>665</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>1036</v>
+        <v>923</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>1037</v>
+        <v>923</v>
       </c>
       <c r="G73" s="49">
         <v>1</v>
       </c>
-      <c r="H73" s="36" t="s">
+      <c r="H73" s="36"/>
+      <c r="I73" s="36" t="s">
         <v>853</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>971</v>
       </c>
       <c r="J73" s="36"/>
       <c r="K73" s="421"/>
@@ -25403,13 +25408,13 @@
         <v>106</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G74" s="49">
         <v>1</v>
@@ -25450,13 +25455,13 @@
         <v>106</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G75" s="49">
         <v>1</v>
@@ -25496,23 +25501,23 @@
       <c r="C76" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="38" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>1043</v>
+      <c r="D76" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>1041</v>
       </c>
       <c r="G76" s="49">
         <v>1</v>
       </c>
       <c r="H76" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I76" s="36" t="s">
         <v>971</v>
-      </c>
-      <c r="I76" s="38" t="s">
-        <v>891</v>
       </c>
       <c r="J76" s="36"/>
       <c r="K76" s="421"/>
@@ -25544,22 +25549,22 @@
         <v>106</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G77" s="49">
         <v>1</v>
       </c>
-      <c r="H77" s="38" t="s">
+      <c r="H77" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="I77" s="38" t="s">
         <v>891</v>
-      </c>
-      <c r="I77" s="36" t="s">
-        <v>971</v>
       </c>
       <c r="J77" s="36"/>
       <c r="K77" s="421"/>
@@ -25582,95 +25587,97 @@
       <c r="V77" s="36"/>
       <c r="W77" s="36"/>
     </row>
-    <row r="78" spans="1:23" s="285" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A78" s="488">
-        <v>42736</v>
-      </c>
-      <c r="B78" s="488"/>
-      <c r="C78" s="490" t="s">
+    <row r="78" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A78" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G78" s="49">
+        <v>1</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="I78" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="J78" s="36"/>
+      <c r="K78" s="421"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R78" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+    </row>
+    <row r="79" spans="1:23" s="285" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A79" s="488">
+        <v>42736</v>
+      </c>
+      <c r="B79" s="488"/>
+      <c r="C79" s="490" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="490" t="s">
+      <c r="D79" s="490" t="s">
         <v>665</v>
       </c>
-      <c r="E78" s="490" t="s">
+      <c r="E79" s="490" t="s">
         <v>923</v>
       </c>
-      <c r="F78" s="490" t="s">
+      <c r="F79" s="490" t="s">
         <v>923</v>
       </c>
-      <c r="G78" s="496">
+      <c r="G79" s="496">
         <v>1</v>
       </c>
-      <c r="H78" s="490"/>
-      <c r="I78" s="490" t="s">
+      <c r="H79" s="490"/>
+      <c r="I79" s="490" t="s">
         <v>853</v>
       </c>
-      <c r="J78" s="490"/>
-      <c r="K78" s="497"/>
-      <c r="L78" s="498"/>
-      <c r="M78" s="498"/>
-      <c r="N78" s="498"/>
-      <c r="O78" s="498"/>
-      <c r="P78" s="498"/>
-      <c r="Q78" s="490" t="s">
+      <c r="J79" s="490"/>
+      <c r="K79" s="497"/>
+      <c r="L79" s="498"/>
+      <c r="M79" s="498"/>
+      <c r="N79" s="498"/>
+      <c r="O79" s="498"/>
+      <c r="P79" s="498"/>
+      <c r="Q79" s="490" t="s">
         <v>45</v>
       </c>
-      <c r="R78" s="490" t="s">
+      <c r="R79" s="490" t="s">
         <v>250</v>
       </c>
-      <c r="S78" s="491"/>
-      <c r="T78" s="491" t="s">
+      <c r="S79" s="491"/>
+      <c r="T79" s="491" t="s">
         <v>246</v>
       </c>
-      <c r="U78" s="490"/>
-      <c r="V78" s="490"/>
-      <c r="W78" s="490"/>
-    </row>
-    <row r="79" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A79" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E79" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="G79" s="49">
-        <v>1</v>
-      </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="J79" s="36"/>
-      <c r="K79" s="421"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="73"/>
-      <c r="O79" s="73"/>
-      <c r="P79" s="73"/>
-      <c r="Q79" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="R79" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="S79" s="50"/>
-      <c r="T79" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
+      <c r="U79" s="490"/>
+      <c r="V79" s="490"/>
+      <c r="W79" s="490"/>
     </row>
     <row r="80" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="35">
@@ -25681,22 +25688,20 @@
         <v>112</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>1036</v>
+        <v>665</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F80" s="38" t="s">
-        <v>1046</v>
+        <v>923</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>923</v>
       </c>
       <c r="G80" s="49">
         <v>1</v>
       </c>
-      <c r="H80" s="36" t="s">
+      <c r="H80" s="36"/>
+      <c r="I80" s="36" t="s">
         <v>853</v>
-      </c>
-      <c r="I80" s="38" t="s">
-        <v>971</v>
       </c>
       <c r="J80" s="36"/>
       <c r="K80" s="421"/>
@@ -25724,26 +25729,26 @@
         <v>42736</v>
       </c>
       <c r="B81" s="35"/>
-      <c r="C81" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>1047</v>
+      <c r="C81" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>1036</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G81" s="49">
         <v>1</v>
       </c>
       <c r="H81" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I81" s="38" t="s">
         <v>971</v>
-      </c>
-      <c r="I81" s="38" t="s">
-        <v>892</v>
       </c>
       <c r="J81" s="36"/>
       <c r="K81" s="421"/>
@@ -25772,23 +25777,25 @@
       </c>
       <c r="B82" s="35"/>
       <c r="C82" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>923</v>
+        <v>106</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>1048</v>
       </c>
       <c r="G82" s="49">
         <v>1</v>
       </c>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36" t="s">
-        <v>853</v>
+      <c r="H82" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="I82" s="38" t="s">
+        <v>892</v>
       </c>
       <c r="J82" s="36"/>
       <c r="K82" s="421"/>
@@ -25817,7 +25824,7 @@
       </c>
       <c r="B83" s="35"/>
       <c r="C83" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D83" s="36" t="s">
         <v>665</v>
@@ -25826,7 +25833,7 @@
         <v>923</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>1049</v>
+        <v>923</v>
       </c>
       <c r="G83" s="49">
         <v>1</v>
@@ -25862,25 +25869,23 @@
       </c>
       <c r="B84" s="35"/>
       <c r="C84" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>1051</v>
+        <v>118</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>1049</v>
       </c>
       <c r="G84" s="49">
         <v>1</v>
       </c>
-      <c r="H84" s="36" t="s">
-        <v>971</v>
-      </c>
-      <c r="I84" s="38" t="s">
-        <v>893</v>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36" t="s">
+        <v>853</v>
       </c>
       <c r="J84" s="36"/>
       <c r="K84" s="421"/>
@@ -25912,22 +25917,22 @@
         <v>106</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G85" s="49">
         <v>1</v>
       </c>
-      <c r="H85" s="38" t="s">
+      <c r="H85" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="I85" s="38" t="s">
         <v>893</v>
-      </c>
-      <c r="I85" s="36" t="s">
-        <v>971</v>
       </c>
       <c r="J85" s="36"/>
       <c r="K85" s="421"/>
@@ -25950,9 +25955,56 @@
       <c r="V85" s="36"/>
       <c r="W85" s="36"/>
     </row>
+    <row r="86" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A86" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G86" s="49">
+        <v>1</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="I86" s="36" t="s">
+        <v>971</v>
+      </c>
+      <c r="J86" s="36"/>
+      <c r="K86" s="421"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="73"/>
+      <c r="P86" s="73"/>
+      <c r="Q86" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R86" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G43:G46" xr:uid="{0A892D66-40F3-9844-9998-DE53216B251B}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G44:G47" xr:uid="{0A892D66-40F3-9844-9998-DE53216B251B}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -43372,8 +43424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -48593,10 +48645,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK104"/>
+  <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -48685,14 +48737,14 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="34">
-        <v>42737</v>
+        <v>42739</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1281</v>
+        <v>665</v>
       </c>
       <c r="E5" s="86" t="s">
         <v>586</v>
@@ -48703,14 +48755,14 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="34">
-        <v>42738</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>1282</v>
+      <c r="D6" s="38" t="s">
+        <v>926</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>586</v>
@@ -48721,17 +48773,17 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="34">
-        <v>42739</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>665</v>
+      <c r="D7" s="38" t="s">
+        <v>926</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>586</v>
+        <v>1228</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>585</v>
@@ -48745,11 +48797,11 @@
       <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>926</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>586</v>
+      <c r="D8" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>1244</v>
       </c>
       <c r="F8" s="74" t="s">
         <v>585</v>
@@ -48764,10 +48816,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>926</v>
+        <v>666</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>1228</v>
+        <v>586</v>
       </c>
       <c r="F9" s="74" t="s">
         <v>585</v>
@@ -48781,11 +48833,11 @@
       <c r="C10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E10" s="136" t="s">
-        <v>1244</v>
+      <c r="D10" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>1227</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>585</v>
@@ -48800,7 +48852,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>666</v>
+        <v>928</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>586</v>
@@ -48818,10 +48870,10 @@
         <v>41</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>666</v>
+        <v>928</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F12" s="74" t="s">
         <v>585</v>
@@ -48829,14 +48881,14 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="34">
-        <v>42736</v>
+        <v>42737</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>586</v>
@@ -48847,17 +48899,17 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="34">
-        <v>42736</v>
+        <v>42738</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>928</v>
+      <c r="D14" s="489" t="s">
+        <v>936</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>1228</v>
+        <v>586</v>
       </c>
       <c r="F14" s="74" t="s">
         <v>585</v>
@@ -48865,14 +48917,14 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="34">
-        <v>42737</v>
+        <v>42739</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>933</v>
+      <c r="D15" s="489" t="s">
+        <v>940</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>586</v>
@@ -48883,14 +48935,14 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="34">
-        <v>42738</v>
+        <v>42740</v>
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="489" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>586</v>
@@ -48901,14 +48953,14 @@
     </row>
     <row r="17" spans="1:141" ht="20" customHeight="1">
       <c r="A17" s="34">
-        <v>42739</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="489" t="s">
-        <v>940</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>586</v>
@@ -48919,14 +48971,14 @@
     </row>
     <row r="18" spans="1:141" ht="20" customHeight="1">
       <c r="A18" s="34">
-        <v>42740</v>
+        <v>42736</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="489" t="s">
-        <v>944</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>949</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>586</v>
@@ -48940,8 +48992,8 @@
         <v>42736</v>
       </c>
       <c r="B19" s="50"/>
-      <c r="C19" s="36" t="s">
-        <v>46</v>
+      <c r="C19" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>665</v>
@@ -48958,11 +49010,11 @@
         <v>42736</v>
       </c>
       <c r="B20" s="50"/>
-      <c r="C20" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>949</v>
+      <c r="C20" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>667</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>586</v>
@@ -48976,11 +49028,11 @@
         <v>42736</v>
       </c>
       <c r="B21" s="50"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>665</v>
+      <c r="D21" s="77" t="s">
+        <v>629</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>586</v>
@@ -48994,11 +49046,11 @@
         <v>42736</v>
       </c>
       <c r="B22" s="50"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="76" t="s">
-        <v>667</v>
+      <c r="D22" s="77" t="s">
+        <v>956</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>586</v>
@@ -49016,7 +49068,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>629</v>
+        <v>958</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>586</v>
@@ -49034,7 +49086,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>586</v>
@@ -49043,347 +49095,347 @@
         <v>585</v>
       </c>
     </row>
-    <row r="25" spans="1:141" ht="20" customHeight="1">
-      <c r="A25" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="77" t="s">
-        <v>958</v>
-      </c>
-      <c r="E25" s="86" t="s">
+    <row r="25" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="190">
+        <v>42736</v>
+      </c>
+      <c r="B25" s="191"/>
+      <c r="C25" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="193" t="s">
+        <v>662</v>
+      </c>
+      <c r="E25" s="217" t="s">
         <v>586</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="194" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="26" spans="1:141" ht="20" customHeight="1">
-      <c r="A26" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="77" t="s">
-        <v>960</v>
-      </c>
-      <c r="E26" s="86" t="s">
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="238"/>
+      <c r="Q25" s="238"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="238"/>
+      <c r="T25" s="238"/>
+      <c r="U25" s="238"/>
+      <c r="V25" s="238"/>
+      <c r="W25" s="238"/>
+      <c r="X25" s="238"/>
+      <c r="Y25" s="238"/>
+      <c r="Z25" s="238"/>
+      <c r="AA25" s="238"/>
+      <c r="AB25" s="238"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="238"/>
+      <c r="AE25" s="238"/>
+      <c r="AF25" s="238"/>
+      <c r="AG25" s="238"/>
+      <c r="AH25" s="238"/>
+      <c r="AI25" s="238"/>
+      <c r="AJ25" s="238"/>
+      <c r="AK25" s="238"/>
+      <c r="AL25" s="238"/>
+      <c r="AM25" s="238"/>
+      <c r="AN25" s="238"/>
+      <c r="AO25" s="238"/>
+      <c r="AP25" s="238"/>
+      <c r="AQ25" s="238"/>
+      <c r="AR25" s="238"/>
+      <c r="AS25" s="238"/>
+      <c r="AT25" s="238"/>
+      <c r="AU25" s="238"/>
+      <c r="AV25" s="238"/>
+      <c r="AW25" s="238"/>
+      <c r="AX25" s="238"/>
+      <c r="AY25" s="238"/>
+      <c r="AZ25" s="238"/>
+      <c r="BA25" s="238"/>
+      <c r="BB25" s="238"/>
+      <c r="BC25" s="238"/>
+      <c r="BD25" s="238"/>
+      <c r="BE25" s="238"/>
+      <c r="BF25" s="238"/>
+      <c r="BG25" s="238"/>
+      <c r="BH25" s="238"/>
+      <c r="BI25" s="238"/>
+      <c r="BJ25" s="238"/>
+      <c r="BK25" s="238"/>
+      <c r="BL25" s="238"/>
+      <c r="BM25" s="238"/>
+      <c r="BN25" s="238"/>
+      <c r="BO25" s="238"/>
+      <c r="BP25" s="238"/>
+      <c r="BQ25" s="238"/>
+      <c r="BR25" s="238"/>
+      <c r="BS25" s="238"/>
+      <c r="BT25" s="238"/>
+      <c r="BU25" s="238"/>
+      <c r="BV25" s="238"/>
+      <c r="BW25" s="238"/>
+      <c r="BX25" s="238"/>
+      <c r="BY25" s="238"/>
+      <c r="BZ25" s="238"/>
+      <c r="CA25" s="238"/>
+      <c r="CB25" s="238"/>
+      <c r="CC25" s="238"/>
+      <c r="CD25" s="238"/>
+      <c r="CE25" s="238"/>
+      <c r="CF25" s="238"/>
+      <c r="CG25" s="238"/>
+      <c r="CH25" s="238"/>
+      <c r="CI25" s="238"/>
+      <c r="CJ25" s="238"/>
+      <c r="CK25" s="238"/>
+      <c r="CL25" s="238"/>
+      <c r="CM25" s="238"/>
+      <c r="CN25" s="238"/>
+      <c r="CO25" s="238"/>
+      <c r="CP25" s="238"/>
+      <c r="CQ25" s="238"/>
+      <c r="CR25" s="238"/>
+      <c r="CS25" s="238"/>
+      <c r="CT25" s="238"/>
+      <c r="CU25" s="238"/>
+      <c r="CV25" s="238"/>
+      <c r="CW25" s="238"/>
+      <c r="CX25" s="238"/>
+      <c r="CY25" s="238"/>
+      <c r="CZ25" s="238"/>
+      <c r="DA25" s="238"/>
+      <c r="DB25" s="238"/>
+      <c r="DC25" s="238"/>
+      <c r="DD25" s="238"/>
+      <c r="DE25" s="238"/>
+      <c r="DF25" s="238"/>
+      <c r="DG25" s="238"/>
+      <c r="DH25" s="238"/>
+      <c r="DI25" s="238"/>
+      <c r="DJ25" s="238"/>
+      <c r="DK25" s="238"/>
+      <c r="DL25" s="238"/>
+      <c r="DM25" s="238"/>
+      <c r="DN25" s="238"/>
+      <c r="DO25" s="238"/>
+      <c r="DP25" s="238"/>
+      <c r="DQ25" s="238"/>
+      <c r="DR25" s="238"/>
+      <c r="DS25" s="238"/>
+      <c r="DT25" s="238"/>
+      <c r="DU25" s="238"/>
+      <c r="DV25" s="238"/>
+      <c r="DW25" s="238"/>
+      <c r="DX25" s="238"/>
+      <c r="DY25" s="238"/>
+      <c r="DZ25" s="238"/>
+      <c r="EA25" s="238"/>
+      <c r="EB25" s="238"/>
+      <c r="EC25" s="238"/>
+      <c r="ED25" s="238"/>
+      <c r="EE25" s="238"/>
+      <c r="EF25" s="238"/>
+      <c r="EG25" s="238"/>
+      <c r="EH25" s="238"/>
+      <c r="EI25" s="238"/>
+      <c r="EJ25" s="238"/>
+      <c r="EK25" s="238"/>
+    </row>
+    <row r="26" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="190">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="191"/>
+      <c r="C26" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="193" t="s">
+        <v>645</v>
+      </c>
+      <c r="E26" s="217" t="s">
         <v>586</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="194" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="27" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="190">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="193" t="s">
-        <v>662</v>
-      </c>
-      <c r="E27" s="217" t="s">
+      <c r="G26" s="238"/>
+      <c r="H26" s="238"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="238"/>
+      <c r="Q26" s="238"/>
+      <c r="R26" s="238"/>
+      <c r="S26" s="238"/>
+      <c r="T26" s="238"/>
+      <c r="U26" s="238"/>
+      <c r="V26" s="238"/>
+      <c r="W26" s="238"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="238"/>
+      <c r="Z26" s="238"/>
+      <c r="AA26" s="238"/>
+      <c r="AB26" s="238"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="238"/>
+      <c r="AE26" s="238"/>
+      <c r="AF26" s="238"/>
+      <c r="AG26" s="238"/>
+      <c r="AH26" s="238"/>
+      <c r="AI26" s="238"/>
+      <c r="AJ26" s="238"/>
+      <c r="AK26" s="238"/>
+      <c r="AL26" s="238"/>
+      <c r="AM26" s="238"/>
+      <c r="AN26" s="238"/>
+      <c r="AO26" s="238"/>
+      <c r="AP26" s="238"/>
+      <c r="AQ26" s="238"/>
+      <c r="AR26" s="238"/>
+      <c r="AS26" s="238"/>
+      <c r="AT26" s="238"/>
+      <c r="AU26" s="238"/>
+      <c r="AV26" s="238"/>
+      <c r="AW26" s="238"/>
+      <c r="AX26" s="238"/>
+      <c r="AY26" s="238"/>
+      <c r="AZ26" s="238"/>
+      <c r="BA26" s="238"/>
+      <c r="BB26" s="238"/>
+      <c r="BC26" s="238"/>
+      <c r="BD26" s="238"/>
+      <c r="BE26" s="238"/>
+      <c r="BF26" s="238"/>
+      <c r="BG26" s="238"/>
+      <c r="BH26" s="238"/>
+      <c r="BI26" s="238"/>
+      <c r="BJ26" s="238"/>
+      <c r="BK26" s="238"/>
+      <c r="BL26" s="238"/>
+      <c r="BM26" s="238"/>
+      <c r="BN26" s="238"/>
+      <c r="BO26" s="238"/>
+      <c r="BP26" s="238"/>
+      <c r="BQ26" s="238"/>
+      <c r="BR26" s="238"/>
+      <c r="BS26" s="238"/>
+      <c r="BT26" s="238"/>
+      <c r="BU26" s="238"/>
+      <c r="BV26" s="238"/>
+      <c r="BW26" s="238"/>
+      <c r="BX26" s="238"/>
+      <c r="BY26" s="238"/>
+      <c r="BZ26" s="238"/>
+      <c r="CA26" s="238"/>
+      <c r="CB26" s="238"/>
+      <c r="CC26" s="238"/>
+      <c r="CD26" s="238"/>
+      <c r="CE26" s="238"/>
+      <c r="CF26" s="238"/>
+      <c r="CG26" s="238"/>
+      <c r="CH26" s="238"/>
+      <c r="CI26" s="238"/>
+      <c r="CJ26" s="238"/>
+      <c r="CK26" s="238"/>
+      <c r="CL26" s="238"/>
+      <c r="CM26" s="238"/>
+      <c r="CN26" s="238"/>
+      <c r="CO26" s="238"/>
+      <c r="CP26" s="238"/>
+      <c r="CQ26" s="238"/>
+      <c r="CR26" s="238"/>
+      <c r="CS26" s="238"/>
+      <c r="CT26" s="238"/>
+      <c r="CU26" s="238"/>
+      <c r="CV26" s="238"/>
+      <c r="CW26" s="238"/>
+      <c r="CX26" s="238"/>
+      <c r="CY26" s="238"/>
+      <c r="CZ26" s="238"/>
+      <c r="DA26" s="238"/>
+      <c r="DB26" s="238"/>
+      <c r="DC26" s="238"/>
+      <c r="DD26" s="238"/>
+      <c r="DE26" s="238"/>
+      <c r="DF26" s="238"/>
+      <c r="DG26" s="238"/>
+      <c r="DH26" s="238"/>
+      <c r="DI26" s="238"/>
+      <c r="DJ26" s="238"/>
+      <c r="DK26" s="238"/>
+      <c r="DL26" s="238"/>
+      <c r="DM26" s="238"/>
+      <c r="DN26" s="238"/>
+      <c r="DO26" s="238"/>
+      <c r="DP26" s="238"/>
+      <c r="DQ26" s="238"/>
+      <c r="DR26" s="238"/>
+      <c r="DS26" s="238"/>
+      <c r="DT26" s="238"/>
+      <c r="DU26" s="238"/>
+      <c r="DV26" s="238"/>
+      <c r="DW26" s="238"/>
+      <c r="DX26" s="238"/>
+      <c r="DY26" s="238"/>
+      <c r="DZ26" s="238"/>
+      <c r="EA26" s="238"/>
+      <c r="EB26" s="238"/>
+      <c r="EC26" s="238"/>
+      <c r="ED26" s="238"/>
+      <c r="EE26" s="238"/>
+      <c r="EF26" s="238"/>
+      <c r="EG26" s="238"/>
+      <c r="EH26" s="238"/>
+      <c r="EI26" s="238"/>
+      <c r="EJ26" s="238"/>
+      <c r="EK26" s="238"/>
+    </row>
+    <row r="27" spans="1:141" ht="20" customHeight="1">
+      <c r="A27" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="233"/>
+      <c r="C27" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="234" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E27" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F27" s="194" t="s">
+      <c r="F27" s="252" t="s">
         <v>585</v>
       </c>
-      <c r="G27" s="238"/>
-      <c r="H27" s="238"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="238"/>
-      <c r="N27" s="238"/>
-      <c r="O27" s="238"/>
-      <c r="P27" s="238"/>
-      <c r="Q27" s="238"/>
-      <c r="R27" s="238"/>
-      <c r="S27" s="238"/>
-      <c r="T27" s="238"/>
-      <c r="U27" s="238"/>
-      <c r="V27" s="238"/>
-      <c r="W27" s="238"/>
-      <c r="X27" s="238"/>
-      <c r="Y27" s="238"/>
-      <c r="Z27" s="238"/>
-      <c r="AA27" s="238"/>
-      <c r="AB27" s="238"/>
-      <c r="AC27" s="238"/>
-      <c r="AD27" s="238"/>
-      <c r="AE27" s="238"/>
-      <c r="AF27" s="238"/>
-      <c r="AG27" s="238"/>
-      <c r="AH27" s="238"/>
-      <c r="AI27" s="238"/>
-      <c r="AJ27" s="238"/>
-      <c r="AK27" s="238"/>
-      <c r="AL27" s="238"/>
-      <c r="AM27" s="238"/>
-      <c r="AN27" s="238"/>
-      <c r="AO27" s="238"/>
-      <c r="AP27" s="238"/>
-      <c r="AQ27" s="238"/>
-      <c r="AR27" s="238"/>
-      <c r="AS27" s="238"/>
-      <c r="AT27" s="238"/>
-      <c r="AU27" s="238"/>
-      <c r="AV27" s="238"/>
-      <c r="AW27" s="238"/>
-      <c r="AX27" s="238"/>
-      <c r="AY27" s="238"/>
-      <c r="AZ27" s="238"/>
-      <c r="BA27" s="238"/>
-      <c r="BB27" s="238"/>
-      <c r="BC27" s="238"/>
-      <c r="BD27" s="238"/>
-      <c r="BE27" s="238"/>
-      <c r="BF27" s="238"/>
-      <c r="BG27" s="238"/>
-      <c r="BH27" s="238"/>
-      <c r="BI27" s="238"/>
-      <c r="BJ27" s="238"/>
-      <c r="BK27" s="238"/>
-      <c r="BL27" s="238"/>
-      <c r="BM27" s="238"/>
-      <c r="BN27" s="238"/>
-      <c r="BO27" s="238"/>
-      <c r="BP27" s="238"/>
-      <c r="BQ27" s="238"/>
-      <c r="BR27" s="238"/>
-      <c r="BS27" s="238"/>
-      <c r="BT27" s="238"/>
-      <c r="BU27" s="238"/>
-      <c r="BV27" s="238"/>
-      <c r="BW27" s="238"/>
-      <c r="BX27" s="238"/>
-      <c r="BY27" s="238"/>
-      <c r="BZ27" s="238"/>
-      <c r="CA27" s="238"/>
-      <c r="CB27" s="238"/>
-      <c r="CC27" s="238"/>
-      <c r="CD27" s="238"/>
-      <c r="CE27" s="238"/>
-      <c r="CF27" s="238"/>
-      <c r="CG27" s="238"/>
-      <c r="CH27" s="238"/>
-      <c r="CI27" s="238"/>
-      <c r="CJ27" s="238"/>
-      <c r="CK27" s="238"/>
-      <c r="CL27" s="238"/>
-      <c r="CM27" s="238"/>
-      <c r="CN27" s="238"/>
-      <c r="CO27" s="238"/>
-      <c r="CP27" s="238"/>
-      <c r="CQ27" s="238"/>
-      <c r="CR27" s="238"/>
-      <c r="CS27" s="238"/>
-      <c r="CT27" s="238"/>
-      <c r="CU27" s="238"/>
-      <c r="CV27" s="238"/>
-      <c r="CW27" s="238"/>
-      <c r="CX27" s="238"/>
-      <c r="CY27" s="238"/>
-      <c r="CZ27" s="238"/>
-      <c r="DA27" s="238"/>
-      <c r="DB27" s="238"/>
-      <c r="DC27" s="238"/>
-      <c r="DD27" s="238"/>
-      <c r="DE27" s="238"/>
-      <c r="DF27" s="238"/>
-      <c r="DG27" s="238"/>
-      <c r="DH27" s="238"/>
-      <c r="DI27" s="238"/>
-      <c r="DJ27" s="238"/>
-      <c r="DK27" s="238"/>
-      <c r="DL27" s="238"/>
-      <c r="DM27" s="238"/>
-      <c r="DN27" s="238"/>
-      <c r="DO27" s="238"/>
-      <c r="DP27" s="238"/>
-      <c r="DQ27" s="238"/>
-      <c r="DR27" s="238"/>
-      <c r="DS27" s="238"/>
-      <c r="DT27" s="238"/>
-      <c r="DU27" s="238"/>
-      <c r="DV27" s="238"/>
-      <c r="DW27" s="238"/>
-      <c r="DX27" s="238"/>
-      <c r="DY27" s="238"/>
-      <c r="DZ27" s="238"/>
-      <c r="EA27" s="238"/>
-      <c r="EB27" s="238"/>
-      <c r="EC27" s="238"/>
-      <c r="ED27" s="238"/>
-      <c r="EE27" s="238"/>
-      <c r="EF27" s="238"/>
-      <c r="EG27" s="238"/>
-      <c r="EH27" s="238"/>
-      <c r="EI27" s="238"/>
-      <c r="EJ27" s="238"/>
-      <c r="EK27" s="238"/>
-    </row>
-    <row r="28" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="190">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>645</v>
-      </c>
-      <c r="E28" s="217" t="s">
+    </row>
+    <row r="28" spans="1:141" ht="20" customHeight="1">
+      <c r="A28" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="233"/>
+      <c r="C28" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="234" t="s">
+        <v>673</v>
+      </c>
+      <c r="E28" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F28" s="194" t="s">
+      <c r="F28" s="252" t="s">
         <v>585</v>
       </c>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="238"/>
-      <c r="Q28" s="238"/>
-      <c r="R28" s="238"/>
-      <c r="S28" s="238"/>
-      <c r="T28" s="238"/>
-      <c r="U28" s="238"/>
-      <c r="V28" s="238"/>
-      <c r="W28" s="238"/>
-      <c r="X28" s="238"/>
-      <c r="Y28" s="238"/>
-      <c r="Z28" s="238"/>
-      <c r="AA28" s="238"/>
-      <c r="AB28" s="238"/>
-      <c r="AC28" s="238"/>
-      <c r="AD28" s="238"/>
-      <c r="AE28" s="238"/>
-      <c r="AF28" s="238"/>
-      <c r="AG28" s="238"/>
-      <c r="AH28" s="238"/>
-      <c r="AI28" s="238"/>
-      <c r="AJ28" s="238"/>
-      <c r="AK28" s="238"/>
-      <c r="AL28" s="238"/>
-      <c r="AM28" s="238"/>
-      <c r="AN28" s="238"/>
-      <c r="AO28" s="238"/>
-      <c r="AP28" s="238"/>
-      <c r="AQ28" s="238"/>
-      <c r="AR28" s="238"/>
-      <c r="AS28" s="238"/>
-      <c r="AT28" s="238"/>
-      <c r="AU28" s="238"/>
-      <c r="AV28" s="238"/>
-      <c r="AW28" s="238"/>
-      <c r="AX28" s="238"/>
-      <c r="AY28" s="238"/>
-      <c r="AZ28" s="238"/>
-      <c r="BA28" s="238"/>
-      <c r="BB28" s="238"/>
-      <c r="BC28" s="238"/>
-      <c r="BD28" s="238"/>
-      <c r="BE28" s="238"/>
-      <c r="BF28" s="238"/>
-      <c r="BG28" s="238"/>
-      <c r="BH28" s="238"/>
-      <c r="BI28" s="238"/>
-      <c r="BJ28" s="238"/>
-      <c r="BK28" s="238"/>
-      <c r="BL28" s="238"/>
-      <c r="BM28" s="238"/>
-      <c r="BN28" s="238"/>
-      <c r="BO28" s="238"/>
-      <c r="BP28" s="238"/>
-      <c r="BQ28" s="238"/>
-      <c r="BR28" s="238"/>
-      <c r="BS28" s="238"/>
-      <c r="BT28" s="238"/>
-      <c r="BU28" s="238"/>
-      <c r="BV28" s="238"/>
-      <c r="BW28" s="238"/>
-      <c r="BX28" s="238"/>
-      <c r="BY28" s="238"/>
-      <c r="BZ28" s="238"/>
-      <c r="CA28" s="238"/>
-      <c r="CB28" s="238"/>
-      <c r="CC28" s="238"/>
-      <c r="CD28" s="238"/>
-      <c r="CE28" s="238"/>
-      <c r="CF28" s="238"/>
-      <c r="CG28" s="238"/>
-      <c r="CH28" s="238"/>
-      <c r="CI28" s="238"/>
-      <c r="CJ28" s="238"/>
-      <c r="CK28" s="238"/>
-      <c r="CL28" s="238"/>
-      <c r="CM28" s="238"/>
-      <c r="CN28" s="238"/>
-      <c r="CO28" s="238"/>
-      <c r="CP28" s="238"/>
-      <c r="CQ28" s="238"/>
-      <c r="CR28" s="238"/>
-      <c r="CS28" s="238"/>
-      <c r="CT28" s="238"/>
-      <c r="CU28" s="238"/>
-      <c r="CV28" s="238"/>
-      <c r="CW28" s="238"/>
-      <c r="CX28" s="238"/>
-      <c r="CY28" s="238"/>
-      <c r="CZ28" s="238"/>
-      <c r="DA28" s="238"/>
-      <c r="DB28" s="238"/>
-      <c r="DC28" s="238"/>
-      <c r="DD28" s="238"/>
-      <c r="DE28" s="238"/>
-      <c r="DF28" s="238"/>
-      <c r="DG28" s="238"/>
-      <c r="DH28" s="238"/>
-      <c r="DI28" s="238"/>
-      <c r="DJ28" s="238"/>
-      <c r="DK28" s="238"/>
-      <c r="DL28" s="238"/>
-      <c r="DM28" s="238"/>
-      <c r="DN28" s="238"/>
-      <c r="DO28" s="238"/>
-      <c r="DP28" s="238"/>
-      <c r="DQ28" s="238"/>
-      <c r="DR28" s="238"/>
-      <c r="DS28" s="238"/>
-      <c r="DT28" s="238"/>
-      <c r="DU28" s="238"/>
-      <c r="DV28" s="238"/>
-      <c r="DW28" s="238"/>
-      <c r="DX28" s="238"/>
-      <c r="DY28" s="238"/>
-      <c r="DZ28" s="238"/>
-      <c r="EA28" s="238"/>
-      <c r="EB28" s="238"/>
-      <c r="EC28" s="238"/>
-      <c r="ED28" s="238"/>
-      <c r="EE28" s="238"/>
-      <c r="EF28" s="238"/>
-      <c r="EG28" s="238"/>
-      <c r="EH28" s="238"/>
-      <c r="EI28" s="238"/>
-      <c r="EJ28" s="238"/>
-      <c r="EK28" s="238"/>
     </row>
     <row r="29" spans="1:141" ht="20" customHeight="1">
       <c r="A29" s="266">
@@ -49394,7 +49446,7 @@
         <v>85</v>
       </c>
       <c r="D29" s="234" t="s">
-        <v>1018</v>
+        <v>674</v>
       </c>
       <c r="E29" s="268" t="s">
         <v>586</v>
@@ -49412,7 +49464,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="234" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E30" s="268" t="s">
         <v>586</v>
@@ -49430,7 +49482,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="234" t="s">
-        <v>674</v>
+        <v>1023</v>
       </c>
       <c r="E31" s="268" t="s">
         <v>586</v>
@@ -49448,7 +49500,7 @@
         <v>85</v>
       </c>
       <c r="D32" s="234" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E32" s="268" t="s">
         <v>586</v>
@@ -49466,7 +49518,7 @@
         <v>85</v>
       </c>
       <c r="D33" s="234" t="s">
-        <v>1023</v>
+        <v>682</v>
       </c>
       <c r="E33" s="268" t="s">
         <v>586</v>
@@ -49476,38 +49528,38 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
-      <c r="A34" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B34" s="233"/>
-      <c r="C34" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="234" t="s">
-        <v>677</v>
-      </c>
-      <c r="E34" s="268" t="s">
+      <c r="A34" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E34" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F34" s="252" t="s">
+      <c r="F34" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
-      <c r="A35" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="233"/>
-      <c r="C35" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="234" t="s">
-        <v>682</v>
-      </c>
-      <c r="E35" s="268" t="s">
+      <c r="A35" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E35" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F35" s="252" t="s">
+      <c r="F35" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49517,10 +49569,10 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>665</v>
+        <v>963</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>586</v>
@@ -49538,7 +49590,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>665</v>
+        <v>965</v>
       </c>
       <c r="E37" s="86" t="s">
         <v>586</v>
@@ -49556,7 +49608,7 @@
         <v>55</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>586</v>
@@ -49574,7 +49626,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E39" s="86" t="s">
         <v>586</v>
@@ -49588,11 +49640,11 @@
         <v>42736</v>
       </c>
       <c r="B40" s="50"/>
-      <c r="C40" s="38" t="s">
-        <v>55</v>
+      <c r="C40" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>967</v>
+        <v>665</v>
       </c>
       <c r="E40" s="86" t="s">
         <v>586</v>
@@ -49606,11 +49658,11 @@
         <v>42736</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="38" t="s">
-        <v>55</v>
+      <c r="C41" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>969</v>
+        <v>665</v>
       </c>
       <c r="E41" s="86" t="s">
         <v>586</v>
@@ -49625,10 +49677,10 @@
       </c>
       <c r="B42" s="50"/>
       <c r="C42" s="36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>665</v>
+        <v>972</v>
       </c>
       <c r="E42" s="86" t="s">
         <v>586</v>
@@ -49646,7 +49698,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>665</v>
+        <v>976</v>
       </c>
       <c r="E43" s="86" t="s">
         <v>586</v>
@@ -49664,7 +49716,7 @@
         <v>61</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E44" s="86" t="s">
         <v>586</v>
@@ -49682,7 +49734,7 @@
         <v>61</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E45" s="86" t="s">
         <v>586</v>
@@ -49697,16 +49749,16 @@
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>974</v>
+        <v>665</v>
       </c>
       <c r="E46" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20" customHeight="1">
@@ -49714,11 +49766,11 @@
         <v>42736</v>
       </c>
       <c r="B47" s="50"/>
-      <c r="C47" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>978</v>
+      <c r="C47" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>665</v>
       </c>
       <c r="E47" s="86" t="s">
         <v>586</v>
@@ -49732,17 +49784,17 @@
         <v>42736</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>665</v>
+      <c r="C48" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>980</v>
       </c>
       <c r="E48" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F48" s="74" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20" customHeight="1">
@@ -49753,8 +49805,8 @@
       <c r="C49" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>665</v>
+      <c r="D49" s="76" t="s">
+        <v>984</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>586</v>
@@ -49768,11 +49820,11 @@
         <v>42736</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>980</v>
+      <c r="C50" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E50" s="86" t="s">
         <v>586</v>
@@ -49786,14 +49838,14 @@
         <v>42736</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="76" t="s">
-        <v>984</v>
-      </c>
-      <c r="E51" s="86" t="s">
-        <v>586</v>
+      <c r="C51" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>602</v>
       </c>
       <c r="F51" s="74" t="s">
         <v>585</v>
@@ -49804,17 +49856,17 @@
         <v>42736</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E52" s="86" t="s">
-        <v>586</v>
+      <c r="C52" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>602</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" customHeight="1">
@@ -49829,7 +49881,7 @@
         <v>665</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F53" s="74" t="s">
         <v>585</v>
@@ -49847,7 +49899,7 @@
         <v>671</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F54" s="74" t="s">
         <v>599</v>
@@ -49861,14 +49913,14 @@
       <c r="C55" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="51" t="s">
-        <v>665</v>
+      <c r="D55" s="36" t="s">
+        <v>672</v>
       </c>
       <c r="E55" s="50" t="s">
         <v>600</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20" customHeight="1">
@@ -49879,14 +49931,14 @@
       <c r="C56" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="51" t="s">
-        <v>671</v>
+      <c r="D56" s="36" t="s">
+        <v>672</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F56" s="74" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20" customHeight="1">
@@ -49895,16 +49947,16 @@
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="36" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F57" s="74" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20" customHeight="1">
@@ -49913,16 +49965,16 @@
       </c>
       <c r="B58" s="50"/>
       <c r="C58" s="36" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="F58" s="74" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" customHeight="1">
@@ -49934,7 +49986,7 @@
         <v>88</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>665</v>
+        <v>1014</v>
       </c>
       <c r="E59" s="50" t="s">
         <v>586</v>
@@ -49948,13 +50000,13 @@
         <v>42736</v>
       </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="36" t="s">
-        <v>88</v>
+      <c r="C60" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>666</v>
-      </c>
-      <c r="E60" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="E60" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F60" s="74" t="s">
@@ -49966,13 +50018,13 @@
         <v>42736</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="36" t="s">
-        <v>88</v>
+      <c r="C61" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E61" s="50" t="s">
+        <v>992</v>
+      </c>
+      <c r="E61" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F61" s="74" t="s">
@@ -49980,38 +50032,38 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20" customHeight="1">
-      <c r="A62" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="38" t="s">
+      <c r="A62" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E62" s="86" t="s">
+      <c r="D62" s="53" t="s">
+        <v>995</v>
+      </c>
+      <c r="E62" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="F62" s="74" t="s">
+      <c r="F62" s="79" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20" customHeight="1">
-      <c r="A63" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B63" s="50"/>
+      <c r="A63" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="39"/>
       <c r="C63" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>992</v>
-      </c>
-      <c r="E63" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="E63" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="F63" s="74" t="s">
+      <c r="F63" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50019,12 +50071,12 @@
       <c r="A64" s="41">
         <v>42736</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>995</v>
+      <c r="B64" s="39"/>
+      <c r="C64" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="E64" s="127" t="s">
         <v>586</v>
@@ -50042,7 +50094,7 @@
         <v>79</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E65" s="127" t="s">
         <v>586</v>
@@ -50055,12 +50107,12 @@
       <c r="A66" s="41">
         <v>42736</v>
       </c>
-      <c r="B66" s="39"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="51" t="s">
-        <v>1002</v>
+      <c r="D66" s="54" t="s">
+        <v>1006</v>
       </c>
       <c r="E66" s="127" t="s">
         <v>586</v>
@@ -50073,69 +50125,69 @@
       <c r="A67" s="41">
         <v>42736</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="51" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E67" s="127" t="s">
-        <v>586</v>
+      <c r="B67" s="55"/>
+      <c r="C67" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="E67" s="246" t="s">
+        <v>1229</v>
       </c>
       <c r="F67" s="79" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20" customHeight="1">
-      <c r="A68" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="54" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E68" s="127" t="s">
-        <v>586</v>
-      </c>
-      <c r="F68" s="79" t="s">
+      <c r="A68" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B68" s="50"/>
+      <c r="C68" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="E68" s="246" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F68" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1">
-      <c r="A69" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="53" t="s">
+    <row r="69" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A69" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="E69" s="246" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F69" s="79" t="s">
+      <c r="E69" s="387" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F69" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1">
+    <row r="70" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="34">
         <v>42736</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="E70" s="246" t="s">
-        <v>1229</v>
+      <c r="B70" s="39"/>
+      <c r="C70" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="E70" s="387" t="s">
+        <v>1227</v>
       </c>
       <c r="F70" s="74" t="s">
         <v>585</v>
@@ -50153,7 +50205,7 @@
         <v>665</v>
       </c>
       <c r="E71" s="387" t="s">
-        <v>1228</v>
+        <v>586</v>
       </c>
       <c r="F71" s="74" t="s">
         <v>585</v>
@@ -50171,7 +50223,7 @@
         <v>692</v>
       </c>
       <c r="E72" s="387" t="s">
-        <v>1227</v>
+        <v>586</v>
       </c>
       <c r="F72" s="74" t="s">
         <v>585</v>
@@ -50186,10 +50238,10 @@
         <v>91</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="E73" s="387" t="s">
-        <v>586</v>
+        <v>1230</v>
       </c>
       <c r="F73" s="74" t="s">
         <v>585</v>
@@ -50204,7 +50256,7 @@
         <v>91</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E74" s="387" t="s">
         <v>586</v>
@@ -50213,7 +50265,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="75" spans="1:6" ht="13.25" customHeight="1">
       <c r="A75" s="34">
         <v>42736</v>
       </c>
@@ -50221,11 +50273,11 @@
       <c r="C75" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="36" t="s">
-        <v>693</v>
+      <c r="D75" s="404" t="s">
+        <v>689</v>
       </c>
       <c r="E75" s="387" t="s">
-        <v>1230</v>
+        <v>586</v>
       </c>
       <c r="F75" s="74" t="s">
         <v>585</v>
@@ -50237,31 +50289,31 @@
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E76" s="387" t="s">
-        <v>586</v>
+        <v>1228</v>
       </c>
       <c r="F76" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="13.25" customHeight="1">
+    <row r="77" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A77" s="34">
         <v>42736</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="404" t="s">
-        <v>689</v>
+        <v>94</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>694</v>
       </c>
       <c r="E77" s="387" t="s">
-        <v>586</v>
+        <v>1227</v>
       </c>
       <c r="F77" s="74" t="s">
         <v>585</v>
@@ -50279,7 +50331,7 @@
         <v>665</v>
       </c>
       <c r="E78" s="387" t="s">
-        <v>1228</v>
+        <v>586</v>
       </c>
       <c r="F78" s="74" t="s">
         <v>585</v>
@@ -50297,7 +50349,7 @@
         <v>694</v>
       </c>
       <c r="E79" s="387" t="s">
-        <v>1227</v>
+        <v>586</v>
       </c>
       <c r="F79" s="74" t="s">
         <v>585</v>
@@ -50312,10 +50364,10 @@
         <v>94</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="E80" s="387" t="s">
-        <v>586</v>
+        <v>1230</v>
       </c>
       <c r="F80" s="74" t="s">
         <v>585</v>
@@ -50325,17 +50377,17 @@
       <c r="A81" s="34">
         <v>42736</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="38" t="s">
+      <c r="B81" s="42"/>
+      <c r="C81" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D81" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="E81" s="387" t="s">
+      <c r="D81" s="53" t="s">
+        <v>693</v>
+      </c>
+      <c r="E81" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F81" s="74" t="s">
+      <c r="F81" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50345,13 +50397,13 @@
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E82" s="387" t="s">
-        <v>1230</v>
+        <v>586</v>
       </c>
       <c r="F82" s="74" t="s">
         <v>585</v>
@@ -50361,12 +50413,12 @@
       <c r="A83" s="34">
         <v>42736</v>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="53" t="s">
-        <v>693</v>
+      <c r="B83" s="39"/>
+      <c r="C83" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>1018</v>
       </c>
       <c r="E83" s="246" t="s">
         <v>586</v>
@@ -50380,11 +50432,11 @@
         <v>42736</v>
       </c>
       <c r="B84" s="39"/>
-      <c r="C84" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>665</v>
+      <c r="C84" s="428" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="428" t="s">
+        <v>673</v>
       </c>
       <c r="E84" s="387" t="s">
         <v>586</v>
@@ -50402,7 +50454,7 @@
         <v>100</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>1018</v>
+        <v>674</v>
       </c>
       <c r="E85" s="246" t="s">
         <v>586</v>
@@ -50411,76 +50463,76 @@
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A86" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="428" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" s="428" t="s">
-        <v>673</v>
-      </c>
-      <c r="E86" s="387" t="s">
+    <row r="86" spans="1:6" ht="20" customHeight="1">
+      <c r="A86" s="440">
+        <v>42736</v>
+      </c>
+      <c r="B86" s="434"/>
+      <c r="C86" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="433" t="s">
+        <v>665</v>
+      </c>
+      <c r="E86" s="434" t="s">
         <v>586</v>
       </c>
-      <c r="F86" s="74" t="s">
+      <c r="F86" s="471" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A87" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="E87" s="246" t="s">
+    <row r="87" spans="1:6" ht="20" customHeight="1">
+      <c r="A87" s="440">
+        <v>42736</v>
+      </c>
+      <c r="B87" s="434"/>
+      <c r="C87" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="433" t="s">
+        <v>666</v>
+      </c>
+      <c r="E87" s="434" t="s">
         <v>586</v>
       </c>
-      <c r="F87" s="79" t="s">
+      <c r="F87" s="471" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20" customHeight="1">
-      <c r="A88" s="440">
-        <v>42736</v>
-      </c>
-      <c r="B88" s="434"/>
-      <c r="C88" s="472" t="s">
-        <v>103</v>
-      </c>
-      <c r="D88" s="433" t="s">
+      <c r="A88" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B88" s="50"/>
+      <c r="C88" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="E88" s="434" t="s">
+      <c r="E88" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F88" s="471" t="s">
+      <c r="F88" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20" customHeight="1">
-      <c r="A89" s="440">
-        <v>42736</v>
-      </c>
-      <c r="B89" s="434"/>
-      <c r="C89" s="472" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="433" t="s">
-        <v>666</v>
-      </c>
-      <c r="E89" s="434" t="s">
+      <c r="A89" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B89" s="50"/>
+      <c r="C89" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E89" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F89" s="471" t="s">
-        <v>585</v>
+      <c r="F89" s="188" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20" customHeight="1">
@@ -50491,8 +50543,8 @@
       <c r="C90" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="36" t="s">
-        <v>665</v>
+      <c r="D90" s="38" t="s">
+        <v>1038</v>
       </c>
       <c r="E90" s="86" t="s">
         <v>586</v>
@@ -50510,13 +50562,13 @@
         <v>106</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="E91" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F91" s="188" t="s">
-        <v>587</v>
+      <c r="F91" s="74" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="20" customHeight="1">
@@ -50528,7 +50580,7 @@
         <v>106</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="E92" s="86" t="s">
         <v>586</v>
@@ -50545,14 +50597,14 @@
       <c r="C93" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="38" t="s">
-        <v>1040</v>
+      <c r="D93" s="1" t="s">
+        <v>1042</v>
       </c>
       <c r="E93" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F93" s="74" t="s">
-        <v>585</v>
+      <c r="F93" s="188" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20" customHeight="1">
@@ -50564,13 +50616,13 @@
         <v>106</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E94" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F94" s="74" t="s">
-        <v>585</v>
+      <c r="F94" s="188" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20" customHeight="1">
@@ -50581,14 +50633,14 @@
       <c r="C95" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>1042</v>
+      <c r="D95" s="38" t="s">
+        <v>1052</v>
       </c>
       <c r="E95" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F95" s="188" t="s">
-        <v>1231</v>
+      <c r="F95" s="74" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20" customHeight="1">
@@ -50599,157 +50651,121 @@
       <c r="C96" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="38" t="s">
-        <v>1047</v>
+      <c r="D96" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="E96" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F96" s="188" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="20" customHeight="1">
-      <c r="A97" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B97" s="50"/>
-      <c r="C97" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E97" s="86" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A97" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="530"/>
+      <c r="C97" s="483" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="483" t="s">
+        <v>665</v>
+      </c>
+      <c r="E97" s="517" t="s">
         <v>586</v>
       </c>
-      <c r="F97" s="74" t="s">
+      <c r="F97" s="531" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="20" customHeight="1">
-      <c r="A98" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B98" s="50"/>
-      <c r="C98" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E98" s="86" t="s">
+    <row r="98" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A98" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="530"/>
+      <c r="C98" s="483" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="483" t="s">
+        <v>665</v>
+      </c>
+      <c r="E98" s="517" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F98" s="531" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20" customHeight="1">
+      <c r="A99" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="50"/>
+      <c r="C99" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E99" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F98" s="188" t="s">
+      <c r="F99" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="99" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A99" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B99" s="530"/>
-      <c r="C99" s="483" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="483" t="s">
+    <row r="100" spans="1:6" ht="20" customHeight="1">
+      <c r="A100" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="50"/>
+      <c r="C100" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E100" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F100" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A101" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="530"/>
+      <c r="C101" s="483" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="483" t="s">
         <v>665</v>
       </c>
-      <c r="E99" s="517" t="s">
+      <c r="E101" s="517" t="s">
         <v>586</v>
       </c>
-      <c r="F99" s="531" t="s">
+      <c r="F101" s="531" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A100" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B100" s="530"/>
-      <c r="C100" s="483" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="483" t="s">
+    <row r="102" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A102" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="530"/>
+      <c r="C102" s="483" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="483" t="s">
         <v>665</v>
       </c>
-      <c r="E100" s="517" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F100" s="531" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="20" customHeight="1">
-      <c r="A101" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E101" s="86" t="s">
+      <c r="E102" s="517" t="s">
         <v>586</v>
       </c>
-      <c r="F101" s="74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="20" customHeight="1">
-      <c r="A102" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B102" s="50"/>
-      <c r="C102" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E102" s="86" t="s">
-        <v>586</v>
-      </c>
-      <c r="F102" s="74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A103" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B103" s="530"/>
-      <c r="C103" s="483" t="s">
-        <v>115</v>
-      </c>
-      <c r="D103" s="483" t="s">
-        <v>665</v>
-      </c>
-      <c r="E103" s="517" t="s">
-        <v>586</v>
-      </c>
-      <c r="F103" s="531" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A104" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B104" s="530"/>
-      <c r="C104" s="483" t="s">
-        <v>118</v>
-      </c>
-      <c r="D104" s="483" t="s">
-        <v>665</v>
-      </c>
-      <c r="E104" s="517" t="s">
-        <v>586</v>
-      </c>
-      <c r="F104" s="531" t="s">
+      <c r="F102" s="531" t="s">
         <v>587</v>
       </c>
     </row>
@@ -66077,8 +66093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O256"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+    <sheetView topLeftCell="E229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -74080,9 +74096,7 @@
       <c r="K254" s="521" t="s">
         <v>631</v>
       </c>
-      <c r="L254" s="522" t="s">
-        <v>644</v>
-      </c>
+      <c r="L254" s="522"/>
       <c r="M254" s="491"/>
       <c r="N254" s="523"/>
       <c r="O254" s="523"/>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73C1E43-262F-9C49-A97F-0D44D296496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F9CE50-407F-9341-9B30-B7755BDA0301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10024" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10020" uniqueCount="1284">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -15198,7 +15198,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F86" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F85" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
@@ -26023,7 +26023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T259"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -26045,7 +26045,7 @@
     <col min="15" max="15" width="42.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="28.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="54" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="2"/>
+    <col min="18" max="18" width="25.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="15.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="23.1640625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="8.83203125" style="2"/>
@@ -48645,10 +48645,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK102"/>
+  <dimension ref="A1:EK101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -48737,14 +48737,14 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="34">
-        <v>42739</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>665</v>
+      <c r="D5" s="38" t="s">
+        <v>926</v>
       </c>
       <c r="E5" s="86" t="s">
         <v>586</v>
@@ -48765,7 +48765,7 @@
         <v>926</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>586</v>
+        <v>1228</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>585</v>
@@ -48779,11 +48779,11 @@
       <c r="C7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>926</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>1228</v>
+      <c r="D7" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>1244</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>585</v>
@@ -48797,11 +48797,11 @@
       <c r="C8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E8" s="136" t="s">
-        <v>1244</v>
+      <c r="D8" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>586</v>
       </c>
       <c r="F8" s="74" t="s">
         <v>585</v>
@@ -48819,7 +48819,7 @@
         <v>666</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>586</v>
+        <v>1227</v>
       </c>
       <c r="F9" s="74" t="s">
         <v>585</v>
@@ -48834,10 +48834,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>666</v>
+        <v>928</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>1227</v>
+        <v>586</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>585</v>
@@ -48855,7 +48855,7 @@
         <v>928</v>
       </c>
       <c r="E11" s="86" t="s">
-        <v>586</v>
+        <v>1228</v>
       </c>
       <c r="F11" s="74" t="s">
         <v>585</v>
@@ -48863,17 +48863,17 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="34">
-        <v>42736</v>
+        <v>42737</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>1228</v>
+        <v>586</v>
       </c>
       <c r="F12" s="74" t="s">
         <v>585</v>
@@ -48881,14 +48881,14 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="34">
-        <v>42737</v>
+        <v>42738</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>933</v>
+      <c r="D13" s="489" t="s">
+        <v>936</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>586</v>
@@ -48899,14 +48899,14 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="34">
-        <v>42738</v>
+        <v>42739</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="489" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>586</v>
@@ -48917,14 +48917,14 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="34">
-        <v>42739</v>
+        <v>42740</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="489" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>586</v>
@@ -48935,14 +48935,14 @@
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="34">
-        <v>42740</v>
+        <v>42736</v>
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="489" t="s">
-        <v>944</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>586</v>
@@ -48959,8 +48959,8 @@
       <c r="C17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>665</v>
+      <c r="D17" s="38" t="s">
+        <v>949</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>586</v>
@@ -48974,11 +48974,11 @@
         <v>42736</v>
       </c>
       <c r="B18" s="50"/>
-      <c r="C18" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>949</v>
+      <c r="C18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>586</v>
@@ -48992,11 +48992,11 @@
         <v>42736</v>
       </c>
       <c r="B19" s="50"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>665</v>
+      <c r="D19" s="76" t="s">
+        <v>667</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>586</v>
@@ -49010,11 +49010,11 @@
         <v>42736</v>
       </c>
       <c r="B20" s="50"/>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="76" t="s">
-        <v>667</v>
+      <c r="D20" s="77" t="s">
+        <v>629</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>586</v>
@@ -49032,7 +49032,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>629</v>
+        <v>956</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>586</v>
@@ -49050,7 +49050,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>586</v>
@@ -49068,7 +49068,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>586</v>
@@ -49077,23 +49077,158 @@
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:141" ht="20" customHeight="1">
-      <c r="A24" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="77" t="s">
-        <v>960</v>
-      </c>
-      <c r="E24" s="86" t="s">
+    <row r="24" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="190">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="191"/>
+      <c r="C24" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="193" t="s">
+        <v>662</v>
+      </c>
+      <c r="E24" s="217" t="s">
         <v>586</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="194" t="s">
         <v>585</v>
       </c>
+      <c r="G24" s="238"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="238"/>
+      <c r="Q24" s="238"/>
+      <c r="R24" s="238"/>
+      <c r="S24" s="238"/>
+      <c r="T24" s="238"/>
+      <c r="U24" s="238"/>
+      <c r="V24" s="238"/>
+      <c r="W24" s="238"/>
+      <c r="X24" s="238"/>
+      <c r="Y24" s="238"/>
+      <c r="Z24" s="238"/>
+      <c r="AA24" s="238"/>
+      <c r="AB24" s="238"/>
+      <c r="AC24" s="238"/>
+      <c r="AD24" s="238"/>
+      <c r="AE24" s="238"/>
+      <c r="AF24" s="238"/>
+      <c r="AG24" s="238"/>
+      <c r="AH24" s="238"/>
+      <c r="AI24" s="238"/>
+      <c r="AJ24" s="238"/>
+      <c r="AK24" s="238"/>
+      <c r="AL24" s="238"/>
+      <c r="AM24" s="238"/>
+      <c r="AN24" s="238"/>
+      <c r="AO24" s="238"/>
+      <c r="AP24" s="238"/>
+      <c r="AQ24" s="238"/>
+      <c r="AR24" s="238"/>
+      <c r="AS24" s="238"/>
+      <c r="AT24" s="238"/>
+      <c r="AU24" s="238"/>
+      <c r="AV24" s="238"/>
+      <c r="AW24" s="238"/>
+      <c r="AX24" s="238"/>
+      <c r="AY24" s="238"/>
+      <c r="AZ24" s="238"/>
+      <c r="BA24" s="238"/>
+      <c r="BB24" s="238"/>
+      <c r="BC24" s="238"/>
+      <c r="BD24" s="238"/>
+      <c r="BE24" s="238"/>
+      <c r="BF24" s="238"/>
+      <c r="BG24" s="238"/>
+      <c r="BH24" s="238"/>
+      <c r="BI24" s="238"/>
+      <c r="BJ24" s="238"/>
+      <c r="BK24" s="238"/>
+      <c r="BL24" s="238"/>
+      <c r="BM24" s="238"/>
+      <c r="BN24" s="238"/>
+      <c r="BO24" s="238"/>
+      <c r="BP24" s="238"/>
+      <c r="BQ24" s="238"/>
+      <c r="BR24" s="238"/>
+      <c r="BS24" s="238"/>
+      <c r="BT24" s="238"/>
+      <c r="BU24" s="238"/>
+      <c r="BV24" s="238"/>
+      <c r="BW24" s="238"/>
+      <c r="BX24" s="238"/>
+      <c r="BY24" s="238"/>
+      <c r="BZ24" s="238"/>
+      <c r="CA24" s="238"/>
+      <c r="CB24" s="238"/>
+      <c r="CC24" s="238"/>
+      <c r="CD24" s="238"/>
+      <c r="CE24" s="238"/>
+      <c r="CF24" s="238"/>
+      <c r="CG24" s="238"/>
+      <c r="CH24" s="238"/>
+      <c r="CI24" s="238"/>
+      <c r="CJ24" s="238"/>
+      <c r="CK24" s="238"/>
+      <c r="CL24" s="238"/>
+      <c r="CM24" s="238"/>
+      <c r="CN24" s="238"/>
+      <c r="CO24" s="238"/>
+      <c r="CP24" s="238"/>
+      <c r="CQ24" s="238"/>
+      <c r="CR24" s="238"/>
+      <c r="CS24" s="238"/>
+      <c r="CT24" s="238"/>
+      <c r="CU24" s="238"/>
+      <c r="CV24" s="238"/>
+      <c r="CW24" s="238"/>
+      <c r="CX24" s="238"/>
+      <c r="CY24" s="238"/>
+      <c r="CZ24" s="238"/>
+      <c r="DA24" s="238"/>
+      <c r="DB24" s="238"/>
+      <c r="DC24" s="238"/>
+      <c r="DD24" s="238"/>
+      <c r="DE24" s="238"/>
+      <c r="DF24" s="238"/>
+      <c r="DG24" s="238"/>
+      <c r="DH24" s="238"/>
+      <c r="DI24" s="238"/>
+      <c r="DJ24" s="238"/>
+      <c r="DK24" s="238"/>
+      <c r="DL24" s="238"/>
+      <c r="DM24" s="238"/>
+      <c r="DN24" s="238"/>
+      <c r="DO24" s="238"/>
+      <c r="DP24" s="238"/>
+      <c r="DQ24" s="238"/>
+      <c r="DR24" s="238"/>
+      <c r="DS24" s="238"/>
+      <c r="DT24" s="238"/>
+      <c r="DU24" s="238"/>
+      <c r="DV24" s="238"/>
+      <c r="DW24" s="238"/>
+      <c r="DX24" s="238"/>
+      <c r="DY24" s="238"/>
+      <c r="DZ24" s="238"/>
+      <c r="EA24" s="238"/>
+      <c r="EB24" s="238"/>
+      <c r="EC24" s="238"/>
+      <c r="ED24" s="238"/>
+      <c r="EE24" s="238"/>
+      <c r="EF24" s="238"/>
+      <c r="EG24" s="238"/>
+      <c r="EH24" s="238"/>
+      <c r="EI24" s="238"/>
+      <c r="EJ24" s="238"/>
+      <c r="EK24" s="238"/>
     </row>
     <row r="25" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="190">
@@ -49104,7 +49239,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="193" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="E25" s="217" t="s">
         <v>586</v>
@@ -49248,158 +49383,23 @@
       <c r="EJ25" s="238"/>
       <c r="EK25" s="238"/>
     </row>
-    <row r="26" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
-      <c r="A26" s="190">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="193" t="s">
-        <v>645</v>
-      </c>
-      <c r="E26" s="217" t="s">
+    <row r="26" spans="1:141" ht="20" customHeight="1">
+      <c r="A26" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="233"/>
+      <c r="C26" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="234" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E26" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F26" s="194" t="s">
+      <c r="F26" s="252" t="s">
         <v>585</v>
       </c>
-      <c r="G26" s="238"/>
-      <c r="H26" s="238"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="238"/>
-      <c r="N26" s="238"/>
-      <c r="O26" s="238"/>
-      <c r="P26" s="238"/>
-      <c r="Q26" s="238"/>
-      <c r="R26" s="238"/>
-      <c r="S26" s="238"/>
-      <c r="T26" s="238"/>
-      <c r="U26" s="238"/>
-      <c r="V26" s="238"/>
-      <c r="W26" s="238"/>
-      <c r="X26" s="238"/>
-      <c r="Y26" s="238"/>
-      <c r="Z26" s="238"/>
-      <c r="AA26" s="238"/>
-      <c r="AB26" s="238"/>
-      <c r="AC26" s="238"/>
-      <c r="AD26" s="238"/>
-      <c r="AE26" s="238"/>
-      <c r="AF26" s="238"/>
-      <c r="AG26" s="238"/>
-      <c r="AH26" s="238"/>
-      <c r="AI26" s="238"/>
-      <c r="AJ26" s="238"/>
-      <c r="AK26" s="238"/>
-      <c r="AL26" s="238"/>
-      <c r="AM26" s="238"/>
-      <c r="AN26" s="238"/>
-      <c r="AO26" s="238"/>
-      <c r="AP26" s="238"/>
-      <c r="AQ26" s="238"/>
-      <c r="AR26" s="238"/>
-      <c r="AS26" s="238"/>
-      <c r="AT26" s="238"/>
-      <c r="AU26" s="238"/>
-      <c r="AV26" s="238"/>
-      <c r="AW26" s="238"/>
-      <c r="AX26" s="238"/>
-      <c r="AY26" s="238"/>
-      <c r="AZ26" s="238"/>
-      <c r="BA26" s="238"/>
-      <c r="BB26" s="238"/>
-      <c r="BC26" s="238"/>
-      <c r="BD26" s="238"/>
-      <c r="BE26" s="238"/>
-      <c r="BF26" s="238"/>
-      <c r="BG26" s="238"/>
-      <c r="BH26" s="238"/>
-      <c r="BI26" s="238"/>
-      <c r="BJ26" s="238"/>
-      <c r="BK26" s="238"/>
-      <c r="BL26" s="238"/>
-      <c r="BM26" s="238"/>
-      <c r="BN26" s="238"/>
-      <c r="BO26" s="238"/>
-      <c r="BP26" s="238"/>
-      <c r="BQ26" s="238"/>
-      <c r="BR26" s="238"/>
-      <c r="BS26" s="238"/>
-      <c r="BT26" s="238"/>
-      <c r="BU26" s="238"/>
-      <c r="BV26" s="238"/>
-      <c r="BW26" s="238"/>
-      <c r="BX26" s="238"/>
-      <c r="BY26" s="238"/>
-      <c r="BZ26" s="238"/>
-      <c r="CA26" s="238"/>
-      <c r="CB26" s="238"/>
-      <c r="CC26" s="238"/>
-      <c r="CD26" s="238"/>
-      <c r="CE26" s="238"/>
-      <c r="CF26" s="238"/>
-      <c r="CG26" s="238"/>
-      <c r="CH26" s="238"/>
-      <c r="CI26" s="238"/>
-      <c r="CJ26" s="238"/>
-      <c r="CK26" s="238"/>
-      <c r="CL26" s="238"/>
-      <c r="CM26" s="238"/>
-      <c r="CN26" s="238"/>
-      <c r="CO26" s="238"/>
-      <c r="CP26" s="238"/>
-      <c r="CQ26" s="238"/>
-      <c r="CR26" s="238"/>
-      <c r="CS26" s="238"/>
-      <c r="CT26" s="238"/>
-      <c r="CU26" s="238"/>
-      <c r="CV26" s="238"/>
-      <c r="CW26" s="238"/>
-      <c r="CX26" s="238"/>
-      <c r="CY26" s="238"/>
-      <c r="CZ26" s="238"/>
-      <c r="DA26" s="238"/>
-      <c r="DB26" s="238"/>
-      <c r="DC26" s="238"/>
-      <c r="DD26" s="238"/>
-      <c r="DE26" s="238"/>
-      <c r="DF26" s="238"/>
-      <c r="DG26" s="238"/>
-      <c r="DH26" s="238"/>
-      <c r="DI26" s="238"/>
-      <c r="DJ26" s="238"/>
-      <c r="DK26" s="238"/>
-      <c r="DL26" s="238"/>
-      <c r="DM26" s="238"/>
-      <c r="DN26" s="238"/>
-      <c r="DO26" s="238"/>
-      <c r="DP26" s="238"/>
-      <c r="DQ26" s="238"/>
-      <c r="DR26" s="238"/>
-      <c r="DS26" s="238"/>
-      <c r="DT26" s="238"/>
-      <c r="DU26" s="238"/>
-      <c r="DV26" s="238"/>
-      <c r="DW26" s="238"/>
-      <c r="DX26" s="238"/>
-      <c r="DY26" s="238"/>
-      <c r="DZ26" s="238"/>
-      <c r="EA26" s="238"/>
-      <c r="EB26" s="238"/>
-      <c r="EC26" s="238"/>
-      <c r="ED26" s="238"/>
-      <c r="EE26" s="238"/>
-      <c r="EF26" s="238"/>
-      <c r="EG26" s="238"/>
-      <c r="EH26" s="238"/>
-      <c r="EI26" s="238"/>
-      <c r="EJ26" s="238"/>
-      <c r="EK26" s="238"/>
     </row>
     <row r="27" spans="1:141" ht="20" customHeight="1">
       <c r="A27" s="266">
@@ -49410,7 +49410,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="234" t="s">
-        <v>1018</v>
+        <v>673</v>
       </c>
       <c r="E27" s="268" t="s">
         <v>586</v>
@@ -49428,7 +49428,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="234" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E28" s="268" t="s">
         <v>586</v>
@@ -49446,7 +49446,7 @@
         <v>85</v>
       </c>
       <c r="D29" s="234" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E29" s="268" t="s">
         <v>586</v>
@@ -49464,7 +49464,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="234" t="s">
-        <v>675</v>
+        <v>1023</v>
       </c>
       <c r="E30" s="268" t="s">
         <v>586</v>
@@ -49482,7 +49482,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="234" t="s">
-        <v>1023</v>
+        <v>677</v>
       </c>
       <c r="E31" s="268" t="s">
         <v>586</v>
@@ -49500,7 +49500,7 @@
         <v>85</v>
       </c>
       <c r="D32" s="234" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="E32" s="268" t="s">
         <v>586</v>
@@ -49510,20 +49510,20 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
-      <c r="A33" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B33" s="233"/>
-      <c r="C33" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="234" t="s">
-        <v>682</v>
-      </c>
-      <c r="E33" s="268" t="s">
+      <c r="A33" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E33" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F33" s="252" t="s">
+      <c r="F33" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49533,7 +49533,7 @@
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>665</v>
@@ -49554,7 +49554,7 @@
         <v>55</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>665</v>
+        <v>963</v>
       </c>
       <c r="E35" s="86" t="s">
         <v>586</v>
@@ -49572,7 +49572,7 @@
         <v>55</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>586</v>
@@ -49590,7 +49590,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E37" s="86" t="s">
         <v>586</v>
@@ -49608,7 +49608,7 @@
         <v>55</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>586</v>
@@ -49622,11 +49622,11 @@
         <v>42736</v>
       </c>
       <c r="B39" s="50"/>
-      <c r="C39" s="38" t="s">
-        <v>55</v>
+      <c r="C39" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>969</v>
+        <v>665</v>
       </c>
       <c r="E39" s="86" t="s">
         <v>586</v>
@@ -49641,7 +49641,7 @@
       </c>
       <c r="B40" s="50"/>
       <c r="C40" s="36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>665</v>
@@ -49662,7 +49662,7 @@
         <v>61</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>665</v>
+        <v>972</v>
       </c>
       <c r="E41" s="86" t="s">
         <v>586</v>
@@ -49680,7 +49680,7 @@
         <v>61</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="E42" s="86" t="s">
         <v>586</v>
@@ -49698,7 +49698,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E43" s="86" t="s">
         <v>586</v>
@@ -49716,7 +49716,7 @@
         <v>61</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="E44" s="86" t="s">
         <v>586</v>
@@ -49731,16 +49731,16 @@
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>978</v>
+        <v>665</v>
       </c>
       <c r="E45" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F45" s="74" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -49748,17 +49748,17 @@
         <v>42736</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="36" t="s">
+      <c r="C46" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="38" t="s">
         <v>665</v>
       </c>
       <c r="E46" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20" customHeight="1">
@@ -49769,8 +49769,8 @@
       <c r="C47" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>665</v>
+      <c r="D47" s="76" t="s">
+        <v>980</v>
       </c>
       <c r="E47" s="86" t="s">
         <v>586</v>
@@ -49788,7 +49788,7 @@
         <v>64</v>
       </c>
       <c r="D48" s="76" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="E48" s="86" t="s">
         <v>586</v>
@@ -49802,11 +49802,11 @@
         <v>42736</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="76" t="s">
-        <v>984</v>
+      <c r="C49" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>586</v>
@@ -49820,14 +49820,14 @@
         <v>42736</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="E50" s="86" t="s">
-        <v>586</v>
+      <c r="E50" s="50" t="s">
+        <v>602</v>
       </c>
       <c r="F50" s="74" t="s">
         <v>585</v>
@@ -49842,13 +49842,13 @@
         <v>73</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>602</v>
       </c>
       <c r="F51" s="74" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20" customHeight="1">
@@ -49860,13 +49860,13 @@
         <v>73</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" customHeight="1">
@@ -49878,13 +49878,13 @@
         <v>73</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E53" s="50" t="s">
         <v>600</v>
       </c>
       <c r="F53" s="74" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" customHeight="1">
@@ -49895,14 +49895,14 @@
       <c r="C54" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="51" t="s">
-        <v>671</v>
+      <c r="D54" s="36" t="s">
+        <v>672</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>600</v>
       </c>
       <c r="F54" s="74" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20" customHeight="1">
@@ -49917,7 +49917,7 @@
         <v>672</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F55" s="74" t="s">
         <v>587</v>
@@ -49929,16 +49929,16 @@
       </c>
       <c r="B56" s="50"/>
       <c r="C56" s="36" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="F56" s="74" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20" customHeight="1">
@@ -49950,7 +49950,7 @@
         <v>88</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>586</v>
@@ -49968,7 +49968,7 @@
         <v>88</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>666</v>
+        <v>1014</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>586</v>
@@ -49982,13 +49982,13 @@
         <v>42736</v>
       </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="36" t="s">
-        <v>88</v>
+      <c r="C59" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E59" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="E59" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F59" s="74" t="s">
@@ -50004,7 +50004,7 @@
         <v>76</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>665</v>
+        <v>992</v>
       </c>
       <c r="E60" s="86" t="s">
         <v>586</v>
@@ -50014,20 +50014,20 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="20" customHeight="1">
-      <c r="A61" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="38" t="s">
+      <c r="A61" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>992</v>
-      </c>
-      <c r="E61" s="86" t="s">
+      <c r="D61" s="53" t="s">
+        <v>995</v>
+      </c>
+      <c r="E61" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="F61" s="74" t="s">
+      <c r="F61" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50035,12 +50035,12 @@
       <c r="A62" s="41">
         <v>42736</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>995</v>
+      <c r="B62" s="39"/>
+      <c r="C62" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>999</v>
       </c>
       <c r="E62" s="127" t="s">
         <v>586</v>
@@ -50058,7 +50058,7 @@
         <v>79</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E63" s="127" t="s">
         <v>586</v>
@@ -50076,7 +50076,7 @@
         <v>79</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E64" s="127" t="s">
         <v>586</v>
@@ -50089,12 +50089,12 @@
       <c r="A65" s="41">
         <v>42736</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="51" t="s">
-        <v>1004</v>
+      <c r="D65" s="54" t="s">
+        <v>1006</v>
       </c>
       <c r="E65" s="127" t="s">
         <v>586</v>
@@ -50107,51 +50107,51 @@
       <c r="A66" s="41">
         <v>42736</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E66" s="127" t="s">
-        <v>586</v>
+      <c r="B66" s="55"/>
+      <c r="C66" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="E66" s="246" t="s">
+        <v>1229</v>
       </c>
       <c r="F66" s="79" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20" customHeight="1">
-      <c r="A67" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="43" t="s">
+      <c r="A67" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="50"/>
+      <c r="C67" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="53" t="s">
-        <v>665</v>
+      <c r="D67" s="38" t="s">
+        <v>666</v>
       </c>
       <c r="E67" s="246" t="s">
         <v>1229</v>
       </c>
-      <c r="F67" s="79" t="s">
+      <c r="F67" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1">
+    <row r="68" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A68" s="34">
         <v>42736</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="E68" s="246" t="s">
-        <v>1229</v>
+      <c r="B68" s="39"/>
+      <c r="C68" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E68" s="387" t="s">
+        <v>1228</v>
       </c>
       <c r="F68" s="74" t="s">
         <v>585</v>
@@ -50166,10 +50166,10 @@
         <v>91</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="E69" s="387" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F69" s="74" t="s">
         <v>585</v>
@@ -50184,10 +50184,10 @@
         <v>91</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E70" s="387" t="s">
-        <v>1227</v>
+        <v>586</v>
       </c>
       <c r="F70" s="74" t="s">
         <v>585</v>
@@ -50202,7 +50202,7 @@
         <v>91</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="E71" s="387" t="s">
         <v>586</v>
@@ -50220,10 +50220,10 @@
         <v>91</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E72" s="387" t="s">
-        <v>586</v>
+        <v>1230</v>
       </c>
       <c r="F72" s="74" t="s">
         <v>585</v>
@@ -50241,13 +50241,13 @@
         <v>693</v>
       </c>
       <c r="E73" s="387" t="s">
-        <v>1230</v>
+        <v>586</v>
       </c>
       <c r="F73" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="74" spans="1:6" ht="13.25" customHeight="1">
       <c r="A74" s="34">
         <v>42736</v>
       </c>
@@ -50255,8 +50255,8 @@
       <c r="C74" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="36" t="s">
-        <v>693</v>
+      <c r="D74" s="404" t="s">
+        <v>689</v>
       </c>
       <c r="E74" s="387" t="s">
         <v>586</v>
@@ -50265,19 +50265,19 @@
         <v>585</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="13.25" customHeight="1">
+    <row r="75" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A75" s="34">
         <v>42736</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="404" t="s">
-        <v>689</v>
+        <v>94</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E75" s="387" t="s">
-        <v>586</v>
+        <v>1228</v>
       </c>
       <c r="F75" s="74" t="s">
         <v>585</v>
@@ -50292,10 +50292,10 @@
         <v>94</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="E76" s="387" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F76" s="74" t="s">
         <v>585</v>
@@ -50310,10 +50310,10 @@
         <v>94</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="E77" s="387" t="s">
-        <v>1227</v>
+        <v>586</v>
       </c>
       <c r="F77" s="74" t="s">
         <v>585</v>
@@ -50328,7 +50328,7 @@
         <v>94</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="E78" s="387" t="s">
         <v>586</v>
@@ -50346,10 +50346,10 @@
         <v>94</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E79" s="387" t="s">
-        <v>586</v>
+        <v>1230</v>
       </c>
       <c r="F79" s="74" t="s">
         <v>585</v>
@@ -50359,17 +50359,17 @@
       <c r="A80" s="34">
         <v>42736</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="38" t="s">
+      <c r="B80" s="42"/>
+      <c r="C80" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="53" t="s">
         <v>693</v>
       </c>
-      <c r="E80" s="387" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F80" s="74" t="s">
+      <c r="E80" s="246" t="s">
+        <v>586</v>
+      </c>
+      <c r="F80" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50377,17 +50377,17 @@
       <c r="A81" s="34">
         <v>42736</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="53" t="s">
-        <v>693</v>
-      </c>
-      <c r="E81" s="246" t="s">
+      <c r="B81" s="39"/>
+      <c r="C81" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E81" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="F81" s="79" t="s">
+      <c r="F81" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50397,15 +50397,15 @@
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E82" s="387" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E82" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F82" s="74" t="s">
+      <c r="F82" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50414,16 +50414,16 @@
         <v>42736</v>
       </c>
       <c r="B83" s="39"/>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E83" s="246" t="s">
+      <c r="D83" s="428" t="s">
+        <v>673</v>
+      </c>
+      <c r="E83" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="F83" s="79" t="s">
+      <c r="F83" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50432,34 +50432,34 @@
         <v>42736</v>
       </c>
       <c r="B84" s="39"/>
-      <c r="C84" s="428" t="s">
+      <c r="C84" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="428" t="s">
-        <v>673</v>
-      </c>
-      <c r="E84" s="387" t="s">
+      <c r="D84" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="E84" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F84" s="74" t="s">
+      <c r="F84" s="79" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A85" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="E85" s="246" t="s">
+    <row r="85" spans="1:6" ht="20" customHeight="1">
+      <c r="A85" s="440">
+        <v>42736</v>
+      </c>
+      <c r="B85" s="434"/>
+      <c r="C85" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="433" t="s">
+        <v>665</v>
+      </c>
+      <c r="E85" s="434" t="s">
         <v>586</v>
       </c>
-      <c r="F85" s="79" t="s">
+      <c r="F85" s="471" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50472,7 +50472,7 @@
         <v>103</v>
       </c>
       <c r="D86" s="433" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E86" s="434" t="s">
         <v>586</v>
@@ -50482,20 +50482,20 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="20" customHeight="1">
-      <c r="A87" s="440">
-        <v>42736</v>
-      </c>
-      <c r="B87" s="434"/>
-      <c r="C87" s="472" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="433" t="s">
-        <v>666</v>
-      </c>
-      <c r="E87" s="434" t="s">
+      <c r="A87" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B87" s="50"/>
+      <c r="C87" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E87" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F87" s="471" t="s">
+      <c r="F87" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50507,14 +50507,14 @@
       <c r="C88" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="36" t="s">
-        <v>665</v>
+      <c r="D88" s="38" t="s">
+        <v>1036</v>
       </c>
       <c r="E88" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F88" s="74" t="s">
-        <v>585</v>
+      <c r="F88" s="188" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="20" customHeight="1">
@@ -50526,13 +50526,13 @@
         <v>106</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E89" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F89" s="188" t="s">
-        <v>587</v>
+      <c r="F89" s="74" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="20" customHeight="1">
@@ -50544,7 +50544,7 @@
         <v>106</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E90" s="86" t="s">
         <v>586</v>
@@ -50562,7 +50562,7 @@
         <v>106</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E91" s="86" t="s">
         <v>586</v>
@@ -50579,14 +50579,14 @@
       <c r="C92" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="38" t="s">
-        <v>1044</v>
+      <c r="D92" s="1" t="s">
+        <v>1042</v>
       </c>
       <c r="E92" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F92" s="74" t="s">
-        <v>585</v>
+      <c r="F92" s="188" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="20" customHeight="1">
@@ -50597,8 +50597,8 @@
       <c r="C93" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>1042</v>
+      <c r="D93" s="38" t="s">
+        <v>1047</v>
       </c>
       <c r="E93" s="86" t="s">
         <v>586</v>
@@ -50616,13 +50616,13 @@
         <v>106</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="E94" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F94" s="188" t="s">
-        <v>1231</v>
+      <c r="F94" s="74" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20" customHeight="1">
@@ -50633,31 +50633,31 @@
       <c r="C95" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="38" t="s">
-        <v>1052</v>
+      <c r="D95" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="E95" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F95" s="74" t="s">
+      <c r="F95" s="188" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="20" customHeight="1">
-      <c r="A96" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E96" s="86" t="s">
+    <row r="96" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A96" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="530"/>
+      <c r="C96" s="483" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="483" t="s">
+        <v>665</v>
+      </c>
+      <c r="E96" s="517" t="s">
         <v>586</v>
       </c>
-      <c r="F96" s="188" t="s">
+      <c r="F96" s="531" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50673,27 +50673,27 @@
         <v>665</v>
       </c>
       <c r="E97" s="517" t="s">
-        <v>586</v>
+        <v>1227</v>
       </c>
       <c r="F97" s="531" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A98" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B98" s="530"/>
-      <c r="C98" s="483" t="s">
-        <v>109</v>
-      </c>
-      <c r="D98" s="483" t="s">
+    <row r="98" spans="1:6" ht="20" customHeight="1">
+      <c r="A98" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="50"/>
+      <c r="C98" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="E98" s="517" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F98" s="531" t="s">
+      <c r="E98" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="F98" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50705,8 +50705,8 @@
       <c r="C99" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D99" s="36" t="s">
-        <v>665</v>
+      <c r="D99" s="38" t="s">
+        <v>1036</v>
       </c>
       <c r="E99" s="86" t="s">
         <v>586</v>
@@ -50715,21 +50715,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20" customHeight="1">
-      <c r="A100" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B100" s="50"/>
-      <c r="C100" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E100" s="86" t="s">
+    <row r="100" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A100" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="530"/>
+      <c r="C100" s="483" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="483" t="s">
+        <v>665</v>
+      </c>
+      <c r="E100" s="517" t="s">
         <v>586</v>
       </c>
-      <c r="F100" s="74" t="s">
+      <c r="F100" s="531" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50739,7 +50739,7 @@
       </c>
       <c r="B101" s="530"/>
       <c r="C101" s="483" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D101" s="483" t="s">
         <v>665</v>
@@ -50748,24 +50748,6 @@
         <v>586</v>
       </c>
       <c r="F101" s="531" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A102" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B102" s="530"/>
-      <c r="C102" s="483" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" s="483" t="s">
-        <v>665</v>
-      </c>
-      <c r="E102" s="517" t="s">
-        <v>586</v>
-      </c>
-      <c r="F102" s="531" t="s">
         <v>587</v>
       </c>
     </row>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4B94A-A548-F147-A8A5-278F131D3A72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9253FB-4DF1-7A4D-BC82-7C3541FC347D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="33600" windowHeight="20480" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$34:$V$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$O$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$O$125</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10155" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10166" uniqueCount="1293">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -15206,7 +15206,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F253" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F254" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="45"/>
@@ -15294,7 +15294,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O178" totalsRowShown="0" headerRowDxfId="323" dataDxfId="321" headerRowBorderDxfId="322" tableBorderDxfId="320" totalsRowBorderDxfId="319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O179" totalsRowShown="0" headerRowDxfId="323" dataDxfId="321" headerRowBorderDxfId="322" tableBorderDxfId="320" totalsRowBorderDxfId="319">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="318"/>
     <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="317"/>
@@ -22059,7 +22059,7 @@
   <dimension ref="A1:UCG91"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -26300,7 +26300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -36509,7 +36509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
@@ -43145,7 +43145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -43837,9 +43837,9 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -44351,7 +44351,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E28" s="50" t="s">
         <v>586</v>
@@ -44372,7 +44372,7 @@
         <v>232</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F29" s="74" t="s">
         <v>585</v>
@@ -44383,14 +44383,14 @@
         <v>42736</v>
       </c>
       <c r="B30" s="50"/>
-      <c r="C30" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>234</v>
+      <c r="C30" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F30" s="74" t="s">
         <v>585</v>
@@ -44400,12 +44400,12 @@
       <c r="A31" s="34">
         <v>42736</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E31" s="50" t="s">
         <v>586</v>
@@ -44419,11 +44419,11 @@
         <v>42736</v>
       </c>
       <c r="B32" s="35"/>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" s="50" t="s">
         <v>586</v>
@@ -44440,8 +44440,8 @@
       <c r="C33" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>240</v>
+      <c r="D33" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>586</v>
@@ -44454,12 +44454,12 @@
       <c r="A34" s="34">
         <v>42736</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>217</v>
+      <c r="D34" s="38" t="s">
+        <v>240</v>
       </c>
       <c r="E34" s="50" t="s">
         <v>586</v>
@@ -44472,12 +44472,12 @@
       <c r="A35" s="34">
         <v>42736</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>222</v>
+      <c r="D35" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E35" s="50" t="s">
         <v>586</v>
@@ -44491,11 +44491,11 @@
         <v>42736</v>
       </c>
       <c r="B36" s="35"/>
-      <c r="C36" s="128" t="s">
-        <v>49</v>
+      <c r="C36" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E36" s="50" t="s">
         <v>586</v>
@@ -44513,7 +44513,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E37" s="50" t="s">
         <v>586</v>
@@ -44531,7 +44531,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>586</v>
@@ -44544,12 +44544,12 @@
       <c r="A39" s="34">
         <v>42736</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="128" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E39" s="50" t="s">
         <v>586</v>
@@ -44566,8 +44566,8 @@
       <c r="C40" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="86" t="s">
-        <v>251</v>
+      <c r="D40" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>586</v>
@@ -44580,12 +44580,12 @@
       <c r="A41" s="34">
         <v>42736</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="121" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>217</v>
+      <c r="D41" s="86" t="s">
+        <v>251</v>
       </c>
       <c r="E41" s="50" t="s">
         <v>586</v>
@@ -44598,12 +44598,12 @@
       <c r="A42" s="34">
         <v>42736</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="51" t="s">
-        <v>256</v>
+      <c r="D42" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>586</v>
@@ -44620,8 +44620,8 @@
       <c r="C43" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>259</v>
+      <c r="D43" s="51" t="s">
+        <v>256</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>586</v>
@@ -44639,7 +44639,7 @@
         <v>49</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>586</v>
@@ -44657,7 +44657,7 @@
         <v>49</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>586</v>
@@ -44672,10 +44672,10 @@
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>266</v>
+        <v>49</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>586</v>
@@ -44692,8 +44692,8 @@
       <c r="C47" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>269</v>
+      <c r="D47" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>586</v>
@@ -44711,7 +44711,7 @@
         <v>82</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>586</v>
@@ -44724,12 +44724,12 @@
       <c r="A49" s="34">
         <v>42736</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="235" t="s">
-        <v>273</v>
+      <c r="B49" s="50"/>
+      <c r="C49" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>586</v>
@@ -44746,8 +44746,8 @@
       <c r="C50" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="234" t="s">
-        <v>275</v>
+      <c r="D50" s="235" t="s">
+        <v>273</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>586</v>
@@ -44765,7 +44765,7 @@
         <v>85</v>
       </c>
       <c r="D51" s="234" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>586</v>
@@ -44783,7 +44783,7 @@
         <v>85</v>
       </c>
       <c r="D52" s="234" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="E52" s="50" t="s">
         <v>586</v>
@@ -44796,12 +44796,12 @@
       <c r="A53" s="34">
         <v>42736</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>280</v>
+      <c r="B53" s="35"/>
+      <c r="C53" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="234" t="s">
+        <v>277</v>
       </c>
       <c r="E53" s="50" t="s">
         <v>586</v>
@@ -44814,12 +44814,12 @@
       <c r="A54" s="34">
         <v>42736</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>586</v>
@@ -44837,7 +44837,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E55" s="50" t="s">
         <v>586</v>
@@ -44855,7 +44855,7 @@
         <v>52</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E56" s="50" t="s">
         <v>586</v>
@@ -44873,7 +44873,7 @@
         <v>52</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>586</v>
@@ -44891,7 +44891,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>586</v>
@@ -44909,7 +44909,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E59" s="50" t="s">
         <v>586</v>
@@ -44927,7 +44927,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E60" s="50" t="s">
         <v>586</v>
@@ -44945,7 +44945,7 @@
         <v>52</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E61" s="50" t="s">
         <v>586</v>
@@ -44963,7 +44963,7 @@
         <v>52</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E62" s="50" t="s">
         <v>586</v>
@@ -44980,8 +44980,8 @@
       <c r="C63" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="36" t="s">
-        <v>217</v>
+      <c r="D63" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>586</v>
@@ -44996,10 +44996,10 @@
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>280</v>
+        <v>52</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>586</v>
@@ -45017,7 +45017,7 @@
         <v>55</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E65" s="50" t="s">
         <v>586</v>
@@ -45035,7 +45035,7 @@
         <v>55</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E66" s="50" t="s">
         <v>586</v>
@@ -45053,7 +45053,7 @@
         <v>55</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E67" s="50" t="s">
         <v>586</v>
@@ -45070,8 +45070,8 @@
       <c r="C68" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="36" t="s">
-        <v>217</v>
+      <c r="D68" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="E68" s="50" t="s">
         <v>586</v>
@@ -45085,11 +45085,11 @@
         <v>42736</v>
       </c>
       <c r="B69" s="35"/>
-      <c r="C69" s="36" t="s">
-        <v>58</v>
+      <c r="C69" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>586</v>
@@ -45107,7 +45107,7 @@
         <v>58</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="E70" s="50" t="s">
         <v>586</v>
@@ -45122,10 +45122,10 @@
       </c>
       <c r="B71" s="35"/>
       <c r="C71" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E71" s="50" t="s">
         <v>586</v>
@@ -45143,7 +45143,7 @@
         <v>61</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="E72" s="50" t="s">
         <v>586</v>
@@ -45160,8 +45160,8 @@
       <c r="C73" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="38" t="s">
-        <v>282</v>
+      <c r="D73" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="E73" s="50" t="s">
         <v>586</v>
@@ -45179,7 +45179,7 @@
         <v>61</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E74" s="50" t="s">
         <v>586</v>
@@ -45196,8 +45196,8 @@
       <c r="C75" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="36" t="s">
-        <v>192</v>
+      <c r="D75" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>586</v>
@@ -45215,7 +45215,7 @@
         <v>61</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E76" s="50" t="s">
         <v>586</v>
@@ -45233,7 +45233,7 @@
         <v>61</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E77" s="50" t="s">
         <v>586</v>
@@ -45251,7 +45251,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E78" s="50" t="s">
         <v>586</v>
@@ -45269,7 +45269,7 @@
         <v>61</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E79" s="50" t="s">
         <v>586</v>
@@ -45287,7 +45287,7 @@
         <v>61</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E80" s="50" t="s">
         <v>586</v>
@@ -45305,7 +45305,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>586</v>
@@ -45322,8 +45322,8 @@
       <c r="C82" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D82" s="38" t="s">
-        <v>334</v>
+      <c r="D82" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E82" s="50" t="s">
         <v>586</v>
@@ -45341,7 +45341,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="E83" s="50" t="s">
         <v>586</v>
@@ -45359,7 +45359,7 @@
         <v>61</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E84" s="50" t="s">
         <v>586</v>
@@ -45377,7 +45377,7 @@
         <v>61</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E85" s="50" t="s">
         <v>586</v>
@@ -45395,7 +45395,7 @@
         <v>61</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="E86" s="50" t="s">
         <v>586</v>
@@ -45413,7 +45413,7 @@
         <v>61</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>586</v>
@@ -45431,7 +45431,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E88" s="50" t="s">
         <v>586</v>
@@ -45449,7 +45449,7 @@
         <v>61</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E89" s="50" t="s">
         <v>586</v>
@@ -45467,7 +45467,7 @@
         <v>61</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E90" s="50" t="s">
         <v>586</v>
@@ -45485,7 +45485,7 @@
         <v>61</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>586</v>
@@ -45503,7 +45503,7 @@
         <v>61</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E92" s="50" t="s">
         <v>586</v>
@@ -45521,7 +45521,7 @@
         <v>61</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>586</v>
@@ -45539,7 +45539,7 @@
         <v>61</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E94" s="50" t="s">
         <v>586</v>
@@ -45557,7 +45557,7 @@
         <v>61</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E95" s="50" t="s">
         <v>586</v>
@@ -45575,7 +45575,7 @@
         <v>61</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E96" s="50" t="s">
         <v>586</v>
@@ -45593,7 +45593,7 @@
         <v>61</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E97" s="50" t="s">
         <v>586</v>
@@ -45611,7 +45611,7 @@
         <v>61</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E98" s="50" t="s">
         <v>586</v>
@@ -45629,7 +45629,7 @@
         <v>61</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="E99" s="50" t="s">
         <v>586</v>
@@ -45646,8 +45646,8 @@
       <c r="C100" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="36" t="s">
-        <v>286</v>
+      <c r="D100" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="E100" s="50" t="s">
         <v>586</v>
@@ -45665,7 +45665,7 @@
         <v>61</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="E101" s="50" t="s">
         <v>586</v>
@@ -45683,7 +45683,7 @@
         <v>61</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="E102" s="50" t="s">
         <v>586</v>
@@ -45701,7 +45701,7 @@
         <v>61</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="E103" s="50" t="s">
         <v>586</v>
@@ -45718,8 +45718,8 @@
       <c r="C104" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D104" s="38" t="s">
-        <v>292</v>
+      <c r="D104" s="36" t="s">
+        <v>345</v>
       </c>
       <c r="E104" s="50" t="s">
         <v>586</v>
@@ -45737,7 +45737,7 @@
         <v>61</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>586</v>
@@ -45755,7 +45755,7 @@
         <v>61</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E106" s="50" t="s">
         <v>586</v>
@@ -45773,7 +45773,7 @@
         <v>61</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E107" s="50" t="s">
         <v>586</v>
@@ -45791,7 +45791,7 @@
         <v>61</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E108" s="50" t="s">
         <v>586</v>
@@ -45809,7 +45809,7 @@
         <v>61</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="E109" s="50" t="s">
         <v>586</v>
@@ -45826,8 +45826,8 @@
       <c r="C110" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D110" s="36" t="s">
-        <v>355</v>
+      <c r="D110" s="38" t="s">
+        <v>331</v>
       </c>
       <c r="E110" s="50" t="s">
         <v>586</v>
@@ -45845,7 +45845,7 @@
         <v>61</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E111" s="50" t="s">
         <v>586</v>
@@ -45859,11 +45859,11 @@
         <v>42736</v>
       </c>
       <c r="B112" s="35"/>
-      <c r="C112" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>247</v>
+      <c r="C112" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="E112" s="50" t="s">
         <v>586</v>
@@ -45881,7 +45881,7 @@
         <v>64</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E113" s="50" t="s">
         <v>586</v>
@@ -45899,7 +45899,7 @@
         <v>64</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E114" s="50" t="s">
         <v>586</v>
@@ -45912,12 +45912,12 @@
       <c r="A115" s="34">
         <v>42736</v>
       </c>
-      <c r="B115" s="50"/>
+      <c r="B115" s="35"/>
       <c r="C115" s="128" t="s">
         <v>64</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E115" s="50" t="s">
         <v>586</v>
@@ -45930,12 +45930,12 @@
       <c r="A116" s="34">
         <v>42736</v>
       </c>
-      <c r="B116" s="39"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="D116" s="128" t="s">
-        <v>217</v>
+      <c r="D116" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="E116" s="50" t="s">
         <v>586</v>
@@ -45948,12 +45948,12 @@
       <c r="A117" s="34">
         <v>42736</v>
       </c>
-      <c r="B117" s="50"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="128" t="s">
         <v>64</v>
       </c>
       <c r="D117" s="128" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="E117" s="50" t="s">
         <v>586</v>
@@ -45971,7 +45971,7 @@
         <v>64</v>
       </c>
       <c r="D118" s="128" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E118" s="50" t="s">
         <v>586</v>
@@ -45984,12 +45984,12 @@
       <c r="A119" s="34">
         <v>42736</v>
       </c>
-      <c r="B119" s="35"/>
-      <c r="C119" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D119" s="36" t="s">
-        <v>165</v>
+      <c r="B119" s="50"/>
+      <c r="C119" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" s="128" t="s">
+        <v>259</v>
       </c>
       <c r="E119" s="50" t="s">
         <v>586</v>
@@ -46003,8 +46003,8 @@
         <v>42736</v>
       </c>
       <c r="B120" s="35"/>
-      <c r="C120" s="38" t="s">
-        <v>70</v>
+      <c r="C120" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="D120" s="36" t="s">
         <v>165</v>
@@ -46025,7 +46025,7 @@
         <v>70</v>
       </c>
       <c r="D121" s="36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E121" s="50" t="s">
         <v>586</v>
@@ -46039,14 +46039,14 @@
         <v>42736</v>
       </c>
       <c r="B122" s="35"/>
-      <c r="C122" s="36" t="s">
-        <v>73</v>
+      <c r="C122" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="E122" s="50" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F122" s="74" t="s">
         <v>585</v>
@@ -46064,10 +46064,10 @@
         <v>363</v>
       </c>
       <c r="E123" s="50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F123" s="74" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -46075,17 +46075,17 @@
         <v>42736</v>
       </c>
       <c r="B124" s="35"/>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E124" s="50" t="s">
         <v>602</v>
       </c>
       <c r="F124" s="74" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -46097,7 +46097,7 @@
         <v>73</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E125" s="50" t="s">
         <v>602</v>
@@ -46115,10 +46115,10 @@
         <v>73</v>
       </c>
       <c r="D126" s="36" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E126" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F126" s="74" t="s">
         <v>585</v>
@@ -46133,7 +46133,7 @@
         <v>73</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E127" s="50" t="s">
         <v>600</v>
@@ -46148,13 +46148,13 @@
       </c>
       <c r="B128" s="35"/>
       <c r="C128" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="38" t="s">
-        <v>302</v>
+        <v>73</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>362</v>
       </c>
       <c r="E128" s="50" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F128" s="74" t="s">
         <v>585</v>
@@ -46169,7 +46169,7 @@
         <v>76</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="E129" s="50" t="s">
         <v>586</v>
@@ -46179,20 +46179,20 @@
       </c>
     </row>
     <row r="130" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A130" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B130" s="52"/>
-      <c r="C130" s="43" t="s">
+      <c r="A130" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B130" s="35"/>
+      <c r="C130" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D130" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E130" s="55" t="s">
+      <c r="D130" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F130" s="79" t="s">
+      <c r="F130" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46202,10 +46202,10 @@
       </c>
       <c r="B131" s="52"/>
       <c r="C131" s="43" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D131" s="43" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E131" s="55" t="s">
         <v>586</v>
@@ -46223,7 +46223,7 @@
         <v>88</v>
       </c>
       <c r="D132" s="43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E132" s="55" t="s">
         <v>586</v>
@@ -46241,7 +46241,7 @@
         <v>88</v>
       </c>
       <c r="D133" s="43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E133" s="55" t="s">
         <v>586</v>
@@ -46259,7 +46259,7 @@
         <v>88</v>
       </c>
       <c r="D134" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E134" s="55" t="s">
         <v>586</v>
@@ -46277,7 +46277,7 @@
         <v>88</v>
       </c>
       <c r="D135" s="43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E135" s="55" t="s">
         <v>586</v>
@@ -46295,7 +46295,7 @@
         <v>88</v>
       </c>
       <c r="D136" s="43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E136" s="55" t="s">
         <v>586</v>
@@ -46313,7 +46313,7 @@
         <v>88</v>
       </c>
       <c r="D137" s="43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E137" s="55" t="s">
         <v>586</v>
@@ -46331,7 +46331,7 @@
         <v>88</v>
       </c>
       <c r="D138" s="43" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E138" s="55" t="s">
         <v>586</v>
@@ -46349,7 +46349,7 @@
         <v>88</v>
       </c>
       <c r="D139" s="43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E139" s="55" t="s">
         <v>586</v>
@@ -46367,7 +46367,7 @@
         <v>88</v>
       </c>
       <c r="D140" s="43" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E140" s="55" t="s">
         <v>586</v>
@@ -46385,7 +46385,7 @@
         <v>88</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E141" s="55" t="s">
         <v>586</v>
@@ -46398,12 +46398,12 @@
       <c r="A142" s="41">
         <v>42736</v>
       </c>
-      <c r="B142" s="35"/>
-      <c r="C142" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D142" s="38" t="s">
-        <v>366</v>
+      <c r="B142" s="52"/>
+      <c r="C142" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D142" s="43" t="s">
+        <v>213</v>
       </c>
       <c r="E142" s="55" t="s">
         <v>586</v>
@@ -46421,7 +46421,7 @@
         <v>79</v>
       </c>
       <c r="D143" s="38" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="E143" s="55" t="s">
         <v>586</v>
@@ -46439,7 +46439,7 @@
         <v>79</v>
       </c>
       <c r="D144" s="38" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="E144" s="55" t="s">
         <v>586</v>
@@ -46457,7 +46457,7 @@
         <v>79</v>
       </c>
       <c r="D145" s="38" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E145" s="55" t="s">
         <v>586</v>
@@ -46475,7 +46475,7 @@
         <v>79</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E146" s="55" t="s">
         <v>586</v>
@@ -46493,7 +46493,7 @@
         <v>79</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E147" s="55" t="s">
         <v>586</v>
@@ -46511,7 +46511,7 @@
         <v>79</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E148" s="55" t="s">
         <v>586</v>
@@ -46529,7 +46529,7 @@
         <v>79</v>
       </c>
       <c r="D149" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E149" s="55" t="s">
         <v>586</v>
@@ -46547,7 +46547,7 @@
         <v>79</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E150" s="55" t="s">
         <v>586</v>
@@ -46560,12 +46560,12 @@
       <c r="A151" s="41">
         <v>42736</v>
       </c>
-      <c r="B151" s="52"/>
+      <c r="B151" s="35"/>
       <c r="C151" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D151" s="43" t="s">
-        <v>387</v>
+      <c r="D151" s="38" t="s">
+        <v>385</v>
       </c>
       <c r="E151" s="55" t="s">
         <v>586</v>
@@ -46575,20 +46575,20 @@
       </c>
     </row>
     <row r="152" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A152" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B152" s="35"/>
+      <c r="A152" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B152" s="52"/>
       <c r="C152" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D152" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E152" s="50" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F152" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D152" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E152" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="F152" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46601,7 +46601,7 @@
         <v>41</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E153" s="50" t="s">
         <v>1239</v>
@@ -46619,7 +46619,7 @@
         <v>41</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E154" s="50" t="s">
         <v>1239</v>
@@ -46637,7 +46637,7 @@
         <v>41</v>
       </c>
       <c r="D155" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E155" s="50" t="s">
         <v>1239</v>
@@ -46655,7 +46655,7 @@
         <v>41</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E156" s="50" t="s">
         <v>1239</v>
@@ -46673,7 +46673,7 @@
         <v>41</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E157" s="50" t="s">
         <v>1239</v>
@@ -46691,7 +46691,7 @@
         <v>41</v>
       </c>
       <c r="D158" s="38" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E158" s="50" t="s">
         <v>1239</v>
@@ -46709,7 +46709,7 @@
         <v>41</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E159" s="50" t="s">
         <v>1239</v>
@@ -46727,7 +46727,7 @@
         <v>41</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E160" s="50" t="s">
         <v>1239</v>
@@ -46745,7 +46745,7 @@
         <v>41</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E161" s="50" t="s">
         <v>1239</v>
@@ -46763,7 +46763,7 @@
         <v>41</v>
       </c>
       <c r="D162" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E162" s="50" t="s">
         <v>1239</v>
@@ -46781,7 +46781,7 @@
         <v>41</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E163" s="50" t="s">
         <v>1239</v>
@@ -46791,38 +46791,38 @@
       </c>
     </row>
     <row r="164" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A164" s="95">
-        <v>42737</v>
-      </c>
-      <c r="B164" s="81"/>
+      <c r="A164" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B164" s="35"/>
       <c r="C164" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E164" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F164" s="130" t="s">
+      <c r="F164" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A165" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B165" s="35"/>
+      <c r="A165" s="95">
+        <v>42737</v>
+      </c>
+      <c r="B165" s="81"/>
       <c r="C165" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E165" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F165" s="74" t="s">
+      <c r="F165" s="130" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46835,7 +46835,7 @@
         <v>41</v>
       </c>
       <c r="D166" s="38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E166" s="50" t="s">
         <v>1239</v>
@@ -46853,7 +46853,7 @@
         <v>41</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E167" s="50" t="s">
         <v>1239</v>
@@ -46871,7 +46871,7 @@
         <v>41</v>
       </c>
       <c r="D168" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E168" s="50" t="s">
         <v>1239</v>
@@ -46889,7 +46889,7 @@
         <v>41</v>
       </c>
       <c r="D169" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E169" s="50" t="s">
         <v>1239</v>
@@ -46907,7 +46907,7 @@
         <v>41</v>
       </c>
       <c r="D170" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E170" s="50" t="s">
         <v>1239</v>
@@ -46917,20 +46917,20 @@
       </c>
     </row>
     <row r="171" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A171" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B171" s="52"/>
-      <c r="C171" s="43" t="s">
+      <c r="A171" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B171" s="35"/>
+      <c r="C171" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D171" s="43" t="s">
-        <v>227</v>
+      <c r="D171" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="E171" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F171" s="79" t="s">
+      <c r="F171" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46938,17 +46938,17 @@
       <c r="A172" s="41">
         <v>42736</v>
       </c>
-      <c r="B172" s="35"/>
-      <c r="C172" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D172" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E172" s="39" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F172" s="74" t="s">
+      <c r="B172" s="52"/>
+      <c r="C172" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E172" s="50" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F172" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46961,7 +46961,7 @@
         <v>91</v>
       </c>
       <c r="D173" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E173" s="39" t="s">
         <v>1238</v>
@@ -46979,7 +46979,7 @@
         <v>91</v>
       </c>
       <c r="D174" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E174" s="39" t="s">
         <v>1238</v>
@@ -46997,7 +46997,7 @@
         <v>91</v>
       </c>
       <c r="D175" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E175" s="39" t="s">
         <v>1238</v>
@@ -47015,7 +47015,7 @@
         <v>91</v>
       </c>
       <c r="D176" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E176" s="39" t="s">
         <v>1238</v>
@@ -47033,7 +47033,7 @@
         <v>91</v>
       </c>
       <c r="D177" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E177" s="39" t="s">
         <v>1238</v>
@@ -47046,17 +47046,17 @@
       <c r="A178" s="41">
         <v>42736</v>
       </c>
-      <c r="B178" s="52"/>
-      <c r="C178" s="43" t="s">
+      <c r="B178" s="35"/>
+      <c r="C178" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D178" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="E178" s="42" t="s">
+      <c r="D178" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E178" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="F178" s="79" t="s">
+      <c r="F178" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47068,8 +47068,8 @@
       <c r="C179" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D179" s="38" t="s">
-        <v>403</v>
+      <c r="D179" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="E179" s="42" t="s">
         <v>1238</v>
@@ -47078,21 +47078,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="20" customHeight="1">
+    <row r="180" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A180" s="41">
         <v>42736</v>
       </c>
-      <c r="B180" s="35"/>
-      <c r="C180" s="38" t="s">
+      <c r="B180" s="52"/>
+      <c r="C180" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D180" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E180" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F180" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E180" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F180" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47105,7 +47105,7 @@
         <v>91</v>
       </c>
       <c r="D181" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E181" s="39" t="s">
         <v>1237</v>
@@ -47123,7 +47123,7 @@
         <v>91</v>
       </c>
       <c r="D182" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E182" s="39" t="s">
         <v>1237</v>
@@ -47141,7 +47141,7 @@
         <v>91</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E183" s="39" t="s">
         <v>1237</v>
@@ -47159,7 +47159,7 @@
         <v>91</v>
       </c>
       <c r="D184" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E184" s="39" t="s">
         <v>1237</v>
@@ -47177,7 +47177,7 @@
         <v>91</v>
       </c>
       <c r="D185" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E185" s="39" t="s">
         <v>1237</v>
@@ -47195,7 +47195,7 @@
         <v>91</v>
       </c>
       <c r="D186" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E186" s="39" t="s">
         <v>1237</v>
@@ -47213,7 +47213,7 @@
         <v>91</v>
       </c>
       <c r="D187" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E187" s="39" t="s">
         <v>1237</v>
@@ -47231,10 +47231,10 @@
         <v>91</v>
       </c>
       <c r="D188" s="38" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E188" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F188" s="74" t="s">
         <v>585</v>
@@ -47249,7 +47249,7 @@
         <v>91</v>
       </c>
       <c r="D189" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E189" s="39" t="s">
         <v>1240</v>
@@ -47267,7 +47267,7 @@
         <v>91</v>
       </c>
       <c r="D190" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E190" s="39" t="s">
         <v>1240</v>
@@ -47285,7 +47285,7 @@
         <v>91</v>
       </c>
       <c r="D191" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E191" s="39" t="s">
         <v>1240</v>
@@ -47303,10 +47303,10 @@
         <v>91</v>
       </c>
       <c r="D192" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E192" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F192" s="74" t="s">
         <v>585</v>
@@ -47321,7 +47321,7 @@
         <v>91</v>
       </c>
       <c r="D193" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E193" s="39" t="s">
         <v>586</v>
@@ -47339,7 +47339,7 @@
         <v>91</v>
       </c>
       <c r="D194" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E194" s="39" t="s">
         <v>586</v>
@@ -47357,7 +47357,7 @@
         <v>91</v>
       </c>
       <c r="D195" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E195" s="39" t="s">
         <v>586</v>
@@ -47375,7 +47375,7 @@
         <v>91</v>
       </c>
       <c r="D196" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E196" s="39" t="s">
         <v>586</v>
@@ -47393,7 +47393,7 @@
         <v>91</v>
       </c>
       <c r="D197" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E197" s="39" t="s">
         <v>586</v>
@@ -47411,7 +47411,7 @@
         <v>91</v>
       </c>
       <c r="D198" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E198" s="39" t="s">
         <v>586</v>
@@ -47429,7 +47429,7 @@
         <v>91</v>
       </c>
       <c r="D199" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E199" s="39" t="s">
         <v>586</v>
@@ -47444,13 +47444,13 @@
       </c>
       <c r="B200" s="35"/>
       <c r="C200" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D200" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E200" s="39" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F200" s="74" t="s">
         <v>585</v>
@@ -47465,7 +47465,7 @@
         <v>94</v>
       </c>
       <c r="D201" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E201" s="39" t="s">
         <v>1238</v>
@@ -47483,7 +47483,7 @@
         <v>94</v>
       </c>
       <c r="D202" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E202" s="39" t="s">
         <v>1238</v>
@@ -47501,7 +47501,7 @@
         <v>94</v>
       </c>
       <c r="D203" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E203" s="39" t="s">
         <v>1238</v>
@@ -47519,7 +47519,7 @@
         <v>94</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E204" s="39" t="s">
         <v>1238</v>
@@ -47537,7 +47537,7 @@
         <v>94</v>
       </c>
       <c r="D205" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E205" s="39" t="s">
         <v>1238</v>
@@ -47555,7 +47555,7 @@
         <v>94</v>
       </c>
       <c r="D206" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E206" s="39" t="s">
         <v>1238</v>
@@ -47564,39 +47564,39 @@
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="207" spans="1:6" ht="20" customHeight="1">
       <c r="A207" s="41">
         <v>42736</v>
       </c>
-      <c r="B207" s="52"/>
+      <c r="B207" s="35"/>
       <c r="C207" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D207" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="E207" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="E207" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="F207" s="79" t="s">
+      <c r="F207" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="20" customHeight="1">
+    <row r="208" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A208" s="41">
         <v>42736</v>
       </c>
-      <c r="B208" s="35"/>
+      <c r="B208" s="52"/>
       <c r="C208" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D208" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E208" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F208" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E208" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F208" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47609,7 +47609,7 @@
         <v>94</v>
       </c>
       <c r="D209" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E209" s="39" t="s">
         <v>1237</v>
@@ -47627,7 +47627,7 @@
         <v>94</v>
       </c>
       <c r="D210" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E210" s="39" t="s">
         <v>1237</v>
@@ -47645,7 +47645,7 @@
         <v>94</v>
       </c>
       <c r="D211" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E211" s="39" t="s">
         <v>1237</v>
@@ -47663,7 +47663,7 @@
         <v>94</v>
       </c>
       <c r="D212" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E212" s="39" t="s">
         <v>1237</v>
@@ -47681,7 +47681,7 @@
         <v>94</v>
       </c>
       <c r="D213" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E213" s="39" t="s">
         <v>1237</v>
@@ -47699,7 +47699,7 @@
         <v>94</v>
       </c>
       <c r="D214" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E214" s="39" t="s">
         <v>1237</v>
@@ -47717,7 +47717,7 @@
         <v>94</v>
       </c>
       <c r="D215" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E215" s="39" t="s">
         <v>1237</v>
@@ -47735,10 +47735,10 @@
         <v>94</v>
       </c>
       <c r="D216" s="38" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E216" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F216" s="74" t="s">
         <v>585</v>
@@ -47753,7 +47753,7 @@
         <v>94</v>
       </c>
       <c r="D217" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E217" s="39" t="s">
         <v>1240</v>
@@ -47771,7 +47771,7 @@
         <v>94</v>
       </c>
       <c r="D218" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E218" s="39" t="s">
         <v>1240</v>
@@ -47789,7 +47789,7 @@
         <v>94</v>
       </c>
       <c r="D219" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E219" s="39" t="s">
         <v>1240</v>
@@ -47807,10 +47807,10 @@
         <v>94</v>
       </c>
       <c r="D220" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E220" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F220" s="74" t="s">
         <v>585</v>
@@ -47825,7 +47825,7 @@
         <v>94</v>
       </c>
       <c r="D221" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E221" s="39" t="s">
         <v>586</v>
@@ -47843,7 +47843,7 @@
         <v>94</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E222" s="39" t="s">
         <v>586</v>
@@ -47861,7 +47861,7 @@
         <v>94</v>
       </c>
       <c r="D223" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E223" s="39" t="s">
         <v>586</v>
@@ -47879,7 +47879,7 @@
         <v>94</v>
       </c>
       <c r="D224" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E224" s="39" t="s">
         <v>586</v>
@@ -47897,7 +47897,7 @@
         <v>94</v>
       </c>
       <c r="D225" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E225" s="39" t="s">
         <v>586</v>
@@ -47915,7 +47915,7 @@
         <v>94</v>
       </c>
       <c r="D226" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E226" s="39" t="s">
         <v>586</v>
@@ -47933,7 +47933,7 @@
         <v>94</v>
       </c>
       <c r="D227" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E227" s="39" t="s">
         <v>586</v>
@@ -47948,13 +47948,13 @@
       </c>
       <c r="B228" s="35"/>
       <c r="C228" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D228" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E228" s="39" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F228" s="74" t="s">
         <v>585</v>
@@ -47969,7 +47969,7 @@
         <v>97</v>
       </c>
       <c r="D229" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E229" s="39" t="s">
         <v>1237</v>
@@ -47987,7 +47987,7 @@
         <v>97</v>
       </c>
       <c r="D230" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E230" s="39" t="s">
         <v>1237</v>
@@ -48005,7 +48005,7 @@
         <v>97</v>
       </c>
       <c r="D231" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E231" s="39" t="s">
         <v>1237</v>
@@ -48023,7 +48023,7 @@
         <v>97</v>
       </c>
       <c r="D232" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E232" s="39" t="s">
         <v>1237</v>
@@ -48041,7 +48041,7 @@
         <v>97</v>
       </c>
       <c r="D233" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E233" s="39" t="s">
         <v>1237</v>
@@ -48059,7 +48059,7 @@
         <v>97</v>
       </c>
       <c r="D234" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E234" s="39" t="s">
         <v>1237</v>
@@ -48077,7 +48077,7 @@
         <v>97</v>
       </c>
       <c r="D235" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E235" s="39" t="s">
         <v>1237</v>
@@ -48095,10 +48095,10 @@
         <v>97</v>
       </c>
       <c r="D236" s="38" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E236" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F236" s="74" t="s">
         <v>585</v>
@@ -48113,7 +48113,7 @@
         <v>97</v>
       </c>
       <c r="D237" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E237" s="39" t="s">
         <v>1240</v>
@@ -48131,7 +48131,7 @@
         <v>97</v>
       </c>
       <c r="D238" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E238" s="39" t="s">
         <v>1240</v>
@@ -48149,7 +48149,7 @@
         <v>97</v>
       </c>
       <c r="D239" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E239" s="39" t="s">
         <v>1240</v>
@@ -48167,10 +48167,10 @@
         <v>97</v>
       </c>
       <c r="D240" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E240" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F240" s="74" t="s">
         <v>585</v>
@@ -48185,7 +48185,7 @@
         <v>97</v>
       </c>
       <c r="D241" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E241" s="39" t="s">
         <v>586</v>
@@ -48203,7 +48203,7 @@
         <v>97</v>
       </c>
       <c r="D242" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E242" s="39" t="s">
         <v>586</v>
@@ -48221,7 +48221,7 @@
         <v>97</v>
       </c>
       <c r="D243" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E243" s="39" t="s">
         <v>586</v>
@@ -48239,7 +48239,7 @@
         <v>97</v>
       </c>
       <c r="D244" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E244" s="39" t="s">
         <v>586</v>
@@ -48257,7 +48257,7 @@
         <v>97</v>
       </c>
       <c r="D245" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E245" s="39" t="s">
         <v>586</v>
@@ -48275,7 +48275,7 @@
         <v>97</v>
       </c>
       <c r="D246" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E246" s="39" t="s">
         <v>586</v>
@@ -48293,7 +48293,7 @@
         <v>97</v>
       </c>
       <c r="D247" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E247" s="39" t="s">
         <v>586</v>
@@ -48307,11 +48307,11 @@
         <v>42736</v>
       </c>
       <c r="B248" s="35"/>
-      <c r="C248" s="428" t="s">
-        <v>100</v>
-      </c>
-      <c r="D248" s="483" t="s">
-        <v>165</v>
+      <c r="C248" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D248" s="38" t="s">
+        <v>403</v>
       </c>
       <c r="E248" s="39" t="s">
         <v>586</v>
@@ -48325,11 +48325,11 @@
         <v>42736</v>
       </c>
       <c r="B249" s="35"/>
-      <c r="C249" s="38" t="s">
+      <c r="C249" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D249" s="484" t="s">
-        <v>169</v>
+      <c r="D249" s="483" t="s">
+        <v>165</v>
       </c>
       <c r="E249" s="39" t="s">
         <v>586</v>
@@ -48343,11 +48343,11 @@
         <v>42736</v>
       </c>
       <c r="B250" s="35"/>
-      <c r="C250" s="428" t="s">
+      <c r="C250" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D250" s="483" t="s">
-        <v>172</v>
+      <c r="D250" s="484" t="s">
+        <v>169</v>
       </c>
       <c r="E250" s="39" t="s">
         <v>586</v>
@@ -48361,11 +48361,11 @@
         <v>42736</v>
       </c>
       <c r="B251" s="35"/>
-      <c r="C251" s="38" t="s">
+      <c r="C251" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D251" s="425" t="s">
-        <v>241</v>
+      <c r="D251" s="483" t="s">
+        <v>172</v>
       </c>
       <c r="E251" s="39" t="s">
         <v>586</v>
@@ -48379,11 +48379,11 @@
         <v>42736</v>
       </c>
       <c r="B252" s="35"/>
-      <c r="C252" s="428" t="s">
+      <c r="C252" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D252" s="426" t="s">
-        <v>253</v>
+      <c r="D252" s="425" t="s">
+        <v>241</v>
       </c>
       <c r="E252" s="39" t="s">
         <v>586</v>
@@ -48397,11 +48397,11 @@
         <v>42736</v>
       </c>
       <c r="B253" s="35"/>
-      <c r="C253" s="38" t="s">
+      <c r="C253" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D253" s="36" t="s">
-        <v>181</v>
+      <c r="D253" s="426" t="s">
+        <v>253</v>
       </c>
       <c r="E253" s="39" t="s">
         <v>586</v>
@@ -48411,20 +48411,20 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="20" customHeight="1">
-      <c r="A254" s="472">
-        <v>42736</v>
-      </c>
-      <c r="B254" s="473"/>
-      <c r="C254" s="453" t="s">
-        <v>103</v>
-      </c>
-      <c r="D254" s="433" t="s">
-        <v>165</v>
-      </c>
-      <c r="E254" s="474" t="s">
+      <c r="A254" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B254" s="35"/>
+      <c r="C254" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D254" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E254" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="F254" s="475" t="s">
+      <c r="F254" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48437,7 +48437,7 @@
         <v>103</v>
       </c>
       <c r="D255" s="433" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E255" s="474" t="s">
         <v>586</v>
@@ -48455,7 +48455,7 @@
         <v>103</v>
       </c>
       <c r="D256" s="433" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="E256" s="474" t="s">
         <v>586</v>
@@ -48473,7 +48473,7 @@
         <v>103</v>
       </c>
       <c r="D257" s="433" t="s">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="E257" s="474" t="s">
         <v>586</v>
@@ -48486,17 +48486,17 @@
       <c r="A258" s="472">
         <v>42736</v>
       </c>
-      <c r="B258" s="472"/>
-      <c r="C258" s="472" t="s">
+      <c r="B258" s="473"/>
+      <c r="C258" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="472" t="s">
-        <v>406</v>
-      </c>
-      <c r="E258" s="472" t="s">
+      <c r="D258" s="433" t="s">
+        <v>404</v>
+      </c>
+      <c r="E258" s="474" t="s">
         <v>586</v>
       </c>
-      <c r="F258" s="472" t="s">
+      <c r="F258" s="475" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48509,7 +48509,7 @@
         <v>103</v>
       </c>
       <c r="D259" s="472" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E259" s="472" t="s">
         <v>586</v>
@@ -48518,7 +48518,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="13.25" customHeight="1">
+    <row r="260" spans="1:6" ht="20" customHeight="1">
       <c r="A260" s="472">
         <v>42736</v>
       </c>
@@ -48527,7 +48527,7 @@
         <v>103</v>
       </c>
       <c r="D260" s="472" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E260" s="472" t="s">
         <v>586</v>
@@ -48545,7 +48545,7 @@
         <v>103</v>
       </c>
       <c r="D261" s="472" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E261" s="472" t="s">
         <v>586</v>
@@ -48554,21 +48554,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A262" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B262" s="35"/>
-      <c r="C262" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D262" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E262" s="50" t="s">
+    <row r="262" spans="1:6" ht="13.25" customHeight="1">
+      <c r="A262" s="472">
+        <v>42736</v>
+      </c>
+      <c r="B262" s="472"/>
+      <c r="C262" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D262" s="472" t="s">
+        <v>414</v>
+      </c>
+      <c r="E262" s="472" t="s">
         <v>586</v>
       </c>
-      <c r="F262" s="74" t="s">
+      <c r="F262" s="472" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48581,13 +48581,13 @@
         <v>106</v>
       </c>
       <c r="D263" s="36" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="E263" s="50" t="s">
         <v>586</v>
       </c>
       <c r="F263" s="74" t="s">
-        <v>1241</v>
+        <v>585</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48599,13 +48599,13 @@
         <v>106</v>
       </c>
       <c r="D264" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E264" s="50" t="s">
         <v>586</v>
       </c>
       <c r="F264" s="74" t="s">
-        <v>587</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48616,14 +48616,14 @@
       <c r="C265" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D265" s="38" t="s">
-        <v>286</v>
+      <c r="D265" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="E265" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F265" s="188" t="s">
-        <v>585</v>
+      <c r="F265" s="74" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48635,31 +48635,31 @@
         <v>106</v>
       </c>
       <c r="D266" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E266" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F266" s="74" t="s">
+      <c r="F266" s="188" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A267" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D267" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E267" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F267" s="74" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
-      <c r="A267" s="516">
-        <v>42736</v>
-      </c>
-      <c r="B267" s="488"/>
-      <c r="C267" s="490" t="s">
-        <v>109</v>
-      </c>
-      <c r="D267" s="490" t="s">
-        <v>165</v>
-      </c>
-      <c r="E267" s="491" t="s">
-        <v>586</v>
-      </c>
-      <c r="F267" s="493" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
@@ -48674,27 +48674,27 @@
         <v>165</v>
       </c>
       <c r="E268" s="491" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F268" s="493" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A269" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B269" s="35"/>
-      <c r="C269" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D269" s="36" t="s">
+    <row r="269" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
+      <c r="A269" s="516">
+        <v>42736</v>
+      </c>
+      <c r="B269" s="488"/>
+      <c r="C269" s="490" t="s">
+        <v>109</v>
+      </c>
+      <c r="D269" s="490" t="s">
         <v>165</v>
       </c>
-      <c r="E269" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="F269" s="74" t="s">
+      <c r="E269" s="491" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F269" s="493" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48704,7 +48704,7 @@
       </c>
       <c r="B270" s="35"/>
       <c r="C270" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D270" s="36" t="s">
         <v>165</v>
@@ -48722,7 +48722,7 @@
       </c>
       <c r="B271" s="35"/>
       <c r="C271" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D271" s="36" t="s">
         <v>165</v>
@@ -48731,6 +48731,24 @@
         <v>586</v>
       </c>
       <c r="F271" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A272" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B272" s="35"/>
+      <c r="C272" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E272" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F272" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -54470,11 +54488,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IO195"/>
+  <dimension ref="A1:IO196"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -55373,21 +55391,23 @@
         <v>42736</v>
       </c>
       <c r="B28" s="35"/>
-      <c r="C28" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>235</v>
+      <c r="C28" s="520" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>263</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="36" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="38" t="s">
+        <v>231</v>
+      </c>
       <c r="J28" s="50"/>
       <c r="K28" s="36" t="s">
         <v>45</v>
@@ -55408,10 +55428,10 @@
         <v>46</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="36" t="s">
@@ -55438,11 +55458,11 @@
       <c r="C30" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>238</v>
+      <c r="D30" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F30" s="50"/>
       <c r="G30" s="36" t="s">
@@ -55465,28 +55485,28 @@
       <c r="A31" s="35">
         <v>42736</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
       <c r="N31" s="36" t="s">
         <v>168</v>
       </c>
@@ -55496,28 +55516,28 @@
       <c r="A32" s="35">
         <v>42736</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="36" t="s">
+      <c r="D32" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="86"/>
+      <c r="G32" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
       <c r="N32" s="36" t="s">
         <v>168</v>
       </c>
@@ -55527,28 +55547,28 @@
       <c r="A33" s="35">
         <v>42736</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="51" t="s">
+      <c r="D33" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="36" t="s">
         <v>168</v>
       </c>
@@ -55558,28 +55578,28 @@
       <c r="A34" s="35">
         <v>42736</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="86"/>
+      <c r="G34" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
       <c r="N34" s="36" t="s">
         <v>168</v>
       </c>
@@ -55590,18 +55610,18 @@
         <v>42736</v>
       </c>
       <c r="B35" s="35"/>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>242</v>
       </c>
       <c r="F35" s="50"/>
       <c r="G35" s="36" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
@@ -55614,9 +55634,7 @@
       <c r="N35" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O35" s="36" t="s">
-        <v>246</v>
-      </c>
+      <c r="O35" s="36"/>
     </row>
     <row r="36" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A36" s="35">
@@ -55627,19 +55645,17 @@
         <v>49</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F36" s="50"/>
-      <c r="G36" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
-        <v>249</v>
-      </c>
+      <c r="G36" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="50"/>
       <c r="K36" s="36" t="s">
         <v>45</v>
@@ -55650,62 +55666,66 @@
         <v>168</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="35">
         <v>42736</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" s="50"/>
+      <c r="K37" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
       <c r="N37" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O37" s="36"/>
+      <c r="O37" s="36" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="38" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="35">
         <v>42736</v>
       </c>
       <c r="B38" s="85"/>
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="36" t="s">
+      <c r="D38" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="86"/>
+      <c r="G38" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="51" t="s">
         <v>45</v>
       </c>
       <c r="L38" s="86"/>
@@ -55723,15 +55743,15 @@
       <c r="C39" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="77" t="s">
-        <v>253</v>
+      <c r="D39" s="39" t="s">
+        <v>251</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="36" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
@@ -55739,8 +55759,8 @@
       <c r="K39" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
       <c r="N39" s="36" t="s">
         <v>168</v>
       </c>
@@ -55750,25 +55770,23 @@
       <c r="A40" s="35">
         <v>42736</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="J40" s="50"/>
+      <c r="D40" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="39"/>
       <c r="K40" s="36" t="s">
         <v>45</v>
       </c>
@@ -55787,19 +55805,19 @@
       <c r="C41" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="38" t="s">
-        <v>259</v>
+      <c r="D41" s="51" t="s">
+        <v>256</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F41" s="50"/>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="38"/>
       <c r="I41" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J41" s="50"/>
       <c r="K41" s="36" t="s">
@@ -55821,10 +55839,10 @@
         <v>49</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F42" s="50"/>
       <c r="G42" s="36" t="s">
@@ -55832,7 +55850,7 @@
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="38" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="J42" s="50"/>
       <c r="K42" s="36" t="s">
@@ -55854,17 +55872,19 @@
         <v>49</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F43" s="50"/>
       <c r="G43" s="36" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="H43" s="36"/>
-      <c r="I43" s="38"/>
+      <c r="I43" s="38" t="s">
+        <v>231</v>
+      </c>
       <c r="J43" s="50"/>
       <c r="K43" s="36" t="s">
         <v>45</v>
@@ -55882,19 +55902,19 @@
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>266</v>
+        <v>49</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F44" s="50"/>
-      <c r="G44" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="H44" s="38"/>
+      <c r="G44" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="H44" s="36"/>
       <c r="I44" s="38"/>
       <c r="J44" s="50"/>
       <c r="K44" s="36" t="s">
@@ -55915,17 +55935,17 @@
       <c r="C45" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>269</v>
+      <c r="D45" s="51" t="s">
+        <v>266</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F45" s="50"/>
-      <c r="G45" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="H45" s="36"/>
+      <c r="G45" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="H45" s="38"/>
       <c r="I45" s="38"/>
       <c r="J45" s="50"/>
       <c r="K45" s="36" t="s">
@@ -55947,14 +55967,14 @@
         <v>82</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="F46" s="50"/>
-      <c r="G46" s="38" t="s">
-        <v>272</v>
+      <c r="G46" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="H46" s="36"/>
       <c r="I46" s="38"/>
@@ -55970,35 +55990,35 @@
       <c r="O46" s="36"/>
     </row>
     <row r="47" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="247">
-        <v>42736</v>
-      </c>
-      <c r="B47" s="247"/>
-      <c r="C47" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="235" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" s="234" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="233"/>
-      <c r="G47" s="234" t="s">
-        <v>194</v>
-      </c>
-      <c r="H47" s="234"/>
-      <c r="I47" s="234"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="248" t="s">
+      <c r="A47" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" s="50"/>
+      <c r="G47" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="36"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L47" s="233"/>
-      <c r="M47" s="233"/>
-      <c r="N47" s="248" t="s">
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O47" s="248"/>
+      <c r="O47" s="36"/>
     </row>
     <row r="48" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A48" s="247">
@@ -56008,17 +56028,17 @@
       <c r="C48" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="234" t="s">
-        <v>275</v>
+      <c r="D48" s="235" t="s">
+        <v>273</v>
       </c>
       <c r="E48" s="234" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F48" s="233"/>
-      <c r="G48" s="248" t="s">
+      <c r="G48" s="234" t="s">
         <v>194</v>
       </c>
-      <c r="H48" s="248"/>
+      <c r="H48" s="234"/>
       <c r="I48" s="234"/>
       <c r="J48" s="233"/>
       <c r="K48" s="248" t="s">
@@ -56040,14 +56060,14 @@
         <v>85</v>
       </c>
       <c r="D49" s="234" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="E49" s="234" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="F49" s="233"/>
       <c r="G49" s="248" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="H49" s="248"/>
       <c r="I49" s="234"/>
@@ -56071,14 +56091,14 @@
         <v>85</v>
       </c>
       <c r="D50" s="234" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="E50" s="234" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="F50" s="233"/>
-      <c r="G50" s="234" t="s">
-        <v>279</v>
+      <c r="G50" s="248" t="s">
+        <v>167</v>
       </c>
       <c r="H50" s="248"/>
       <c r="I50" s="234"/>
@@ -56094,35 +56114,35 @@
       <c r="O50" s="248"/>
     </row>
     <row r="51" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
-      <c r="A51" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="F51" s="76"/>
-      <c r="G51" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="36" t="s">
+      <c r="A51" s="247">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="247"/>
+      <c r="C51" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="234" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="F51" s="233"/>
+      <c r="G51" s="234" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51" s="248"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="233"/>
+      <c r="K51" s="248" t="s">
         <v>45</v>
       </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="36" t="s">
+      <c r="L51" s="233"/>
+      <c r="M51" s="233"/>
+      <c r="N51" s="248" t="s">
         <v>168</v>
       </c>
-      <c r="O51" s="36"/>
+      <c r="O51" s="248"/>
     </row>
     <row r="52" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A52" s="35">
@@ -56133,12 +56153,12 @@
         <v>52</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F52" s="50"/>
+        <v>281</v>
+      </c>
+      <c r="F52" s="76"/>
       <c r="G52" s="36" t="s">
         <v>167</v>
       </c>
@@ -56164,10 +56184,10 @@
         <v>52</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F53" s="50"/>
       <c r="G53" s="36" t="s">
@@ -56195,10 +56215,10 @@
         <v>52</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F54" s="50"/>
       <c r="G54" s="36" t="s">
@@ -56226,10 +56246,10 @@
         <v>52</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F55" s="50"/>
       <c r="G55" s="36" t="s">
@@ -56257,10 +56277,10 @@
         <v>52</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="36" t="s">
@@ -56288,10 +56308,10 @@
         <v>52</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F57" s="50"/>
       <c r="G57" s="36" t="s">
@@ -56319,14 +56339,12 @@
         <v>52</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F58" s="76" t="s">
-        <v>296</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F58" s="50"/>
       <c r="G58" s="36" t="s">
         <v>167</v>
       </c>
@@ -56352,19 +56370,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="76" t="s">
-        <v>299</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F59" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H59" s="36"/>
+      <c r="I59" s="50"/>
       <c r="J59" s="50"/>
       <c r="K59" s="36" t="s">
         <v>45</v>
@@ -56385,17 +56403,19 @@
         <v>52</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F60" s="50"/>
-      <c r="G60" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="50"/>
+      <c r="G60" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="38"/>
+      <c r="I60" s="76" t="s">
+        <v>299</v>
+      </c>
       <c r="J60" s="50"/>
       <c r="K60" s="36" t="s">
         <v>45</v>
@@ -56411,28 +56431,28 @@
       <c r="A61" s="35">
         <v>42736</v>
       </c>
-      <c r="B61" s="85"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F61" s="86"/>
-      <c r="G61" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H61" s="51"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="51" t="s">
+      <c r="D61" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" s="50"/>
+      <c r="G61" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="36"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
       <c r="N61" s="36" t="s">
         <v>168</v>
       </c>
@@ -56442,28 +56462,28 @@
       <c r="A62" s="35">
         <v>42736</v>
       </c>
-      <c r="B62" s="35"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="F62" s="76"/>
-      <c r="G62" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H62" s="36"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="86"/>
+      <c r="G62" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H62" s="51"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
       <c r="N62" s="36" t="s">
         <v>168</v>
       </c>
@@ -56478,10 +56498,10 @@
         <v>55</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="F63" s="76"/>
       <c r="G63" s="36" t="s">
@@ -56509,10 +56529,10 @@
         <v>55</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F64" s="76"/>
       <c r="G64" s="36" t="s">
@@ -56540,10 +56560,10 @@
         <v>55</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F65" s="76"/>
       <c r="G65" s="36" t="s">
@@ -56566,28 +56586,28 @@
       <c r="A66" s="35">
         <v>42736</v>
       </c>
-      <c r="B66" s="85"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D66" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F66" s="86"/>
-      <c r="G66" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="51" t="s">
+      <c r="D66" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" s="76"/>
+      <c r="G66" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" s="36"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L66" s="86"/>
-      <c r="M66" s="86"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
       <c r="N66" s="36" t="s">
         <v>168</v>
       </c>
@@ -56597,30 +56617,28 @@
       <c r="A67" s="35">
         <v>42736</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="K67" s="36" t="s">
+      <c r="B67" s="85"/>
+      <c r="C67" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" s="86"/>
+      <c r="G67" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H67" s="51"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
       <c r="N67" s="36" t="s">
         <v>168</v>
       </c>
@@ -56630,28 +56648,30 @@
       <c r="A68" s="35">
         <v>42736</v>
       </c>
-      <c r="B68" s="85"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E68" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="51" t="s">
+      <c r="D68" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="50"/>
+      <c r="G68" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H68" s="36"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="K68" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L68" s="86"/>
-      <c r="M68" s="86"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
       <c r="N68" s="36" t="s">
         <v>168</v>
       </c>
@@ -56661,28 +56681,28 @@
       <c r="A69" s="35">
         <v>42736</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="85"/>
       <c r="C69" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" s="51"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
+      <c r="L69" s="86"/>
+      <c r="M69" s="86"/>
       <c r="N69" s="36" t="s">
         <v>168</v>
       </c>
@@ -56696,11 +56716,11 @@
       <c r="C70" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>283</v>
+      <c r="D70" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="F70" s="50"/>
       <c r="G70" s="36" t="s">
@@ -56727,11 +56747,11 @@
       <c r="C71" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>306</v>
+      <c r="D71" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="F71" s="50"/>
       <c r="G71" s="36" t="s">
@@ -56740,7 +56760,7 @@
       <c r="H71" s="36"/>
       <c r="I71" s="50"/>
       <c r="J71" s="50"/>
-      <c r="K71" s="51" t="s">
+      <c r="K71" s="36" t="s">
         <v>45</v>
       </c>
       <c r="L71" s="50"/>
@@ -56758,11 +56778,11 @@
       <c r="C72" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>308</v>
+      <c r="D72" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="F72" s="50"/>
       <c r="G72" s="36" t="s">
@@ -56771,11 +56791,11 @@
       <c r="H72" s="36"/>
       <c r="I72" s="50"/>
       <c r="J72" s="50"/>
-      <c r="K72" s="36" t="s">
+      <c r="K72" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L72" s="86"/>
-      <c r="M72" s="86"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
       <c r="N72" s="36" t="s">
         <v>168</v>
       </c>
@@ -56790,10 +56810,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F73" s="50"/>
       <c r="G73" s="36" t="s">
@@ -56805,8 +56825,8 @@
       <c r="K73" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
       <c r="N73" s="36" t="s">
         <v>168</v>
       </c>
@@ -56821,10 +56841,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="36" t="s">
@@ -56852,10 +56872,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F75" s="50"/>
       <c r="G75" s="36" t="s">
@@ -56883,10 +56903,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F76" s="50"/>
       <c r="G76" s="36" t="s">
@@ -56914,10 +56934,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F77" s="50"/>
       <c r="G77" s="36" t="s">
@@ -56929,8 +56949,8 @@
       <c r="K77" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L77" s="86"/>
-      <c r="M77" s="86"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
       <c r="N77" s="36" t="s">
         <v>168</v>
       </c>
@@ -56945,10 +56965,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="36" t="s">
@@ -56976,10 +56996,10 @@
         <v>61</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="36" t="s">
@@ -56991,8 +57011,8 @@
       <c r="K79" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
+      <c r="L79" s="86"/>
+      <c r="M79" s="86"/>
       <c r="N79" s="36" t="s">
         <v>168</v>
       </c>
@@ -57007,10 +57027,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F80" s="50"/>
       <c r="G80" s="36" t="s">
@@ -57038,10 +57058,10 @@
         <v>61</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F81" s="50"/>
       <c r="G81" s="36" t="s">
@@ -57069,10 +57089,10 @@
         <v>61</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F82" s="50"/>
       <c r="G82" s="36" t="s">
@@ -57100,10 +57120,10 @@
         <v>61</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F83" s="50"/>
       <c r="G83" s="36" t="s">
@@ -57131,10 +57151,10 @@
         <v>61</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F84" s="50"/>
       <c r="G84" s="36" t="s">
@@ -57146,8 +57166,8 @@
       <c r="K84" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L84" s="50"/>
-      <c r="M84" s="50"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
       <c r="N84" s="36" t="s">
         <v>168</v>
       </c>
@@ -57162,10 +57182,10 @@
         <v>61</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="F85" s="50"/>
       <c r="G85" s="36" t="s">
@@ -57177,8 +57197,8 @@
       <c r="K85" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
       <c r="N85" s="36" t="s">
         <v>168</v>
       </c>
@@ -57192,15 +57212,15 @@
       <c r="C86" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D86" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" s="36" t="s">
-        <v>333</v>
+      <c r="D86" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="F86" s="50"/>
       <c r="G86" s="36" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H86" s="36"/>
       <c r="I86" s="50"/>
@@ -57219,19 +57239,19 @@
       <c r="A87" s="35">
         <v>42736</v>
       </c>
-      <c r="B87" s="85"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="F87" s="50"/>
       <c r="G87" s="36" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="50"/>
@@ -57250,19 +57270,19 @@
       <c r="A88" s="35">
         <v>42736</v>
       </c>
-      <c r="B88" s="35"/>
+      <c r="B88" s="85"/>
       <c r="C88" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F88" s="50"/>
       <c r="G88" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H88" s="36"/>
       <c r="I88" s="50"/>
@@ -57281,19 +57301,19 @@
       <c r="A89" s="35">
         <v>42736</v>
       </c>
-      <c r="B89" s="85"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F89" s="50"/>
       <c r="G89" s="36" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H89" s="36"/>
       <c r="I89" s="50"/>
@@ -57312,19 +57332,19 @@
       <c r="A90" s="35">
         <v>42736</v>
       </c>
-      <c r="B90" s="35"/>
+      <c r="B90" s="85"/>
       <c r="C90" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F90" s="50"/>
       <c r="G90" s="36" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H90" s="36"/>
       <c r="I90" s="50"/>
@@ -57343,24 +57363,22 @@
       <c r="A91" s="35">
         <v>42736</v>
       </c>
-      <c r="B91" s="85"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D91" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E91" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F91" s="50"/>
       <c r="G91" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H91" s="36"/>
-      <c r="I91" s="36" t="s">
-        <v>216</v>
-      </c>
+      <c r="I91" s="50"/>
       <c r="J91" s="50"/>
       <c r="K91" s="36" t="s">
         <v>45</v>
@@ -57380,20 +57398,22 @@
       <c r="C92" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D92" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F92" s="86"/>
-      <c r="G92" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H92" s="51"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="51" t="s">
+      <c r="D92" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="50"/>
+      <c r="G92" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="J92" s="50"/>
+      <c r="K92" s="36" t="s">
         <v>45</v>
       </c>
       <c r="L92" s="39"/>
@@ -57407,26 +57427,24 @@
       <c r="A93" s="35">
         <v>42736</v>
       </c>
-      <c r="B93" s="50"/>
+      <c r="B93" s="85"/>
       <c r="C93" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="36" t="s">
+      <c r="D93" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="86"/>
+      <c r="G93" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H93" s="51"/>
+      <c r="I93" s="86"/>
+      <c r="J93" s="86"/>
+      <c r="K93" s="51" t="s">
         <v>45</v>
       </c>
       <c r="L93" s="39"/>
@@ -57445,17 +57463,19 @@
         <v>61</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="36" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H94" s="36"/>
-      <c r="I94" s="50"/>
+      <c r="I94" s="36" t="s">
+        <v>198</v>
+      </c>
       <c r="J94" s="50"/>
       <c r="K94" s="36" t="s">
         <v>45</v>
@@ -57476,14 +57496,14 @@
         <v>61</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="36" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H95" s="36"/>
       <c r="I95" s="50"/>
@@ -57507,14 +57527,14 @@
         <v>61</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E96" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F96" s="50"/>
       <c r="G96" s="36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H96" s="36"/>
       <c r="I96" s="50"/>
@@ -57533,24 +57553,24 @@
       <c r="A97" s="35">
         <v>42736</v>
       </c>
-      <c r="B97" s="85"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="F97" s="86"/>
-      <c r="G97" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="H97" s="51"/>
-      <c r="I97" s="86"/>
-      <c r="J97" s="86"/>
-      <c r="K97" s="51" t="s">
+      <c r="D97" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F97" s="50"/>
+      <c r="G97" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H97" s="36"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="36" t="s">
         <v>45</v>
       </c>
       <c r="L97" s="39"/>
@@ -57569,19 +57589,17 @@
         <v>61</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="E98" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F98" s="86"/>
       <c r="G98" s="51" t="s">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="H98" s="51"/>
-      <c r="I98" s="86" t="s">
-        <v>341</v>
-      </c>
+      <c r="I98" s="86"/>
       <c r="J98" s="86"/>
       <c r="K98" s="51" t="s">
         <v>45</v>
@@ -57597,24 +57615,26 @@
       <c r="A99" s="35">
         <v>42736</v>
       </c>
-      <c r="B99" s="35"/>
+      <c r="B99" s="85"/>
       <c r="C99" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="E99" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H99" s="36"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="36" t="s">
+      <c r="D99" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E99" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="F99" s="86"/>
+      <c r="G99" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="H99" s="51"/>
+      <c r="I99" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="J99" s="86"/>
+      <c r="K99" s="51" t="s">
         <v>45</v>
       </c>
       <c r="L99" s="39"/>
@@ -57633,10 +57653,10 @@
         <v>61</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F100" s="50"/>
       <c r="G100" s="36" t="s">
@@ -57664,14 +57684,14 @@
         <v>61</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="F101" s="50"/>
       <c r="G101" s="36" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="H101" s="36"/>
       <c r="I101" s="50"/>
@@ -57695,14 +57715,14 @@
         <v>61</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="36" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="H102" s="36"/>
       <c r="I102" s="50"/>
@@ -57726,10 +57746,10 @@
         <v>61</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F103" s="50"/>
       <c r="G103" s="36" t="s">
@@ -57757,14 +57777,14 @@
         <v>61</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="F104" s="50"/>
       <c r="G104" s="36" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="H104" s="36"/>
       <c r="I104" s="50"/>
@@ -57788,14 +57808,14 @@
         <v>61</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F105" s="50"/>
       <c r="G105" s="36" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="H105" s="36"/>
       <c r="I105" s="50"/>
@@ -57819,10 +57839,10 @@
         <v>61</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F106" s="50"/>
       <c r="G106" s="36" t="s">
@@ -57850,10 +57870,10 @@
         <v>61</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F107" s="50"/>
       <c r="G107" s="36" t="s">
@@ -57880,11 +57900,11 @@
       <c r="C108" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="E108" s="38" t="s">
-        <v>354</v>
+      <c r="D108" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="F108" s="50"/>
       <c r="G108" s="36" t="s">
@@ -57903,36 +57923,36 @@
       </c>
       <c r="O108" s="36"/>
     </row>
-    <row r="109" spans="1:15" s="308" customFormat="1" ht="21" customHeight="1">
-      <c r="A109" s="81">
-        <v>42736</v>
-      </c>
-      <c r="B109" s="81"/>
-      <c r="C109" s="83" t="s">
+    <row r="109" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
+      <c r="A109" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B109" s="35"/>
+      <c r="C109" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D109" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="E109" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="F109" s="82"/>
-      <c r="G109" s="83" t="s">
+      <c r="D109" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="F109" s="50"/>
+      <c r="G109" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="H109" s="83"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="83" t="s">
+      <c r="H109" s="36"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L109" s="82"/>
-      <c r="M109" s="82"/>
+      <c r="L109" s="39"/>
+      <c r="M109" s="39"/>
       <c r="N109" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O109" s="83"/>
+      <c r="O109" s="36"/>
     </row>
     <row r="110" spans="1:15" s="308" customFormat="1" ht="21" customHeight="1">
       <c r="A110" s="81">
@@ -57943,10 +57963,10 @@
         <v>61</v>
       </c>
       <c r="D110" s="83" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F110" s="82"/>
       <c r="G110" s="83" t="s">
@@ -57965,54 +57985,54 @@
       </c>
       <c r="O110" s="83"/>
     </row>
-    <row r="111" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
-      <c r="A111" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B111" s="35"/>
-      <c r="C111" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F111" s="50"/>
-      <c r="G111" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="36" t="s">
+    <row r="111" spans="1:15" s="308" customFormat="1" ht="21" customHeight="1">
+      <c r="A111" s="81">
+        <v>42736</v>
+      </c>
+      <c r="B111" s="81"/>
+      <c r="C111" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="E111" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="F111" s="82"/>
+      <c r="G111" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H111" s="83"/>
+      <c r="I111" s="82"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
+      <c r="L111" s="82"/>
+      <c r="M111" s="82"/>
       <c r="N111" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O111" s="36"/>
+      <c r="O111" s="83"/>
     </row>
     <row r="112" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A112" s="35">
         <v>42736</v>
       </c>
       <c r="B112" s="35"/>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E112" s="38" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>242</v>
       </c>
       <c r="F112" s="50"/>
       <c r="G112" s="36" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="H112" s="36"/>
       <c r="I112" s="36"/>
@@ -58036,19 +58056,17 @@
         <v>64</v>
       </c>
       <c r="D113" s="51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E113" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F113" s="50"/>
-      <c r="G113" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38" t="s">
-        <v>249</v>
-      </c>
+      <c r="G113" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
       <c r="J113" s="50"/>
       <c r="K113" s="36" t="s">
         <v>45</v>
@@ -58064,24 +58082,26 @@
       <c r="A114" s="35">
         <v>42736</v>
       </c>
-      <c r="B114" s="85"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="36" t="s">
         <v>64</v>
       </c>
       <c r="D114" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E114" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F114" s="86"/>
-      <c r="G114" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H114" s="51"/>
-      <c r="I114" s="86"/>
-      <c r="J114" s="86"/>
-      <c r="K114" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F114" s="50"/>
+      <c r="G114" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J114" s="50"/>
+      <c r="K114" s="36" t="s">
         <v>45</v>
       </c>
       <c r="L114" s="39"/>
@@ -58099,20 +58119,20 @@
       <c r="C115" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="F115" s="39"/>
-      <c r="G115" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="36" t="s">
+      <c r="D115" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" s="86"/>
+      <c r="G115" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H115" s="51"/>
+      <c r="I115" s="86"/>
+      <c r="J115" s="86"/>
+      <c r="K115" s="51" t="s">
         <v>45</v>
       </c>
       <c r="L115" s="39"/>
@@ -58126,25 +58146,23 @@
       <c r="A116" s="35">
         <v>42736</v>
       </c>
-      <c r="B116" s="35"/>
+      <c r="B116" s="85"/>
       <c r="C116" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D116" s="51" t="s">
-        <v>256</v>
+      <c r="D116" s="77" t="s">
+        <v>253</v>
       </c>
       <c r="E116" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F116" s="50"/>
-      <c r="G116" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="J116" s="50"/>
+        <v>254</v>
+      </c>
+      <c r="F116" s="39"/>
+      <c r="G116" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="39"/>
       <c r="K116" s="36" t="s">
         <v>45</v>
       </c>
@@ -58163,19 +58181,19 @@
       <c r="C117" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D117" s="38" t="s">
-        <v>259</v>
+      <c r="D117" s="51" t="s">
+        <v>256</v>
       </c>
       <c r="E117" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F117" s="50"/>
-      <c r="G117" s="36" t="s">
+      <c r="G117" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="H117" s="36"/>
+      <c r="H117" s="38"/>
       <c r="I117" s="38" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="J117" s="50"/>
       <c r="K117" s="36" t="s">
@@ -58194,26 +58212,28 @@
       </c>
       <c r="B118" s="35"/>
       <c r="C118" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E118" s="36" t="s">
-        <v>166</v>
+        <v>64</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="F118" s="50"/>
       <c r="G118" s="36" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H118" s="36"/>
-      <c r="I118" s="50"/>
+      <c r="I118" s="38" t="s">
+        <v>177</v>
+      </c>
       <c r="J118" s="50"/>
       <c r="K118" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L118" s="50"/>
-      <c r="M118" s="50"/>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
       <c r="N118" s="36" t="s">
         <v>168</v>
       </c>
@@ -58225,7 +58245,7 @@
       </c>
       <c r="B119" s="35"/>
       <c r="C119" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D119" s="36" t="s">
         <v>165</v>
@@ -58259,14 +58279,14 @@
         <v>70</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E120" s="36" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F120" s="50"/>
       <c r="G120" s="36" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H120" s="36"/>
       <c r="I120" s="50"/>
@@ -58285,28 +58305,28 @@
       <c r="A121" s="35">
         <v>42736</v>
       </c>
-      <c r="B121" s="85"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E121" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="F121" s="86"/>
-      <c r="G121" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H121" s="51"/>
-      <c r="I121" s="86"/>
-      <c r="J121" s="86"/>
-      <c r="K121" s="51" t="s">
+      <c r="D121" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F121" s="50"/>
+      <c r="G121" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H121" s="36"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L121" s="86"/>
-      <c r="M121" s="86"/>
+      <c r="L121" s="50"/>
+      <c r="M121" s="50"/>
       <c r="N121" s="36" t="s">
         <v>168</v>
       </c>
@@ -58316,30 +58336,28 @@
       <c r="A122" s="35">
         <v>42736</v>
       </c>
-      <c r="B122" s="35"/>
+      <c r="B122" s="85"/>
       <c r="C122" s="36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D122" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="E122" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="F122" s="50"/>
-      <c r="G122" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="J122" s="50"/>
-      <c r="K122" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E122" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F122" s="86"/>
+      <c r="G122" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H122" s="51"/>
+      <c r="I122" s="86"/>
+      <c r="J122" s="86"/>
+      <c r="K122" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L122" s="50"/>
-      <c r="M122" s="50"/>
+      <c r="L122" s="86"/>
+      <c r="M122" s="86"/>
       <c r="N122" s="36" t="s">
         <v>168</v>
       </c>
@@ -58354,17 +58372,19 @@
         <v>73</v>
       </c>
       <c r="D123" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="E123" s="179" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>360</v>
       </c>
       <c r="F123" s="50"/>
       <c r="G123" s="38" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
+      <c r="I123" s="38" t="s">
+        <v>361</v>
+      </c>
       <c r="J123" s="50"/>
       <c r="K123" s="36" t="s">
         <v>45</v>
@@ -58385,19 +58405,17 @@
         <v>73</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="E124" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
+      </c>
+      <c r="E124" s="179" t="s">
+        <v>362</v>
       </c>
       <c r="F124" s="50"/>
       <c r="G124" s="38" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="H124" s="38"/>
-      <c r="I124" s="50" t="s">
-        <v>365</v>
-      </c>
+      <c r="I124" s="38"/>
       <c r="J124" s="50"/>
       <c r="K124" s="36" t="s">
         <v>45</v>
@@ -58414,21 +58432,23 @@
         <v>42736</v>
       </c>
       <c r="B125" s="35"/>
-      <c r="C125" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>302</v>
+      <c r="C125" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" s="51" t="s">
+        <v>363</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="F125" s="76"/>
-      <c r="G125" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H125" s="36"/>
-      <c r="I125" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="F125" s="50"/>
+      <c r="G125" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H125" s="38"/>
+      <c r="I125" s="50" t="s">
+        <v>365</v>
+      </c>
       <c r="J125" s="50"/>
       <c r="K125" s="36" t="s">
         <v>45</v>
@@ -58449,10 +58469,10 @@
         <v>76</v>
       </c>
       <c r="D126" s="38" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="E126" s="38" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="F126" s="76"/>
       <c r="G126" s="36" t="s">
@@ -58480,14 +58500,14 @@
         <v>76</v>
       </c>
       <c r="D127" s="38" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="E127" s="38" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="F127" s="76"/>
       <c r="G127" s="36" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="H127" s="36"/>
       <c r="I127" s="50"/>
@@ -58503,53 +58523,53 @@
       <c r="O127" s="36"/>
     </row>
     <row r="128" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
-      <c r="A128" s="247">
-        <v>42736</v>
-      </c>
-      <c r="B128" s="247"/>
-      <c r="C128" s="234" t="s">
-        <v>88</v>
-      </c>
-      <c r="D128" s="248" t="s">
-        <v>165</v>
-      </c>
-      <c r="E128" s="248" t="s">
-        <v>166</v>
-      </c>
-      <c r="F128" s="233"/>
-      <c r="G128" s="248" t="s">
-        <v>167</v>
-      </c>
-      <c r="H128" s="248"/>
-      <c r="I128" s="233"/>
-      <c r="J128" s="233"/>
-      <c r="K128" s="248" t="s">
+      <c r="A128" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B128" s="35"/>
+      <c r="C128" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E128" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F128" s="76"/>
+      <c r="G128" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H128" s="36"/>
+      <c r="I128" s="50"/>
+      <c r="J128" s="50"/>
+      <c r="K128" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L128" s="233"/>
-      <c r="M128" s="233"/>
-      <c r="N128" s="248" t="s">
+      <c r="L128" s="50"/>
+      <c r="M128" s="50"/>
+      <c r="N128" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O128" s="248"/>
+      <c r="O128" s="36"/>
     </row>
     <row r="129" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A129" s="247">
         <v>42736</v>
       </c>
       <c r="B129" s="247"/>
-      <c r="C129" s="248" t="s">
+      <c r="C129" s="234" t="s">
         <v>88</v>
       </c>
       <c r="D129" s="248" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E129" s="248" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F129" s="233"/>
       <c r="G129" s="248" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H129" s="248"/>
       <c r="I129" s="233"/>
@@ -58573,14 +58593,14 @@
         <v>88</v>
       </c>
       <c r="D130" s="248" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E130" s="248" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F130" s="233"/>
       <c r="G130" s="248" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H130" s="248"/>
       <c r="I130" s="233"/>
@@ -58604,14 +58624,14 @@
         <v>88</v>
       </c>
       <c r="D131" s="248" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E131" s="248" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F131" s="233"/>
       <c r="G131" s="248" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H131" s="248"/>
       <c r="I131" s="233"/>
@@ -58635,14 +58655,14 @@
         <v>88</v>
       </c>
       <c r="D132" s="248" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E132" s="248" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F132" s="233"/>
       <c r="G132" s="248" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H132" s="248"/>
       <c r="I132" s="233"/>
@@ -58666,14 +58686,14 @@
         <v>88</v>
       </c>
       <c r="D133" s="248" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E133" s="248" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F133" s="233"/>
       <c r="G133" s="248" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H133" s="248"/>
       <c r="I133" s="233"/>
@@ -58696,15 +58716,15 @@
       <c r="C134" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="D134" s="234" t="s">
-        <v>184</v>
+      <c r="D134" s="248" t="s">
+        <v>181</v>
       </c>
       <c r="E134" s="248" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F134" s="233"/>
       <c r="G134" s="248" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H134" s="248"/>
       <c r="I134" s="233"/>
@@ -58727,20 +58747,18 @@
       <c r="C135" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="D135" s="248" t="s">
-        <v>195</v>
+      <c r="D135" s="234" t="s">
+        <v>184</v>
       </c>
       <c r="E135" s="248" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F135" s="233"/>
       <c r="G135" s="248" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H135" s="248"/>
-      <c r="I135" s="248" t="s">
-        <v>198</v>
-      </c>
+      <c r="I135" s="233"/>
       <c r="J135" s="233"/>
       <c r="K135" s="248" t="s">
         <v>45</v>
@@ -58761,17 +58779,19 @@
         <v>88</v>
       </c>
       <c r="D136" s="248" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E136" s="248" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F136" s="233"/>
       <c r="G136" s="248" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H136" s="248"/>
-      <c r="I136" s="233"/>
+      <c r="I136" s="248" t="s">
+        <v>198</v>
+      </c>
       <c r="J136" s="233"/>
       <c r="K136" s="248" t="s">
         <v>45</v>
@@ -58792,14 +58812,14 @@
         <v>88</v>
       </c>
       <c r="D137" s="248" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E137" s="248" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F137" s="233"/>
       <c r="G137" s="248" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H137" s="248"/>
       <c r="I137" s="233"/>
@@ -58823,19 +58843,17 @@
         <v>88</v>
       </c>
       <c r="D138" s="248" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E138" s="248" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F138" s="233"/>
       <c r="G138" s="248" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H138" s="248"/>
-      <c r="I138" s="248" t="s">
-        <v>216</v>
-      </c>
+      <c r="I138" s="233"/>
       <c r="J138" s="233"/>
       <c r="K138" s="248" t="s">
         <v>45</v>
@@ -58848,57 +58866,57 @@
       <c r="O138" s="248"/>
     </row>
     <row r="139" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
-      <c r="A139" s="35">
-        <v>42737</v>
-      </c>
-      <c r="B139" s="309"/>
-      <c r="C139" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D139" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="E139" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="F139" s="46"/>
-      <c r="G139" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H139" s="46"/>
-      <c r="I139" s="46"/>
-      <c r="J139" s="46"/>
-      <c r="K139" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="L139" s="46"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="36" t="s">
+      <c r="A139" s="247">
+        <v>42736</v>
+      </c>
+      <c r="B139" s="247"/>
+      <c r="C139" s="248" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" s="248" t="s">
+        <v>213</v>
+      </c>
+      <c r="E139" s="248" t="s">
+        <v>214</v>
+      </c>
+      <c r="F139" s="233"/>
+      <c r="G139" s="248" t="s">
+        <v>215</v>
+      </c>
+      <c r="H139" s="248"/>
+      <c r="I139" s="248" t="s">
+        <v>216</v>
+      </c>
+      <c r="J139" s="233"/>
+      <c r="K139" s="248" t="s">
+        <v>45</v>
+      </c>
+      <c r="L139" s="233"/>
+      <c r="M139" s="233"/>
+      <c r="N139" s="248" t="s">
         <v>168</v>
       </c>
-      <c r="O139" s="36"/>
+      <c r="O139" s="248"/>
     </row>
     <row r="140" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="35">
         <v>42737</v>
       </c>
-      <c r="B140" s="35"/>
+      <c r="B140" s="309"/>
       <c r="C140" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D140" s="307" t="s">
-        <v>172</v>
-      </c>
-      <c r="E140" s="307" t="s">
-        <v>369</v>
-      </c>
-      <c r="F140" s="307" t="s">
-        <v>173</v>
-      </c>
-      <c r="G140" s="287" t="s">
-        <v>174</v>
-      </c>
-      <c r="H140" s="307"/>
+      <c r="D140" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="E140" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H140" s="46"/>
       <c r="I140" s="46"/>
       <c r="J140" s="46"/>
       <c r="K140" s="46" t="s">
@@ -58913,23 +58931,23 @@
     </row>
     <row r="141" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="35">
-        <v>42738</v>
+        <v>42737</v>
       </c>
       <c r="B141" s="35"/>
       <c r="C141" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D141" s="307" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="E141" s="307" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F141" s="307" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="G141" s="287" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="H141" s="307"/>
       <c r="I141" s="46"/>
@@ -58946,23 +58964,23 @@
     </row>
     <row r="142" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="35">
-        <v>42739</v>
+        <v>42738</v>
       </c>
       <c r="B142" s="35"/>
       <c r="C142" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D142" s="307" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E142" s="307" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F142" s="307" t="s">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="G142" s="287" t="s">
-        <v>174</v>
+        <v>373</v>
       </c>
       <c r="H142" s="307"/>
       <c r="I142" s="46"/>
@@ -58979,23 +58997,23 @@
     </row>
     <row r="143" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="35">
-        <v>42740</v>
+        <v>42739</v>
       </c>
       <c r="B143" s="35"/>
       <c r="C143" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D143" s="307" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E143" s="307" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F143" s="307" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="G143" s="287" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="H143" s="307"/>
       <c r="I143" s="46"/>
@@ -59012,28 +59030,26 @@
     </row>
     <row r="144" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="35">
-        <v>42741</v>
+        <v>42740</v>
       </c>
       <c r="B144" s="35"/>
       <c r="C144" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D144" s="307" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E144" s="307" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F144" s="307" t="s">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="G144" s="287" t="s">
-        <v>189</v>
-      </c>
-      <c r="H144" s="36"/>
-      <c r="I144" s="307" t="s">
-        <v>174</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H144" s="307"/>
+      <c r="I144" s="46"/>
       <c r="J144" s="46"/>
       <c r="K144" s="46" t="s">
         <v>368</v>
@@ -59047,27 +59063,27 @@
     </row>
     <row r="145" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="35">
-        <v>42742</v>
+        <v>42741</v>
       </c>
       <c r="B145" s="35"/>
       <c r="C145" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D145" s="307" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E145" s="307" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F145" s="307" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="G145" s="287" t="s">
         <v>189</v>
       </c>
       <c r="H145" s="36"/>
       <c r="I145" s="307" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="J145" s="46"/>
       <c r="K145" s="46" t="s">
@@ -59082,26 +59098,28 @@
     </row>
     <row r="146" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="35">
-        <v>42743</v>
+        <v>42742</v>
       </c>
       <c r="B146" s="35"/>
       <c r="C146" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D146" s="307" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E146" s="307" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F146" s="307" t="s">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="G146" s="287" t="s">
-        <v>384</v>
+        <v>189</v>
       </c>
       <c r="H146" s="36"/>
-      <c r="I146" s="307"/>
+      <c r="I146" s="307" t="s">
+        <v>373</v>
+      </c>
       <c r="J146" s="46"/>
       <c r="K146" s="46" t="s">
         <v>368</v>
@@ -59115,28 +59133,26 @@
     </row>
     <row r="147" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A147" s="35">
-        <v>42744</v>
+        <v>42743</v>
       </c>
       <c r="B147" s="35"/>
       <c r="C147" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D147" s="307" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E147" s="307" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F147" s="307" t="s">
         <v>173</v>
       </c>
       <c r="G147" s="287" t="s">
-        <v>189</v>
+        <v>384</v>
       </c>
       <c r="H147" s="36"/>
-      <c r="I147" s="287" t="s">
-        <v>384</v>
-      </c>
+      <c r="I147" s="307"/>
       <c r="J147" s="46"/>
       <c r="K147" s="46" t="s">
         <v>368</v>
@@ -59150,26 +59166,28 @@
     </row>
     <row r="148" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="35">
-        <v>42745</v>
+        <v>42744</v>
       </c>
       <c r="B148" s="35"/>
       <c r="C148" s="46" t="s">
         <v>79</v>
       </c>
       <c r="D148" s="307" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E148" s="307" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F148" s="307" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="G148" s="287" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H148" s="36"/>
-      <c r="I148" s="307"/>
+      <c r="I148" s="287" t="s">
+        <v>384</v>
+      </c>
       <c r="J148" s="46"/>
       <c r="K148" s="46" t="s">
         <v>368</v>
@@ -59183,30 +59201,32 @@
     </row>
     <row r="149" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="35">
-        <v>42736</v>
+        <v>42745</v>
       </c>
       <c r="B149" s="35"/>
-      <c r="C149" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D149" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E149" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="F149" s="77"/>
-      <c r="G149" s="36" t="s">
+      <c r="C149" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" s="307" t="s">
+        <v>387</v>
+      </c>
+      <c r="E149" s="307" t="s">
+        <v>388</v>
+      </c>
+      <c r="F149" s="307" t="s">
+        <v>389</v>
+      </c>
+      <c r="G149" s="287" t="s">
         <v>219</v>
       </c>
       <c r="H149" s="36"/>
-      <c r="I149" s="39"/>
-      <c r="J149" s="39"/>
-      <c r="K149" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L149" s="39"/>
-      <c r="M149" s="39"/>
+      <c r="I149" s="307"/>
+      <c r="J149" s="46"/>
+      <c r="K149" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L149" s="46"/>
+      <c r="M149" s="46"/>
       <c r="N149" s="36" t="s">
         <v>168</v>
       </c>
@@ -59221,14 +59241,14 @@
         <v>91</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E150" s="38" t="s">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="F150" s="77"/>
       <c r="G150" s="36" t="s">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="H150" s="36"/>
       <c r="I150" s="39"/>
@@ -59252,10 +59272,10 @@
         <v>91</v>
       </c>
       <c r="D151" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E151" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F151" s="77"/>
       <c r="G151" s="36" t="s">
@@ -59283,10 +59303,10 @@
         <v>91</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F152" s="77"/>
       <c r="G152" s="36" t="s">
@@ -59314,14 +59334,14 @@
         <v>91</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E153" s="38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F153" s="77"/>
       <c r="G153" s="36" t="s">
-        <v>226</v>
+        <v>392</v>
       </c>
       <c r="H153" s="36"/>
       <c r="I153" s="39"/>
@@ -59336,7 +59356,7 @@
       </c>
       <c r="O153" s="36"/>
     </row>
-    <row r="154" spans="1:15" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="154" spans="1:15" s="290" customFormat="1" ht="21" customHeight="1">
       <c r="A154" s="35">
         <v>42736</v>
       </c>
@@ -59345,10 +59365,10 @@
         <v>91</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F154" s="77"/>
       <c r="G154" s="36" t="s">
@@ -59376,10 +59396,10 @@
         <v>91</v>
       </c>
       <c r="D155" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F155" s="77"/>
       <c r="G155" s="36" t="s">
@@ -59396,7 +59416,7 @@
       <c r="N155" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O155" s="74"/>
+      <c r="O155" s="36"/>
     </row>
     <row r="156" spans="1:15" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A156" s="35">
@@ -59407,14 +59427,14 @@
         <v>91</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="F156" s="77"/>
       <c r="G156" s="36" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="H156" s="36"/>
       <c r="I156" s="39"/>
@@ -59435,17 +59455,17 @@
       </c>
       <c r="B157" s="35"/>
       <c r="C157" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="F157" s="77"/>
       <c r="G157" s="36" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="H157" s="36"/>
       <c r="I157" s="39"/>
@@ -59469,14 +59489,14 @@
         <v>94</v>
       </c>
       <c r="D158" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="F158" s="77"/>
       <c r="G158" s="36" t="s">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="H158" s="36"/>
       <c r="I158" s="39"/>
@@ -59500,10 +59520,10 @@
         <v>94</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F159" s="77"/>
       <c r="G159" s="36" t="s">
@@ -59531,10 +59551,10 @@
         <v>94</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F160" s="77"/>
       <c r="G160" s="36" t="s">
@@ -59562,14 +59582,14 @@
         <v>94</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E161" s="38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F161" s="77"/>
       <c r="G161" s="36" t="s">
-        <v>226</v>
+        <v>392</v>
       </c>
       <c r="H161" s="36"/>
       <c r="I161" s="39"/>
@@ -59593,10 +59613,10 @@
         <v>94</v>
       </c>
       <c r="D162" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E162" s="38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F162" s="77"/>
       <c r="G162" s="36" t="s">
@@ -59624,10 +59644,10 @@
         <v>94</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E163" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F163" s="77"/>
       <c r="G163" s="36" t="s">
@@ -59655,14 +59675,14 @@
         <v>94</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E164" s="38" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="F164" s="77"/>
       <c r="G164" s="36" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="H164" s="36"/>
       <c r="I164" s="39"/>
@@ -59683,17 +59703,17 @@
       </c>
       <c r="B165" s="35"/>
       <c r="C165" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E165" s="38" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="F165" s="77"/>
       <c r="G165" s="36" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="H165" s="36"/>
       <c r="I165" s="39"/>
@@ -59717,14 +59737,14 @@
         <v>97</v>
       </c>
       <c r="D166" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E166" s="38" t="s">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="F166" s="77"/>
       <c r="G166" s="36" t="s">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="H166" s="36"/>
       <c r="I166" s="39"/>
@@ -59748,10 +59768,10 @@
         <v>97</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E167" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F167" s="77"/>
       <c r="G167" s="36" t="s">
@@ -59779,10 +59799,10 @@
         <v>97</v>
       </c>
       <c r="D168" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F168" s="77"/>
       <c r="G168" s="36" t="s">
@@ -59810,14 +59830,14 @@
         <v>97</v>
       </c>
       <c r="D169" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E169" s="38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F169" s="77"/>
       <c r="G169" s="36" t="s">
-        <v>226</v>
+        <v>392</v>
       </c>
       <c r="H169" s="36"/>
       <c r="I169" s="39"/>
@@ -59841,10 +59861,10 @@
         <v>97</v>
       </c>
       <c r="D170" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F170" s="77"/>
       <c r="G170" s="36" t="s">
@@ -59867,81 +59887,81 @@
       <c r="A171" s="35">
         <v>42736</v>
       </c>
-      <c r="B171" s="52"/>
-      <c r="C171" s="43" t="s">
+      <c r="B171" s="35"/>
+      <c r="C171" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D171" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="E171" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="F171" s="389"/>
-      <c r="G171" s="53" t="s">
+      <c r="D171" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="F171" s="77"/>
+      <c r="G171" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="H171" s="53"/>
-      <c r="I171" s="42"/>
-      <c r="J171" s="42"/>
-      <c r="K171" s="53" t="s">
+      <c r="H171" s="36"/>
+      <c r="I171" s="39"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L171" s="42"/>
-      <c r="M171" s="42"/>
-      <c r="N171" s="53" t="s">
+      <c r="L171" s="39"/>
+      <c r="M171" s="39"/>
+      <c r="N171" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="O171" s="79"/>
+      <c r="O171" s="74"/>
     </row>
     <row r="172" spans="1:15" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A172" s="35">
         <v>42736</v>
       </c>
-      <c r="B172" s="35"/>
-      <c r="C172" s="38" t="s">
+      <c r="B172" s="52"/>
+      <c r="C172" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D172" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="E172" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="F172" s="77"/>
-      <c r="G172" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H172" s="36"/>
-      <c r="I172" s="39"/>
-      <c r="J172" s="39"/>
-      <c r="K172" s="36" t="s">
+      <c r="D172" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E172" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="F172" s="389"/>
+      <c r="G172" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="H172" s="53"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
+      <c r="K172" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="L172" s="39"/>
-      <c r="M172" s="39"/>
-      <c r="N172" s="36" t="s">
+      <c r="L172" s="42"/>
+      <c r="M172" s="42"/>
+      <c r="N172" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="O172" s="74"/>
+      <c r="O172" s="79"/>
     </row>
     <row r="173" spans="1:15" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A173" s="35">
         <v>42736</v>
       </c>
       <c r="B173" s="35"/>
-      <c r="C173" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="D173" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E173" s="36" t="s">
-        <v>166</v>
+      <c r="C173" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D173" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="E173" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="F173" s="77"/>
       <c r="G173" s="36" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="H173" s="36"/>
       <c r="I173" s="39"/>
@@ -59965,14 +59985,14 @@
         <v>100</v>
       </c>
       <c r="D174" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E174" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F174" s="77"/>
       <c r="G174" s="36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H174" s="36"/>
       <c r="I174" s="39"/>
@@ -59982,7 +60002,7 @@
       </c>
       <c r="L174" s="39"/>
       <c r="M174" s="39"/>
-      <c r="N174" s="53" t="s">
+      <c r="N174" s="36" t="s">
         <v>168</v>
       </c>
       <c r="O174" s="74"/>
@@ -59996,24 +60016,24 @@
         <v>100</v>
       </c>
       <c r="D175" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E175" s="36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F175" s="77"/>
       <c r="G175" s="36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H175" s="36"/>
       <c r="I175" s="39"/>
       <c r="J175" s="39"/>
-      <c r="K175" s="53" t="s">
+      <c r="K175" s="36" t="s">
         <v>45</v>
       </c>
       <c r="L175" s="39"/>
       <c r="M175" s="39"/>
-      <c r="N175" s="36" t="s">
+      <c r="N175" s="53" t="s">
         <v>168</v>
       </c>
       <c r="O175" s="74"/>
@@ -60026,20 +60046,20 @@
       <c r="C176" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="D176" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="E176" s="38" t="s">
-        <v>254</v>
+      <c r="D176" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E176" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="F176" s="77"/>
       <c r="G176" s="36" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="H176" s="36"/>
       <c r="I176" s="39"/>
       <c r="J176" s="39"/>
-      <c r="K176" s="36" t="s">
+      <c r="K176" s="53" t="s">
         <v>45</v>
       </c>
       <c r="L176" s="39"/>
@@ -60057,15 +60077,15 @@
       <c r="C177" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="D177" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E177" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F177" s="50"/>
+      <c r="D177" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E177" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F177" s="77"/>
       <c r="G177" s="36" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H177" s="36"/>
       <c r="I177" s="39"/>
@@ -60075,7 +60095,7 @@
       </c>
       <c r="L177" s="39"/>
       <c r="M177" s="39"/>
-      <c r="N177" s="53" t="s">
+      <c r="N177" s="36" t="s">
         <v>168</v>
       </c>
       <c r="O177" s="74"/>
@@ -60088,15 +60108,15 @@
       <c r="C178" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="D178" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E178" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="F178" s="77"/>
+      <c r="D178" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E178" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="F178" s="50"/>
       <c r="G178" s="36" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="H178" s="36"/>
       <c r="I178" s="39"/>
@@ -60111,270 +60131,36 @@
       </c>
       <c r="O178" s="74"/>
     </row>
-    <row r="179" spans="1:249" s="436" customFormat="1" ht="21" customHeight="1">
-      <c r="A179" s="432">
-        <v>42736</v>
-      </c>
-      <c r="B179" s="432"/>
-      <c r="C179" s="430" t="s">
-        <v>103</v>
-      </c>
-      <c r="D179" s="433" t="s">
-        <v>165</v>
-      </c>
-      <c r="E179" s="433" t="s">
-        <v>166</v>
-      </c>
-      <c r="F179" s="434"/>
-      <c r="G179" s="433" t="s">
-        <v>167</v>
-      </c>
-      <c r="H179" s="433"/>
-      <c r="I179" s="434"/>
-      <c r="J179" s="434"/>
-      <c r="K179" s="433" t="s">
+    <row r="179" spans="1:249" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A179" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B179" s="35"/>
+      <c r="C179" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="D179" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E179" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F179" s="77"/>
+      <c r="G179" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H179" s="36"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="39"/>
+      <c r="K179" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L179" s="434"/>
-      <c r="M179" s="434"/>
-      <c r="N179" s="433" t="s">
+      <c r="L179" s="39"/>
+      <c r="M179" s="39"/>
+      <c r="N179" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="O179" s="433"/>
-      <c r="P179" s="435"/>
-      <c r="Q179" s="435"/>
-      <c r="R179" s="435"/>
-      <c r="S179" s="435"/>
-      <c r="T179" s="435"/>
-      <c r="U179" s="435"/>
-      <c r="V179" s="435"/>
-      <c r="W179" s="435"/>
-      <c r="X179" s="435"/>
-      <c r="Y179" s="435"/>
-      <c r="Z179" s="435"/>
-      <c r="AA179" s="435"/>
-      <c r="AB179" s="435"/>
-      <c r="AC179" s="435"/>
-      <c r="AD179" s="435"/>
-      <c r="AE179" s="435"/>
-      <c r="AF179" s="435"/>
-      <c r="AG179" s="435"/>
-      <c r="AH179" s="435"/>
-      <c r="AI179" s="435"/>
-      <c r="AJ179" s="435"/>
-      <c r="AK179" s="435"/>
-      <c r="AL179" s="435"/>
-      <c r="AM179" s="435"/>
-      <c r="AN179" s="435"/>
-      <c r="AO179" s="435"/>
-      <c r="AP179" s="435"/>
-      <c r="AQ179" s="435"/>
-      <c r="AR179" s="435"/>
-      <c r="AS179" s="435"/>
-      <c r="AT179" s="435"/>
-      <c r="AU179" s="435"/>
-      <c r="AV179" s="435"/>
-      <c r="AW179" s="435"/>
-      <c r="AX179" s="435"/>
-      <c r="AY179" s="435"/>
-      <c r="AZ179" s="435"/>
-      <c r="BA179" s="435"/>
-      <c r="BB179" s="435"/>
-      <c r="BC179" s="435"/>
-      <c r="BD179" s="435"/>
-      <c r="BE179" s="435"/>
-      <c r="BF179" s="435"/>
-      <c r="BG179" s="435"/>
-      <c r="BH179" s="435"/>
-      <c r="BI179" s="435"/>
-      <c r="BJ179" s="435"/>
-      <c r="BK179" s="435"/>
-      <c r="BL179" s="435"/>
-      <c r="BM179" s="435"/>
-      <c r="BN179" s="435"/>
-      <c r="BO179" s="435"/>
-      <c r="BP179" s="435"/>
-      <c r="BQ179" s="435"/>
-      <c r="BR179" s="435"/>
-      <c r="BS179" s="435"/>
-      <c r="BT179" s="435"/>
-      <c r="BU179" s="435"/>
-      <c r="BV179" s="435"/>
-      <c r="BW179" s="435"/>
-      <c r="BX179" s="435"/>
-      <c r="BY179" s="435"/>
-      <c r="BZ179" s="435"/>
-      <c r="CA179" s="435"/>
-      <c r="CB179" s="435"/>
-      <c r="CC179" s="435"/>
-      <c r="CD179" s="435"/>
-      <c r="CE179" s="435"/>
-      <c r="CF179" s="435"/>
-      <c r="CG179" s="435"/>
-      <c r="CH179" s="435"/>
-      <c r="CI179" s="435"/>
-      <c r="CJ179" s="435"/>
-      <c r="CK179" s="435"/>
-      <c r="CL179" s="435"/>
-      <c r="CM179" s="435"/>
-      <c r="CN179" s="435"/>
-      <c r="CO179" s="435"/>
-      <c r="CP179" s="435"/>
-      <c r="CQ179" s="435"/>
-      <c r="CR179" s="435"/>
-      <c r="CS179" s="435"/>
-      <c r="CT179" s="435"/>
-      <c r="CU179" s="435"/>
-      <c r="CV179" s="435"/>
-      <c r="CW179" s="435"/>
-      <c r="CX179" s="435"/>
-      <c r="CY179" s="435"/>
-      <c r="CZ179" s="435"/>
-      <c r="DA179" s="435"/>
-      <c r="DB179" s="435"/>
-      <c r="DC179" s="435"/>
-      <c r="DD179" s="435"/>
-      <c r="DE179" s="435"/>
-      <c r="DF179" s="435"/>
-      <c r="DG179" s="435"/>
-      <c r="DH179" s="435"/>
-      <c r="DI179" s="435"/>
-      <c r="DJ179" s="435"/>
-      <c r="DK179" s="435"/>
-      <c r="DL179" s="435"/>
-      <c r="DM179" s="435"/>
-      <c r="DN179" s="435"/>
-      <c r="DO179" s="435"/>
-      <c r="DP179" s="435"/>
-      <c r="DQ179" s="435"/>
-      <c r="DR179" s="435"/>
-      <c r="DS179" s="435"/>
-      <c r="DT179" s="435"/>
-      <c r="DU179" s="435"/>
-      <c r="DV179" s="435"/>
-      <c r="DW179" s="435"/>
-      <c r="DX179" s="435"/>
-      <c r="DY179" s="435"/>
-      <c r="DZ179" s="435"/>
-      <c r="EA179" s="435"/>
-      <c r="EB179" s="435"/>
-      <c r="EC179" s="435"/>
-      <c r="ED179" s="435"/>
-      <c r="EE179" s="435"/>
-      <c r="EF179" s="435"/>
-      <c r="EG179" s="435"/>
-      <c r="EH179" s="435"/>
-      <c r="EI179" s="435"/>
-      <c r="EJ179" s="435"/>
-      <c r="EK179" s="435"/>
-      <c r="EL179" s="435"/>
-      <c r="EM179" s="435"/>
-      <c r="EN179" s="435"/>
-      <c r="EO179" s="435"/>
-      <c r="EP179" s="435"/>
-      <c r="EQ179" s="435"/>
-      <c r="ER179" s="435"/>
-      <c r="ES179" s="435"/>
-      <c r="ET179" s="435"/>
-      <c r="EU179" s="435"/>
-      <c r="EV179" s="435"/>
-      <c r="EW179" s="435"/>
-      <c r="EX179" s="435"/>
-      <c r="EY179" s="435"/>
-      <c r="EZ179" s="435"/>
-      <c r="FA179" s="435"/>
-      <c r="FB179" s="435"/>
-      <c r="FC179" s="435"/>
-      <c r="FD179" s="435"/>
-      <c r="FE179" s="435"/>
-      <c r="FF179" s="435"/>
-      <c r="FG179" s="435"/>
-      <c r="FH179" s="435"/>
-      <c r="FI179" s="435"/>
-      <c r="FJ179" s="435"/>
-      <c r="FK179" s="435"/>
-      <c r="FL179" s="435"/>
-      <c r="FM179" s="435"/>
-      <c r="FN179" s="435"/>
-      <c r="FO179" s="435"/>
-      <c r="FP179" s="435"/>
-      <c r="FQ179" s="435"/>
-      <c r="FR179" s="435"/>
-      <c r="FS179" s="435"/>
-      <c r="FT179" s="435"/>
-      <c r="FU179" s="435"/>
-      <c r="FV179" s="435"/>
-      <c r="FW179" s="435"/>
-      <c r="FX179" s="435"/>
-      <c r="FY179" s="435"/>
-      <c r="FZ179" s="435"/>
-      <c r="GA179" s="435"/>
-      <c r="GB179" s="435"/>
-      <c r="GC179" s="435"/>
-      <c r="GD179" s="435"/>
-      <c r="GE179" s="435"/>
-      <c r="GF179" s="435"/>
-      <c r="GG179" s="435"/>
-      <c r="GH179" s="435"/>
-      <c r="GI179" s="435"/>
-      <c r="GJ179" s="435"/>
-      <c r="GK179" s="435"/>
-      <c r="GL179" s="435"/>
-      <c r="GM179" s="435"/>
-      <c r="GN179" s="435"/>
-      <c r="GO179" s="435"/>
-      <c r="GP179" s="435"/>
-      <c r="GQ179" s="435"/>
-      <c r="GR179" s="435"/>
-      <c r="GS179" s="435"/>
-      <c r="GT179" s="435"/>
-      <c r="GU179" s="435"/>
-      <c r="GV179" s="435"/>
-      <c r="GW179" s="435"/>
-      <c r="GX179" s="435"/>
-      <c r="GY179" s="435"/>
-      <c r="GZ179" s="435"/>
-      <c r="HA179" s="435"/>
-      <c r="HB179" s="435"/>
-      <c r="HC179" s="435"/>
-      <c r="HD179" s="435"/>
-      <c r="HE179" s="435"/>
-      <c r="HF179" s="435"/>
-      <c r="HG179" s="435"/>
-      <c r="HH179" s="435"/>
-      <c r="HI179" s="435"/>
-      <c r="HJ179" s="435"/>
-      <c r="HK179" s="435"/>
-      <c r="HL179" s="435"/>
-      <c r="HM179" s="435"/>
-      <c r="HN179" s="435"/>
-      <c r="HO179" s="435"/>
-      <c r="HP179" s="435"/>
-      <c r="HQ179" s="435"/>
-      <c r="HR179" s="435"/>
-      <c r="HS179" s="435"/>
-      <c r="HT179" s="435"/>
-      <c r="HU179" s="435"/>
-      <c r="HV179" s="435"/>
-      <c r="HW179" s="435"/>
-      <c r="HX179" s="435"/>
-      <c r="HY179" s="435"/>
-      <c r="HZ179" s="435"/>
-      <c r="IA179" s="435"/>
-      <c r="IB179" s="435"/>
-      <c r="IC179" s="435"/>
-      <c r="ID179" s="435"/>
-      <c r="IE179" s="435"/>
-      <c r="IF179" s="435"/>
-      <c r="IG179" s="435"/>
-      <c r="IH179" s="435"/>
-      <c r="II179" s="435"/>
-      <c r="IJ179" s="435"/>
-      <c r="IK179" s="435"/>
-      <c r="IL179" s="435"/>
-      <c r="IM179" s="435"/>
-      <c r="IN179" s="435"/>
-      <c r="IO179" s="435"/>
+      <c r="O179" s="74"/>
     </row>
     <row r="180" spans="1:249" s="436" customFormat="1" ht="21" customHeight="1">
       <c r="A180" s="432">
@@ -60385,14 +60171,14 @@
         <v>103</v>
       </c>
       <c r="D180" s="433" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E180" s="433" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F180" s="434"/>
       <c r="G180" s="433" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H180" s="433"/>
       <c r="I180" s="434"/>
@@ -60650,14 +60436,14 @@
         <v>103</v>
       </c>
       <c r="D181" s="433" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="E181" s="433" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="F181" s="434"/>
       <c r="G181" s="433" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="H181" s="433"/>
       <c r="I181" s="434"/>
@@ -60914,18 +60700,18 @@
       <c r="C182" s="430" t="s">
         <v>103</v>
       </c>
-      <c r="D182" s="437" t="s">
-        <v>404</v>
-      </c>
-      <c r="E182" s="437" t="s">
-        <v>405</v>
+      <c r="D182" s="433" t="s">
+        <v>210</v>
+      </c>
+      <c r="E182" s="433" t="s">
+        <v>211</v>
       </c>
       <c r="F182" s="434"/>
-      <c r="G182" s="437" t="s">
-        <v>404</v>
+      <c r="G182" s="433" t="s">
+        <v>212</v>
       </c>
       <c r="H182" s="433"/>
-      <c r="I182" s="433"/>
+      <c r="I182" s="434"/>
       <c r="J182" s="434"/>
       <c r="K182" s="433" t="s">
         <v>45</v>
@@ -61180,14 +60966,14 @@
         <v>103</v>
       </c>
       <c r="D183" s="437" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E183" s="437" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F183" s="434"/>
       <c r="G183" s="437" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H183" s="433"/>
       <c r="I183" s="433"/>
@@ -61445,21 +61231,17 @@
         <v>103</v>
       </c>
       <c r="D184" s="437" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E184" s="437" t="s">
-        <v>409</v>
-      </c>
-      <c r="F184" s="438" t="s">
-        <v>410</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="F184" s="434"/>
       <c r="G184" s="437" t="s">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="H184" s="433"/>
-      <c r="I184" s="437" t="s">
-        <v>404</v>
-      </c>
+      <c r="I184" s="433"/>
       <c r="J184" s="434"/>
       <c r="K184" s="433" t="s">
         <v>45</v>
@@ -61714,20 +61496,20 @@
         <v>103</v>
       </c>
       <c r="D185" s="437" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E185" s="437" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F185" s="438" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G185" s="437" t="s">
         <v>189</v>
       </c>
       <c r="H185" s="433"/>
-      <c r="I185" s="439" t="s">
-        <v>406</v>
+      <c r="I185" s="437" t="s">
+        <v>404</v>
       </c>
       <c r="J185" s="434"/>
       <c r="K185" s="433" t="s">
@@ -61983,17 +61765,21 @@
         <v>103</v>
       </c>
       <c r="D186" s="437" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E186" s="437" t="s">
-        <v>415</v>
-      </c>
-      <c r="F186" s="438"/>
+        <v>412</v>
+      </c>
+      <c r="F186" s="438" t="s">
+        <v>413</v>
+      </c>
       <c r="G186" s="437" t="s">
-        <v>416</v>
+        <v>189</v>
       </c>
       <c r="H186" s="433"/>
-      <c r="I186" s="439"/>
+      <c r="I186" s="439" t="s">
+        <v>406</v>
+      </c>
       <c r="J186" s="434"/>
       <c r="K186" s="433" t="s">
         <v>45</v>
@@ -62239,36 +62025,270 @@
       <c r="IN186" s="435"/>
       <c r="IO186" s="435"/>
     </row>
-    <row r="187" spans="1:249" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A187" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B187" s="35"/>
-      <c r="C187" s="234" t="s">
-        <v>106</v>
-      </c>
-      <c r="D187" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E187" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F187" s="50"/>
-      <c r="G187" s="483" t="s">
-        <v>167</v>
-      </c>
-      <c r="H187" s="36"/>
-      <c r="I187" s="39"/>
-      <c r="J187" s="39"/>
-      <c r="K187" s="36" t="s">
+    <row r="187" spans="1:249" s="436" customFormat="1" ht="21" customHeight="1">
+      <c r="A187" s="432">
+        <v>42736</v>
+      </c>
+      <c r="B187" s="432"/>
+      <c r="C187" s="430" t="s">
+        <v>103</v>
+      </c>
+      <c r="D187" s="437" t="s">
+        <v>414</v>
+      </c>
+      <c r="E187" s="437" t="s">
+        <v>415</v>
+      </c>
+      <c r="F187" s="438"/>
+      <c r="G187" s="437" t="s">
+        <v>416</v>
+      </c>
+      <c r="H187" s="433"/>
+      <c r="I187" s="439"/>
+      <c r="J187" s="434"/>
+      <c r="K187" s="433" t="s">
         <v>45</v>
       </c>
-      <c r="L187" s="39"/>
-      <c r="M187" s="39"/>
-      <c r="N187" s="53" t="s">
+      <c r="L187" s="434"/>
+      <c r="M187" s="434"/>
+      <c r="N187" s="433" t="s">
         <v>168</v>
       </c>
-      <c r="O187" s="74"/>
+      <c r="O187" s="433"/>
+      <c r="P187" s="435"/>
+      <c r="Q187" s="435"/>
+      <c r="R187" s="435"/>
+      <c r="S187" s="435"/>
+      <c r="T187" s="435"/>
+      <c r="U187" s="435"/>
+      <c r="V187" s="435"/>
+      <c r="W187" s="435"/>
+      <c r="X187" s="435"/>
+      <c r="Y187" s="435"/>
+      <c r="Z187" s="435"/>
+      <c r="AA187" s="435"/>
+      <c r="AB187" s="435"/>
+      <c r="AC187" s="435"/>
+      <c r="AD187" s="435"/>
+      <c r="AE187" s="435"/>
+      <c r="AF187" s="435"/>
+      <c r="AG187" s="435"/>
+      <c r="AH187" s="435"/>
+      <c r="AI187" s="435"/>
+      <c r="AJ187" s="435"/>
+      <c r="AK187" s="435"/>
+      <c r="AL187" s="435"/>
+      <c r="AM187" s="435"/>
+      <c r="AN187" s="435"/>
+      <c r="AO187" s="435"/>
+      <c r="AP187" s="435"/>
+      <c r="AQ187" s="435"/>
+      <c r="AR187" s="435"/>
+      <c r="AS187" s="435"/>
+      <c r="AT187" s="435"/>
+      <c r="AU187" s="435"/>
+      <c r="AV187" s="435"/>
+      <c r="AW187" s="435"/>
+      <c r="AX187" s="435"/>
+      <c r="AY187" s="435"/>
+      <c r="AZ187" s="435"/>
+      <c r="BA187" s="435"/>
+      <c r="BB187" s="435"/>
+      <c r="BC187" s="435"/>
+      <c r="BD187" s="435"/>
+      <c r="BE187" s="435"/>
+      <c r="BF187" s="435"/>
+      <c r="BG187" s="435"/>
+      <c r="BH187" s="435"/>
+      <c r="BI187" s="435"/>
+      <c r="BJ187" s="435"/>
+      <c r="BK187" s="435"/>
+      <c r="BL187" s="435"/>
+      <c r="BM187" s="435"/>
+      <c r="BN187" s="435"/>
+      <c r="BO187" s="435"/>
+      <c r="BP187" s="435"/>
+      <c r="BQ187" s="435"/>
+      <c r="BR187" s="435"/>
+      <c r="BS187" s="435"/>
+      <c r="BT187" s="435"/>
+      <c r="BU187" s="435"/>
+      <c r="BV187" s="435"/>
+      <c r="BW187" s="435"/>
+      <c r="BX187" s="435"/>
+      <c r="BY187" s="435"/>
+      <c r="BZ187" s="435"/>
+      <c r="CA187" s="435"/>
+      <c r="CB187" s="435"/>
+      <c r="CC187" s="435"/>
+      <c r="CD187" s="435"/>
+      <c r="CE187" s="435"/>
+      <c r="CF187" s="435"/>
+      <c r="CG187" s="435"/>
+      <c r="CH187" s="435"/>
+      <c r="CI187" s="435"/>
+      <c r="CJ187" s="435"/>
+      <c r="CK187" s="435"/>
+      <c r="CL187" s="435"/>
+      <c r="CM187" s="435"/>
+      <c r="CN187" s="435"/>
+      <c r="CO187" s="435"/>
+      <c r="CP187" s="435"/>
+      <c r="CQ187" s="435"/>
+      <c r="CR187" s="435"/>
+      <c r="CS187" s="435"/>
+      <c r="CT187" s="435"/>
+      <c r="CU187" s="435"/>
+      <c r="CV187" s="435"/>
+      <c r="CW187" s="435"/>
+      <c r="CX187" s="435"/>
+      <c r="CY187" s="435"/>
+      <c r="CZ187" s="435"/>
+      <c r="DA187" s="435"/>
+      <c r="DB187" s="435"/>
+      <c r="DC187" s="435"/>
+      <c r="DD187" s="435"/>
+      <c r="DE187" s="435"/>
+      <c r="DF187" s="435"/>
+      <c r="DG187" s="435"/>
+      <c r="DH187" s="435"/>
+      <c r="DI187" s="435"/>
+      <c r="DJ187" s="435"/>
+      <c r="DK187" s="435"/>
+      <c r="DL187" s="435"/>
+      <c r="DM187" s="435"/>
+      <c r="DN187" s="435"/>
+      <c r="DO187" s="435"/>
+      <c r="DP187" s="435"/>
+      <c r="DQ187" s="435"/>
+      <c r="DR187" s="435"/>
+      <c r="DS187" s="435"/>
+      <c r="DT187" s="435"/>
+      <c r="DU187" s="435"/>
+      <c r="DV187" s="435"/>
+      <c r="DW187" s="435"/>
+      <c r="DX187" s="435"/>
+      <c r="DY187" s="435"/>
+      <c r="DZ187" s="435"/>
+      <c r="EA187" s="435"/>
+      <c r="EB187" s="435"/>
+      <c r="EC187" s="435"/>
+      <c r="ED187" s="435"/>
+      <c r="EE187" s="435"/>
+      <c r="EF187" s="435"/>
+      <c r="EG187" s="435"/>
+      <c r="EH187" s="435"/>
+      <c r="EI187" s="435"/>
+      <c r="EJ187" s="435"/>
+      <c r="EK187" s="435"/>
+      <c r="EL187" s="435"/>
+      <c r="EM187" s="435"/>
+      <c r="EN187" s="435"/>
+      <c r="EO187" s="435"/>
+      <c r="EP187" s="435"/>
+      <c r="EQ187" s="435"/>
+      <c r="ER187" s="435"/>
+      <c r="ES187" s="435"/>
+      <c r="ET187" s="435"/>
+      <c r="EU187" s="435"/>
+      <c r="EV187" s="435"/>
+      <c r="EW187" s="435"/>
+      <c r="EX187" s="435"/>
+      <c r="EY187" s="435"/>
+      <c r="EZ187" s="435"/>
+      <c r="FA187" s="435"/>
+      <c r="FB187" s="435"/>
+      <c r="FC187" s="435"/>
+      <c r="FD187" s="435"/>
+      <c r="FE187" s="435"/>
+      <c r="FF187" s="435"/>
+      <c r="FG187" s="435"/>
+      <c r="FH187" s="435"/>
+      <c r="FI187" s="435"/>
+      <c r="FJ187" s="435"/>
+      <c r="FK187" s="435"/>
+      <c r="FL187" s="435"/>
+      <c r="FM187" s="435"/>
+      <c r="FN187" s="435"/>
+      <c r="FO187" s="435"/>
+      <c r="FP187" s="435"/>
+      <c r="FQ187" s="435"/>
+      <c r="FR187" s="435"/>
+      <c r="FS187" s="435"/>
+      <c r="FT187" s="435"/>
+      <c r="FU187" s="435"/>
+      <c r="FV187" s="435"/>
+      <c r="FW187" s="435"/>
+      <c r="FX187" s="435"/>
+      <c r="FY187" s="435"/>
+      <c r="FZ187" s="435"/>
+      <c r="GA187" s="435"/>
+      <c r="GB187" s="435"/>
+      <c r="GC187" s="435"/>
+      <c r="GD187" s="435"/>
+      <c r="GE187" s="435"/>
+      <c r="GF187" s="435"/>
+      <c r="GG187" s="435"/>
+      <c r="GH187" s="435"/>
+      <c r="GI187" s="435"/>
+      <c r="GJ187" s="435"/>
+      <c r="GK187" s="435"/>
+      <c r="GL187" s="435"/>
+      <c r="GM187" s="435"/>
+      <c r="GN187" s="435"/>
+      <c r="GO187" s="435"/>
+      <c r="GP187" s="435"/>
+      <c r="GQ187" s="435"/>
+      <c r="GR187" s="435"/>
+      <c r="GS187" s="435"/>
+      <c r="GT187" s="435"/>
+      <c r="GU187" s="435"/>
+      <c r="GV187" s="435"/>
+      <c r="GW187" s="435"/>
+      <c r="GX187" s="435"/>
+      <c r="GY187" s="435"/>
+      <c r="GZ187" s="435"/>
+      <c r="HA187" s="435"/>
+      <c r="HB187" s="435"/>
+      <c r="HC187" s="435"/>
+      <c r="HD187" s="435"/>
+      <c r="HE187" s="435"/>
+      <c r="HF187" s="435"/>
+      <c r="HG187" s="435"/>
+      <c r="HH187" s="435"/>
+      <c r="HI187" s="435"/>
+      <c r="HJ187" s="435"/>
+      <c r="HK187" s="435"/>
+      <c r="HL187" s="435"/>
+      <c r="HM187" s="435"/>
+      <c r="HN187" s="435"/>
+      <c r="HO187" s="435"/>
+      <c r="HP187" s="435"/>
+      <c r="HQ187" s="435"/>
+      <c r="HR187" s="435"/>
+      <c r="HS187" s="435"/>
+      <c r="HT187" s="435"/>
+      <c r="HU187" s="435"/>
+      <c r="HV187" s="435"/>
+      <c r="HW187" s="435"/>
+      <c r="HX187" s="435"/>
+      <c r="HY187" s="435"/>
+      <c r="HZ187" s="435"/>
+      <c r="IA187" s="435"/>
+      <c r="IB187" s="435"/>
+      <c r="IC187" s="435"/>
+      <c r="ID187" s="435"/>
+      <c r="IE187" s="435"/>
+      <c r="IF187" s="435"/>
+      <c r="IG187" s="435"/>
+      <c r="IH187" s="435"/>
+      <c r="II187" s="435"/>
+      <c r="IJ187" s="435"/>
+      <c r="IK187" s="435"/>
+      <c r="IL187" s="435"/>
+      <c r="IM187" s="435"/>
+      <c r="IN187" s="435"/>
+      <c r="IO187" s="435"/>
     </row>
     <row r="188" spans="1:249" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A188" s="35">
@@ -62278,13 +62298,13 @@
       <c r="C188" s="234" t="s">
         <v>106</v>
       </c>
-      <c r="D188" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="E188" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="F188" s="77"/>
+      <c r="D188" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F188" s="50"/>
       <c r="G188" s="483" t="s">
         <v>167</v>
       </c>
@@ -62310,10 +62330,10 @@
         <v>106</v>
       </c>
       <c r="D189" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E189" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F189" s="77"/>
       <c r="G189" s="483" t="s">
@@ -62340,11 +62360,11 @@
       <c r="C190" s="234" t="s">
         <v>106</v>
       </c>
-      <c r="D190" s="38" t="s">
-        <v>286</v>
+      <c r="D190" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="E190" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F190" s="77"/>
       <c r="G190" s="483" t="s">
@@ -62372,10 +62392,10 @@
         <v>106</v>
       </c>
       <c r="D191" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E191" s="38" t="s">
-        <v>417</v>
+        <v>286</v>
       </c>
       <c r="F191" s="77"/>
       <c r="G191" s="483" t="s">
@@ -62394,67 +62414,67 @@
       </c>
       <c r="O191" s="74"/>
     </row>
-    <row r="192" spans="1:249" s="285" customFormat="1" ht="20" customHeight="1">
-      <c r="A192" s="488">
-        <v>42736</v>
-      </c>
-      <c r="B192" s="488"/>
+    <row r="192" spans="1:249" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A192" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B192" s="35"/>
       <c r="C192" s="234" t="s">
-        <v>109</v>
-      </c>
-      <c r="D192" s="489" t="s">
-        <v>165</v>
-      </c>
-      <c r="E192" s="490" t="s">
-        <v>165</v>
-      </c>
-      <c r="F192" s="491"/>
+        <v>106</v>
+      </c>
+      <c r="D192" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E192" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F192" s="77"/>
       <c r="G192" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="H192" s="490"/>
-      <c r="I192" s="491"/>
-      <c r="J192" s="491"/>
-      <c r="K192" s="490" t="s">
+      <c r="H192" s="36"/>
+      <c r="I192" s="39"/>
+      <c r="J192" s="39"/>
+      <c r="K192" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L192" s="491"/>
-      <c r="M192" s="491"/>
-      <c r="N192" s="492" t="s">
+      <c r="L192" s="39"/>
+      <c r="M192" s="39"/>
+      <c r="N192" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="O192" s="493"/>
-    </row>
-    <row r="193" spans="1:15" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A193" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B193" s="35"/>
+      <c r="O192" s="74"/>
+    </row>
+    <row r="193" spans="1:15" s="285" customFormat="1" ht="20" customHeight="1">
+      <c r="A193" s="488">
+        <v>42736</v>
+      </c>
+      <c r="B193" s="488"/>
       <c r="C193" s="234" t="s">
-        <v>112</v>
-      </c>
-      <c r="D193" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D193" s="489" t="s">
         <v>165</v>
       </c>
-      <c r="E193" s="36" t="s">
+      <c r="E193" s="490" t="s">
         <v>165</v>
       </c>
-      <c r="F193" s="50"/>
+      <c r="F193" s="491"/>
       <c r="G193" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="H193" s="36"/>
-      <c r="I193" s="39"/>
-      <c r="J193" s="39"/>
-      <c r="K193" s="36" t="s">
+      <c r="H193" s="490"/>
+      <c r="I193" s="491"/>
+      <c r="J193" s="491"/>
+      <c r="K193" s="490" t="s">
         <v>45</v>
       </c>
-      <c r="L193" s="39"/>
-      <c r="M193" s="39"/>
-      <c r="N193" s="53" t="s">
+      <c r="L193" s="491"/>
+      <c r="M193" s="491"/>
+      <c r="N193" s="492" t="s">
         <v>168</v>
       </c>
-      <c r="O193" s="74"/>
+      <c r="O193" s="493"/>
     </row>
     <row r="194" spans="1:15" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A194" s="35">
@@ -62462,7 +62482,7 @@
       </c>
       <c r="B194" s="35"/>
       <c r="C194" s="234" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D194" s="51" t="s">
         <v>165</v>
@@ -62493,7 +62513,7 @@
       </c>
       <c r="B195" s="35"/>
       <c r="C195" s="234" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D195" s="51" t="s">
         <v>165</v>
@@ -62518,10 +62538,41 @@
       </c>
       <c r="O195" s="74"/>
     </row>
+    <row r="196" spans="1:15" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A196" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B196" s="35"/>
+      <c r="C196" s="234" t="s">
+        <v>118</v>
+      </c>
+      <c r="D196" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E196" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F196" s="50"/>
+      <c r="G196" s="483" t="s">
+        <v>167</v>
+      </c>
+      <c r="H196" s="36"/>
+      <c r="I196" s="39"/>
+      <c r="J196" s="39"/>
+      <c r="K196" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L196" s="39"/>
+      <c r="M196" s="39"/>
+      <c r="N196" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="O196" s="74"/>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B139" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">
-      <formula1>IF((DATEDIF(A139,B139,"d")&gt;0),B139)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B140" xr:uid="{EB4CB59A-D663-4C4C-AAAC-D2AEAD1D4BBC}">
+      <formula1>IF((DATEDIF(A140,B140,"d")&gt;0),B140)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -62539,8 +62590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F83" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -65762,7 +65813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -66742,7 +66793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O256"/>
   <sheetViews>
-    <sheetView topLeftCell="E229" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9253FB-4DF1-7A4D-BC82-7C3541FC347D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC6FBD-6704-5049-ABB7-F4A5C7BCF3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1100" windowWidth="33600" windowHeight="20480" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="33600" windowHeight="20480" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$34:$V$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CaseEvent!$A$35:$V$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CaseField!$A$3:$O$125</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10166" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10188" uniqueCount="1296">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -4014,6 +4014,15 @@
   </si>
   <si>
     <t>Create case CaseLink FTA tests</t>
+  </si>
+  <si>
+    <t>updateCaseCitizen</t>
+  </si>
+  <si>
+    <t>Update case for Citizen</t>
+  </si>
+  <si>
+    <t>Update a case for a Citizen</t>
   </si>
 </sst>
 </file>
@@ -15024,7 +15033,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:V75" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191" tableBorderDxfId="189" totalsRowBorderDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:V76" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191" tableBorderDxfId="189" totalsRowBorderDxfId="188">
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="187"/>
     <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="186"/>
@@ -15206,7 +15215,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F254" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F256" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="45"/>
@@ -15232,7 +15241,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F97" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F98" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
@@ -22056,10 +22065,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:UCG91"/>
+  <dimension ref="A1:UCG92"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -22861,13 +22870,13 @@
         <v>41</v>
       </c>
       <c r="D16" s="489" t="s">
-        <v>954</v>
+        <v>1293</v>
       </c>
       <c r="E16" s="489" t="s">
-        <v>941</v>
+        <v>1294</v>
       </c>
       <c r="F16" s="489" t="s">
-        <v>942</v>
+        <v>1295</v>
       </c>
       <c r="G16" s="526">
         <v>1</v>
@@ -22902,49 +22911,53 @@
       </c>
     </row>
     <row r="17" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36" t="s">
+      <c r="A17" s="525">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="525"/>
+      <c r="C17" s="489" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="G17" s="49">
+      <c r="D17" s="489" t="s">
+        <v>954</v>
+      </c>
+      <c r="E17" s="489" t="s">
+        <v>941</v>
+      </c>
+      <c r="F17" s="489" t="s">
+        <v>942</v>
+      </c>
+      <c r="G17" s="526">
         <v>1</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="489" t="s">
         <v>853</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="422"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="36" t="s">
+      <c r="I17" s="489" t="s">
+        <v>855</v>
+      </c>
+      <c r="J17" s="489"/>
+      <c r="K17" s="527"/>
+      <c r="L17" s="528"/>
+      <c r="M17" s="528"/>
+      <c r="N17" s="528"/>
+      <c r="O17" s="528"/>
+      <c r="P17" s="528"/>
+      <c r="Q17" s="489" t="s">
         <v>45</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="489" t="s">
         <v>250</v>
       </c>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50" t="s">
+      <c r="S17" s="515"/>
+      <c r="T17" s="515" t="s">
         <v>246</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
+      <c r="U17" s="489"/>
+      <c r="V17" s="489"/>
+      <c r="W17" s="529" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="18" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="35">
@@ -22952,13 +22965,13 @@
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>923</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>1292</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>923</v>
@@ -22971,7 +22984,7 @@
         <v>853</v>
       </c>
       <c r="J18" s="36"/>
-      <c r="K18" s="402"/>
+      <c r="K18" s="422"/>
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
       <c r="N18" s="73"/>
@@ -22984,14 +22997,12 @@
         <v>250</v>
       </c>
       <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
+      <c r="T18" s="50" t="s">
+        <v>246</v>
+      </c>
       <c r="U18" s="36"/>
-      <c r="V18" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="W18" s="483" t="s">
-        <v>955</v>
-      </c>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
     </row>
     <row r="19" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="35">
@@ -23001,26 +23012,24 @@
       <c r="C19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>956</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>957</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>958</v>
+      <c r="D19" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>923</v>
       </c>
       <c r="G19" s="49">
         <v>1</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="36"/>
+      <c r="I19" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I19" s="38" t="s">
-        <v>857</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="75"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="402"/>
       <c r="L19" s="73"/>
       <c r="M19" s="73"/>
       <c r="N19" s="73"/>
@@ -23036,36 +23045,40 @@
       <c r="T19" s="50"/>
       <c r="U19" s="36"/>
       <c r="V19" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="W19" s="38"/>
+        <v>250</v>
+      </c>
+      <c r="W19" s="483" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="20" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="35">
         <v>42736</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="38" t="s">
-        <v>49</v>
+      <c r="C20" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>923</v>
+        <v>956</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>958</v>
       </c>
       <c r="G20" s="49">
         <v>1</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36" t="s">
+      <c r="H20" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="73"/>
+      <c r="I20" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="73"/>
       <c r="M20" s="73"/>
       <c r="N20" s="73"/>
@@ -23080,36 +23093,36 @@
       <c r="S20" s="50"/>
       <c r="T20" s="50"/>
       <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="483"/>
+      <c r="V20" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="W20" s="38"/>
     </row>
     <row r="21" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="35">
         <v>42736</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="76" t="s">
-        <v>667</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>959</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>960</v>
+      <c r="D21" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>923</v>
       </c>
       <c r="G21" s="49">
         <v>1</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I21" s="38" t="s">
-        <v>855</v>
-      </c>
-      <c r="J21" s="38"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="73"/>
       <c r="L21" s="73"/>
       <c r="M21" s="73"/>
@@ -23126,33 +23139,35 @@
       <c r="T21" s="50"/>
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
+      <c r="W21" s="483"/>
     </row>
     <row r="22" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="35">
         <v>42736</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="77" t="s">
-        <v>629</v>
+      <c r="D22" s="76" t="s">
+        <v>667</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G22" s="49">
         <v>1</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36" t="s">
+      <c r="H22" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J22" s="36"/>
+      <c r="I22" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="J22" s="38"/>
       <c r="K22" s="73"/>
       <c r="L22" s="73"/>
       <c r="M22" s="73"/>
@@ -23169,7 +23184,7 @@
       <c r="T22" s="50"/>
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
-      <c r="W22" s="483"/>
+      <c r="W22" s="36"/>
     </row>
     <row r="23" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="35">
@@ -23180,16 +23195,16 @@
         <v>49</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>963</v>
+        <v>629</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G23" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36" t="s">
@@ -23212,7 +23227,7 @@
       <c r="T23" s="50"/>
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
+      <c r="W23" s="483"/>
     </row>
     <row r="24" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="35">
@@ -23223,16 +23238,16 @@
         <v>49</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G24" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="36"/>
       <c r="I24" s="36" t="s">
@@ -23255,7 +23270,7 @@
       <c r="T24" s="50"/>
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
-      <c r="W24" s="483"/>
+      <c r="W24" s="36"/>
     </row>
     <row r="25" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="35">
@@ -23266,16 +23281,16 @@
         <v>49</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G25" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36" t="s">
@@ -23298,27 +23313,27 @@
       <c r="T25" s="50"/>
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
+      <c r="W25" s="483"/>
     </row>
     <row r="26" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="35">
         <v>42736</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>923</v>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>967</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>969</v>
       </c>
       <c r="G26" s="49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="36" t="s">
@@ -23341,99 +23356,95 @@
       <c r="T26" s="50"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
-      <c r="W26" s="483"/>
-    </row>
-    <row r="27" spans="1:23" s="403" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="247">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="247"/>
-      <c r="C27" s="234" t="s">
+      <c r="W26" s="36"/>
+    </row>
+    <row r="27" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A27" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="G27" s="49">
+        <v>1</v>
+      </c>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="483"/>
+    </row>
+    <row r="28" spans="1:23" s="403" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="247">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="247"/>
+      <c r="C28" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="248" t="s">
+      <c r="D28" s="248" t="s">
         <v>665</v>
       </c>
-      <c r="E27" s="248" t="s">
+      <c r="E28" s="248" t="s">
         <v>923</v>
       </c>
-      <c r="F27" s="248" t="s">
+      <c r="F28" s="248" t="s">
         <v>923</v>
       </c>
-      <c r="G27" s="250">
+      <c r="G28" s="250">
         <v>1</v>
       </c>
-      <c r="H27" s="248"/>
-      <c r="I27" s="248" t="s">
+      <c r="H28" s="248"/>
+      <c r="I28" s="248" t="s">
         <v>853</v>
       </c>
-      <c r="J27" s="248"/>
-      <c r="K27" s="402"/>
-      <c r="L27" s="342"/>
-      <c r="M27" s="342"/>
-      <c r="N27" s="342"/>
-      <c r="O27" s="342"/>
-      <c r="P27" s="342"/>
-      <c r="Q27" s="248" t="s">
+      <c r="J28" s="248"/>
+      <c r="K28" s="402"/>
+      <c r="L28" s="342"/>
+      <c r="M28" s="342"/>
+      <c r="N28" s="342"/>
+      <c r="O28" s="342"/>
+      <c r="P28" s="342"/>
+      <c r="Q28" s="248" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="234" t="s">
+      <c r="R28" s="234" t="s">
         <v>246</v>
       </c>
-      <c r="S27" s="236" t="s">
+      <c r="S28" s="236" t="s">
         <v>246</v>
       </c>
-      <c r="T27" s="233"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="248"/>
-    </row>
-    <row r="28" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>970</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>971</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>971</v>
-      </c>
-      <c r="G28" s="49">
-        <v>1</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>860</v>
-      </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="S28" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="T28" s="50"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="483"/>
+      <c r="T28" s="233"/>
+      <c r="U28" s="248"/>
+      <c r="V28" s="248"/>
+      <c r="W28" s="248"/>
     </row>
     <row r="29" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="35">
@@ -23444,22 +23455,22 @@
         <v>55</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G29" s="49">
         <v>1</v>
       </c>
       <c r="H29" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I29" s="36" t="s">
         <v>860</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>861</v>
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="73"/>
@@ -23480,7 +23491,7 @@
       <c r="T29" s="50"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="483"/>
     </row>
     <row r="30" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="35">
@@ -23491,22 +23502,22 @@
         <v>55</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G30" s="49">
         <v>1</v>
       </c>
       <c r="H30" s="36" t="s">
+        <v>860</v>
+      </c>
+      <c r="I30" s="36" t="s">
         <v>861</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>860</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="73"/>
@@ -23527,7 +23538,7 @@
       <c r="T30" s="50"/>
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
-      <c r="W30" s="483"/>
+      <c r="W30" s="36"/>
     </row>
     <row r="31" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="35">
@@ -23538,22 +23549,22 @@
         <v>55</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G31" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>978</v>
+        <v>861</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>978</v>
+        <v>860</v>
       </c>
       <c r="J31" s="36"/>
       <c r="K31" s="73"/>
@@ -23574,31 +23585,33 @@
       <c r="T31" s="50"/>
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
+      <c r="W31" s="483"/>
     </row>
     <row r="32" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="35">
         <v>42736</v>
       </c>
       <c r="B32" s="35"/>
-      <c r="C32" s="36" t="s">
-        <v>58</v>
+      <c r="C32" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>665</v>
+        <v>976</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>923</v>
+        <v>977</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>923</v>
+        <v>977</v>
       </c>
       <c r="G32" s="49">
-        <v>1</v>
-      </c>
-      <c r="H32" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>978</v>
+      </c>
       <c r="I32" s="36" t="s">
-        <v>853</v>
+        <v>978</v>
       </c>
       <c r="J32" s="36"/>
       <c r="K32" s="73"/>
@@ -23611,13 +23624,15 @@
         <v>45</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="S32" s="50"/>
+        <v>246</v>
+      </c>
+      <c r="S32" s="50" t="s">
+        <v>246</v>
+      </c>
       <c r="T32" s="50"/>
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
-      <c r="W32" s="483"/>
+      <c r="W32" s="36"/>
     </row>
     <row r="33" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="35">
@@ -23625,7 +23640,7 @@
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>665</v>
@@ -23660,7 +23675,7 @@
       <c r="T33" s="50"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
+      <c r="W33" s="483"/>
     </row>
     <row r="34" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="35">
@@ -23671,22 +23686,20 @@
         <v>61</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>979</v>
+        <v>665</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>980</v>
+        <v>923</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>980</v>
+        <v>923</v>
       </c>
       <c r="G34" s="49">
         <v>1</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="36"/>
+      <c r="I34" s="36" t="s">
         <v>853</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>862</v>
       </c>
       <c r="J34" s="36"/>
       <c r="K34" s="73"/>
@@ -23705,7 +23718,7 @@
       <c r="T34" s="50"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="483"/>
+      <c r="W34" s="36"/>
     </row>
     <row r="35" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="35">
@@ -23716,20 +23729,22 @@
         <v>61</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G35" s="49">
         <v>1</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="36" t="s">
+        <v>853</v>
+      </c>
       <c r="I35" s="36" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="73"/>
@@ -23748,7 +23763,7 @@
       <c r="T35" s="50"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
+      <c r="W35" s="483"/>
     </row>
     <row r="36" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="35">
@@ -23759,13 +23774,13 @@
         <v>61</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G36" s="49">
         <v>1</v>
@@ -23791,7 +23806,7 @@
       <c r="T36" s="50"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
-      <c r="W36" s="483"/>
+      <c r="W36" s="36"/>
     </row>
     <row r="37" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="35">
@@ -23802,13 +23817,13 @@
         <v>61</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G37" s="49">
         <v>1</v>
@@ -23834,24 +23849,24 @@
       <c r="T37" s="50"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
+      <c r="W37" s="483"/>
     </row>
     <row r="38" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="35">
         <v>42736</v>
       </c>
       <c r="B38" s="35"/>
-      <c r="C38" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>923</v>
+      <c r="C38" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>985</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>986</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="G38" s="49">
         <v>1</v>
@@ -23877,33 +23892,31 @@
       <c r="T38" s="50"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
-      <c r="W38" s="483"/>
+      <c r="W38" s="36"/>
     </row>
     <row r="39" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="35">
         <v>42736</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="77" t="s">
-        <v>987</v>
+      <c r="D39" s="38" t="s">
+        <v>665</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>988</v>
+        <v>923</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>989</v>
+        <v>923</v>
       </c>
       <c r="G39" s="49">
-        <v>2</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>990</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H39" s="36"/>
       <c r="I39" s="36" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="J39" s="36"/>
       <c r="K39" s="73"/>
@@ -23922,7 +23935,7 @@
       <c r="T39" s="50"/>
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
+      <c r="W39" s="483"/>
     </row>
     <row r="40" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="35">
@@ -23933,22 +23946,22 @@
         <v>64</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="G40" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>990</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J40" s="36"/>
       <c r="K40" s="73"/>
@@ -23967,31 +23980,33 @@
       <c r="T40" s="50"/>
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
-      <c r="W40" s="483"/>
+      <c r="W40" s="36"/>
     </row>
     <row r="41" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="35">
         <v>42736</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>923</v>
+      <c r="B41" s="39"/>
+      <c r="C41" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>991</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>993</v>
       </c>
       <c r="G41" s="49">
-        <v>1</v>
-      </c>
-      <c r="H41" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>990</v>
+      </c>
       <c r="I41" s="36" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="J41" s="36"/>
       <c r="K41" s="73"/>
@@ -24007,20 +24022,18 @@
         <v>250</v>
       </c>
       <c r="S41" s="50"/>
-      <c r="T41" s="50" t="s">
-        <v>246</v>
-      </c>
+      <c r="T41" s="50"/>
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
+      <c r="W41" s="483"/>
     </row>
     <row r="42" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="35">
         <v>42736</v>
       </c>
       <c r="B42" s="35"/>
-      <c r="C42" s="38" t="s">
-        <v>70</v>
+      <c r="C42" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>665</v>
@@ -24039,7 +24052,7 @@
         <v>853</v>
       </c>
       <c r="J42" s="36"/>
-      <c r="K42" s="72"/>
+      <c r="K42" s="73"/>
       <c r="L42" s="73"/>
       <c r="M42" s="73"/>
       <c r="N42" s="73"/>
@@ -24057,24 +24070,24 @@
       </c>
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
-      <c r="W42" s="483"/>
+      <c r="W42" s="36"/>
     </row>
     <row r="43" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="35">
         <v>42736</v>
       </c>
       <c r="B43" s="35"/>
-      <c r="C43" s="36" t="s">
-        <v>73</v>
+      <c r="C43" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>665</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>868</v>
+        <v>923</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>994</v>
+        <v>923</v>
       </c>
       <c r="G43" s="49">
         <v>1</v>
@@ -24084,11 +24097,11 @@
         <v>853</v>
       </c>
       <c r="J43" s="36"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="39"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="73"/>
       <c r="M43" s="73"/>
       <c r="N43" s="73"/>
-      <c r="O43" s="75"/>
+      <c r="O43" s="73"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="36" t="s">
         <v>45</v>
@@ -24096,15 +24109,13 @@
       <c r="R43" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="S43" s="50" t="s">
-        <v>250</v>
-      </c>
+      <c r="S43" s="50"/>
       <c r="T43" s="50" t="s">
         <v>246</v>
       </c>
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
+      <c r="W43" s="483"/>
     </row>
     <row r="44" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="35">
@@ -24115,29 +24126,27 @@
         <v>73</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>995</v>
+        <v>868</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G44" s="49">
-        <v>2</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>978</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>978</v>
+        <v>853</v>
       </c>
       <c r="J44" s="36"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="39"/>
       <c r="M44" s="73"/>
       <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
+      <c r="O44" s="75"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="36" t="s">
         <v>45</v>
@@ -24148,10 +24157,12 @@
       <c r="S44" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="T44" s="50"/>
+      <c r="T44" s="50" t="s">
+        <v>246</v>
+      </c>
       <c r="U44" s="36"/>
       <c r="V44" s="36"/>
-      <c r="W44" s="483"/>
+      <c r="W44" s="36"/>
     </row>
     <row r="45" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="35">
@@ -24162,13 +24173,13 @@
         <v>73</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G45" s="49">
         <v>2</v>
@@ -24198,31 +24209,33 @@
       <c r="T45" s="50"/>
       <c r="U45" s="36"/>
       <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
+      <c r="W45" s="483"/>
     </row>
     <row r="46" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="35">
         <v>42736</v>
       </c>
       <c r="B46" s="35"/>
-      <c r="C46" s="38" t="s">
-        <v>76</v>
+      <c r="C46" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>923</v>
+        <v>997</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
       <c r="G46" s="49">
-        <v>1</v>
-      </c>
-      <c r="H46" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>978</v>
+      </c>
       <c r="I46" s="36" t="s">
-        <v>853</v>
+        <v>978</v>
       </c>
       <c r="J46" s="36"/>
       <c r="K46" s="73"/>
@@ -24235,15 +24248,15 @@
         <v>45</v>
       </c>
       <c r="R46" s="36" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="S46" s="50" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="T46" s="50"/>
       <c r="U46" s="36"/>
       <c r="V46" s="36"/>
-      <c r="W46" s="483"/>
+      <c r="W46" s="36"/>
     </row>
     <row r="47" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="35">
@@ -24254,27 +24267,23 @@
         <v>76</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>999</v>
+        <v>665</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>1000</v>
+        <v>923</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>1000</v>
+        <v>923</v>
       </c>
       <c r="G47" s="49">
-        <v>2</v>
-      </c>
-      <c r="H47" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="I47" s="36" t="s">
-        <v>870</v>
-      </c>
       <c r="J47" s="36"/>
-      <c r="K47" s="421" t="s">
-        <v>1001</v>
-      </c>
+      <c r="K47" s="73"/>
       <c r="L47" s="73"/>
       <c r="M47" s="73"/>
       <c r="N47" s="73"/>
@@ -24292,7 +24301,7 @@
       <c r="T47" s="50"/>
       <c r="U47" s="36"/>
       <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
+      <c r="W47" s="483"/>
     </row>
     <row r="48" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="35">
@@ -24303,16 +24312,16 @@
         <v>76</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48" s="36" t="s">
         <v>853</v>
@@ -24321,8 +24330,8 @@
         <v>870</v>
       </c>
       <c r="J48" s="36"/>
-      <c r="K48" s="422" t="s">
-        <v>1005</v>
+      <c r="K48" s="421" t="s">
+        <v>1001</v>
       </c>
       <c r="L48" s="73"/>
       <c r="M48" s="73"/>
@@ -24341,77 +24350,83 @@
       <c r="T48" s="50"/>
       <c r="U48" s="36"/>
       <c r="V48" s="36"/>
-      <c r="W48" s="483"/>
+      <c r="W48" s="36"/>
     </row>
     <row r="49" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="35">
-        <v>42737</v>
+        <v>42736</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="291" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="310" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E49" s="310" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F49" s="331"/>
-      <c r="G49" s="331">
-        <v>1</v>
-      </c>
-      <c r="H49" s="331"/>
-      <c r="I49" s="310" t="s">
-        <v>872</v>
-      </c>
-      <c r="J49" s="310"/>
-      <c r="K49" s="331"/>
-      <c r="L49" s="333"/>
-      <c r="M49" s="343"/>
-      <c r="N49" s="333"/>
-      <c r="O49" s="333"/>
-      <c r="P49" s="333"/>
-      <c r="Q49" s="331" t="s">
-        <v>368</v>
-      </c>
-      <c r="R49" s="310" t="s">
-        <v>1008</v>
-      </c>
-      <c r="S49" s="331"/>
-      <c r="T49" s="331"/>
-      <c r="U49" s="331"/>
-      <c r="V49" s="331"/>
-      <c r="W49" s="331"/>
+      <c r="C49" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G49" s="49">
+        <v>5</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="J49" s="36"/>
+      <c r="K49" s="422" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="S49" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="T49" s="50"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="483"/>
     </row>
     <row r="50" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="35">
-        <v>42738</v>
+        <v>42737</v>
       </c>
       <c r="B50" s="35"/>
       <c r="C50" s="291" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="310" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E50" s="310" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F50" s="331"/>
       <c r="G50" s="331">
-        <v>2</v>
-      </c>
-      <c r="H50" s="331" t="s">
-        <v>872</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H50" s="331"/>
       <c r="I50" s="310" t="s">
         <v>872</v>
       </c>
       <c r="J50" s="310"/>
-      <c r="K50" s="333"/>
+      <c r="K50" s="331"/>
       <c r="L50" s="333"/>
-      <c r="M50" s="333"/>
+      <c r="M50" s="343"/>
       <c r="N50" s="333"/>
       <c r="O50" s="333"/>
       <c r="P50" s="333"/>
@@ -24425,31 +24440,31 @@
       <c r="T50" s="331"/>
       <c r="U50" s="331"/>
       <c r="V50" s="331"/>
-      <c r="W50" s="483"/>
+      <c r="W50" s="331"/>
     </row>
     <row r="51" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="35">
-        <v>42739</v>
+        <v>42738</v>
       </c>
       <c r="B51" s="35"/>
       <c r="C51" s="291" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="310" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E51" s="310" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F51" s="331"/>
       <c r="G51" s="331">
-        <v>3</v>
-      </c>
-      <c r="H51" s="310" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="331" t="s">
         <v>872</v>
       </c>
       <c r="I51" s="310" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J51" s="310"/>
       <c r="K51" s="333"/>
@@ -24468,31 +24483,31 @@
       <c r="T51" s="331"/>
       <c r="U51" s="331"/>
       <c r="V51" s="331"/>
-      <c r="W51" s="331"/>
+      <c r="W51" s="483"/>
     </row>
     <row r="52" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="35">
-        <v>42740</v>
+        <v>42739</v>
       </c>
       <c r="B52" s="35"/>
       <c r="C52" s="291" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="310" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E52" s="310" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F52" s="331"/>
       <c r="G52" s="331">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="310" t="s">
-        <v>978</v>
+        <v>872</v>
       </c>
       <c r="I52" s="310" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J52" s="310"/>
       <c r="K52" s="333"/>
@@ -24511,54 +24526,50 @@
       <c r="T52" s="331"/>
       <c r="U52" s="331"/>
       <c r="V52" s="331"/>
-      <c r="W52" s="483"/>
+      <c r="W52" s="331"/>
     </row>
     <row r="53" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A53" s="210">
-        <v>42736</v>
-      </c>
-      <c r="B53" s="210"/>
-      <c r="C53" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>662</v>
-      </c>
-      <c r="E53" s="193" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F53" s="193" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G53" s="212">
-        <v>1</v>
-      </c>
-      <c r="H53" s="211" t="s">
-        <v>853</v>
-      </c>
-      <c r="I53" s="193" t="s">
-        <v>855</v>
-      </c>
-      <c r="J53" s="193"/>
-      <c r="K53" s="339"/>
-      <c r="L53" s="216"/>
-      <c r="M53" s="216"/>
-      <c r="N53" s="216"/>
-      <c r="O53" s="216"/>
-      <c r="P53" s="216"/>
-      <c r="Q53" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="R53" s="211" t="s">
-        <v>250</v>
-      </c>
-      <c r="S53" s="191"/>
-      <c r="T53" s="191"/>
-      <c r="U53" s="211"/>
-      <c r="V53" s="211" t="s">
-        <v>250</v>
-      </c>
-      <c r="W53" s="211"/>
+      <c r="A53" s="35">
+        <v>42740</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="291" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="310" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E53" s="310" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F53" s="331"/>
+      <c r="G53" s="331">
+        <v>4</v>
+      </c>
+      <c r="H53" s="310" t="s">
+        <v>978</v>
+      </c>
+      <c r="I53" s="310" t="s">
+        <v>876</v>
+      </c>
+      <c r="J53" s="310"/>
+      <c r="K53" s="333"/>
+      <c r="L53" s="333"/>
+      <c r="M53" s="333"/>
+      <c r="N53" s="333"/>
+      <c r="O53" s="333"/>
+      <c r="P53" s="333"/>
+      <c r="Q53" s="331" t="s">
+        <v>368</v>
+      </c>
+      <c r="R53" s="310" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S53" s="331"/>
+      <c r="T53" s="331"/>
+      <c r="U53" s="331"/>
+      <c r="V53" s="331"/>
+      <c r="W53" s="483"/>
     </row>
     <row r="54" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="210">
@@ -24569,22 +24580,24 @@
         <v>82</v>
       </c>
       <c r="D54" s="193" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="E54" s="193" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F54" s="193" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G54" s="212">
         <v>1</v>
       </c>
-      <c r="H54" s="211"/>
-      <c r="I54" s="211" t="s">
+      <c r="H54" s="211" t="s">
         <v>853</v>
       </c>
-      <c r="J54" s="211"/>
+      <c r="I54" s="193" t="s">
+        <v>855</v>
+      </c>
+      <c r="J54" s="193"/>
       <c r="K54" s="339"/>
       <c r="L54" s="216"/>
       <c r="M54" s="216"/>
@@ -24605,95 +24618,93 @@
       </c>
       <c r="W54" s="211"/>
     </row>
-    <row r="55" spans="1:23" s="319" customFormat="1" ht="20" customHeight="1">
-      <c r="A55" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="38" t="s">
+    <row r="55" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A55" s="210">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="210"/>
+      <c r="C55" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="193" t="s">
+        <v>645</v>
+      </c>
+      <c r="E55" s="193" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F55" s="193" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G55" s="212">
+        <v>1</v>
+      </c>
+      <c r="H55" s="211"/>
+      <c r="I55" s="211" t="s">
+        <v>853</v>
+      </c>
+      <c r="J55" s="211"/>
+      <c r="K55" s="339"/>
+      <c r="L55" s="216"/>
+      <c r="M55" s="216"/>
+      <c r="N55" s="216"/>
+      <c r="O55" s="216"/>
+      <c r="P55" s="216"/>
+      <c r="Q55" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="R55" s="211" t="s">
+        <v>250</v>
+      </c>
+      <c r="S55" s="191"/>
+      <c r="T55" s="191"/>
+      <c r="U55" s="211"/>
+      <c r="V55" s="211" t="s">
+        <v>250</v>
+      </c>
+      <c r="W55" s="211"/>
+    </row>
+    <row r="56" spans="1:23" s="319" customFormat="1" ht="20" customHeight="1">
+      <c r="A56" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D56" s="83" t="s">
         <v>665</v>
       </c>
-      <c r="E55" s="83" t="s">
+      <c r="E56" s="83" t="s">
         <v>923</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F56" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G56" s="49">
         <v>1</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36" t="s">
+      <c r="H56" s="36"/>
+      <c r="I56" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J55" s="36"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="36" t="s">
+      <c r="J56" s="36"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R55" s="36" t="s">
+      <c r="R56" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-    </row>
-    <row r="56" spans="1:23" s="238" customFormat="1" ht="17" customHeight="1">
-      <c r="A56" s="405">
-        <v>42736</v>
-      </c>
-      <c r="B56" s="406"/>
-      <c r="C56" s="406" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="407" t="s">
-        <v>666</v>
-      </c>
-      <c r="E56" s="407" t="s">
-        <v>925</v>
-      </c>
-      <c r="F56" s="408" t="s">
-        <v>925</v>
-      </c>
-      <c r="G56" s="409">
-        <v>2</v>
-      </c>
-      <c r="H56" s="410" t="s">
-        <v>853</v>
-      </c>
-      <c r="I56" s="410" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J56" s="408" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K56" s="411"/>
-      <c r="L56" s="411"/>
-      <c r="M56" s="411"/>
-      <c r="N56" s="411"/>
-      <c r="O56" s="411"/>
-      <c r="P56" s="411"/>
-      <c r="Q56" s="410" t="s">
-        <v>45</v>
-      </c>
-      <c r="R56" s="410" t="s">
-        <v>250</v>
-      </c>
-      <c r="S56" s="412"/>
-      <c r="T56" s="412"/>
-      <c r="U56" s="413"/>
-      <c r="V56" s="413"/>
-      <c r="W56" s="413"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
     </row>
     <row r="57" spans="1:23" s="238" customFormat="1" ht="17" customHeight="1">
       <c r="A57" s="405">
@@ -24704,25 +24715,25 @@
         <v>88</v>
       </c>
       <c r="D57" s="407" t="s">
-        <v>1021</v>
+        <v>666</v>
       </c>
       <c r="E57" s="407" t="s">
-        <v>1022</v>
+        <v>925</v>
       </c>
       <c r="F57" s="408" t="s">
-        <v>1022</v>
+        <v>925</v>
       </c>
       <c r="G57" s="409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" s="410" t="s">
         <v>853</v>
       </c>
       <c r="I57" s="410" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="J57" s="408" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K57" s="411"/>
       <c r="L57" s="411"/>
@@ -24742,48 +24753,52 @@
       <c r="V57" s="413"/>
       <c r="W57" s="413"/>
     </row>
-    <row r="58" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
-      <c r="A58" s="479">
-        <v>42739</v>
-      </c>
-      <c r="B58" s="247"/>
-      <c r="C58" s="234" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="248" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E58" s="248" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F58" s="234" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G58" s="250">
-        <v>7</v>
-      </c>
-      <c r="H58" s="248"/>
-      <c r="I58" s="248" t="s">
+    <row r="58" spans="1:23" s="238" customFormat="1" ht="17" customHeight="1">
+      <c r="A58" s="405">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="406"/>
+      <c r="C58" s="406" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="407" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E58" s="407" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F58" s="408" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G58" s="409">
+        <v>3</v>
+      </c>
+      <c r="H58" s="410" t="s">
         <v>853</v>
       </c>
-      <c r="J58" s="248"/>
-      <c r="K58" s="341"/>
-      <c r="L58" s="342"/>
-      <c r="M58" s="342"/>
-      <c r="N58" s="342"/>
-      <c r="O58" s="342"/>
-      <c r="P58" s="342"/>
-      <c r="Q58" s="265" t="s">
+      <c r="I58" s="410" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J58" s="408" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K58" s="411"/>
+      <c r="L58" s="411"/>
+      <c r="M58" s="411"/>
+      <c r="N58" s="411"/>
+      <c r="O58" s="411"/>
+      <c r="P58" s="411"/>
+      <c r="Q58" s="410" t="s">
         <v>45</v>
       </c>
-      <c r="R58" s="265" t="s">
+      <c r="R58" s="410" t="s">
         <v>250</v>
       </c>
-      <c r="S58" s="249"/>
-      <c r="T58" s="249"/>
-      <c r="U58" s="248"/>
-      <c r="V58" s="248"/>
-      <c r="W58" s="248"/>
+      <c r="S58" s="412"/>
+      <c r="T58" s="412"/>
+      <c r="U58" s="413"/>
+      <c r="V58" s="413"/>
+      <c r="W58" s="413"/>
     </row>
     <row r="59" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="479">
@@ -24794,16 +24809,16 @@
         <v>85</v>
       </c>
       <c r="D59" s="248" t="s">
-        <v>673</v>
+        <v>1025</v>
       </c>
       <c r="E59" s="248" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F59" s="234" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G59" s="250">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H59" s="248"/>
       <c r="I59" s="248" t="s">
@@ -24837,16 +24852,16 @@
         <v>85</v>
       </c>
       <c r="D60" s="248" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E60" s="248" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F60" s="234" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G60" s="250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H60" s="248"/>
       <c r="I60" s="248" t="s">
@@ -24880,16 +24895,16 @@
         <v>85</v>
       </c>
       <c r="D61" s="248" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E61" s="248" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F61" s="234" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G61" s="250">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H61" s="248"/>
       <c r="I61" s="248" t="s">
@@ -24922,17 +24937,17 @@
       <c r="C62" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="234" t="s">
-        <v>1030</v>
+      <c r="D62" s="248" t="s">
+        <v>675</v>
       </c>
       <c r="E62" s="248" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F62" s="234" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G62" s="250">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="248"/>
       <c r="I62" s="248" t="s">
@@ -24965,17 +24980,17 @@
       <c r="C63" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="248" t="s">
-        <v>677</v>
+      <c r="D63" s="234" t="s">
+        <v>1030</v>
       </c>
       <c r="E63" s="248" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F63" s="234" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G63" s="250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" s="248"/>
       <c r="I63" s="248" t="s">
@@ -25009,16 +25024,16 @@
         <v>85</v>
       </c>
       <c r="D64" s="248" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E64" s="248" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F64" s="234" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G64" s="250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="248"/>
       <c r="I64" s="248" t="s">
@@ -25043,48 +25058,48 @@
       <c r="V64" s="248"/>
       <c r="W64" s="248"/>
     </row>
-    <row r="65" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A65" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="49">
+    <row r="65" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
+      <c r="A65" s="479">
+        <v>42739</v>
+      </c>
+      <c r="B65" s="247"/>
+      <c r="C65" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="248" t="s">
+        <v>682</v>
+      </c>
+      <c r="E65" s="248" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F65" s="234" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G65" s="250">
         <v>1</v>
       </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36" t="s">
+      <c r="H65" s="248"/>
+      <c r="I65" s="248" t="s">
         <v>853</v>
       </c>
-      <c r="J65" s="36"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="36" t="s">
+      <c r="J65" s="248"/>
+      <c r="K65" s="341"/>
+      <c r="L65" s="342"/>
+      <c r="M65" s="342"/>
+      <c r="N65" s="342"/>
+      <c r="O65" s="342"/>
+      <c r="P65" s="342"/>
+      <c r="Q65" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="R65" s="36" t="s">
+      <c r="R65" s="265" t="s">
         <v>250</v>
       </c>
-      <c r="S65" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="T65" s="39"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
+      <c r="S65" s="249"/>
+      <c r="T65" s="249"/>
+      <c r="U65" s="248"/>
+      <c r="V65" s="248"/>
+      <c r="W65" s="248"/>
     </row>
     <row r="66" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A66" s="35">
@@ -25095,22 +25110,18 @@
         <v>91</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>1036</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="F66" s="36"/>
       <c r="G66" s="49">
-        <v>2</v>
-      </c>
-      <c r="H66" s="36" t="s">
-        <v>978</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H66" s="36"/>
       <c r="I66" s="36" t="s">
-        <v>978</v>
+        <v>853</v>
       </c>
       <c r="J66" s="36"/>
       <c r="K66" s="75"/>
@@ -25131,7 +25142,7 @@
       <c r="T66" s="39"/>
       <c r="U66" s="36"/>
       <c r="V66" s="36"/>
-      <c r="W66" s="483"/>
+      <c r="W66" s="36"/>
     </row>
     <row r="67" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A67" s="35">
@@ -25142,13 +25153,13 @@
         <v>91</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G67" s="49">
         <v>2</v>
@@ -25178,27 +25189,27 @@
       <c r="T67" s="39"/>
       <c r="U67" s="36"/>
       <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-    </row>
-    <row r="68" spans="1:23" ht="13.25" customHeight="1">
-      <c r="A68" s="34">
+      <c r="W67" s="483"/>
+    </row>
+    <row r="68" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A68" s="35">
         <v>42736</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>1039</v>
+      <c r="D68" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>1038</v>
       </c>
       <c r="G68" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" s="36" t="s">
         <v>978</v>
@@ -25223,36 +25234,40 @@
         <v>250</v>
       </c>
       <c r="T68" s="39"/>
-      <c r="U68" s="74"/>
-      <c r="V68" s="74"/>
-      <c r="W68" s="483"/>
-    </row>
-    <row r="69" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A69" s="35">
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+    </row>
+    <row r="69" spans="1:23" ht="13.25" customHeight="1">
+      <c r="A69" s="34">
         <v>42736</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F69" s="36"/>
+        <v>91</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>1039</v>
+      </c>
       <c r="G69" s="49">
-        <v>1</v>
-      </c>
-      <c r="H69" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>978</v>
+      </c>
       <c r="I69" s="36" t="s">
-        <v>853</v>
+        <v>978</v>
       </c>
       <c r="J69" s="36"/>
       <c r="K69" s="75"/>
       <c r="L69" s="73"/>
-      <c r="M69" s="422"/>
+      <c r="M69" s="73"/>
       <c r="N69" s="73"/>
       <c r="O69" s="73"/>
       <c r="P69" s="73"/>
@@ -25266,9 +25281,9 @@
         <v>250</v>
       </c>
       <c r="T69" s="39"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
+      <c r="U69" s="74"/>
+      <c r="V69" s="74"/>
+      <c r="W69" s="483"/>
     </row>
     <row r="70" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A70" s="35">
@@ -25279,31 +25294,25 @@
         <v>94</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F70" s="36" t="s">
-        <v>1036</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="F70" s="36"/>
       <c r="G70" s="49">
-        <v>2</v>
-      </c>
-      <c r="H70" s="36" t="s">
-        <v>978</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H70" s="36"/>
       <c r="I70" s="36" t="s">
-        <v>978</v>
+        <v>853</v>
       </c>
       <c r="J70" s="36"/>
-      <c r="K70" s="421"/>
+      <c r="K70" s="75"/>
       <c r="L70" s="73"/>
       <c r="M70" s="422"/>
       <c r="N70" s="73"/>
-      <c r="O70" s="422" t="s">
-        <v>1040</v>
-      </c>
+      <c r="O70" s="73"/>
       <c r="P70" s="73"/>
       <c r="Q70" s="36" t="s">
         <v>45</v>
@@ -25317,7 +25326,7 @@
       <c r="T70" s="39"/>
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
-      <c r="W70" s="483"/>
+      <c r="W70" s="36"/>
     </row>
     <row r="71" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="35">
@@ -25328,13 +25337,13 @@
         <v>94</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G71" s="49">
         <v>2</v>
@@ -25346,13 +25355,13 @@
         <v>978</v>
       </c>
       <c r="J71" s="36"/>
-      <c r="K71" s="422" t="s">
-        <v>1041</v>
-      </c>
+      <c r="K71" s="421"/>
       <c r="L71" s="73"/>
       <c r="M71" s="422"/>
       <c r="N71" s="73"/>
-      <c r="O71" s="73"/>
+      <c r="O71" s="422" t="s">
+        <v>1040</v>
+      </c>
       <c r="P71" s="73"/>
       <c r="Q71" s="36" t="s">
         <v>45</v>
@@ -25366,7 +25375,7 @@
       <c r="T71" s="39"/>
       <c r="U71" s="36"/>
       <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
+      <c r="W71" s="483"/>
     </row>
     <row r="72" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="35">
@@ -25374,26 +25383,32 @@
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F72" s="36"/>
+        <v>1037</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>1038</v>
+      </c>
       <c r="G72" s="49">
-        <v>1</v>
-      </c>
-      <c r="H72" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>978</v>
+      </c>
       <c r="I72" s="36" t="s">
-        <v>853</v>
+        <v>978</v>
       </c>
       <c r="J72" s="36"/>
-      <c r="K72" s="421"/>
+      <c r="K72" s="422" t="s">
+        <v>1041</v>
+      </c>
       <c r="L72" s="73"/>
-      <c r="M72" s="73"/>
+      <c r="M72" s="422"/>
       <c r="N72" s="73"/>
       <c r="O72" s="73"/>
       <c r="P72" s="73"/>
@@ -25409,50 +25424,50 @@
       <c r="T72" s="39"/>
       <c r="U72" s="36"/>
       <c r="V72" s="36"/>
-      <c r="W72" s="483"/>
-    </row>
-    <row r="73" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
-      <c r="A73" s="479">
-        <v>42739</v>
-      </c>
-      <c r="B73" s="247"/>
-      <c r="C73" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="248" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E73" s="248" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F73" s="234" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G73" s="250">
-        <v>7</v>
-      </c>
-      <c r="H73" s="248"/>
-      <c r="I73" s="248" t="s">
+      <c r="W72" s="36"/>
+    </row>
+    <row r="73" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A73" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="49">
+        <v>1</v>
+      </c>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="J73" s="248"/>
-      <c r="K73" s="341"/>
-      <c r="L73" s="342"/>
-      <c r="M73" s="342"/>
-      <c r="N73" s="342"/>
-      <c r="O73" s="342"/>
-      <c r="P73" s="342"/>
-      <c r="Q73" s="265" t="s">
+      <c r="J73" s="36"/>
+      <c r="K73" s="421"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R73" s="265" t="s">
+      <c r="R73" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="S73" s="249"/>
-      <c r="T73" s="249"/>
-      <c r="U73" s="248"/>
-      <c r="V73" s="248"/>
-      <c r="W73" s="248"/>
+      <c r="S73" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="T73" s="39"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="483"/>
     </row>
     <row r="74" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
       <c r="A74" s="479">
@@ -25463,16 +25478,16 @@
         <v>100</v>
       </c>
       <c r="D74" s="248" t="s">
-        <v>673</v>
+        <v>1025</v>
       </c>
       <c r="E74" s="248" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F74" s="234" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G74" s="250">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H74" s="248"/>
       <c r="I74" s="248" t="s">
@@ -25506,16 +25521,16 @@
         <v>100</v>
       </c>
       <c r="D75" s="248" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E75" s="248" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F75" s="234" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G75" s="250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H75" s="248"/>
       <c r="I75" s="248" t="s">
@@ -25540,50 +25555,48 @@
       <c r="V75" s="248"/>
       <c r="W75" s="248"/>
     </row>
-    <row r="76" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A76" s="432">
-        <v>42736</v>
-      </c>
-      <c r="B76" s="430"/>
-      <c r="C76" s="430" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="430" t="s">
-        <v>665</v>
-      </c>
-      <c r="E76" s="430" t="s">
-        <v>923</v>
-      </c>
-      <c r="F76" s="430" t="s">
-        <v>923</v>
-      </c>
-      <c r="G76" s="430">
-        <v>1</v>
-      </c>
-      <c r="H76" s="430"/>
-      <c r="I76" s="430" t="s">
+    <row r="76" spans="1:23" s="344" customFormat="1" ht="20" customHeight="1">
+      <c r="A76" s="479">
+        <v>42739</v>
+      </c>
+      <c r="B76" s="247"/>
+      <c r="C76" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="248" t="s">
+        <v>674</v>
+      </c>
+      <c r="E76" s="248" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F76" s="234" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G76" s="250">
+        <v>5</v>
+      </c>
+      <c r="H76" s="248"/>
+      <c r="I76" s="248" t="s">
         <v>853</v>
       </c>
-      <c r="J76" s="430"/>
-      <c r="K76" s="452" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L76" s="430"/>
-      <c r="M76" s="430"/>
-      <c r="N76" s="430"/>
-      <c r="O76" s="430"/>
-      <c r="P76" s="430"/>
-      <c r="Q76" s="430" t="s">
+      <c r="J76" s="248"/>
+      <c r="K76" s="341"/>
+      <c r="L76" s="342"/>
+      <c r="M76" s="342"/>
+      <c r="N76" s="342"/>
+      <c r="O76" s="342"/>
+      <c r="P76" s="342"/>
+      <c r="Q76" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="R76" s="430" t="s">
+      <c r="R76" s="265" t="s">
         <v>250</v>
       </c>
-      <c r="S76" s="430"/>
-      <c r="T76" s="430"/>
-      <c r="U76" s="430"/>
-      <c r="V76" s="430"/>
-      <c r="W76" s="430"/>
+      <c r="S76" s="249"/>
+      <c r="T76" s="249"/>
+      <c r="U76" s="248"/>
+      <c r="V76" s="248"/>
+      <c r="W76" s="248"/>
     </row>
     <row r="77" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A77" s="432">
@@ -25594,25 +25607,25 @@
         <v>103</v>
       </c>
       <c r="D77" s="430" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E77" s="430" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F77" s="430" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G77" s="430">
-        <v>2</v>
-      </c>
-      <c r="H77" s="430" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="430"/>
+      <c r="I77" s="430" t="s">
         <v>853</v>
       </c>
-      <c r="I77" s="452" t="s">
-        <v>978</v>
-      </c>
       <c r="J77" s="430"/>
-      <c r="K77" s="430"/>
+      <c r="K77" s="452" t="s">
+        <v>1042</v>
+      </c>
       <c r="L77" s="430"/>
       <c r="M77" s="430"/>
       <c r="N77" s="430"/>
@@ -25631,49 +25644,49 @@
       <c r="W77" s="430"/>
     </row>
     <row r="78" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A78" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F78" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="G78" s="49">
-        <v>1</v>
-      </c>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36" t="s">
+      <c r="A78" s="432">
+        <v>42736</v>
+      </c>
+      <c r="B78" s="430"/>
+      <c r="C78" s="430" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="430" t="s">
+        <v>666</v>
+      </c>
+      <c r="E78" s="430" t="s">
+        <v>925</v>
+      </c>
+      <c r="F78" s="430" t="s">
+        <v>925</v>
+      </c>
+      <c r="G78" s="430">
+        <v>2</v>
+      </c>
+      <c r="H78" s="430" t="s">
         <v>853</v>
       </c>
-      <c r="J78" s="36"/>
-      <c r="K78" s="421"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="73"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="73"/>
-      <c r="Q78" s="36" t="s">
+      <c r="I78" s="452" t="s">
+        <v>978</v>
+      </c>
+      <c r="J78" s="430"/>
+      <c r="K78" s="430"/>
+      <c r="L78" s="430"/>
+      <c r="M78" s="430"/>
+      <c r="N78" s="430"/>
+      <c r="O78" s="430"/>
+      <c r="P78" s="430"/>
+      <c r="Q78" s="430" t="s">
         <v>45</v>
       </c>
-      <c r="R78" s="36" t="s">
+      <c r="R78" s="430" t="s">
         <v>250</v>
       </c>
-      <c r="S78" s="50"/>
-      <c r="T78" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
+      <c r="S78" s="430"/>
+      <c r="T78" s="430"/>
+      <c r="U78" s="430"/>
+      <c r="V78" s="430"/>
+      <c r="W78" s="430"/>
     </row>
     <row r="79" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A79" s="35">
@@ -25684,22 +25697,20 @@
         <v>106</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>1043</v>
+        <v>665</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>1043</v>
+        <v>923</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>1044</v>
+        <v>923</v>
       </c>
       <c r="G79" s="49">
         <v>1</v>
       </c>
-      <c r="H79" s="36" t="s">
+      <c r="H79" s="36"/>
+      <c r="I79" s="36" t="s">
         <v>853</v>
-      </c>
-      <c r="I79" s="36" t="s">
-        <v>978</v>
       </c>
       <c r="J79" s="36"/>
       <c r="K79" s="421"/>
@@ -25731,13 +25742,13 @@
         <v>106</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G80" s="49">
         <v>1</v>
@@ -25778,13 +25789,13 @@
         <v>106</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G81" s="49">
         <v>1</v>
@@ -25824,23 +25835,23 @@
       <c r="C82" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="38" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F82" s="38" t="s">
-        <v>1050</v>
+      <c r="D82" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>1048</v>
       </c>
       <c r="G82" s="49">
         <v>1</v>
       </c>
       <c r="H82" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I82" s="36" t="s">
         <v>978</v>
-      </c>
-      <c r="I82" s="38" t="s">
-        <v>891</v>
       </c>
       <c r="J82" s="36"/>
       <c r="K82" s="421"/>
@@ -25872,22 +25883,22 @@
         <v>106</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G83" s="49">
         <v>1</v>
       </c>
-      <c r="H83" s="38" t="s">
+      <c r="H83" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="I83" s="38" t="s">
         <v>891</v>
-      </c>
-      <c r="I83" s="36" t="s">
-        <v>978</v>
       </c>
       <c r="J83" s="36"/>
       <c r="K83" s="421"/>
@@ -25910,95 +25921,97 @@
       <c r="V83" s="36"/>
       <c r="W83" s="36"/>
     </row>
-    <row r="84" spans="1:23" s="285" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A84" s="488">
-        <v>42736</v>
-      </c>
-      <c r="B84" s="488"/>
-      <c r="C84" s="490" t="s">
+    <row r="84" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A84" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G84" s="49">
+        <v>1</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="I84" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="J84" s="36"/>
+      <c r="K84" s="421"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R84" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="S84" s="50"/>
+      <c r="T84" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+    </row>
+    <row r="85" spans="1:23" s="285" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A85" s="488">
+        <v>42736</v>
+      </c>
+      <c r="B85" s="488"/>
+      <c r="C85" s="490" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="490" t="s">
+      <c r="D85" s="490" t="s">
         <v>665</v>
       </c>
-      <c r="E84" s="490" t="s">
+      <c r="E85" s="490" t="s">
         <v>923</v>
       </c>
-      <c r="F84" s="490" t="s">
+      <c r="F85" s="490" t="s">
         <v>923</v>
       </c>
-      <c r="G84" s="496">
+      <c r="G85" s="496">
         <v>1</v>
       </c>
-      <c r="H84" s="490"/>
-      <c r="I84" s="490" t="s">
+      <c r="H85" s="490"/>
+      <c r="I85" s="490" t="s">
         <v>853</v>
       </c>
-      <c r="J84" s="490"/>
-      <c r="K84" s="497"/>
-      <c r="L84" s="498"/>
-      <c r="M84" s="498"/>
-      <c r="N84" s="498"/>
-      <c r="O84" s="498"/>
-      <c r="P84" s="498"/>
-      <c r="Q84" s="490" t="s">
+      <c r="J85" s="490"/>
+      <c r="K85" s="497"/>
+      <c r="L85" s="498"/>
+      <c r="M85" s="498"/>
+      <c r="N85" s="498"/>
+      <c r="O85" s="498"/>
+      <c r="P85" s="498"/>
+      <c r="Q85" s="490" t="s">
         <v>45</v>
       </c>
-      <c r="R84" s="490" t="s">
+      <c r="R85" s="490" t="s">
         <v>250</v>
       </c>
-      <c r="S84" s="491"/>
-      <c r="T84" s="491" t="s">
+      <c r="S85" s="491"/>
+      <c r="T85" s="491" t="s">
         <v>246</v>
       </c>
-      <c r="U84" s="490"/>
-      <c r="V84" s="490"/>
-      <c r="W84" s="490"/>
-    </row>
-    <row r="85" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A85" s="35">
-        <v>42736</v>
-      </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E85" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F85" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="G85" s="49">
-        <v>1</v>
-      </c>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="J85" s="36"/>
-      <c r="K85" s="421"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="73"/>
-      <c r="N85" s="73"/>
-      <c r="O85" s="73"/>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="R85" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="S85" s="50"/>
-      <c r="T85" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
+      <c r="U85" s="490"/>
+      <c r="V85" s="490"/>
+      <c r="W85" s="490"/>
     </row>
     <row r="86" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A86" s="35">
@@ -26009,22 +26022,20 @@
         <v>112</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>1043</v>
+        <v>665</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F86" s="38" t="s">
-        <v>1053</v>
+        <v>923</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>923</v>
       </c>
       <c r="G86" s="49">
         <v>1</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="36"/>
+      <c r="I86" s="36" t="s">
         <v>853</v>
-      </c>
-      <c r="I86" s="38" t="s">
-        <v>978</v>
       </c>
       <c r="J86" s="36"/>
       <c r="K86" s="421"/>
@@ -26052,26 +26063,26 @@
         <v>42736</v>
       </c>
       <c r="B87" s="35"/>
-      <c r="C87" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>1054</v>
+      <c r="C87" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>1043</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G87" s="49">
         <v>1</v>
       </c>
       <c r="H87" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="I87" s="38" t="s">
         <v>978</v>
-      </c>
-      <c r="I87" s="38" t="s">
-        <v>892</v>
       </c>
       <c r="J87" s="36"/>
       <c r="K87" s="421"/>
@@ -26100,23 +26111,25 @@
       </c>
       <c r="B88" s="35"/>
       <c r="C88" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E88" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F88" s="36" t="s">
-        <v>923</v>
+        <v>106</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>1055</v>
       </c>
       <c r="G88" s="49">
         <v>1</v>
       </c>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36" t="s">
-        <v>853</v>
+      <c r="H88" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="I88" s="38" t="s">
+        <v>892</v>
       </c>
       <c r="J88" s="36"/>
       <c r="K88" s="421"/>
@@ -26145,7 +26158,7 @@
       </c>
       <c r="B89" s="35"/>
       <c r="C89" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D89" s="36" t="s">
         <v>665</v>
@@ -26154,7 +26167,7 @@
         <v>923</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>1056</v>
+        <v>923</v>
       </c>
       <c r="G89" s="49">
         <v>1</v>
@@ -26190,25 +26203,23 @@
       </c>
       <c r="B90" s="35"/>
       <c r="C90" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>1058</v>
+        <v>118</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>1056</v>
       </c>
       <c r="G90" s="49">
         <v>1</v>
       </c>
-      <c r="H90" s="36" t="s">
-        <v>978</v>
-      </c>
-      <c r="I90" s="38" t="s">
-        <v>893</v>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36" t="s">
+        <v>853</v>
       </c>
       <c r="J90" s="36"/>
       <c r="K90" s="421"/>
@@ -26240,22 +26251,22 @@
         <v>106</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G91" s="49">
         <v>1</v>
       </c>
-      <c r="H91" s="38" t="s">
+      <c r="H91" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="I91" s="38" t="s">
         <v>893</v>
-      </c>
-      <c r="I91" s="36" t="s">
-        <v>978</v>
       </c>
       <c r="J91" s="36"/>
       <c r="K91" s="421"/>
@@ -26278,10 +26289,57 @@
       <c r="V91" s="36"/>
       <c r="W91" s="36"/>
     </row>
+    <row r="92" spans="1:23" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A92" s="35">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G92" s="49">
+        <v>1</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="J92" s="36"/>
+      <c r="K92" s="421"/>
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="73"/>
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R92" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="S92" s="50"/>
+      <c r="T92" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="72" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G49:G52" xr:uid="{0A892D66-40F3-9844-9998-DE53216B251B}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G50:G53" xr:uid="{0A892D66-40F3-9844-9998-DE53216B251B}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -43837,10 +43895,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -43933,14 +43991,14 @@
         <v>42736</v>
       </c>
       <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>169</v>
+      <c r="D5" s="38" t="s">
+        <v>165</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>585</v>
@@ -43955,7 +44013,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>586</v>
@@ -43973,7 +44031,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>586</v>
@@ -43991,7 +44049,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>586</v>
@@ -44009,7 +44067,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>586</v>
@@ -44027,7 +44085,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>586</v>
@@ -44045,7 +44103,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>586</v>
@@ -44063,7 +44121,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>586</v>
@@ -44081,7 +44139,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>586</v>
@@ -44098,8 +44156,8 @@
       <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>205</v>
+      <c r="D14" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>586</v>
@@ -44117,7 +44175,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>586</v>
@@ -44130,12 +44188,12 @@
       <c r="A16" s="34">
         <v>42736</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>190</v>
+      <c r="D16" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>586</v>
@@ -44145,38 +44203,38 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="95">
+      <c r="A17" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="95">
         <v>42737</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D18" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E18" s="82" t="s">
         <v>586</v>
       </c>
-      <c r="F17" s="130" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A18" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="130" t="s">
         <v>585</v>
       </c>
     </row>
@@ -44189,7 +44247,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>586</v>
@@ -44207,7 +44265,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E20" s="50" t="s">
         <v>586</v>
@@ -44225,7 +44283,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E21" s="50" t="s">
         <v>586</v>
@@ -44239,11 +44297,11 @@
         <v>42736</v>
       </c>
       <c r="B22" s="50"/>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E22" s="50" t="s">
         <v>586</v>
@@ -44260,8 +44318,8 @@
       <c r="C23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>224</v>
+      <c r="D23" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>586</v>
@@ -44279,7 +44337,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E24" s="50" t="s">
         <v>586</v>
@@ -44297,10 +44355,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F25" s="74" t="s">
         <v>585</v>
@@ -44315,7 +44373,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E26" s="50" t="s">
         <v>1237</v>
@@ -44333,10 +44391,10 @@
         <v>41</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>586</v>
+        <v>1237</v>
       </c>
       <c r="F27" s="74" t="s">
         <v>585</v>
@@ -44351,7 +44409,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="E28" s="50" t="s">
         <v>586</v>
@@ -44364,15 +44422,15 @@
       <c r="A29" s="34">
         <v>42736</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F29" s="74" t="s">
         <v>585</v>
@@ -44387,10 +44445,10 @@
         <v>41</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F30" s="74" t="s">
         <v>585</v>
@@ -44401,11 +44459,11 @@
         <v>42736</v>
       </c>
       <c r="B31" s="50"/>
-      <c r="C31" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>234</v>
+      <c r="C31" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="E31" s="50" t="s">
         <v>586</v>
@@ -44418,15 +44476,15 @@
       <c r="A32" s="34">
         <v>42736</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>236</v>
+        <v>41</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F32" s="74" t="s">
         <v>585</v>
@@ -44436,12 +44494,12 @@
       <c r="A33" s="34">
         <v>42736</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>586</v>
@@ -44455,11 +44513,11 @@
         <v>42736</v>
       </c>
       <c r="B34" s="35"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>240</v>
+      <c r="D34" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="E34" s="50" t="s">
         <v>586</v>
@@ -44472,12 +44530,12 @@
       <c r="A35" s="34">
         <v>42736</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="E35" s="50" t="s">
         <v>586</v>
@@ -44495,7 +44553,7 @@
         <v>46</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="E36" s="50" t="s">
         <v>586</v>
@@ -44508,12 +44566,12 @@
       <c r="A37" s="34">
         <v>42736</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="128" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>247</v>
+      <c r="B37" s="50"/>
+      <c r="C37" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E37" s="50" t="s">
         <v>586</v>
@@ -44527,11 +44585,11 @@
         <v>42736</v>
       </c>
       <c r="B38" s="35"/>
-      <c r="C38" s="128" t="s">
-        <v>49</v>
+      <c r="C38" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>586</v>
@@ -44549,7 +44607,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E39" s="50" t="s">
         <v>586</v>
@@ -44562,12 +44620,12 @@
       <c r="A40" s="34">
         <v>42736</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="128" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>586</v>
@@ -44580,12 +44638,12 @@
       <c r="A41" s="34">
         <v>42736</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="86" t="s">
-        <v>251</v>
+      <c r="D41" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="E41" s="50" t="s">
         <v>586</v>
@@ -44598,12 +44656,12 @@
       <c r="A42" s="34">
         <v>42736</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="121" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>217</v>
+      <c r="D42" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>586</v>
@@ -44617,11 +44675,11 @@
         <v>42736</v>
       </c>
       <c r="B43" s="50"/>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="51" t="s">
-        <v>256</v>
+      <c r="D43" s="86" t="s">
+        <v>251</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>586</v>
@@ -44634,12 +44692,12 @@
       <c r="A44" s="34">
         <v>42736</v>
       </c>
-      <c r="B44" s="50"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>259</v>
+      <c r="D44" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>586</v>
@@ -44656,8 +44714,8 @@
       <c r="C45" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>262</v>
+      <c r="D45" s="51" t="s">
+        <v>256</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>586</v>
@@ -44675,7 +44733,7 @@
         <v>49</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>586</v>
@@ -44690,10 +44748,10 @@
       </c>
       <c r="B47" s="50"/>
       <c r="C47" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>266</v>
+        <v>49</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>262</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>586</v>
@@ -44708,10 +44766,10 @@
       </c>
       <c r="B48" s="50"/>
       <c r="C48" s="121" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>586</v>
@@ -44728,8 +44786,8 @@
       <c r="C49" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>270</v>
+      <c r="D49" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>586</v>
@@ -44742,12 +44800,12 @@
       <c r="A50" s="34">
         <v>42736</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="235" t="s">
-        <v>273</v>
+      <c r="B50" s="50"/>
+      <c r="C50" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>586</v>
@@ -44760,12 +44818,12 @@
       <c r="A51" s="34">
         <v>42736</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="234" t="s">
-        <v>275</v>
+      <c r="B51" s="50"/>
+      <c r="C51" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>586</v>
@@ -44782,8 +44840,8 @@
       <c r="C52" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="234" t="s">
-        <v>12</v>
+      <c r="D52" s="235" t="s">
+        <v>273</v>
       </c>
       <c r="E52" s="50" t="s">
         <v>586</v>
@@ -44801,7 +44859,7 @@
         <v>85</v>
       </c>
       <c r="D53" s="234" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E53" s="50" t="s">
         <v>586</v>
@@ -44814,12 +44872,12 @@
       <c r="A54" s="34">
         <v>42736</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>280</v>
+      <c r="B54" s="35"/>
+      <c r="C54" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="234" t="s">
+        <v>12</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>586</v>
@@ -44833,11 +44891,11 @@
         <v>42736</v>
       </c>
       <c r="B55" s="35"/>
-      <c r="C55" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>282</v>
+      <c r="C55" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="234" t="s">
+        <v>277</v>
       </c>
       <c r="E55" s="50" t="s">
         <v>586</v>
@@ -44850,12 +44908,12 @@
       <c r="A56" s="34">
         <v>42736</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E56" s="50" t="s">
         <v>586</v>
@@ -44873,7 +44931,7 @@
         <v>52</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>586</v>
@@ -44891,7 +44949,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>586</v>
@@ -44909,7 +44967,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E59" s="50" t="s">
         <v>586</v>
@@ -44927,7 +44985,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E60" s="50" t="s">
         <v>586</v>
@@ -44945,7 +45003,7 @@
         <v>52</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E61" s="50" t="s">
         <v>586</v>
@@ -44963,7 +45021,7 @@
         <v>52</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E62" s="50" t="s">
         <v>586</v>
@@ -44981,7 +45039,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>586</v>
@@ -44998,8 +45056,8 @@
       <c r="C64" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="36" t="s">
-        <v>217</v>
+      <c r="D64" s="38" t="s">
+        <v>297</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>586</v>
@@ -45014,10 +45072,10 @@
       </c>
       <c r="B65" s="35"/>
       <c r="C65" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E65" s="50" t="s">
         <v>586</v>
@@ -45032,10 +45090,10 @@
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>282</v>
+        <v>52</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E66" s="50" t="s">
         <v>586</v>
@@ -45053,7 +45111,7 @@
         <v>55</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E67" s="50" t="s">
         <v>586</v>
@@ -45071,7 +45129,7 @@
         <v>55</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E68" s="50" t="s">
         <v>586</v>
@@ -45088,8 +45146,8 @@
       <c r="C69" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>217</v>
+      <c r="D69" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>586</v>
@@ -45103,11 +45161,11 @@
         <v>42736</v>
       </c>
       <c r="B70" s="35"/>
-      <c r="C70" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>165</v>
+      <c r="C70" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="E70" s="50" t="s">
         <v>586</v>
@@ -45121,8 +45179,8 @@
         <v>42736</v>
       </c>
       <c r="B71" s="35"/>
-      <c r="C71" s="36" t="s">
-        <v>58</v>
+      <c r="C71" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D71" s="36" t="s">
         <v>217</v>
@@ -45140,7 +45198,7 @@
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D72" s="36" t="s">
         <v>165</v>
@@ -45158,10 +45216,10 @@
       </c>
       <c r="B73" s="35"/>
       <c r="C73" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="E73" s="50" t="s">
         <v>586</v>
@@ -45178,8 +45236,8 @@
       <c r="C74" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="38" t="s">
-        <v>282</v>
+      <c r="D74" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="E74" s="50" t="s">
         <v>586</v>
@@ -45196,8 +45254,8 @@
       <c r="C75" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="38" t="s">
-        <v>284</v>
+      <c r="D75" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>586</v>
@@ -45214,8 +45272,8 @@
       <c r="C76" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>192</v>
+      <c r="D76" s="38" t="s">
+        <v>282</v>
       </c>
       <c r="E76" s="50" t="s">
         <v>586</v>
@@ -45232,8 +45290,8 @@
       <c r="C77" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="36" t="s">
-        <v>178</v>
+      <c r="D77" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="E77" s="50" t="s">
         <v>586</v>
@@ -45251,7 +45309,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E78" s="50" t="s">
         <v>586</v>
@@ -45269,7 +45327,7 @@
         <v>61</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E79" s="50" t="s">
         <v>586</v>
@@ -45287,7 +45345,7 @@
         <v>61</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="E80" s="50" t="s">
         <v>586</v>
@@ -45305,7 +45363,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>586</v>
@@ -45323,7 +45381,7 @@
         <v>61</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E82" s="50" t="s">
         <v>586</v>
@@ -45340,8 +45398,8 @@
       <c r="C83" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="38" t="s">
-        <v>334</v>
+      <c r="D83" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="E83" s="50" t="s">
         <v>586</v>
@@ -45358,8 +45416,8 @@
       <c r="C84" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D84" s="38" t="s">
-        <v>184</v>
+      <c r="D84" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E84" s="50" t="s">
         <v>586</v>
@@ -45377,7 +45435,7 @@
         <v>61</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>172</v>
+        <v>334</v>
       </c>
       <c r="E85" s="50" t="s">
         <v>586</v>
@@ -45395,7 +45453,7 @@
         <v>61</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E86" s="50" t="s">
         <v>586</v>
@@ -45413,7 +45471,7 @@
         <v>61</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>586</v>
@@ -45431,7 +45489,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="E88" s="50" t="s">
         <v>586</v>
@@ -45449,7 +45507,7 @@
         <v>61</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E89" s="50" t="s">
         <v>586</v>
@@ -45467,7 +45525,7 @@
         <v>61</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E90" s="50" t="s">
         <v>586</v>
@@ -45485,7 +45543,7 @@
         <v>61</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>586</v>
@@ -45503,7 +45561,7 @@
         <v>61</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E92" s="50" t="s">
         <v>586</v>
@@ -45521,7 +45579,7 @@
         <v>61</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>586</v>
@@ -45539,7 +45597,7 @@
         <v>61</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E94" s="50" t="s">
         <v>586</v>
@@ -45557,7 +45615,7 @@
         <v>61</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E95" s="50" t="s">
         <v>586</v>
@@ -45575,7 +45633,7 @@
         <v>61</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E96" s="50" t="s">
         <v>586</v>
@@ -45593,7 +45651,7 @@
         <v>61</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E97" s="50" t="s">
         <v>586</v>
@@ -45611,7 +45669,7 @@
         <v>61</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E98" s="50" t="s">
         <v>586</v>
@@ -45629,7 +45687,7 @@
         <v>61</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E99" s="50" t="s">
         <v>586</v>
@@ -45647,7 +45705,7 @@
         <v>61</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="E100" s="50" t="s">
         <v>586</v>
@@ -45664,8 +45722,8 @@
       <c r="C101" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="36" t="s">
-        <v>286</v>
+      <c r="D101" s="38" t="s">
+        <v>339</v>
       </c>
       <c r="E101" s="50" t="s">
         <v>586</v>
@@ -45682,8 +45740,8 @@
       <c r="C102" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D102" s="36" t="s">
-        <v>343</v>
+      <c r="D102" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="E102" s="50" t="s">
         <v>586</v>
@@ -45701,7 +45759,7 @@
         <v>61</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E103" s="50" t="s">
         <v>586</v>
@@ -45719,7 +45777,7 @@
         <v>61</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E104" s="50" t="s">
         <v>586</v>
@@ -45736,8 +45794,8 @@
       <c r="C105" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="38" t="s">
-        <v>292</v>
+      <c r="D105" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>586</v>
@@ -45754,8 +45812,8 @@
       <c r="C106" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="38" t="s">
-        <v>347</v>
+      <c r="D106" s="36" t="s">
+        <v>345</v>
       </c>
       <c r="E106" s="50" t="s">
         <v>586</v>
@@ -45773,7 +45831,7 @@
         <v>61</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="E107" s="50" t="s">
         <v>586</v>
@@ -45791,7 +45849,7 @@
         <v>61</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E108" s="50" t="s">
         <v>586</v>
@@ -45809,7 +45867,7 @@
         <v>61</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E109" s="50" t="s">
         <v>586</v>
@@ -45827,7 +45885,7 @@
         <v>61</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="E110" s="50" t="s">
         <v>586</v>
@@ -45844,8 +45902,8 @@
       <c r="C111" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D111" s="36" t="s">
-        <v>355</v>
+      <c r="D111" s="38" t="s">
+        <v>353</v>
       </c>
       <c r="E111" s="50" t="s">
         <v>586</v>
@@ -45862,8 +45920,8 @@
       <c r="C112" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D112" s="36" t="s">
-        <v>357</v>
+      <c r="D112" s="38" t="s">
+        <v>331</v>
       </c>
       <c r="E112" s="50" t="s">
         <v>586</v>
@@ -45877,11 +45935,11 @@
         <v>42736</v>
       </c>
       <c r="B113" s="35"/>
-      <c r="C113" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>247</v>
+      <c r="C113" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>355</v>
       </c>
       <c r="E113" s="50" t="s">
         <v>586</v>
@@ -45895,11 +45953,11 @@
         <v>42736</v>
       </c>
       <c r="B114" s="35"/>
-      <c r="C114" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>244</v>
+      <c r="C114" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="E114" s="50" t="s">
         <v>586</v>
@@ -45917,7 +45975,7 @@
         <v>64</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E115" s="50" t="s">
         <v>586</v>
@@ -45930,12 +45988,12 @@
       <c r="A116" s="34">
         <v>42736</v>
       </c>
-      <c r="B116" s="50"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="128" t="s">
         <v>64</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E116" s="50" t="s">
         <v>586</v>
@@ -45948,12 +46006,12 @@
       <c r="A117" s="34">
         <v>42736</v>
       </c>
-      <c r="B117" s="39"/>
+      <c r="B117" s="35"/>
       <c r="C117" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="D117" s="128" t="s">
-        <v>217</v>
+      <c r="D117" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="E117" s="50" t="s">
         <v>586</v>
@@ -45970,8 +46028,8 @@
       <c r="C118" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="128" t="s">
-        <v>256</v>
+      <c r="D118" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="E118" s="50" t="s">
         <v>586</v>
@@ -45984,12 +46042,12 @@
       <c r="A119" s="34">
         <v>42736</v>
       </c>
-      <c r="B119" s="50"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="128" t="s">
         <v>64</v>
       </c>
       <c r="D119" s="128" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="E119" s="50" t="s">
         <v>586</v>
@@ -46002,12 +46060,12 @@
       <c r="A120" s="34">
         <v>42736</v>
       </c>
-      <c r="B120" s="35"/>
-      <c r="C120" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>165</v>
+      <c r="B120" s="50"/>
+      <c r="C120" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="128" t="s">
+        <v>256</v>
       </c>
       <c r="E120" s="50" t="s">
         <v>586</v>
@@ -46020,12 +46078,12 @@
       <c r="A121" s="34">
         <v>42736</v>
       </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D121" s="36" t="s">
-        <v>165</v>
+      <c r="B121" s="50"/>
+      <c r="C121" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="128" t="s">
+        <v>259</v>
       </c>
       <c r="E121" s="50" t="s">
         <v>586</v>
@@ -46039,11 +46097,11 @@
         <v>42736</v>
       </c>
       <c r="B122" s="35"/>
-      <c r="C122" s="38" t="s">
-        <v>70</v>
+      <c r="C122" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E122" s="50" t="s">
         <v>586</v>
@@ -46057,14 +46115,14 @@
         <v>42736</v>
       </c>
       <c r="B123" s="35"/>
-      <c r="C123" s="36" t="s">
-        <v>73</v>
+      <c r="C123" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D123" s="36" t="s">
-        <v>363</v>
+        <v>165</v>
       </c>
       <c r="E123" s="50" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F123" s="74" t="s">
         <v>585</v>
@@ -46075,17 +46133,17 @@
         <v>42736</v>
       </c>
       <c r="B124" s="35"/>
-      <c r="C124" s="36" t="s">
-        <v>73</v>
+      <c r="C124" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="E124" s="50" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="F124" s="74" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -46093,14 +46151,14 @@
         <v>42736</v>
       </c>
       <c r="B125" s="35"/>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E125" s="50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F125" s="74" t="s">
         <v>585</v>
@@ -46111,17 +46169,17 @@
         <v>42736</v>
       </c>
       <c r="B126" s="35"/>
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D126" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E126" s="50" t="s">
         <v>602</v>
       </c>
       <c r="F126" s="74" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -46136,7 +46194,7 @@
         <v>359</v>
       </c>
       <c r="E127" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F127" s="74" t="s">
         <v>585</v>
@@ -46154,7 +46212,7 @@
         <v>362</v>
       </c>
       <c r="E128" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F128" s="74" t="s">
         <v>585</v>
@@ -46166,13 +46224,13 @@
       </c>
       <c r="B129" s="35"/>
       <c r="C129" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D129" s="38" t="s">
-        <v>302</v>
+        <v>73</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>359</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F129" s="74" t="s">
         <v>585</v>
@@ -46184,51 +46242,51 @@
       </c>
       <c r="B130" s="35"/>
       <c r="C130" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="38" t="s">
-        <v>280</v>
+        <v>73</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>362</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F130" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A131" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B131" s="52"/>
-      <c r="C131" s="43" t="s">
+      <c r="A131" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B131" s="35"/>
+      <c r="C131" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D131" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E131" s="55" t="s">
+      <c r="D131" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E131" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F131" s="79" t="s">
+      <c r="F131" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A132" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D132" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E132" s="55" t="s">
+      <c r="A132" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B132" s="35"/>
+      <c r="C132" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F132" s="79" t="s">
+      <c r="F132" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46238,10 +46296,10 @@
       </c>
       <c r="B133" s="52"/>
       <c r="C133" s="43" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D133" s="43" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="E133" s="55" t="s">
         <v>586</v>
@@ -46259,7 +46317,7 @@
         <v>88</v>
       </c>
       <c r="D134" s="43" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E134" s="55" t="s">
         <v>586</v>
@@ -46277,7 +46335,7 @@
         <v>88</v>
       </c>
       <c r="D135" s="43" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E135" s="55" t="s">
         <v>586</v>
@@ -46295,7 +46353,7 @@
         <v>88</v>
       </c>
       <c r="D136" s="43" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E136" s="55" t="s">
         <v>586</v>
@@ -46313,7 +46371,7 @@
         <v>88</v>
       </c>
       <c r="D137" s="43" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E137" s="55" t="s">
         <v>586</v>
@@ -46331,7 +46389,7 @@
         <v>88</v>
       </c>
       <c r="D138" s="43" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E138" s="55" t="s">
         <v>586</v>
@@ -46349,7 +46407,7 @@
         <v>88</v>
       </c>
       <c r="D139" s="43" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E139" s="55" t="s">
         <v>586</v>
@@ -46367,7 +46425,7 @@
         <v>88</v>
       </c>
       <c r="D140" s="43" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E140" s="55" t="s">
         <v>586</v>
@@ -46385,7 +46443,7 @@
         <v>88</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E141" s="55" t="s">
         <v>586</v>
@@ -46403,7 +46461,7 @@
         <v>88</v>
       </c>
       <c r="D142" s="43" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E142" s="55" t="s">
         <v>586</v>
@@ -46416,12 +46474,12 @@
       <c r="A143" s="41">
         <v>42736</v>
       </c>
-      <c r="B143" s="35"/>
-      <c r="C143" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D143" s="38" t="s">
-        <v>366</v>
+      <c r="B143" s="52"/>
+      <c r="C143" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D143" s="43" t="s">
+        <v>210</v>
       </c>
       <c r="E143" s="55" t="s">
         <v>586</v>
@@ -46434,12 +46492,12 @@
       <c r="A144" s="41">
         <v>42736</v>
       </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D144" s="38" t="s">
-        <v>172</v>
+      <c r="B144" s="52"/>
+      <c r="C144" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D144" s="43" t="s">
+        <v>213</v>
       </c>
       <c r="E144" s="55" t="s">
         <v>586</v>
@@ -46457,7 +46515,7 @@
         <v>79</v>
       </c>
       <c r="D145" s="38" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E145" s="55" t="s">
         <v>586</v>
@@ -46475,7 +46533,7 @@
         <v>79</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>374</v>
+        <v>172</v>
       </c>
       <c r="E146" s="55" t="s">
         <v>586</v>
@@ -46493,7 +46551,7 @@
         <v>79</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E147" s="55" t="s">
         <v>586</v>
@@ -46511,7 +46569,7 @@
         <v>79</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E148" s="55" t="s">
         <v>586</v>
@@ -46529,7 +46587,7 @@
         <v>79</v>
       </c>
       <c r="D149" s="38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E149" s="55" t="s">
         <v>586</v>
@@ -46547,7 +46605,7 @@
         <v>79</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E150" s="55" t="s">
         <v>586</v>
@@ -46565,7 +46623,7 @@
         <v>79</v>
       </c>
       <c r="D151" s="38" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E151" s="55" t="s">
         <v>586</v>
@@ -46578,12 +46636,12 @@
       <c r="A152" s="41">
         <v>42736</v>
       </c>
-      <c r="B152" s="52"/>
+      <c r="B152" s="35"/>
       <c r="C152" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D152" s="43" t="s">
-        <v>387</v>
+      <c r="D152" s="38" t="s">
+        <v>382</v>
       </c>
       <c r="E152" s="55" t="s">
         <v>586</v>
@@ -46593,38 +46651,38 @@
       </c>
     </row>
     <row r="153" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A153" s="34">
+      <c r="A153" s="41">
         <v>42736</v>
       </c>
       <c r="B153" s="35"/>
       <c r="C153" s="38" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E153" s="50" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F153" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="E153" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="F153" s="79" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A154" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B154" s="35"/>
+      <c r="A154" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B154" s="52"/>
       <c r="C154" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D154" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E154" s="50" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F154" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E154" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="F154" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46637,7 +46695,7 @@
         <v>41</v>
       </c>
       <c r="D155" s="38" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E155" s="50" t="s">
         <v>1239</v>
@@ -46655,7 +46713,7 @@
         <v>41</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E156" s="50" t="s">
         <v>1239</v>
@@ -46673,7 +46731,7 @@
         <v>41</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E157" s="50" t="s">
         <v>1239</v>
@@ -46691,7 +46749,7 @@
         <v>41</v>
       </c>
       <c r="D158" s="38" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E158" s="50" t="s">
         <v>1239</v>
@@ -46709,7 +46767,7 @@
         <v>41</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E159" s="50" t="s">
         <v>1239</v>
@@ -46727,7 +46785,7 @@
         <v>41</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E160" s="50" t="s">
         <v>1239</v>
@@ -46745,7 +46803,7 @@
         <v>41</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E161" s="50" t="s">
         <v>1239</v>
@@ -46763,7 +46821,7 @@
         <v>41</v>
       </c>
       <c r="D162" s="38" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E162" s="50" t="s">
         <v>1239</v>
@@ -46781,7 +46839,7 @@
         <v>41</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E163" s="50" t="s">
         <v>1239</v>
@@ -46799,7 +46857,7 @@
         <v>41</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E164" s="50" t="s">
         <v>1239</v>
@@ -46809,20 +46867,20 @@
       </c>
     </row>
     <row r="165" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A165" s="95">
-        <v>42737</v>
-      </c>
-      <c r="B165" s="81"/>
+      <c r="A165" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B165" s="35"/>
       <c r="C165" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E165" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F165" s="130" t="s">
+      <c r="F165" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46835,7 +46893,7 @@
         <v>41</v>
       </c>
       <c r="D166" s="38" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E166" s="50" t="s">
         <v>1239</v>
@@ -46845,20 +46903,20 @@
       </c>
     </row>
     <row r="167" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A167" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B167" s="35"/>
+      <c r="A167" s="95">
+        <v>42737</v>
+      </c>
+      <c r="B167" s="81"/>
       <c r="C167" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E167" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F167" s="74" t="s">
+      <c r="F167" s="130" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46871,7 +46929,7 @@
         <v>41</v>
       </c>
       <c r="D168" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E168" s="50" t="s">
         <v>1239</v>
@@ -46889,7 +46947,7 @@
         <v>41</v>
       </c>
       <c r="D169" s="38" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E169" s="50" t="s">
         <v>1239</v>
@@ -46907,7 +46965,7 @@
         <v>41</v>
       </c>
       <c r="D170" s="38" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E170" s="50" t="s">
         <v>1239</v>
@@ -46925,7 +46983,7 @@
         <v>41</v>
       </c>
       <c r="D171" s="38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E171" s="50" t="s">
         <v>1239</v>
@@ -46935,36 +46993,36 @@
       </c>
     </row>
     <row r="172" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A172" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B172" s="52"/>
-      <c r="C172" s="43" t="s">
+      <c r="A172" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B172" s="35"/>
+      <c r="C172" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D172" s="43" t="s">
-        <v>227</v>
+      <c r="D172" s="38" t="s">
+        <v>222</v>
       </c>
       <c r="E172" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F172" s="79" t="s">
+      <c r="F172" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A173" s="41">
+      <c r="A173" s="34">
         <v>42736</v>
       </c>
       <c r="B173" s="35"/>
       <c r="C173" s="38" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D173" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E173" s="39" t="s">
-        <v>1238</v>
+        <v>224</v>
+      </c>
+      <c r="E173" s="50" t="s">
+        <v>1239</v>
       </c>
       <c r="F173" s="74" t="s">
         <v>585</v>
@@ -46974,17 +47032,17 @@
       <c r="A174" s="41">
         <v>42736</v>
       </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D174" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E174" s="39" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F174" s="74" t="s">
+      <c r="B174" s="52"/>
+      <c r="C174" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E174" s="50" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F174" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46997,7 +47055,7 @@
         <v>91</v>
       </c>
       <c r="D175" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E175" s="39" t="s">
         <v>1238</v>
@@ -47015,7 +47073,7 @@
         <v>91</v>
       </c>
       <c r="D176" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E176" s="39" t="s">
         <v>1238</v>
@@ -47033,7 +47091,7 @@
         <v>91</v>
       </c>
       <c r="D177" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E177" s="39" t="s">
         <v>1238</v>
@@ -47051,7 +47109,7 @@
         <v>91</v>
       </c>
       <c r="D178" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E178" s="39" t="s">
         <v>1238</v>
@@ -47064,17 +47122,17 @@
       <c r="A179" s="41">
         <v>42736</v>
       </c>
-      <c r="B179" s="52"/>
-      <c r="C179" s="43" t="s">
+      <c r="B179" s="35"/>
+      <c r="C179" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D179" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="E179" s="42" t="s">
+      <c r="D179" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E179" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="F179" s="79" t="s">
+      <c r="F179" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47082,53 +47140,53 @@
       <c r="A180" s="41">
         <v>42736</v>
       </c>
-      <c r="B180" s="52"/>
-      <c r="C180" s="43" t="s">
+      <c r="B180" s="35"/>
+      <c r="C180" s="38" t="s">
         <v>91</v>
       </c>
       <c r="D180" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E180" s="39" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F180" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A181" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B181" s="52"/>
+      <c r="C181" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D181" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E181" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F181" s="79" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A182" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B182" s="52"/>
+      <c r="C182" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D182" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="E180" s="42" t="s">
+      <c r="E182" s="42" t="s">
         <v>1238</v>
       </c>
-      <c r="F180" s="79" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="20" customHeight="1">
-      <c r="A181" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B181" s="35"/>
-      <c r="C181" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D181" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E181" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F181" s="74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="20" customHeight="1">
-      <c r="A182" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B182" s="35"/>
-      <c r="C182" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D182" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E182" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F182" s="74" t="s">
+      <c r="F182" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47141,7 +47199,7 @@
         <v>91</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E183" s="39" t="s">
         <v>1237</v>
@@ -47159,7 +47217,7 @@
         <v>91</v>
       </c>
       <c r="D184" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E184" s="39" t="s">
         <v>1237</v>
@@ -47177,7 +47235,7 @@
         <v>91</v>
       </c>
       <c r="D185" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E185" s="39" t="s">
         <v>1237</v>
@@ -47195,7 +47253,7 @@
         <v>91</v>
       </c>
       <c r="D186" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E186" s="39" t="s">
         <v>1237</v>
@@ -47213,7 +47271,7 @@
         <v>91</v>
       </c>
       <c r="D187" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E187" s="39" t="s">
         <v>1237</v>
@@ -47231,7 +47289,7 @@
         <v>91</v>
       </c>
       <c r="D188" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E188" s="39" t="s">
         <v>1237</v>
@@ -47249,10 +47307,10 @@
         <v>91</v>
       </c>
       <c r="D189" s="38" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E189" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F189" s="74" t="s">
         <v>585</v>
@@ -47267,10 +47325,10 @@
         <v>91</v>
       </c>
       <c r="D190" s="38" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E190" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F190" s="74" t="s">
         <v>585</v>
@@ -47285,7 +47343,7 @@
         <v>91</v>
       </c>
       <c r="D191" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E191" s="39" t="s">
         <v>1240</v>
@@ -47303,7 +47361,7 @@
         <v>91</v>
       </c>
       <c r="D192" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E192" s="39" t="s">
         <v>1240</v>
@@ -47321,10 +47379,10 @@
         <v>91</v>
       </c>
       <c r="D193" s="38" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="E193" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F193" s="74" t="s">
         <v>585</v>
@@ -47339,10 +47397,10 @@
         <v>91</v>
       </c>
       <c r="D194" s="38" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E194" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F194" s="74" t="s">
         <v>585</v>
@@ -47357,7 +47415,7 @@
         <v>91</v>
       </c>
       <c r="D195" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E195" s="39" t="s">
         <v>586</v>
@@ -47375,7 +47433,7 @@
         <v>91</v>
       </c>
       <c r="D196" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E196" s="39" t="s">
         <v>586</v>
@@ -47393,7 +47451,7 @@
         <v>91</v>
       </c>
       <c r="D197" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E197" s="39" t="s">
         <v>586</v>
@@ -47411,7 +47469,7 @@
         <v>91</v>
       </c>
       <c r="D198" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E198" s="39" t="s">
         <v>586</v>
@@ -47429,7 +47487,7 @@
         <v>91</v>
       </c>
       <c r="D199" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E199" s="39" t="s">
         <v>586</v>
@@ -47447,7 +47505,7 @@
         <v>91</v>
       </c>
       <c r="D200" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E200" s="39" t="s">
         <v>586</v>
@@ -47462,13 +47520,13 @@
       </c>
       <c r="B201" s="35"/>
       <c r="C201" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D201" s="38" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="E201" s="39" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F201" s="74" t="s">
         <v>585</v>
@@ -47480,13 +47538,13 @@
       </c>
       <c r="B202" s="35"/>
       <c r="C202" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D202" s="38" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E202" s="39" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F202" s="74" t="s">
         <v>585</v>
@@ -47501,7 +47559,7 @@
         <v>94</v>
       </c>
       <c r="D203" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E203" s="39" t="s">
         <v>1238</v>
@@ -47519,7 +47577,7 @@
         <v>94</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E204" s="39" t="s">
         <v>1238</v>
@@ -47537,7 +47595,7 @@
         <v>94</v>
       </c>
       <c r="D205" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E205" s="39" t="s">
         <v>1238</v>
@@ -47555,7 +47613,7 @@
         <v>94</v>
       </c>
       <c r="D206" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E206" s="39" t="s">
         <v>1238</v>
@@ -47573,7 +47631,7 @@
         <v>94</v>
       </c>
       <c r="D207" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E207" s="39" t="s">
         <v>1238</v>
@@ -47582,21 +47640,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="208" spans="1:6" ht="20" customHeight="1">
       <c r="A208" s="41">
         <v>42736</v>
       </c>
-      <c r="B208" s="52"/>
+      <c r="B208" s="35"/>
       <c r="C208" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D208" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="E208" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="E208" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="F208" s="79" t="s">
+      <c r="F208" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47609,30 +47667,30 @@
         <v>94</v>
       </c>
       <c r="D209" s="38" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="E209" s="39" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F209" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="20" customHeight="1">
+    <row r="210" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A210" s="41">
         <v>42736</v>
       </c>
-      <c r="B210" s="35"/>
+      <c r="B210" s="52"/>
       <c r="C210" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D210" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E210" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F210" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E210" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F210" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47645,7 +47703,7 @@
         <v>94</v>
       </c>
       <c r="D211" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E211" s="39" t="s">
         <v>1237</v>
@@ -47663,7 +47721,7 @@
         <v>94</v>
       </c>
       <c r="D212" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E212" s="39" t="s">
         <v>1237</v>
@@ -47681,7 +47739,7 @@
         <v>94</v>
       </c>
       <c r="D213" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E213" s="39" t="s">
         <v>1237</v>
@@ -47699,7 +47757,7 @@
         <v>94</v>
       </c>
       <c r="D214" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E214" s="39" t="s">
         <v>1237</v>
@@ -47717,7 +47775,7 @@
         <v>94</v>
       </c>
       <c r="D215" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E215" s="39" t="s">
         <v>1237</v>
@@ -47735,7 +47793,7 @@
         <v>94</v>
       </c>
       <c r="D216" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E216" s="39" t="s">
         <v>1237</v>
@@ -47753,10 +47811,10 @@
         <v>94</v>
       </c>
       <c r="D217" s="38" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E217" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F217" s="74" t="s">
         <v>585</v>
@@ -47771,10 +47829,10 @@
         <v>94</v>
       </c>
       <c r="D218" s="38" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E218" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F218" s="74" t="s">
         <v>585</v>
@@ -47789,7 +47847,7 @@
         <v>94</v>
       </c>
       <c r="D219" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E219" s="39" t="s">
         <v>1240</v>
@@ -47807,7 +47865,7 @@
         <v>94</v>
       </c>
       <c r="D220" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E220" s="39" t="s">
         <v>1240</v>
@@ -47825,10 +47883,10 @@
         <v>94</v>
       </c>
       <c r="D221" s="38" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="E221" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F221" s="74" t="s">
         <v>585</v>
@@ -47843,10 +47901,10 @@
         <v>94</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E222" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F222" s="74" t="s">
         <v>585</v>
@@ -47861,7 +47919,7 @@
         <v>94</v>
       </c>
       <c r="D223" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E223" s="39" t="s">
         <v>586</v>
@@ -47879,7 +47937,7 @@
         <v>94</v>
       </c>
       <c r="D224" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E224" s="39" t="s">
         <v>586</v>
@@ -47897,7 +47955,7 @@
         <v>94</v>
       </c>
       <c r="D225" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E225" s="39" t="s">
         <v>586</v>
@@ -47915,7 +47973,7 @@
         <v>94</v>
       </c>
       <c r="D226" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E226" s="39" t="s">
         <v>586</v>
@@ -47933,7 +47991,7 @@
         <v>94</v>
       </c>
       <c r="D227" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E227" s="39" t="s">
         <v>586</v>
@@ -47951,7 +48009,7 @@
         <v>94</v>
       </c>
       <c r="D228" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E228" s="39" t="s">
         <v>586</v>
@@ -47966,13 +48024,13 @@
       </c>
       <c r="B229" s="35"/>
       <c r="C229" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D229" s="38" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="E229" s="39" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F229" s="74" t="s">
         <v>585</v>
@@ -47984,13 +48042,13 @@
       </c>
       <c r="B230" s="35"/>
       <c r="C230" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D230" s="38" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E230" s="39" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F230" s="74" t="s">
         <v>585</v>
@@ -48005,7 +48063,7 @@
         <v>97</v>
       </c>
       <c r="D231" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E231" s="39" t="s">
         <v>1237</v>
@@ -48023,7 +48081,7 @@
         <v>97</v>
       </c>
       <c r="D232" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E232" s="39" t="s">
         <v>1237</v>
@@ -48041,7 +48099,7 @@
         <v>97</v>
       </c>
       <c r="D233" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E233" s="39" t="s">
         <v>1237</v>
@@ -48059,7 +48117,7 @@
         <v>97</v>
       </c>
       <c r="D234" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E234" s="39" t="s">
         <v>1237</v>
@@ -48077,7 +48135,7 @@
         <v>97</v>
       </c>
       <c r="D235" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E235" s="39" t="s">
         <v>1237</v>
@@ -48095,7 +48153,7 @@
         <v>97</v>
       </c>
       <c r="D236" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E236" s="39" t="s">
         <v>1237</v>
@@ -48113,10 +48171,10 @@
         <v>97</v>
       </c>
       <c r="D237" s="38" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E237" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F237" s="74" t="s">
         <v>585</v>
@@ -48131,10 +48189,10 @@
         <v>97</v>
       </c>
       <c r="D238" s="38" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E238" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F238" s="74" t="s">
         <v>585</v>
@@ -48149,7 +48207,7 @@
         <v>97</v>
       </c>
       <c r="D239" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E239" s="39" t="s">
         <v>1240</v>
@@ -48167,7 +48225,7 @@
         <v>97</v>
       </c>
       <c r="D240" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E240" s="39" t="s">
         <v>1240</v>
@@ -48185,10 +48243,10 @@
         <v>97</v>
       </c>
       <c r="D241" s="38" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="E241" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F241" s="74" t="s">
         <v>585</v>
@@ -48203,10 +48261,10 @@
         <v>97</v>
       </c>
       <c r="D242" s="38" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E242" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F242" s="74" t="s">
         <v>585</v>
@@ -48221,7 +48279,7 @@
         <v>97</v>
       </c>
       <c r="D243" s="38" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="E243" s="39" t="s">
         <v>586</v>
@@ -48239,7 +48297,7 @@
         <v>97</v>
       </c>
       <c r="D244" s="38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E244" s="39" t="s">
         <v>586</v>
@@ -48257,7 +48315,7 @@
         <v>97</v>
       </c>
       <c r="D245" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E245" s="39" t="s">
         <v>586</v>
@@ -48275,7 +48333,7 @@
         <v>97</v>
       </c>
       <c r="D246" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E246" s="39" t="s">
         <v>586</v>
@@ -48293,7 +48351,7 @@
         <v>97</v>
       </c>
       <c r="D247" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E247" s="39" t="s">
         <v>586</v>
@@ -48311,7 +48369,7 @@
         <v>97</v>
       </c>
       <c r="D248" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E248" s="39" t="s">
         <v>586</v>
@@ -48325,11 +48383,11 @@
         <v>42736</v>
       </c>
       <c r="B249" s="35"/>
-      <c r="C249" s="428" t="s">
-        <v>100</v>
-      </c>
-      <c r="D249" s="483" t="s">
-        <v>165</v>
+      <c r="C249" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D249" s="38" t="s">
+        <v>401</v>
       </c>
       <c r="E249" s="39" t="s">
         <v>586</v>
@@ -48344,10 +48402,10 @@
       </c>
       <c r="B250" s="35"/>
       <c r="C250" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D250" s="484" t="s">
-        <v>169</v>
+        <v>97</v>
+      </c>
+      <c r="D250" s="38" t="s">
+        <v>403</v>
       </c>
       <c r="E250" s="39" t="s">
         <v>586</v>
@@ -48365,7 +48423,7 @@
         <v>100</v>
       </c>
       <c r="D251" s="483" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E251" s="39" t="s">
         <v>586</v>
@@ -48382,8 +48440,8 @@
       <c r="C252" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D252" s="425" t="s">
-        <v>241</v>
+      <c r="D252" s="484" t="s">
+        <v>169</v>
       </c>
       <c r="E252" s="39" t="s">
         <v>586</v>
@@ -48400,8 +48458,8 @@
       <c r="C253" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D253" s="426" t="s">
-        <v>253</v>
+      <c r="D253" s="483" t="s">
+        <v>172</v>
       </c>
       <c r="E253" s="39" t="s">
         <v>586</v>
@@ -48418,8 +48476,8 @@
       <c r="C254" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D254" s="36" t="s">
-        <v>181</v>
+      <c r="D254" s="425" t="s">
+        <v>241</v>
       </c>
       <c r="E254" s="39" t="s">
         <v>586</v>
@@ -48429,38 +48487,38 @@
       </c>
     </row>
     <row r="255" spans="1:6" ht="20" customHeight="1">
-      <c r="A255" s="472">
-        <v>42736</v>
-      </c>
-      <c r="B255" s="473"/>
-      <c r="C255" s="453" t="s">
-        <v>103</v>
-      </c>
-      <c r="D255" s="433" t="s">
-        <v>165</v>
-      </c>
-      <c r="E255" s="474" t="s">
+      <c r="A255" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B255" s="35"/>
+      <c r="C255" s="428" t="s">
+        <v>100</v>
+      </c>
+      <c r="D255" s="426" t="s">
+        <v>253</v>
+      </c>
+      <c r="E255" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="F255" s="475" t="s">
+      <c r="F255" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="20" customHeight="1">
-      <c r="A256" s="472">
-        <v>42736</v>
-      </c>
-      <c r="B256" s="473"/>
-      <c r="C256" s="453" t="s">
-        <v>103</v>
-      </c>
-      <c r="D256" s="433" t="s">
-        <v>169</v>
-      </c>
-      <c r="E256" s="474" t="s">
+      <c r="A256" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B256" s="35"/>
+      <c r="C256" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D256" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E256" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="F256" s="475" t="s">
+      <c r="F256" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48473,7 +48531,7 @@
         <v>103</v>
       </c>
       <c r="D257" s="433" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E257" s="474" t="s">
         <v>586</v>
@@ -48491,7 +48549,7 @@
         <v>103</v>
       </c>
       <c r="D258" s="433" t="s">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="E258" s="474" t="s">
         <v>586</v>
@@ -48504,17 +48562,17 @@
       <c r="A259" s="472">
         <v>42736</v>
       </c>
-      <c r="B259" s="472"/>
-      <c r="C259" s="472" t="s">
+      <c r="B259" s="473"/>
+      <c r="C259" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="D259" s="472" t="s">
-        <v>406</v>
-      </c>
-      <c r="E259" s="472" t="s">
+      <c r="D259" s="433" t="s">
+        <v>210</v>
+      </c>
+      <c r="E259" s="474" t="s">
         <v>586</v>
       </c>
-      <c r="F259" s="472" t="s">
+      <c r="F259" s="475" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48522,21 +48580,21 @@
       <c r="A260" s="472">
         <v>42736</v>
       </c>
-      <c r="B260" s="472"/>
-      <c r="C260" s="472" t="s">
+      <c r="B260" s="473"/>
+      <c r="C260" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="D260" s="472" t="s">
-        <v>408</v>
-      </c>
-      <c r="E260" s="472" t="s">
+      <c r="D260" s="433" t="s">
+        <v>404</v>
+      </c>
+      <c r="E260" s="474" t="s">
         <v>586</v>
       </c>
-      <c r="F260" s="472" t="s">
+      <c r="F260" s="475" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="13.25" customHeight="1">
+    <row r="261" spans="1:6" ht="20" customHeight="1">
       <c r="A261" s="472">
         <v>42736</v>
       </c>
@@ -48545,7 +48603,7 @@
         <v>103</v>
       </c>
       <c r="D261" s="472" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E261" s="472" t="s">
         <v>586</v>
@@ -48554,7 +48612,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="13.25" customHeight="1">
+    <row r="262" spans="1:6" ht="20" customHeight="1">
       <c r="A262" s="472">
         <v>42736</v>
       </c>
@@ -48563,7 +48621,7 @@
         <v>103</v>
       </c>
       <c r="D262" s="472" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E262" s="472" t="s">
         <v>586</v>
@@ -48572,40 +48630,40 @@
         <v>585</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A263" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B263" s="35"/>
-      <c r="C263" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D263" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E263" s="50" t="s">
+    <row r="263" spans="1:6" ht="13.25" customHeight="1">
+      <c r="A263" s="472">
+        <v>42736</v>
+      </c>
+      <c r="B263" s="472"/>
+      <c r="C263" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D263" s="472" t="s">
+        <v>411</v>
+      </c>
+      <c r="E263" s="472" t="s">
         <v>586</v>
       </c>
-      <c r="F263" s="74" t="s">
+      <c r="F263" s="472" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A264" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B264" s="35"/>
-      <c r="C264" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D264" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="E264" s="50" t="s">
+    <row r="264" spans="1:6" ht="13.25" customHeight="1">
+      <c r="A264" s="472">
+        <v>42736</v>
+      </c>
+      <c r="B264" s="472"/>
+      <c r="C264" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D264" s="472" t="s">
+        <v>414</v>
+      </c>
+      <c r="E264" s="472" t="s">
         <v>586</v>
       </c>
-      <c r="F264" s="74" t="s">
-        <v>1241</v>
+      <c r="F264" s="472" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48617,13 +48675,13 @@
         <v>106</v>
       </c>
       <c r="D265" s="36" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="E265" s="50" t="s">
         <v>586</v>
       </c>
       <c r="F265" s="74" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48634,14 +48692,14 @@
       <c r="C266" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D266" s="38" t="s">
-        <v>286</v>
+      <c r="D266" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="E266" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F266" s="188" t="s">
-        <v>585</v>
+      <c r="F266" s="74" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48652,8 +48710,8 @@
       <c r="C267" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D267" s="38" t="s">
-        <v>288</v>
+      <c r="D267" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="E267" s="50" t="s">
         <v>586</v>
@@ -48662,75 +48720,75 @@
         <v>587</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
-      <c r="A268" s="516">
-        <v>42736</v>
-      </c>
-      <c r="B268" s="488"/>
-      <c r="C268" s="490" t="s">
+    <row r="268" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A268" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B268" s="35"/>
+      <c r="C268" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D268" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="E268" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F268" s="188" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A269" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B269" s="35"/>
+      <c r="C269" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D269" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E269" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F269" s="74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
+      <c r="A270" s="516">
+        <v>42736</v>
+      </c>
+      <c r="B270" s="488"/>
+      <c r="C270" s="490" t="s">
         <v>109</v>
       </c>
-      <c r="D268" s="490" t="s">
+      <c r="D270" s="490" t="s">
         <v>165</v>
       </c>
-      <c r="E268" s="491" t="s">
+      <c r="E270" s="491" t="s">
         <v>586</v>
       </c>
-      <c r="F268" s="493" t="s">
+      <c r="F270" s="493" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
-      <c r="A269" s="516">
-        <v>42736</v>
-      </c>
-      <c r="B269" s="488"/>
-      <c r="C269" s="490" t="s">
+    <row r="271" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
+      <c r="A271" s="516">
+        <v>42736</v>
+      </c>
+      <c r="B271" s="488"/>
+      <c r="C271" s="490" t="s">
         <v>109</v>
       </c>
-      <c r="D269" s="490" t="s">
+      <c r="D271" s="490" t="s">
         <v>165</v>
       </c>
-      <c r="E269" s="491" t="s">
+      <c r="E271" s="491" t="s">
         <v>1237</v>
       </c>
-      <c r="F269" s="493" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A270" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B270" s="35"/>
-      <c r="C270" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D270" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E270" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="F270" s="74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A271" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B271" s="35"/>
-      <c r="C271" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D271" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E271" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="F271" s="74" t="s">
+      <c r="F271" s="493" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48740,7 +48798,7 @@
       </c>
       <c r="B272" s="35"/>
       <c r="C272" s="38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D272" s="36" t="s">
         <v>165</v>
@@ -48749,6 +48807,42 @@
         <v>586</v>
       </c>
       <c r="F272" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A273" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B273" s="35"/>
+      <c r="C273" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D273" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E273" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F273" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A274" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B274" s="35"/>
+      <c r="C274" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D274" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E274" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F274" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -49078,10 +49172,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:EK113"/>
+  <dimension ref="A1:EK114"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -49515,14 +49609,14 @@
         <v>42743</v>
       </c>
       <c r="B24" s="50"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="489" t="s">
-        <v>954</v>
+      <c r="D24" s="51" t="s">
+        <v>1293</v>
       </c>
       <c r="E24" s="86" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F24" s="74" t="s">
         <v>585</v>
@@ -49530,7 +49624,7 @@
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="34">
-        <v>42744</v>
+        <v>42743</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="36" t="s">
@@ -49540,7 +49634,7 @@
         <v>954</v>
       </c>
       <c r="E25" s="86" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F25" s="74" t="s">
         <v>585</v>
@@ -49548,17 +49642,17 @@
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="34">
-        <v>42736</v>
+        <v>42744</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>1291</v>
+      <c r="D26" s="489" t="s">
+        <v>954</v>
       </c>
       <c r="E26" s="86" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F26" s="74" t="s">
         <v>585</v>
@@ -49576,7 +49670,7 @@
         <v>1291</v>
       </c>
       <c r="E27" s="86" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F27" s="74" t="s">
         <v>585</v>
@@ -49588,13 +49682,13 @@
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>665</v>
+        <v>41</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>1291</v>
       </c>
       <c r="E28" s="86" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F28" s="74" t="s">
         <v>585</v>
@@ -49608,8 +49702,8 @@
       <c r="C29" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>956</v>
+      <c r="D29" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E29" s="86" t="s">
         <v>586</v>
@@ -49623,11 +49717,11 @@
         <v>42736</v>
       </c>
       <c r="B30" s="50"/>
-      <c r="C30" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>665</v>
+      <c r="C30" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>956</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>586</v>
@@ -49641,11 +49735,11 @@
         <v>42736</v>
       </c>
       <c r="B31" s="50"/>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="76" t="s">
-        <v>667</v>
+      <c r="D31" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>586</v>
@@ -49659,11 +49753,11 @@
         <v>42736</v>
       </c>
       <c r="B32" s="50"/>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="77" t="s">
-        <v>629</v>
+      <c r="D32" s="76" t="s">
+        <v>667</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>586</v>
@@ -49681,7 +49775,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>963</v>
+        <v>629</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>586</v>
@@ -49699,7 +49793,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>586</v>
@@ -49717,7 +49811,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E35" s="86" t="s">
         <v>586</v>
@@ -49726,158 +49820,23 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
-      <c r="A36" s="190">
-        <v>42736</v>
-      </c>
-      <c r="B36" s="191"/>
-      <c r="C36" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="193" t="s">
-        <v>662</v>
-      </c>
-      <c r="E36" s="217" t="s">
+    <row r="36" spans="1:141" ht="20" customHeight="1">
+      <c r="A36" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>967</v>
+      </c>
+      <c r="E36" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F36" s="194" t="s">
+      <c r="F36" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="G36" s="238"/>
-      <c r="H36" s="238"/>
-      <c r="I36" s="238"/>
-      <c r="J36" s="238"/>
-      <c r="K36" s="238"/>
-      <c r="L36" s="238"/>
-      <c r="M36" s="238"/>
-      <c r="N36" s="238"/>
-      <c r="O36" s="238"/>
-      <c r="P36" s="238"/>
-      <c r="Q36" s="238"/>
-      <c r="R36" s="238"/>
-      <c r="S36" s="238"/>
-      <c r="T36" s="238"/>
-      <c r="U36" s="238"/>
-      <c r="V36" s="238"/>
-      <c r="W36" s="238"/>
-      <c r="X36" s="238"/>
-      <c r="Y36" s="238"/>
-      <c r="Z36" s="238"/>
-      <c r="AA36" s="238"/>
-      <c r="AB36" s="238"/>
-      <c r="AC36" s="238"/>
-      <c r="AD36" s="238"/>
-      <c r="AE36" s="238"/>
-      <c r="AF36" s="238"/>
-      <c r="AG36" s="238"/>
-      <c r="AH36" s="238"/>
-      <c r="AI36" s="238"/>
-      <c r="AJ36" s="238"/>
-      <c r="AK36" s="238"/>
-      <c r="AL36" s="238"/>
-      <c r="AM36" s="238"/>
-      <c r="AN36" s="238"/>
-      <c r="AO36" s="238"/>
-      <c r="AP36" s="238"/>
-      <c r="AQ36" s="238"/>
-      <c r="AR36" s="238"/>
-      <c r="AS36" s="238"/>
-      <c r="AT36" s="238"/>
-      <c r="AU36" s="238"/>
-      <c r="AV36" s="238"/>
-      <c r="AW36" s="238"/>
-      <c r="AX36" s="238"/>
-      <c r="AY36" s="238"/>
-      <c r="AZ36" s="238"/>
-      <c r="BA36" s="238"/>
-      <c r="BB36" s="238"/>
-      <c r="BC36" s="238"/>
-      <c r="BD36" s="238"/>
-      <c r="BE36" s="238"/>
-      <c r="BF36" s="238"/>
-      <c r="BG36" s="238"/>
-      <c r="BH36" s="238"/>
-      <c r="BI36" s="238"/>
-      <c r="BJ36" s="238"/>
-      <c r="BK36" s="238"/>
-      <c r="BL36" s="238"/>
-      <c r="BM36" s="238"/>
-      <c r="BN36" s="238"/>
-      <c r="BO36" s="238"/>
-      <c r="BP36" s="238"/>
-      <c r="BQ36" s="238"/>
-      <c r="BR36" s="238"/>
-      <c r="BS36" s="238"/>
-      <c r="BT36" s="238"/>
-      <c r="BU36" s="238"/>
-      <c r="BV36" s="238"/>
-      <c r="BW36" s="238"/>
-      <c r="BX36" s="238"/>
-      <c r="BY36" s="238"/>
-      <c r="BZ36" s="238"/>
-      <c r="CA36" s="238"/>
-      <c r="CB36" s="238"/>
-      <c r="CC36" s="238"/>
-      <c r="CD36" s="238"/>
-      <c r="CE36" s="238"/>
-      <c r="CF36" s="238"/>
-      <c r="CG36" s="238"/>
-      <c r="CH36" s="238"/>
-      <c r="CI36" s="238"/>
-      <c r="CJ36" s="238"/>
-      <c r="CK36" s="238"/>
-      <c r="CL36" s="238"/>
-      <c r="CM36" s="238"/>
-      <c r="CN36" s="238"/>
-      <c r="CO36" s="238"/>
-      <c r="CP36" s="238"/>
-      <c r="CQ36" s="238"/>
-      <c r="CR36" s="238"/>
-      <c r="CS36" s="238"/>
-      <c r="CT36" s="238"/>
-      <c r="CU36" s="238"/>
-      <c r="CV36" s="238"/>
-      <c r="CW36" s="238"/>
-      <c r="CX36" s="238"/>
-      <c r="CY36" s="238"/>
-      <c r="CZ36" s="238"/>
-      <c r="DA36" s="238"/>
-      <c r="DB36" s="238"/>
-      <c r="DC36" s="238"/>
-      <c r="DD36" s="238"/>
-      <c r="DE36" s="238"/>
-      <c r="DF36" s="238"/>
-      <c r="DG36" s="238"/>
-      <c r="DH36" s="238"/>
-      <c r="DI36" s="238"/>
-      <c r="DJ36" s="238"/>
-      <c r="DK36" s="238"/>
-      <c r="DL36" s="238"/>
-      <c r="DM36" s="238"/>
-      <c r="DN36" s="238"/>
-      <c r="DO36" s="238"/>
-      <c r="DP36" s="238"/>
-      <c r="DQ36" s="238"/>
-      <c r="DR36" s="238"/>
-      <c r="DS36" s="238"/>
-      <c r="DT36" s="238"/>
-      <c r="DU36" s="238"/>
-      <c r="DV36" s="238"/>
-      <c r="DW36" s="238"/>
-      <c r="DX36" s="238"/>
-      <c r="DY36" s="238"/>
-      <c r="DZ36" s="238"/>
-      <c r="EA36" s="238"/>
-      <c r="EB36" s="238"/>
-      <c r="EC36" s="238"/>
-      <c r="ED36" s="238"/>
-      <c r="EE36" s="238"/>
-      <c r="EF36" s="238"/>
-      <c r="EG36" s="238"/>
-      <c r="EH36" s="238"/>
-      <c r="EI36" s="238"/>
-      <c r="EJ36" s="238"/>
-      <c r="EK36" s="238"/>
     </row>
     <row r="37" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="190">
@@ -49888,7 +49847,7 @@
         <v>82</v>
       </c>
       <c r="D37" s="193" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="E37" s="217" t="s">
         <v>586</v>
@@ -50032,23 +49991,158 @@
       <c r="EJ37" s="238"/>
       <c r="EK37" s="238"/>
     </row>
-    <row r="38" spans="1:141" ht="20" customHeight="1">
-      <c r="A38" s="266">
-        <v>42736</v>
-      </c>
-      <c r="B38" s="233"/>
-      <c r="C38" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="234" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E38" s="268" t="s">
+    <row r="38" spans="1:141" s="192" customFormat="1" ht="20" customHeight="1">
+      <c r="A38" s="190">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="191"/>
+      <c r="C38" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="193" t="s">
+        <v>645</v>
+      </c>
+      <c r="E38" s="217" t="s">
         <v>586</v>
       </c>
-      <c r="F38" s="252" t="s">
+      <c r="F38" s="194" t="s">
         <v>585</v>
       </c>
+      <c r="G38" s="238"/>
+      <c r="H38" s="238"/>
+      <c r="I38" s="238"/>
+      <c r="J38" s="238"/>
+      <c r="K38" s="238"/>
+      <c r="L38" s="238"/>
+      <c r="M38" s="238"/>
+      <c r="N38" s="238"/>
+      <c r="O38" s="238"/>
+      <c r="P38" s="238"/>
+      <c r="Q38" s="238"/>
+      <c r="R38" s="238"/>
+      <c r="S38" s="238"/>
+      <c r="T38" s="238"/>
+      <c r="U38" s="238"/>
+      <c r="V38" s="238"/>
+      <c r="W38" s="238"/>
+      <c r="X38" s="238"/>
+      <c r="Y38" s="238"/>
+      <c r="Z38" s="238"/>
+      <c r="AA38" s="238"/>
+      <c r="AB38" s="238"/>
+      <c r="AC38" s="238"/>
+      <c r="AD38" s="238"/>
+      <c r="AE38" s="238"/>
+      <c r="AF38" s="238"/>
+      <c r="AG38" s="238"/>
+      <c r="AH38" s="238"/>
+      <c r="AI38" s="238"/>
+      <c r="AJ38" s="238"/>
+      <c r="AK38" s="238"/>
+      <c r="AL38" s="238"/>
+      <c r="AM38" s="238"/>
+      <c r="AN38" s="238"/>
+      <c r="AO38" s="238"/>
+      <c r="AP38" s="238"/>
+      <c r="AQ38" s="238"/>
+      <c r="AR38" s="238"/>
+      <c r="AS38" s="238"/>
+      <c r="AT38" s="238"/>
+      <c r="AU38" s="238"/>
+      <c r="AV38" s="238"/>
+      <c r="AW38" s="238"/>
+      <c r="AX38" s="238"/>
+      <c r="AY38" s="238"/>
+      <c r="AZ38" s="238"/>
+      <c r="BA38" s="238"/>
+      <c r="BB38" s="238"/>
+      <c r="BC38" s="238"/>
+      <c r="BD38" s="238"/>
+      <c r="BE38" s="238"/>
+      <c r="BF38" s="238"/>
+      <c r="BG38" s="238"/>
+      <c r="BH38" s="238"/>
+      <c r="BI38" s="238"/>
+      <c r="BJ38" s="238"/>
+      <c r="BK38" s="238"/>
+      <c r="BL38" s="238"/>
+      <c r="BM38" s="238"/>
+      <c r="BN38" s="238"/>
+      <c r="BO38" s="238"/>
+      <c r="BP38" s="238"/>
+      <c r="BQ38" s="238"/>
+      <c r="BR38" s="238"/>
+      <c r="BS38" s="238"/>
+      <c r="BT38" s="238"/>
+      <c r="BU38" s="238"/>
+      <c r="BV38" s="238"/>
+      <c r="BW38" s="238"/>
+      <c r="BX38" s="238"/>
+      <c r="BY38" s="238"/>
+      <c r="BZ38" s="238"/>
+      <c r="CA38" s="238"/>
+      <c r="CB38" s="238"/>
+      <c r="CC38" s="238"/>
+      <c r="CD38" s="238"/>
+      <c r="CE38" s="238"/>
+      <c r="CF38" s="238"/>
+      <c r="CG38" s="238"/>
+      <c r="CH38" s="238"/>
+      <c r="CI38" s="238"/>
+      <c r="CJ38" s="238"/>
+      <c r="CK38" s="238"/>
+      <c r="CL38" s="238"/>
+      <c r="CM38" s="238"/>
+      <c r="CN38" s="238"/>
+      <c r="CO38" s="238"/>
+      <c r="CP38" s="238"/>
+      <c r="CQ38" s="238"/>
+      <c r="CR38" s="238"/>
+      <c r="CS38" s="238"/>
+      <c r="CT38" s="238"/>
+      <c r="CU38" s="238"/>
+      <c r="CV38" s="238"/>
+      <c r="CW38" s="238"/>
+      <c r="CX38" s="238"/>
+      <c r="CY38" s="238"/>
+      <c r="CZ38" s="238"/>
+      <c r="DA38" s="238"/>
+      <c r="DB38" s="238"/>
+      <c r="DC38" s="238"/>
+      <c r="DD38" s="238"/>
+      <c r="DE38" s="238"/>
+      <c r="DF38" s="238"/>
+      <c r="DG38" s="238"/>
+      <c r="DH38" s="238"/>
+      <c r="DI38" s="238"/>
+      <c r="DJ38" s="238"/>
+      <c r="DK38" s="238"/>
+      <c r="DL38" s="238"/>
+      <c r="DM38" s="238"/>
+      <c r="DN38" s="238"/>
+      <c r="DO38" s="238"/>
+      <c r="DP38" s="238"/>
+      <c r="DQ38" s="238"/>
+      <c r="DR38" s="238"/>
+      <c r="DS38" s="238"/>
+      <c r="DT38" s="238"/>
+      <c r="DU38" s="238"/>
+      <c r="DV38" s="238"/>
+      <c r="DW38" s="238"/>
+      <c r="DX38" s="238"/>
+      <c r="DY38" s="238"/>
+      <c r="DZ38" s="238"/>
+      <c r="EA38" s="238"/>
+      <c r="EB38" s="238"/>
+      <c r="EC38" s="238"/>
+      <c r="ED38" s="238"/>
+      <c r="EE38" s="238"/>
+      <c r="EF38" s="238"/>
+      <c r="EG38" s="238"/>
+      <c r="EH38" s="238"/>
+      <c r="EI38" s="238"/>
+      <c r="EJ38" s="238"/>
+      <c r="EK38" s="238"/>
     </row>
     <row r="39" spans="1:141" ht="20" customHeight="1">
       <c r="A39" s="266">
@@ -50059,7 +50153,7 @@
         <v>85</v>
       </c>
       <c r="D39" s="234" t="s">
-        <v>673</v>
+        <v>1025</v>
       </c>
       <c r="E39" s="268" t="s">
         <v>586</v>
@@ -50077,7 +50171,7 @@
         <v>85</v>
       </c>
       <c r="D40" s="234" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E40" s="268" t="s">
         <v>586</v>
@@ -50095,7 +50189,7 @@
         <v>85</v>
       </c>
       <c r="D41" s="234" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E41" s="268" t="s">
         <v>586</v>
@@ -50113,7 +50207,7 @@
         <v>85</v>
       </c>
       <c r="D42" s="234" t="s">
-        <v>1030</v>
+        <v>675</v>
       </c>
       <c r="E42" s="268" t="s">
         <v>586</v>
@@ -50131,7 +50225,7 @@
         <v>85</v>
       </c>
       <c r="D43" s="234" t="s">
-        <v>677</v>
+        <v>1030</v>
       </c>
       <c r="E43" s="268" t="s">
         <v>586</v>
@@ -50149,7 +50243,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="234" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E44" s="268" t="s">
         <v>586</v>
@@ -50159,20 +50253,20 @@
       </c>
     </row>
     <row r="45" spans="1:141" ht="20" customHeight="1">
-      <c r="A45" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E45" s="86" t="s">
+      <c r="A45" s="266">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="233"/>
+      <c r="C45" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="234" t="s">
+        <v>682</v>
+      </c>
+      <c r="E45" s="268" t="s">
         <v>586</v>
       </c>
-      <c r="F45" s="74" t="s">
+      <c r="F45" s="252" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50182,7 +50276,7 @@
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>665</v>
@@ -50203,7 +50297,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>970</v>
+        <v>665</v>
       </c>
       <c r="E47" s="86" t="s">
         <v>586</v>
@@ -50221,7 +50315,7 @@
         <v>55</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E48" s="86" t="s">
         <v>586</v>
@@ -50239,7 +50333,7 @@
         <v>55</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>586</v>
@@ -50257,7 +50351,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E50" s="86" t="s">
         <v>586</v>
@@ -50271,11 +50365,11 @@
         <v>42736</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="36" t="s">
-        <v>58</v>
+      <c r="C51" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>665</v>
+        <v>976</v>
       </c>
       <c r="E51" s="86" t="s">
         <v>586</v>
@@ -50290,7 +50384,7 @@
       </c>
       <c r="B52" s="50"/>
       <c r="C52" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>665</v>
@@ -50311,7 +50405,7 @@
         <v>61</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>979</v>
+        <v>665</v>
       </c>
       <c r="E53" s="86" t="s">
         <v>586</v>
@@ -50329,7 +50423,7 @@
         <v>61</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E54" s="86" t="s">
         <v>586</v>
@@ -50347,7 +50441,7 @@
         <v>61</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E55" s="86" t="s">
         <v>586</v>
@@ -50365,7 +50459,7 @@
         <v>61</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E56" s="86" t="s">
         <v>586</v>
@@ -50380,16 +50474,16 @@
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>665</v>
+        <v>985</v>
       </c>
       <c r="E57" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F57" s="74" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20" customHeight="1">
@@ -50397,17 +50491,17 @@
         <v>42736</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="38" t="s">
+      <c r="C58" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>665</v>
       </c>
       <c r="E58" s="86" t="s">
         <v>586</v>
       </c>
       <c r="F58" s="74" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" customHeight="1">
@@ -50418,8 +50512,8 @@
       <c r="C59" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="76" t="s">
-        <v>987</v>
+      <c r="D59" s="38" t="s">
+        <v>665</v>
       </c>
       <c r="E59" s="86" t="s">
         <v>586</v>
@@ -50437,7 +50531,7 @@
         <v>64</v>
       </c>
       <c r="D60" s="76" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E60" s="86" t="s">
         <v>586</v>
@@ -50451,11 +50545,11 @@
         <v>42736</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>665</v>
+      <c r="C61" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="76" t="s">
+        <v>991</v>
       </c>
       <c r="E61" s="86" t="s">
         <v>586</v>
@@ -50469,14 +50563,14 @@
         <v>42736</v>
       </c>
       <c r="B62" s="50"/>
-      <c r="C62" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="51" t="s">
+      <c r="C62" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="E62" s="50" t="s">
-        <v>602</v>
+      <c r="E62" s="86" t="s">
+        <v>586</v>
       </c>
       <c r="F62" s="74" t="s">
         <v>585</v>
@@ -50491,13 +50585,13 @@
         <v>73</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>602</v>
       </c>
       <c r="F63" s="74" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20" customHeight="1">
@@ -50509,13 +50603,13 @@
         <v>73</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F64" s="74" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20" customHeight="1">
@@ -50527,13 +50621,13 @@
         <v>73</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E65" s="50" t="s">
         <v>600</v>
       </c>
       <c r="F65" s="74" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20" customHeight="1">
@@ -50544,14 +50638,14 @@
       <c r="C66" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>672</v>
+      <c r="D66" s="51" t="s">
+        <v>671</v>
       </c>
       <c r="E66" s="50" t="s">
         <v>600</v>
       </c>
       <c r="F66" s="74" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20" customHeight="1">
@@ -50566,7 +50660,7 @@
         <v>672</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F67" s="74" t="s">
         <v>587</v>
@@ -50578,16 +50672,16 @@
       </c>
       <c r="B68" s="50"/>
       <c r="C68" s="36" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="F68" s="74" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20" customHeight="1">
@@ -50599,7 +50693,7 @@
         <v>88</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>586</v>
@@ -50617,7 +50711,7 @@
         <v>88</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>1021</v>
+        <v>666</v>
       </c>
       <c r="E70" s="50" t="s">
         <v>586</v>
@@ -50631,13 +50725,13 @@
         <v>42736</v>
       </c>
       <c r="B71" s="50"/>
-      <c r="C71" s="38" t="s">
-        <v>76</v>
+      <c r="C71" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E71" s="86" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E71" s="50" t="s">
         <v>586</v>
       </c>
       <c r="F71" s="74" t="s">
@@ -50653,7 +50747,7 @@
         <v>76</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>999</v>
+        <v>665</v>
       </c>
       <c r="E72" s="86" t="s">
         <v>586</v>
@@ -50663,20 +50757,20 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="20" customHeight="1">
-      <c r="A73" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="43" t="s">
+      <c r="A73" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="53" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E73" s="127" t="s">
+      <c r="D73" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="E73" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F73" s="79" t="s">
+      <c r="F73" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -50684,12 +50778,12 @@
       <c r="A74" s="41">
         <v>42736</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>1006</v>
+      <c r="B74" s="55"/>
+      <c r="C74" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>1002</v>
       </c>
       <c r="E74" s="127" t="s">
         <v>586</v>
@@ -50707,7 +50801,7 @@
         <v>79</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E75" s="127" t="s">
         <v>586</v>
@@ -50725,7 +50819,7 @@
         <v>79</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E76" s="127" t="s">
         <v>586</v>
@@ -50738,12 +50832,12 @@
       <c r="A77" s="41">
         <v>42736</v>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="54" t="s">
-        <v>1013</v>
+      <c r="D77" s="51" t="s">
+        <v>1011</v>
       </c>
       <c r="E77" s="127" t="s">
         <v>586</v>
@@ -50756,51 +50850,51 @@
       <c r="A78" s="41">
         <v>42736</v>
       </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="53" t="s">
-        <v>665</v>
-      </c>
-      <c r="E78" s="246" t="s">
-        <v>1239</v>
+      <c r="B78" s="42"/>
+      <c r="C78" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E78" s="127" t="s">
+        <v>586</v>
       </c>
       <c r="F78" s="79" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20" customHeight="1">
-      <c r="A79" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="36" t="s">
+      <c r="A79" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B79" s="55"/>
+      <c r="C79" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="38" t="s">
-        <v>666</v>
+      <c r="D79" s="53" t="s">
+        <v>665</v>
       </c>
       <c r="E79" s="246" t="s">
         <v>1239</v>
       </c>
-      <c r="F79" s="74" t="s">
+      <c r="F79" s="79" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="80" spans="1:6" ht="20" customHeight="1">
       <c r="A80" s="34">
         <v>42736</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E80" s="387" t="s">
-        <v>1238</v>
+      <c r="B80" s="50"/>
+      <c r="C80" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="E80" s="246" t="s">
+        <v>1239</v>
       </c>
       <c r="F80" s="74" t="s">
         <v>585</v>
@@ -50815,10 +50909,10 @@
         <v>91</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E81" s="387" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F81" s="74" t="s">
         <v>585</v>
@@ -50833,10 +50927,10 @@
         <v>91</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="E82" s="387" t="s">
-        <v>586</v>
+        <v>1237</v>
       </c>
       <c r="F82" s="74" t="s">
         <v>585</v>
@@ -50851,7 +50945,7 @@
         <v>91</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E83" s="387" t="s">
         <v>586</v>
@@ -50869,10 +50963,10 @@
         <v>91</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E84" s="387" t="s">
-        <v>1240</v>
+        <v>586</v>
       </c>
       <c r="F84" s="74" t="s">
         <v>585</v>
@@ -50890,13 +50984,13 @@
         <v>693</v>
       </c>
       <c r="E85" s="387" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F85" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13.25" customHeight="1">
+    <row r="86" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A86" s="34">
         <v>42736</v>
       </c>
@@ -50904,8 +50998,8 @@
       <c r="C86" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="404" t="s">
-        <v>689</v>
+      <c r="D86" s="36" t="s">
+        <v>693</v>
       </c>
       <c r="E86" s="387" t="s">
         <v>586</v>
@@ -50914,19 +51008,19 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="87" spans="1:6" ht="13.25" customHeight="1">
       <c r="A87" s="34">
         <v>42736</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>665</v>
+        <v>91</v>
+      </c>
+      <c r="D87" s="404" t="s">
+        <v>689</v>
       </c>
       <c r="E87" s="387" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F87" s="74" t="s">
         <v>585</v>
@@ -50941,10 +51035,10 @@
         <v>94</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="E88" s="387" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F88" s="74" t="s">
         <v>585</v>
@@ -50959,10 +51053,10 @@
         <v>94</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="E89" s="387" t="s">
-        <v>586</v>
+        <v>1237</v>
       </c>
       <c r="F89" s="74" t="s">
         <v>585</v>
@@ -50977,7 +51071,7 @@
         <v>94</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="E90" s="387" t="s">
         <v>586</v>
@@ -50995,10 +51089,10 @@
         <v>94</v>
       </c>
       <c r="D91" s="36" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E91" s="387" t="s">
-        <v>1240</v>
+        <v>586</v>
       </c>
       <c r="F91" s="74" t="s">
         <v>585</v>
@@ -51008,17 +51102,17 @@
       <c r="A92" s="34">
         <v>42736</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="43" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="53" t="s">
+      <c r="D92" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="E92" s="246" t="s">
-        <v>586</v>
-      </c>
-      <c r="F92" s="79" t="s">
+      <c r="E92" s="387" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F92" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51026,17 +51120,17 @@
       <c r="A93" s="34">
         <v>42736</v>
       </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E93" s="387" t="s">
+      <c r="B93" s="42"/>
+      <c r="C93" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>693</v>
+      </c>
+      <c r="E93" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F93" s="74" t="s">
+      <c r="F93" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51046,15 +51140,15 @@
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E94" s="246" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="E94" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="F94" s="79" t="s">
+      <c r="F94" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51063,16 +51157,16 @@
         <v>42736</v>
       </c>
       <c r="B95" s="39"/>
-      <c r="C95" s="428" t="s">
+      <c r="C95" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="428" t="s">
-        <v>673</v>
-      </c>
-      <c r="E95" s="387" t="s">
+      <c r="D95" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E95" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F95" s="74" t="s">
+      <c r="F95" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51081,34 +51175,34 @@
         <v>42736</v>
       </c>
       <c r="B96" s="39"/>
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="428" t="s">
+        <v>673</v>
+      </c>
+      <c r="E96" s="387" t="s">
+        <v>586</v>
+      </c>
+      <c r="F96" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A97" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="39"/>
+      <c r="C97" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="E96" s="246" t="s">
+      <c r="E97" s="246" t="s">
         <v>586</v>
       </c>
-      <c r="F96" s="79" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="20" customHeight="1">
-      <c r="A97" s="440">
-        <v>42736</v>
-      </c>
-      <c r="B97" s="434"/>
-      <c r="C97" s="472" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" s="433" t="s">
-        <v>665</v>
-      </c>
-      <c r="E97" s="434" t="s">
-        <v>586</v>
-      </c>
-      <c r="F97" s="471" t="s">
+      <c r="F97" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51121,7 +51215,7 @@
         <v>103</v>
       </c>
       <c r="D98" s="433" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E98" s="434" t="s">
         <v>586</v>
@@ -51131,20 +51225,20 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="20" customHeight="1">
-      <c r="A99" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B99" s="50"/>
-      <c r="C99" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="E99" s="86" t="s">
+      <c r="A99" s="440">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="434"/>
+      <c r="C99" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="433" t="s">
+        <v>666</v>
+      </c>
+      <c r="E99" s="434" t="s">
         <v>586</v>
       </c>
-      <c r="F99" s="74" t="s">
+      <c r="F99" s="471" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51156,14 +51250,14 @@
       <c r="C100" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="38" t="s">
-        <v>1043</v>
+      <c r="D100" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E100" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F100" s="188" t="s">
-        <v>587</v>
+      <c r="F100" s="74" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20" customHeight="1">
@@ -51175,13 +51269,13 @@
         <v>106</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E101" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F101" s="74" t="s">
-        <v>585</v>
+      <c r="F101" s="188" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="20" customHeight="1">
@@ -51193,7 +51287,7 @@
         <v>106</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E102" s="86" t="s">
         <v>586</v>
@@ -51211,7 +51305,7 @@
         <v>106</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E103" s="86" t="s">
         <v>586</v>
@@ -51228,14 +51322,14 @@
       <c r="C104" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>1049</v>
+      <c r="D104" s="38" t="s">
+        <v>1051</v>
       </c>
       <c r="E104" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F104" s="188" t="s">
-        <v>1241</v>
+      <c r="F104" s="74" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="20" customHeight="1">
@@ -51246,8 +51340,8 @@
       <c r="C105" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D105" s="38" t="s">
-        <v>1054</v>
+      <c r="D105" s="1" t="s">
+        <v>1049</v>
       </c>
       <c r="E105" s="86" t="s">
         <v>586</v>
@@ -51265,13 +51359,13 @@
         <v>106</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="E106" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F106" s="74" t="s">
-        <v>585</v>
+      <c r="F106" s="188" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="20" customHeight="1">
@@ -51282,31 +51376,31 @@
       <c r="C107" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>1057</v>
+      <c r="D107" s="38" t="s">
+        <v>1059</v>
       </c>
       <c r="E107" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F107" s="188" t="s">
+      <c r="F107" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="108" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A108" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B108" s="530"/>
-      <c r="C108" s="483" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" s="483" t="s">
-        <v>665</v>
-      </c>
-      <c r="E108" s="517" t="s">
+    <row r="108" spans="1:6" ht="20" customHeight="1">
+      <c r="A108" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B108" s="50"/>
+      <c r="C108" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E108" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F108" s="531" t="s">
+      <c r="F108" s="188" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51322,27 +51416,27 @@
         <v>665</v>
       </c>
       <c r="E109" s="517" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F109" s="531" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="20" customHeight="1">
-      <c r="A110" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B110" s="50"/>
-      <c r="C110" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" s="36" t="s">
+    <row r="110" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A110" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B110" s="530"/>
+      <c r="C110" s="483" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="483" t="s">
         <v>665</v>
       </c>
-      <c r="E110" s="86" t="s">
-        <v>586</v>
-      </c>
-      <c r="F110" s="74" t="s">
+      <c r="E110" s="517" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F110" s="531" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51354,8 +51448,8 @@
       <c r="C111" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="38" t="s">
-        <v>1043</v>
+      <c r="D111" s="36" t="s">
+        <v>665</v>
       </c>
       <c r="E111" s="86" t="s">
         <v>586</v>
@@ -51364,21 +51458,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="112" spans="1:6" customFormat="1" ht="20" customHeight="1">
-      <c r="A112" s="485">
-        <v>42736</v>
-      </c>
-      <c r="B112" s="530"/>
-      <c r="C112" s="483" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="483" t="s">
-        <v>665</v>
-      </c>
-      <c r="E112" s="517" t="s">
+    <row r="112" spans="1:6" ht="20" customHeight="1">
+      <c r="A112" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B112" s="50"/>
+      <c r="C112" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E112" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="F112" s="531" t="s">
+      <c r="F112" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -51388,7 +51482,7 @@
       </c>
       <c r="B113" s="530"/>
       <c r="C113" s="483" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D113" s="483" t="s">
         <v>665</v>
@@ -51397,6 +51491,24 @@
         <v>586</v>
       </c>
       <c r="F113" s="531" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" customFormat="1" ht="20" customHeight="1">
+      <c r="A114" s="485">
+        <v>42736</v>
+      </c>
+      <c r="B114" s="530"/>
+      <c r="C114" s="483" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="483" t="s">
+        <v>665</v>
+      </c>
+      <c r="E114" s="517" t="s">
+        <v>586</v>
+      </c>
+      <c r="F114" s="531" t="s">
         <v>587</v>
       </c>
     </row>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC6FBD-6704-5049-ABB7-F4A5C7BCF3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58173BA8-4BB5-F44F-9715-FD2DA4DE9A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="33600" windowHeight="20480" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10188" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10192" uniqueCount="1296">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -15215,7 +15215,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F256" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F257" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="45"/>
@@ -43895,10 +43895,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -44458,15 +44458,15 @@
       <c r="A31" s="34">
         <v>42736</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F31" s="74" t="s">
         <v>585</v>
@@ -44484,7 +44484,7 @@
         <v>232</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F32" s="74" t="s">
         <v>585</v>
@@ -44495,14 +44495,14 @@
         <v>42736</v>
       </c>
       <c r="B33" s="50"/>
-      <c r="C33" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>234</v>
+      <c r="C33" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>586</v>
+        <v>1238</v>
       </c>
       <c r="F33" s="74" t="s">
         <v>585</v>
@@ -44512,12 +44512,12 @@
       <c r="A34" s="34">
         <v>42736</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E34" s="50" t="s">
         <v>586</v>
@@ -44531,11 +44531,11 @@
         <v>42736</v>
       </c>
       <c r="B35" s="35"/>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E35" s="50" t="s">
         <v>586</v>
@@ -44552,8 +44552,8 @@
       <c r="C36" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>240</v>
+      <c r="D36" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="E36" s="50" t="s">
         <v>586</v>
@@ -44566,12 +44566,12 @@
       <c r="A37" s="34">
         <v>42736</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>217</v>
+      <c r="D37" s="38" t="s">
+        <v>240</v>
       </c>
       <c r="E37" s="50" t="s">
         <v>586</v>
@@ -44584,12 +44584,12 @@
       <c r="A38" s="34">
         <v>42736</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="38" t="s">
-        <v>222</v>
+      <c r="D38" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>586</v>
@@ -44603,11 +44603,11 @@
         <v>42736</v>
       </c>
       <c r="B39" s="35"/>
-      <c r="C39" s="128" t="s">
-        <v>49</v>
+      <c r="C39" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E39" s="50" t="s">
         <v>586</v>
@@ -44625,7 +44625,7 @@
         <v>49</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>586</v>
@@ -44643,7 +44643,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E41" s="50" t="s">
         <v>586</v>
@@ -44656,12 +44656,12 @@
       <c r="A42" s="34">
         <v>42736</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="128" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>586</v>
@@ -44678,8 +44678,8 @@
       <c r="C43" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="86" t="s">
-        <v>251</v>
+      <c r="D43" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>586</v>
@@ -44692,12 +44692,12 @@
       <c r="A44" s="34">
         <v>42736</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="121" t="s">
+      <c r="B44" s="50"/>
+      <c r="C44" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>217</v>
+      <c r="D44" s="86" t="s">
+        <v>251</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>586</v>
@@ -44710,12 +44710,12 @@
       <c r="A45" s="34">
         <v>42736</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="51" t="s">
-        <v>256</v>
+      <c r="D45" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>586</v>
@@ -44732,8 +44732,8 @@
       <c r="C46" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>259</v>
+      <c r="D46" s="51" t="s">
+        <v>256</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>586</v>
@@ -44751,7 +44751,7 @@
         <v>49</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>586</v>
@@ -44769,7 +44769,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>586</v>
@@ -44784,10 +44784,10 @@
       </c>
       <c r="B49" s="50"/>
       <c r="C49" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>266</v>
+        <v>49</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>586</v>
@@ -44804,8 +44804,8 @@
       <c r="C50" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="38" t="s">
-        <v>269</v>
+      <c r="D50" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>586</v>
@@ -44823,7 +44823,7 @@
         <v>82</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>586</v>
@@ -44836,12 +44836,12 @@
       <c r="A52" s="34">
         <v>42736</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="235" t="s">
-        <v>273</v>
+      <c r="B52" s="50"/>
+      <c r="C52" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="E52" s="50" t="s">
         <v>586</v>
@@ -44858,8 +44858,8 @@
       <c r="C53" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="234" t="s">
-        <v>275</v>
+      <c r="D53" s="235" t="s">
+        <v>273</v>
       </c>
       <c r="E53" s="50" t="s">
         <v>586</v>
@@ -44877,7 +44877,7 @@
         <v>85</v>
       </c>
       <c r="D54" s="234" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>586</v>
@@ -44895,7 +44895,7 @@
         <v>85</v>
       </c>
       <c r="D55" s="234" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="E55" s="50" t="s">
         <v>586</v>
@@ -44908,12 +44908,12 @@
       <c r="A56" s="34">
         <v>42736</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>280</v>
+      <c r="B56" s="35"/>
+      <c r="C56" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="234" t="s">
+        <v>277</v>
       </c>
       <c r="E56" s="50" t="s">
         <v>586</v>
@@ -44926,12 +44926,12 @@
       <c r="A57" s="34">
         <v>42736</v>
       </c>
-      <c r="B57" s="35"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>586</v>
@@ -44949,7 +44949,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>586</v>
@@ -44967,7 +44967,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E59" s="50" t="s">
         <v>586</v>
@@ -44985,7 +44985,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E60" s="50" t="s">
         <v>586</v>
@@ -45003,7 +45003,7 @@
         <v>52</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E61" s="50" t="s">
         <v>586</v>
@@ -45021,7 +45021,7 @@
         <v>52</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E62" s="50" t="s">
         <v>586</v>
@@ -45039,7 +45039,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>586</v>
@@ -45057,7 +45057,7 @@
         <v>52</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>586</v>
@@ -45075,7 +45075,7 @@
         <v>52</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E65" s="50" t="s">
         <v>586</v>
@@ -45092,8 +45092,8 @@
       <c r="C66" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>217</v>
+      <c r="D66" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="E66" s="50" t="s">
         <v>586</v>
@@ -45108,10 +45108,10 @@
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>280</v>
+        <v>52</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E67" s="50" t="s">
         <v>586</v>
@@ -45129,7 +45129,7 @@
         <v>55</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E68" s="50" t="s">
         <v>586</v>
@@ -45147,7 +45147,7 @@
         <v>55</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E69" s="50" t="s">
         <v>586</v>
@@ -45165,7 +45165,7 @@
         <v>55</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E70" s="50" t="s">
         <v>586</v>
@@ -45182,8 +45182,8 @@
       <c r="C71" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="36" t="s">
-        <v>217</v>
+      <c r="D71" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="E71" s="50" t="s">
         <v>586</v>
@@ -45197,11 +45197,11 @@
         <v>42736</v>
       </c>
       <c r="B72" s="35"/>
-      <c r="C72" s="36" t="s">
-        <v>58</v>
+      <c r="C72" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E72" s="50" t="s">
         <v>586</v>
@@ -45219,7 +45219,7 @@
         <v>58</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="E73" s="50" t="s">
         <v>586</v>
@@ -45234,10 +45234,10 @@
       </c>
       <c r="B74" s="35"/>
       <c r="C74" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E74" s="50" t="s">
         <v>586</v>
@@ -45255,7 +45255,7 @@
         <v>61</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>586</v>
@@ -45272,8 +45272,8 @@
       <c r="C76" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="38" t="s">
-        <v>282</v>
+      <c r="D76" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="E76" s="50" t="s">
         <v>586</v>
@@ -45291,7 +45291,7 @@
         <v>61</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E77" s="50" t="s">
         <v>586</v>
@@ -45308,8 +45308,8 @@
       <c r="C78" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="36" t="s">
-        <v>192</v>
+      <c r="D78" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="E78" s="50" t="s">
         <v>586</v>
@@ -45327,7 +45327,7 @@
         <v>61</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E79" s="50" t="s">
         <v>586</v>
@@ -45345,7 +45345,7 @@
         <v>61</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E80" s="50" t="s">
         <v>586</v>
@@ -45363,7 +45363,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E81" s="50" t="s">
         <v>586</v>
@@ -45381,7 +45381,7 @@
         <v>61</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E82" s="50" t="s">
         <v>586</v>
@@ -45399,7 +45399,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E83" s="50" t="s">
         <v>586</v>
@@ -45417,7 +45417,7 @@
         <v>61</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E84" s="50" t="s">
         <v>586</v>
@@ -45434,8 +45434,8 @@
       <c r="C85" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="38" t="s">
-        <v>334</v>
+      <c r="D85" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="E85" s="50" t="s">
         <v>586</v>
@@ -45453,7 +45453,7 @@
         <v>61</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="E86" s="50" t="s">
         <v>586</v>
@@ -45471,7 +45471,7 @@
         <v>61</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>586</v>
@@ -45489,7 +45489,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E88" s="50" t="s">
         <v>586</v>
@@ -45507,7 +45507,7 @@
         <v>61</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="E89" s="50" t="s">
         <v>586</v>
@@ -45525,7 +45525,7 @@
         <v>61</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E90" s="50" t="s">
         <v>586</v>
@@ -45543,7 +45543,7 @@
         <v>61</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>586</v>
@@ -45561,7 +45561,7 @@
         <v>61</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E92" s="50" t="s">
         <v>586</v>
@@ -45579,7 +45579,7 @@
         <v>61</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>586</v>
@@ -45597,7 +45597,7 @@
         <v>61</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E94" s="50" t="s">
         <v>586</v>
@@ -45615,7 +45615,7 @@
         <v>61</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E95" s="50" t="s">
         <v>586</v>
@@ -45633,7 +45633,7 @@
         <v>61</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E96" s="50" t="s">
         <v>586</v>
@@ -45651,7 +45651,7 @@
         <v>61</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E97" s="50" t="s">
         <v>586</v>
@@ -45669,7 +45669,7 @@
         <v>61</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E98" s="50" t="s">
         <v>586</v>
@@ -45687,7 +45687,7 @@
         <v>61</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E99" s="50" t="s">
         <v>586</v>
@@ -45705,7 +45705,7 @@
         <v>61</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E100" s="50" t="s">
         <v>586</v>
@@ -45723,7 +45723,7 @@
         <v>61</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E101" s="50" t="s">
         <v>586</v>
@@ -45741,7 +45741,7 @@
         <v>61</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="E102" s="50" t="s">
         <v>586</v>
@@ -45758,8 +45758,8 @@
       <c r="C103" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="36" t="s">
-        <v>286</v>
+      <c r="D103" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="E103" s="50" t="s">
         <v>586</v>
@@ -45777,7 +45777,7 @@
         <v>61</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="E104" s="50" t="s">
         <v>586</v>
@@ -45795,7 +45795,7 @@
         <v>61</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>586</v>
@@ -45813,7 +45813,7 @@
         <v>61</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="E106" s="50" t="s">
         <v>586</v>
@@ -45830,8 +45830,8 @@
       <c r="C107" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="38" t="s">
-        <v>292</v>
+      <c r="D107" s="36" t="s">
+        <v>345</v>
       </c>
       <c r="E107" s="50" t="s">
         <v>586</v>
@@ -45849,7 +45849,7 @@
         <v>61</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="E108" s="50" t="s">
         <v>586</v>
@@ -45867,7 +45867,7 @@
         <v>61</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E109" s="50" t="s">
         <v>586</v>
@@ -45885,7 +45885,7 @@
         <v>61</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E110" s="50" t="s">
         <v>586</v>
@@ -45903,7 +45903,7 @@
         <v>61</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E111" s="50" t="s">
         <v>586</v>
@@ -45921,7 +45921,7 @@
         <v>61</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="E112" s="50" t="s">
         <v>586</v>
@@ -45938,8 +45938,8 @@
       <c r="C113" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D113" s="36" t="s">
-        <v>355</v>
+      <c r="D113" s="38" t="s">
+        <v>331</v>
       </c>
       <c r="E113" s="50" t="s">
         <v>586</v>
@@ -45957,7 +45957,7 @@
         <v>61</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E114" s="50" t="s">
         <v>586</v>
@@ -45971,11 +45971,11 @@
         <v>42736</v>
       </c>
       <c r="B115" s="35"/>
-      <c r="C115" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>247</v>
+      <c r="C115" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="E115" s="50" t="s">
         <v>586</v>
@@ -45993,7 +45993,7 @@
         <v>64</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E116" s="50" t="s">
         <v>586</v>
@@ -46011,7 +46011,7 @@
         <v>64</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E117" s="50" t="s">
         <v>586</v>
@@ -46024,12 +46024,12 @@
       <c r="A118" s="34">
         <v>42736</v>
       </c>
-      <c r="B118" s="50"/>
+      <c r="B118" s="35"/>
       <c r="C118" s="128" t="s">
         <v>64</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E118" s="50" t="s">
         <v>586</v>
@@ -46042,12 +46042,12 @@
       <c r="A119" s="34">
         <v>42736</v>
       </c>
-      <c r="B119" s="39"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="D119" s="128" t="s">
-        <v>217</v>
+      <c r="D119" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="E119" s="50" t="s">
         <v>586</v>
@@ -46060,12 +46060,12 @@
       <c r="A120" s="34">
         <v>42736</v>
       </c>
-      <c r="B120" s="50"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="128" t="s">
         <v>64</v>
       </c>
       <c r="D120" s="128" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="E120" s="50" t="s">
         <v>586</v>
@@ -46083,7 +46083,7 @@
         <v>64</v>
       </c>
       <c r="D121" s="128" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E121" s="50" t="s">
         <v>586</v>
@@ -46096,12 +46096,12 @@
       <c r="A122" s="34">
         <v>42736</v>
       </c>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D122" s="36" t="s">
-        <v>165</v>
+      <c r="B122" s="50"/>
+      <c r="C122" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" s="128" t="s">
+        <v>259</v>
       </c>
       <c r="E122" s="50" t="s">
         <v>586</v>
@@ -46115,8 +46115,8 @@
         <v>42736</v>
       </c>
       <c r="B123" s="35"/>
-      <c r="C123" s="38" t="s">
-        <v>70</v>
+      <c r="C123" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>165</v>
@@ -46137,7 +46137,7 @@
         <v>70</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E124" s="50" t="s">
         <v>586</v>
@@ -46151,14 +46151,14 @@
         <v>42736</v>
       </c>
       <c r="B125" s="35"/>
-      <c r="C125" s="36" t="s">
-        <v>73</v>
+      <c r="C125" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="E125" s="50" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F125" s="74" t="s">
         <v>585</v>
@@ -46176,10 +46176,10 @@
         <v>363</v>
       </c>
       <c r="E126" s="50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F126" s="74" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -46187,17 +46187,17 @@
         <v>42736</v>
       </c>
       <c r="B127" s="35"/>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E127" s="50" t="s">
         <v>602</v>
       </c>
       <c r="F127" s="74" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -46209,7 +46209,7 @@
         <v>73</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E128" s="50" t="s">
         <v>602</v>
@@ -46227,10 +46227,10 @@
         <v>73</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F129" s="74" t="s">
         <v>585</v>
@@ -46245,7 +46245,7 @@
         <v>73</v>
       </c>
       <c r="D130" s="36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E130" s="50" t="s">
         <v>600</v>
@@ -46260,13 +46260,13 @@
       </c>
       <c r="B131" s="35"/>
       <c r="C131" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D131" s="38" t="s">
-        <v>302</v>
+        <v>73</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>362</v>
       </c>
       <c r="E131" s="50" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F131" s="74" t="s">
         <v>585</v>
@@ -46281,7 +46281,7 @@
         <v>76</v>
       </c>
       <c r="D132" s="38" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="E132" s="50" t="s">
         <v>586</v>
@@ -46291,20 +46291,20 @@
       </c>
     </row>
     <row r="133" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A133" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="43" t="s">
+      <c r="A133" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B133" s="35"/>
+      <c r="C133" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D133" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E133" s="55" t="s">
+      <c r="D133" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="E133" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F133" s="79" t="s">
+      <c r="F133" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46314,10 +46314,10 @@
       </c>
       <c r="B134" s="52"/>
       <c r="C134" s="43" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D134" s="43" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="E134" s="55" t="s">
         <v>586</v>
@@ -46335,7 +46335,7 @@
         <v>88</v>
       </c>
       <c r="D135" s="43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E135" s="55" t="s">
         <v>586</v>
@@ -46353,7 +46353,7 @@
         <v>88</v>
       </c>
       <c r="D136" s="43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E136" s="55" t="s">
         <v>586</v>
@@ -46371,7 +46371,7 @@
         <v>88</v>
       </c>
       <c r="D137" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E137" s="55" t="s">
         <v>586</v>
@@ -46389,7 +46389,7 @@
         <v>88</v>
       </c>
       <c r="D138" s="43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E138" s="55" t="s">
         <v>586</v>
@@ -46407,7 +46407,7 @@
         <v>88</v>
       </c>
       <c r="D139" s="43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E139" s="55" t="s">
         <v>586</v>
@@ -46425,7 +46425,7 @@
         <v>88</v>
       </c>
       <c r="D140" s="43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E140" s="55" t="s">
         <v>586</v>
@@ -46443,7 +46443,7 @@
         <v>88</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E141" s="55" t="s">
         <v>586</v>
@@ -46461,7 +46461,7 @@
         <v>88</v>
       </c>
       <c r="D142" s="43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E142" s="55" t="s">
         <v>586</v>
@@ -46479,7 +46479,7 @@
         <v>88</v>
       </c>
       <c r="D143" s="43" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E143" s="55" t="s">
         <v>586</v>
@@ -46497,7 +46497,7 @@
         <v>88</v>
       </c>
       <c r="D144" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E144" s="55" t="s">
         <v>586</v>
@@ -46510,12 +46510,12 @@
       <c r="A145" s="41">
         <v>42736</v>
       </c>
-      <c r="B145" s="35"/>
-      <c r="C145" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D145" s="38" t="s">
-        <v>366</v>
+      <c r="B145" s="52"/>
+      <c r="C145" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D145" s="43" t="s">
+        <v>213</v>
       </c>
       <c r="E145" s="55" t="s">
         <v>586</v>
@@ -46533,7 +46533,7 @@
         <v>79</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="E146" s="55" t="s">
         <v>586</v>
@@ -46551,7 +46551,7 @@
         <v>79</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="E147" s="55" t="s">
         <v>586</v>
@@ -46569,7 +46569,7 @@
         <v>79</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E148" s="55" t="s">
         <v>586</v>
@@ -46587,7 +46587,7 @@
         <v>79</v>
       </c>
       <c r="D149" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E149" s="55" t="s">
         <v>586</v>
@@ -46605,7 +46605,7 @@
         <v>79</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E150" s="55" t="s">
         <v>586</v>
@@ -46623,7 +46623,7 @@
         <v>79</v>
       </c>
       <c r="D151" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E151" s="55" t="s">
         <v>586</v>
@@ -46641,7 +46641,7 @@
         <v>79</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E152" s="55" t="s">
         <v>586</v>
@@ -46659,7 +46659,7 @@
         <v>79</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E153" s="55" t="s">
         <v>586</v>
@@ -46672,12 +46672,12 @@
       <c r="A154" s="41">
         <v>42736</v>
       </c>
-      <c r="B154" s="52"/>
+      <c r="B154" s="35"/>
       <c r="C154" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D154" s="43" t="s">
-        <v>387</v>
+      <c r="D154" s="38" t="s">
+        <v>385</v>
       </c>
       <c r="E154" s="55" t="s">
         <v>586</v>
@@ -46687,20 +46687,20 @@
       </c>
     </row>
     <row r="155" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A155" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B155" s="35"/>
+      <c r="A155" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B155" s="52"/>
       <c r="C155" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D155" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E155" s="50" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F155" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E155" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="F155" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46713,7 +46713,7 @@
         <v>41</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E156" s="50" t="s">
         <v>1239</v>
@@ -46731,7 +46731,7 @@
         <v>41</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E157" s="50" t="s">
         <v>1239</v>
@@ -46749,7 +46749,7 @@
         <v>41</v>
       </c>
       <c r="D158" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E158" s="50" t="s">
         <v>1239</v>
@@ -46767,7 +46767,7 @@
         <v>41</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E159" s="50" t="s">
         <v>1239</v>
@@ -46785,7 +46785,7 @@
         <v>41</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E160" s="50" t="s">
         <v>1239</v>
@@ -46803,7 +46803,7 @@
         <v>41</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E161" s="50" t="s">
         <v>1239</v>
@@ -46821,7 +46821,7 @@
         <v>41</v>
       </c>
       <c r="D162" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E162" s="50" t="s">
         <v>1239</v>
@@ -46839,7 +46839,7 @@
         <v>41</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E163" s="50" t="s">
         <v>1239</v>
@@ -46857,7 +46857,7 @@
         <v>41</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E164" s="50" t="s">
         <v>1239</v>
@@ -46875,7 +46875,7 @@
         <v>41</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E165" s="50" t="s">
         <v>1239</v>
@@ -46893,7 +46893,7 @@
         <v>41</v>
       </c>
       <c r="D166" s="38" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E166" s="50" t="s">
         <v>1239</v>
@@ -46903,38 +46903,38 @@
       </c>
     </row>
     <row r="167" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A167" s="95">
-        <v>42737</v>
-      </c>
-      <c r="B167" s="81"/>
+      <c r="A167" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B167" s="35"/>
       <c r="C167" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E167" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F167" s="130" t="s">
+      <c r="F167" s="74" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A168" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B168" s="35"/>
+      <c r="A168" s="95">
+        <v>42737</v>
+      </c>
+      <c r="B168" s="81"/>
       <c r="C168" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D168" s="38" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E168" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F168" s="74" t="s">
+      <c r="F168" s="130" t="s">
         <v>585</v>
       </c>
     </row>
@@ -46947,7 +46947,7 @@
         <v>41</v>
       </c>
       <c r="D169" s="38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E169" s="50" t="s">
         <v>1239</v>
@@ -46965,7 +46965,7 @@
         <v>41</v>
       </c>
       <c r="D170" s="38" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E170" s="50" t="s">
         <v>1239</v>
@@ -46983,7 +46983,7 @@
         <v>41</v>
       </c>
       <c r="D171" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E171" s="50" t="s">
         <v>1239</v>
@@ -47001,7 +47001,7 @@
         <v>41</v>
       </c>
       <c r="D172" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E172" s="50" t="s">
         <v>1239</v>
@@ -47019,7 +47019,7 @@
         <v>41</v>
       </c>
       <c r="D173" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E173" s="50" t="s">
         <v>1239</v>
@@ -47029,20 +47029,20 @@
       </c>
     </row>
     <row r="174" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A174" s="41">
-        <v>42736</v>
-      </c>
-      <c r="B174" s="52"/>
-      <c r="C174" s="43" t="s">
+      <c r="A174" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B174" s="35"/>
+      <c r="C174" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D174" s="43" t="s">
-        <v>227</v>
+      <c r="D174" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="E174" s="50" t="s">
         <v>1239</v>
       </c>
-      <c r="F174" s="79" t="s">
+      <c r="F174" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47050,17 +47050,17 @@
       <c r="A175" s="41">
         <v>42736</v>
       </c>
-      <c r="B175" s="35"/>
-      <c r="C175" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D175" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E175" s="39" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F175" s="74" t="s">
+      <c r="B175" s="52"/>
+      <c r="C175" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E175" s="50" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F175" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47073,7 +47073,7 @@
         <v>91</v>
       </c>
       <c r="D176" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E176" s="39" t="s">
         <v>1238</v>
@@ -47091,7 +47091,7 @@
         <v>91</v>
       </c>
       <c r="D177" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E177" s="39" t="s">
         <v>1238</v>
@@ -47109,7 +47109,7 @@
         <v>91</v>
       </c>
       <c r="D178" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E178" s="39" t="s">
         <v>1238</v>
@@ -47127,7 +47127,7 @@
         <v>91</v>
       </c>
       <c r="D179" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E179" s="39" t="s">
         <v>1238</v>
@@ -47145,7 +47145,7 @@
         <v>91</v>
       </c>
       <c r="D180" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E180" s="39" t="s">
         <v>1238</v>
@@ -47158,17 +47158,17 @@
       <c r="A181" s="41">
         <v>42736</v>
       </c>
-      <c r="B181" s="52"/>
-      <c r="C181" s="43" t="s">
+      <c r="B181" s="35"/>
+      <c r="C181" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D181" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="E181" s="42" t="s">
+      <c r="D181" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E181" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="F181" s="79" t="s">
+      <c r="F181" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47180,8 +47180,8 @@
       <c r="C182" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D182" s="38" t="s">
-        <v>403</v>
+      <c r="D182" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="E182" s="42" t="s">
         <v>1238</v>
@@ -47190,21 +47190,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="20" customHeight="1">
+    <row r="183" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A183" s="41">
         <v>42736</v>
       </c>
-      <c r="B183" s="35"/>
-      <c r="C183" s="38" t="s">
+      <c r="B183" s="52"/>
+      <c r="C183" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E183" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F183" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E183" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F183" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47217,7 +47217,7 @@
         <v>91</v>
       </c>
       <c r="D184" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E184" s="39" t="s">
         <v>1237</v>
@@ -47235,7 +47235,7 @@
         <v>91</v>
       </c>
       <c r="D185" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E185" s="39" t="s">
         <v>1237</v>
@@ -47253,7 +47253,7 @@
         <v>91</v>
       </c>
       <c r="D186" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E186" s="39" t="s">
         <v>1237</v>
@@ -47271,7 +47271,7 @@
         <v>91</v>
       </c>
       <c r="D187" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E187" s="39" t="s">
         <v>1237</v>
@@ -47289,7 +47289,7 @@
         <v>91</v>
       </c>
       <c r="D188" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E188" s="39" t="s">
         <v>1237</v>
@@ -47307,7 +47307,7 @@
         <v>91</v>
       </c>
       <c r="D189" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E189" s="39" t="s">
         <v>1237</v>
@@ -47325,7 +47325,7 @@
         <v>91</v>
       </c>
       <c r="D190" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E190" s="39" t="s">
         <v>1237</v>
@@ -47343,10 +47343,10 @@
         <v>91</v>
       </c>
       <c r="D191" s="38" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E191" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F191" s="74" t="s">
         <v>585</v>
@@ -47361,7 +47361,7 @@
         <v>91</v>
       </c>
       <c r="D192" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E192" s="39" t="s">
         <v>1240</v>
@@ -47379,7 +47379,7 @@
         <v>91</v>
       </c>
       <c r="D193" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E193" s="39" t="s">
         <v>1240</v>
@@ -47397,7 +47397,7 @@
         <v>91</v>
       </c>
       <c r="D194" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E194" s="39" t="s">
         <v>1240</v>
@@ -47415,10 +47415,10 @@
         <v>91</v>
       </c>
       <c r="D195" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E195" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F195" s="74" t="s">
         <v>585</v>
@@ -47433,7 +47433,7 @@
         <v>91</v>
       </c>
       <c r="D196" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E196" s="39" t="s">
         <v>586</v>
@@ -47451,7 +47451,7 @@
         <v>91</v>
       </c>
       <c r="D197" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E197" s="39" t="s">
         <v>586</v>
@@ -47469,7 +47469,7 @@
         <v>91</v>
       </c>
       <c r="D198" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E198" s="39" t="s">
         <v>586</v>
@@ -47487,7 +47487,7 @@
         <v>91</v>
       </c>
       <c r="D199" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E199" s="39" t="s">
         <v>586</v>
@@ -47505,7 +47505,7 @@
         <v>91</v>
       </c>
       <c r="D200" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E200" s="39" t="s">
         <v>586</v>
@@ -47523,7 +47523,7 @@
         <v>91</v>
       </c>
       <c r="D201" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E201" s="39" t="s">
         <v>586</v>
@@ -47541,7 +47541,7 @@
         <v>91</v>
       </c>
       <c r="D202" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E202" s="39" t="s">
         <v>586</v>
@@ -47556,13 +47556,13 @@
       </c>
       <c r="B203" s="35"/>
       <c r="C203" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D203" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E203" s="39" t="s">
-        <v>1238</v>
+        <v>586</v>
       </c>
       <c r="F203" s="74" t="s">
         <v>585</v>
@@ -47577,7 +47577,7 @@
         <v>94</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E204" s="39" t="s">
         <v>1238</v>
@@ -47595,7 +47595,7 @@
         <v>94</v>
       </c>
       <c r="D205" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E205" s="39" t="s">
         <v>1238</v>
@@ -47613,7 +47613,7 @@
         <v>94</v>
       </c>
       <c r="D206" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E206" s="39" t="s">
         <v>1238</v>
@@ -47631,7 +47631,7 @@
         <v>94</v>
       </c>
       <c r="D207" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E207" s="39" t="s">
         <v>1238</v>
@@ -47649,7 +47649,7 @@
         <v>94</v>
       </c>
       <c r="D208" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E208" s="39" t="s">
         <v>1238</v>
@@ -47667,7 +47667,7 @@
         <v>94</v>
       </c>
       <c r="D209" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E209" s="39" t="s">
         <v>1238</v>
@@ -47676,39 +47676,39 @@
         <v>585</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+    <row r="210" spans="1:6" ht="20" customHeight="1">
       <c r="A210" s="41">
         <v>42736</v>
       </c>
-      <c r="B210" s="52"/>
+      <c r="B210" s="35"/>
       <c r="C210" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D210" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="E210" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="E210" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="F210" s="79" t="s">
+      <c r="F210" s="74" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="20" customHeight="1">
+    <row r="211" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
       <c r="A211" s="41">
         <v>42736</v>
       </c>
-      <c r="B211" s="35"/>
+      <c r="B211" s="52"/>
       <c r="C211" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D211" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E211" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F211" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E211" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F211" s="79" t="s">
         <v>585</v>
       </c>
     </row>
@@ -47721,7 +47721,7 @@
         <v>94</v>
       </c>
       <c r="D212" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E212" s="39" t="s">
         <v>1237</v>
@@ -47739,7 +47739,7 @@
         <v>94</v>
       </c>
       <c r="D213" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E213" s="39" t="s">
         <v>1237</v>
@@ -47757,7 +47757,7 @@
         <v>94</v>
       </c>
       <c r="D214" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E214" s="39" t="s">
         <v>1237</v>
@@ -47775,7 +47775,7 @@
         <v>94</v>
       </c>
       <c r="D215" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E215" s="39" t="s">
         <v>1237</v>
@@ -47793,7 +47793,7 @@
         <v>94</v>
       </c>
       <c r="D216" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E216" s="39" t="s">
         <v>1237</v>
@@ -47811,7 +47811,7 @@
         <v>94</v>
       </c>
       <c r="D217" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E217" s="39" t="s">
         <v>1237</v>
@@ -47829,7 +47829,7 @@
         <v>94</v>
       </c>
       <c r="D218" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E218" s="39" t="s">
         <v>1237</v>
@@ -47847,10 +47847,10 @@
         <v>94</v>
       </c>
       <c r="D219" s="38" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E219" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F219" s="74" t="s">
         <v>585</v>
@@ -47865,7 +47865,7 @@
         <v>94</v>
       </c>
       <c r="D220" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E220" s="39" t="s">
         <v>1240</v>
@@ -47883,7 +47883,7 @@
         <v>94</v>
       </c>
       <c r="D221" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E221" s="39" t="s">
         <v>1240</v>
@@ -47901,7 +47901,7 @@
         <v>94</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E222" s="39" t="s">
         <v>1240</v>
@@ -47919,10 +47919,10 @@
         <v>94</v>
       </c>
       <c r="D223" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E223" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F223" s="74" t="s">
         <v>585</v>
@@ -47937,7 +47937,7 @@
         <v>94</v>
       </c>
       <c r="D224" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E224" s="39" t="s">
         <v>586</v>
@@ -47955,7 +47955,7 @@
         <v>94</v>
       </c>
       <c r="D225" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E225" s="39" t="s">
         <v>586</v>
@@ -47973,7 +47973,7 @@
         <v>94</v>
       </c>
       <c r="D226" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E226" s="39" t="s">
         <v>586</v>
@@ -47991,7 +47991,7 @@
         <v>94</v>
       </c>
       <c r="D227" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E227" s="39" t="s">
         <v>586</v>
@@ -48009,7 +48009,7 @@
         <v>94</v>
       </c>
       <c r="D228" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E228" s="39" t="s">
         <v>586</v>
@@ -48027,7 +48027,7 @@
         <v>94</v>
       </c>
       <c r="D229" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E229" s="39" t="s">
         <v>586</v>
@@ -48045,7 +48045,7 @@
         <v>94</v>
       </c>
       <c r="D230" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E230" s="39" t="s">
         <v>586</v>
@@ -48060,13 +48060,13 @@
       </c>
       <c r="B231" s="35"/>
       <c r="C231" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D231" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E231" s="39" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F231" s="74" t="s">
         <v>585</v>
@@ -48081,7 +48081,7 @@
         <v>97</v>
       </c>
       <c r="D232" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E232" s="39" t="s">
         <v>1237</v>
@@ -48099,7 +48099,7 @@
         <v>97</v>
       </c>
       <c r="D233" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E233" s="39" t="s">
         <v>1237</v>
@@ -48117,7 +48117,7 @@
         <v>97</v>
       </c>
       <c r="D234" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E234" s="39" t="s">
         <v>1237</v>
@@ -48135,7 +48135,7 @@
         <v>97</v>
       </c>
       <c r="D235" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E235" s="39" t="s">
         <v>1237</v>
@@ -48153,7 +48153,7 @@
         <v>97</v>
       </c>
       <c r="D236" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E236" s="39" t="s">
         <v>1237</v>
@@ -48171,7 +48171,7 @@
         <v>97</v>
       </c>
       <c r="D237" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E237" s="39" t="s">
         <v>1237</v>
@@ -48189,7 +48189,7 @@
         <v>97</v>
       </c>
       <c r="D238" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E238" s="39" t="s">
         <v>1237</v>
@@ -48207,10 +48207,10 @@
         <v>97</v>
       </c>
       <c r="D239" s="38" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E239" s="39" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F239" s="74" t="s">
         <v>585</v>
@@ -48225,7 +48225,7 @@
         <v>97</v>
       </c>
       <c r="D240" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E240" s="39" t="s">
         <v>1240</v>
@@ -48243,7 +48243,7 @@
         <v>97</v>
       </c>
       <c r="D241" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E241" s="39" t="s">
         <v>1240</v>
@@ -48261,7 +48261,7 @@
         <v>97</v>
       </c>
       <c r="D242" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E242" s="39" t="s">
         <v>1240</v>
@@ -48279,10 +48279,10 @@
         <v>97</v>
       </c>
       <c r="D243" s="38" t="s">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="E243" s="39" t="s">
-        <v>586</v>
+        <v>1240</v>
       </c>
       <c r="F243" s="74" t="s">
         <v>585</v>
@@ -48297,7 +48297,7 @@
         <v>97</v>
       </c>
       <c r="D244" s="38" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E244" s="39" t="s">
         <v>586</v>
@@ -48315,7 +48315,7 @@
         <v>97</v>
       </c>
       <c r="D245" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E245" s="39" t="s">
         <v>586</v>
@@ -48333,7 +48333,7 @@
         <v>97</v>
       </c>
       <c r="D246" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E246" s="39" t="s">
         <v>586</v>
@@ -48351,7 +48351,7 @@
         <v>97</v>
       </c>
       <c r="D247" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E247" s="39" t="s">
         <v>586</v>
@@ -48369,7 +48369,7 @@
         <v>97</v>
       </c>
       <c r="D248" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E248" s="39" t="s">
         <v>586</v>
@@ -48387,7 +48387,7 @@
         <v>97</v>
       </c>
       <c r="D249" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E249" s="39" t="s">
         <v>586</v>
@@ -48405,7 +48405,7 @@
         <v>97</v>
       </c>
       <c r="D250" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E250" s="39" t="s">
         <v>586</v>
@@ -48419,11 +48419,11 @@
         <v>42736</v>
       </c>
       <c r="B251" s="35"/>
-      <c r="C251" s="428" t="s">
-        <v>100</v>
-      </c>
-      <c r="D251" s="483" t="s">
-        <v>165</v>
+      <c r="C251" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D251" s="38" t="s">
+        <v>403</v>
       </c>
       <c r="E251" s="39" t="s">
         <v>586</v>
@@ -48437,11 +48437,11 @@
         <v>42736</v>
       </c>
       <c r="B252" s="35"/>
-      <c r="C252" s="38" t="s">
+      <c r="C252" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D252" s="484" t="s">
-        <v>169</v>
+      <c r="D252" s="483" t="s">
+        <v>165</v>
       </c>
       <c r="E252" s="39" t="s">
         <v>586</v>
@@ -48455,11 +48455,11 @@
         <v>42736</v>
       </c>
       <c r="B253" s="35"/>
-      <c r="C253" s="428" t="s">
+      <c r="C253" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D253" s="483" t="s">
-        <v>172</v>
+      <c r="D253" s="484" t="s">
+        <v>169</v>
       </c>
       <c r="E253" s="39" t="s">
         <v>586</v>
@@ -48473,11 +48473,11 @@
         <v>42736</v>
       </c>
       <c r="B254" s="35"/>
-      <c r="C254" s="38" t="s">
+      <c r="C254" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D254" s="425" t="s">
-        <v>241</v>
+      <c r="D254" s="483" t="s">
+        <v>172</v>
       </c>
       <c r="E254" s="39" t="s">
         <v>586</v>
@@ -48491,11 +48491,11 @@
         <v>42736</v>
       </c>
       <c r="B255" s="35"/>
-      <c r="C255" s="428" t="s">
+      <c r="C255" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D255" s="426" t="s">
-        <v>253</v>
+      <c r="D255" s="425" t="s">
+        <v>241</v>
       </c>
       <c r="E255" s="39" t="s">
         <v>586</v>
@@ -48509,11 +48509,11 @@
         <v>42736</v>
       </c>
       <c r="B256" s="35"/>
-      <c r="C256" s="38" t="s">
+      <c r="C256" s="428" t="s">
         <v>100</v>
       </c>
-      <c r="D256" s="36" t="s">
-        <v>181</v>
+      <c r="D256" s="426" t="s">
+        <v>253</v>
       </c>
       <c r="E256" s="39" t="s">
         <v>586</v>
@@ -48523,20 +48523,20 @@
       </c>
     </row>
     <row r="257" spans="1:6" ht="20" customHeight="1">
-      <c r="A257" s="472">
-        <v>42736</v>
-      </c>
-      <c r="B257" s="473"/>
-      <c r="C257" s="453" t="s">
-        <v>103</v>
-      </c>
-      <c r="D257" s="433" t="s">
-        <v>165</v>
-      </c>
-      <c r="E257" s="474" t="s">
+      <c r="A257" s="41">
+        <v>42736</v>
+      </c>
+      <c r="B257" s="35"/>
+      <c r="C257" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D257" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E257" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="F257" s="475" t="s">
+      <c r="F257" s="74" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48549,7 +48549,7 @@
         <v>103</v>
       </c>
       <c r="D258" s="433" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E258" s="474" t="s">
         <v>586</v>
@@ -48567,7 +48567,7 @@
         <v>103</v>
       </c>
       <c r="D259" s="433" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="E259" s="474" t="s">
         <v>586</v>
@@ -48585,7 +48585,7 @@
         <v>103</v>
       </c>
       <c r="D260" s="433" t="s">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="E260" s="474" t="s">
         <v>586</v>
@@ -48598,17 +48598,17 @@
       <c r="A261" s="472">
         <v>42736</v>
       </c>
-      <c r="B261" s="472"/>
-      <c r="C261" s="472" t="s">
+      <c r="B261" s="473"/>
+      <c r="C261" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="D261" s="472" t="s">
-        <v>406</v>
-      </c>
-      <c r="E261" s="472" t="s">
+      <c r="D261" s="433" t="s">
+        <v>404</v>
+      </c>
+      <c r="E261" s="474" t="s">
         <v>586</v>
       </c>
-      <c r="F261" s="472" t="s">
+      <c r="F261" s="475" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48621,7 +48621,7 @@
         <v>103</v>
       </c>
       <c r="D262" s="472" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E262" s="472" t="s">
         <v>586</v>
@@ -48630,7 +48630,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="13.25" customHeight="1">
+    <row r="263" spans="1:6" ht="20" customHeight="1">
       <c r="A263" s="472">
         <v>42736</v>
       </c>
@@ -48639,7 +48639,7 @@
         <v>103</v>
       </c>
       <c r="D263" s="472" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E263" s="472" t="s">
         <v>586</v>
@@ -48657,7 +48657,7 @@
         <v>103</v>
       </c>
       <c r="D264" s="472" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E264" s="472" t="s">
         <v>586</v>
@@ -48666,21 +48666,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A265" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B265" s="35"/>
-      <c r="C265" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D265" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E265" s="50" t="s">
+    <row r="265" spans="1:6" ht="13.25" customHeight="1">
+      <c r="A265" s="472">
+        <v>42736</v>
+      </c>
+      <c r="B265" s="472"/>
+      <c r="C265" s="472" t="s">
+        <v>103</v>
+      </c>
+      <c r="D265" s="472" t="s">
+        <v>414</v>
+      </c>
+      <c r="E265" s="472" t="s">
         <v>586</v>
       </c>
-      <c r="F265" s="74" t="s">
+      <c r="F265" s="472" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48693,13 +48693,13 @@
         <v>106</v>
       </c>
       <c r="D266" s="36" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="E266" s="50" t="s">
         <v>586</v>
       </c>
       <c r="F266" s="74" t="s">
-        <v>1241</v>
+        <v>585</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48711,13 +48711,13 @@
         <v>106</v>
       </c>
       <c r="D267" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E267" s="50" t="s">
         <v>586</v>
       </c>
       <c r="F267" s="74" t="s">
-        <v>587</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48728,14 +48728,14 @@
       <c r="C268" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D268" s="38" t="s">
-        <v>286</v>
+      <c r="D268" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="E268" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F268" s="188" t="s">
-        <v>585</v>
+      <c r="F268" s="74" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
@@ -48747,31 +48747,31 @@
         <v>106</v>
       </c>
       <c r="D269" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E269" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="F269" s="74" t="s">
+      <c r="F269" s="188" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A270" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B270" s="35"/>
+      <c r="C270" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D270" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E270" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F270" s="74" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
-      <c r="A270" s="516">
-        <v>42736</v>
-      </c>
-      <c r="B270" s="488"/>
-      <c r="C270" s="490" t="s">
-        <v>109</v>
-      </c>
-      <c r="D270" s="490" t="s">
-        <v>165</v>
-      </c>
-      <c r="E270" s="491" t="s">
-        <v>586</v>
-      </c>
-      <c r="F270" s="493" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
@@ -48786,27 +48786,27 @@
         <v>165</v>
       </c>
       <c r="E271" s="491" t="s">
-        <v>1237</v>
+        <v>586</v>
       </c>
       <c r="F271" s="493" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
-      <c r="A272" s="34">
-        <v>42736</v>
-      </c>
-      <c r="B272" s="35"/>
-      <c r="C272" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D272" s="36" t="s">
+    <row r="272" spans="1:6" s="285" customFormat="1" ht="20" customHeight="1">
+      <c r="A272" s="516">
+        <v>42736</v>
+      </c>
+      <c r="B272" s="488"/>
+      <c r="C272" s="490" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" s="490" t="s">
         <v>165</v>
       </c>
-      <c r="E272" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="F272" s="74" t="s">
+      <c r="E272" s="491" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F272" s="493" t="s">
         <v>585</v>
       </c>
     </row>
@@ -48816,7 +48816,7 @@
       </c>
       <c r="B273" s="35"/>
       <c r="C273" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D273" s="36" t="s">
         <v>165</v>
@@ -48834,7 +48834,7 @@
       </c>
       <c r="B274" s="35"/>
       <c r="C274" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D274" s="36" t="s">
         <v>165</v>
@@ -48843,6 +48843,24 @@
         <v>586</v>
       </c>
       <c r="F274" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="290" customFormat="1" ht="20" customHeight="1">
+      <c r="A275" s="34">
+        <v>42736</v>
+      </c>
+      <c r="B275" s="35"/>
+      <c r="C275" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E275" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="F275" s="74" t="s">
         <v>585</v>
       </c>
     </row>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalkalita/dev/moj/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC915C1-CFBB-400D-931A-E646BBC8E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F6A4BCC-31AA-45C9-B735-F5EF7A998EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60660" yWindow="400" windowWidth="28800" windowHeight="16440" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60660" yWindow="400" windowWidth="28800" windowHeight="16440" firstSheet="25" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,8 @@
     <sheet name="CaseRoles" sheetId="19" r:id="rId23"/>
     <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId24"/>
     <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
-    <sheet name="RoleToAccessProfiles" sheetId="27" r:id="rId26"/>
-    <sheet name="SearchParty" sheetId="28" r:id="rId27"/>
+    <sheet name="SearchParty" sheetId="28" r:id="rId26"/>
+    <sheet name="RoleToAccessProfiles" sheetId="30" r:id="rId27"/>
     <sheet name="SearchCriteria" sheetId="29" r:id="rId28"/>
   </sheets>
   <externalReferences>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10284" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10258" uniqueCount="1293">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3891,37 +3891,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>RoleToAccessProfiles</t>
-  </si>
-  <si>
-    <t>Must match ID role.  If a role doesn’t have a Row below that mean no access to.
-MaxLength: 100.</t>
-  </si>
-  <si>
-    <t>RoleName</t>
-  </si>
-  <si>
-    <t>ReadOnly</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>AccessProfiles</t>
-  </si>
-  <si>
-    <t>Authorisation</t>
-  </si>
-  <si>
-    <t>judge</t>
-  </si>
-  <si>
-    <t>caseworker-befta_master-solicitor,caseworker-caa,caseworker-befta_master-manager,caseworker-befta_master,caseworker-approver</t>
-  </si>
-  <si>
-    <t>caseworker-befta_master-solicitor,caseworker-caa,caseworker-befta_master-junior,caseworker-befta_master-manager,caseworker-befta_master,caseworker-approver</t>
-  </si>
-  <si>
     <t>SearchParty</t>
   </si>
   <si>
@@ -3992,6 +3961,72 @@
   </si>
   <si>
     <t>Address.AddressLine1</t>
+  </si>
+  <si>
+    <t>RoleToAccessProfiles</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>Case Type Id</t>
+  </si>
+  <si>
+    <t>Access Profiles</t>
+  </si>
+  <si>
+    <t>Read Only</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>Authorisation</t>
+  </si>
+  <si>
+    <t>AccessProfiles</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>Role1</t>
+  </si>
+  <si>
+    <t>auth1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Role2</t>
+  </si>
+  <si>
+    <t>Role3</t>
+  </si>
+  <si>
+    <t>caseworker-befta_master,caseworker-befta_master-junior</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Role4</t>
+  </si>
+  <si>
+    <t>caseworker-befta_master,caseworker-befta_master-junior,caseworker-befta_master-manager</t>
+  </si>
+  <si>
+    <t>auth2</t>
+  </si>
+  <si>
+    <t>caseworker-befta_master,caseworker-befta_master-solicitor</t>
   </si>
   <si>
     <t>A complex types that make up the Other Case Reference.
@@ -4011,7 +4046,7 @@
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="77">
+  <fonts count="76">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4483,12 +4518,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6A8759"/>
-      <name val="Menlo"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -4912,7 +4941,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="582">
+  <cellXfs count="572">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6455,57 +6484,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="34" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -6513,7 +6510,332 @@
     <cellStyle name="Normal 2 3" xfId="13" xr:uid="{983C50BB-8B6C-1941-95CA-614B186AEA1E}"/>
     <cellStyle name="Normal 3" xfId="15" xr:uid="{B38533D7-3FBF-F547-ABBC-CA99BE96DA12}"/>
   </cellStyles>
-  <dxfs count="345">
+  <dxfs count="357">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0432FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -14869,424 +15191,440 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="344" dataDxfId="343" headerRowBorderDxfId="341" tableBorderDxfId="342" totalsRowBorderDxfId="340">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F077F35-774C-E743-83C7-6E310AAD8337}" name="Table5" displayName="Table5" ref="A3:E4" totalsRowShown="0" headerRowDxfId="356" dataDxfId="355" headerRowBorderDxfId="353" tableBorderDxfId="354" totalsRowBorderDxfId="352">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="339"/>
-    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="338"/>
-    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="337"/>
-    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="336"/>
-    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="335"/>
+    <tableColumn id="1" xr3:uid="{46ECD1A9-127E-3F45-96EF-07D1A76637A0}" name="LiveFrom" dataDxfId="351"/>
+    <tableColumn id="2" xr3:uid="{13DE718E-2141-6449-B408-2893D5F825EE}" name="LiveTo" dataDxfId="350"/>
+    <tableColumn id="3" xr3:uid="{2B218C4E-E8AE-9640-AF62-1EB51790A676}" name="ID" dataDxfId="349"/>
+    <tableColumn id="4" xr3:uid="{3EF730D3-305C-8E4D-ADBC-A778C1C17A83}" name="Name" dataDxfId="348"/>
+    <tableColumn id="5" xr3:uid="{EB212619-E76B-834D-9639-6E70EF2B808C}" name="Description" dataDxfId="347"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L92" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209" headerRowBorderDxfId="207" tableBorderDxfId="208" totalsRowBorderDxfId="206">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2671E45-89F4-0848-8638-A186A962D516}" name="Table8" displayName="Table8" ref="A3:L92" totalsRowShown="0" headerRowDxfId="222" dataDxfId="221" headerRowBorderDxfId="219" tableBorderDxfId="220" totalsRowBorderDxfId="218">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="205"/>
-    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="204"/>
-    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="203"/>
-    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="202"/>
-    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="201"/>
-    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="200"/>
-    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="199"/>
-    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="198"/>
-    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="197"/>
-    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="196"/>
-    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="195"/>
-    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="194"/>
+    <tableColumn id="1" xr3:uid="{0A3DAEEE-2CC5-0044-A886-149AE812BFAA}" name="LiveFrom" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{0034116A-2F06-744E-96DE-13C53D21D193}" name="LiveTo" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{4E6FF688-3BC6-B34A-92F8-7285F5956CC6}" name="CaseTypeID" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{09102647-DA84-5E49-88D5-212E4C82F684}" name="Channel" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{5162BADF-56AB-0642-B0E0-D4BFAB4F3A56}" name="TabID" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{0BF66D3F-8E5E-FD48-ADD9-C749E508C46F}" name="TabLabel" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{69F4B009-8625-BC4D-9C35-6ADA6C44F63C}" name="TabDisplayOrder" dataDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{F3B4D28F-14B6-0B4F-B9D7-E418EC66FF7D}" name="CaseFieldID" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{D7540CEE-0139-244D-B0F6-61FB3BAFAB2E}" name="TabFieldDisplayOrder" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{F03848C6-8BF9-C045-BE97-D5A5B7B6AF7E}" name="FieldShowCondition" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{351643CD-F5C2-594D-B984-2BD6A557A2A6}" name="TabShowCondition" dataDxfId="207"/>
+    <tableColumn id="12" xr3:uid="{E5813993-7410-BE44-87B6-E432B935A456}" name="DisplayContextParameter" dataDxfId="206"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H43" totalsRowShown="0" headerRowDxfId="193" dataDxfId="192" headerRowBorderDxfId="190" tableBorderDxfId="191" totalsRowBorderDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CFBCA8A-9EC2-9242-9BDE-961374475E58}" name="Table9" displayName="Table9" ref="A3:H43" totalsRowShown="0" headerRowDxfId="205" dataDxfId="204" headerRowBorderDxfId="202" tableBorderDxfId="203" totalsRowBorderDxfId="201">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="183"/>
-    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="182"/>
-    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="181"/>
+    <tableColumn id="1" xr3:uid="{3A9C2213-3C87-B242-A50F-DAA873031CFD}" name="LiveFrom" dataDxfId="200"/>
+    <tableColumn id="2" xr3:uid="{4438559D-2DCB-194A-BFAA-A68A1596F0EA}" name="LiveTo" dataDxfId="199"/>
+    <tableColumn id="3" xr3:uid="{20BC5FF0-EE97-BA41-80E0-333D8430A55D}" name="CaseTypeID" dataDxfId="198"/>
+    <tableColumn id="4" xr3:uid="{660AAD23-D344-7148-A6CD-579BFC3B0553}" name="ID" dataDxfId="197"/>
+    <tableColumn id="5" xr3:uid="{0D9AC729-9189-6841-A6A5-90D572AE955C}" name="Name" dataDxfId="196"/>
+    <tableColumn id="6" xr3:uid="{FFD16467-336A-A547-B4D7-4F82B645BDFB}" name="Description" dataDxfId="195"/>
+    <tableColumn id="7" xr3:uid="{00DD245F-92BF-574F-AF05-7500BA8A31B1}" name="DisplayOrder" dataDxfId="194"/>
+    <tableColumn id="8" xr3:uid="{51D53217-2A1C-DA4C-BB84-EF7FA0AEE74E}" name="TitleDisplay" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:V64" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179" headerRowBorderDxfId="177" tableBorderDxfId="178" totalsRowBorderDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:V64" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191" headerRowBorderDxfId="189" tableBorderDxfId="190" totalsRowBorderDxfId="188">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="172"/>
-    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="171"/>
-    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="170"/>
-    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="169"/>
-    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="167"/>
-    <tableColumn id="22" xr3:uid="{59B33952-3C10-D94F-9012-529644363CBA}" name="EventEnablingCondition" dataDxfId="166"/>
-    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="165" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="164"/>
-    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="163"/>
-    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="162"/>
-    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="161"/>
-    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="160"/>
-    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="159"/>
-    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="158"/>
-    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="157"/>
-    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="156"/>
-    <tableColumn id="21" xr3:uid="{04E7CE93-2C4A-2C46-91EF-227CE86C5C37}" name="EndButtonLabel" dataDxfId="155"/>
-    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="Publish" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="187"/>
+    <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="186"/>
+    <tableColumn id="3" xr3:uid="{3485553F-1201-FF40-807A-E908084BDCE3}" name="CaseTypeID" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{C3A27859-CA49-9344-834B-BF2BE2280BB4}" name="ID" dataDxfId="184"/>
+    <tableColumn id="5" xr3:uid="{72817C12-B46E-604D-AABA-E2DA5A7F4255}" name="Name" dataDxfId="183"/>
+    <tableColumn id="6" xr3:uid="{06145D1D-7832-CA4E-980E-F24369297133}" name="Description" dataDxfId="182"/>
+    <tableColumn id="7" xr3:uid="{C1DFBC7C-115D-3149-9402-7DEBAC2F59B0}" name="DisplayOrder" dataDxfId="181"/>
+    <tableColumn id="8" xr3:uid="{05E21023-6279-404D-8752-82C93B7DD0FC}" name="PreConditionState(s)" dataDxfId="180"/>
+    <tableColumn id="9" xr3:uid="{57F8432A-B070-BC4C-9AF1-0A4A5ECB36E6}" name="PostConditionState" dataDxfId="179"/>
+    <tableColumn id="22" xr3:uid="{59B33952-3C10-D94F-9012-529644363CBA}" name="EventEnablingCondition" dataDxfId="178"/>
+    <tableColumn id="10" xr3:uid="{21E5C290-DF7D-984C-AD84-C1D3B8F4424F}" name="CallBackURLAboutToStartEvent" dataDxfId="177" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{2C9FCA41-AF28-F544-8544-3684A2AD897E}" name="RetriesTimeoutAboutToStartEvent" dataDxfId="176"/>
+    <tableColumn id="12" xr3:uid="{D0331CD4-2EE6-504E-8F08-4697D43974EE}" name="CallBackURLAboutToSubmitEvent" dataDxfId="175"/>
+    <tableColumn id="13" xr3:uid="{B34611C8-3477-894C-92ED-CDE1252E012A}" name="RetriesTimeoutURLAboutToSubmitEvent" dataDxfId="174"/>
+    <tableColumn id="14" xr3:uid="{A562B2B1-BF10-184B-B111-9D18B99B33C6}" name="CallBackURLSubmittedEvent" dataDxfId="173"/>
+    <tableColumn id="15" xr3:uid="{D5665814-36D0-5248-A5BE-E38060DE9D83}" name="RetriesTimeoutURLSubmittedEvent" dataDxfId="172"/>
+    <tableColumn id="16" xr3:uid="{9616BB75-22E6-F24C-B873-522862AC1B37}" name="SecurityClassification" dataDxfId="171"/>
+    <tableColumn id="17" xr3:uid="{382FE088-0BCD-084F-9D03-25A08E5400C5}" name="ShowSummary" dataDxfId="170"/>
+    <tableColumn id="18" xr3:uid="{D488E70D-0F94-1F4D-96D4-756627B23921}" name="ShowEventNotes" dataDxfId="169"/>
+    <tableColumn id="19" xr3:uid="{E634F39B-A849-4841-8801-2AF4F6A4CB4E}" name="CanSaveDraft" dataDxfId="168"/>
+    <tableColumn id="21" xr3:uid="{04E7CE93-2C4A-2C46-91EF-227CE86C5C37}" name="EndButtonLabel" dataDxfId="167"/>
+    <tableColumn id="20" xr3:uid="{AC1595BB-697C-6344-8AF3-1672794828BA}" name="Publish" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:T219" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152" headerRowBorderDxfId="150" tableBorderDxfId="151" totalsRowBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3FE29A4D-B6F7-B846-B37F-DE13E60B0795}" name="Table11" displayName="Table11" ref="A3:T219" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164" headerRowBorderDxfId="162" tableBorderDxfId="163" totalsRowBorderDxfId="161">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="139"/>
-    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="138"/>
-    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="137"/>
-    <tableColumn id="18" xr3:uid="{E135335A-D7E2-F744-932E-E0627D2DBFE1}" name="RetainHiddenValue" dataDxfId="136"/>
-    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="135"/>
-    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="134"/>
-    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="133"/>
-    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="132"/>
-    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="131"/>
-    <tableColumn id="19" xr3:uid="{0255F9F3-66BA-7246-ADBF-34F9BD2A0891}" name="Publish" dataDxfId="130"/>
-    <tableColumn id="20" xr3:uid="{E15A3DC7-3833-CD47-A223-0E3415B27FEB}" name="PublishAs" dataDxfId="129"/>
+    <tableColumn id="1" xr3:uid="{09247200-910B-D14F-B26E-C50BECE0CCDE}" name="LiveFrom" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{D786058E-A950-5447-A9D7-81AFC8311866}" name="LiveTo" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{AED0E002-7D37-FB41-AD15-A0C135BF7DB3}" name="CaseTypeID" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{C474B0B2-C3DD-C64D-9F85-849C309F4E8F}" name="CaseEventID" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{E022EAF9-1C59-A049-B2D0-18417D29991E}" name="CaseFieldID" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{BA15E598-8D72-9D46-AB77-B605C7E29638}" name="PageFieldDisplayOrder" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{29A321E2-396E-8048-9500-1781CBB8AF23}" name="DisplayContext" dataDxfId="154"/>
+    <tableColumn id="8" xr3:uid="{500AE31D-F96A-9B4B-A577-919C9F7EB527}" name="PageID" dataDxfId="153"/>
+    <tableColumn id="9" xr3:uid="{77251A7B-4C0C-C44D-98D1-9673C5AAF038}" name="PageLabel" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{C3731FA3-2CB9-F448-B34D-5174A743CFC8}" name="PageDisplayOrder" dataDxfId="151"/>
+    <tableColumn id="11" xr3:uid="{087C997E-1430-BA4E-BE31-C1E6F8A09FC4}" name="PageColumnNumber" dataDxfId="150"/>
+    <tableColumn id="12" xr3:uid="{5F8D1DCD-BFA6-5D41-9085-4E8392AFBA5C}" name="FieldShowCondition" dataDxfId="149"/>
+    <tableColumn id="18" xr3:uid="{E135335A-D7E2-F744-932E-E0627D2DBFE1}" name="RetainHiddenValue" dataDxfId="148"/>
+    <tableColumn id="13" xr3:uid="{60ABBC14-F21E-7149-B13C-78981EAAC5AD}" name="PageShowCondition" dataDxfId="147"/>
+    <tableColumn id="14" xr3:uid="{92F3BFA3-CAC9-2C47-B4B5-E5193838BFBF}" name="DisplayContextParameter" dataDxfId="146"/>
+    <tableColumn id="15" xr3:uid="{6E7E82A2-72B3-1E4A-BB83-8C87B685E5AC}" name="ShowSummaryChangeOption" dataDxfId="145"/>
+    <tableColumn id="16" xr3:uid="{11418AC4-C205-D945-A936-1A37779FB35F}" name="ShowSummaryContentOption" dataDxfId="144"/>
+    <tableColumn id="17" xr3:uid="{CB58B471-584C-5B49-865D-C3B523596273}" name="CallBackURLMidEvent" dataDxfId="143"/>
+    <tableColumn id="19" xr3:uid="{0255F9F3-66BA-7246-ADBF-34F9BD2A0891}" name="Publish" dataDxfId="142"/>
+    <tableColumn id="20" xr3:uid="{E15A3DC7-3833-CD47-A223-0E3415B27FEB}" name="PublishAs" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H67" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" headerRowBorderDxfId="125" tableBorderDxfId="126" totalsRowBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C0942DB8-64D6-184E-8B7E-425FFE75053F}" name="Table12" displayName="Table12" ref="A3:H67" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139" headerRowBorderDxfId="137" tableBorderDxfId="138" totalsRowBorderDxfId="136">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="119"/>
-    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="118"/>
-    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{D94535AC-AF6B-A346-9394-2AEC1726FFC2}" name="LiveFrom" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{C1E40171-ED97-924B-9092-45E6DCB4FBD8}" name="LiveTo" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{22DC41E1-CD9E-1242-8CBA-BC0A19E00355}" name="CaseTypeID" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{84C83114-BBD1-C244-AF58-8DD790788A0E}" name="CaseFieldID" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{0346AC0F-F0E3-154A-9634-D0AA66CA21FD}" name="ListElementCode" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{E6AADCBC-8243-9F41-B0DB-0BE53FC0C362}" name="Label" dataDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{FCF69EEE-2E56-444B-86FC-7F66B3D6AC95}" name="DisplayOrder" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{35DCFF60-D0A8-B54E-82C5-A30ED8395060}" name="DisplayContextParameter" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{CF42F456-2174-844D-BD1A-9B3267933793}" name="Table25" displayName="Table25" ref="A3:K8" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114" headerRowBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{CF42F456-2174-844D-BD1A-9B3267933793}" name="Table25" displayName="Table25" ref="A3:K8" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" headerRowBorderDxfId="125">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{301CF7DA-51FC-2841-B0AF-CFD23525E5C6}" name="LiveFrom" dataDxfId="112" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" xr3:uid="{89A7417A-B1D1-F646-9354-5A772207AE0E}" name="LiveTo" dataDxfId="111" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" xr3:uid="{F1404EC3-6170-8D49-AE3C-527B0FC5DB6E}" name="CaseTypeID" dataDxfId="110" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" xr3:uid="{95ED0AF5-1B8E-9C40-BFB3-3AF78C4508E0}" name="AccessProfile" dataDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{C19CA352-EB67-B74E-B3C8-117768BA9CDE}" name="CaseFieldID" dataDxfId="108" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" xr3:uid="{C591A817-E1FA-8444-B21B-B966CAD14309}" name="ListElementCode" dataDxfId="107" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" xr3:uid="{5487859C-EBA3-C640-995F-D3FFDA9D05BE}" name="Label" dataDxfId="106" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" xr3:uid="{43381613-E419-A942-B697-B0AAC102ABEF}" name="DisplayOrder" dataDxfId="105" dataCellStyle="Normal 3"/>
-    <tableColumn id="9" xr3:uid="{58E7B797-431B-F449-A1C3-4EEAE5581C98}" name="ResultsOrdering" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{3BDA7798-6F1A-5E41-9E0E-7CA85DF8CFBE}" name="DisplayContextParameter" dataDxfId="103" dataCellStyle="Normal 3"/>
-    <tableColumn id="11" xr3:uid="{C4812D4E-DF32-4646-A206-97EEE7C4AC49}" name="UseCase" dataDxfId="102" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" xr3:uid="{301CF7DA-51FC-2841-B0AF-CFD23525E5C6}" name="LiveFrom" dataDxfId="124" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" xr3:uid="{89A7417A-B1D1-F646-9354-5A772207AE0E}" name="LiveTo" dataDxfId="123" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" xr3:uid="{F1404EC3-6170-8D49-AE3C-527B0FC5DB6E}" name="CaseTypeID" dataDxfId="122" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" xr3:uid="{95ED0AF5-1B8E-9C40-BFB3-3AF78C4508E0}" name="AccessProfile" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{C19CA352-EB67-B74E-B3C8-117768BA9CDE}" name="CaseFieldID" dataDxfId="120" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" xr3:uid="{C591A817-E1FA-8444-B21B-B966CAD14309}" name="ListElementCode" dataDxfId="119" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" xr3:uid="{5487859C-EBA3-C640-995F-D3FFDA9D05BE}" name="Label" dataDxfId="118" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" xr3:uid="{43381613-E419-A942-B697-B0AAC102ABEF}" name="DisplayOrder" dataDxfId="117" dataCellStyle="Normal 3"/>
+    <tableColumn id="9" xr3:uid="{58E7B797-431B-F449-A1C3-4EEAE5581C98}" name="ResultsOrdering" dataDxfId="116"/>
+    <tableColumn id="10" xr3:uid="{3BDA7798-6F1A-5E41-9E0E-7CA85DF8CFBE}" name="DisplayContextParameter" dataDxfId="115" dataCellStyle="Normal 3"/>
+    <tableColumn id="11" xr3:uid="{C4812D4E-DF32-4646-A206-97EEE7C4AC49}" name="UseCase" dataDxfId="114" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:I58" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" headerRowBorderDxfId="98" tableBorderDxfId="99" totalsRowBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E7EE5CF4-F848-A444-80DE-82691AE949C0}" name="Table14" displayName="Table14" ref="A3:I58" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112" headerRowBorderDxfId="110" tableBorderDxfId="111" totalsRowBorderDxfId="109">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{657A9DAE-71A1-9C4B-9DA1-6389E9ABA071}" name="ResultsOrdering" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{E69EB06A-51D8-2244-9D47-AD56CDDD3A73}" name="DisplayContextParameter" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{3A97DD00-8341-8A41-A062-99688A018570}" name="LiveFrom" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{7F24098A-B78A-4D49-BA3A-C64496932992}" name="LiveTo" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{4CECB00E-A59E-564E-9219-37AD7AAD6CA5}" name="CaseTypeID" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{32CEDFFA-35E9-B14E-89B8-F141DF840E42}" name="CaseFieldID" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{8A24F22E-1F45-F74A-B5FB-62E38937CC1B}" name="Label" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{73036E3A-A2DE-6345-B66E-F08F294B3920}" name="ListElementCode" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{0835D7A8-697B-CC41-AD8F-1A04E56A255E}" name="DisplayOrder" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{657A9DAE-71A1-9C4B-9DA1-6389E9ABA071}" name="ResultsOrdering" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{E69EB06A-51D8-2244-9D47-AD56CDDD3A73}" name="DisplayContextParameter" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H67" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86" headerRowBorderDxfId="84" tableBorderDxfId="85" totalsRowBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{23DB5BED-2DD5-DE42-8EA2-592AC1696272}" name="Table15" displayName="Table15" ref="A3:H67" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" headerRowBorderDxfId="96" tableBorderDxfId="97" totalsRowBorderDxfId="95">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{4FCEDBE0-A9B0-0441-86AD-C7E7E6374F81}" name="LiveFrom" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{56793764-D9BF-1745-BA2A-131F10197717}" name="LiveTo" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{7B736E9A-236E-E84D-AB00-D5119AE8FDF4}" name="CaseTypeID" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{B2C20176-DB0A-0249-981A-083B6720F21B}" name="CaseFieldID" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{CA39F3C7-9B7B-1540-8FA6-8FE5E75DB625}" name="ListElementCode" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{B86E7729-2A08-3346-89EB-D64286E6CEED}" name="Label" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{E92211C5-8284-6246-B2E2-BC654D7297A5}" name="DisplayOrder" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{23A34836-8CA8-D941-A339-02B719A12676}" name="DisplayContextParameter" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I75" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" headerRowBorderDxfId="71" tableBorderDxfId="72" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0CA40DD8-8152-3D46-8168-0AE0B6974BE8}" name="Table16" displayName="Table16" ref="A3:I75" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowBorderDxfId="83" tableBorderDxfId="84" totalsRowBorderDxfId="82">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{89FB5309-B489-D04A-A245-5D0966E24720}" name="LiveFrom" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{0FF183E8-34AA-1E40-9440-3AF75B9978C6}" name="LiveTo" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{3390D839-8BB1-154A-AE30-84D075D9116D}" name="CaseTypeID" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{35990B77-262E-AE45-8172-61C1076B15BA}" name="CaseFieldID" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{70CF7FE5-8C40-2744-A7FE-26E60C76A62F}" name="ListElementCode" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{BB41D60A-EC82-9941-A7B0-EF6AA438629F}" name="Label" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{031B36DA-C870-5745-A2EF-349414540475}" name="DisplayOrder" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{D282B24B-D0FD-DA44-9FC3-F20196FBA42D}" name="ResultsOrdering" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{7023267C-7AEA-EA4A-B007-2A8D3955A354}" name="DisplayContextParameter" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowBorderDxfId="57" tableBorderDxfId="58" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" headerRowBorderDxfId="69" tableBorderDxfId="70" totalsRowBorderDxfId="68">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{ADDEDA3F-CF2C-6D47-BC79-E1E4F6B6FF9B}" name="UserIDAMId" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{5D5CFFD9-D505-374F-8608-56EFBB6781C4}" name="WorkBasketDefaultJurisdiction" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{B2DEADF8-CB97-CD4B-9539-A848AD58DF04}" name="WorkBasketDefaultCaseType" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{CCAA7475-CF17-FD4A-B27C-B26DE0267EB6}" name="WorkBasketDefaultState" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="334" dataDxfId="333" headerRowBorderDxfId="331" tableBorderDxfId="332" totalsRowBorderDxfId="330">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2696846-A994-B14A-A929-B58A056832F8}" name="Table4" displayName="Table4" ref="A3:D4" totalsRowShown="0" headerRowDxfId="346" dataDxfId="345" headerRowBorderDxfId="343" tableBorderDxfId="344" totalsRowBorderDxfId="342">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="329"/>
-    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="328"/>
-    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="327"/>
-    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="326" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{DAC385B5-3CA7-F54F-ABF5-8A0FB9739A81}" name="BannerEnabled" dataDxfId="341"/>
+    <tableColumn id="2" xr3:uid="{5063DD1E-29B3-9240-B104-B878A78A961D}" name="BannerDescription" dataDxfId="340"/>
+    <tableColumn id="3" xr3:uid="{1802650A-8968-8C49-94DD-3A508725B56E}" name="BannerUrlText" dataDxfId="339"/>
+    <tableColumn id="4" xr3:uid="{C2492B8E-6768-C945-9E6B-68B481B89F36}" name="BannerUrl" dataDxfId="338" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E38" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA7F7860-6544-2644-BE2C-52011A59B49F}" name="Table18" displayName="Table18" ref="A3:E38" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{D7EDF212-81C7-1F49-98C0-8F28E87DCE6C}" name="LiveFrom" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{36550BF7-0E65-0D45-9932-4D227DD7D5DE}" name="LiveTo" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{D8A5019D-CCD7-0844-A9A5-378A259F60E5}" name="CaseTypeID" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{592355E2-FBF9-0947-A50E-1100535FD79E}" name="UserRole" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{B020D27C-2BA7-4145-B517-CECBAD029F6A}" name="CRUD" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F253" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{BF60EFC9-06B0-AF4B-BF05-86C7AFDAB66D}" name="Table19" displayName="Table19" ref="A3:F253" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49" totalsRowBorderDxfId="47">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{72C60802-2E7D-F542-8A1C-F0E147FA4DCE}" name="LiveFrom" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{FC67D30A-2836-1743-B4FA-D61DEE5FAF0A}" name="LiveTo" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{DE9841E4-2385-6944-AC9E-2418EBE9C323}" name="CaseTypeID" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{129D8AD7-2252-2343-A6AC-C828E01663E8}" name="CaseFieldID" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{313DEE97-0F1D-EB44-AAA1-862E98AA51C6}" name="UserRole" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{ED6F0D67-5349-4C4E-8FFC-F133A2D34661}" name="CRUD" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D23" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F689229C-DA57-CE47-9FAB-39CC9062D12E}" name="Table20" displayName="Table20" ref="A3:D23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{108C9CDA-76BA-EE4D-8549-5BED5EA603A6}" name="CaseTypeID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{4C2ED72C-37EE-A14B-9BFE-577416753198}" name="ID" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{A13E9F3C-9866-6844-97A2-CECF13410611}" name="Name" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{5010B2BB-616D-A946-8844-A944EB690018}" name="Description" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F78" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D6A08A61-2CBC-2440-A55B-973E9A2BBBB2}" name="Table21" displayName="Table21" ref="A3:F78" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{47319793-AA7E-7241-AE2D-C13844517EB1}" name="LiveFrom" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{4BC3F1CC-B8A0-DD42-BBD4-5BD8DB4634CE}" name="LiveTo" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{EE9F57B3-787C-C642-A2B0-1CB2CD584A64}" name="CaseTypeID" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{A6633300-114A-5846-B7B7-C57244A39F58}" name="CaseEventID" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{229CDFFE-02D8-6042-9F1C-B67EA1F30C09}" name="UserRole" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{872585F6-B038-2149-8440-E4F3A404C8A9}" name="CRUD" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F56" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{315AA6A0-C96B-A042-AD60-5F6D63D17CA6}" name="Table22" displayName="Table22" ref="A3:F56" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{509EB312-569C-A943-92C0-18A849F5F9AF}" name="LiveFrom" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{806AAD02-2C59-5441-80DF-1037D88236E9}" name="LiveTo" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{F6F18BFB-2335-8D4F-9DC5-89FC7FD3B64B}" name="CaseTypeID" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{EB11A8E2-8EA8-0B46-B3B3-103461A3AF54}" name="CaseStateID" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{1C1D63D9-6997-9E47-9725-BB01CA7FD1F3}" name="UserRole" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{82473FFF-1C61-B242-A091-BA139462FACF}" name="CRUD" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{19B2E1BF-B14C-43D5-ADFF-DE71DCE0ADD8}" name="Table2214" displayName="Table2214" ref="A3:H58" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{645754AF-B22D-422D-8B93-D3F3C8A4E7CE}" name="LiveFrom" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2A4705C5-1DFC-4496-870F-60A4567C7E6A}" name="LiveTo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0BE55633-272B-4A30-A99E-6F29B3B7D0F5}" name="RoleName" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9C6A6944-3EE9-4BA6-8520-4C1B37F7D7FD}" name="Authorisation" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00DF89E4-EED9-41BB-A91C-BB78C5489F91}" name="CaseTypeID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AE69E46F-EC73-4038-864B-AFE8D8013288}" name="AccessProfiles" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{47E77A8E-7922-46CA-98D4-C89784AE21B0}" name="ReadOnly" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{01B6E30C-F2FA-4E07-9117-FAC8CE96C564}" name="Disabled" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I24" totalsRowShown="0" headerRowDxfId="325" dataDxfId="324" headerRowBorderDxfId="322" tableBorderDxfId="323" totalsRowBorderDxfId="321">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40D0FC50-9439-5741-A23D-29ACBB37469B}" name="Table3" displayName="Table3" ref="A3:I24" totalsRowShown="0" headerRowDxfId="337" dataDxfId="336" headerRowBorderDxfId="334" tableBorderDxfId="335" totalsRowBorderDxfId="333">
   <autoFilter ref="A3:I24" xr:uid="{C0075E79-5DBE-654F-827E-CA137EF61FB4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="320"/>
-    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="319"/>
-    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="318"/>
-    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="317"/>
-    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="316"/>
-    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="315"/>
-    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="314"/>
-    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="313"/>
-    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="312"/>
+    <tableColumn id="1" xr3:uid="{D407453C-8672-E84F-A1D8-F563E678DC8E}" name="LiveFrom" dataDxfId="332"/>
+    <tableColumn id="2" xr3:uid="{14122774-0C33-6C4D-A9AB-91FA15DB8A2C}" name="LiveTo" dataDxfId="331"/>
+    <tableColumn id="3" xr3:uid="{CB71BBA2-34F1-C545-B80D-4FB0AC6ACAFF}" name="ID" dataDxfId="330"/>
+    <tableColumn id="4" xr3:uid="{2CFC219C-166E-B343-97B5-1158954E0D8F}" name="Name" dataDxfId="329"/>
+    <tableColumn id="5" xr3:uid="{5592454F-E93D-5A44-B0EC-7DBD0663FC3A}" name="Description" dataDxfId="328"/>
+    <tableColumn id="6" xr3:uid="{0DB64C3F-680C-9C46-96C5-C0C984291BE2}" name="JurisdictionID" dataDxfId="327"/>
+    <tableColumn id="7" xr3:uid="{3EF72FC4-7B2C-7D46-8B03-99FBCADE4E25}" name="PrintableDocumentsUrl" dataDxfId="326"/>
+    <tableColumn id="8" xr3:uid="{35352FF6-3E6C-7440-9592-B69B66487A2F}" name="RetriesTimeoutURLPrintEvent" dataDxfId="325"/>
+    <tableColumn id="9" xr3:uid="{1ACB6DB4-FECA-7B47-9847-0243E309AD6A}" name="SecurityClassification" dataDxfId="324"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O179" totalsRowShown="0" headerRowDxfId="311" dataDxfId="310" headerRowBorderDxfId="308" tableBorderDxfId="309" totalsRowBorderDxfId="307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7853914-D748-214F-AB78-CCB4D9972099}" name="Table1" displayName="Table1" ref="A3:O179" totalsRowShown="0" headerRowDxfId="323" dataDxfId="322" headerRowBorderDxfId="320" tableBorderDxfId="321" totalsRowBorderDxfId="319">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="306"/>
-    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="305"/>
-    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="304"/>
-    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="303"/>
-    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="302"/>
-    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="301"/>
-    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="300"/>
-    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="299"/>
-    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="298"/>
-    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="297"/>
-    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="296"/>
-    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="295"/>
-    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="294"/>
-    <tableColumn id="14" xr3:uid="{04523CC4-7DD9-BC4B-BEE9-93E1915A632A}" name="DefaultHidden" dataDxfId="293"/>
-    <tableColumn id="15" xr3:uid="{DB795945-BA18-EE44-815E-AD737CF2E8DD}" name="Searchable" dataDxfId="292"/>
+    <tableColumn id="1" xr3:uid="{E6FCE3E8-E7C3-7C45-8832-C5E6EBCF5AD5}" name="LiveFrom" dataDxfId="318"/>
+    <tableColumn id="2" xr3:uid="{CCAF30FC-5E10-F84C-B526-0674ECA9972F}" name="LiveTo" dataDxfId="317"/>
+    <tableColumn id="3" xr3:uid="{9C767F7C-E4A3-E840-9D9C-30A8E9D03DE5}" name="CaseTypeID" dataDxfId="316"/>
+    <tableColumn id="4" xr3:uid="{0094B065-3327-9942-8F35-B92CB893A599}" name="ID" dataDxfId="315"/>
+    <tableColumn id="5" xr3:uid="{4CDE5603-12E3-DC45-91B4-D3F9BD04951B}" name="Label" dataDxfId="314"/>
+    <tableColumn id="6" xr3:uid="{5191E0DF-A515-CB40-9BD8-A0244E4F8C57}" name="HintText" dataDxfId="313"/>
+    <tableColumn id="7" xr3:uid="{00561C5B-D5D1-DC47-8E78-49D3C85569ED}" name="FieldType" dataDxfId="312"/>
+    <tableColumn id="13" xr3:uid="{41692C06-7AD8-F04A-B809-308DF1149252}" name="CategoryID" dataDxfId="311"/>
+    <tableColumn id="8" xr3:uid="{10BF8A09-644E-FB4A-8572-93D527306174}" name="FieldTypeParameter" dataDxfId="310"/>
+    <tableColumn id="9" xr3:uid="{DBABBB37-2DCF-2241-AEE6-1F2042FDD321}" name="RegularExpression" dataDxfId="309"/>
+    <tableColumn id="10" xr3:uid="{04F14DFC-0A0D-ED4E-B6FF-D294F3DF9079}" name="SecurityClassification" dataDxfId="308"/>
+    <tableColumn id="11" xr3:uid="{715917FF-FEBF-B843-A600-2D124CAB48A3}" name="Min" dataDxfId="307"/>
+    <tableColumn id="12" xr3:uid="{5FE67360-F088-F14B-A346-DE81B164ECE4}" name="Max" dataDxfId="306"/>
+    <tableColumn id="14" xr3:uid="{04523CC4-7DD9-BC4B-BEE9-93E1915A632A}" name="DefaultHidden" dataDxfId="305"/>
+    <tableColumn id="15" xr3:uid="{DB795945-BA18-EE44-815E-AD737CF2E8DD}" name="Searchable" dataDxfId="304"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:T88" totalsRowShown="0" headerRowDxfId="291" dataDxfId="290" headerRowBorderDxfId="288" tableBorderDxfId="289" totalsRowBorderDxfId="287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74540BC8-D704-5047-98FB-694A477BC83D}" name="Table2" displayName="Table2" ref="A3:T88" totalsRowShown="0" headerRowDxfId="303" dataDxfId="302" headerRowBorderDxfId="300" tableBorderDxfId="301" totalsRowBorderDxfId="299">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="286"/>
-    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="285"/>
-    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="284"/>
-    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="283"/>
-    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="282"/>
-    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="281"/>
-    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="280"/>
-    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="279"/>
-    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="278"/>
-    <tableColumn id="20" xr3:uid="{3056D2D9-052A-4948-A9B6-EA6D4AEEE813}" name="RetainHiddenValue" dataDxfId="277"/>
-    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="276"/>
-    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="275"/>
-    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="274"/>
-    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="273"/>
-    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="272"/>
-    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="271"/>
-    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="270"/>
-    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="269"/>
-    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="268"/>
-    <tableColumn id="19" xr3:uid="{4721EA60-AB43-3A4D-9D3A-D995D789F1AA}" name="Searchable" dataDxfId="267"/>
+    <tableColumn id="1" xr3:uid="{069BCF45-09C7-1D4D-9D96-EA818F065192}" name="LiveFrom" dataDxfId="298"/>
+    <tableColumn id="2" xr3:uid="{3201B607-7572-A641-B166-02ABBDA29C68}" name="LiveTo" dataDxfId="297"/>
+    <tableColumn id="3" xr3:uid="{BF418433-54F7-784B-88CA-F18E9603844B}" name="ID" dataDxfId="296"/>
+    <tableColumn id="4" xr3:uid="{9C8DE998-5550-0640-B6C2-CB5427FC3A63}" name="ListElementCode" dataDxfId="295"/>
+    <tableColumn id="5" xr3:uid="{D21D6A37-98CD-4E4A-BCE8-9A25879A6E2D}" name="FieldType" dataDxfId="294"/>
+    <tableColumn id="14" xr3:uid="{0CA72D38-CCA8-E348-8398-3563015AFFB0}" name="CategoryID" dataDxfId="293"/>
+    <tableColumn id="6" xr3:uid="{4BAE99B3-6B76-CF47-810C-6E284FAC7C45}" name="FieldTypeParameter" dataDxfId="292"/>
+    <tableColumn id="7" xr3:uid="{4E74D643-6B67-0D46-9AB2-7DF2E1703511}" name="ElementLabel" dataDxfId="291"/>
+    <tableColumn id="8" xr3:uid="{C675650F-2935-D647-A61E-517A892F4378}" name="FieldShowCondition" dataDxfId="290"/>
+    <tableColumn id="20" xr3:uid="{3056D2D9-052A-4948-A9B6-EA6D4AEEE813}" name="RetainHiddenValue" dataDxfId="289"/>
+    <tableColumn id="9" xr3:uid="{EA69CEA6-E76B-D949-9578-347B7A74E10D}" name="RegularExpression" dataDxfId="288"/>
+    <tableColumn id="10" xr3:uid="{D3A49B2C-58F9-B842-9608-581A999364E4}" name="HintText" dataDxfId="287"/>
+    <tableColumn id="11" xr3:uid="{CC47353C-D501-AA41-8CF6-3B49859BA97A}" name="SecurityClassification" dataDxfId="286"/>
+    <tableColumn id="12" xr3:uid="{6EBA010E-76A9-2946-B1FA-052FBF58B238}" name="Min" dataDxfId="285"/>
+    <tableColumn id="13" xr3:uid="{60640AE7-10CC-AB4C-B4E8-13C947D3CC74}" name="Max" dataDxfId="284"/>
+    <tableColumn id="15" xr3:uid="{C2DEBC92-657F-8B48-AEF6-35F078A0DDF4}" name="DisplayContextParameter" dataDxfId="283"/>
+    <tableColumn id="16" xr3:uid="{1D93B227-456B-3E42-85B4-0F278B7523D8}" name="Column2" dataDxfId="282"/>
+    <tableColumn id="17" xr3:uid="{F79DC235-9922-6D4E-9889-C653A521E8AE}" name="Column3" dataDxfId="281"/>
+    <tableColumn id="18" xr3:uid="{F1215911-B6F6-C345-9EC6-179495CC62C1}" name="Column4" dataDxfId="280"/>
+    <tableColumn id="19" xr3:uid="{4721EA60-AB43-3A4D-9D3A-D995D789F1AA}" name="Searchable" dataDxfId="279"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G48" totalsRowShown="0" headerRowDxfId="266" dataDxfId="265" headerRowBorderDxfId="263" tableBorderDxfId="264" totalsRowBorderDxfId="262" headerRowCellStyle="Normal 2 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7776E297-B7F9-FE43-8EE1-4BFB68FF9F3F}" name="Table6" displayName="Table6" ref="A3:G48" totalsRowShown="0" headerRowDxfId="278" dataDxfId="277" headerRowBorderDxfId="275" tableBorderDxfId="276" totalsRowBorderDxfId="274" headerRowCellStyle="Normal 2 3">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="261"/>
-    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="260"/>
-    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="259"/>
-    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="258"/>
-    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="257"/>
-    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="256"/>
-    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="255"/>
+    <tableColumn id="1" xr3:uid="{10086A25-442C-7449-826A-B35FDEA13C5A}" name="LiveFrom" dataDxfId="273"/>
+    <tableColumn id="2" xr3:uid="{FB00A34E-44D3-2D4F-B5A8-96DA629491A0}" name="LiveTo" dataDxfId="272"/>
+    <tableColumn id="3" xr3:uid="{57331FEC-6C64-FF4E-AA60-883707FE9499}" name="CaseTypeID" dataDxfId="271"/>
+    <tableColumn id="4" xr3:uid="{88000BEA-50CE-2F4B-AD0C-7BEACAD282A9}" name="CaseFieldID" dataDxfId="270"/>
+    <tableColumn id="5" xr3:uid="{221E5BAD-472B-5347-A0E1-E4EB0C802640}" name="ListElementCode" dataDxfId="269"/>
+    <tableColumn id="6" xr3:uid="{B9EB3CC1-0BFB-F14D-AC9C-52AE589CD01A}" name="UserRole" dataDxfId="268"/>
+    <tableColumn id="7" xr3:uid="{777EED2E-8C44-2049-B5F3-F79010FCB8B9}" name="CRUD" dataDxfId="267"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:O249" totalsRowShown="0" headerRowDxfId="254" dataDxfId="253" headerRowBorderDxfId="251" tableBorderDxfId="252" totalsRowBorderDxfId="250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3217A593-E48A-BB42-A2D0-9D3131CA3F9C}" name="Table23" displayName="Table23" ref="A3:O249" totalsRowShown="0" headerRowDxfId="266" dataDxfId="265" headerRowBorderDxfId="263" tableBorderDxfId="264" totalsRowBorderDxfId="262">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="249"/>
-    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="248"/>
-    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="247"/>
-    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="246"/>
-    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="245"/>
-    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="244"/>
-    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="243"/>
-    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="242"/>
-    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="241"/>
-    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="240"/>
-    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="239"/>
-    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="238"/>
-    <tableColumn id="13" xr3:uid="{A39B3867-9E61-F640-871A-7CF7654CCAC8}" name="RetainHiddenValue" dataDxfId="237"/>
-    <tableColumn id="14" xr3:uid="{638D9B64-7234-F442-B2B1-C5399AD1FC50}" name="Publish" dataDxfId="236"/>
-    <tableColumn id="15" xr3:uid="{047F01DA-F30A-D049-BA08-EC2A6DAC2AAE}" name="PublishAs" dataDxfId="235"/>
+    <tableColumn id="1" xr3:uid="{CDA5C744-4A48-0C44-9DDE-72388C860C99}" name="LiveFrom" dataDxfId="261"/>
+    <tableColumn id="2" xr3:uid="{8A3CAE25-78FA-AC45-B741-FC9B0207A6D2}" name="LiveTo" dataDxfId="260"/>
+    <tableColumn id="3" xr3:uid="{E48B42B4-FF8F-E247-B69B-452FB019B56A}" name="ID" dataDxfId="259"/>
+    <tableColumn id="4" xr3:uid="{10CD4350-B2F2-C548-B931-D6CE2C4B3E79}" name="CaseEventID" dataDxfId="258"/>
+    <tableColumn id="5" xr3:uid="{E3E6155A-EA92-DF46-8888-ED7D749B974B}" name="CaseFieldId" dataDxfId="257"/>
+    <tableColumn id="6" xr3:uid="{09371456-1EA3-1E4E-A5BB-2B5AA70A6515}" name="ListElementCode" dataDxfId="256"/>
+    <tableColumn id="12" xr3:uid="{4E9EBE21-1E8A-8F42-8DBF-15D634A7D163}" name="DefaultValue" dataDxfId="255"/>
+    <tableColumn id="7" xr3:uid="{4BB7C15A-9707-A84E-B400-8458D3F72D15}" name="EventElementLabel" dataDxfId="254"/>
+    <tableColumn id="8" xr3:uid="{CFDCFEAC-052F-4E4F-97AB-3DD41D189409}" name="EventHintText" dataDxfId="253"/>
+    <tableColumn id="9" xr3:uid="{27B7471F-FF90-7A47-8A9D-E9D960A6E136}" name="FieldDisplayOrder" dataDxfId="252"/>
+    <tableColumn id="10" xr3:uid="{E2F9B116-7625-3446-AC24-38AEC7DDE066}" name="DisplayContext" dataDxfId="251"/>
+    <tableColumn id="11" xr3:uid="{33B43FDA-A050-7949-85A2-D71C872415D1}" name="FieldShowCondition" dataDxfId="250"/>
+    <tableColumn id="13" xr3:uid="{A39B3867-9E61-F640-871A-7CF7654CCAC8}" name="RetainHiddenValue" dataDxfId="249"/>
+    <tableColumn id="14" xr3:uid="{638D9B64-7234-F442-B2B1-C5399AD1FC50}" name="Publish" dataDxfId="248"/>
+    <tableColumn id="15" xr3:uid="{047F01DA-F30A-D049-BA08-EC2A6DAC2AAE}" name="PublishAs" dataDxfId="247"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G33" totalsRowShown="0" headerRowDxfId="234" dataDxfId="233" headerRowBorderDxfId="231" tableBorderDxfId="232" totalsRowBorderDxfId="230">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{261F291B-49E9-7A47-AB56-BF364E30DB6B}" name="Table7" displayName="Table7" ref="A3:G33" totalsRowShown="0" headerRowDxfId="246" dataDxfId="245" headerRowBorderDxfId="243" tableBorderDxfId="244" totalsRowBorderDxfId="242">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="229"/>
-    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="228"/>
-    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="227"/>
-    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="226"/>
-    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="225"/>
-    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="224"/>
-    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="223"/>
+    <tableColumn id="1" xr3:uid="{0FE98DA5-8D77-8146-ABB3-BB35B0A6C8A0}" name="LiveFrom" dataDxfId="241"/>
+    <tableColumn id="2" xr3:uid="{40479094-15A4-7F47-89AA-CC3E78D030E7}" name="LiveTo" dataDxfId="240"/>
+    <tableColumn id="3" xr3:uid="{FC1F3A20-DA92-A542-8712-9F23DC888392}" name="ID" dataDxfId="239"/>
+    <tableColumn id="4" xr3:uid="{88A6995E-37E7-2D43-A83A-FB28F631182B}" name="ListElementCode" dataDxfId="238"/>
+    <tableColumn id="5" xr3:uid="{70D3C9B9-96C2-F543-AAC5-6A771FC842FB}" name="ListElement" dataDxfId="237"/>
+    <tableColumn id="8" xr3:uid="{59643B70-8EC4-EA40-A49D-8B57B783888C}" name="CategoryID" dataDxfId="236"/>
+    <tableColumn id="6" xr3:uid="{60021BAA-94DF-114C-B62A-D5D7CFD8AC66}" name="DisplayOrder" dataDxfId="235"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A2772D57-E59F-2C49-82BA-2F8A826F981B}" name="Table24" displayName="Table24" ref="A3:I15" totalsRowShown="0" headerRowDxfId="222" dataDxfId="221" headerRowBorderDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A2772D57-E59F-2C49-82BA-2F8A826F981B}" name="Table24" displayName="Table24" ref="A3:I15" totalsRowShown="0" headerRowDxfId="234" dataDxfId="233" headerRowBorderDxfId="232">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EB3897FA-8398-4645-B06C-A22BA473519E}" name="LiveTo" dataDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{99353927-15FC-BA4C-B4D7-FDA6EA43AF10}" name="CaseTypeID" dataDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{E2107A93-C2C9-FC44-A5C0-F1560E2CFFDB}" name="ID" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{483E458F-23BC-6442-BCE1-4A5DD98775C7}" name="DisplayOrder" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{3129676F-8344-B24B-B2CD-3FD0837952C2}" name="QuestionText" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{000B8220-15DF-854E-A0BC-F1BBBCF401A4}" name="AnswerFieldType" dataDxfId="214"/>
-    <tableColumn id="7" xr3:uid="{A0E53177-56A8-E14F-A7BD-F9796CA3E5D4}" name="DisplayContextParameter" dataDxfId="213"/>
-    <tableColumn id="8" xr3:uid="{8526709A-AE28-FE44-BFBB-69DF75B42A88}" name="Answer" dataDxfId="212"/>
-    <tableColumn id="9" xr3:uid="{D53C393B-D23F-F64C-8796-C256647586C5}" name="QuestionId" dataDxfId="211"/>
+    <tableColumn id="1" xr3:uid="{EB3897FA-8398-4645-B06C-A22BA473519E}" name="LiveTo" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{99353927-15FC-BA4C-B4D7-FDA6EA43AF10}" name="CaseTypeID" dataDxfId="230"/>
+    <tableColumn id="3" xr3:uid="{E2107A93-C2C9-FC44-A5C0-F1560E2CFFDB}" name="ID" dataDxfId="229"/>
+    <tableColumn id="4" xr3:uid="{483E458F-23BC-6442-BCE1-4A5DD98775C7}" name="DisplayOrder" dataDxfId="228"/>
+    <tableColumn id="5" xr3:uid="{3129676F-8344-B24B-B2CD-3FD0837952C2}" name="QuestionText" dataDxfId="227"/>
+    <tableColumn id="6" xr3:uid="{000B8220-15DF-854E-A0BC-F1BBBCF401A4}" name="AnswerFieldType" dataDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{A0E53177-56A8-E14F-A7BD-F9796CA3E5D4}" name="DisplayContextParameter" dataDxfId="225"/>
+    <tableColumn id="8" xr3:uid="{8526709A-AE28-FE44-BFBB-69DF75B42A88}" name="Answer" dataDxfId="224"/>
+    <tableColumn id="9" xr3:uid="{D53C393B-D23F-F64C-8796-C256647586C5}" name="QuestionId" dataDxfId="223"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -52376,540 +52714,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46E332-1601-DB46-9E37-4B0D4219E272}">
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="4" width="9.140625"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="568" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B1" s="569" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="570" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="571" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="492"/>
-      <c r="F1" s="492"/>
-    </row>
-    <row r="2" spans="1:8" ht="102">
-      <c r="A2" s="572" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="572" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="572" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D2" s="572" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E2" s="572" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F2" s="572" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75">
-      <c r="A3" s="573" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="573" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C3" s="573" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="573" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="573" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F3" s="573" t="s">
-        <v>1251</v>
-      </c>
-      <c r="G3" s="573" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H3" s="573" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75">
-      <c r="A4" s="298" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C4" s="575"/>
-      <c r="D4" s="575"/>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="525" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="576" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C5" s="577"/>
-      <c r="D5" s="577"/>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75">
-      <c r="A6" s="298" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C6" s="575"/>
-      <c r="D6" s="575"/>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75">
-      <c r="A7" s="576" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="577"/>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75">
-      <c r="A8" s="298" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C8" s="575"/>
-      <c r="D8" s="575"/>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75">
-      <c r="A9" s="576" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C9" s="577"/>
-      <c r="D9" s="577"/>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75">
-      <c r="A10" s="298" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C10" s="575"/>
-      <c r="D10" s="575"/>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="525" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="576" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C11" s="577"/>
-      <c r="D11" s="577"/>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75">
-      <c r="A12" s="298" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C12" s="575"/>
-      <c r="D12" s="575"/>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75">
-      <c r="A13" s="576" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C13" s="577"/>
-      <c r="D13" s="577"/>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75">
-      <c r="A14" s="298" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C14" s="575"/>
-      <c r="D14" s="575"/>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75">
-      <c r="A15" s="576" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C15" s="577"/>
-      <c r="D15" s="577"/>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75">
-      <c r="A16" s="578" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C16" s="575"/>
-      <c r="D16" s="575"/>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="485" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C17" s="577"/>
-      <c r="D17" s="577"/>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="265" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C18" s="579"/>
-      <c r="D18" s="579"/>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="485" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C19" s="577"/>
-      <c r="D19" s="577"/>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="578" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C20" s="575"/>
-      <c r="D20" s="575"/>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="479" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C21" s="577"/>
-      <c r="D21" s="577"/>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="578" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C22" s="575"/>
-      <c r="D22" s="575"/>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="265" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C23" s="577"/>
-      <c r="D23" s="577"/>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="580" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C24" s="581"/>
-      <c r="D24" s="581"/>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="576" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="574" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C25" s="577"/>
-      <c r="D25" s="577"/>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="525" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75"/>
-    <row r="27" spans="1:7" ht="12.75"/>
-    <row r="28" spans="1:7" ht="12.75"/>
-    <row r="29" spans="1:7" ht="12.75"/>
-    <row r="30" spans="1:7" ht="12.75"/>
-    <row r="31" spans="1:7" ht="12.75"/>
-    <row r="32" spans="1:7" ht="12.75"/>
-    <row r="33" ht="12.75"/>
-    <row r="34" ht="12.75"/>
-    <row r="35" ht="12.75"/>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
-    <row r="49" ht="12.75"/>
-    <row r="50" ht="12.75"/>
-    <row r="51" ht="12.75"/>
-    <row r="52" ht="12.75"/>
-    <row r="53" ht="12.75"/>
-    <row r="54" ht="12.75"/>
-    <row r="55" ht="12.75"/>
-    <row r="56" ht="12.75"/>
-    <row r="57" ht="12.75"/>
-    <row r="58" ht="12.75"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F127D50-29A1-4211-B63E-CCA94E93CCA1}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -52932,7 +52736,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="527" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="B1" s="299"/>
       <c r="C1" s="299"/>
@@ -52944,28 +52748,28 @@
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
       <c r="A2" s="535" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="B2" s="536" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="C2" s="535" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="D2" s="536" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="E2" s="535" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="F2" s="535" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="G2" s="535" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="H2" s="535" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -52976,25 +52780,25 @@
         <v>10</v>
       </c>
       <c r="C3" s="532" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="D3" s="532" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="E3" s="532" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="F3" s="532" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="G3" s="532" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="H3" s="532" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="I3" s="532" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -53030,7 +52834,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="530" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="E5" s="530" t="s">
         <v>238</v>
@@ -53054,7 +52858,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="530" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="E6" s="530" t="s">
         <v>167</v>
@@ -53081,7 +52885,7 @@
         <v>167</v>
       </c>
       <c r="E7" s="530" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="F7" s="530" t="s">
         <v>167</v>
@@ -53108,7 +52912,7 @@
         <v>167</v>
       </c>
       <c r="F8" s="530" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="G8" s="530" t="s">
         <v>167</v>
@@ -53135,7 +52939,7 @@
         <v>167</v>
       </c>
       <c r="G9" s="299" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="H9" s="299" t="s">
         <v>167</v>
@@ -53162,7 +52966,7 @@
         <v>167</v>
       </c>
       <c r="H10" s="299" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -53174,7 +52978,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="299" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="E11" s="299" t="s">
         <v>167</v>
@@ -53198,7 +53002,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="299" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="E12" s="299" t="s">
         <v>167</v>
@@ -53330,13 +53134,13 @@
         <v>121</v>
       </c>
       <c r="D18" s="299" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="E18" s="539" t="s">
         <v>214</v>
       </c>
       <c r="F18" s="530" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="G18" s="299" t="s">
         <v>424</v>
@@ -53350,6 +53154,746 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8940C136-71BC-4A6C-9A16-A91A0EC48C23}">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="568" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1" s="568"/>
+      <c r="C1" s="569"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="570" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="570"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+    </row>
+    <row r="2" spans="1:8" ht="63.75">
+      <c r="A2" s="571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="571" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="571" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D2" s="571"/>
+      <c r="E2" s="571" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F2" s="571" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G2" s="571" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H2" s="571" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="312" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="312" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D3" s="312" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E3" s="312" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="312" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G3" s="312" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H3" s="312" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="489"/>
+      <c r="C4" s="492" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D4" s="492" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E4" s="491" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="517" t="s">
+        <v>596</v>
+      </c>
+      <c r="G4" s="517" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="491" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="489"/>
+      <c r="C5" s="492" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D5" s="492"/>
+      <c r="E5" s="491" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="517" t="s">
+        <v>596</v>
+      </c>
+      <c r="G5" s="491" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="491" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="489"/>
+      <c r="C6" s="492" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D6" s="492"/>
+      <c r="E6" s="491" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="517" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G6" s="524" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H6" s="524" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="489"/>
+      <c r="C7" s="492" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D7" s="492"/>
+      <c r="E7" s="491" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="517" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G7" s="517" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="491" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="489"/>
+      <c r="C8" s="492" t="s">
+        <v>661</v>
+      </c>
+      <c r="D8" s="492"/>
+      <c r="E8" s="491" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="517" t="s">
+        <v>661</v>
+      </c>
+      <c r="G8" s="491" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="491" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="489"/>
+      <c r="C9" s="492" t="s">
+        <v>673</v>
+      </c>
+      <c r="D9" s="492"/>
+      <c r="E9" s="491" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="517" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" s="491" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="491" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="489"/>
+      <c r="C10" s="492" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D10" s="492" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E10" s="491" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="517" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G10" s="517" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="491" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="489">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="489"/>
+      <c r="C11" s="492" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D11" s="492"/>
+      <c r="E11" s="491" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="492" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G11" s="517" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="491" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="489"/>
+      <c r="B12" s="489"/>
+      <c r="C12" s="492"/>
+      <c r="D12" s="492"/>
+      <c r="E12" s="491"/>
+      <c r="F12" s="517"/>
+      <c r="G12" s="517"/>
+      <c r="H12" s="491"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="489"/>
+      <c r="B13" s="489"/>
+      <c r="C13" s="492"/>
+      <c r="D13" s="492"/>
+      <c r="E13" s="524"/>
+      <c r="F13" s="517"/>
+      <c r="G13" s="517"/>
+      <c r="H13" s="491"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="489"/>
+      <c r="B14" s="489"/>
+      <c r="C14" s="492"/>
+      <c r="D14" s="492"/>
+      <c r="E14" s="524"/>
+      <c r="F14" s="524"/>
+      <c r="G14" s="517"/>
+      <c r="H14" s="491"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="489"/>
+      <c r="B15" s="489"/>
+      <c r="C15" s="492"/>
+      <c r="D15" s="492"/>
+      <c r="E15" s="524"/>
+      <c r="F15" s="517"/>
+      <c r="G15" s="517"/>
+      <c r="H15" s="491"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="489"/>
+      <c r="B16" s="489"/>
+      <c r="C16" s="492"/>
+      <c r="D16" s="492"/>
+      <c r="E16" s="524"/>
+      <c r="F16" s="517"/>
+      <c r="G16" s="517"/>
+      <c r="H16" s="491"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="489"/>
+      <c r="B17" s="489"/>
+      <c r="C17" s="492"/>
+      <c r="D17" s="492"/>
+      <c r="E17" s="524"/>
+      <c r="F17" s="491"/>
+      <c r="G17" s="517"/>
+      <c r="H17" s="491"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="489"/>
+      <c r="B18" s="489"/>
+      <c r="C18" s="492"/>
+      <c r="D18" s="492"/>
+      <c r="E18" s="524"/>
+      <c r="F18" s="490"/>
+      <c r="G18" s="517"/>
+      <c r="H18" s="491"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="489"/>
+      <c r="B19" s="489"/>
+      <c r="C19" s="492"/>
+      <c r="D19" s="492"/>
+      <c r="E19" s="524"/>
+      <c r="F19" s="490"/>
+      <c r="G19" s="517"/>
+      <c r="H19" s="491"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="489"/>
+      <c r="B20" s="489"/>
+      <c r="C20" s="492"/>
+      <c r="D20" s="492"/>
+      <c r="E20" s="524"/>
+      <c r="F20" s="490"/>
+      <c r="G20" s="517"/>
+      <c r="H20" s="491"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="489"/>
+      <c r="B21" s="489"/>
+      <c r="C21" s="492"/>
+      <c r="D21" s="492"/>
+      <c r="E21" s="491"/>
+      <c r="F21" s="491"/>
+      <c r="G21" s="517"/>
+      <c r="H21" s="491"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="489"/>
+      <c r="B22" s="489"/>
+      <c r="C22" s="492"/>
+      <c r="D22" s="492"/>
+      <c r="E22" s="491"/>
+      <c r="F22" s="491"/>
+      <c r="G22" s="517"/>
+      <c r="H22" s="491"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="489"/>
+      <c r="B23" s="489"/>
+      <c r="C23" s="492"/>
+      <c r="D23" s="492"/>
+      <c r="E23" s="491"/>
+      <c r="F23" s="491"/>
+      <c r="G23" s="517"/>
+      <c r="H23" s="491"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="489"/>
+      <c r="B24" s="489"/>
+      <c r="C24" s="492"/>
+      <c r="D24" s="492"/>
+      <c r="E24" s="491"/>
+      <c r="F24" s="491"/>
+      <c r="G24" s="517"/>
+      <c r="H24" s="491"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="489"/>
+      <c r="B25" s="489"/>
+      <c r="C25" s="492"/>
+      <c r="D25" s="492"/>
+      <c r="E25" s="492"/>
+      <c r="F25" s="491"/>
+      <c r="G25" s="517"/>
+      <c r="H25" s="491"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="489"/>
+      <c r="B26" s="489"/>
+      <c r="C26" s="492"/>
+      <c r="D26" s="492"/>
+      <c r="E26" s="492"/>
+      <c r="F26" s="491"/>
+      <c r="G26" s="517"/>
+      <c r="H26" s="491"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="489"/>
+      <c r="B27" s="489"/>
+      <c r="C27" s="492"/>
+      <c r="D27" s="492"/>
+      <c r="E27" s="492"/>
+      <c r="F27" s="491"/>
+      <c r="G27" s="517"/>
+      <c r="H27" s="491"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="489"/>
+      <c r="B28" s="489"/>
+      <c r="C28" s="492"/>
+      <c r="D28" s="492"/>
+      <c r="E28" s="524"/>
+      <c r="F28" s="491"/>
+      <c r="G28" s="517"/>
+      <c r="H28" s="491"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="489"/>
+      <c r="B29" s="489"/>
+      <c r="C29" s="492"/>
+      <c r="D29" s="492"/>
+      <c r="E29" s="491"/>
+      <c r="F29" s="491"/>
+      <c r="G29" s="492"/>
+      <c r="H29" s="491"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="489"/>
+      <c r="B30" s="489"/>
+      <c r="C30" s="492"/>
+      <c r="D30" s="492"/>
+      <c r="E30" s="491"/>
+      <c r="F30" s="491"/>
+      <c r="G30" s="492"/>
+      <c r="H30" s="491"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="489"/>
+      <c r="B31" s="489"/>
+      <c r="C31" s="492"/>
+      <c r="D31" s="492"/>
+      <c r="E31" s="491"/>
+      <c r="F31" s="491"/>
+      <c r="G31" s="492"/>
+      <c r="H31" s="491"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="489"/>
+      <c r="B32" s="489"/>
+      <c r="C32" s="492"/>
+      <c r="D32" s="492"/>
+      <c r="E32" s="491"/>
+      <c r="F32" s="491"/>
+      <c r="G32" s="492"/>
+      <c r="H32" s="491"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="489"/>
+      <c r="B33" s="489"/>
+      <c r="C33" s="492"/>
+      <c r="D33" s="492"/>
+      <c r="E33" s="524"/>
+      <c r="F33" s="490"/>
+      <c r="G33" s="517"/>
+      <c r="H33" s="491"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="489"/>
+      <c r="B34" s="489"/>
+      <c r="C34" s="492"/>
+      <c r="D34" s="492"/>
+      <c r="E34" s="524"/>
+      <c r="F34" s="490"/>
+      <c r="G34" s="517"/>
+      <c r="H34" s="491"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="489"/>
+      <c r="B35" s="489"/>
+      <c r="C35" s="492"/>
+      <c r="D35" s="492"/>
+      <c r="E35" s="299"/>
+      <c r="F35" s="306"/>
+      <c r="G35" s="517"/>
+      <c r="H35" s="491"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="489"/>
+      <c r="B36" s="489"/>
+      <c r="C36" s="492"/>
+      <c r="D36" s="492"/>
+      <c r="E36" s="299"/>
+      <c r="F36" s="306"/>
+      <c r="G36" s="517"/>
+      <c r="H36" s="491"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="489"/>
+      <c r="B37" s="489"/>
+      <c r="C37" s="492"/>
+      <c r="D37" s="492"/>
+      <c r="E37" s="299"/>
+      <c r="F37" s="306"/>
+      <c r="G37" s="517"/>
+      <c r="H37" s="491"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="489"/>
+      <c r="B38" s="489"/>
+      <c r="C38" s="492"/>
+      <c r="D38" s="492"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="306"/>
+      <c r="G38" s="517"/>
+      <c r="H38" s="491"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="489"/>
+      <c r="B39" s="489"/>
+      <c r="C39" s="492"/>
+      <c r="D39" s="492"/>
+      <c r="E39" s="299"/>
+      <c r="F39" s="306"/>
+      <c r="G39" s="517"/>
+      <c r="H39" s="491"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="489"/>
+      <c r="B40" s="489"/>
+      <c r="C40" s="492"/>
+      <c r="D40" s="492"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="306"/>
+      <c r="G40" s="517"/>
+      <c r="H40" s="491"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="489"/>
+      <c r="B41" s="489"/>
+      <c r="C41" s="492"/>
+      <c r="D41" s="492"/>
+      <c r="E41" s="299"/>
+      <c r="F41" s="306"/>
+      <c r="G41" s="517"/>
+      <c r="H41" s="491"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="489"/>
+      <c r="B42" s="489"/>
+      <c r="C42" s="492"/>
+      <c r="D42" s="492"/>
+      <c r="E42" s="299"/>
+      <c r="F42" s="306"/>
+      <c r="G42" s="517"/>
+      <c r="H42" s="491"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="489"/>
+      <c r="B43" s="489"/>
+      <c r="C43" s="492"/>
+      <c r="D43" s="492"/>
+      <c r="E43" s="491"/>
+      <c r="F43" s="491"/>
+      <c r="G43" s="517"/>
+      <c r="H43" s="491"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="489"/>
+      <c r="B44" s="489"/>
+      <c r="C44" s="492"/>
+      <c r="D44" s="492"/>
+      <c r="E44" s="491"/>
+      <c r="F44" s="491"/>
+      <c r="G44" s="492"/>
+      <c r="H44" s="491"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="489"/>
+      <c r="B45" s="489"/>
+      <c r="C45" s="492"/>
+      <c r="D45" s="492"/>
+      <c r="E45" s="491"/>
+      <c r="F45" s="491"/>
+      <c r="G45" s="492"/>
+      <c r="H45" s="491"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="489"/>
+      <c r="B46" s="489"/>
+      <c r="C46" s="492"/>
+      <c r="D46" s="492"/>
+      <c r="E46" s="491"/>
+      <c r="F46" s="491"/>
+      <c r="G46" s="492"/>
+      <c r="H46" s="491"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="489"/>
+      <c r="B47" s="489"/>
+      <c r="C47" s="492"/>
+      <c r="D47" s="492"/>
+      <c r="E47" s="491"/>
+      <c r="F47" s="491"/>
+      <c r="G47" s="492"/>
+      <c r="H47" s="491"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="489"/>
+      <c r="B48" s="489"/>
+      <c r="C48" s="492"/>
+      <c r="D48" s="492"/>
+      <c r="E48" s="491"/>
+      <c r="F48" s="491"/>
+      <c r="G48" s="492"/>
+      <c r="H48" s="495"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="489"/>
+      <c r="B49" s="489"/>
+      <c r="C49" s="492"/>
+      <c r="D49" s="492"/>
+      <c r="E49" s="491"/>
+      <c r="F49" s="491"/>
+      <c r="G49" s="492"/>
+      <c r="H49" s="495"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="489"/>
+      <c r="B50" s="489"/>
+      <c r="C50" s="492"/>
+      <c r="D50" s="492"/>
+      <c r="E50" s="491"/>
+      <c r="F50" s="491"/>
+      <c r="G50" s="492"/>
+      <c r="H50" s="495"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="489"/>
+      <c r="B51" s="489"/>
+      <c r="C51" s="492"/>
+      <c r="D51" s="492"/>
+      <c r="E51" s="491"/>
+      <c r="F51" s="491"/>
+      <c r="G51" s="492"/>
+      <c r="H51" s="495"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="489"/>
+      <c r="B52" s="489"/>
+      <c r="C52" s="492"/>
+      <c r="D52" s="492"/>
+      <c r="E52" s="491"/>
+      <c r="F52" s="491"/>
+      <c r="G52" s="492"/>
+      <c r="H52" s="495"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="489"/>
+      <c r="B53" s="489"/>
+      <c r="C53" s="492"/>
+      <c r="D53" s="492"/>
+      <c r="E53" s="491"/>
+      <c r="F53" s="491"/>
+      <c r="G53" s="492"/>
+      <c r="H53" s="495"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="489"/>
+      <c r="B54" s="489"/>
+      <c r="C54" s="492"/>
+      <c r="D54" s="492"/>
+      <c r="E54" s="491"/>
+      <c r="F54" s="491"/>
+      <c r="G54" s="492"/>
+      <c r="H54" s="495"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="489"/>
+      <c r="B55" s="489"/>
+      <c r="C55" s="492"/>
+      <c r="D55" s="492"/>
+      <c r="E55" s="491"/>
+      <c r="F55" s="491"/>
+      <c r="G55" s="492"/>
+      <c r="H55" s="495"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="518"/>
+      <c r="B56" s="518"/>
+      <c r="C56" s="492"/>
+      <c r="D56" s="492"/>
+      <c r="E56" s="491"/>
+      <c r="F56" s="491"/>
+      <c r="G56" s="492"/>
+      <c r="H56" s="495"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="518"/>
+      <c r="B57" s="518"/>
+      <c r="C57" s="492"/>
+      <c r="D57" s="492"/>
+      <c r="E57" s="491"/>
+      <c r="F57" s="491"/>
+      <c r="G57" s="492"/>
+      <c r="H57" s="495"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="516"/>
+      <c r="B58" s="516"/>
+      <c r="C58" s="550"/>
+      <c r="D58" s="550"/>
+      <c r="E58" s="494"/>
+      <c r="F58" s="494"/>
+      <c r="G58" s="550"/>
+      <c r="H58" s="552"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -53357,9 +53901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D71A9F6-41FB-48D6-A885-E8BB581EF700}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -53379,16 +53921,16 @@
     </row>
     <row r="2" spans="1:4" ht="127.5">
       <c r="A2" s="531" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="B2" s="531" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="C2" s="531" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="D2" s="531" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -53399,10 +53941,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="532" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="D3" s="532" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -53450,7 +53992,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="530" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalkalita/dev/moj/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F6A4BCC-31AA-45C9-B735-F5EF7A998EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF05F8B-3942-4C19-AA7B-230A6D0A69EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60660" yWindow="400" windowWidth="28800" windowHeight="16440" firstSheet="25" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60660" yWindow="400" windowWidth="28800" windowHeight="16440" firstSheet="26" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10258" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10260" uniqueCount="1293">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -6493,16 +6493,16 @@
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -53161,7 +53161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8940C136-71BC-4A6C-9A16-A91A0EC48C23}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -53899,9 +53899,11 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D71A9F6-41FB-48D6-A885-E8BB581EF700}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A4:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -53953,10 +53955,10 @@
       </c>
       <c r="B4" s="528"/>
       <c r="C4" s="530" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" s="530" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -53968,7 +53970,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="530" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -53980,7 +53982,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="530" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -53989,10 +53991,10 @@
       </c>
       <c r="B7" s="528"/>
       <c r="C7" s="530" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D7" s="530" t="s">
-        <v>1264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -54001,9 +54003,11 @@
       </c>
       <c r="B8" s="528"/>
       <c r="C8" s="530" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="530"/>
+        <v>61</v>
+      </c>
+      <c r="D8" s="530" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="534">
@@ -54011,11 +54015,9 @@
       </c>
       <c r="B9" s="528"/>
       <c r="C9" s="530" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="530" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D9" s="530"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="534">
@@ -54023,14 +54025,23 @@
       </c>
       <c r="B10" s="528"/>
       <c r="C10" s="530" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="530" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="534">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="528"/>
+      <c r="C11" s="530" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="530" t="s">
+      <c r="D11" s="530" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="399"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="399"/>
@@ -54043,6 +54054,9 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="399"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="399"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/hmcts/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20334C8C-4361-AE47-BB8E-F9024349F50A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D084F-133B-B843-ADD1-609C0B29D456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="21380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="42740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11609" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11609" uniqueCount="1404">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -4220,9 +4220,6 @@
     <t>updateCaseSubmitTTL</t>
   </si>
   <si>
-    <t>${TEST_STUB_SERVICE_BASE_URL:http://ccd-test-stubs-service-aat.service.core-compute-aat.internal}//callback_unmodified</t>
-  </si>
-  <si>
     <t>updateCaseSubmitSuspendedTTL</t>
   </si>
   <si>
@@ -4342,6 +4339,27 @@
   </si>
   <si>
     <t>Standard case links field</t>
+  </si>
+  <si>
+    <t>${TEST_STUB_SERVICE_BASE_URL:http://ccd-test-stubs-service-aat.service.core-compute-aat.internal}/callback_unmodified</t>
+  </si>
+  <si>
+    <t>Update a case midevent Suspended TTL</t>
+  </si>
+  <si>
+    <t>Update midevent SuspendedTTL</t>
+  </si>
+  <si>
+    <t>Update midevent SystemTTL</t>
+  </si>
+  <si>
+    <t>Update midevent OverrideTTL</t>
+  </si>
+  <si>
+    <t>Update a case midevent Override TTL</t>
+  </si>
+  <si>
+    <t>Update a case midevent System TTL</t>
   </si>
 </sst>
 </file>
@@ -19213,7 +19231,7 @@
         <v>942</v>
       </c>
       <c r="W2" s="253" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19284,7 +19302,7 @@
         <v>668</v>
       </c>
       <c r="W3" s="349" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19409,7 +19427,7 @@
       <c r="K6" s="144"/>
       <c r="L6" s="144"/>
       <c r="M6" s="144" t="s">
-        <v>1357</v>
+        <v>1397</v>
       </c>
       <c r="N6" s="144"/>
       <c r="O6" s="144"/>
@@ -19436,13 +19454,13 @@
         <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>958</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G7" s="127">
         <v>1</v>
@@ -19457,7 +19475,7 @@
       <c r="K7" s="144"/>
       <c r="L7" s="144"/>
       <c r="M7" s="144" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="N7" s="144"/>
       <c r="O7" s="144"/>
@@ -19484,10 +19502,10 @@
         <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>1361</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>1362</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>956</v>
@@ -19528,13 +19546,13 @@
         <v>41</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>1363</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>1364</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>1365</v>
       </c>
       <c r="G9" s="127">
         <v>1</v>
@@ -19547,7 +19565,7 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="144" t="s">
-        <v>1357</v>
+        <v>1397</v>
       </c>
       <c r="L9" s="144"/>
       <c r="M9" s="144"/>
@@ -19566,7 +19584,7 @@
       <c r="U9" s="15"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19578,13 +19596,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>1367</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>1368</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>1369</v>
       </c>
       <c r="G10" s="127">
         <v>1</v>
@@ -19597,7 +19615,7 @@
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="144" t="s">
-        <v>1357</v>
+        <v>1397</v>
       </c>
       <c r="L10" s="144"/>
       <c r="M10" s="144"/>
@@ -19626,13 +19644,13 @@
         <v>41</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>1370</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>1371</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>1372</v>
       </c>
       <c r="G11" s="127">
         <v>1</v>
@@ -19645,7 +19663,7 @@
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="144" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="L11" s="144"/>
       <c r="M11" s="144"/>
@@ -19664,7 +19682,7 @@
       <c r="U11" s="15"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19676,13 +19694,13 @@
         <v>41</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>1374</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>1375</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>1376</v>
       </c>
       <c r="G12" s="127">
         <v>1</v>
@@ -19695,7 +19713,7 @@
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="144" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="L12" s="144"/>
       <c r="M12" s="144"/>
@@ -19714,7 +19732,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19726,13 +19744,13 @@
         <v>41</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>1378</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>1379</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>1380</v>
       </c>
       <c r="G13" s="127">
         <v>1</v>
@@ -19745,7 +19763,7 @@
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="144" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="L13" s="144"/>
       <c r="M13" s="144"/>
@@ -19764,7 +19782,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19776,13 +19794,13 @@
         <v>41</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="G14" s="127">
         <v>1</v>
@@ -19812,7 +19830,7 @@
       <c r="U14" s="15"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19824,13 +19842,13 @@
         <v>41</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>1376</v>
+        <v>1403</v>
       </c>
       <c r="G15" s="127">
         <v>1</v>
@@ -19860,7 +19878,7 @@
       <c r="U15" s="15"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19872,13 +19890,13 @@
         <v>41</v>
       </c>
       <c r="D16" s="15" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>1384</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>1385</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>1386</v>
       </c>
       <c r="G16" s="127">
         <v>1</v>
@@ -19908,7 +19926,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19920,13 +19938,13 @@
         <v>41</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>1371</v>
+        <v>1401</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>1372</v>
+        <v>1402</v>
       </c>
       <c r="G17" s="127">
         <v>1</v>
@@ -19956,7 +19974,7 @@
       <c r="U17" s="15"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
@@ -19968,10 +19986,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>1388</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>1389</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>956</v>
@@ -24833,7 +24851,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>1351</v>
@@ -24865,7 +24883,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>1351</v>
@@ -24897,7 +24915,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>1351</v>
@@ -24929,7 +24947,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>1351</v>
@@ -24961,7 +24979,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>1351</v>
@@ -24993,7 +25011,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>1351</v>
@@ -25025,7 +25043,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>1351</v>
@@ -25048,7 +25066,7 @@
         <v>259</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="35" customFormat="1" ht="20" customHeight="1">
@@ -25060,7 +25078,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>1351</v>
@@ -25083,7 +25101,7 @@
         <v>259</v>
       </c>
       <c r="R31" s="35" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="35" customFormat="1" ht="20" customHeight="1">
@@ -25095,7 +25113,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>1351</v>
@@ -25118,7 +25136,7 @@
         <v>259</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="35" customFormat="1" ht="20" customHeight="1">
@@ -25207,7 +25225,7 @@
         <v>706</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F35" s="41">
         <v>1</v>
@@ -25238,7 +25256,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>236</v>
@@ -25270,7 +25288,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>271</v>
@@ -25302,10 +25320,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F38" s="41">
         <v>1</v>
@@ -43748,7 +43766,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>627</v>
@@ -43766,7 +43784,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>1247</v>
@@ -49766,7 +49784,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>627</v>
@@ -49783,7 +49801,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>1247</v>
@@ -49905,7 +49923,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E13" s="350" t="s">
         <v>627</v>
@@ -49923,7 +49941,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E14" s="350" t="s">
         <v>1247</v>
@@ -49941,7 +49959,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E15" s="350" t="s">
         <v>627</v>
@@ -49959,7 +49977,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E16" s="350" t="s">
         <v>1247</v>
@@ -49977,7 +49995,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E17" s="350" t="s">
         <v>627</v>
@@ -49995,7 +50013,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E18" s="350" t="s">
         <v>627</v>
@@ -50013,7 +50031,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E19" s="350" t="s">
         <v>627</v>
@@ -50031,7 +50049,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E20" s="350" t="s">
         <v>627</v>
@@ -50049,7 +50067,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E21" s="350" t="s">
         <v>627</v>
@@ -50067,7 +50085,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E22" s="350" t="s">
         <v>1247</v>
@@ -50085,7 +50103,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E23" s="350" t="s">
         <v>627</v>
@@ -50103,7 +50121,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E24" s="350" t="s">
         <v>1247</v>
@@ -50121,7 +50139,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E25" s="350" t="s">
         <v>1247</v>
@@ -50139,7 +50157,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E26" s="350" t="s">
         <v>627</v>
@@ -50157,7 +50175,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E27" s="350" t="s">
         <v>1247</v>
@@ -50175,7 +50193,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E28" s="350" t="s">
         <v>627</v>
@@ -50193,7 +50211,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E29" s="350" t="s">
         <v>1247</v>
@@ -54410,7 +54428,7 @@
       </c>
       <c r="B16" s="83"/>
       <c r="C16" s="35" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="10" t="s">
@@ -55765,8 +55783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -56989,7 +57007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO234"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -57887,10 +57905,10 @@
         <v>41</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>1396</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>1397</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="10" t="s">

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/BEFTA_Master_Definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/hmcts/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D084F-133B-B843-ADD1-609C0B29D456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDE765-5B44-B14D-8BB7-580485569908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="76800" windowHeight="42740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11609" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11618" uniqueCount="1407">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -4360,6 +4360,15 @@
   </si>
   <si>
     <t>Update a case midevent System TTL</t>
+  </si>
+  <si>
+    <t>createCaseInjectedData</t>
+  </si>
+  <si>
+    <t>An event with injected data</t>
+  </si>
+  <si>
+    <t>Create case injected data</t>
   </si>
 </sst>
 </file>
@@ -4372,7 +4381,7 @@
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="62">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4739,8 +4748,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4861,8 +4882,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4880,6 +4907,36 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4903,7 +4960,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5870,6 +5927,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="61" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11486,8 +11567,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:W110" totalsRowShown="0" headerRowDxfId="215" dataDxfId="213" headerRowBorderDxfId="214" tableBorderDxfId="212" totalsRowBorderDxfId="211">
-  <autoFilter ref="A3:W110" xr:uid="{3C2856EB-06E3-4E47-A9E1-F995066A5408}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E477A732-1DEE-F046-8ECD-8D2F086ABA9E}" name="Table10" displayName="Table10" ref="A3:W111" totalsRowShown="0" headerRowDxfId="215" dataDxfId="213" headerRowBorderDxfId="214" tableBorderDxfId="212" totalsRowBorderDxfId="211">
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{A9949271-C952-5B4E-BDD4-4AFFF2D8614D}" name="LiveFrom" dataDxfId="210"/>
     <tableColumn id="2" xr3:uid="{D137D6E5-6C3F-A546-91A2-6E5E88E5BD8A}" name="LiveTo" dataDxfId="209"/>
@@ -13445,8 +13525,8 @@
   <dimension ref="A1:CR116"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -19098,11 +19178,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W110"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -19115,7 +19195,8 @@
     <col min="6" max="6" width="45.5" style="16" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" style="16" customWidth="1"/>
-    <col min="9" max="10" width="25.6640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="16" customWidth="1"/>
     <col min="11" max="11" width="61.6640625" style="16" customWidth="1"/>
     <col min="12" max="12" width="29.83203125" style="16" customWidth="1"/>
     <col min="13" max="13" width="33.83203125" style="16" customWidth="1"/>
@@ -23382,46 +23463,48 @@
       <c r="A95" s="13">
         <v>42736</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>956</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>956</v>
-      </c>
-      <c r="G95" s="127">
+      <c r="B95" s="352"/>
+      <c r="C95" s="353" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="353" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E95" s="353" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F95" s="353" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G95" s="354">
         <v>1</v>
       </c>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10" t="s">
+      <c r="H95" s="353"/>
+      <c r="I95" s="355" t="s">
         <v>888</v>
       </c>
-      <c r="J95" s="10"/>
-      <c r="K95" s="144"/>
-      <c r="L95" s="144"/>
-      <c r="M95" s="144"/>
-      <c r="N95" s="144"/>
-      <c r="O95" s="144"/>
-      <c r="P95" s="144"/>
-      <c r="Q95" s="10" t="s">
+      <c r="J95" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K95" s="356"/>
+      <c r="L95" s="357"/>
+      <c r="M95" s="357"/>
+      <c r="N95" s="357"/>
+      <c r="O95" s="357"/>
+      <c r="P95" s="357"/>
+      <c r="Q95" s="355" t="s">
         <v>45</v>
       </c>
-      <c r="R95" s="10" t="s">
+      <c r="R95" s="355" t="s">
         <v>259</v>
       </c>
-      <c r="S95" s="41"/>
-      <c r="T95" s="41" t="s">
+      <c r="S95" s="358"/>
+      <c r="T95" s="358" t="s">
         <v>255</v>
       </c>
-      <c r="U95" s="10"/>
-      <c r="V95" s="10"/>
-      <c r="W95" s="10"/>
+      <c r="U95" s="355"/>
+      <c r="V95" s="355"/>
+      <c r="W95" s="359"/>
     </row>
     <row r="96" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
       <c r="A96" s="13">
@@ -23432,22 +23515,20 @@
         <v>124</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G96" s="127">
         <v>1</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="10"/>
+      <c r="I96" s="10" t="s">
         <v>888</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>890</v>
       </c>
       <c r="J96" s="10"/>
       <c r="K96" s="144"/>
@@ -23479,27 +23560,27 @@
         <v>124</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>1068</v>
+        <v>1015</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>1069</v>
+        <v>958</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>1069</v>
+        <v>958</v>
       </c>
       <c r="G97" s="127">
         <v>1</v>
       </c>
-      <c r="H97" s="10"/>
+      <c r="H97" s="10" t="s">
+        <v>888</v>
+      </c>
       <c r="I97" s="10" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="J97" s="10"/>
       <c r="K97" s="144"/>
       <c r="L97" s="144"/>
-      <c r="M97" s="144" t="s">
-        <v>1070</v>
-      </c>
+      <c r="M97" s="144"/>
       <c r="N97" s="144"/>
       <c r="O97" s="144"/>
       <c r="P97" s="144"/>
@@ -23517,49 +23598,52 @@
       <c r="V97" s="10"/>
       <c r="W97" s="10"/>
     </row>
-    <row r="98" spans="1:23" s="77" customFormat="1" ht="20" customHeight="1">
-      <c r="A98" s="73">
-        <v>42736</v>
-      </c>
-      <c r="B98" s="73"/>
-      <c r="C98" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D98" s="76" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E98" s="76" t="s">
-        <v>956</v>
-      </c>
-      <c r="F98" s="76" t="s">
-        <v>956</v>
-      </c>
-      <c r="G98" s="141">
+    <row r="98" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A98" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G98" s="127">
         <v>1</v>
       </c>
-      <c r="H98" s="76"/>
-      <c r="I98" s="76" t="s">
+      <c r="H98" s="10"/>
+      <c r="I98" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="J98" s="76"/>
-      <c r="K98" s="146"/>
-      <c r="L98" s="146"/>
-      <c r="M98" s="146"/>
-      <c r="N98" s="146"/>
-      <c r="O98" s="146"/>
-      <c r="P98" s="146"/>
-      <c r="Q98" s="76" t="s">
+      <c r="J98" s="10"/>
+      <c r="K98" s="144"/>
+      <c r="L98" s="144"/>
+      <c r="M98" s="144" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N98" s="144"/>
+      <c r="O98" s="144"/>
+      <c r="P98" s="144"/>
+      <c r="Q98" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R98" s="76" t="s">
+      <c r="R98" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="T98" s="77" t="s">
+      <c r="S98" s="41"/>
+      <c r="T98" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="U98" s="76"/>
-      <c r="V98" s="76"/>
-      <c r="W98" s="76"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
     </row>
     <row r="99" spans="1:23" s="77" customFormat="1" ht="20" customHeight="1">
       <c r="A99" s="73">
@@ -23569,23 +23653,21 @@
       <c r="C99" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D99" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E99" s="74" t="s">
-        <v>958</v>
-      </c>
-      <c r="F99" s="74" t="s">
-        <v>958</v>
+      <c r="D99" s="76" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E99" s="76" t="s">
+        <v>956</v>
+      </c>
+      <c r="F99" s="76" t="s">
+        <v>956</v>
       </c>
       <c r="G99" s="141">
         <v>1</v>
       </c>
-      <c r="H99" s="74" t="s">
-        <v>984</v>
-      </c>
-      <c r="I99" s="74" t="s">
-        <v>984</v>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76" t="s">
+        <v>888</v>
       </c>
       <c r="J99" s="76"/>
       <c r="K99" s="146"/>
@@ -23613,23 +23695,25 @@
       </c>
       <c r="B100" s="73"/>
       <c r="C100" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="D100" s="76" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E100" s="76" t="s">
-        <v>956</v>
-      </c>
-      <c r="F100" s="76" t="s">
-        <v>956</v>
+        <v>126</v>
+      </c>
+      <c r="D100" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E100" s="74" t="s">
+        <v>958</v>
+      </c>
+      <c r="F100" s="74" t="s">
+        <v>958</v>
       </c>
       <c r="G100" s="141">
         <v>1</v>
       </c>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76" t="s">
-        <v>888</v>
+      <c r="H100" s="74" t="s">
+        <v>984</v>
+      </c>
+      <c r="I100" s="74" t="s">
+        <v>984</v>
       </c>
       <c r="J100" s="76"/>
       <c r="K100" s="146"/>
@@ -23659,23 +23743,21 @@
       <c r="C101" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E101" s="74" t="s">
-        <v>958</v>
-      </c>
-      <c r="F101" s="74" t="s">
-        <v>958</v>
+      <c r="D101" s="76" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E101" s="76" t="s">
+        <v>956</v>
+      </c>
+      <c r="F101" s="76" t="s">
+        <v>956</v>
       </c>
       <c r="G101" s="141">
         <v>1</v>
       </c>
-      <c r="H101" s="74" t="s">
-        <v>984</v>
-      </c>
-      <c r="I101" s="74" t="s">
-        <v>984</v>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76" t="s">
+        <v>888</v>
       </c>
       <c r="J101" s="76"/>
       <c r="K101" s="146"/>
@@ -23703,23 +23785,25 @@
       </c>
       <c r="B102" s="73"/>
       <c r="C102" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="D102" s="76" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E102" s="76" t="s">
-        <v>956</v>
-      </c>
-      <c r="F102" s="76" t="s">
-        <v>956</v>
+        <v>128</v>
+      </c>
+      <c r="D102" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E102" s="74" t="s">
+        <v>958</v>
+      </c>
+      <c r="F102" s="74" t="s">
+        <v>958</v>
       </c>
       <c r="G102" s="141">
         <v>1</v>
       </c>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76" t="s">
-        <v>888</v>
+      <c r="H102" s="74" t="s">
+        <v>984</v>
+      </c>
+      <c r="I102" s="74" t="s">
+        <v>984</v>
       </c>
       <c r="J102" s="76"/>
       <c r="K102" s="146"/>
@@ -23749,23 +23833,21 @@
       <c r="C103" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="D103" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E103" s="74" t="s">
-        <v>958</v>
-      </c>
-      <c r="F103" s="74" t="s">
-        <v>958</v>
+      <c r="D103" s="76" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E103" s="76" t="s">
+        <v>956</v>
+      </c>
+      <c r="F103" s="76" t="s">
+        <v>956</v>
       </c>
       <c r="G103" s="141">
         <v>1</v>
       </c>
-      <c r="H103" s="74" t="s">
-        <v>984</v>
-      </c>
-      <c r="I103" s="74" t="s">
-        <v>984</v>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76" t="s">
+        <v>888</v>
       </c>
       <c r="J103" s="76"/>
       <c r="K103" s="146"/>
@@ -23787,72 +23869,93 @@
       <c r="V103" s="76"/>
       <c r="W103" s="76"/>
     </row>
-    <row r="104" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
-      <c r="A104" s="13">
+    <row r="104" spans="1:23" s="77" customFormat="1" ht="20" customHeight="1">
+      <c r="A104" s="73">
+        <v>42736</v>
+      </c>
+      <c r="B104" s="73"/>
+      <c r="C104" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E104" s="74" t="s">
+        <v>958</v>
+      </c>
+      <c r="F104" s="74" t="s">
+        <v>958</v>
+      </c>
+      <c r="G104" s="141">
+        <v>1</v>
+      </c>
+      <c r="H104" s="74" t="s">
+        <v>984</v>
+      </c>
+      <c r="I104" s="74" t="s">
+        <v>984</v>
+      </c>
+      <c r="J104" s="76"/>
+      <c r="K104" s="146"/>
+      <c r="L104" s="146"/>
+      <c r="M104" s="146"/>
+      <c r="N104" s="146"/>
+      <c r="O104" s="146"/>
+      <c r="P104" s="146"/>
+      <c r="Q104" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="R104" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="T104" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="U104" s="76"/>
+      <c r="V104" s="76"/>
+      <c r="W104" s="76"/>
+    </row>
+    <row r="105" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A105" s="13">
         <v>42737</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="15" t="s">
+      <c r="B105" s="13"/>
+      <c r="C105" s="15" t="s">
         <v>1334</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D105" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F105" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="G104" s="127">
+      <c r="G105" s="127">
         <v>1</v>
       </c>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10" t="s">
+      <c r="H105" s="10"/>
+      <c r="I105" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="144"/>
-      <c r="L104" s="144"/>
-      <c r="M104" s="144"/>
-      <c r="N104" s="144"/>
-      <c r="O104" s="144"/>
-      <c r="P104" s="144"/>
-      <c r="Q104" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R104" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="S104" s="41"/>
-      <c r="T104" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="U104" s="10"/>
-      <c r="V104" s="10"/>
-      <c r="W104" s="10"/>
-    </row>
-    <row r="105" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="127"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="147"/>
+      <c r="K105" s="144"/>
       <c r="L105" s="144"/>
       <c r="M105" s="144"/>
       <c r="N105" s="144"/>
       <c r="O105" s="144"/>
       <c r="P105" s="144"/>
-      <c r="Q105" s="10"/>
-      <c r="R105" s="10"/>
+      <c r="Q105" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R105" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="S105" s="41"/>
-      <c r="T105" s="41"/>
+      <c r="T105" s="41" t="s">
+        <v>255</v>
+      </c>
       <c r="U105" s="10"/>
       <c r="V105" s="10"/>
       <c r="W105" s="10"/>
@@ -23981,6 +24084,31 @@
       <c r="U110" s="10"/>
       <c r="V110" s="10"/>
       <c r="W110" s="10"/>
+    </row>
+    <row r="111" spans="1:23" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="127"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="147"/>
+      <c r="L111" s="144"/>
+      <c r="M111" s="144"/>
+      <c r="N111" s="144"/>
+      <c r="O111" s="144"/>
+      <c r="P111" s="144"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="41"/>
+      <c r="T111" s="41"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -55785,7 +55913,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -57007,9 +57135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO234"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P200" sqref="P200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -66215,8 +66343,8 @@
   <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
